--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t xml:space="preserve">O D E L P A </t>
+  </si>
+  <si>
+    <t>ENERO.,2022</t>
   </si>
 </sst>
 </file>
@@ -475,20 +478,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -583,6 +574,19 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -873,370 +877,339 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="16"/>
+    <col min="1" max="1" width="14.5703125" style="12" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="6" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="40">
-        <v>44567</v>
-      </c>
-      <c r="B6" s="45">
+    <row r="6" spans="1:13" s="30" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="41">
+        <v>986</v>
+      </c>
+      <c r="C6" s="38">
+        <v>238</v>
+      </c>
+      <c r="D6" s="41">
         <v>0</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="45">
-        <v>0</v>
-      </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="45">
-        <v>0</v>
-      </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="46">
-        <v>0</v>
-      </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="46">
-        <v>0</v>
-      </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="44">
+      <c r="E6" s="38"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="42">
+        <v>1856</v>
+      </c>
+      <c r="I6" s="38">
+        <v>241</v>
+      </c>
+      <c r="J6" s="42"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="40">
         <v>1392</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="39">
         <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
-        <v>44573</v>
-      </c>
-      <c r="B7" s="20">
-        <v>986</v>
-      </c>
-      <c r="C7" s="22">
-        <v>238</v>
-      </c>
-      <c r="D7" s="35">
-        <v>0</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="36">
-        <v>0</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="25">
-        <v>0</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="25">
-        <v>0</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="25">
-        <v>0</v>
-      </c>
-      <c r="M7" s="32"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="28"/>
     </row>
     <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>44574</v>
-      </c>
-      <c r="B8" s="21">
-        <v>0</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="29">
-        <v>0</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="28">
-        <v>0</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="26">
-        <v>1856</v>
-      </c>
-      <c r="I8" s="30">
-        <v>241</v>
-      </c>
-      <c r="J8" s="26">
-        <v>0</v>
-      </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="26">
-        <v>0</v>
-      </c>
-      <c r="M8" s="33"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="33"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="33"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="33"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="33"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="29"/>
     </row>
     <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="33"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="33"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="33"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="33"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="29"/>
     </row>
     <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="33"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="29"/>
     </row>
     <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="33"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="29"/>
     </row>
     <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="33"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="33"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="33"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="29"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H22" s="27"/>
+      <c r="H22" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -574,6 +574,7 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -586,7 +587,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -877,7 +877,7 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -892,22 +892,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1019,7 +1019,7 @@
       <c r="C9" s="19"/>
       <c r="D9" s="25"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="47"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="20"/>
       <c r="H9" s="22"/>
       <c r="I9" s="26"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>ENERO.,2022</t>
+  </si>
+  <si>
+    <t>FEBRERO.,2022</t>
   </si>
 </sst>
 </file>
@@ -117,7 +120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +169,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -478,7 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -498,9 +507,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -527,7 +533,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -539,16 +544,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,6 +586,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -596,6 +627,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FFFF9900"/>
       <color rgb="FF66CCFF"/>
     </mruColors>
@@ -877,51 +909,54 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="11" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="44"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="44" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="44"/>
+    <col min="10" max="10" width="13.28515625" style="44" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -936,280 +971,298 @@
       <c r="H5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="51" t="s">
         <v>9</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="30" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:13" s="27" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="37">
         <v>986</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="35">
         <v>238</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="37">
         <v>0</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="42">
+      <c r="E6" s="34"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="38">
         <v>1856</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="35">
         <v>241</v>
       </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="40">
+      <c r="J6" s="37"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="36">
         <v>1392</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="35">
         <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="28"/>
+      <c r="A7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="15">
+        <v>986</v>
+      </c>
+      <c r="C7" s="17">
+        <v>261</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="48">
+        <v>44616</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="49">
+        <v>44609</v>
+      </c>
+      <c r="H7" s="19">
+        <v>1856</v>
+      </c>
+      <c r="I7" s="30">
+        <v>260</v>
+      </c>
+      <c r="J7" s="52">
+        <v>44611</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="47">
+        <v>44604</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="29"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="29"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="29"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="26"/>
     </row>
     <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="29"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="29"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="26"/>
     </row>
     <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="29"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="26"/>
     </row>
     <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="29"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="26"/>
     </row>
     <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="29"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="26"/>
     </row>
     <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="29"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="26"/>
     </row>
     <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="29"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="26"/>
     </row>
     <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="29"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="26"/>
     </row>
     <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="29"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="26"/>
     </row>
     <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="29"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="26"/>
     </row>
     <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="29"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="26"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H22" s="23"/>
+      <c r="H22" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -576,18 +576,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,9 +583,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -616,6 +601,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -908,41 +908,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="11" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="44"/>
+    <col min="3" max="3" width="11.42578125" style="40"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="44" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="40" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="44"/>
-    <col min="10" max="10" width="13.28515625" style="44" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="40"/>
+    <col min="10" max="10" width="13.28515625" style="40" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -953,7 +953,7 @@
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="42" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -971,10 +971,10 @@
       <c r="H5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="51" t="s">
+      <c r="J5" s="46" t="s">
         <v>9</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -1029,11 +1029,11 @@
         <v>261</v>
       </c>
       <c r="D7" s="28"/>
-      <c r="E7" s="48">
+      <c r="E7" s="43">
         <v>44616</v>
       </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="49">
+      <c r="G7" s="44">
         <v>44609</v>
       </c>
       <c r="H7" s="19">
@@ -1042,13 +1042,15 @@
       <c r="I7" s="30">
         <v>260</v>
       </c>
-      <c r="J7" s="52">
+      <c r="J7" s="47">
         <v>44611</v>
       </c>
       <c r="K7" s="31"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="47">
-        <v>44604</v>
+      <c r="L7" s="19">
+        <v>1392</v>
+      </c>
+      <c r="M7" s="53">
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1058,10 +1060,10 @@
       <c r="D8" s="23"/>
       <c r="E8" s="18"/>
       <c r="F8" s="22"/>
-      <c r="G8" s="50"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="20"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="53"/>
+      <c r="J8" s="48"/>
       <c r="K8" s="25"/>
       <c r="L8" s="20"/>
       <c r="M8" s="26"/>
@@ -1073,10 +1075,10 @@
       <c r="D9" s="23"/>
       <c r="E9" s="18"/>
       <c r="F9" s="39"/>
-      <c r="G9" s="50"/>
+      <c r="G9" s="45"/>
       <c r="H9" s="20"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="53"/>
+      <c r="J9" s="48"/>
       <c r="K9" s="25"/>
       <c r="L9" s="20"/>
       <c r="M9" s="26"/>
@@ -1088,10 +1090,10 @@
       <c r="D10" s="23"/>
       <c r="E10" s="18"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="50"/>
+      <c r="G10" s="45"/>
       <c r="H10" s="20"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="53"/>
+      <c r="J10" s="48"/>
       <c r="K10" s="25"/>
       <c r="L10" s="20"/>
       <c r="M10" s="26"/>
@@ -1103,10 +1105,10 @@
       <c r="D11" s="23"/>
       <c r="E11" s="18"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="50"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="20"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="53"/>
+      <c r="J11" s="48"/>
       <c r="K11" s="25"/>
       <c r="L11" s="20"/>
       <c r="M11" s="26"/>
@@ -1118,10 +1120,10 @@
       <c r="D12" s="23"/>
       <c r="E12" s="18"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="50"/>
+      <c r="G12" s="45"/>
       <c r="H12" s="20"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="53"/>
+      <c r="J12" s="48"/>
       <c r="K12" s="25"/>
       <c r="L12" s="20"/>
       <c r="M12" s="26"/>
@@ -1133,10 +1135,10 @@
       <c r="D13" s="23"/>
       <c r="E13" s="18"/>
       <c r="F13" s="22"/>
-      <c r="G13" s="50"/>
+      <c r="G13" s="45"/>
       <c r="H13" s="20"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="53"/>
+      <c r="J13" s="48"/>
       <c r="K13" s="25"/>
       <c r="L13" s="20"/>
       <c r="M13" s="26"/>
@@ -1148,10 +1150,10 @@
       <c r="D14" s="23"/>
       <c r="E14" s="18"/>
       <c r="F14" s="22"/>
-      <c r="G14" s="50"/>
+      <c r="G14" s="45"/>
       <c r="H14" s="20"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="53"/>
+      <c r="J14" s="48"/>
       <c r="K14" s="25"/>
       <c r="L14" s="20"/>
       <c r="M14" s="26"/>
@@ -1163,10 +1165,10 @@
       <c r="D15" s="23"/>
       <c r="E15" s="18"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="50"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="20"/>
       <c r="I15" s="24"/>
-      <c r="J15" s="53"/>
+      <c r="J15" s="48"/>
       <c r="K15" s="25"/>
       <c r="L15" s="20"/>
       <c r="M15" s="26"/>
@@ -1178,10 +1180,10 @@
       <c r="D16" s="23"/>
       <c r="E16" s="18"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="50"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="20"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="53"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="25"/>
       <c r="L16" s="20"/>
       <c r="M16" s="26"/>
@@ -1193,10 +1195,10 @@
       <c r="D17" s="23"/>
       <c r="E17" s="18"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="20"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="53"/>
+      <c r="J17" s="48"/>
       <c r="K17" s="25"/>
       <c r="L17" s="20"/>
       <c r="M17" s="26"/>
@@ -1208,10 +1210,10 @@
       <c r="D18" s="23"/>
       <c r="E18" s="18"/>
       <c r="F18" s="22"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="20"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="53"/>
+      <c r="J18" s="48"/>
       <c r="K18" s="25"/>
       <c r="L18" s="20"/>
       <c r="M18" s="26"/>
@@ -1223,10 +1225,10 @@
       <c r="D19" s="23"/>
       <c r="E19" s="18"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="50"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="20"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="53"/>
+      <c r="J19" s="48"/>
       <c r="K19" s="25"/>
       <c r="L19" s="20"/>
       <c r="M19" s="26"/>
@@ -1238,10 +1240,10 @@
       <c r="D20" s="23"/>
       <c r="E20" s="18"/>
       <c r="F20" s="22"/>
-      <c r="G20" s="50"/>
+      <c r="G20" s="45"/>
       <c r="H20" s="20"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="53"/>
+      <c r="J20" s="48"/>
       <c r="K20" s="25"/>
       <c r="L20" s="20"/>
       <c r="M20" s="26"/>
@@ -1253,10 +1255,10 @@
       <c r="D21" s="23"/>
       <c r="E21" s="18"/>
       <c r="F21" s="22"/>
-      <c r="G21" s="50"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="20"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="53"/>
+      <c r="J21" s="48"/>
       <c r="K21" s="25"/>
       <c r="L21" s="20"/>
       <c r="M21" s="26"/>
@@ -1270,5 +1272,6 @@
     <mergeCell ref="C2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -73,7 +73,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-C0A]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,8 +119,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,12 +208,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -487,29 +520,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -527,43 +549,15 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -579,27 +573,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -615,7 +591,70 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -627,6 +666,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF0066FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFFF9900"/>
       <color rgb="FF66CCFF"/>
@@ -908,363 +949,382 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="40"/>
+    <col min="3" max="3" width="11.42578125" style="36"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="40"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="36" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="40"/>
-    <col min="10" max="10" width="13.28515625" style="40" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="36"/>
+    <col min="10" max="10" width="13.28515625" style="25" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="40"/>
     <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="40"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="7"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="53" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="27" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:13" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="22">
         <v>986</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="34">
         <v>238</v>
       </c>
-      <c r="D6" s="37">
-        <v>0</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="38">
+      <c r="D6" s="22">
+        <v>1392</v>
+      </c>
+      <c r="E6" s="34">
+        <v>251</v>
+      </c>
+      <c r="F6" s="22">
         <v>1856</v>
       </c>
-      <c r="I6" s="35">
+      <c r="G6" s="44">
+        <v>248</v>
+      </c>
+      <c r="H6" s="23">
+        <v>1856</v>
+      </c>
+      <c r="I6" s="48">
         <v>241</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="36">
+      <c r="J6" s="22">
         <v>1392</v>
       </c>
-      <c r="M6" s="35">
+      <c r="K6" s="48">
+        <v>250</v>
+      </c>
+      <c r="L6" s="21">
+        <v>1392</v>
+      </c>
+      <c r="M6" s="34">
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="10">
         <v>986</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="38">
         <v>261</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="43">
-        <v>44616</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="44">
-        <v>44609</v>
-      </c>
-      <c r="H7" s="19">
+      <c r="D7" s="18">
+        <v>1392</v>
+      </c>
+      <c r="E7" s="35">
+        <v>276</v>
+      </c>
+      <c r="F7" s="19">
         <v>1856</v>
       </c>
-      <c r="I7" s="30">
+      <c r="G7" s="45">
+        <v>267</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1856</v>
+      </c>
+      <c r="I7" s="49">
         <v>260</v>
       </c>
-      <c r="J7" s="47">
-        <v>44611</v>
-      </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="19">
+      <c r="J7" s="33">
         <v>1392</v>
       </c>
-      <c r="M7" s="53">
+      <c r="K7" s="51">
+        <v>268</v>
+      </c>
+      <c r="L7" s="12">
+        <v>1392</v>
+      </c>
+      <c r="M7" s="54">
         <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="26"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="55"/>
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="26"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="55"/>
     </row>
     <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="26"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="55"/>
     </row>
     <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="26"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="26"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="55"/>
     </row>
     <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="26"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="55"/>
     </row>
     <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="26"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="55"/>
     </row>
     <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="26"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="55"/>
     </row>
     <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="26"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="55"/>
     </row>
     <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="26"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="55"/>
     </row>
     <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="26"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="55"/>
     </row>
     <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="26"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="55"/>
     </row>
     <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="26"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="55"/>
     </row>
     <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="26"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H22" s="21"/>
+      <c r="H22" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>FEBRERO.,2022</t>
+  </si>
+  <si>
+    <t>MARZO.,2022</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +211,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -520,7 +529,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -579,18 +588,6 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,6 +654,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -949,45 +959,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="36"/>
+    <col min="3" max="3" width="11.42578125" style="32"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="40"/>
+    <col min="5" max="5" width="11.42578125" style="36"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="32" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="36"/>
+    <col min="9" max="9" width="11.42578125" style="32"/>
     <col min="10" max="10" width="13.28515625" style="25" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="40"/>
+    <col min="11" max="11" width="11.42578125" style="36"/>
     <col min="12" max="12" width="14.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="40"/>
+    <col min="13" max="13" width="11.42578125" style="36"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="42"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -997,37 +1007,37 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="33" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="37" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="39" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="43" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="53" t="s">
+      <c r="M5" s="49" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1038,37 +1048,37 @@
       <c r="B6" s="22">
         <v>986</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="30">
         <v>238</v>
       </c>
       <c r="D6" s="22">
         <v>1392</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="30">
         <v>251</v>
       </c>
       <c r="F6" s="22">
         <v>1856</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="40">
         <v>248</v>
       </c>
       <c r="H6" s="23">
         <v>1856</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="44">
         <v>241</v>
       </c>
       <c r="J6" s="22">
         <v>1392</v>
       </c>
-      <c r="K6" s="48">
+      <c r="K6" s="44">
         <v>250</v>
       </c>
       <c r="L6" s="21">
         <v>1392</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="30">
         <v>231</v>
       </c>
     </row>
@@ -1079,249 +1089,255 @@
       <c r="B7" s="10">
         <v>986</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="34">
         <v>261</v>
       </c>
       <c r="D7" s="18">
         <v>1392</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="31">
         <v>276</v>
       </c>
       <c r="F7" s="19">
         <v>1856</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="41">
         <v>267</v>
       </c>
       <c r="H7" s="12">
         <v>1856</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="45">
         <v>260</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="29">
         <v>1392</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="47">
         <v>268</v>
       </c>
       <c r="L7" s="12">
         <v>1392</v>
       </c>
-      <c r="M7" s="54">
+      <c r="M7" s="50">
         <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="B8" s="11"/>
-      <c r="C8" s="39"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="39"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="50"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="56">
+        <v>2726</v>
+      </c>
+      <c r="I8" s="46">
+        <v>6281</v>
+      </c>
       <c r="J8" s="27"/>
-      <c r="K8" s="52"/>
+      <c r="K8" s="48"/>
       <c r="L8" s="13"/>
-      <c r="M8" s="55"/>
+      <c r="M8" s="51"/>
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="39"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="39"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="46"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="50"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="27"/>
-      <c r="K9" s="52"/>
+      <c r="K9" s="48"/>
       <c r="L9" s="13"/>
-      <c r="M9" s="55"/>
+      <c r="M9" s="51"/>
     </row>
     <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="39"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="39"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="46"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="50"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="27"/>
-      <c r="K10" s="52"/>
+      <c r="K10" s="48"/>
       <c r="L10" s="13"/>
-      <c r="M10" s="55"/>
+      <c r="M10" s="51"/>
     </row>
     <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="39"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="39"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="46"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="50"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="27"/>
-      <c r="K11" s="52"/>
+      <c r="K11" s="48"/>
       <c r="L11" s="13"/>
-      <c r="M11" s="55"/>
+      <c r="M11" s="51"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="39"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="39"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="46"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="50"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="27"/>
-      <c r="K12" s="52"/>
+      <c r="K12" s="48"/>
       <c r="L12" s="13"/>
-      <c r="M12" s="55"/>
+      <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="39"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="39"/>
+      <c r="E13" s="35"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="46"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="50"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="27"/>
-      <c r="K13" s="52"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="13"/>
-      <c r="M13" s="55"/>
+      <c r="M13" s="51"/>
     </row>
     <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="39"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="39"/>
+      <c r="E14" s="35"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="46"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="27"/>
-      <c r="K14" s="52"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="13"/>
-      <c r="M14" s="55"/>
+      <c r="M14" s="51"/>
     </row>
     <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="39"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="39"/>
+      <c r="E15" s="35"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="46"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="50"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="27"/>
-      <c r="K15" s="52"/>
+      <c r="K15" s="48"/>
       <c r="L15" s="13"/>
-      <c r="M15" s="55"/>
+      <c r="M15" s="51"/>
     </row>
     <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="39"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="39"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="46"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="50"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="27"/>
-      <c r="K16" s="52"/>
+      <c r="K16" s="48"/>
       <c r="L16" s="13"/>
-      <c r="M16" s="55"/>
+      <c r="M16" s="51"/>
     </row>
     <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="39"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="39"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="46"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="50"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="27"/>
-      <c r="K17" s="52"/>
+      <c r="K17" s="48"/>
       <c r="L17" s="13"/>
-      <c r="M17" s="55"/>
+      <c r="M17" s="51"/>
     </row>
     <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="39"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="39"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="46"/>
+      <c r="G18" s="42"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="50"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="27"/>
-      <c r="K18" s="52"/>
+      <c r="K18" s="48"/>
       <c r="L18" s="13"/>
-      <c r="M18" s="55"/>
+      <c r="M18" s="51"/>
     </row>
     <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="39"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="39"/>
+      <c r="E19" s="35"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="46"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="50"/>
+      <c r="I19" s="46"/>
       <c r="J19" s="27"/>
-      <c r="K19" s="52"/>
+      <c r="K19" s="48"/>
       <c r="L19" s="13"/>
-      <c r="M19" s="55"/>
+      <c r="M19" s="51"/>
     </row>
     <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="39"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="39"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="46"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="50"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="27"/>
-      <c r="K20" s="52"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="13"/>
-      <c r="M20" s="55"/>
+      <c r="M20" s="51"/>
     </row>
     <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="39"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="16"/>
-      <c r="E21" s="39"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="46"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="50"/>
+      <c r="I21" s="46"/>
       <c r="J21" s="27"/>
-      <c r="K21" s="52"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="13"/>
-      <c r="M21" s="55"/>
+      <c r="M21" s="51"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H22" s="14"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -654,6 +654,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -666,7 +667,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -959,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -981,22 +981,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
       <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1127,13 +1127,17 @@
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="35"/>
+      <c r="B8" s="11">
+        <v>986</v>
+      </c>
+      <c r="C8" s="35">
+        <v>284</v>
+      </c>
       <c r="D8" s="16"/>
       <c r="E8" s="35"/>
       <c r="F8" s="15"/>
       <c r="G8" s="42"/>
-      <c r="H8" s="56">
+      <c r="H8" s="52">
         <v>2726</v>
       </c>
       <c r="I8" s="46">
@@ -1141,8 +1145,12 @@
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="48"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="51"/>
+      <c r="L8" s="13">
+        <v>1392</v>
+      </c>
+      <c r="M8" s="51">
+        <v>287</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -960,7 +960,7 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1135,8 +1135,12 @@
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="35"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="42"/>
+      <c r="F8" s="15">
+        <v>1856</v>
+      </c>
+      <c r="G8" s="42">
+        <v>290</v>
+      </c>
       <c r="H8" s="52">
         <v>2726</v>
       </c>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -960,7 +960,7 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1147,8 +1147,12 @@
       <c r="I8" s="46">
         <v>6281</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="48"/>
+      <c r="J8" s="27">
+        <v>1392</v>
+      </c>
+      <c r="K8" s="48">
+        <v>291</v>
+      </c>
       <c r="L8" s="13">
         <v>1392</v>
       </c>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -959,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1133,8 +1133,12 @@
       <c r="C8" s="35">
         <v>284</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="35"/>
+      <c r="D8" s="16">
+        <v>1392</v>
+      </c>
+      <c r="E8" s="35">
+        <v>299</v>
+      </c>
       <c r="F8" s="15">
         <v>1856</v>
       </c>
@@ -1145,7 +1149,7 @@
         <v>2726</v>
       </c>
       <c r="I8" s="46">
-        <v>6281</v>
+        <v>281</v>
       </c>
       <c r="J8" s="27">
         <v>1392</v>
@@ -1168,8 +1172,12 @@
       <c r="E9" s="35"/>
       <c r="F9" s="24"/>
       <c r="G9" s="42"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="46"/>
+      <c r="H9" s="13">
+        <v>2726</v>
+      </c>
+      <c r="I9" s="46">
+        <v>308</v>
+      </c>
       <c r="J9" s="27"/>
       <c r="K9" s="48"/>
       <c r="L9" s="13"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -66,17 +68,60 @@
   </si>
   <si>
     <t>MARZO.,2022</t>
+  </si>
+  <si>
+    <t>PROGAMA DE FUMIGACION</t>
+  </si>
+  <si>
+    <t>4;30PM</t>
+  </si>
+  <si>
+    <t>4;30  PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norma Ledo          Central </t>
+  </si>
+  <si>
+    <t>5;30   PM</t>
+  </si>
+  <si>
+    <t>5,45   PM</t>
+  </si>
+  <si>
+    <t>Norma Ledo         Almacen</t>
+  </si>
+  <si>
+    <t>5;00   PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABASTOS             Herradura </t>
+  </si>
+  <si>
+    <t>4;00   PM</t>
+  </si>
+  <si>
+    <t>ABASTOS              11 Sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODELPA                 Obrador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABASTOS             Zavaleta </t>
+  </si>
+  <si>
+    <t>ABRIL.,2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-C0A]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +206,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +286,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -529,7 +604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -655,6 +730,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="18" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="18" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -666,6 +775,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -676,11 +791,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66CCFF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF0066FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFFF9900"/>
-      <color rgb="FF66CCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -960,7 +1075,7 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -981,22 +1096,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1165,23 +1280,41 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="11">
+        <v>986</v>
+      </c>
+      <c r="C9" s="35">
+        <v>309</v>
+      </c>
       <c r="D9" s="16"/>
       <c r="E9" s="35"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="42"/>
+      <c r="F9" s="24">
+        <v>1856</v>
+      </c>
+      <c r="G9" s="42">
+        <v>311</v>
+      </c>
       <c r="H9" s="13">
         <v>2726</v>
       </c>
       <c r="I9" s="46">
         <v>308</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="51"/>
+      <c r="J9" s="27">
+        <v>1392</v>
+      </c>
+      <c r="K9" s="48">
+        <v>312</v>
+      </c>
+      <c r="L9" s="13">
+        <v>1392</v>
+      </c>
+      <c r="M9" s="51">
+        <v>310</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
@@ -1374,4 +1507,340 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="56" customWidth="1"/>
+    <col min="9" max="9" width="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="25" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B3" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="I3" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="56"/>
+    </row>
+    <row r="5" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B5" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="72"/>
+      <c r="D5" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="60">
+        <v>44686</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="60">
+        <v>44714</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="55"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="62"/>
+    </row>
+    <row r="7" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="58">
+        <v>44691</v>
+      </c>
+      <c r="F7" s="63"/>
+      <c r="I7" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="58">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="55"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="62"/>
+    </row>
+    <row r="9" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B9" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="60">
+        <v>44693</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="60">
+        <v>44721</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="55"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="62"/>
+    </row>
+    <row r="11" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B11" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="58">
+        <v>44695</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="59">
+        <v>44723</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="55"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="62"/>
+    </row>
+    <row r="13" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B13" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="59">
+        <v>44695</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="60">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="55"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="62"/>
+    </row>
+    <row r="15" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B15" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="60">
+        <v>44700</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="58">
+        <v>44730</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="55"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="55"/>
+    </row>
+    <row r="17" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="62"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="55"/>
+    </row>
+    <row r="18" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="55"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="55"/>
+    </row>
+    <row r="19" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="55"/>
+    </row>
+    <row r="20" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="55"/>
+    </row>
+    <row r="21" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="55"/>
+    </row>
+    <row r="22" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="55"/>
+    </row>
+    <row r="23" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="55"/>
+    </row>
+    <row r="24" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="55"/>
+    </row>
+    <row r="25" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="55"/>
+    </row>
+    <row r="26" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="55"/>
+    </row>
+    <row r="27" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="55"/>
+    </row>
+    <row r="28" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="55"/>
+    </row>
+    <row r="29" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="55"/>
+    </row>
+    <row r="30" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="55"/>
+    </row>
+    <row r="31" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="55"/>
+    </row>
+  </sheetData>
+  <sortState ref="I5:K15">
+    <sortCondition ref="K5:K15"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="PROGRAMACION " sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>ABRIL.,2022</t>
+  </si>
+  <si>
+    <t>MAYO.,2022</t>
+  </si>
+  <si>
+    <t>330-----</t>
   </si>
 </sst>
 </file>
@@ -1072,10 +1078,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1317,15 +1326,25 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="35"/>
+      <c r="A10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>29</v>
+      </c>
       <c r="D10" s="16"/>
       <c r="E10" s="35"/>
       <c r="F10" s="15"/>
       <c r="G10" s="42"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="46"/>
+      <c r="H10" s="13">
+        <v>1856</v>
+      </c>
+      <c r="I10" s="46">
+        <v>331</v>
+      </c>
       <c r="J10" s="27"/>
       <c r="K10" s="48"/>
       <c r="L10" s="13"/>
@@ -1514,7 +1533,7 @@
   <dimension ref="B3:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -115,7 +115,7 @@
     <t>MAYO.,2022</t>
   </si>
   <si>
-    <t>330-----</t>
+    <t>330---------334</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -787,6 +787,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -813,6 +816,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector recto 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2038350" y="2590800"/>
+          <a:ext cx="809625" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1084,7 +1136,7 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1325,20 +1377,24 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="11">
-        <v>0</v>
-      </c>
-      <c r="C10" s="35" t="s">
+        <v>986</v>
+      </c>
+      <c r="C10" s="73" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="35"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="42"/>
+      <c r="F10" s="15">
+        <v>1856</v>
+      </c>
+      <c r="G10" s="42">
+        <v>329</v>
+      </c>
       <c r="H10" s="13">
         <v>1856</v>
       </c>
@@ -1525,6 +1581,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -770,6 +770,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -787,9 +790,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1135,8 +1135,8 @@
   </sheetPr>
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1157,22 +1157,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70"/>
       <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1384,7 +1384,7 @@
       <c r="B10" s="11">
         <v>986</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="67" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="16"/>
@@ -1401,10 +1401,18 @@
       <c r="I10" s="46">
         <v>331</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="51"/>
+      <c r="J10" s="27">
+        <v>1392</v>
+      </c>
+      <c r="K10" s="48">
+        <v>333</v>
+      </c>
+      <c r="L10" s="13">
+        <v>1392</v>
+      </c>
+      <c r="M10" s="51">
+        <v>332</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
@@ -1604,26 +1612,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="I3" s="71" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="I3" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="72"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="54" t="s">
         <v>16</v>
       </c>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -1135,8 +1135,8 @@
   </sheetPr>
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1350,8 +1350,12 @@
       <c r="C9" s="35">
         <v>309</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="35"/>
+      <c r="D9" s="16">
+        <v>1392</v>
+      </c>
+      <c r="E9" s="35">
+        <v>319</v>
+      </c>
       <c r="F9" s="24">
         <v>1856</v>
       </c>
@@ -1387,8 +1391,12 @@
       <c r="C10" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="35"/>
+      <c r="D10" s="16">
+        <v>1392</v>
+      </c>
+      <c r="E10" s="35">
+        <v>342</v>
+      </c>
       <c r="F10" s="15">
         <v>1856</v>
       </c>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>330---------334</t>
+  </si>
+  <si>
+    <t>JUNIO.,2022</t>
   </si>
 </sst>
 </file>
@@ -237,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +301,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -610,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -773,6 +794,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="18" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="13" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -800,6 +835,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC9900"/>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FFCCFF99"/>
       <color rgb="FF66CCFF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF0066FF"/>
@@ -1136,7 +1174,7 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1157,22 +1195,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1423,15 +1461,25 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="35"/>
+      <c r="A11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="11">
+        <v>986</v>
+      </c>
+      <c r="C11" s="35">
+        <v>346</v>
+      </c>
       <c r="D11" s="16"/>
       <c r="E11" s="35"/>
       <c r="F11" s="15"/>
       <c r="G11" s="42"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="46"/>
+      <c r="H11" s="13">
+        <v>1856</v>
+      </c>
+      <c r="I11" s="46">
+        <v>347</v>
+      </c>
       <c r="J11" s="27"/>
       <c r="K11" s="48"/>
       <c r="L11" s="13"/>
@@ -1603,100 +1651,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K31"/>
+  <dimension ref="B3:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="56" customWidth="1"/>
-    <col min="9" max="9" width="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="25" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="56" customWidth="1"/>
+    <col min="15" max="15" width="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" style="25" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B3" s="72" t="s">
+    <row r="3" spans="2:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B3" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="I3" s="72" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="68"/>
+      <c r="H3" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B5" s="73" t="s">
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="O3" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E4" s="56"/>
+      <c r="Q4" s="56"/>
+    </row>
+    <row r="5" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B5" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="73">
+        <v>44747</v>
+      </c>
+      <c r="H5" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="54" t="s">
+      <c r="I5" s="81"/>
+      <c r="J5" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="60">
+      <c r="K5" s="60">
         <v>44686</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="O5" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="P5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="60">
+      <c r="Q5" s="60">
         <v>44714</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="55"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="62"/>
-    </row>
-    <row r="7" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="53" t="s">
+    <row r="6" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="62"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="55"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="62"/>
+    </row>
+    <row r="7" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="60">
+        <v>44748</v>
+      </c>
+      <c r="H7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53" t="s">
+      <c r="I7" s="53"/>
+      <c r="J7" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="58">
+      <c r="K7" s="58">
         <v>44691</v>
       </c>
-      <c r="F7" s="63"/>
-      <c r="I7" s="53" t="s">
+      <c r="L7" s="63"/>
+      <c r="O7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="66" t="s">
+      <c r="P7" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="58">
+      <c r="Q7" s="58">
         <v>44719</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="55"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="62"/>
-    </row>
-    <row r="9" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="62"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="55"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="62"/>
+    </row>
+    <row r="9" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B9" s="53" t="s">
         <v>26</v>
       </c>
@@ -1704,222 +1791,279 @@
       <c r="D9" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="58">
+        <v>44749</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="60">
         <v>44693</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="O9" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="66" t="s">
+      <c r="P9" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="60">
+      <c r="Q9" s="60">
         <v>44721</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="55"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="62"/>
-    </row>
-    <row r="11" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="55"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="62"/>
+    </row>
+    <row r="11" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B11" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="59">
+        <v>44751</v>
+      </c>
+      <c r="H11" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="53" t="s">
+      <c r="I11" s="61"/>
+      <c r="J11" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="58">
+      <c r="K11" s="58">
         <v>44695</v>
       </c>
-      <c r="I11" s="53" t="s">
+      <c r="O11" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="66" t="s">
+      <c r="P11" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="59">
+      <c r="Q11" s="59">
         <v>44723</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="55"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="62"/>
-    </row>
-    <row r="13" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="55"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="62"/>
+    </row>
+    <row r="13" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="53" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="74">
+        <v>44756</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="59">
+      <c r="K13" s="59">
         <v>44695</v>
       </c>
-      <c r="I13" s="53" t="s">
+      <c r="O13" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="66" t="s">
+      <c r="P13" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="60">
+      <c r="Q13" s="60">
         <v>44728</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="55"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="62"/>
-    </row>
-    <row r="15" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="55"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="62"/>
+    </row>
+    <row r="15" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B15" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="75">
+        <v>44758</v>
+      </c>
+      <c r="H15" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53" t="s">
+      <c r="I15" s="53"/>
+      <c r="J15" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="60">
+      <c r="K15" s="60">
         <v>44700</v>
       </c>
-      <c r="I15" s="53" t="s">
+      <c r="O15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="66" t="s">
+      <c r="P15" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="58">
+      <c r="Q15" s="58">
         <v>44730</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B16" s="53"/>
       <c r="C16" s="53"/>
       <c r="D16" s="53"/>
       <c r="E16" s="55"/>
+      <c r="H16" s="53"/>
       <c r="I16" s="53"/>
-      <c r="J16" s="66"/>
+      <c r="J16" s="53"/>
       <c r="K16" s="55"/>
-    </row>
-    <row r="17" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="62"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="55"/>
-    </row>
-    <row r="18" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="55"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="55"/>
+    </row>
+    <row r="17" spans="8:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="62"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="55"/>
+    </row>
+    <row r="18" spans="8:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="H18" s="53"/>
       <c r="I18" s="53"/>
-      <c r="J18" s="66"/>
+      <c r="J18" s="53"/>
       <c r="K18" s="55"/>
-    </row>
-    <row r="19" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="55"/>
-    </row>
-    <row r="20" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="55"/>
-    </row>
-    <row r="21" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="55"/>
-    </row>
-    <row r="22" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="55"/>
-    </row>
-    <row r="23" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="55"/>
-    </row>
-    <row r="24" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="55"/>
-    </row>
-    <row r="25" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="55"/>
-    </row>
-    <row r="26" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="55"/>
-    </row>
-    <row r="27" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="55"/>
-    </row>
-    <row r="28" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="55"/>
-    </row>
-    <row r="29" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="55"/>
-    </row>
-    <row r="30" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="55"/>
-    </row>
-    <row r="31" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="55"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="55"/>
+    </row>
+    <row r="19" spans="8:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="55"/>
+    </row>
+    <row r="20" spans="8:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="55"/>
+    </row>
+    <row r="21" spans="8:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="55"/>
+    </row>
+    <row r="22" spans="8:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="55"/>
+    </row>
+    <row r="23" spans="8:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="55"/>
+    </row>
+    <row r="24" spans="8:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="55"/>
+    </row>
+    <row r="25" spans="8:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="55"/>
+    </row>
+    <row r="26" spans="8:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="55"/>
+    </row>
+    <row r="27" spans="8:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="55"/>
+    </row>
+    <row r="28" spans="8:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="55"/>
+    </row>
+    <row r="29" spans="8:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="55"/>
+    </row>
+    <row r="30" spans="8:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="55"/>
+    </row>
+    <row r="31" spans="8:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="55"/>
     </row>
   </sheetData>
-  <sortState ref="I5:K15">
-    <sortCondition ref="K5:K15"/>
+  <sortState ref="B5:E15">
+    <sortCondition ref="E5:E15"/>
   </sortState>
-  <mergeCells count="3">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I3:K3"/>
+  <mergeCells count="4">
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -1173,8 +1173,8 @@
   </sheetPr>
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1482,8 +1482,12 @@
       </c>
       <c r="J11" s="27"/>
       <c r="K11" s="48"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="51"/>
+      <c r="L11" s="13">
+        <v>1392</v>
+      </c>
+      <c r="M11" s="51">
+        <v>349</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
@@ -1173,7 +1173,7 @@
   </sheetPr>
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -1657,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,14 +1699,14 @@
       <c r="Q4" s="56"/>
     </row>
     <row r="5" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B5" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="73">
+      <c r="B5" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="60">
         <v>44747</v>
       </c>
       <c r="H5" s="81" t="s">
@@ -1743,14 +1743,14 @@
       <c r="Q6" s="62"/>
     </row>
     <row r="7" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="60">
+      <c r="B7" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="73">
         <v>44748</v>
       </c>
       <c r="H7" s="53" t="s">

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
@@ -1173,8 +1173,8 @@
   </sheetPr>
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1470,8 +1470,12 @@
       <c r="C11" s="35">
         <v>346</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="35"/>
+      <c r="D11" s="16">
+        <v>1392</v>
+      </c>
+      <c r="E11" s="35">
+        <v>355</v>
+      </c>
       <c r="F11" s="15"/>
       <c r="G11" s="42"/>
       <c r="H11" s="13">
@@ -1657,7 +1661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -1173,8 +1173,8 @@
   </sheetPr>
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1476,16 +1476,24 @@
       <c r="E11" s="35">
         <v>355</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="42"/>
+      <c r="F11" s="15">
+        <v>1856</v>
+      </c>
+      <c r="G11" s="42">
+        <v>348</v>
+      </c>
       <c r="H11" s="13">
         <v>1856</v>
       </c>
       <c r="I11" s="46">
         <v>347</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="48"/>
+      <c r="J11" s="27">
+        <v>1392</v>
+      </c>
+      <c r="K11" s="48">
+        <v>357</v>
+      </c>
       <c r="L11" s="13">
         <v>1392</v>
       </c>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="31">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -1173,7 +1173,7 @@
   </sheetPr>
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -1667,227 +1667,281 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Q31"/>
+  <dimension ref="B3:X31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="56" customWidth="1"/>
-    <col min="15" max="15" width="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" style="25" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="19.5703125" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" style="56" customWidth="1"/>
+    <col min="22" max="22" width="36" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" style="25" customWidth="1"/>
+    <col min="24" max="24" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="80" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="80"/>
       <c r="D3" s="80"/>
       <c r="E3" s="69"/>
-      <c r="F3" s="68"/>
-      <c r="H3" s="80" t="s">
+      <c r="I3" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="80"/>
       <c r="J3" s="80"/>
       <c r="K3" s="80"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="68"/>
       <c r="O3" s="80" t="s">
         <v>14</v>
       </c>
       <c r="P3" s="80"/>
       <c r="Q3" s="80"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="80"/>
+      <c r="V3" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E4" s="56"/>
-      <c r="Q4" s="56"/>
-    </row>
-    <row r="5" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B5" s="70" t="s">
+      <c r="L4" s="56"/>
+      <c r="X4" s="56"/>
+    </row>
+    <row r="5" spans="2:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="B5" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="73">
+        <v>44776</v>
+      </c>
+      <c r="I5" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="54" t="s">
+      <c r="J5" s="70"/>
+      <c r="K5" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="60">
+      <c r="L5" s="60">
         <v>44747</v>
       </c>
-      <c r="H5" s="81" t="s">
+      <c r="O5" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="81"/>
-      <c r="J5" s="54" t="s">
+      <c r="P5" s="81"/>
+      <c r="Q5" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="60">
+      <c r="R5" s="60">
         <v>44686</v>
       </c>
-      <c r="O5" s="57" t="s">
+      <c r="V5" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="64" t="s">
+      <c r="W5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="60">
+      <c r="X5" s="60">
         <v>44714</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="62"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="55"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="62"/>
-    </row>
-    <row r="7" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="53" t="s">
+    <row r="6" spans="2:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="62"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="55"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="62"/>
+    </row>
+    <row r="7" spans="2:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="60">
+        <v>44777</v>
+      </c>
+      <c r="I7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53" t="s">
+      <c r="J7" s="53"/>
+      <c r="K7" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="73">
+      <c r="L7" s="73">
         <v>44748</v>
       </c>
-      <c r="H7" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="58">
-        <v>44691</v>
-      </c>
-      <c r="L7" s="63"/>
       <c r="O7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="66" t="s">
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="58">
+      <c r="R7" s="58">
+        <v>44691</v>
+      </c>
+      <c r="S7" s="63"/>
+      <c r="V7" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="W7" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="X7" s="58">
         <v>44719</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="62"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="55"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="62"/>
-    </row>
-    <row r="9" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="62"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="55"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="62"/>
+    </row>
+    <row r="9" spans="2:24" ht="21" x14ac:dyDescent="0.35">
       <c r="B9" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="59">
+        <v>44779</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="58">
+      <c r="L9" s="58">
         <v>44749</v>
-      </c>
-      <c r="H9" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="60">
-        <v>44693</v>
       </c>
       <c r="O9" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="66" t="s">
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="60">
+      <c r="R9" s="60">
+        <v>44693</v>
+      </c>
+      <c r="V9" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="W9" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="X9" s="60">
         <v>44721</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="55"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="62"/>
-    </row>
-    <row r="11" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="62"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="55"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="62"/>
+    </row>
+    <row r="11" spans="2:24" ht="21" x14ac:dyDescent="0.35">
       <c r="B11" s="53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="58">
+        <v>44784</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="59">
+      <c r="L11" s="59">
         <v>44751</v>
       </c>
-      <c r="H11" s="53" t="s">
+      <c r="O11" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="61"/>
-      <c r="J11" s="53" t="s">
+      <c r="P11" s="61"/>
+      <c r="Q11" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="58">
+      <c r="R11" s="58">
         <v>44695</v>
       </c>
-      <c r="O11" s="53" t="s">
+      <c r="V11" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="P11" s="66" t="s">
+      <c r="W11" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="Q11" s="59">
+      <c r="X11" s="59">
         <v>44723</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
+    <row r="12" spans="2:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="62"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="55"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="62"/>
-    </row>
-    <row r="13" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="62"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="55"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="62"/>
+    </row>
+    <row r="13" spans="2:24" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="53" t="s">
         <v>22</v>
       </c>
@@ -1896,189 +1950,218 @@
         <v>23</v>
       </c>
       <c r="E13" s="74">
+        <v>44785</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="74">
         <v>44756</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="O13" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53" t="s">
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="59">
+      <c r="R13" s="59">
         <v>44695</v>
       </c>
-      <c r="O13" s="53" t="s">
+      <c r="V13" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="P13" s="66" t="s">
+      <c r="W13" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="Q13" s="60">
+      <c r="X13" s="60">
         <v>44728</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:24" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
       <c r="D14" s="61"/>
       <c r="E14" s="62"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="55"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="62"/>
-    </row>
-    <row r="15" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="62"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="55"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="62"/>
+    </row>
+    <row r="15" spans="2:24" ht="21" x14ac:dyDescent="0.35">
       <c r="B15" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="61"/>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="75">
+        <v>44786</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="61"/>
+      <c r="K15" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="75">
+      <c r="L15" s="75">
         <v>44758</v>
       </c>
-      <c r="H15" s="53" t="s">
+      <c r="O15" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53" t="s">
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="60">
+      <c r="R15" s="60">
         <v>44700</v>
       </c>
-      <c r="O15" s="53" t="s">
+      <c r="V15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="P15" s="66" t="s">
+      <c r="W15" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="Q15" s="58">
+      <c r="X15" s="58">
         <v>44730</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:24" ht="21" x14ac:dyDescent="0.35">
       <c r="B16" s="53"/>
       <c r="C16" s="53"/>
       <c r="D16" s="53"/>
       <c r="E16" s="55"/>
-      <c r="H16" s="53"/>
       <c r="I16" s="53"/>
       <c r="J16" s="53"/>
-      <c r="K16" s="55"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="55"/>
       <c r="O16" s="53"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="55"/>
-    </row>
-    <row r="17" spans="8:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="62"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="55"/>
-    </row>
-    <row r="18" spans="8:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="55"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="55"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="55"/>
+    </row>
+    <row r="17" spans="15:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="62"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="55"/>
+    </row>
+    <row r="18" spans="15:24" ht="21" x14ac:dyDescent="0.35">
       <c r="O18" s="53"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="55"/>
-    </row>
-    <row r="19" spans="8:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="55"/>
-    </row>
-    <row r="20" spans="8:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="55"/>
-    </row>
-    <row r="21" spans="8:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="55"/>
-    </row>
-    <row r="22" spans="8:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="55"/>
-    </row>
-    <row r="23" spans="8:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="55"/>
-    </row>
-    <row r="24" spans="8:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="55"/>
-    </row>
-    <row r="25" spans="8:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="55"/>
-    </row>
-    <row r="26" spans="8:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="55"/>
-    </row>
-    <row r="27" spans="8:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="55"/>
-    </row>
-    <row r="28" spans="8:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="55"/>
-    </row>
-    <row r="29" spans="8:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="55"/>
-    </row>
-    <row r="30" spans="8:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="55"/>
-    </row>
-    <row r="31" spans="8:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="55"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="55"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="55"/>
+    </row>
+    <row r="19" spans="15:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="55"/>
+    </row>
+    <row r="20" spans="15:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="55"/>
+    </row>
+    <row r="21" spans="15:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="55"/>
+    </row>
+    <row r="22" spans="15:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="55"/>
+    </row>
+    <row r="23" spans="15:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="55"/>
+    </row>
+    <row r="24" spans="15:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="55"/>
+    </row>
+    <row r="25" spans="15:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="55"/>
+    </row>
+    <row r="26" spans="15:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="55"/>
+    </row>
+    <row r="27" spans="15:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="55"/>
+    </row>
+    <row r="28" spans="15:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="55"/>
+    </row>
+    <row r="29" spans="15:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="55"/>
+    </row>
+    <row r="30" spans="15:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="55"/>
+    </row>
+    <row r="31" spans="15:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="55"/>
     </row>
   </sheetData>
   <sortState ref="B5:E15">
     <sortCondition ref="E5:E15"/>
   </sortState>
-  <mergeCells count="4">
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="O3:Q3"/>
+  <mergeCells count="5">
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="I3:K3"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>JUNIO.,2022</t>
+  </si>
+  <si>
+    <t>JULIO.,2022</t>
   </si>
 </sst>
 </file>
@@ -1173,8 +1176,8 @@
   </sheetPr>
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1502,19 +1505,37 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="11">
+        <v>986</v>
+      </c>
+      <c r="C12" s="35">
+        <v>363</v>
+      </c>
       <c r="D12" s="16"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="46"/>
+      <c r="F12" s="15">
+        <v>1856</v>
+      </c>
+      <c r="G12" s="42">
+        <v>365</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1856</v>
+      </c>
+      <c r="I12" s="46">
+        <v>364</v>
+      </c>
       <c r="J12" s="27"/>
       <c r="K12" s="48"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="51"/>
+      <c r="L12" s="13">
+        <v>1392</v>
+      </c>
+      <c r="M12" s="51">
+        <v>369</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
@@ -1669,7 +1690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -1177,7 +1177,7 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1514,8 +1514,12 @@
       <c r="C12" s="35">
         <v>363</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="35"/>
+      <c r="D12" s="16">
+        <v>1392</v>
+      </c>
+      <c r="E12" s="35">
+        <v>374</v>
+      </c>
       <c r="F12" s="15">
         <v>1856</v>
       </c>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -1177,7 +1177,7 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1532,8 +1532,12 @@
       <c r="I12" s="46">
         <v>364</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="48"/>
+      <c r="J12" s="27">
+        <v>1392</v>
+      </c>
+      <c r="K12" s="48">
+        <v>375</v>
+      </c>
       <c r="L12" s="13">
         <v>1392</v>
       </c>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="32">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -243,7 +243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,6 +322,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -634,7 +640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -829,6 +835,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -838,13 +856,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF66CCFF"/>
       <color rgb="FFCC9900"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFCCFF99"/>
-      <color rgb="FF66CCFF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF0066FF"/>
-      <color rgb="FF00FF00"/>
       <color rgb="FFFF9900"/>
     </mruColors>
   </colors>
@@ -1176,7 +1194,7 @@
   </sheetPr>
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -1696,10 +1714,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:X31"/>
+  <dimension ref="B3:AC31"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,49 +1725,59 @@
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="19.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" style="56" customWidth="1"/>
-    <col min="22" max="22" width="36" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.5703125" style="25" customWidth="1"/>
-    <col min="24" max="24" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="19.5703125" customWidth="1"/>
+    <col min="22" max="22" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.42578125" style="56" customWidth="1"/>
+    <col min="27" max="27" width="36" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.5703125" style="25" customWidth="1"/>
+    <col min="29" max="29" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="80" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="80"/>
       <c r="D3" s="80"/>
       <c r="E3" s="69"/>
-      <c r="I3" s="80" t="s">
+      <c r="G3" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="68"/>
-      <c r="O3" s="80" t="s">
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="69"/>
+      <c r="N3" s="80" t="s">
         <v>14</v>
       </c>
+      <c r="O3" s="80"/>
       <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="V3" s="80" t="s">
+      <c r="Q3" s="69"/>
+      <c r="R3" s="68"/>
+      <c r="T3" s="80" t="s">
         <v>14</v>
       </c>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
       <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA3" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
       <c r="E4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="X4" s="56"/>
-    </row>
-    <row r="5" spans="2:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="J4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="AC4" s="56"/>
+    </row>
+    <row r="5" spans="2:29" ht="21" x14ac:dyDescent="0.35">
       <c r="B5" s="53" t="s">
         <v>17</v>
       </c>
@@ -1757,53 +1785,63 @@
       <c r="D5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="73">
+      <c r="E5" s="59">
+        <v>44804</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="73">
         <v>44776</v>
       </c>
-      <c r="I5" s="70" t="s">
+      <c r="N5" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="54" t="s">
+      <c r="O5" s="70"/>
+      <c r="P5" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="60">
+      <c r="Q5" s="60">
         <v>44747</v>
       </c>
-      <c r="O5" s="81" t="s">
+      <c r="T5" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="54" t="s">
+      <c r="U5" s="81"/>
+      <c r="V5" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="60">
+      <c r="W5" s="60">
         <v>44686</v>
       </c>
-      <c r="V5" s="57" t="s">
+      <c r="AA5" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="64" t="s">
+      <c r="AB5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="60">
+      <c r="AC5" s="60">
         <v>44714</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="62"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="55"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="62"/>
-    </row>
-    <row r="7" spans="2:24" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="62"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="55"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="62"/>
+    </row>
+    <row r="7" spans="2:29" ht="21" x14ac:dyDescent="0.35">
       <c r="B7" s="70" t="s">
         <v>24</v>
       </c>
@@ -1811,54 +1849,64 @@
       <c r="D7" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="83">
+        <v>44805</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="70"/>
+      <c r="I7" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="60">
         <v>44777</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="N7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53" t="s">
+      <c r="O7" s="53"/>
+      <c r="P7" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="73">
+      <c r="Q7" s="73">
         <v>44748</v>
       </c>
-      <c r="O7" s="53" t="s">
+      <c r="T7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53" t="s">
+      <c r="U7" s="53"/>
+      <c r="V7" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="58">
+      <c r="W7" s="58">
         <v>44691</v>
       </c>
-      <c r="S7" s="63"/>
-      <c r="V7" s="53" t="s">
+      <c r="X7" s="63"/>
+      <c r="AA7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="W7" s="66" t="s">
+      <c r="AB7" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="X7" s="58">
+      <c r="AC7" s="58">
         <v>44719</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="62"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="55"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="62"/>
-    </row>
-    <row r="9" spans="2:24" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="62"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="55"/>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="62"/>
+    </row>
+    <row r="9" spans="2:29" ht="21" x14ac:dyDescent="0.35">
       <c r="B9" s="53" t="s">
         <v>25</v>
       </c>
@@ -1866,53 +1914,63 @@
       <c r="D9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="84">
+        <v>44807</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="59">
         <v>44779</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="N9" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53" t="s">
+      <c r="O9" s="53"/>
+      <c r="P9" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="58">
+      <c r="Q9" s="58">
         <v>44749</v>
       </c>
-      <c r="O9" s="53" t="s">
+      <c r="T9" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53" t="s">
+      <c r="U9" s="53"/>
+      <c r="V9" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="60">
+      <c r="W9" s="60">
         <v>44693</v>
       </c>
-      <c r="V9" s="53" t="s">
+      <c r="AA9" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="W9" s="66" t="s">
+      <c r="AB9" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="X9" s="60">
+      <c r="AC9" s="60">
         <v>44721</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="62"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="55"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="62"/>
-    </row>
-    <row r="11" spans="2:24" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="62"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="55"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="62"/>
+    </row>
+    <row r="11" spans="2:29" ht="21" x14ac:dyDescent="0.35">
       <c r="B11" s="53" t="s">
         <v>26</v>
       </c>
@@ -1920,57 +1978,71 @@
       <c r="D11" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="60">
+        <v>44812</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="58">
         <v>44784</v>
       </c>
-      <c r="I11" s="53" t="s">
+      <c r="N11" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53" t="s">
+      <c r="O11" s="53"/>
+      <c r="P11" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="59">
+      <c r="Q11" s="59">
         <v>44751</v>
       </c>
-      <c r="O11" s="53" t="s">
+      <c r="T11" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="53" t="s">
+      <c r="U11" s="61"/>
+      <c r="V11" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="R11" s="58">
+      <c r="W11" s="58">
         <v>44695</v>
       </c>
-      <c r="V11" s="53" t="s">
+      <c r="AA11" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="W11" s="66" t="s">
+      <c r="AB11" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="X11" s="59">
+      <c r="AC11" s="59">
         <v>44723</v>
       </c>
     </row>
-    <row r="12" spans="2:24" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:29" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="71"/>
       <c r="C12" s="71"/>
       <c r="D12" s="72"/>
       <c r="E12" s="62"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="62"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="55"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="62"/>
-    </row>
-    <row r="13" spans="2:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="62"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="62"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="55"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="62"/>
+    </row>
+    <row r="13" spans="2:29" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="53" t="s">
         <v>22</v>
       </c>
@@ -1978,57 +2050,71 @@
       <c r="D13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="82">
+        <v>44813</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="74">
         <v>44785</v>
       </c>
-      <c r="I13" s="53" t="s">
+      <c r="N13" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53" t="s">
+      <c r="O13" s="53"/>
+      <c r="P13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="74">
+      <c r="Q13" s="74">
         <v>44756</v>
       </c>
-      <c r="O13" s="53" t="s">
+      <c r="T13" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53" t="s">
+      <c r="U13" s="53"/>
+      <c r="V13" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="59">
+      <c r="W13" s="59">
         <v>44695</v>
       </c>
-      <c r="V13" s="53" t="s">
+      <c r="AA13" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="W13" s="66" t="s">
+      <c r="AB13" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="X13" s="60">
+      <c r="AC13" s="60">
         <v>44728</v>
       </c>
     </row>
-    <row r="14" spans="2:24" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:29" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
       <c r="D14" s="61"/>
       <c r="E14" s="62"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
       <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="62"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="55"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="62"/>
-    </row>
-    <row r="15" spans="2:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="J14" s="62"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="62"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="55"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="65"/>
+      <c r="AC14" s="62"/>
+    </row>
+    <row r="15" spans="2:29" ht="21" x14ac:dyDescent="0.35">
       <c r="B15" s="53" t="s">
         <v>20</v>
       </c>
@@ -2036,162 +2122,177 @@
       <c r="D15" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="75">
+      <c r="E15" s="85">
+        <v>44814</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="61"/>
+      <c r="I15" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="75">
         <v>44786</v>
       </c>
-      <c r="I15" s="53" t="s">
+      <c r="N15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="61"/>
-      <c r="K15" s="53" t="s">
+      <c r="O15" s="61"/>
+      <c r="P15" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="75">
+      <c r="Q15" s="75">
         <v>44758</v>
       </c>
-      <c r="O15" s="53" t="s">
+      <c r="T15" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53" t="s">
+      <c r="U15" s="53"/>
+      <c r="V15" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="R15" s="60">
+      <c r="W15" s="60">
         <v>44700</v>
       </c>
-      <c r="V15" s="53" t="s">
+      <c r="AA15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="W15" s="66" t="s">
+      <c r="AB15" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="X15" s="58">
+      <c r="AC15" s="58">
         <v>44730</v>
       </c>
     </row>
-    <row r="16" spans="2:24" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:29" ht="21" x14ac:dyDescent="0.35">
       <c r="B16" s="53"/>
       <c r="C16" s="53"/>
       <c r="D16" s="53"/>
       <c r="E16" s="55"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
       <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="N16" s="53"/>
       <c r="O16" s="53"/>
       <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
       <c r="V16" s="53"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="55"/>
-    </row>
-    <row r="17" spans="15:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="62"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="55"/>
-    </row>
-    <row r="18" spans="15:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="66"/>
+      <c r="AC16" s="55"/>
+    </row>
+    <row r="17" spans="20:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="62"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="55"/>
+    </row>
+    <row r="18" spans="20:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
       <c r="V18" s="53"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="55"/>
-    </row>
-    <row r="19" spans="15:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="55"/>
-    </row>
-    <row r="20" spans="15:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="55"/>
-    </row>
-    <row r="21" spans="15:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="55"/>
-    </row>
-    <row r="22" spans="15:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="55"/>
-    </row>
-    <row r="23" spans="15:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="55"/>
-    </row>
-    <row r="24" spans="15:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="55"/>
-    </row>
-    <row r="25" spans="15:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="55"/>
-    </row>
-    <row r="26" spans="15:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="55"/>
-    </row>
-    <row r="27" spans="15:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="55"/>
-    </row>
-    <row r="28" spans="15:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="55"/>
-    </row>
-    <row r="29" spans="15:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="55"/>
-    </row>
-    <row r="30" spans="15:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="55"/>
-    </row>
-    <row r="31" spans="15:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="66"/>
+      <c r="AC18" s="55"/>
+    </row>
+    <row r="19" spans="20:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="55"/>
+    </row>
+    <row r="20" spans="20:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="55"/>
+    </row>
+    <row r="21" spans="20:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="55"/>
+    </row>
+    <row r="22" spans="20:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="55"/>
+    </row>
+    <row r="23" spans="20:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="55"/>
+    </row>
+    <row r="24" spans="20:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="55"/>
+    </row>
+    <row r="25" spans="20:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="55"/>
+    </row>
+    <row r="26" spans="20:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="55"/>
+    </row>
+    <row r="27" spans="20:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="55"/>
+    </row>
+    <row r="28" spans="20:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="55"/>
+    </row>
+    <row r="29" spans="20:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="55"/>
+    </row>
+    <row r="30" spans="20:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="55"/>
+    </row>
+    <row r="31" spans="20:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="55"/>
     </row>
   </sheetData>
-  <sortState ref="B5:E15">
-    <sortCondition ref="E5:E15"/>
+  <sortState ref="G5:J15">
+    <sortCondition ref="J5:J15"/>
   </sortState>
-  <mergeCells count="5">
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="I3:K3"/>
+  <mergeCells count="6">
     <mergeCell ref="B3:D3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>JULIO.,2022</t>
+  </si>
+  <si>
+    <t>AGOSTO.,2022</t>
   </si>
 </sst>
 </file>
@@ -817,6 +820,18 @@
     <xf numFmtId="165" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -834,18 +849,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1194,8 +1197,8 @@
   </sheetPr>
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1216,22 +1219,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1564,15 +1567,21 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="B13" s="11"/>
       <c r="C13" s="35"/>
       <c r="D13" s="16"/>
       <c r="E13" s="35"/>
       <c r="F13" s="15"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="46"/>
+      <c r="H13" s="13">
+        <v>1856</v>
+      </c>
+      <c r="I13" s="46">
+        <v>384</v>
+      </c>
       <c r="J13" s="27"/>
       <c r="K13" s="48"/>
       <c r="L13" s="13"/>
@@ -1716,7 +1725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AC31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1740,36 +1749,36 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="69"/>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="69"/>
-      <c r="N3" s="80" t="s">
+      <c r="N3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
       <c r="Q3" s="69"/>
       <c r="R3" s="68"/>
-      <c r="T3" s="80" t="s">
+      <c r="T3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="AA3" s="80" t="s">
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="AA3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.25">
       <c r="E4" s="56"/>
@@ -1808,10 +1817,10 @@
       <c r="Q5" s="60">
         <v>44747</v>
       </c>
-      <c r="T5" s="81" t="s">
+      <c r="T5" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="U5" s="81"/>
+      <c r="U5" s="85"/>
       <c r="V5" s="54" t="s">
         <v>16</v>
       </c>
@@ -1849,7 +1858,7 @@
       <c r="D7" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="83">
+      <c r="E7" s="77">
         <v>44805</v>
       </c>
       <c r="G7" s="70" t="s">
@@ -1914,7 +1923,7 @@
       <c r="D9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="78">
         <v>44807</v>
       </c>
       <c r="G9" s="53" t="s">
@@ -2050,7 +2059,7 @@
       <c r="D13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="76">
         <v>44813</v>
       </c>
       <c r="G13" s="53" t="s">
@@ -2122,7 +2131,7 @@
       <c r="D15" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="85">
+      <c r="E15" s="79">
         <v>44814</v>
       </c>
       <c r="G15" s="53" t="s">

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -1198,7 +1198,7 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1570,8 +1570,12 @@
       <c r="A13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="35"/>
+      <c r="B13" s="11">
+        <v>986</v>
+      </c>
+      <c r="C13" s="35">
+        <v>385</v>
+      </c>
       <c r="D13" s="16"/>
       <c r="E13" s="35"/>
       <c r="F13" s="15"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -1198,7 +1198,7 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1588,8 +1588,12 @@
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="48"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="51"/>
+      <c r="L13" s="13">
+        <v>1392</v>
+      </c>
+      <c r="M13" s="51">
+        <v>386</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -1198,7 +1198,7 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1578,8 +1578,12 @@
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="42"/>
+      <c r="F13" s="15">
+        <v>1856</v>
+      </c>
+      <c r="G13" s="42">
+        <v>389</v>
+      </c>
       <c r="H13" s="13">
         <v>1856</v>
       </c>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -1198,7 +1198,7 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1576,8 +1576,12 @@
       <c r="C13" s="35">
         <v>385</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="35"/>
+      <c r="D13" s="16">
+        <v>1392</v>
+      </c>
+      <c r="E13" s="35">
+        <v>390</v>
+      </c>
       <c r="F13" s="15">
         <v>1856</v>
       </c>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -1198,7 +1198,7 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1594,8 +1594,12 @@
       <c r="I13" s="46">
         <v>384</v>
       </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="48"/>
+      <c r="J13" s="27">
+        <v>1392</v>
+      </c>
+      <c r="K13" s="48">
+        <v>391</v>
+      </c>
       <c r="L13" s="13">
         <v>1392</v>
       </c>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>AGOSTO.,2022</t>
+  </si>
+  <si>
+    <t>4;00PM</t>
   </si>
 </sst>
 </file>
@@ -246,7 +249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +334,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -643,7 +652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -832,6 +841,9 @@
     <xf numFmtId="165" fontId="13" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="13" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -859,6 +871,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF66CCFF"/>
       <color rgb="FFCC9900"/>
@@ -1197,7 +1210,7 @@
   </sheetPr>
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -1219,22 +1232,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
       <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1743,163 +1756,187 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AC31"/>
+  <dimension ref="B3:AI31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
-    <col min="14" max="14" width="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="19.5703125" customWidth="1"/>
-    <col min="22" max="22" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.42578125" style="56" customWidth="1"/>
-    <col min="27" max="27" width="36" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.5703125" style="25" customWidth="1"/>
-    <col min="29" max="29" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="36" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="20" max="20" width="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.140625" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="19.5703125" customWidth="1"/>
+    <col min="28" max="28" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.42578125" style="56" customWidth="1"/>
+    <col min="33" max="33" width="36" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.5703125" style="25" customWidth="1"/>
+    <col min="35" max="35" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="84" t="s">
+    <row r="3" spans="2:35" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
       <c r="E3" s="69"/>
-      <c r="G3" s="84" t="s">
+      <c r="H3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="69"/>
-      <c r="N3" s="84" t="s">
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="69"/>
+      <c r="M3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="68"/>
-      <c r="T3" s="84" t="s">
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="69"/>
+      <c r="T3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="AA3" s="84" t="s">
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="68"/>
+      <c r="Z3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-    </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AG3" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH3" s="85"/>
+      <c r="AI3" s="85"/>
+    </row>
+    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
       <c r="E4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="AC4" s="56"/>
-    </row>
-    <row r="5" spans="2:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="B5" s="53" t="s">
+      <c r="K4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="AI4" s="56"/>
+    </row>
+    <row r="5" spans="2:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="B5" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="77">
+        <v>44833</v>
+      </c>
+      <c r="H5" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53" t="s">
+      <c r="I5" s="53"/>
+      <c r="J5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="59">
+      <c r="K5" s="59">
         <v>44804</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="M5" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53" t="s">
+      <c r="N5" s="53"/>
+      <c r="O5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="73">
+      <c r="P5" s="73">
         <v>44776</v>
       </c>
-      <c r="N5" s="70" t="s">
+      <c r="T5" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="70"/>
-      <c r="P5" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="60">
-        <v>44747</v>
-      </c>
-      <c r="T5" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="U5" s="85"/>
+      <c r="U5" s="70"/>
       <c r="V5" s="54" t="s">
         <v>16</v>
       </c>
       <c r="W5" s="60">
+        <v>44747</v>
+      </c>
+      <c r="Z5" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC5" s="60">
         <v>44686</v>
       </c>
-      <c r="AA5" s="57" t="s">
+      <c r="AG5" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AB5" s="64" t="s">
+      <c r="AH5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="AC5" s="60">
+      <c r="AI5" s="60">
         <v>44714</v>
       </c>
     </row>
-    <row r="6" spans="2:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="62"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="55"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="62"/>
-    </row>
-    <row r="7" spans="2:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="70" t="s">
+    <row r="6" spans="2:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="62"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="62"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="55"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="65"/>
+      <c r="AI6" s="62"/>
+    </row>
+    <row r="7" spans="2:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="59">
+        <v>44839</v>
+      </c>
+      <c r="H7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="54" t="s">
+      <c r="I7" s="70"/>
+      <c r="J7" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="77">
+      <c r="K7" s="77">
         <v>44805</v>
       </c>
-      <c r="G7" s="70" t="s">
+      <c r="M7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="54" t="s">
+      <c r="N7" s="70"/>
+      <c r="O7" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="60">
+      <c r="P7" s="60">
         <v>44777</v>
-      </c>
-      <c r="N7" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="73">
-        <v>44748</v>
       </c>
       <c r="T7" s="53" t="s">
         <v>17</v>
@@ -1908,63 +1945,73 @@
       <c r="V7" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="58">
+      <c r="W7" s="73">
+        <v>44748</v>
+      </c>
+      <c r="Z7" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC7" s="58">
         <v>44691</v>
       </c>
-      <c r="X7" s="63"/>
-      <c r="AA7" s="53" t="s">
+      <c r="AD7" s="63"/>
+      <c r="AG7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="AB7" s="66" t="s">
+      <c r="AH7" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="AC7" s="58">
+      <c r="AI7" s="58">
         <v>44719</v>
       </c>
     </row>
-    <row r="8" spans="2:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="62"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="55"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="62"/>
-    </row>
-    <row r="9" spans="2:29" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="62"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="55"/>
+      <c r="AG8" s="61"/>
+      <c r="AH8" s="65"/>
+      <c r="AI8" s="62"/>
+    </row>
+    <row r="9" spans="2:35" ht="21" x14ac:dyDescent="0.35">
       <c r="B9" s="53" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="78">
+        <v>44840</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="78">
+      <c r="K9" s="78">
         <v>44807</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="M9" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53" t="s">
+      <c r="N9" s="53"/>
+      <c r="O9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="59">
+      <c r="P9" s="59">
         <v>44779</v>
-      </c>
-      <c r="N9" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="58">
-        <v>44749</v>
       </c>
       <c r="T9" s="53" t="s">
         <v>26</v>
@@ -1973,33 +2020,43 @@
       <c r="V9" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="W9" s="60">
+      <c r="W9" s="58">
+        <v>44749</v>
+      </c>
+      <c r="Z9" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC9" s="60">
         <v>44693</v>
       </c>
-      <c r="AA9" s="53" t="s">
+      <c r="AG9" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="AB9" s="66" t="s">
+      <c r="AH9" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="AC9" s="60">
+      <c r="AI9" s="60">
         <v>44721</v>
       </c>
     </row>
-    <row r="10" spans="2:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="62"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="55"/>
-      <c r="AA10" s="61"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="62"/>
-    </row>
-    <row r="11" spans="2:29" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="62"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="55"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="62"/>
+    </row>
+    <row r="11" spans="2:35" ht="21" x14ac:dyDescent="0.35">
       <c r="B11" s="53" t="s">
         <v>26</v>
       </c>
@@ -2008,70 +2065,84 @@
         <v>19</v>
       </c>
       <c r="E11" s="60">
+        <v>44841</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="60">
         <v>44812</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="M11" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53" t="s">
+      <c r="N11" s="53"/>
+      <c r="O11" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="58">
+      <c r="P11" s="58">
         <v>44784</v>
       </c>
-      <c r="N11" s="53" t="s">
+      <c r="T11" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53" t="s">
+      <c r="U11" s="53"/>
+      <c r="V11" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Q11" s="59">
+      <c r="W11" s="59">
         <v>44751</v>
       </c>
-      <c r="T11" s="53" t="s">
+      <c r="Z11" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="U11" s="61"/>
-      <c r="V11" s="53" t="s">
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="W11" s="58">
+      <c r="AC11" s="58">
         <v>44695</v>
       </c>
-      <c r="AA11" s="53" t="s">
+      <c r="AG11" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AB11" s="66" t="s">
+      <c r="AH11" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="AC11" s="59">
+      <c r="AI11" s="59">
         <v>44723</v>
       </c>
     </row>
-    <row r="12" spans="2:29" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:35" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="71"/>
       <c r="C12" s="71"/>
       <c r="D12" s="72"/>
       <c r="E12" s="62"/>
-      <c r="G12" s="71"/>
       <c r="H12" s="71"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="62"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="62"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="55"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="62"/>
-    </row>
-    <row r="13" spans="2:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="I12" s="71"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="62"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="62"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="62"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="55"/>
+      <c r="AG12" s="61"/>
+      <c r="AH12" s="65"/>
+      <c r="AI12" s="62"/>
+    </row>
+    <row r="13" spans="2:35" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="53" t="s">
         <v>22</v>
       </c>
@@ -2079,71 +2150,85 @@
       <c r="D13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="80">
+        <v>44848</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="76">
         <v>44813</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="M13" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53" t="s">
+      <c r="N13" s="53"/>
+      <c r="O13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="74">
+      <c r="P13" s="74">
         <v>44785</v>
       </c>
-      <c r="N13" s="53" t="s">
+      <c r="T13" s="53" t="s">
         <v>22</v>
-      </c>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q13" s="74">
-        <v>44756</v>
-      </c>
-      <c r="T13" s="53" t="s">
-        <v>25</v>
       </c>
       <c r="U13" s="53"/>
       <c r="V13" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="W13" s="74">
+        <v>44756</v>
+      </c>
+      <c r="Z13" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="W13" s="59">
+      <c r="AC13" s="59">
         <v>44695</v>
       </c>
-      <c r="AA13" s="53" t="s">
+      <c r="AG13" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="AB13" s="66" t="s">
+      <c r="AH13" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="AC13" s="60">
+      <c r="AI13" s="60">
         <v>44728</v>
       </c>
     </row>
-    <row r="14" spans="2:29" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:35" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
       <c r="D14" s="61"/>
       <c r="E14" s="62"/>
-      <c r="G14" s="61"/>
       <c r="H14" s="61"/>
       <c r="I14" s="61"/>
-      <c r="J14" s="62"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62"/>
+      <c r="M14" s="61"/>
       <c r="N14" s="61"/>
       <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="62"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="55"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="65"/>
-      <c r="AC14" s="62"/>
-    </row>
-    <row r="15" spans="2:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="P14" s="62"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="62"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="55"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="65"/>
+      <c r="AI14" s="62"/>
+    </row>
+    <row r="15" spans="2:35" ht="21" x14ac:dyDescent="0.35">
       <c r="B15" s="53" t="s">
         <v>20</v>
       </c>
@@ -2152,176 +2237,187 @@
         <v>16</v>
       </c>
       <c r="E15" s="79">
+        <v>44849</v>
+      </c>
+      <c r="H15" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="61"/>
+      <c r="J15" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="79">
         <v>44814</v>
       </c>
-      <c r="G15" s="53" t="s">
+      <c r="M15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="54" t="s">
+      <c r="N15" s="61"/>
+      <c r="O15" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="75">
+      <c r="P15" s="75">
         <v>44786</v>
       </c>
-      <c r="N15" s="53" t="s">
+      <c r="T15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="O15" s="61"/>
-      <c r="P15" s="53" t="s">
+      <c r="U15" s="61"/>
+      <c r="V15" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="Q15" s="75">
+      <c r="W15" s="75">
         <v>44758</v>
       </c>
-      <c r="T15" s="53" t="s">
+      <c r="Z15" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53" t="s">
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="W15" s="60">
+      <c r="AC15" s="60">
         <v>44700</v>
       </c>
-      <c r="AA15" s="53" t="s">
+      <c r="AG15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="AB15" s="66" t="s">
+      <c r="AH15" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="AC15" s="58">
+      <c r="AI15" s="58">
         <v>44730</v>
       </c>
     </row>
-    <row r="16" spans="2:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="55"/>
-      <c r="G16" s="53"/>
+    <row r="16" spans="2:35" ht="21" x14ac:dyDescent="0.35">
       <c r="H16" s="53"/>
       <c r="I16" s="53"/>
-      <c r="J16" s="55"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="55"/>
+      <c r="M16" s="53"/>
       <c r="N16" s="53"/>
       <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="55"/>
+      <c r="P16" s="55"/>
       <c r="T16" s="53"/>
       <c r="U16" s="53"/>
       <c r="V16" s="53"/>
       <c r="W16" s="55"/>
+      <c r="Z16" s="53"/>
       <c r="AA16" s="53"/>
-      <c r="AB16" s="66"/>
+      <c r="AB16" s="53"/>
       <c r="AC16" s="55"/>
-    </row>
-    <row r="17" spans="20:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="62"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="55"/>
-    </row>
-    <row r="18" spans="20:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="T18" s="53"/>
-      <c r="U18" s="53"/>
-      <c r="V18" s="53"/>
-      <c r="W18" s="55"/>
+      <c r="AG16" s="53"/>
+      <c r="AH16" s="66"/>
+      <c r="AI16" s="55"/>
+    </row>
+    <row r="17" spans="26:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="62"/>
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="55"/>
+    </row>
+    <row r="18" spans="26:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z18" s="53"/>
       <c r="AA18" s="53"/>
-      <c r="AB18" s="66"/>
+      <c r="AB18" s="53"/>
       <c r="AC18" s="55"/>
-    </row>
-    <row r="19" spans="20:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="55"/>
-    </row>
-    <row r="20" spans="20:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="T20" s="53"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="55"/>
-    </row>
-    <row r="21" spans="20:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="55"/>
-    </row>
-    <row r="22" spans="20:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="55"/>
-    </row>
-    <row r="23" spans="20:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="55"/>
-    </row>
-    <row r="24" spans="20:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="55"/>
-    </row>
-    <row r="25" spans="20:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="55"/>
-    </row>
-    <row r="26" spans="20:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="55"/>
-    </row>
-    <row r="27" spans="20:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="55"/>
-    </row>
-    <row r="28" spans="20:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="55"/>
-    </row>
-    <row r="29" spans="20:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="55"/>
-    </row>
-    <row r="30" spans="20:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="55"/>
-    </row>
-    <row r="31" spans="20:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="55"/>
+      <c r="AG18" s="53"/>
+      <c r="AH18" s="66"/>
+      <c r="AI18" s="55"/>
+    </row>
+    <row r="19" spans="26:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="53"/>
+      <c r="AB19" s="53"/>
+      <c r="AC19" s="55"/>
+    </row>
+    <row r="20" spans="26:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="55"/>
+    </row>
+    <row r="21" spans="26:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="55"/>
+    </row>
+    <row r="22" spans="26:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="55"/>
+    </row>
+    <row r="23" spans="26:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="55"/>
+    </row>
+    <row r="24" spans="26:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="55"/>
+    </row>
+    <row r="25" spans="26:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="53"/>
+      <c r="AC25" s="55"/>
+    </row>
+    <row r="26" spans="26:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="53"/>
+      <c r="AC26" s="55"/>
+    </row>
+    <row r="27" spans="26:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="55"/>
+    </row>
+    <row r="28" spans="26:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="53"/>
+      <c r="AB28" s="53"/>
+      <c r="AC28" s="55"/>
+    </row>
+    <row r="29" spans="26:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="55"/>
+    </row>
+    <row r="30" spans="26:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AB30" s="53"/>
+      <c r="AC30" s="55"/>
+    </row>
+    <row r="31" spans="26:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="55"/>
     </row>
   </sheetData>
-  <sortState ref="G5:J15">
-    <sortCondition ref="J5:J15"/>
+  <sortState ref="M5:P15">
+    <sortCondition ref="P5:P15"/>
   </sortState>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="M3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="35">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>4;00PM</t>
+  </si>
+  <si>
+    <t>Sept., 2022</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1214,7 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1621,19 +1624,45 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="51"/>
+      <c r="A14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="11">
+        <v>986</v>
+      </c>
+      <c r="C14" s="35">
+        <v>410</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1392</v>
+      </c>
+      <c r="E14" s="35">
+        <v>415</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1856</v>
+      </c>
+      <c r="G14" s="42">
+        <v>414</v>
+      </c>
+      <c r="H14" s="13">
+        <v>1856</v>
+      </c>
+      <c r="I14" s="46">
+        <v>411</v>
+      </c>
+      <c r="J14" s="27">
+        <v>1392</v>
+      </c>
+      <c r="K14" s="48">
+        <v>416</v>
+      </c>
+      <c r="L14" s="13">
+        <v>1392</v>
+      </c>
+      <c r="M14" s="51">
+        <v>413</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="36">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Sept., 2022</t>
+  </si>
+  <si>
+    <t>Octubre.,2022</t>
   </si>
 </sst>
 </file>
@@ -1213,8 +1216,8 @@
   </sheetPr>
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1665,9 +1668,15 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="35"/>
+      <c r="A15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="11">
+        <v>986</v>
+      </c>
+      <c r="C15" s="35">
+        <v>431</v>
+      </c>
       <c r="D15" s="16"/>
       <c r="E15" s="35"/>
       <c r="F15" s="15"/>
@@ -1787,7 +1796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AI31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -1217,7 +1217,7 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1679,14 +1679,26 @@
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="46"/>
+      <c r="F15" s="15">
+        <v>1856</v>
+      </c>
+      <c r="G15" s="42">
+        <v>436</v>
+      </c>
+      <c r="H15" s="13">
+        <v>18569</v>
+      </c>
+      <c r="I15" s="46">
+        <v>434</v>
+      </c>
       <c r="J15" s="27"/>
       <c r="K15" s="48"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="51"/>
+      <c r="L15" s="13">
+        <v>1392</v>
+      </c>
+      <c r="M15" s="51">
+        <v>435</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="36">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -1216,8 +1216,8 @@
   </sheetPr>
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1677,8 +1677,12 @@
       <c r="C15" s="35">
         <v>431</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="35"/>
+      <c r="D15" s="16">
+        <v>1392</v>
+      </c>
+      <c r="E15" s="35">
+        <v>438</v>
+      </c>
       <c r="F15" s="15">
         <v>1856</v>
       </c>
@@ -1691,8 +1695,12 @@
       <c r="I15" s="46">
         <v>434</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="48"/>
+      <c r="J15" s="27">
+        <v>1392</v>
+      </c>
+      <c r="K15" s="48">
+        <v>439</v>
+      </c>
       <c r="L15" s="13">
         <v>1392</v>
       </c>
@@ -1806,10 +1814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AI31"/>
+  <dimension ref="B3:AO31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,23 +1826,26 @@
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
-    <col min="13" max="13" width="36" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" customWidth="1"/>
-    <col min="20" max="20" width="36" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.140625" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="19.5703125" customWidth="1"/>
-    <col min="28" max="28" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.42578125" style="56" customWidth="1"/>
-    <col min="33" max="33" width="36" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.5703125" style="25" customWidth="1"/>
-    <col min="35" max="35" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" customWidth="1"/>
+    <col min="19" max="19" width="36" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.42578125" customWidth="1"/>
+    <col min="26" max="26" width="36" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.140625" customWidth="1"/>
+    <col min="29" max="29" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="19.5703125" customWidth="1"/>
+    <col min="34" max="34" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.42578125" style="56" customWidth="1"/>
+    <col min="39" max="39" width="36" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.5703125" style="25" customWidth="1"/>
+    <col min="41" max="41" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:35" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="85" t="s">
         <v>14</v>
       </c>
@@ -1847,39 +1858,46 @@
       <c r="I3" s="85"/>
       <c r="J3" s="85"/>
       <c r="K3" s="69"/>
-      <c r="M3" s="85" t="s">
+      <c r="N3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="85"/>
       <c r="O3" s="85"/>
-      <c r="P3" s="69"/>
-      <c r="T3" s="85" t="s">
+      <c r="P3" s="85"/>
+      <c r="Q3" s="69"/>
+      <c r="S3" s="85" t="s">
         <v>14</v>
       </c>
+      <c r="T3" s="85"/>
       <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="68"/>
+      <c r="V3" s="69"/>
       <c r="Z3" s="85" t="s">
         <v>14</v>
       </c>
       <c r="AA3" s="85"/>
       <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AG3" s="85" t="s">
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="68"/>
+      <c r="AF3" s="85" t="s">
         <v>14</v>
       </c>
+      <c r="AG3" s="85"/>
       <c r="AH3" s="85"/>
       <c r="AI3" s="85"/>
-    </row>
-    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AM3" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN3" s="85"/>
+      <c r="AO3" s="85"/>
+    </row>
+    <row r="4" spans="2:41" x14ac:dyDescent="0.25">
       <c r="E4" s="56"/>
       <c r="K4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="AI4" s="56"/>
-    </row>
-    <row r="5" spans="2:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="Q4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AO4" s="56"/>
+    </row>
+    <row r="5" spans="2:41" ht="21" x14ac:dyDescent="0.35">
       <c r="B5" s="70" t="s">
         <v>24</v>
       </c>
@@ -1888,76 +1906,90 @@
         <v>16</v>
       </c>
       <c r="E5" s="77">
+        <v>44861</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="70"/>
+      <c r="J5" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="77">
         <v>44833</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="N5" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53" t="s">
+      <c r="O5" s="53"/>
+      <c r="P5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="59">
+      <c r="Q5" s="59">
         <v>44804</v>
       </c>
-      <c r="M5" s="53" t="s">
+      <c r="S5" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53" t="s">
+      <c r="T5" s="53"/>
+      <c r="U5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="73">
+      <c r="V5" s="73">
         <v>44776</v>
       </c>
-      <c r="T5" s="70" t="s">
+      <c r="Z5" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="U5" s="70"/>
-      <c r="V5" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="W5" s="60">
-        <v>44747</v>
-      </c>
-      <c r="Z5" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA5" s="86"/>
+      <c r="AA5" s="70"/>
       <c r="AB5" s="54" t="s">
         <v>16</v>
       </c>
       <c r="AC5" s="60">
+        <v>44747</v>
+      </c>
+      <c r="AF5" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG5" s="86"/>
+      <c r="AH5" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI5" s="60">
         <v>44686</v>
       </c>
-      <c r="AG5" s="57" t="s">
+      <c r="AM5" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AH5" s="64" t="s">
+      <c r="AN5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="AI5" s="60">
+      <c r="AO5" s="60">
         <v>44714</v>
       </c>
     </row>
-    <row r="6" spans="2:35" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:41" ht="21" x14ac:dyDescent="0.35">
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
       <c r="E6" s="62"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="62"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="55"/>
-      <c r="AG6" s="61"/>
-      <c r="AH6" s="65"/>
-      <c r="AI6" s="62"/>
-    </row>
-    <row r="7" spans="2:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="62"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="62"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="55"/>
+      <c r="AM6" s="61"/>
+      <c r="AN6" s="65"/>
+      <c r="AO6" s="62"/>
+    </row>
+    <row r="7" spans="2:41" ht="21" x14ac:dyDescent="0.35">
       <c r="B7" s="53" t="s">
         <v>17</v>
       </c>
@@ -1966,37 +1998,37 @@
         <v>18</v>
       </c>
       <c r="E7" s="59">
+        <v>44874</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="59">
         <v>44839</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="N7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="54" t="s">
+      <c r="O7" s="70"/>
+      <c r="P7" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="77">
+      <c r="Q7" s="77">
         <v>44805</v>
       </c>
-      <c r="M7" s="70" t="s">
+      <c r="S7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="70"/>
-      <c r="O7" s="54" t="s">
+      <c r="T7" s="70"/>
+      <c r="U7" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="60">
+      <c r="V7" s="60">
         <v>44777</v>
-      </c>
-      <c r="T7" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="W7" s="73">
-        <v>44748</v>
       </c>
       <c r="Z7" s="53" t="s">
         <v>17</v>
@@ -2005,34 +2037,44 @@
       <c r="AB7" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AC7" s="58">
+      <c r="AC7" s="73">
+        <v>44748</v>
+      </c>
+      <c r="AF7" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI7" s="58">
         <v>44691</v>
       </c>
-      <c r="AD7" s="63"/>
-      <c r="AG7" s="53" t="s">
+      <c r="AJ7" s="63"/>
+      <c r="AM7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="AH7" s="66" t="s">
+      <c r="AN7" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="AI7" s="58">
+      <c r="AO7" s="58">
         <v>44719</v>
       </c>
     </row>
-    <row r="8" spans="2:35" ht="21" x14ac:dyDescent="0.35">
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="62"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="55"/>
-      <c r="AG8" s="61"/>
-      <c r="AH8" s="65"/>
-      <c r="AI8" s="62"/>
-    </row>
-    <row r="9" spans="2:35" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:41" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z8" s="61"/>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="61"/>
+      <c r="AC8" s="62"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="55"/>
+      <c r="AM8" s="61"/>
+      <c r="AN8" s="65"/>
+      <c r="AO8" s="62"/>
+    </row>
+    <row r="9" spans="2:41" ht="21" x14ac:dyDescent="0.35">
       <c r="B9" s="53" t="s">
         <v>25</v>
       </c>
@@ -2041,37 +2083,37 @@
         <v>33</v>
       </c>
       <c r="E9" s="78">
-        <v>44840</v>
+        <v>44875</v>
       </c>
       <c r="H9" s="53" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="53"/>
       <c r="J9" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="78">
+        <v>44840</v>
+      </c>
+      <c r="N9" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="78">
+      <c r="Q9" s="78">
         <v>44807</v>
       </c>
-      <c r="M9" s="53" t="s">
+      <c r="S9" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53" t="s">
+      <c r="T9" s="53"/>
+      <c r="U9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="59">
+      <c r="V9" s="59">
         <v>44779</v>
-      </c>
-      <c r="T9" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="W9" s="58">
-        <v>44749</v>
       </c>
       <c r="Z9" s="53" t="s">
         <v>26</v>
@@ -2080,33 +2122,43 @@
       <c r="AB9" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="AC9" s="60">
+      <c r="AC9" s="58">
+        <v>44749</v>
+      </c>
+      <c r="AF9" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI9" s="60">
         <v>44693</v>
       </c>
-      <c r="AG9" s="53" t="s">
+      <c r="AM9" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="AH9" s="66" t="s">
+      <c r="AN9" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="AI9" s="60">
+      <c r="AO9" s="60">
         <v>44721</v>
       </c>
     </row>
-    <row r="10" spans="2:35" ht="21" x14ac:dyDescent="0.35">
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="62"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="55"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="62"/>
-    </row>
-    <row r="11" spans="2:35" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:41" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="62"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="55"/>
+      <c r="AM10" s="61"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="62"/>
+    </row>
+    <row r="11" spans="2:41" ht="21" x14ac:dyDescent="0.35">
       <c r="B11" s="53" t="s">
         <v>26</v>
       </c>
@@ -2115,7 +2167,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="60">
-        <v>44841</v>
+        <v>44876</v>
       </c>
       <c r="H11" s="53" t="s">
         <v>26</v>
@@ -2125,49 +2177,59 @@
         <v>19</v>
       </c>
       <c r="K11" s="60">
+        <v>44841</v>
+      </c>
+      <c r="N11" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="60">
         <v>44812</v>
       </c>
-      <c r="M11" s="53" t="s">
+      <c r="S11" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53" t="s">
+      <c r="T11" s="53"/>
+      <c r="U11" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="58">
+      <c r="V11" s="58">
         <v>44784</v>
       </c>
-      <c r="T11" s="53" t="s">
+      <c r="Z11" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53" t="s">
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="W11" s="59">
+      <c r="AC11" s="59">
         <v>44751</v>
       </c>
-      <c r="Z11" s="53" t="s">
+      <c r="AF11" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="AA11" s="61"/>
-      <c r="AB11" s="53" t="s">
+      <c r="AG11" s="61"/>
+      <c r="AH11" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AC11" s="58">
+      <c r="AI11" s="58">
         <v>44695</v>
       </c>
-      <c r="AG11" s="53" t="s">
+      <c r="AM11" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AH11" s="66" t="s">
+      <c r="AN11" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="AI11" s="59">
+      <c r="AO11" s="59">
         <v>44723</v>
       </c>
     </row>
-    <row r="12" spans="2:35" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:41" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="71"/>
       <c r="C12" s="71"/>
       <c r="D12" s="72"/>
@@ -2176,23 +2238,27 @@
       <c r="I12" s="71"/>
       <c r="J12" s="72"/>
       <c r="K12" s="62"/>
-      <c r="M12" s="71"/>
       <c r="N12" s="71"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="62"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="62"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="55"/>
-      <c r="AG12" s="61"/>
-      <c r="AH12" s="65"/>
-      <c r="AI12" s="62"/>
-    </row>
-    <row r="13" spans="2:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="O12" s="71"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="62"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="62"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="62"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="55"/>
+      <c r="AM12" s="61"/>
+      <c r="AN12" s="65"/>
+      <c r="AO12" s="62"/>
+    </row>
+    <row r="13" spans="2:41" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="53" t="s">
         <v>22</v>
       </c>
@@ -2201,7 +2267,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="80">
-        <v>44848</v>
+        <v>44883</v>
       </c>
       <c r="H13" s="53" t="s">
         <v>22</v>
@@ -2210,50 +2276,60 @@
       <c r="J13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="76">
+      <c r="K13" s="80">
+        <v>44848</v>
+      </c>
+      <c r="N13" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="76">
         <v>44813</v>
       </c>
-      <c r="M13" s="53" t="s">
+      <c r="S13" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53" t="s">
+      <c r="T13" s="53"/>
+      <c r="U13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="P13" s="74">
+      <c r="V13" s="74">
         <v>44785</v>
       </c>
-      <c r="T13" s="53" t="s">
+      <c r="Z13" s="53" t="s">
         <v>22</v>
-      </c>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="W13" s="74">
-        <v>44756</v>
-      </c>
-      <c r="Z13" s="53" t="s">
-        <v>25</v>
       </c>
       <c r="AA13" s="53"/>
       <c r="AB13" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC13" s="74">
+        <v>44756</v>
+      </c>
+      <c r="AF13" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AC13" s="59">
+      <c r="AI13" s="59">
         <v>44695</v>
       </c>
-      <c r="AG13" s="53" t="s">
+      <c r="AM13" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="AH13" s="66" t="s">
+      <c r="AN13" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="AI13" s="60">
+      <c r="AO13" s="60">
         <v>44728</v>
       </c>
     </row>
-    <row r="14" spans="2:35" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:41" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
       <c r="D14" s="61"/>
@@ -2262,23 +2338,27 @@
       <c r="I14" s="61"/>
       <c r="J14" s="61"/>
       <c r="K14" s="62"/>
-      <c r="M14" s="61"/>
       <c r="N14" s="61"/>
       <c r="O14" s="61"/>
-      <c r="P14" s="62"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="62"/>
+      <c r="S14" s="61"/>
       <c r="T14" s="61"/>
       <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="62"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="55"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="65"/>
-      <c r="AI14" s="62"/>
-    </row>
-    <row r="15" spans="2:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="V14" s="62"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="62"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="53"/>
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="55"/>
+      <c r="AM14" s="61"/>
+      <c r="AN14" s="65"/>
+      <c r="AO14" s="62"/>
+    </row>
+    <row r="15" spans="2:41" ht="21" x14ac:dyDescent="0.35">
       <c r="B15" s="53" t="s">
         <v>20</v>
       </c>
@@ -2287,7 +2367,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="79">
-        <v>44849</v>
+        <v>44884</v>
       </c>
       <c r="H15" s="53" t="s">
         <v>20</v>
@@ -2297,177 +2377,188 @@
         <v>16</v>
       </c>
       <c r="K15" s="79">
+        <v>44849</v>
+      </c>
+      <c r="N15" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="61"/>
+      <c r="P15" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="79">
         <v>44814</v>
       </c>
-      <c r="M15" s="53" t="s">
+      <c r="S15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="61"/>
-      <c r="O15" s="54" t="s">
+      <c r="T15" s="61"/>
+      <c r="U15" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="P15" s="75">
+      <c r="V15" s="75">
         <v>44786</v>
       </c>
-      <c r="T15" s="53" t="s">
+      <c r="Z15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="U15" s="61"/>
-      <c r="V15" s="53" t="s">
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="W15" s="75">
+      <c r="AC15" s="75">
         <v>44758</v>
       </c>
-      <c r="Z15" s="53" t="s">
+      <c r="AF15" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53" t="s">
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="AC15" s="60">
+      <c r="AI15" s="60">
         <v>44700</v>
       </c>
-      <c r="AG15" s="53" t="s">
+      <c r="AM15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="AH15" s="66" t="s">
+      <c r="AN15" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="AI15" s="58">
+      <c r="AO15" s="58">
         <v>44730</v>
       </c>
     </row>
-    <row r="16" spans="2:35" ht="21" x14ac:dyDescent="0.35">
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="55"/>
-      <c r="M16" s="53"/>
+    <row r="16" spans="2:41" ht="21" x14ac:dyDescent="0.35">
       <c r="N16" s="53"/>
       <c r="O16" s="53"/>
-      <c r="P16" s="55"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="55"/>
+      <c r="S16" s="53"/>
       <c r="T16" s="53"/>
       <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="55"/>
+      <c r="V16" s="55"/>
       <c r="Z16" s="53"/>
       <c r="AA16" s="53"/>
       <c r="AB16" s="53"/>
       <c r="AC16" s="55"/>
+      <c r="AF16" s="53"/>
       <c r="AG16" s="53"/>
-      <c r="AH16" s="66"/>
+      <c r="AH16" s="53"/>
       <c r="AI16" s="55"/>
-    </row>
-    <row r="17" spans="26:35" ht="21" x14ac:dyDescent="0.35">
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="62"/>
-      <c r="AG17" s="53"/>
-      <c r="AH17" s="66"/>
-      <c r="AI17" s="55"/>
-    </row>
-    <row r="18" spans="26:35" ht="21" x14ac:dyDescent="0.35">
-      <c r="Z18" s="53"/>
-      <c r="AA18" s="53"/>
-      <c r="AB18" s="53"/>
-      <c r="AC18" s="55"/>
+      <c r="AM16" s="53"/>
+      <c r="AN16" s="66"/>
+      <c r="AO16" s="55"/>
+    </row>
+    <row r="17" spans="32:41" ht="21" x14ac:dyDescent="0.35">
+      <c r="AF17" s="61"/>
+      <c r="AG17" s="61"/>
+      <c r="AH17" s="61"/>
+      <c r="AI17" s="62"/>
+      <c r="AM17" s="53"/>
+      <c r="AN17" s="66"/>
+      <c r="AO17" s="55"/>
+    </row>
+    <row r="18" spans="32:41" ht="21" x14ac:dyDescent="0.35">
+      <c r="AF18" s="53"/>
       <c r="AG18" s="53"/>
-      <c r="AH18" s="66"/>
+      <c r="AH18" s="53"/>
       <c r="AI18" s="55"/>
-    </row>
-    <row r="19" spans="26:35" ht="21" x14ac:dyDescent="0.35">
-      <c r="Z19" s="53"/>
-      <c r="AA19" s="53"/>
-      <c r="AB19" s="53"/>
-      <c r="AC19" s="55"/>
-    </row>
-    <row r="20" spans="26:35" ht="21" x14ac:dyDescent="0.35">
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="53"/>
-      <c r="AB20" s="53"/>
-      <c r="AC20" s="55"/>
-    </row>
-    <row r="21" spans="26:35" ht="21" x14ac:dyDescent="0.35">
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="55"/>
-    </row>
-    <row r="22" spans="26:35" ht="21" x14ac:dyDescent="0.35">
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="53"/>
-      <c r="AC22" s="55"/>
-    </row>
-    <row r="23" spans="26:35" ht="21" x14ac:dyDescent="0.35">
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="55"/>
-    </row>
-    <row r="24" spans="26:35" ht="21" x14ac:dyDescent="0.35">
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="55"/>
-    </row>
-    <row r="25" spans="26:35" ht="21" x14ac:dyDescent="0.35">
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="53"/>
-      <c r="AC25" s="55"/>
-    </row>
-    <row r="26" spans="26:35" ht="21" x14ac:dyDescent="0.35">
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="53"/>
-      <c r="AB26" s="53"/>
-      <c r="AC26" s="55"/>
-    </row>
-    <row r="27" spans="26:35" ht="21" x14ac:dyDescent="0.35">
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="53"/>
-      <c r="AC27" s="55"/>
-    </row>
-    <row r="28" spans="26:35" ht="21" x14ac:dyDescent="0.35">
-      <c r="Z28" s="53"/>
-      <c r="AA28" s="53"/>
-      <c r="AB28" s="53"/>
-      <c r="AC28" s="55"/>
-    </row>
-    <row r="29" spans="26:35" ht="21" x14ac:dyDescent="0.35">
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="53"/>
-      <c r="AB29" s="53"/>
-      <c r="AC29" s="55"/>
-    </row>
-    <row r="30" spans="26:35" ht="21" x14ac:dyDescent="0.35">
-      <c r="Z30" s="53"/>
-      <c r="AA30" s="53"/>
-      <c r="AB30" s="53"/>
-      <c r="AC30" s="55"/>
-    </row>
-    <row r="31" spans="26:35" ht="21" x14ac:dyDescent="0.35">
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="53"/>
-      <c r="AC31" s="55"/>
+      <c r="AM18" s="53"/>
+      <c r="AN18" s="66"/>
+      <c r="AO18" s="55"/>
+    </row>
+    <row r="19" spans="32:41" ht="21" x14ac:dyDescent="0.35">
+      <c r="AF19" s="53"/>
+      <c r="AG19" s="53"/>
+      <c r="AH19" s="53"/>
+      <c r="AI19" s="55"/>
+    </row>
+    <row r="20" spans="32:41" ht="21" x14ac:dyDescent="0.35">
+      <c r="AF20" s="53"/>
+      <c r="AG20" s="53"/>
+      <c r="AH20" s="53"/>
+      <c r="AI20" s="55"/>
+    </row>
+    <row r="21" spans="32:41" ht="21" x14ac:dyDescent="0.35">
+      <c r="AF21" s="53"/>
+      <c r="AG21" s="53"/>
+      <c r="AH21" s="53"/>
+      <c r="AI21" s="55"/>
+    </row>
+    <row r="22" spans="32:41" ht="21" x14ac:dyDescent="0.35">
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="53"/>
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="55"/>
+    </row>
+    <row r="23" spans="32:41" ht="21" x14ac:dyDescent="0.35">
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="53"/>
+      <c r="AH23" s="53"/>
+      <c r="AI23" s="55"/>
+    </row>
+    <row r="24" spans="32:41" ht="21" x14ac:dyDescent="0.35">
+      <c r="AF24" s="53"/>
+      <c r="AG24" s="53"/>
+      <c r="AH24" s="53"/>
+      <c r="AI24" s="55"/>
+    </row>
+    <row r="25" spans="32:41" ht="21" x14ac:dyDescent="0.35">
+      <c r="AF25" s="53"/>
+      <c r="AG25" s="53"/>
+      <c r="AH25" s="53"/>
+      <c r="AI25" s="55"/>
+    </row>
+    <row r="26" spans="32:41" ht="21" x14ac:dyDescent="0.35">
+      <c r="AF26" s="53"/>
+      <c r="AG26" s="53"/>
+      <c r="AH26" s="53"/>
+      <c r="AI26" s="55"/>
+    </row>
+    <row r="27" spans="32:41" ht="21" x14ac:dyDescent="0.35">
+      <c r="AF27" s="53"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="53"/>
+      <c r="AI27" s="55"/>
+    </row>
+    <row r="28" spans="32:41" ht="21" x14ac:dyDescent="0.35">
+      <c r="AF28" s="53"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="53"/>
+      <c r="AI28" s="55"/>
+    </row>
+    <row r="29" spans="32:41" ht="21" x14ac:dyDescent="0.35">
+      <c r="AF29" s="53"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="55"/>
+    </row>
+    <row r="30" spans="32:41" ht="21" x14ac:dyDescent="0.35">
+      <c r="AF30" s="53"/>
+      <c r="AG30" s="53"/>
+      <c r="AH30" s="53"/>
+      <c r="AI30" s="55"/>
+    </row>
+    <row r="31" spans="32:41" ht="21" x14ac:dyDescent="0.35">
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="55"/>
     </row>
   </sheetData>
-  <sortState ref="M5:P15">
-    <sortCondition ref="P5:P15"/>
+  <sortState ref="S5:V15">
+    <sortCondition ref="V5:V15"/>
   </sortState>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="H3:J3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="S3:U3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="37">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Octubre.,2022</t>
+  </si>
+  <si>
+    <t>Noviembre.,2022</t>
   </si>
 </sst>
 </file>
@@ -1216,8 +1219,8 @@
   </sheetPr>
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1690,7 +1693,7 @@
         <v>436</v>
       </c>
       <c r="H15" s="13">
-        <v>18569</v>
+        <v>1856</v>
       </c>
       <c r="I15" s="46">
         <v>434</v>
@@ -1709,19 +1712,37 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="35"/>
+      <c r="A16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="11">
+        <v>986</v>
+      </c>
+      <c r="C16" s="35">
+        <v>442</v>
+      </c>
       <c r="D16" s="16"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="46"/>
+      <c r="F16" s="15">
+        <v>1856</v>
+      </c>
+      <c r="G16" s="42">
+        <v>449</v>
+      </c>
+      <c r="H16" s="13">
+        <v>1856</v>
+      </c>
+      <c r="I16" s="46">
+        <v>447</v>
+      </c>
       <c r="J16" s="27"/>
       <c r="K16" s="48"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="51"/>
+      <c r="L16" s="13">
+        <v>1392</v>
+      </c>
+      <c r="M16" s="51">
+        <v>448</v>
+      </c>
     </row>
     <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -1816,7 +1837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AO31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -2551,14 +2572,14 @@
     <sortCondition ref="V5:V15"/>
   </sortState>
   <mergeCells count="8">
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="S3:U3"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="S3:U3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="37">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -1220,7 +1220,7 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1721,8 +1721,12 @@
       <c r="C16" s="35">
         <v>442</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="35"/>
+      <c r="D16" s="16">
+        <v>1392</v>
+      </c>
+      <c r="E16" s="35">
+        <v>452</v>
+      </c>
       <c r="F16" s="15">
         <v>1856</v>
       </c>
@@ -1735,8 +1739,12 @@
       <c r="I16" s="46">
         <v>447</v>
       </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="48"/>
+      <c r="J16" s="27">
+        <v>1392</v>
+      </c>
+      <c r="K16" s="48">
+        <v>453</v>
+      </c>
       <c r="L16" s="13">
         <v>1392</v>
       </c>
@@ -1835,44 +1843,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AO31"/>
+  <dimension ref="B3:AU31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" customWidth="1"/>
-    <col min="19" max="19" width="36" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.42578125" customWidth="1"/>
-    <col min="26" max="26" width="36" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.140625" customWidth="1"/>
-    <col min="29" max="29" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="19.5703125" customWidth="1"/>
-    <col min="34" max="34" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.42578125" style="56" customWidth="1"/>
-    <col min="39" max="39" width="36" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.5703125" style="25" customWidth="1"/>
-    <col min="41" max="41" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.42578125" customWidth="1"/>
+    <col min="25" max="25" width="36" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.42578125" customWidth="1"/>
+    <col min="32" max="32" width="36" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.140625" customWidth="1"/>
+    <col min="35" max="35" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="19.5703125" customWidth="1"/>
+    <col min="40" max="40" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.42578125" style="56" customWidth="1"/>
+    <col min="45" max="45" width="36" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.5703125" style="25" customWidth="1"/>
+    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="85" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="69"/>
+    <row r="3" spans="2:47" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H3" s="85" t="s">
         <v>14</v>
       </c>
@@ -1885,50 +1890,52 @@
       <c r="O3" s="85"/>
       <c r="P3" s="85"/>
       <c r="Q3" s="69"/>
-      <c r="S3" s="85" t="s">
+      <c r="T3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="85"/>
       <c r="U3" s="85"/>
-      <c r="V3" s="69"/>
-      <c r="Z3" s="85" t="s">
+      <c r="V3" s="85"/>
+      <c r="W3" s="69"/>
+      <c r="Y3" s="85" t="s">
         <v>14</v>
       </c>
+      <c r="Z3" s="85"/>
       <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="68"/>
+      <c r="AB3" s="69"/>
       <c r="AF3" s="85" t="s">
         <v>14</v>
       </c>
       <c r="AG3" s="85"/>
       <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AM3" s="85" t="s">
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="68"/>
+      <c r="AL3" s="85" t="s">
         <v>14</v>
       </c>
+      <c r="AM3" s="85"/>
       <c r="AN3" s="85"/>
       <c r="AO3" s="85"/>
-    </row>
-    <row r="4" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="E4" s="56"/>
+      <c r="AS3" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT3" s="85"/>
+      <c r="AU3" s="85"/>
+    </row>
+    <row r="4" spans="2:47" x14ac:dyDescent="0.25">
       <c r="K4" s="56"/>
       <c r="Q4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="AC4" s="56"/>
-      <c r="AO4" s="56"/>
-    </row>
-    <row r="5" spans="2:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="B5" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="77">
-        <v>44861</v>
-      </c>
+      <c r="W4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AI4" s="56"/>
+      <c r="AU4" s="56"/>
+    </row>
+    <row r="5" spans="2:47" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B5" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="69"/>
       <c r="H5" s="70" t="s">
         <v>24</v>
       </c>
@@ -1937,89 +1944,100 @@
         <v>16</v>
       </c>
       <c r="K5" s="77">
+        <v>44861</v>
+      </c>
+      <c r="N5" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="70"/>
+      <c r="P5" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="77">
         <v>44833</v>
       </c>
-      <c r="N5" s="53" t="s">
+      <c r="T5" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53" t="s">
+      <c r="U5" s="53"/>
+      <c r="V5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="59">
+      <c r="W5" s="59">
         <v>44804</v>
       </c>
-      <c r="S5" s="53" t="s">
+      <c r="Y5" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53" t="s">
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="V5" s="73">
+      <c r="AB5" s="73">
         <v>44776</v>
       </c>
-      <c r="Z5" s="70" t="s">
+      <c r="AF5" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="AA5" s="70"/>
-      <c r="AB5" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC5" s="60">
-        <v>44747</v>
-      </c>
-      <c r="AF5" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG5" s="86"/>
+      <c r="AG5" s="70"/>
       <c r="AH5" s="54" t="s">
         <v>16</v>
       </c>
       <c r="AI5" s="60">
+        <v>44747</v>
+      </c>
+      <c r="AL5" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM5" s="86"/>
+      <c r="AN5" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO5" s="60">
         <v>44686</v>
       </c>
-      <c r="AM5" s="57" t="s">
+      <c r="AS5" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AN5" s="64" t="s">
+      <c r="AT5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="AO5" s="60">
+      <c r="AU5" s="60">
         <v>44714</v>
       </c>
     </row>
-    <row r="6" spans="2:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="62"/>
+    <row r="6" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+      <c r="E6" s="56"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
       <c r="J6" s="53"/>
       <c r="K6" s="62"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="62"/>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="53"/>
-      <c r="AI6" s="55"/>
-      <c r="AM6" s="61"/>
-      <c r="AN6" s="65"/>
-      <c r="AO6" s="62"/>
-    </row>
-    <row r="7" spans="2:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="59">
-        <v>44874</v>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="62"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="62"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="55"/>
+      <c r="AS6" s="61"/>
+      <c r="AT6" s="65"/>
+      <c r="AU6" s="62"/>
+    </row>
+    <row r="7" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="77">
+        <v>44896</v>
       </c>
       <c r="H7" s="53" t="s">
         <v>17</v>
@@ -2029,37 +2047,37 @@
         <v>18</v>
       </c>
       <c r="K7" s="59">
+        <v>44874</v>
+      </c>
+      <c r="N7" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="59">
         <v>44839</v>
       </c>
-      <c r="N7" s="70" t="s">
+      <c r="T7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="70"/>
-      <c r="P7" s="54" t="s">
+      <c r="U7" s="70"/>
+      <c r="V7" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="77">
+      <c r="W7" s="77">
         <v>44805</v>
       </c>
-      <c r="S7" s="70" t="s">
+      <c r="Y7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="T7" s="70"/>
-      <c r="U7" s="54" t="s">
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="V7" s="60">
+      <c r="AB7" s="60">
         <v>44777</v>
-      </c>
-      <c r="Z7" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC7" s="73">
-        <v>44748</v>
       </c>
       <c r="AF7" s="53" t="s">
         <v>17</v>
@@ -2068,43 +2086,57 @@
       <c r="AH7" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AI7" s="58">
+      <c r="AI7" s="73">
+        <v>44748</v>
+      </c>
+      <c r="AL7" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM7" s="53"/>
+      <c r="AN7" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO7" s="58">
         <v>44691</v>
       </c>
-      <c r="AJ7" s="63"/>
-      <c r="AM7" s="53" t="s">
+      <c r="AP7" s="63"/>
+      <c r="AS7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="AN7" s="66" t="s">
+      <c r="AT7" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="AO7" s="58">
+      <c r="AU7" s="58">
         <v>44719</v>
       </c>
     </row>
-    <row r="8" spans="2:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="61"/>
-      <c r="AC8" s="62"/>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="53"/>
-      <c r="AH8" s="53"/>
-      <c r="AI8" s="55"/>
-      <c r="AM8" s="61"/>
-      <c r="AN8" s="65"/>
-      <c r="AO8" s="62"/>
-    </row>
-    <row r="9" spans="2:41" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="62"/>
+      <c r="AF8" s="61"/>
+      <c r="AG8" s="61"/>
+      <c r="AH8" s="61"/>
+      <c r="AI8" s="62"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="55"/>
+      <c r="AS8" s="61"/>
+      <c r="AT8" s="65"/>
+      <c r="AU8" s="62"/>
+    </row>
+    <row r="9" spans="2:47" ht="21" x14ac:dyDescent="0.35">
       <c r="B9" s="53" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="78">
-        <v>44875</v>
+        <v>18</v>
+      </c>
+      <c r="E9" s="59">
+        <v>44902</v>
       </c>
       <c r="H9" s="53" t="s">
         <v>25</v>
@@ -2114,37 +2146,37 @@
         <v>33</v>
       </c>
       <c r="K9" s="78">
-        <v>44840</v>
+        <v>44875</v>
       </c>
       <c r="N9" s="53" t="s">
         <v>25</v>
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="78">
+        <v>44840</v>
+      </c>
+      <c r="T9" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Q9" s="78">
+      <c r="W9" s="78">
         <v>44807</v>
       </c>
-      <c r="S9" s="53" t="s">
+      <c r="Y9" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53" t="s">
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="59">
+      <c r="AB9" s="59">
         <v>44779</v>
-      </c>
-      <c r="Z9" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC9" s="58">
-        <v>44749</v>
       </c>
       <c r="AF9" s="53" t="s">
         <v>26</v>
@@ -2153,42 +2185,52 @@
       <c r="AH9" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="AI9" s="60">
+      <c r="AI9" s="58">
+        <v>44749</v>
+      </c>
+      <c r="AL9" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO9" s="60">
         <v>44693</v>
       </c>
-      <c r="AM9" s="53" t="s">
+      <c r="AS9" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="AN9" s="66" t="s">
+      <c r="AT9" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="AO9" s="60">
+      <c r="AU9" s="60">
         <v>44721</v>
       </c>
     </row>
-    <row r="10" spans="2:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="61"/>
-      <c r="AB10" s="61"/>
-      <c r="AC10" s="62"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="55"/>
-      <c r="AM10" s="61"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="62"/>
-    </row>
-    <row r="11" spans="2:41" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="62"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="53"/>
+      <c r="AO10" s="55"/>
+      <c r="AS10" s="61"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="62"/>
+    </row>
+    <row r="11" spans="2:47" ht="21" x14ac:dyDescent="0.35">
       <c r="B11" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="60">
-        <v>44876</v>
+        <v>33</v>
+      </c>
+      <c r="E11" s="78">
+        <v>44903</v>
       </c>
       <c r="H11" s="53" t="s">
         <v>26</v>
@@ -2198,7 +2240,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="60">
-        <v>44841</v>
+        <v>44876</v>
       </c>
       <c r="N11" s="53" t="s">
         <v>26</v>
@@ -2208,53 +2250,59 @@
         <v>19</v>
       </c>
       <c r="Q11" s="60">
+        <v>44841</v>
+      </c>
+      <c r="T11" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="W11" s="60">
         <v>44812</v>
       </c>
-      <c r="S11" s="53" t="s">
+      <c r="Y11" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53" t="s">
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="V11" s="58">
+      <c r="AB11" s="58">
         <v>44784</v>
       </c>
-      <c r="Z11" s="53" t="s">
+      <c r="AF11" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53" t="s">
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AC11" s="59">
+      <c r="AI11" s="59">
         <v>44751</v>
       </c>
-      <c r="AF11" s="53" t="s">
+      <c r="AL11" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="AG11" s="61"/>
-      <c r="AH11" s="53" t="s">
+      <c r="AM11" s="61"/>
+      <c r="AN11" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AI11" s="58">
+      <c r="AO11" s="58">
         <v>44695</v>
       </c>
-      <c r="AM11" s="53" t="s">
+      <c r="AS11" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AN11" s="66" t="s">
+      <c r="AT11" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="AO11" s="59">
+      <c r="AU11" s="59">
         <v>44723</v>
       </c>
     </row>
-    <row r="12" spans="2:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="62"/>
+    <row r="12" spans="2:47" ht="21" x14ac:dyDescent="0.35">
       <c r="H12" s="71"/>
       <c r="I12" s="71"/>
       <c r="J12" s="72"/>
@@ -2263,32 +2311,36 @@
       <c r="O12" s="71"/>
       <c r="P12" s="72"/>
       <c r="Q12" s="62"/>
-      <c r="S12" s="71"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="62"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="61"/>
-      <c r="AC12" s="62"/>
-      <c r="AF12" s="53"/>
-      <c r="AG12" s="53"/>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="55"/>
-      <c r="AM12" s="61"/>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="62"/>
-    </row>
-    <row r="13" spans="2:41" ht="21" x14ac:dyDescent="0.35">
+      <c r="U12" s="71"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="62"/>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="62"/>
+      <c r="AF12" s="61"/>
+      <c r="AG12" s="61"/>
+      <c r="AH12" s="61"/>
+      <c r="AI12" s="62"/>
+      <c r="AL12" s="53"/>
+      <c r="AM12" s="53"/>
+      <c r="AN12" s="53"/>
+      <c r="AO12" s="55"/>
+      <c r="AS12" s="61"/>
+      <c r="AT12" s="65"/>
+      <c r="AU12" s="62"/>
+    </row>
+    <row r="13" spans="2:47" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="53" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="80">
-        <v>44883</v>
+        <v>19</v>
+      </c>
+      <c r="E13" s="60">
+        <v>44904</v>
       </c>
       <c r="H13" s="53" t="s">
         <v>22</v>
@@ -2298,7 +2350,7 @@
         <v>23</v>
       </c>
       <c r="K13" s="80">
-        <v>44848</v>
+        <v>44883</v>
       </c>
       <c r="N13" s="53" t="s">
         <v>22</v>
@@ -2307,53 +2359,63 @@
       <c r="P13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="Q13" s="76">
+      <c r="Q13" s="80">
+        <v>44848</v>
+      </c>
+      <c r="T13" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="W13" s="76">
         <v>44813</v>
       </c>
-      <c r="S13" s="53" t="s">
+      <c r="Y13" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53" t="s">
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="V13" s="74">
+      <c r="AB13" s="74">
         <v>44785</v>
       </c>
-      <c r="Z13" s="53" t="s">
+      <c r="AF13" s="53" t="s">
         <v>22</v>
-      </c>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC13" s="74">
-        <v>44756</v>
-      </c>
-      <c r="AF13" s="53" t="s">
-        <v>25</v>
       </c>
       <c r="AG13" s="53"/>
       <c r="AH13" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI13" s="74">
+        <v>44756</v>
+      </c>
+      <c r="AL13" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM13" s="53"/>
+      <c r="AN13" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AI13" s="59">
+      <c r="AO13" s="59">
         <v>44695</v>
       </c>
-      <c r="AM13" s="53" t="s">
+      <c r="AS13" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="AN13" s="66" t="s">
+      <c r="AT13" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="AO13" s="60">
+      <c r="AU13" s="60">
         <v>44728</v>
       </c>
     </row>
-    <row r="14" spans="2:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
+    <row r="14" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
       <c r="E14" s="62"/>
       <c r="H14" s="61"/>
       <c r="I14" s="61"/>
@@ -2363,32 +2425,36 @@
       <c r="O14" s="61"/>
       <c r="P14" s="61"/>
       <c r="Q14" s="62"/>
-      <c r="S14" s="61"/>
       <c r="T14" s="61"/>
       <c r="U14" s="61"/>
-      <c r="V14" s="62"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="62"/>
+      <c r="Y14" s="61"/>
       <c r="Z14" s="61"/>
       <c r="AA14" s="61"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="62"/>
-      <c r="AF14" s="53"/>
-      <c r="AG14" s="53"/>
-      <c r="AH14" s="53"/>
-      <c r="AI14" s="55"/>
-      <c r="AM14" s="61"/>
-      <c r="AN14" s="65"/>
-      <c r="AO14" s="62"/>
-    </row>
-    <row r="15" spans="2:41" ht="21" x14ac:dyDescent="0.35">
+      <c r="AB14" s="62"/>
+      <c r="AF14" s="61"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="61"/>
+      <c r="AI14" s="62"/>
+      <c r="AL14" s="53"/>
+      <c r="AM14" s="53"/>
+      <c r="AN14" s="53"/>
+      <c r="AO14" s="55"/>
+      <c r="AS14" s="61"/>
+      <c r="AT14" s="65"/>
+      <c r="AU14" s="62"/>
+    </row>
+    <row r="15" spans="2:47" ht="21" x14ac:dyDescent="0.35">
       <c r="B15" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="79">
-        <v>44884</v>
+        <v>22</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="80">
+        <v>44911</v>
       </c>
       <c r="H15" s="53" t="s">
         <v>20</v>
@@ -2398,7 +2464,7 @@
         <v>16</v>
       </c>
       <c r="K15" s="79">
-        <v>44849</v>
+        <v>44884</v>
       </c>
       <c r="N15" s="53" t="s">
         <v>20</v>
@@ -2408,178 +2474,203 @@
         <v>16</v>
       </c>
       <c r="Q15" s="79">
+        <v>44849</v>
+      </c>
+      <c r="T15" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="U15" s="61"/>
+      <c r="V15" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="W15" s="79">
         <v>44814</v>
       </c>
-      <c r="S15" s="53" t="s">
+      <c r="Y15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="T15" s="61"/>
-      <c r="U15" s="54" t="s">
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="V15" s="75">
+      <c r="AB15" s="75">
         <v>44786</v>
       </c>
-      <c r="Z15" s="53" t="s">
+      <c r="AF15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="53" t="s">
+      <c r="AG15" s="61"/>
+      <c r="AH15" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AC15" s="75">
+      <c r="AI15" s="75">
         <v>44758</v>
       </c>
-      <c r="AF15" s="53" t="s">
+      <c r="AL15" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="AG15" s="53"/>
-      <c r="AH15" s="53" t="s">
+      <c r="AM15" s="53"/>
+      <c r="AN15" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="AI15" s="60">
+      <c r="AO15" s="60">
         <v>44700</v>
       </c>
-      <c r="AM15" s="53" t="s">
+      <c r="AS15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="AN15" s="66" t="s">
+      <c r="AT15" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="AO15" s="58">
+      <c r="AU15" s="58">
         <v>44730</v>
       </c>
     </row>
-    <row r="16" spans="2:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="55"/>
-      <c r="S16" s="53"/>
+    <row r="16" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
       <c r="T16" s="53"/>
       <c r="U16" s="53"/>
-      <c r="V16" s="55"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="55"/>
+      <c r="Y16" s="53"/>
       <c r="Z16" s="53"/>
       <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="55"/>
+      <c r="AB16" s="55"/>
       <c r="AF16" s="53"/>
       <c r="AG16" s="53"/>
       <c r="AH16" s="53"/>
       <c r="AI16" s="55"/>
+      <c r="AL16" s="53"/>
       <c r="AM16" s="53"/>
-      <c r="AN16" s="66"/>
+      <c r="AN16" s="53"/>
       <c r="AO16" s="55"/>
-    </row>
-    <row r="17" spans="32:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="AF17" s="61"/>
-      <c r="AG17" s="61"/>
-      <c r="AH17" s="61"/>
-      <c r="AI17" s="62"/>
-      <c r="AM17" s="53"/>
-      <c r="AN17" s="66"/>
-      <c r="AO17" s="55"/>
-    </row>
-    <row r="18" spans="32:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="AF18" s="53"/>
-      <c r="AG18" s="53"/>
-      <c r="AH18" s="53"/>
-      <c r="AI18" s="55"/>
+      <c r="AS16" s="53"/>
+      <c r="AT16" s="66"/>
+      <c r="AU16" s="55"/>
+    </row>
+    <row r="17" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+      <c r="B17" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="61"/>
+      <c r="D17" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="79">
+        <v>44912</v>
+      </c>
+      <c r="AL17" s="61"/>
+      <c r="AM17" s="61"/>
+      <c r="AN17" s="61"/>
+      <c r="AO17" s="62"/>
+      <c r="AS17" s="53"/>
+      <c r="AT17" s="66"/>
+      <c r="AU17" s="55"/>
+    </row>
+    <row r="18" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+      <c r="AL18" s="53"/>
       <c r="AM18" s="53"/>
-      <c r="AN18" s="66"/>
+      <c r="AN18" s="53"/>
       <c r="AO18" s="55"/>
-    </row>
-    <row r="19" spans="32:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="AF19" s="53"/>
-      <c r="AG19" s="53"/>
-      <c r="AH19" s="53"/>
-      <c r="AI19" s="55"/>
-    </row>
-    <row r="20" spans="32:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="AF20" s="53"/>
-      <c r="AG20" s="53"/>
-      <c r="AH20" s="53"/>
-      <c r="AI20" s="55"/>
-    </row>
-    <row r="21" spans="32:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="AF21" s="53"/>
-      <c r="AG21" s="53"/>
-      <c r="AH21" s="53"/>
-      <c r="AI21" s="55"/>
-    </row>
-    <row r="22" spans="32:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="AF22" s="53"/>
-      <c r="AG22" s="53"/>
-      <c r="AH22" s="53"/>
-      <c r="AI22" s="55"/>
-    </row>
-    <row r="23" spans="32:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="AF23" s="53"/>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="53"/>
-      <c r="AI23" s="55"/>
-    </row>
-    <row r="24" spans="32:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="AF24" s="53"/>
-      <c r="AG24" s="53"/>
-      <c r="AH24" s="53"/>
-      <c r="AI24" s="55"/>
-    </row>
-    <row r="25" spans="32:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="AF25" s="53"/>
-      <c r="AG25" s="53"/>
-      <c r="AH25" s="53"/>
-      <c r="AI25" s="55"/>
-    </row>
-    <row r="26" spans="32:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="AF26" s="53"/>
-      <c r="AG26" s="53"/>
-      <c r="AH26" s="53"/>
-      <c r="AI26" s="55"/>
-    </row>
-    <row r="27" spans="32:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="AF27" s="53"/>
-      <c r="AG27" s="53"/>
-      <c r="AH27" s="53"/>
-      <c r="AI27" s="55"/>
-    </row>
-    <row r="28" spans="32:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="AF28" s="53"/>
-      <c r="AG28" s="53"/>
-      <c r="AH28" s="53"/>
-      <c r="AI28" s="55"/>
-    </row>
-    <row r="29" spans="32:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="AF29" s="53"/>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="53"/>
-      <c r="AI29" s="55"/>
-    </row>
-    <row r="30" spans="32:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="AF30" s="53"/>
-      <c r="AG30" s="53"/>
-      <c r="AH30" s="53"/>
-      <c r="AI30" s="55"/>
-    </row>
-    <row r="31" spans="32:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="AF31" s="53"/>
-      <c r="AG31" s="53"/>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="55"/>
+      <c r="AS18" s="53"/>
+      <c r="AT18" s="66"/>
+      <c r="AU18" s="55"/>
+    </row>
+    <row r="19" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+      <c r="AL19" s="53"/>
+      <c r="AM19" s="53"/>
+      <c r="AN19" s="53"/>
+      <c r="AO19" s="55"/>
+    </row>
+    <row r="20" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+      <c r="AL20" s="53"/>
+      <c r="AM20" s="53"/>
+      <c r="AN20" s="53"/>
+      <c r="AO20" s="55"/>
+    </row>
+    <row r="21" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+      <c r="AL21" s="53"/>
+      <c r="AM21" s="53"/>
+      <c r="AN21" s="53"/>
+      <c r="AO21" s="55"/>
+    </row>
+    <row r="22" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+      <c r="AL22" s="53"/>
+      <c r="AM22" s="53"/>
+      <c r="AN22" s="53"/>
+      <c r="AO22" s="55"/>
+    </row>
+    <row r="23" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+      <c r="AL23" s="53"/>
+      <c r="AM23" s="53"/>
+      <c r="AN23" s="53"/>
+      <c r="AO23" s="55"/>
+    </row>
+    <row r="24" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+      <c r="AL24" s="53"/>
+      <c r="AM24" s="53"/>
+      <c r="AN24" s="53"/>
+      <c r="AO24" s="55"/>
+    </row>
+    <row r="25" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+      <c r="AL25" s="53"/>
+      <c r="AM25" s="53"/>
+      <c r="AN25" s="53"/>
+      <c r="AO25" s="55"/>
+    </row>
+    <row r="26" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+      <c r="AL26" s="53"/>
+      <c r="AM26" s="53"/>
+      <c r="AN26" s="53"/>
+      <c r="AO26" s="55"/>
+    </row>
+    <row r="27" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+      <c r="AL27" s="53"/>
+      <c r="AM27" s="53"/>
+      <c r="AN27" s="53"/>
+      <c r="AO27" s="55"/>
+    </row>
+    <row r="28" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+      <c r="AL28" s="53"/>
+      <c r="AM28" s="53"/>
+      <c r="AN28" s="53"/>
+      <c r="AO28" s="55"/>
+    </row>
+    <row r="29" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+      <c r="AL29" s="53"/>
+      <c r="AM29" s="53"/>
+      <c r="AN29" s="53"/>
+      <c r="AO29" s="55"/>
+    </row>
+    <row r="30" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+      <c r="AL30" s="53"/>
+      <c r="AM30" s="53"/>
+      <c r="AN30" s="53"/>
+      <c r="AO30" s="55"/>
+    </row>
+    <row r="31" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+      <c r="AL31" s="53"/>
+      <c r="AM31" s="53"/>
+      <c r="AN31" s="53"/>
+      <c r="AO31" s="55"/>
     </row>
   </sheetData>
-  <sortState ref="S5:V15">
-    <sortCondition ref="V5:V15"/>
+  <sortState ref="Y5:AB15">
+    <sortCondition ref="AB5:AB15"/>
   </sortState>
-  <mergeCells count="8">
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="B3:D3"/>
+  <mergeCells count="9">
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="N3:P3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="AL3:AO3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="37">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -865,11 +865,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1219,7 +1219,7 @@
   </sheetPr>
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1843,10 +1843,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AU31"/>
+  <dimension ref="B3:BA31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1856,96 +1856,95 @@
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="36" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="36" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.42578125" customWidth="1"/>
-    <col min="25" max="25" width="36" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.42578125" customWidth="1"/>
-    <col min="32" max="32" width="36" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.140625" customWidth="1"/>
-    <col min="35" max="35" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="19.5703125" customWidth="1"/>
-    <col min="40" max="40" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.42578125" style="56" customWidth="1"/>
-    <col min="45" max="45" width="36" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="19.5703125" style="25" customWidth="1"/>
-    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="36" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.42578125" customWidth="1"/>
+    <col min="31" max="31" width="36" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.42578125" customWidth="1"/>
+    <col min="38" max="38" width="36" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.140625" customWidth="1"/>
+    <col min="41" max="41" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="19.5703125" customWidth="1"/>
+    <col min="46" max="46" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.42578125" style="56" customWidth="1"/>
+    <col min="51" max="51" width="36" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.5703125" style="25" customWidth="1"/>
+    <col min="53" max="53" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:47" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H3" s="85" t="s">
+    <row r="3" spans="2:53" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="69"/>
-      <c r="N3" s="85" t="s">
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="69"/>
+      <c r="T3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="69"/>
-      <c r="T3" s="85" t="s">
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="69"/>
+      <c r="Z3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="69"/>
-      <c r="Y3" s="85" t="s">
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="69"/>
+      <c r="AE3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="69"/>
-      <c r="AF3" s="85" t="s">
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="69"/>
+      <c r="AL3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="68"/>
-      <c r="AL3" s="85" t="s">
+      <c r="AM3" s="86"/>
+      <c r="AN3" s="86"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="68"/>
+      <c r="AR3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="85"/>
-      <c r="AO3" s="85"/>
-      <c r="AS3" s="85" t="s">
+      <c r="AS3" s="86"/>
+      <c r="AT3" s="86"/>
+      <c r="AU3" s="86"/>
+      <c r="AY3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="85"/>
-      <c r="AU3" s="85"/>
-    </row>
-    <row r="4" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="K4" s="56"/>
+      <c r="AZ3" s="86"/>
+      <c r="BA3" s="86"/>
+    </row>
+    <row r="4" spans="2:53" x14ac:dyDescent="0.25">
       <c r="Q4" s="56"/>
       <c r="W4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AI4" s="56"/>
-      <c r="AU4" s="56"/>
-    </row>
-    <row r="5" spans="2:47" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="85" t="s">
+      <c r="AC4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AO4" s="56"/>
+      <c r="BA4" s="56"/>
+    </row>
+    <row r="5" spans="2:53" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B5" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="69"/>
-      <c r="H5" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="77">
-        <v>44861</v>
-      </c>
+      <c r="H5" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="69"/>
       <c r="N5" s="70" t="s">
         <v>24</v>
       </c>
@@ -1954,100 +1953,111 @@
         <v>16</v>
       </c>
       <c r="Q5" s="77">
+        <v>44861</v>
+      </c>
+      <c r="T5" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" s="70"/>
+      <c r="V5" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="W5" s="77">
         <v>44833</v>
       </c>
-      <c r="T5" s="53" t="s">
+      <c r="Z5" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53" t="s">
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="59">
+      <c r="AC5" s="59">
         <v>44804</v>
       </c>
-      <c r="Y5" s="53" t="s">
+      <c r="AE5" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53" t="s">
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AB5" s="73">
+      <c r="AH5" s="73">
         <v>44776</v>
       </c>
-      <c r="AF5" s="70" t="s">
+      <c r="AL5" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="AG5" s="70"/>
-      <c r="AH5" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI5" s="60">
-        <v>44747</v>
-      </c>
-      <c r="AL5" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM5" s="86"/>
+      <c r="AM5" s="70"/>
       <c r="AN5" s="54" t="s">
         <v>16</v>
       </c>
       <c r="AO5" s="60">
+        <v>44747</v>
+      </c>
+      <c r="AR5" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS5" s="85"/>
+      <c r="AT5" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU5" s="60">
         <v>44686</v>
       </c>
-      <c r="AS5" s="57" t="s">
+      <c r="AY5" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AT5" s="64" t="s">
+      <c r="AZ5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="AU5" s="60">
+      <c r="BA5" s="60">
         <v>44714</v>
       </c>
     </row>
-    <row r="6" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:53" ht="21" x14ac:dyDescent="0.35">
       <c r="E6" s="56"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="62"/>
+      <c r="K6" s="56"/>
       <c r="N6" s="53"/>
       <c r="O6" s="53"/>
       <c r="P6" s="53"/>
       <c r="Q6" s="62"/>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="71"/>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="62"/>
-      <c r="AL6" s="53"/>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="53"/>
-      <c r="AO6" s="55"/>
-      <c r="AS6" s="61"/>
-      <c r="AT6" s="65"/>
-      <c r="AU6" s="62"/>
-    </row>
-    <row r="7" spans="2:47" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="70" t="s">
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="62"/>
+      <c r="AL6" s="71"/>
+      <c r="AM6" s="71"/>
+      <c r="AN6" s="72"/>
+      <c r="AO6" s="62"/>
+      <c r="AR6" s="53"/>
+      <c r="AS6" s="53"/>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="55"/>
+      <c r="AY6" s="61"/>
+      <c r="AZ6" s="65"/>
+      <c r="BA6" s="62"/>
+    </row>
+    <row r="7" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="59">
+        <v>44930</v>
+      </c>
+      <c r="H7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="54" t="s">
+      <c r="I7" s="70"/>
+      <c r="J7" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="77">
+      <c r="K7" s="77">
         <v>44896</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="59">
-        <v>44874</v>
       </c>
       <c r="N7" s="53" t="s">
         <v>17</v>
@@ -2057,37 +2067,37 @@
         <v>18</v>
       </c>
       <c r="Q7" s="59">
+        <v>44874</v>
+      </c>
+      <c r="T7" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" s="59">
         <v>44839</v>
       </c>
-      <c r="T7" s="70" t="s">
+      <c r="Z7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="70"/>
-      <c r="V7" s="54" t="s">
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="W7" s="77">
+      <c r="AC7" s="77">
         <v>44805</v>
       </c>
-      <c r="Y7" s="70" t="s">
+      <c r="AE7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="54" t="s">
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="AB7" s="60">
+      <c r="AH7" s="60">
         <v>44777</v>
-      </c>
-      <c r="AF7" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI7" s="73">
-        <v>44748</v>
       </c>
       <c r="AL7" s="53" t="s">
         <v>17</v>
@@ -2096,57 +2106,71 @@
       <c r="AN7" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AO7" s="58">
+      <c r="AO7" s="73">
+        <v>44748</v>
+      </c>
+      <c r="AR7" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS7" s="53"/>
+      <c r="AT7" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU7" s="58">
         <v>44691</v>
       </c>
-      <c r="AP7" s="63"/>
-      <c r="AS7" s="53" t="s">
+      <c r="AV7" s="63"/>
+      <c r="AY7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="AT7" s="66" t="s">
+      <c r="AZ7" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="AU7" s="58">
+      <c r="BA7" s="58">
         <v>44719</v>
       </c>
     </row>
-    <row r="8" spans="2:47" ht="21" x14ac:dyDescent="0.35">
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
+    <row r="8" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="62"/>
-      <c r="AF8" s="61"/>
-      <c r="AG8" s="61"/>
-      <c r="AH8" s="61"/>
-      <c r="AI8" s="62"/>
-      <c r="AL8" s="53"/>
-      <c r="AM8" s="53"/>
-      <c r="AN8" s="53"/>
-      <c r="AO8" s="55"/>
-      <c r="AS8" s="61"/>
-      <c r="AT8" s="65"/>
-      <c r="AU8" s="62"/>
-    </row>
-    <row r="9" spans="2:47" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="53" t="s">
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="62"/>
+      <c r="AL8" s="61"/>
+      <c r="AM8" s="61"/>
+      <c r="AN8" s="61"/>
+      <c r="AO8" s="62"/>
+      <c r="AR8" s="53"/>
+      <c r="AS8" s="53"/>
+      <c r="AT8" s="53"/>
+      <c r="AU8" s="55"/>
+      <c r="AY8" s="61"/>
+      <c r="AZ8" s="65"/>
+      <c r="BA8" s="62"/>
+    </row>
+    <row r="9" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="B9" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="77">
+        <v>44931</v>
+      </c>
+      <c r="H9" s="53" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="59">
-        <v>44902</v>
-      </c>
-      <c r="H9" s="53" t="s">
-        <v>25</v>
       </c>
       <c r="I9" s="53"/>
       <c r="J9" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="78">
-        <v>44875</v>
+        <v>18</v>
+      </c>
+      <c r="K9" s="59">
+        <v>44902</v>
       </c>
       <c r="N9" s="53" t="s">
         <v>25</v>
@@ -2156,37 +2180,37 @@
         <v>33</v>
       </c>
       <c r="Q9" s="78">
-        <v>44840</v>
+        <v>44875</v>
       </c>
       <c r="T9" s="53" t="s">
         <v>25</v>
       </c>
       <c r="U9" s="53"/>
       <c r="V9" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" s="78">
+        <v>44840</v>
+      </c>
+      <c r="Z9" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="W9" s="78">
+      <c r="AC9" s="78">
         <v>44807</v>
       </c>
-      <c r="Y9" s="53" t="s">
+      <c r="AE9" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53" t="s">
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AB9" s="59">
+      <c r="AH9" s="59">
         <v>44779</v>
-      </c>
-      <c r="AF9" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI9" s="58">
-        <v>44749</v>
       </c>
       <c r="AL9" s="53" t="s">
         <v>26</v>
@@ -2195,33 +2219,43 @@
       <c r="AN9" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="AO9" s="60">
+      <c r="AO9" s="58">
+        <v>44749</v>
+      </c>
+      <c r="AR9" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS9" s="53"/>
+      <c r="AT9" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU9" s="60">
         <v>44693</v>
       </c>
-      <c r="AS9" s="53" t="s">
+      <c r="AY9" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="AT9" s="66" t="s">
+      <c r="AZ9" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="AU9" s="60">
+      <c r="BA9" s="60">
         <v>44721</v>
       </c>
     </row>
-    <row r="10" spans="2:47" ht="21" x14ac:dyDescent="0.35">
-      <c r="AF10" s="61"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="61"/>
-      <c r="AI10" s="62"/>
-      <c r="AL10" s="53"/>
-      <c r="AM10" s="53"/>
-      <c r="AN10" s="53"/>
-      <c r="AO10" s="55"/>
-      <c r="AS10" s="61"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="62"/>
-    </row>
-    <row r="11" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="AL10" s="61"/>
+      <c r="AM10" s="61"/>
+      <c r="AN10" s="61"/>
+      <c r="AO10" s="62"/>
+      <c r="AR10" s="53"/>
+      <c r="AS10" s="53"/>
+      <c r="AT10" s="53"/>
+      <c r="AU10" s="55"/>
+      <c r="AY10" s="61"/>
+      <c r="AZ10" s="65"/>
+      <c r="BA10" s="62"/>
+    </row>
+    <row r="11" spans="2:53" ht="21" x14ac:dyDescent="0.35">
       <c r="B11" s="53" t="s">
         <v>25</v>
       </c>
@@ -2230,17 +2264,17 @@
         <v>33</v>
       </c>
       <c r="E11" s="78">
-        <v>44903</v>
+        <v>44938</v>
       </c>
       <c r="H11" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" s="53"/>
       <c r="J11" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="60">
-        <v>44876</v>
+        <v>33</v>
+      </c>
+      <c r="K11" s="78">
+        <v>44903</v>
       </c>
       <c r="N11" s="53" t="s">
         <v>26</v>
@@ -2250,7 +2284,7 @@
         <v>19</v>
       </c>
       <c r="Q11" s="60">
-        <v>44841</v>
+        <v>44876</v>
       </c>
       <c r="T11" s="53" t="s">
         <v>26</v>
@@ -2260,53 +2294,59 @@
         <v>19</v>
       </c>
       <c r="W11" s="60">
+        <v>44841</v>
+      </c>
+      <c r="Z11" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC11" s="60">
         <v>44812</v>
       </c>
-      <c r="Y11" s="53" t="s">
+      <c r="AE11" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53" t="s">
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="AB11" s="58">
+      <c r="AH11" s="58">
         <v>44784</v>
       </c>
-      <c r="AF11" s="53" t="s">
+      <c r="AL11" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53" t="s">
+      <c r="AM11" s="53"/>
+      <c r="AN11" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AI11" s="59">
+      <c r="AO11" s="59">
         <v>44751</v>
       </c>
-      <c r="AL11" s="53" t="s">
+      <c r="AR11" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="AM11" s="61"/>
-      <c r="AN11" s="53" t="s">
+      <c r="AS11" s="61"/>
+      <c r="AT11" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AO11" s="58">
+      <c r="AU11" s="58">
         <v>44695</v>
       </c>
-      <c r="AS11" s="53" t="s">
+      <c r="AY11" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AT11" s="66" t="s">
+      <c r="AZ11" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="AU11" s="59">
+      <c r="BA11" s="59">
         <v>44723</v>
       </c>
     </row>
-    <row r="12" spans="2:47" ht="21" x14ac:dyDescent="0.35">
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="62"/>
+    <row r="12" spans="2:53" ht="21" x14ac:dyDescent="0.35">
       <c r="N12" s="71"/>
       <c r="O12" s="71"/>
       <c r="P12" s="72"/>
@@ -2315,23 +2355,27 @@
       <c r="U12" s="71"/>
       <c r="V12" s="72"/>
       <c r="W12" s="62"/>
-      <c r="Y12" s="71"/>
       <c r="Z12" s="71"/>
-      <c r="AA12" s="72"/>
-      <c r="AB12" s="62"/>
-      <c r="AF12" s="61"/>
-      <c r="AG12" s="61"/>
-      <c r="AH12" s="61"/>
-      <c r="AI12" s="62"/>
-      <c r="AL12" s="53"/>
-      <c r="AM12" s="53"/>
-      <c r="AN12" s="53"/>
-      <c r="AO12" s="55"/>
-      <c r="AS12" s="61"/>
-      <c r="AT12" s="65"/>
-      <c r="AU12" s="62"/>
-    </row>
-    <row r="13" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="62"/>
+      <c r="AE12" s="71"/>
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="72"/>
+      <c r="AH12" s="62"/>
+      <c r="AL12" s="61"/>
+      <c r="AM12" s="61"/>
+      <c r="AN12" s="61"/>
+      <c r="AO12" s="62"/>
+      <c r="AR12" s="53"/>
+      <c r="AS12" s="53"/>
+      <c r="AT12" s="53"/>
+      <c r="AU12" s="55"/>
+      <c r="AY12" s="61"/>
+      <c r="AZ12" s="65"/>
+      <c r="BA12" s="62"/>
+    </row>
+    <row r="13" spans="2:53" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="53" t="s">
         <v>26</v>
       </c>
@@ -2340,17 +2384,17 @@
         <v>19</v>
       </c>
       <c r="E13" s="60">
-        <v>44904</v>
+        <v>44939</v>
       </c>
       <c r="H13" s="53" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I13" s="53"/>
       <c r="J13" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="80">
-        <v>44883</v>
+        <v>19</v>
+      </c>
+      <c r="K13" s="60">
+        <v>44904</v>
       </c>
       <c r="N13" s="53" t="s">
         <v>22</v>
@@ -2360,7 +2404,7 @@
         <v>23</v>
       </c>
       <c r="Q13" s="80">
-        <v>44848</v>
+        <v>44883</v>
       </c>
       <c r="T13" s="53" t="s">
         <v>22</v>
@@ -2369,57 +2413,67 @@
       <c r="V13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="W13" s="76">
+      <c r="W13" s="80">
+        <v>44848</v>
+      </c>
+      <c r="Z13" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC13" s="76">
         <v>44813</v>
       </c>
-      <c r="Y13" s="53" t="s">
+      <c r="AE13" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53" t="s">
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="AB13" s="74">
+      <c r="AH13" s="74">
         <v>44785</v>
       </c>
-      <c r="AF13" s="53" t="s">
+      <c r="AL13" s="53" t="s">
         <v>22</v>
-      </c>
-      <c r="AG13" s="53"/>
-      <c r="AH13" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI13" s="74">
-        <v>44756</v>
-      </c>
-      <c r="AL13" s="53" t="s">
-        <v>25</v>
       </c>
       <c r="AM13" s="53"/>
       <c r="AN13" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO13" s="74">
+        <v>44756</v>
+      </c>
+      <c r="AR13" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS13" s="53"/>
+      <c r="AT13" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AO13" s="59">
+      <c r="AU13" s="59">
         <v>44695</v>
       </c>
-      <c r="AS13" s="53" t="s">
+      <c r="AY13" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="AT13" s="66" t="s">
+      <c r="AZ13" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="AU13" s="60">
+      <c r="BA13" s="60">
         <v>44728</v>
       </c>
     </row>
-    <row r="14" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:53" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="71"/>
       <c r="C14" s="71"/>
       <c r="D14" s="72"/>
       <c r="E14" s="62"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="72"/>
       <c r="K14" s="62"/>
       <c r="N14" s="61"/>
       <c r="O14" s="61"/>
@@ -2429,23 +2483,27 @@
       <c r="U14" s="61"/>
       <c r="V14" s="61"/>
       <c r="W14" s="62"/>
-      <c r="Y14" s="61"/>
       <c r="Z14" s="61"/>
       <c r="AA14" s="61"/>
-      <c r="AB14" s="62"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="62"/>
+      <c r="AE14" s="61"/>
       <c r="AF14" s="61"/>
       <c r="AG14" s="61"/>
-      <c r="AH14" s="61"/>
-      <c r="AI14" s="62"/>
-      <c r="AL14" s="53"/>
-      <c r="AM14" s="53"/>
-      <c r="AN14" s="53"/>
-      <c r="AO14" s="55"/>
-      <c r="AS14" s="61"/>
-      <c r="AT14" s="65"/>
-      <c r="AU14" s="62"/>
-    </row>
-    <row r="15" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+      <c r="AH14" s="62"/>
+      <c r="AL14" s="61"/>
+      <c r="AM14" s="61"/>
+      <c r="AN14" s="61"/>
+      <c r="AO14" s="62"/>
+      <c r="AR14" s="53"/>
+      <c r="AS14" s="53"/>
+      <c r="AT14" s="53"/>
+      <c r="AU14" s="55"/>
+      <c r="AY14" s="61"/>
+      <c r="AZ14" s="65"/>
+      <c r="BA14" s="62"/>
+    </row>
+    <row r="15" spans="2:53" ht="21" x14ac:dyDescent="0.35">
       <c r="B15" s="53" t="s">
         <v>22</v>
       </c>
@@ -2454,17 +2512,17 @@
         <v>23</v>
       </c>
       <c r="E15" s="80">
+        <v>44946</v>
+      </c>
+      <c r="H15" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="80">
         <v>44911</v>
-      </c>
-      <c r="H15" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="61"/>
-      <c r="J15" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="79">
-        <v>44884</v>
       </c>
       <c r="N15" s="53" t="s">
         <v>20</v>
@@ -2474,7 +2532,7 @@
         <v>16</v>
       </c>
       <c r="Q15" s="79">
-        <v>44849</v>
+        <v>44884</v>
       </c>
       <c r="T15" s="53" t="s">
         <v>20</v>
@@ -2484,74 +2542,88 @@
         <v>16</v>
       </c>
       <c r="W15" s="79">
+        <v>44849</v>
+      </c>
+      <c r="Z15" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC15" s="79">
         <v>44814</v>
       </c>
-      <c r="Y15" s="53" t="s">
+      <c r="AE15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="54" t="s">
+      <c r="AF15" s="61"/>
+      <c r="AG15" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="AB15" s="75">
+      <c r="AH15" s="75">
         <v>44786</v>
       </c>
-      <c r="AF15" s="53" t="s">
+      <c r="AL15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="AG15" s="61"/>
-      <c r="AH15" s="53" t="s">
+      <c r="AM15" s="61"/>
+      <c r="AN15" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AI15" s="75">
+      <c r="AO15" s="75">
         <v>44758</v>
       </c>
-      <c r="AL15" s="53" t="s">
+      <c r="AR15" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="AM15" s="53"/>
-      <c r="AN15" s="53" t="s">
+      <c r="AS15" s="53"/>
+      <c r="AT15" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="AO15" s="60">
+      <c r="AU15" s="60">
         <v>44700</v>
       </c>
-      <c r="AS15" s="53" t="s">
+      <c r="AY15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="AT15" s="66" t="s">
+      <c r="AZ15" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="AU15" s="58">
+      <c r="BA15" s="58">
         <v>44730</v>
       </c>
     </row>
-    <row r="16" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:53" ht="21" x14ac:dyDescent="0.35">
       <c r="B16" s="61"/>
       <c r="C16" s="61"/>
       <c r="D16" s="61"/>
       <c r="E16" s="62"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="55"/>
-      <c r="Y16" s="53"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="62"/>
       <c r="Z16" s="53"/>
       <c r="AA16" s="53"/>
-      <c r="AB16" s="55"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="55"/>
+      <c r="AE16" s="53"/>
       <c r="AF16" s="53"/>
       <c r="AG16" s="53"/>
-      <c r="AH16" s="53"/>
-      <c r="AI16" s="55"/>
+      <c r="AH16" s="55"/>
       <c r="AL16" s="53"/>
       <c r="AM16" s="53"/>
       <c r="AN16" s="53"/>
       <c r="AO16" s="55"/>
+      <c r="AR16" s="53"/>
       <c r="AS16" s="53"/>
-      <c r="AT16" s="66"/>
+      <c r="AT16" s="53"/>
       <c r="AU16" s="55"/>
-    </row>
-    <row r="17" spans="2:47" ht="21" x14ac:dyDescent="0.35">
+      <c r="AY16" s="53"/>
+      <c r="AZ16" s="66"/>
+      <c r="BA16" s="55"/>
+    </row>
+    <row r="17" spans="2:53" ht="21" x14ac:dyDescent="0.35">
       <c r="B17" s="53" t="s">
         <v>20</v>
       </c>
@@ -2560,117 +2632,128 @@
         <v>16</v>
       </c>
       <c r="E17" s="79">
+        <v>44947</v>
+      </c>
+      <c r="H17" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="61"/>
+      <c r="J17" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="79">
         <v>44912</v>
       </c>
-      <c r="AL17" s="61"/>
-      <c r="AM17" s="61"/>
-      <c r="AN17" s="61"/>
-      <c r="AO17" s="62"/>
-      <c r="AS17" s="53"/>
-      <c r="AT17" s="66"/>
-      <c r="AU17" s="55"/>
-    </row>
-    <row r="18" spans="2:47" ht="21" x14ac:dyDescent="0.35">
-      <c r="AL18" s="53"/>
-      <c r="AM18" s="53"/>
-      <c r="AN18" s="53"/>
-      <c r="AO18" s="55"/>
+      <c r="AR17" s="61"/>
+      <c r="AS17" s="61"/>
+      <c r="AT17" s="61"/>
+      <c r="AU17" s="62"/>
+      <c r="AY17" s="53"/>
+      <c r="AZ17" s="66"/>
+      <c r="BA17" s="55"/>
+    </row>
+    <row r="18" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="AR18" s="53"/>
       <c r="AS18" s="53"/>
-      <c r="AT18" s="66"/>
+      <c r="AT18" s="53"/>
       <c r="AU18" s="55"/>
-    </row>
-    <row r="19" spans="2:47" ht="21" x14ac:dyDescent="0.35">
-      <c r="AL19" s="53"/>
-      <c r="AM19" s="53"/>
-      <c r="AN19" s="53"/>
-      <c r="AO19" s="55"/>
-    </row>
-    <row r="20" spans="2:47" ht="21" x14ac:dyDescent="0.35">
-      <c r="AL20" s="53"/>
-      <c r="AM20" s="53"/>
-      <c r="AN20" s="53"/>
-      <c r="AO20" s="55"/>
-    </row>
-    <row r="21" spans="2:47" ht="21" x14ac:dyDescent="0.35">
-      <c r="AL21" s="53"/>
-      <c r="AM21" s="53"/>
-      <c r="AN21" s="53"/>
-      <c r="AO21" s="55"/>
-    </row>
-    <row r="22" spans="2:47" ht="21" x14ac:dyDescent="0.35">
-      <c r="AL22" s="53"/>
-      <c r="AM22" s="53"/>
-      <c r="AN22" s="53"/>
-      <c r="AO22" s="55"/>
-    </row>
-    <row r="23" spans="2:47" ht="21" x14ac:dyDescent="0.35">
-      <c r="AL23" s="53"/>
-      <c r="AM23" s="53"/>
-      <c r="AN23" s="53"/>
-      <c r="AO23" s="55"/>
-    </row>
-    <row r="24" spans="2:47" ht="21" x14ac:dyDescent="0.35">
-      <c r="AL24" s="53"/>
-      <c r="AM24" s="53"/>
-      <c r="AN24" s="53"/>
-      <c r="AO24" s="55"/>
-    </row>
-    <row r="25" spans="2:47" ht="21" x14ac:dyDescent="0.35">
-      <c r="AL25" s="53"/>
-      <c r="AM25" s="53"/>
-      <c r="AN25" s="53"/>
-      <c r="AO25" s="55"/>
-    </row>
-    <row r="26" spans="2:47" ht="21" x14ac:dyDescent="0.35">
-      <c r="AL26" s="53"/>
-      <c r="AM26" s="53"/>
-      <c r="AN26" s="53"/>
-      <c r="AO26" s="55"/>
-    </row>
-    <row r="27" spans="2:47" ht="21" x14ac:dyDescent="0.35">
-      <c r="AL27" s="53"/>
-      <c r="AM27" s="53"/>
-      <c r="AN27" s="53"/>
-      <c r="AO27" s="55"/>
-    </row>
-    <row r="28" spans="2:47" ht="21" x14ac:dyDescent="0.35">
-      <c r="AL28" s="53"/>
-      <c r="AM28" s="53"/>
-      <c r="AN28" s="53"/>
-      <c r="AO28" s="55"/>
-    </row>
-    <row r="29" spans="2:47" ht="21" x14ac:dyDescent="0.35">
-      <c r="AL29" s="53"/>
-      <c r="AM29" s="53"/>
-      <c r="AN29" s="53"/>
-      <c r="AO29" s="55"/>
-    </row>
-    <row r="30" spans="2:47" ht="21" x14ac:dyDescent="0.35">
-      <c r="AL30" s="53"/>
-      <c r="AM30" s="53"/>
-      <c r="AN30" s="53"/>
-      <c r="AO30" s="55"/>
-    </row>
-    <row r="31" spans="2:47" ht="21" x14ac:dyDescent="0.35">
-      <c r="AL31" s="53"/>
-      <c r="AM31" s="53"/>
-      <c r="AN31" s="53"/>
-      <c r="AO31" s="55"/>
+      <c r="AY18" s="53"/>
+      <c r="AZ18" s="66"/>
+      <c r="BA18" s="55"/>
+    </row>
+    <row r="19" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="AR19" s="53"/>
+      <c r="AS19" s="53"/>
+      <c r="AT19" s="53"/>
+      <c r="AU19" s="55"/>
+    </row>
+    <row r="20" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="AR20" s="53"/>
+      <c r="AS20" s="53"/>
+      <c r="AT20" s="53"/>
+      <c r="AU20" s="55"/>
+    </row>
+    <row r="21" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="AR21" s="53"/>
+      <c r="AS21" s="53"/>
+      <c r="AT21" s="53"/>
+      <c r="AU21" s="55"/>
+    </row>
+    <row r="22" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="AR22" s="53"/>
+      <c r="AS22" s="53"/>
+      <c r="AT22" s="53"/>
+      <c r="AU22" s="55"/>
+    </row>
+    <row r="23" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="AR23" s="53"/>
+      <c r="AS23" s="53"/>
+      <c r="AT23" s="53"/>
+      <c r="AU23" s="55"/>
+    </row>
+    <row r="24" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="AR24" s="53"/>
+      <c r="AS24" s="53"/>
+      <c r="AT24" s="53"/>
+      <c r="AU24" s="55"/>
+    </row>
+    <row r="25" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="AR25" s="53"/>
+      <c r="AS25" s="53"/>
+      <c r="AT25" s="53"/>
+      <c r="AU25" s="55"/>
+    </row>
+    <row r="26" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="AR26" s="53"/>
+      <c r="AS26" s="53"/>
+      <c r="AT26" s="53"/>
+      <c r="AU26" s="55"/>
+    </row>
+    <row r="27" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="AR27" s="53"/>
+      <c r="AS27" s="53"/>
+      <c r="AT27" s="53"/>
+      <c r="AU27" s="55"/>
+    </row>
+    <row r="28" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="AR28" s="53"/>
+      <c r="AS28" s="53"/>
+      <c r="AT28" s="53"/>
+      <c r="AU28" s="55"/>
+    </row>
+    <row r="29" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="AR29" s="53"/>
+      <c r="AS29" s="53"/>
+      <c r="AT29" s="53"/>
+      <c r="AU29" s="55"/>
+    </row>
+    <row r="30" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="AR30" s="53"/>
+      <c r="AS30" s="53"/>
+      <c r="AT30" s="53"/>
+      <c r="AU30" s="55"/>
+    </row>
+    <row r="31" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="AR31" s="53"/>
+      <c r="AS31" s="53"/>
+      <c r="AT31" s="53"/>
+      <c r="AU31" s="55"/>
     </row>
   </sheetData>
-  <sortState ref="Y5:AB15">
-    <sortCondition ref="AB5:AB15"/>
+  <sortState ref="B7:F9">
+    <sortCondition ref="E7:E9"/>
   </sortState>
-  <mergeCells count="9">
-    <mergeCell ref="AL5:AM5"/>
+  <mergeCells count="10">
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="AE3:AG3"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="T3:V3"/>
-    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AR3:AU3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
@@ -26,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="39">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
   <si>
-    <t>2  0  2  2</t>
-  </si>
-  <si>
     <t>FECHA</t>
   </si>
   <si>
@@ -137,6 +134,15 @@
   </si>
   <si>
     <t>Noviembre.,2022</t>
+  </si>
+  <si>
+    <t>Diciembre.,2022</t>
+  </si>
+  <si>
+    <t>2  0  2  3</t>
+  </si>
+  <si>
+    <t>Enero.,2023</t>
   </si>
 </sst>
 </file>
@@ -350,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -656,12 +662,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -692,7 +713,6 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -865,12 +885,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1217,618 +1279,923 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A2:M22"/>
+  <dimension ref="A2:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="32"/>
+    <col min="3" max="3" width="11.42578125" style="31"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="36"/>
+    <col min="5" max="5" width="11.42578125" style="35"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="31" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="32"/>
-    <col min="10" max="10" width="13.28515625" style="25" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="36"/>
+    <col min="9" max="9" width="11.42578125" style="31"/>
+    <col min="10" max="10" width="13.28515625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="35"/>
     <col min="12" max="12" width="14.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="36"/>
+    <col min="13" max="13" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="38"/>
+      <c r="D3" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="F5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="26" t="s">
+      <c r="K5" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="28" t="s">
+      <c r="M5" s="48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="16" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="B6" s="21">
+        <v>986</v>
+      </c>
+      <c r="C6" s="29">
+        <v>238</v>
+      </c>
+      <c r="D6" s="21">
+        <v>1392</v>
+      </c>
+      <c r="E6" s="29">
+        <v>251</v>
+      </c>
+      <c r="F6" s="21">
+        <v>1856</v>
+      </c>
+      <c r="G6" s="39">
+        <v>248</v>
+      </c>
+      <c r="H6" s="22">
+        <v>1856</v>
+      </c>
+      <c r="I6" s="43">
+        <v>241</v>
+      </c>
+      <c r="J6" s="21">
+        <v>1392</v>
+      </c>
+      <c r="K6" s="43">
+        <v>250</v>
+      </c>
+      <c r="L6" s="20">
+        <v>1392</v>
+      </c>
+      <c r="M6" s="29">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="22">
-        <v>986</v>
-      </c>
-      <c r="C6" s="30">
-        <v>238</v>
-      </c>
-      <c r="D6" s="22">
-        <v>1392</v>
-      </c>
-      <c r="E6" s="30">
-        <v>251</v>
-      </c>
-      <c r="F6" s="22">
-        <v>1856</v>
-      </c>
-      <c r="G6" s="40">
-        <v>248</v>
-      </c>
-      <c r="H6" s="23">
-        <v>1856</v>
-      </c>
-      <c r="I6" s="44">
-        <v>241</v>
-      </c>
-      <c r="J6" s="22">
-        <v>1392</v>
-      </c>
-      <c r="K6" s="44">
-        <v>250</v>
-      </c>
-      <c r="L6" s="21">
-        <v>1392</v>
-      </c>
-      <c r="M6" s="30">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="B7" s="10">
         <v>986</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="33">
         <v>261</v>
       </c>
-      <c r="D7" s="18">
-        <v>1392</v>
-      </c>
-      <c r="E7" s="31">
+      <c r="D7" s="17">
+        <v>1392</v>
+      </c>
+      <c r="E7" s="30">
         <v>276</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>1856</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="40">
         <v>267</v>
       </c>
       <c r="H7" s="12">
         <v>1856</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="44">
         <v>260</v>
       </c>
-      <c r="J7" s="29">
-        <v>1392</v>
-      </c>
-      <c r="K7" s="47">
+      <c r="J7" s="28">
+        <v>1392</v>
+      </c>
+      <c r="K7" s="46">
         <v>268</v>
       </c>
       <c r="L7" s="12">
         <v>1392</v>
       </c>
-      <c r="M7" s="50">
+      <c r="M7" s="49">
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="11">
         <v>986</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="34">
         <v>284</v>
       </c>
-      <c r="D8" s="16">
-        <v>1392</v>
-      </c>
-      <c r="E8" s="35">
+      <c r="D8" s="15">
+        <v>1392</v>
+      </c>
+      <c r="E8" s="34">
         <v>299</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>1856</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="41">
         <v>290</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="51">
         <v>2726</v>
       </c>
-      <c r="I8" s="46">
+      <c r="I8" s="45">
         <v>281</v>
       </c>
-      <c r="J8" s="27">
-        <v>1392</v>
-      </c>
-      <c r="K8" s="48">
+      <c r="J8" s="26">
+        <v>1392</v>
+      </c>
+      <c r="K8" s="47">
         <v>291</v>
       </c>
       <c r="L8" s="13">
         <v>1392</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="50">
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="11">
         <v>986</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="34">
         <v>309</v>
       </c>
-      <c r="D9" s="16">
-        <v>1392</v>
-      </c>
-      <c r="E9" s="35">
+      <c r="D9" s="15">
+        <v>1392</v>
+      </c>
+      <c r="E9" s="34">
         <v>319</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="23">
         <v>1856</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="41">
         <v>311</v>
       </c>
       <c r="H9" s="13">
         <v>2726</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9" s="45">
         <v>308</v>
       </c>
-      <c r="J9" s="27">
-        <v>1392</v>
-      </c>
-      <c r="K9" s="48">
+      <c r="J9" s="26">
+        <v>1392</v>
+      </c>
+      <c r="K9" s="47">
         <v>312</v>
       </c>
       <c r="L9" s="13">
         <v>1392</v>
       </c>
-      <c r="M9" s="51">
+      <c r="M9" s="50">
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="11">
         <v>986</v>
       </c>
-      <c r="C10" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="16">
-        <v>1392</v>
-      </c>
-      <c r="E10" s="35">
+      <c r="C10" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1392</v>
+      </c>
+      <c r="E10" s="34">
         <v>342</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>1856</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="41">
         <v>329</v>
       </c>
       <c r="H10" s="13">
         <v>1856</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="45">
         <v>331</v>
       </c>
-      <c r="J10" s="27">
-        <v>1392</v>
-      </c>
-      <c r="K10" s="48">
+      <c r="J10" s="26">
+        <v>1392</v>
+      </c>
+      <c r="K10" s="47">
         <v>333</v>
       </c>
       <c r="L10" s="13">
         <v>1392</v>
       </c>
-      <c r="M10" s="51">
+      <c r="M10" s="50">
         <v>332</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="11">
         <v>986</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="34">
         <v>346</v>
       </c>
-      <c r="D11" s="16">
-        <v>1392</v>
-      </c>
-      <c r="E11" s="35">
+      <c r="D11" s="15">
+        <v>1392</v>
+      </c>
+      <c r="E11" s="34">
         <v>355</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>1856</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="41">
         <v>348</v>
       </c>
       <c r="H11" s="13">
         <v>1856</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="45">
         <v>347</v>
       </c>
-      <c r="J11" s="27">
-        <v>1392</v>
-      </c>
-      <c r="K11" s="48">
+      <c r="J11" s="26">
+        <v>1392</v>
+      </c>
+      <c r="K11" s="47">
         <v>357</v>
       </c>
       <c r="L11" s="13">
         <v>1392</v>
       </c>
-      <c r="M11" s="51">
+      <c r="M11" s="50">
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="11">
         <v>986</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="34">
         <v>363</v>
       </c>
-      <c r="D12" s="16">
-        <v>1392</v>
-      </c>
-      <c r="E12" s="35">
+      <c r="D12" s="15">
+        <v>1392</v>
+      </c>
+      <c r="E12" s="34">
         <v>374</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>1856</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="41">
         <v>365</v>
       </c>
       <c r="H12" s="13">
         <v>1856</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12" s="45">
         <v>364</v>
       </c>
-      <c r="J12" s="27">
-        <v>1392</v>
-      </c>
-      <c r="K12" s="48">
+      <c r="J12" s="26">
+        <v>1392</v>
+      </c>
+      <c r="K12" s="47">
         <v>375</v>
       </c>
       <c r="L12" s="13">
         <v>1392</v>
       </c>
-      <c r="M12" s="51">
+      <c r="M12" s="50">
         <v>369</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="11">
         <v>986</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="34">
         <v>385</v>
       </c>
-      <c r="D13" s="16">
-        <v>1392</v>
-      </c>
-      <c r="E13" s="35">
+      <c r="D13" s="15">
+        <v>1392</v>
+      </c>
+      <c r="E13" s="34">
         <v>390</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>1856</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="41">
         <v>389</v>
       </c>
       <c r="H13" s="13">
         <v>1856</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I13" s="45">
         <v>384</v>
       </c>
-      <c r="J13" s="27">
-        <v>1392</v>
-      </c>
-      <c r="K13" s="48">
+      <c r="J13" s="26">
+        <v>1392</v>
+      </c>
+      <c r="K13" s="47">
         <v>391</v>
       </c>
       <c r="L13" s="13">
         <v>1392</v>
       </c>
-      <c r="M13" s="51">
+      <c r="M13" s="50">
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="11">
         <v>986</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="34">
         <v>410</v>
       </c>
-      <c r="D14" s="16">
-        <v>1392</v>
-      </c>
-      <c r="E14" s="35">
+      <c r="D14" s="15">
+        <v>1392</v>
+      </c>
+      <c r="E14" s="34">
         <v>415</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <v>1856</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="41">
         <v>414</v>
       </c>
       <c r="H14" s="13">
         <v>1856</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="45">
         <v>411</v>
       </c>
-      <c r="J14" s="27">
-        <v>1392</v>
-      </c>
-      <c r="K14" s="48">
+      <c r="J14" s="26">
+        <v>1392</v>
+      </c>
+      <c r="K14" s="47">
         <v>416</v>
       </c>
       <c r="L14" s="13">
         <v>1392</v>
       </c>
-      <c r="M14" s="51">
+      <c r="M14" s="50">
         <v>413</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="11">
         <v>986</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="34">
         <v>431</v>
       </c>
-      <c r="D15" s="16">
-        <v>1392</v>
-      </c>
-      <c r="E15" s="35">
+      <c r="D15" s="15">
+        <v>1392</v>
+      </c>
+      <c r="E15" s="34">
         <v>438</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <v>1856</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="41">
         <v>436</v>
       </c>
       <c r="H15" s="13">
         <v>1856</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="45">
         <v>434</v>
       </c>
-      <c r="J15" s="27">
-        <v>1392</v>
-      </c>
-      <c r="K15" s="48">
+      <c r="J15" s="26">
+        <v>1392</v>
+      </c>
+      <c r="K15" s="47">
         <v>439</v>
       </c>
       <c r="L15" s="13">
         <v>1392</v>
       </c>
-      <c r="M15" s="51">
+      <c r="M15" s="50">
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="11">
         <v>986</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="34">
         <v>442</v>
       </c>
-      <c r="D16" s="16">
-        <v>1392</v>
-      </c>
-      <c r="E16" s="35">
+      <c r="D16" s="15">
+        <v>1392</v>
+      </c>
+      <c r="E16" s="34">
         <v>452</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="14">
         <v>1856</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="41">
         <v>449</v>
       </c>
       <c r="H16" s="13">
         <v>1856</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="45">
         <v>447</v>
       </c>
-      <c r="J16" s="27">
-        <v>1392</v>
-      </c>
-      <c r="K16" s="48">
+      <c r="J16" s="26">
+        <v>1392</v>
+      </c>
+      <c r="K16" s="47">
         <v>453</v>
       </c>
       <c r="L16" s="13">
         <v>1392</v>
       </c>
-      <c r="M16" s="51">
+      <c r="M16" s="50">
         <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="51"/>
+      <c r="A17" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="87">
+        <v>986</v>
+      </c>
+      <c r="C17" s="88">
+        <v>458</v>
+      </c>
+      <c r="D17" s="89">
+        <v>1392</v>
+      </c>
+      <c r="E17" s="88">
+        <v>467</v>
+      </c>
+      <c r="F17" s="90">
+        <v>1856</v>
+      </c>
+      <c r="G17" s="91">
+        <v>464</v>
+      </c>
+      <c r="H17" s="51">
+        <v>1856</v>
+      </c>
+      <c r="I17" s="92">
+        <v>462</v>
+      </c>
+      <c r="J17" s="93">
+        <v>1392</v>
+      </c>
+      <c r="K17" s="94">
+        <v>469</v>
+      </c>
+      <c r="L17" s="51">
+        <v>1392</v>
+      </c>
+      <c r="M17" s="95">
+        <v>463</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="51"/>
+      <c r="A18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="11">
+        <v>986</v>
+      </c>
+      <c r="C18" s="34">
+        <v>506</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1392</v>
+      </c>
+      <c r="E18" s="34">
+        <v>514</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1856</v>
+      </c>
+      <c r="G18" s="41">
+        <v>509</v>
+      </c>
+      <c r="H18" s="13">
+        <v>1856</v>
+      </c>
+      <c r="I18" s="45">
+        <v>507</v>
+      </c>
+      <c r="J18" s="26">
+        <v>1392</v>
+      </c>
+      <c r="K18" s="47">
+        <v>515</v>
+      </c>
+      <c r="L18" s="13">
+        <v>1392</v>
+      </c>
+      <c r="M18" s="50">
+        <v>513</v>
+      </c>
     </row>
     <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="42"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="48"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="47"/>
       <c r="L19" s="13"/>
-      <c r="M19" s="51"/>
+      <c r="M19" s="50"/>
     </row>
     <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="42"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="41"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="48"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="47"/>
       <c r="L20" s="13"/>
-      <c r="M20" s="51"/>
+      <c r="M20" s="50"/>
     </row>
     <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="42"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="48"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="47"/>
       <c r="L21" s="13"/>
-      <c r="M21" s="51"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H22" s="14"/>
+      <c r="M21" s="50"/>
+    </row>
+    <row r="22" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="97"/>
+    </row>
+    <row r="23" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="97"/>
+    </row>
+    <row r="24" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="97"/>
+    </row>
+    <row r="25" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="97"/>
+    </row>
+    <row r="26" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="97"/>
+    </row>
+    <row r="27" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="97"/>
+    </row>
+    <row r="28" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="97"/>
+    </row>
+    <row r="29" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="97"/>
+    </row>
+    <row r="30" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="97"/>
+    </row>
+    <row r="31" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="98"/>
+      <c r="M31" s="97"/>
+    </row>
+    <row r="32" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="98"/>
+      <c r="M32" s="97"/>
+    </row>
+    <row r="33" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="97"/>
+    </row>
+    <row r="34" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="98"/>
+      <c r="M34" s="97"/>
+    </row>
+    <row r="35" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="97"/>
+    </row>
+    <row r="36" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="98"/>
+      <c r="M36" s="97"/>
+    </row>
+    <row r="37" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="98"/>
+      <c r="M37" s="97"/>
+    </row>
+    <row r="38" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1845,8 +2212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:BA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,870 +2241,875 @@
     <col min="41" max="41" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="44" max="45" width="19.5703125" customWidth="1"/>
     <col min="46" max="46" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.42578125" style="56" customWidth="1"/>
+    <col min="47" max="47" width="18.42578125" style="55" customWidth="1"/>
     <col min="51" max="51" width="36" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="19.5703125" style="25" customWidth="1"/>
+    <col min="52" max="52" width="19.5703125" style="24" customWidth="1"/>
     <col min="53" max="53" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:53" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N3" s="86" t="s">
+      <c r="N3" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="68"/>
+      <c r="T3" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="68"/>
+      <c r="Z3" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="68"/>
+      <c r="AE3" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="68"/>
+      <c r="AL3" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="84"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="67"/>
+      <c r="AR3" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS3" s="84"/>
+      <c r="AT3" s="84"/>
+      <c r="AU3" s="84"/>
+      <c r="AY3" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ3" s="84"/>
+      <c r="BA3" s="84"/>
+    </row>
+    <row r="4" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="Q4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="BA4" s="55"/>
+    </row>
+    <row r="5" spans="2:53" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B5" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="68"/>
+      <c r="H5" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="68"/>
+      <c r="N5" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="69"/>
+      <c r="P5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="76">
+        <v>44861</v>
+      </c>
+      <c r="T5" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="69"/>
+      <c r="V5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="W5" s="76">
+        <v>44833</v>
+      </c>
+      <c r="Z5" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC5" s="58">
+        <v>44804</v>
+      </c>
+      <c r="AE5" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH5" s="72">
+        <v>44776</v>
+      </c>
+      <c r="AL5" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM5" s="69"/>
+      <c r="AN5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO5" s="59">
+        <v>44747</v>
+      </c>
+      <c r="AR5" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS5" s="85"/>
+      <c r="AT5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU5" s="59">
+        <v>44686</v>
+      </c>
+      <c r="AY5" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ5" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA5" s="59">
+        <v>44714</v>
+      </c>
+    </row>
+    <row r="6" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="E6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="61"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="61"/>
+      <c r="AL6" s="70"/>
+      <c r="AM6" s="70"/>
+      <c r="AN6" s="71"/>
+      <c r="AO6" s="61"/>
+      <c r="AR6" s="52"/>
+      <c r="AS6" s="52"/>
+      <c r="AT6" s="52"/>
+      <c r="AU6" s="54"/>
+      <c r="AY6" s="60"/>
+      <c r="AZ6" s="64"/>
+      <c r="BA6" s="61"/>
+    </row>
+    <row r="7" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="58">
+        <v>44930</v>
+      </c>
+      <c r="H7" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="69"/>
+      <c r="J7" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="76">
+        <v>44896</v>
+      </c>
+      <c r="N7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="58">
+        <v>44874</v>
+      </c>
+      <c r="T7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="W7" s="58">
+        <v>44839</v>
+      </c>
+      <c r="Z7" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC7" s="76">
+        <v>44805</v>
+      </c>
+      <c r="AE7" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF7" s="69"/>
+      <c r="AG7" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH7" s="59">
+        <v>44777</v>
+      </c>
+      <c r="AL7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO7" s="72">
+        <v>44748</v>
+      </c>
+      <c r="AR7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS7" s="52"/>
+      <c r="AT7" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU7" s="57">
+        <v>44691</v>
+      </c>
+      <c r="AV7" s="62"/>
+      <c r="AY7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ7" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA7" s="57">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="8" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="61"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="61"/>
+      <c r="AL8" s="60"/>
+      <c r="AM8" s="60"/>
+      <c r="AN8" s="60"/>
+      <c r="AO8" s="61"/>
+      <c r="AR8" s="52"/>
+      <c r="AS8" s="52"/>
+      <c r="AT8" s="52"/>
+      <c r="AU8" s="54"/>
+      <c r="AY8" s="60"/>
+      <c r="AZ8" s="64"/>
+      <c r="BA8" s="61"/>
+    </row>
+    <row r="9" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="B9" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="69"/>
+      <c r="D9" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="76">
+        <v>44931</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="58">
+        <v>44902</v>
+      </c>
+      <c r="N9" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="77">
+        <v>44875</v>
+      </c>
+      <c r="T9" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" s="77">
+        <v>44840</v>
+      </c>
+      <c r="Z9" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="69"/>
-      <c r="T3" s="86" t="s">
+      <c r="AC9" s="77">
+        <v>44807</v>
+      </c>
+      <c r="AE9" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="69"/>
-      <c r="Z3" s="86" t="s">
+      <c r="AH9" s="58">
+        <v>44779</v>
+      </c>
+      <c r="AL9" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM9" s="52"/>
+      <c r="AN9" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO9" s="57">
+        <v>44749</v>
+      </c>
+      <c r="AR9" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS9" s="52"/>
+      <c r="AT9" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU9" s="59">
+        <v>44693</v>
+      </c>
+      <c r="AY9" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ9" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA9" s="59">
+        <v>44721</v>
+      </c>
+    </row>
+    <row r="10" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="AL10" s="60"/>
+      <c r="AM10" s="60"/>
+      <c r="AN10" s="60"/>
+      <c r="AO10" s="61"/>
+      <c r="AR10" s="52"/>
+      <c r="AS10" s="52"/>
+      <c r="AT10" s="52"/>
+      <c r="AU10" s="54"/>
+      <c r="AY10" s="60"/>
+      <c r="AZ10" s="64"/>
+      <c r="BA10" s="61"/>
+    </row>
+    <row r="11" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="B11" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="59">
+        <v>44932</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="77">
+        <v>44903</v>
+      </c>
+      <c r="N11" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="59">
+        <v>44876</v>
+      </c>
+      <c r="T11" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11" s="59">
+        <v>44841</v>
+      </c>
+      <c r="Z11" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC11" s="59">
+        <v>44812</v>
+      </c>
+      <c r="AE11" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH11" s="57">
+        <v>44784</v>
+      </c>
+      <c r="AL11" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM11" s="52"/>
+      <c r="AN11" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="69"/>
-      <c r="AE3" s="86" t="s">
+      <c r="AO11" s="58">
+        <v>44751</v>
+      </c>
+      <c r="AR11" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS11" s="60"/>
+      <c r="AT11" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU11" s="57">
+        <v>44695</v>
+      </c>
+      <c r="AY11" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ11" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="69"/>
-      <c r="AL3" s="86" t="s">
+      <c r="BA11" s="58">
+        <v>44723</v>
+      </c>
+    </row>
+    <row r="12" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="61"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="61"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="61"/>
+      <c r="AE12" s="70"/>
+      <c r="AF12" s="70"/>
+      <c r="AG12" s="71"/>
+      <c r="AH12" s="61"/>
+      <c r="AL12" s="60"/>
+      <c r="AM12" s="60"/>
+      <c r="AN12" s="60"/>
+      <c r="AO12" s="61"/>
+      <c r="AR12" s="52"/>
+      <c r="AS12" s="52"/>
+      <c r="AT12" s="52"/>
+      <c r="AU12" s="54"/>
+      <c r="AY12" s="60"/>
+      <c r="AZ12" s="64"/>
+      <c r="BA12" s="61"/>
+    </row>
+    <row r="13" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="B13" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="77">
+        <v>44938</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="59">
+        <v>44904</v>
+      </c>
+      <c r="N13" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="79">
+        <v>44883</v>
+      </c>
+      <c r="T13" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="W13" s="79">
+        <v>44848</v>
+      </c>
+      <c r="Z13" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC13" s="75">
+        <v>44813</v>
+      </c>
+      <c r="AE13" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH13" s="73">
+        <v>44785</v>
+      </c>
+      <c r="AL13" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM13" s="52"/>
+      <c r="AN13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO13" s="73">
+        <v>44756</v>
+      </c>
+      <c r="AR13" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS13" s="52"/>
+      <c r="AT13" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AM3" s="86"/>
-      <c r="AN3" s="86"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="68"/>
-      <c r="AR3" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="AS3" s="86"/>
-      <c r="AT3" s="86"/>
-      <c r="AU3" s="86"/>
-      <c r="AY3" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="AZ3" s="86"/>
-      <c r="BA3" s="86"/>
-    </row>
-    <row r="4" spans="2:53" x14ac:dyDescent="0.25">
-      <c r="Q4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="AC4" s="56"/>
-      <c r="AH4" s="56"/>
-      <c r="AO4" s="56"/>
-      <c r="BA4" s="56"/>
-    </row>
-    <row r="5" spans="2:53" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="69"/>
-      <c r="H5" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="69"/>
-      <c r="N5" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="70"/>
-      <c r="P5" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="77">
-        <v>44861</v>
-      </c>
-      <c r="T5" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="U5" s="70"/>
-      <c r="V5" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="W5" s="77">
-        <v>44833</v>
-      </c>
-      <c r="Z5" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC5" s="59">
-        <v>44804</v>
-      </c>
-      <c r="AE5" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH5" s="73">
-        <v>44776</v>
-      </c>
-      <c r="AL5" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM5" s="70"/>
-      <c r="AN5" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO5" s="60">
-        <v>44747</v>
-      </c>
-      <c r="AR5" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS5" s="85"/>
-      <c r="AT5" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="AU5" s="60">
-        <v>44686</v>
-      </c>
-      <c r="AY5" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ5" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="BA5" s="60">
-        <v>44714</v>
-      </c>
-    </row>
-    <row r="6" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="E6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="62"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="62"/>
-      <c r="AL6" s="71"/>
-      <c r="AM6" s="71"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="62"/>
-      <c r="AR6" s="53"/>
-      <c r="AS6" s="53"/>
-      <c r="AT6" s="53"/>
-      <c r="AU6" s="55"/>
-      <c r="AY6" s="61"/>
-      <c r="AZ6" s="65"/>
-      <c r="BA6" s="62"/>
-    </row>
-    <row r="7" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="59">
-        <v>44930</v>
-      </c>
-      <c r="H7" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="77">
-        <v>44896</v>
-      </c>
-      <c r="N7" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="59">
-        <v>44874</v>
-      </c>
-      <c r="T7" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="W7" s="59">
-        <v>44839</v>
-      </c>
-      <c r="Z7" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC7" s="77">
-        <v>44805</v>
-      </c>
-      <c r="AE7" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF7" s="70"/>
-      <c r="AG7" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH7" s="60">
-        <v>44777</v>
-      </c>
-      <c r="AL7" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="AO7" s="73">
-        <v>44748</v>
-      </c>
-      <c r="AR7" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="AS7" s="53"/>
-      <c r="AT7" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="AU7" s="58">
-        <v>44691</v>
-      </c>
-      <c r="AV7" s="63"/>
-      <c r="AY7" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="AZ7" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="BA7" s="58">
-        <v>44719</v>
-      </c>
-    </row>
-    <row r="8" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="62"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="62"/>
-      <c r="AL8" s="61"/>
-      <c r="AM8" s="61"/>
-      <c r="AN8" s="61"/>
-      <c r="AO8" s="62"/>
-      <c r="AR8" s="53"/>
-      <c r="AS8" s="53"/>
-      <c r="AT8" s="53"/>
-      <c r="AU8" s="55"/>
-      <c r="AY8" s="61"/>
-      <c r="AZ8" s="65"/>
-      <c r="BA8" s="62"/>
-    </row>
-    <row r="9" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="77">
-        <v>44931</v>
-      </c>
-      <c r="H9" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="59">
-        <v>44902</v>
-      </c>
-      <c r="N9" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="78">
-        <v>44875</v>
-      </c>
-      <c r="T9" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="W9" s="78">
-        <v>44840</v>
-      </c>
-      <c r="Z9" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53" t="s">
+      <c r="AU13" s="58">
+        <v>44695</v>
+      </c>
+      <c r="AY13" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ13" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA13" s="59">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="14" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="61"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="61"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="61"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="61"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="60"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="61"/>
+      <c r="AE14" s="60"/>
+      <c r="AF14" s="60"/>
+      <c r="AG14" s="60"/>
+      <c r="AH14" s="61"/>
+      <c r="AL14" s="60"/>
+      <c r="AM14" s="60"/>
+      <c r="AN14" s="60"/>
+      <c r="AO14" s="61"/>
+      <c r="AR14" s="52"/>
+      <c r="AS14" s="52"/>
+      <c r="AT14" s="52"/>
+      <c r="AU14" s="54"/>
+      <c r="AY14" s="60"/>
+      <c r="AZ14" s="64"/>
+      <c r="BA14" s="61"/>
+    </row>
+    <row r="15" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="B15" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="79">
+        <v>44946</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="79">
+        <v>44911</v>
+      </c>
+      <c r="N15" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="60"/>
+      <c r="P15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="78">
-        <v>44807</v>
-      </c>
-      <c r="AE9" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="53" t="s">
+      <c r="Q15" s="78">
+        <v>44884</v>
+      </c>
+      <c r="T15" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15" s="60"/>
+      <c r="V15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AH9" s="59">
-        <v>44779</v>
-      </c>
-      <c r="AL9" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM9" s="53"/>
-      <c r="AN9" s="53" t="s">
+      <c r="W15" s="78">
+        <v>44849</v>
+      </c>
+      <c r="Z15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="AO9" s="58">
-        <v>44749</v>
-      </c>
-      <c r="AR9" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="AS9" s="53"/>
-      <c r="AT9" s="53" t="s">
+      <c r="AA15" s="60"/>
+      <c r="AB15" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC15" s="78">
+        <v>44814</v>
+      </c>
+      <c r="AE15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="AU9" s="60">
-        <v>44693</v>
-      </c>
-      <c r="AY9" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="AZ9" s="66" t="s">
+      <c r="AF15" s="60"/>
+      <c r="AG15" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH15" s="74">
+        <v>44786</v>
+      </c>
+      <c r="AL15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="BA9" s="60">
-        <v>44721</v>
-      </c>
-    </row>
-    <row r="10" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AL10" s="61"/>
-      <c r="AM10" s="61"/>
-      <c r="AN10" s="61"/>
-      <c r="AO10" s="62"/>
-      <c r="AR10" s="53"/>
-      <c r="AS10" s="53"/>
-      <c r="AT10" s="53"/>
-      <c r="AU10" s="55"/>
-      <c r="AY10" s="61"/>
-      <c r="AZ10" s="65"/>
-      <c r="BA10" s="62"/>
-    </row>
-    <row r="11" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="B11" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="78">
-        <v>44938</v>
-      </c>
-      <c r="H11" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="78">
-        <v>44903</v>
-      </c>
-      <c r="N11" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53" t="s">
+      <c r="AM15" s="60"/>
+      <c r="AN15" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO15" s="74">
+        <v>44758</v>
+      </c>
+      <c r="AR15" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS15" s="52"/>
+      <c r="AT15" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU15" s="59">
+        <v>44700</v>
+      </c>
+      <c r="AY15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="60">
-        <v>44876</v>
-      </c>
-      <c r="T11" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53" t="s">
+      <c r="AZ15" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA15" s="57">
+        <v>44730</v>
+      </c>
+    </row>
+    <row r="16" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="61"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="54"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="52"/>
+      <c r="AH16" s="54"/>
+      <c r="AL16" s="52"/>
+      <c r="AM16" s="52"/>
+      <c r="AN16" s="52"/>
+      <c r="AO16" s="54"/>
+      <c r="AR16" s="52"/>
+      <c r="AS16" s="52"/>
+      <c r="AT16" s="52"/>
+      <c r="AU16" s="54"/>
+      <c r="AY16" s="52"/>
+      <c r="AZ16" s="65"/>
+      <c r="BA16" s="54"/>
+    </row>
+    <row r="17" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+      <c r="B17" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="W11" s="60">
-        <v>44841</v>
-      </c>
-      <c r="Z11" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53" t="s">
+      <c r="C17" s="60"/>
+      <c r="D17" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="78">
+        <v>44947</v>
+      </c>
+      <c r="H17" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="AC11" s="60">
-        <v>44812</v>
-      </c>
-      <c r="AE11" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH11" s="58">
-        <v>44784</v>
-      </c>
-      <c r="AL11" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM11" s="53"/>
-      <c r="AN11" s="53" t="s">
+      <c r="I17" s="60"/>
+      <c r="J17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AO11" s="59">
-        <v>44751</v>
-      </c>
-      <c r="AR11" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS11" s="61"/>
-      <c r="AT11" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="AU11" s="58">
-        <v>44695</v>
-      </c>
-      <c r="AY11" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ11" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="BA11" s="59">
-        <v>44723</v>
-      </c>
-    </row>
-    <row r="12" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="62"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="62"/>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="62"/>
-      <c r="AE12" s="71"/>
-      <c r="AF12" s="71"/>
-      <c r="AG12" s="72"/>
-      <c r="AH12" s="62"/>
-      <c r="AL12" s="61"/>
-      <c r="AM12" s="61"/>
-      <c r="AN12" s="61"/>
-      <c r="AO12" s="62"/>
-      <c r="AR12" s="53"/>
-      <c r="AS12" s="53"/>
-      <c r="AT12" s="53"/>
-      <c r="AU12" s="55"/>
-      <c r="AY12" s="61"/>
-      <c r="AZ12" s="65"/>
-      <c r="BA12" s="62"/>
-    </row>
-    <row r="13" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="60">
-        <v>44939</v>
-      </c>
-      <c r="H13" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="60">
-        <v>44904</v>
-      </c>
-      <c r="N13" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q13" s="80">
-        <v>44883</v>
-      </c>
-      <c r="T13" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="W13" s="80">
-        <v>44848</v>
-      </c>
-      <c r="Z13" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC13" s="76">
-        <v>44813</v>
-      </c>
-      <c r="AE13" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH13" s="74">
-        <v>44785</v>
-      </c>
-      <c r="AL13" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM13" s="53"/>
-      <c r="AN13" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO13" s="74">
-        <v>44756</v>
-      </c>
-      <c r="AR13" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AS13" s="53"/>
-      <c r="AT13" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU13" s="59">
-        <v>44695</v>
-      </c>
-      <c r="AY13" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="AZ13" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="BA13" s="60">
-        <v>44728</v>
-      </c>
-    </row>
-    <row r="14" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="62"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="62"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="62"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="62"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="62"/>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="61"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="62"/>
-      <c r="AL14" s="61"/>
-      <c r="AM14" s="61"/>
-      <c r="AN14" s="61"/>
-      <c r="AO14" s="62"/>
-      <c r="AR14" s="53"/>
-      <c r="AS14" s="53"/>
-      <c r="AT14" s="53"/>
-      <c r="AU14" s="55"/>
-      <c r="AY14" s="61"/>
-      <c r="AZ14" s="65"/>
-      <c r="BA14" s="62"/>
-    </row>
-    <row r="15" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="B15" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="80">
-        <v>44946</v>
-      </c>
-      <c r="H15" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="80">
-        <v>44911</v>
-      </c>
-      <c r="N15" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" s="61"/>
-      <c r="P15" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="79">
-        <v>44884</v>
-      </c>
-      <c r="T15" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="U15" s="61"/>
-      <c r="V15" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="W15" s="79">
-        <v>44849</v>
-      </c>
-      <c r="Z15" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC15" s="79">
-        <v>44814</v>
-      </c>
-      <c r="AE15" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF15" s="61"/>
-      <c r="AG15" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH15" s="75">
-        <v>44786</v>
-      </c>
-      <c r="AL15" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM15" s="61"/>
-      <c r="AN15" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="AO15" s="75">
-        <v>44758</v>
-      </c>
-      <c r="AR15" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="AS15" s="53"/>
-      <c r="AT15" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="AU15" s="60">
-        <v>44700</v>
-      </c>
-      <c r="AY15" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="AZ15" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="BA15" s="58">
-        <v>44730</v>
-      </c>
-    </row>
-    <row r="16" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="62"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="55"/>
-      <c r="AE16" s="53"/>
-      <c r="AF16" s="53"/>
-      <c r="AG16" s="53"/>
-      <c r="AH16" s="55"/>
-      <c r="AL16" s="53"/>
-      <c r="AM16" s="53"/>
-      <c r="AN16" s="53"/>
-      <c r="AO16" s="55"/>
-      <c r="AR16" s="53"/>
-      <c r="AS16" s="53"/>
-      <c r="AT16" s="53"/>
-      <c r="AU16" s="55"/>
-      <c r="AY16" s="53"/>
-      <c r="AZ16" s="66"/>
-      <c r="BA16" s="55"/>
-    </row>
-    <row r="17" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="B17" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="79">
-        <v>44947</v>
-      </c>
-      <c r="H17" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="61"/>
-      <c r="J17" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="79">
+      <c r="K17" s="78">
         <v>44912</v>
       </c>
-      <c r="AR17" s="61"/>
-      <c r="AS17" s="61"/>
-      <c r="AT17" s="61"/>
-      <c r="AU17" s="62"/>
-      <c r="AY17" s="53"/>
-      <c r="AZ17" s="66"/>
-      <c r="BA17" s="55"/>
+      <c r="AR17" s="60"/>
+      <c r="AS17" s="60"/>
+      <c r="AT17" s="60"/>
+      <c r="AU17" s="61"/>
+      <c r="AY17" s="52"/>
+      <c r="AZ17" s="65"/>
+      <c r="BA17" s="54"/>
     </row>
     <row r="18" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR18" s="53"/>
-      <c r="AS18" s="53"/>
-      <c r="AT18" s="53"/>
-      <c r="AU18" s="55"/>
-      <c r="AY18" s="53"/>
-      <c r="AZ18" s="66"/>
-      <c r="BA18" s="55"/>
+      <c r="AR18" s="52"/>
+      <c r="AS18" s="52"/>
+      <c r="AT18" s="52"/>
+      <c r="AU18" s="54"/>
+      <c r="AY18" s="52"/>
+      <c r="AZ18" s="65"/>
+      <c r="BA18" s="54"/>
     </row>
     <row r="19" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR19" s="53"/>
-      <c r="AS19" s="53"/>
-      <c r="AT19" s="53"/>
-      <c r="AU19" s="55"/>
+      <c r="AR19" s="52"/>
+      <c r="AS19" s="52"/>
+      <c r="AT19" s="52"/>
+      <c r="AU19" s="54"/>
     </row>
     <row r="20" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR20" s="53"/>
-      <c r="AS20" s="53"/>
-      <c r="AT20" s="53"/>
-      <c r="AU20" s="55"/>
+      <c r="AR20" s="52"/>
+      <c r="AS20" s="52"/>
+      <c r="AT20" s="52"/>
+      <c r="AU20" s="54"/>
     </row>
     <row r="21" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR21" s="53"/>
-      <c r="AS21" s="53"/>
-      <c r="AT21" s="53"/>
-      <c r="AU21" s="55"/>
+      <c r="AR21" s="52"/>
+      <c r="AS21" s="52"/>
+      <c r="AT21" s="52"/>
+      <c r="AU21" s="54"/>
     </row>
     <row r="22" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR22" s="53"/>
-      <c r="AS22" s="53"/>
-      <c r="AT22" s="53"/>
-      <c r="AU22" s="55"/>
+      <c r="AR22" s="52"/>
+      <c r="AS22" s="52"/>
+      <c r="AT22" s="52"/>
+      <c r="AU22" s="54"/>
     </row>
     <row r="23" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR23" s="53"/>
-      <c r="AS23" s="53"/>
-      <c r="AT23" s="53"/>
-      <c r="AU23" s="55"/>
+      <c r="AR23" s="52"/>
+      <c r="AS23" s="52"/>
+      <c r="AT23" s="52"/>
+      <c r="AU23" s="54"/>
     </row>
     <row r="24" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR24" s="53"/>
-      <c r="AS24" s="53"/>
-      <c r="AT24" s="53"/>
-      <c r="AU24" s="55"/>
+      <c r="AR24" s="52"/>
+      <c r="AS24" s="52"/>
+      <c r="AT24" s="52"/>
+      <c r="AU24" s="54"/>
     </row>
     <row r="25" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR25" s="53"/>
-      <c r="AS25" s="53"/>
-      <c r="AT25" s="53"/>
-      <c r="AU25" s="55"/>
+      <c r="AR25" s="52"/>
+      <c r="AS25" s="52"/>
+      <c r="AT25" s="52"/>
+      <c r="AU25" s="54"/>
     </row>
     <row r="26" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR26" s="53"/>
-      <c r="AS26" s="53"/>
-      <c r="AT26" s="53"/>
-      <c r="AU26" s="55"/>
+      <c r="AR26" s="52"/>
+      <c r="AS26" s="52"/>
+      <c r="AT26" s="52"/>
+      <c r="AU26" s="54"/>
     </row>
     <row r="27" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR27" s="53"/>
-      <c r="AS27" s="53"/>
-      <c r="AT27" s="53"/>
-      <c r="AU27" s="55"/>
+      <c r="AR27" s="52"/>
+      <c r="AS27" s="52"/>
+      <c r="AT27" s="52"/>
+      <c r="AU27" s="54"/>
     </row>
     <row r="28" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR28" s="53"/>
-      <c r="AS28" s="53"/>
-      <c r="AT28" s="53"/>
-      <c r="AU28" s="55"/>
+      <c r="AR28" s="52"/>
+      <c r="AS28" s="52"/>
+      <c r="AT28" s="52"/>
+      <c r="AU28" s="54"/>
     </row>
     <row r="29" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR29" s="53"/>
-      <c r="AS29" s="53"/>
-      <c r="AT29" s="53"/>
-      <c r="AU29" s="55"/>
+      <c r="AR29" s="52"/>
+      <c r="AS29" s="52"/>
+      <c r="AT29" s="52"/>
+      <c r="AU29" s="54"/>
     </row>
     <row r="30" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR30" s="53"/>
-      <c r="AS30" s="53"/>
-      <c r="AT30" s="53"/>
-      <c r="AU30" s="55"/>
+      <c r="AR30" s="52"/>
+      <c r="AS30" s="52"/>
+      <c r="AT30" s="52"/>
+      <c r="AU30" s="54"/>
     </row>
     <row r="31" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR31" s="53"/>
-      <c r="AS31" s="53"/>
-      <c r="AT31" s="53"/>
-      <c r="AU31" s="55"/>
+      <c r="AR31" s="52"/>
+      <c r="AS31" s="52"/>
+      <c r="AT31" s="52"/>
+      <c r="AU31" s="54"/>
     </row>
   </sheetData>
   <sortState ref="B7:F9">

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="39">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -873,24 +873,6 @@
     <xf numFmtId="165" fontId="13" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -933,6 +915,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1281,8 +1281,8 @@
   </sheetPr>
   <dimension ref="A2:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
@@ -1304,22 +1304,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="102"/>
       <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1816,43 +1816,43 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="87">
+      <c r="B17" s="81">
         <v>986</v>
       </c>
-      <c r="C17" s="88">
+      <c r="C17" s="82">
         <v>458</v>
       </c>
-      <c r="D17" s="89">
-        <v>1392</v>
-      </c>
-      <c r="E17" s="88">
+      <c r="D17" s="83">
+        <v>1392</v>
+      </c>
+      <c r="E17" s="82">
         <v>467</v>
       </c>
-      <c r="F17" s="90">
+      <c r="F17" s="84">
         <v>1856</v>
       </c>
-      <c r="G17" s="91">
+      <c r="G17" s="85">
         <v>464</v>
       </c>
       <c r="H17" s="51">
         <v>1856</v>
       </c>
-      <c r="I17" s="92">
+      <c r="I17" s="86">
         <v>462</v>
       </c>
-      <c r="J17" s="93">
-        <v>1392</v>
-      </c>
-      <c r="K17" s="94">
+      <c r="J17" s="87">
+        <v>1392</v>
+      </c>
+      <c r="K17" s="88">
         <v>469</v>
       </c>
       <c r="L17" s="51">
         <v>1392</v>
       </c>
-      <c r="M17" s="95">
+      <c r="M17" s="89">
         <v>463</v>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       <c r="B20" s="11"/>
       <c r="C20" s="34"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="100"/>
+      <c r="E20" s="94"/>
       <c r="F20" s="13"/>
       <c r="G20" s="41"/>
       <c r="H20" s="13"/>
@@ -1932,7 +1932,7 @@
       <c r="B21" s="11"/>
       <c r="C21" s="45"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="100"/>
+      <c r="E21" s="94"/>
       <c r="F21" s="13"/>
       <c r="G21" s="41"/>
       <c r="H21" s="13"/>
@@ -1944,258 +1944,258 @@
     </row>
     <row r="22" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="97"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="91"/>
     </row>
     <row r="23" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="97"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="91"/>
     </row>
     <row r="24" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="97"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="91"/>
     </row>
     <row r="25" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="97"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="91"/>
     </row>
     <row r="26" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="97"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="91"/>
     </row>
     <row r="27" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="97"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="91"/>
     </row>
     <row r="28" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="97"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="91"/>
     </row>
     <row r="29" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="98"/>
-      <c r="M29" s="97"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="91"/>
     </row>
     <row r="30" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="97"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="91"/>
     </row>
     <row r="31" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="98"/>
-      <c r="M31" s="97"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="91"/>
     </row>
     <row r="32" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="97"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="91"/>
     </row>
     <row r="33" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="98"/>
-      <c r="M33" s="97"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="91"/>
     </row>
     <row r="34" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="98"/>
-      <c r="M34" s="97"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="91"/>
     </row>
     <row r="35" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
-      <c r="B35" s="96"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="98"/>
-      <c r="M35" s="97"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="91"/>
     </row>
     <row r="36" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="98"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="104"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="98"/>
-      <c r="M36" s="97"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="91"/>
     </row>
     <row r="37" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="98"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="98"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="104"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="98"/>
-      <c r="M37" s="97"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="92"/>
+      <c r="M37" s="91"/>
     </row>
     <row r="38" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="98"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="104"/>
-      <c r="K38" s="105"/>
-      <c r="L38" s="98"/>
-      <c r="M38" s="97"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="92"/>
+      <c r="M38" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2210,137 +2210,136 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:BA31"/>
+  <dimension ref="A3:BF31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="36" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="36" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="18.42578125" customWidth="1"/>
-    <col min="38" max="38" width="36" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.140625" customWidth="1"/>
-    <col min="41" max="41" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="19.5703125" customWidth="1"/>
-    <col min="46" max="46" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.42578125" style="55" customWidth="1"/>
-    <col min="51" max="51" width="36" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="19.5703125" style="24" customWidth="1"/>
-    <col min="53" max="53" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="36" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.42578125" customWidth="1"/>
+    <col min="43" max="43" width="36" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.140625" customWidth="1"/>
+    <col min="46" max="46" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="19.5703125" customWidth="1"/>
+    <col min="51" max="51" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="18.42578125" style="55" customWidth="1"/>
+    <col min="56" max="56" width="36" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="19.5703125" style="24" customWidth="1"/>
+    <col min="58" max="58" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:53" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N3" s="84" t="s">
+    <row r="3" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S3" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="68"/>
-      <c r="T3" s="84" t="s">
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="68"/>
+      <c r="Y3" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="68"/>
-      <c r="Z3" s="84" t="s">
+      <c r="Z3" s="104"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="68"/>
+      <c r="AE3" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="68"/>
-      <c r="AE3" s="84" t="s">
+      <c r="AF3" s="104"/>
+      <c r="AG3" s="104"/>
+      <c r="AH3" s="68"/>
+      <c r="AJ3" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="68"/>
-      <c r="AL3" s="84" t="s">
+      <c r="AK3" s="104"/>
+      <c r="AL3" s="104"/>
+      <c r="AM3" s="68"/>
+      <c r="AQ3" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="84"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="67"/>
-      <c r="AR3" s="84" t="s">
+      <c r="AR3" s="104"/>
+      <c r="AS3" s="104"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="67"/>
+      <c r="AW3" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="84"/>
-      <c r="AT3" s="84"/>
-      <c r="AU3" s="84"/>
-      <c r="AY3" s="84" t="s">
+      <c r="AX3" s="104"/>
+      <c r="AY3" s="104"/>
+      <c r="AZ3" s="104"/>
+      <c r="BD3" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="AZ3" s="84"/>
-      <c r="BA3" s="84"/>
-    </row>
-    <row r="4" spans="2:53" x14ac:dyDescent="0.25">
-      <c r="Q4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="AC4" s="55"/>
+      <c r="BE3" s="104"/>
+      <c r="BF3" s="104"/>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="V4" s="55"/>
+      <c r="AB4" s="55"/>
       <c r="AH4" s="55"/>
-      <c r="AO4" s="55"/>
-      <c r="BA4" s="55"/>
-    </row>
-    <row r="5" spans="2:53" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="84" t="s">
+      <c r="AM4" s="55"/>
+      <c r="AT4" s="55"/>
+      <c r="BF4" s="55"/>
+    </row>
+    <row r="5" spans="1:58" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A5" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="68"/>
-      <c r="H5" s="84" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="68"/>
+      <c r="G5" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="68"/>
-      <c r="N5" s="69" t="s">
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="68"/>
+      <c r="M5" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="68"/>
+      <c r="S5" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="69"/>
-      <c r="P5" s="53" t="s">
+      <c r="T5" s="69"/>
+      <c r="U5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="76">
+      <c r="V5" s="76">
         <v>44861</v>
       </c>
-      <c r="T5" s="69" t="s">
+      <c r="Y5" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="U5" s="69"/>
-      <c r="V5" s="53" t="s">
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="76">
+      <c r="AB5" s="76">
         <v>44833</v>
-      </c>
-      <c r="Z5" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC5" s="58">
-        <v>44804</v>
       </c>
       <c r="AE5" s="52" t="s">
         <v>16</v>
@@ -2349,112 +2348,123 @@
       <c r="AG5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AH5" s="72">
+      <c r="AH5" s="58">
+        <v>44804</v>
+      </c>
+      <c r="AJ5" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK5" s="52"/>
+      <c r="AL5" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM5" s="72">
         <v>44776</v>
       </c>
-      <c r="AL5" s="69" t="s">
+      <c r="AQ5" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AM5" s="69"/>
-      <c r="AN5" s="53" t="s">
+      <c r="AR5" s="69"/>
+      <c r="AS5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AO5" s="59">
+      <c r="AT5" s="59">
         <v>44747</v>
       </c>
-      <c r="AR5" s="85" t="s">
+      <c r="AW5" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="AS5" s="85"/>
-      <c r="AT5" s="53" t="s">
+      <c r="AX5" s="105"/>
+      <c r="AY5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AU5" s="59">
+      <c r="AZ5" s="59">
         <v>44686</v>
       </c>
-      <c r="AY5" s="56" t="s">
+      <c r="BD5" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="AZ5" s="63" t="s">
+      <c r="BE5" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="BA5" s="59">
+      <c r="BF5" s="59">
         <v>44714</v>
       </c>
     </row>
-    <row r="6" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="E6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="61"/>
+    <row r="6" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="D6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="S6" s="52"/>
       <c r="T6" s="52"/>
       <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="61"/>
-      <c r="AL6" s="70"/>
-      <c r="AM6" s="70"/>
-      <c r="AN6" s="71"/>
-      <c r="AO6" s="61"/>
-      <c r="AR6" s="52"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="52"/>
-      <c r="AU6" s="54"/>
-      <c r="AY6" s="60"/>
-      <c r="AZ6" s="64"/>
-      <c r="BA6" s="61"/>
-    </row>
-    <row r="7" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="52" t="s">
+      <c r="V6" s="61"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="61"/>
+      <c r="AQ6" s="70"/>
+      <c r="AR6" s="70"/>
+      <c r="AS6" s="71"/>
+      <c r="AT6" s="61"/>
+      <c r="AW6" s="52"/>
+      <c r="AX6" s="52"/>
+      <c r="AY6" s="52"/>
+      <c r="AZ6" s="54"/>
+      <c r="BD6" s="60"/>
+      <c r="BE6" s="64"/>
+      <c r="BF6" s="61"/>
+    </row>
+    <row r="7" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="58">
+      <c r="D7" s="58">
+        <v>44958</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="58">
         <v>44930</v>
       </c>
-      <c r="H7" s="69" t="s">
+      <c r="M7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="53" t="s">
+      <c r="N7" s="69"/>
+      <c r="O7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="76">
+      <c r="P7" s="76">
         <v>44896</v>
       </c>
-      <c r="N7" s="52" t="s">
+      <c r="S7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52" t="s">
+      <c r="T7" s="52"/>
+      <c r="U7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="58">
+      <c r="V7" s="58">
         <v>44874</v>
       </c>
-      <c r="T7" s="52" t="s">
+      <c r="Y7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52" t="s">
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="W7" s="58">
+      <c r="AB7" s="58">
         <v>44839</v>
-      </c>
-      <c r="Z7" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC7" s="76">
-        <v>44805</v>
       </c>
       <c r="AE7" s="69" t="s">
         <v>23</v>
@@ -2463,111 +2473,125 @@
       <c r="AG7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AH7" s="59">
+      <c r="AH7" s="76">
+        <v>44805</v>
+      </c>
+      <c r="AJ7" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK7" s="69"/>
+      <c r="AL7" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM7" s="59">
         <v>44777</v>
       </c>
-      <c r="AL7" s="52" t="s">
+      <c r="AQ7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AM7" s="52"/>
-      <c r="AN7" s="52" t="s">
+      <c r="AR7" s="52"/>
+      <c r="AS7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AO7" s="72">
+      <c r="AT7" s="72">
         <v>44748</v>
       </c>
-      <c r="AR7" s="52" t="s">
+      <c r="AW7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AS7" s="52"/>
-      <c r="AT7" s="52" t="s">
+      <c r="AX7" s="52"/>
+      <c r="AY7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AU7" s="57">
+      <c r="AZ7" s="57">
         <v>44691</v>
       </c>
-      <c r="AV7" s="62"/>
-      <c r="AY7" s="52" t="s">
+      <c r="BA7" s="62"/>
+      <c r="BD7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AZ7" s="65" t="s">
+      <c r="BE7" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="BA7" s="57">
+      <c r="BF7" s="57">
         <v>44719</v>
       </c>
     </row>
-    <row r="8" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="70"/>
       <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="61"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="61"/>
-      <c r="AL8" s="60"/>
-      <c r="AM8" s="60"/>
-      <c r="AN8" s="60"/>
-      <c r="AO8" s="61"/>
-      <c r="AR8" s="52"/>
-      <c r="AS8" s="52"/>
-      <c r="AT8" s="52"/>
-      <c r="AU8" s="54"/>
-      <c r="AY8" s="60"/>
-      <c r="AZ8" s="64"/>
-      <c r="BA8" s="61"/>
-    </row>
-    <row r="9" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="69" t="s">
+      <c r="C8" s="71"/>
+      <c r="D8" s="61"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="61"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="61"/>
+      <c r="AQ8" s="60"/>
+      <c r="AR8" s="60"/>
+      <c r="AS8" s="60"/>
+      <c r="AT8" s="61"/>
+      <c r="AW8" s="52"/>
+      <c r="AX8" s="52"/>
+      <c r="AY8" s="52"/>
+      <c r="AZ8" s="54"/>
+      <c r="BD8" s="60"/>
+      <c r="BE8" s="64"/>
+      <c r="BF8" s="61"/>
+    </row>
+    <row r="9" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="53" t="s">
+      <c r="B9" s="69"/>
+      <c r="C9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="76">
+      <c r="D9" s="76">
+        <v>44959</v>
+      </c>
+      <c r="G9" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="69"/>
+      <c r="I9" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="76">
         <v>44931</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="M9" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52" t="s">
+      <c r="N9" s="52"/>
+      <c r="O9" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="58">
+      <c r="P9" s="58">
         <v>44902</v>
       </c>
-      <c r="N9" s="52" t="s">
+      <c r="S9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52" t="s">
+      <c r="T9" s="52"/>
+      <c r="U9" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="77">
+      <c r="V9" s="77">
         <v>44875</v>
       </c>
-      <c r="T9" s="52" t="s">
+      <c r="Y9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52" t="s">
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="W9" s="77">
+      <c r="AB9" s="77">
         <v>44840</v>
-      </c>
-      <c r="Z9" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC9" s="77">
-        <v>44807</v>
       </c>
       <c r="AE9" s="52" t="s">
         <v>24</v>
@@ -2576,107 +2600,121 @@
       <c r="AG9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AH9" s="58">
+      <c r="AH9" s="77">
+        <v>44807</v>
+      </c>
+      <c r="AJ9" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK9" s="52"/>
+      <c r="AL9" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM9" s="58">
         <v>44779</v>
       </c>
-      <c r="AL9" s="52" t="s">
+      <c r="AQ9" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="AM9" s="52"/>
-      <c r="AN9" s="52" t="s">
+      <c r="AR9" s="52"/>
+      <c r="AS9" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AO9" s="57">
+      <c r="AT9" s="57">
         <v>44749</v>
       </c>
-      <c r="AR9" s="52" t="s">
+      <c r="AW9" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="AS9" s="52"/>
-      <c r="AT9" s="52" t="s">
+      <c r="AX9" s="52"/>
+      <c r="AY9" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AU9" s="59">
+      <c r="AZ9" s="59">
         <v>44693</v>
       </c>
-      <c r="AY9" s="52" t="s">
+      <c r="BD9" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="AZ9" s="65" t="s">
+      <c r="BE9" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="BA9" s="59">
+      <c r="BF9" s="59">
         <v>44721</v>
       </c>
     </row>
-    <row r="10" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="60"/>
       <c r="B10" s="60"/>
       <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="AL10" s="60"/>
-      <c r="AM10" s="60"/>
-      <c r="AN10" s="60"/>
-      <c r="AO10" s="61"/>
-      <c r="AR10" s="52"/>
-      <c r="AS10" s="52"/>
-      <c r="AT10" s="52"/>
-      <c r="AU10" s="54"/>
-      <c r="AY10" s="60"/>
-      <c r="AZ10" s="64"/>
-      <c r="BA10" s="61"/>
-    </row>
-    <row r="11" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="B11" s="52" t="s">
+      <c r="D10" s="61"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="62"/>
+      <c r="AQ10" s="60"/>
+      <c r="AR10" s="60"/>
+      <c r="AS10" s="60"/>
+      <c r="AT10" s="61"/>
+      <c r="AW10" s="52"/>
+      <c r="AX10" s="52"/>
+      <c r="AY10" s="52"/>
+      <c r="AZ10" s="54"/>
+      <c r="BD10" s="60"/>
+      <c r="BE10" s="64"/>
+      <c r="BF10" s="61"/>
+    </row>
+    <row r="11" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="59">
+      <c r="D11" s="59">
+        <v>44967</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="59">
         <v>44932</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="M11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52" t="s">
+      <c r="N11" s="52"/>
+      <c r="O11" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="77">
+      <c r="P11" s="77">
         <v>44903</v>
       </c>
-      <c r="N11" s="52" t="s">
+      <c r="S11" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52" t="s">
+      <c r="T11" s="52"/>
+      <c r="U11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="59">
+      <c r="V11" s="59">
         <v>44876</v>
       </c>
-      <c r="T11" s="52" t="s">
+      <c r="Y11" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52" t="s">
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="W11" s="59">
+      <c r="AB11" s="59">
         <v>44841</v>
-      </c>
-      <c r="Z11" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC11" s="59">
-        <v>44812</v>
       </c>
       <c r="AE11" s="52" t="s">
         <v>25</v>
@@ -2685,118 +2723,128 @@
       <c r="AG11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AH11" s="57">
+      <c r="AH11" s="59">
+        <v>44812</v>
+      </c>
+      <c r="AJ11" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK11" s="52"/>
+      <c r="AL11" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM11" s="57">
         <v>44784</v>
       </c>
-      <c r="AL11" s="52" t="s">
+      <c r="AQ11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="AM11" s="52"/>
-      <c r="AN11" s="52" t="s">
+      <c r="AR11" s="52"/>
+      <c r="AS11" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AO11" s="58">
+      <c r="AT11" s="58">
         <v>44751</v>
       </c>
-      <c r="AR11" s="52" t="s">
+      <c r="AW11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="AS11" s="60"/>
-      <c r="AT11" s="52" t="s">
+      <c r="AX11" s="60"/>
+      <c r="AY11" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="AU11" s="57">
+      <c r="AZ11" s="57">
         <v>44695</v>
       </c>
-      <c r="AY11" s="52" t="s">
+      <c r="BD11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="AZ11" s="65" t="s">
+      <c r="BE11" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="BA11" s="58">
+      <c r="BF11" s="58">
         <v>44723</v>
       </c>
     </row>
-    <row r="12" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="61"/>
+    <row r="12" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="S12" s="70"/>
       <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="61"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="61"/>
+      <c r="Y12" s="70"/>
       <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="61"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="61"/>
       <c r="AE12" s="70"/>
       <c r="AF12" s="70"/>
       <c r="AG12" s="71"/>
       <c r="AH12" s="61"/>
-      <c r="AL12" s="60"/>
-      <c r="AM12" s="60"/>
-      <c r="AN12" s="60"/>
-      <c r="AO12" s="61"/>
-      <c r="AR12" s="52"/>
-      <c r="AS12" s="52"/>
-      <c r="AT12" s="52"/>
-      <c r="AU12" s="54"/>
-      <c r="AY12" s="60"/>
-      <c r="AZ12" s="64"/>
-      <c r="BA12" s="61"/>
-    </row>
-    <row r="13" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="52" t="s">
+      <c r="AJ12" s="70"/>
+      <c r="AK12" s="70"/>
+      <c r="AL12" s="71"/>
+      <c r="AM12" s="61"/>
+      <c r="AQ12" s="60"/>
+      <c r="AR12" s="60"/>
+      <c r="AS12" s="60"/>
+      <c r="AT12" s="61"/>
+      <c r="AW12" s="52"/>
+      <c r="AX12" s="52"/>
+      <c r="AY12" s="52"/>
+      <c r="AZ12" s="54"/>
+      <c r="BD12" s="60"/>
+      <c r="BE12" s="64"/>
+      <c r="BF12" s="61"/>
+    </row>
+    <row r="13" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52" t="s">
+      <c r="B13" s="52"/>
+      <c r="C13" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="77">
+      <c r="D13" s="77">
+        <v>44966</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="77">
         <v>44938</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="M13" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52" t="s">
+      <c r="N13" s="52"/>
+      <c r="O13" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="59">
+      <c r="P13" s="59">
         <v>44904</v>
       </c>
-      <c r="N13" s="52" t="s">
+      <c r="S13" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52" t="s">
+      <c r="T13" s="52"/>
+      <c r="U13" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="79">
+      <c r="V13" s="79">
         <v>44883</v>
       </c>
-      <c r="T13" s="52" t="s">
+      <c r="Y13" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52" t="s">
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="W13" s="79">
+      <c r="AB13" s="79">
         <v>44848</v>
-      </c>
-      <c r="Z13" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC13" s="75">
-        <v>44813</v>
       </c>
       <c r="AE13" s="52" t="s">
         <v>21</v>
@@ -2805,126 +2853,140 @@
       <c r="AG13" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="AH13" s="73">
+      <c r="AH13" s="75">
+        <v>44813</v>
+      </c>
+      <c r="AJ13" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK13" s="52"/>
+      <c r="AL13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM13" s="73">
         <v>44785</v>
       </c>
-      <c r="AL13" s="52" t="s">
+      <c r="AQ13" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AM13" s="52"/>
-      <c r="AN13" s="52" t="s">
+      <c r="AR13" s="52"/>
+      <c r="AS13" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="AO13" s="73">
+      <c r="AT13" s="73">
         <v>44756</v>
       </c>
-      <c r="AR13" s="52" t="s">
+      <c r="AW13" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="AS13" s="52"/>
-      <c r="AT13" s="52" t="s">
+      <c r="AX13" s="52"/>
+      <c r="AY13" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AU13" s="58">
+      <c r="AZ13" s="58">
         <v>44695</v>
       </c>
-      <c r="AY13" s="52" t="s">
+      <c r="BD13" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AZ13" s="65" t="s">
+      <c r="BE13" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="BA13" s="59">
+      <c r="BF13" s="59">
         <v>44728</v>
       </c>
     </row>
-    <row r="14" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="70"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="61"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="61"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="61"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="61"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="61"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="61"/>
+      <c r="S14" s="60"/>
       <c r="T14" s="60"/>
       <c r="U14" s="60"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="Y14" s="60"/>
       <c r="Z14" s="60"/>
       <c r="AA14" s="60"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="61"/>
+      <c r="AB14" s="61"/>
       <c r="AE14" s="60"/>
       <c r="AF14" s="60"/>
       <c r="AG14" s="60"/>
       <c r="AH14" s="61"/>
+      <c r="AJ14" s="60"/>
+      <c r="AK14" s="60"/>
       <c r="AL14" s="60"/>
-      <c r="AM14" s="60"/>
-      <c r="AN14" s="60"/>
-      <c r="AO14" s="61"/>
-      <c r="AR14" s="52"/>
-      <c r="AS14" s="52"/>
-      <c r="AT14" s="52"/>
-      <c r="AU14" s="54"/>
-      <c r="AY14" s="60"/>
-      <c r="AZ14" s="64"/>
-      <c r="BA14" s="61"/>
-    </row>
-    <row r="15" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="B15" s="52" t="s">
+      <c r="AM14" s="61"/>
+      <c r="AQ14" s="60"/>
+      <c r="AR14" s="60"/>
+      <c r="AS14" s="60"/>
+      <c r="AT14" s="61"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="52"/>
+      <c r="AY14" s="52"/>
+      <c r="AZ14" s="54"/>
+      <c r="BD14" s="60"/>
+      <c r="BE14" s="64"/>
+      <c r="BF14" s="61"/>
+    </row>
+    <row r="15" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52" t="s">
+      <c r="B15" s="52"/>
+      <c r="C15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="79">
+      <c r="D15" s="79">
+        <v>44973</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="79">
         <v>44946</v>
       </c>
-      <c r="H15" s="52" t="s">
+      <c r="M15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52" t="s">
+      <c r="N15" s="52"/>
+      <c r="O15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="79">
+      <c r="P15" s="79">
         <v>44911</v>
       </c>
-      <c r="N15" s="52" t="s">
+      <c r="S15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="O15" s="60"/>
-      <c r="P15" s="53" t="s">
+      <c r="T15" s="60"/>
+      <c r="U15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Q15" s="78">
+      <c r="V15" s="78">
         <v>44884</v>
       </c>
-      <c r="T15" s="52" t="s">
+      <c r="Y15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="U15" s="60"/>
-      <c r="V15" s="53" t="s">
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="W15" s="78">
+      <c r="AB15" s="78">
         <v>44849</v>
-      </c>
-      <c r="Z15" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC15" s="78">
-        <v>44814</v>
       </c>
       <c r="AE15" s="52" t="s">
         <v>19</v>
@@ -2933,199 +2995,224 @@
       <c r="AG15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AH15" s="74">
+      <c r="AH15" s="78">
+        <v>44814</v>
+      </c>
+      <c r="AJ15" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK15" s="60"/>
+      <c r="AL15" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM15" s="74">
         <v>44786</v>
       </c>
-      <c r="AL15" s="52" t="s">
+      <c r="AQ15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="AM15" s="60"/>
-      <c r="AN15" s="52" t="s">
+      <c r="AR15" s="60"/>
+      <c r="AS15" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="AO15" s="74">
+      <c r="AT15" s="74">
         <v>44758</v>
       </c>
-      <c r="AR15" s="52" t="s">
+      <c r="AW15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AS15" s="52"/>
-      <c r="AT15" s="52" t="s">
+      <c r="AX15" s="52"/>
+      <c r="AY15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="AU15" s="59">
+      <c r="AZ15" s="59">
         <v>44700</v>
       </c>
-      <c r="AY15" s="52" t="s">
+      <c r="BD15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="AZ15" s="65" t="s">
+      <c r="BE15" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="BA15" s="57">
+      <c r="BF15" s="57">
         <v>44730</v>
       </c>
     </row>
-    <row r="16" spans="2:53" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="60"/>
       <c r="B16" s="60"/>
       <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="G16" s="60"/>
       <c r="H16" s="60"/>
       <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="61"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="54"/>
+      <c r="J16" s="61"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="61"/>
       <c r="AE16" s="52"/>
       <c r="AF16" s="52"/>
       <c r="AG16" s="52"/>
       <c r="AH16" s="54"/>
+      <c r="AJ16" s="52"/>
+      <c r="AK16" s="52"/>
       <c r="AL16" s="52"/>
-      <c r="AM16" s="52"/>
-      <c r="AN16" s="52"/>
-      <c r="AO16" s="54"/>
+      <c r="AM16" s="54"/>
+      <c r="AQ16" s="52"/>
       <c r="AR16" s="52"/>
       <c r="AS16" s="52"/>
-      <c r="AT16" s="52"/>
-      <c r="AU16" s="54"/>
+      <c r="AT16" s="54"/>
+      <c r="AW16" s="52"/>
+      <c r="AX16" s="52"/>
       <c r="AY16" s="52"/>
-      <c r="AZ16" s="65"/>
-      <c r="BA16" s="54"/>
-    </row>
-    <row r="17" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="B17" s="52" t="s">
+      <c r="AZ16" s="54"/>
+      <c r="BD16" s="52"/>
+      <c r="BE16" s="65"/>
+      <c r="BF16" s="54"/>
+    </row>
+    <row r="17" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="53" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="78">
-        <v>44947</v>
-      </c>
-      <c r="H17" s="52" t="s">
+      <c r="D17" s="78">
+        <v>44982</v>
+      </c>
+      <c r="G17" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="60"/>
-      <c r="J17" s="53" t="s">
+      <c r="H17" s="60"/>
+      <c r="I17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="78">
+      <c r="J17" s="78">
+        <v>44954</v>
+      </c>
+      <c r="M17" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="60"/>
+      <c r="O17" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" s="78">
         <v>44912</v>
       </c>
-      <c r="AR17" s="60"/>
-      <c r="AS17" s="60"/>
-      <c r="AT17" s="60"/>
-      <c r="AU17" s="61"/>
-      <c r="AY17" s="52"/>
-      <c r="AZ17" s="65"/>
-      <c r="BA17" s="54"/>
-    </row>
-    <row r="18" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR18" s="52"/>
-      <c r="AS18" s="52"/>
-      <c r="AT18" s="52"/>
-      <c r="AU18" s="54"/>
+      <c r="AW17" s="60"/>
+      <c r="AX17" s="60"/>
+      <c r="AY17" s="60"/>
+      <c r="AZ17" s="61"/>
+      <c r="BD17" s="52"/>
+      <c r="BE17" s="65"/>
+      <c r="BF17" s="54"/>
+    </row>
+    <row r="18" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="AW18" s="52"/>
+      <c r="AX18" s="52"/>
       <c r="AY18" s="52"/>
-      <c r="AZ18" s="65"/>
-      <c r="BA18" s="54"/>
-    </row>
-    <row r="19" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR19" s="52"/>
-      <c r="AS19" s="52"/>
-      <c r="AT19" s="52"/>
-      <c r="AU19" s="54"/>
-    </row>
-    <row r="20" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR20" s="52"/>
-      <c r="AS20" s="52"/>
-      <c r="AT20" s="52"/>
-      <c r="AU20" s="54"/>
-    </row>
-    <row r="21" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR21" s="52"/>
-      <c r="AS21" s="52"/>
-      <c r="AT21" s="52"/>
-      <c r="AU21" s="54"/>
-    </row>
-    <row r="22" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR22" s="52"/>
-      <c r="AS22" s="52"/>
-      <c r="AT22" s="52"/>
-      <c r="AU22" s="54"/>
-    </row>
-    <row r="23" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR23" s="52"/>
-      <c r="AS23" s="52"/>
-      <c r="AT23" s="52"/>
-      <c r="AU23" s="54"/>
-    </row>
-    <row r="24" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR24" s="52"/>
-      <c r="AS24" s="52"/>
-      <c r="AT24" s="52"/>
-      <c r="AU24" s="54"/>
-    </row>
-    <row r="25" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR25" s="52"/>
-      <c r="AS25" s="52"/>
-      <c r="AT25" s="52"/>
-      <c r="AU25" s="54"/>
-    </row>
-    <row r="26" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR26" s="52"/>
-      <c r="AS26" s="52"/>
-      <c r="AT26" s="52"/>
-      <c r="AU26" s="54"/>
-    </row>
-    <row r="27" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR27" s="52"/>
-      <c r="AS27" s="52"/>
-      <c r="AT27" s="52"/>
-      <c r="AU27" s="54"/>
-    </row>
-    <row r="28" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR28" s="52"/>
-      <c r="AS28" s="52"/>
-      <c r="AT28" s="52"/>
-      <c r="AU28" s="54"/>
-    </row>
-    <row r="29" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR29" s="52"/>
-      <c r="AS29" s="52"/>
-      <c r="AT29" s="52"/>
-      <c r="AU29" s="54"/>
-    </row>
-    <row r="30" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR30" s="52"/>
-      <c r="AS30" s="52"/>
-      <c r="AT30" s="52"/>
-      <c r="AU30" s="54"/>
-    </row>
-    <row r="31" spans="2:53" ht="21" x14ac:dyDescent="0.35">
-      <c r="AR31" s="52"/>
-      <c r="AS31" s="52"/>
-      <c r="AT31" s="52"/>
-      <c r="AU31" s="54"/>
+      <c r="AZ18" s="54"/>
+      <c r="BD18" s="52"/>
+      <c r="BE18" s="65"/>
+      <c r="BF18" s="54"/>
+    </row>
+    <row r="19" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="AW19" s="52"/>
+      <c r="AX19" s="52"/>
+      <c r="AY19" s="52"/>
+      <c r="AZ19" s="54"/>
+    </row>
+    <row r="20" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="AW20" s="52"/>
+      <c r="AX20" s="52"/>
+      <c r="AY20" s="52"/>
+      <c r="AZ20" s="54"/>
+    </row>
+    <row r="21" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="AW21" s="52"/>
+      <c r="AX21" s="52"/>
+      <c r="AY21" s="52"/>
+      <c r="AZ21" s="54"/>
+    </row>
+    <row r="22" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="AW22" s="52"/>
+      <c r="AX22" s="52"/>
+      <c r="AY22" s="52"/>
+      <c r="AZ22" s="54"/>
+    </row>
+    <row r="23" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="AW23" s="52"/>
+      <c r="AX23" s="52"/>
+      <c r="AY23" s="52"/>
+      <c r="AZ23" s="54"/>
+    </row>
+    <row r="24" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="AW24" s="52"/>
+      <c r="AX24" s="52"/>
+      <c r="AY24" s="52"/>
+      <c r="AZ24" s="54"/>
+    </row>
+    <row r="25" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="AW25" s="52"/>
+      <c r="AX25" s="52"/>
+      <c r="AY25" s="52"/>
+      <c r="AZ25" s="54"/>
+    </row>
+    <row r="26" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="AW26" s="52"/>
+      <c r="AX26" s="52"/>
+      <c r="AY26" s="52"/>
+      <c r="AZ26" s="54"/>
+    </row>
+    <row r="27" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="AW27" s="52"/>
+      <c r="AX27" s="52"/>
+      <c r="AY27" s="52"/>
+      <c r="AZ27" s="54"/>
+    </row>
+    <row r="28" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="AW28" s="52"/>
+      <c r="AX28" s="52"/>
+      <c r="AY28" s="52"/>
+      <c r="AZ28" s="54"/>
+    </row>
+    <row r="29" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="AW29" s="52"/>
+      <c r="AX29" s="52"/>
+      <c r="AY29" s="52"/>
+      <c r="AZ29" s="54"/>
+    </row>
+    <row r="30" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="AW30" s="52"/>
+      <c r="AX30" s="52"/>
+      <c r="AY30" s="52"/>
+      <c r="AZ30" s="54"/>
+    </row>
+    <row r="31" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="AW31" s="52"/>
+      <c r="AX31" s="52"/>
+      <c r="AY31" s="52"/>
+      <c r="AZ31" s="54"/>
     </row>
   </sheetData>
-  <sortState ref="B7:F9">
-    <sortCondition ref="E7:E9"/>
+  <sortState ref="G7:K9">
+    <sortCondition ref="J7:J9"/>
   </sortState>
-  <mergeCells count="10">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="AL3:AN3"/>
+  <mergeCells count="11">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="BD3:BF3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AR3:AU3"/>
+    <mergeCell ref="AW3:AZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="40">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Enero.,2023</t>
+  </si>
+  <si>
+    <t>FEBRERO.,2023</t>
   </si>
 </sst>
 </file>
@@ -1281,9 +1284,9 @@
   </sheetPr>
   <dimension ref="A2:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1898,19 +1901,45 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="50"/>
+      <c r="A19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="11">
+        <v>986</v>
+      </c>
+      <c r="C19" s="34">
+        <v>521</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1392</v>
+      </c>
+      <c r="E19" s="34">
+        <v>524</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1856</v>
+      </c>
+      <c r="G19" s="41">
+        <v>522</v>
+      </c>
+      <c r="H19" s="13">
+        <v>1856</v>
+      </c>
+      <c r="I19" s="45">
+        <v>520</v>
+      </c>
+      <c r="J19" s="26">
+        <v>1392</v>
+      </c>
+      <c r="K19" s="47">
+        <v>525</v>
+      </c>
+      <c r="L19" s="13">
+        <v>1392</v>
+      </c>
+      <c r="M19" s="50">
+        <v>523</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
@@ -2212,7 +2241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="40">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -1284,7 +1284,7 @@
   </sheetPr>
   <dimension ref="A2:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
@@ -2239,146 +2239,144 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:BF31"/>
+  <dimension ref="A3:BK31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="36" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="36" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="36" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="36" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="36" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="18.42578125" customWidth="1"/>
-    <col min="43" max="43" width="36" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.140625" customWidth="1"/>
-    <col min="46" max="46" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="19.5703125" customWidth="1"/>
-    <col min="51" max="51" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="18.42578125" style="55" customWidth="1"/>
-    <col min="56" max="56" width="36" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="19.5703125" style="24" customWidth="1"/>
-    <col min="58" max="58" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="36" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.42578125" customWidth="1"/>
+    <col min="48" max="48" width="36" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.140625" customWidth="1"/>
+    <col min="51" max="51" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="19.5703125" customWidth="1"/>
+    <col min="56" max="56" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.42578125" style="55" customWidth="1"/>
+    <col min="61" max="61" width="36" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="19.5703125" style="24" customWidth="1"/>
+    <col min="63" max="63" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S3" s="104" t="s">
+    <row r="3" spans="1:63" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X3" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="68"/>
-      <c r="Y3" s="104" t="s">
+      <c r="Y3" s="104"/>
+      <c r="Z3" s="104"/>
+      <c r="AA3" s="68"/>
+      <c r="AD3" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="68"/>
-      <c r="AE3" s="104" t="s">
-        <v>13</v>
-      </c>
+      <c r="AE3" s="104"/>
       <c r="AF3" s="104"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="68"/>
+      <c r="AG3" s="68"/>
       <c r="AJ3" s="104" t="s">
         <v>13</v>
       </c>
       <c r="AK3" s="104"/>
       <c r="AL3" s="104"/>
       <c r="AM3" s="68"/>
-      <c r="AQ3" s="104" t="s">
+      <c r="AO3" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="AR3" s="104"/>
-      <c r="AS3" s="104"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="67"/>
-      <c r="AW3" s="104" t="s">
+      <c r="AP3" s="104"/>
+      <c r="AQ3" s="104"/>
+      <c r="AR3" s="68"/>
+      <c r="AV3" s="104" t="s">
         <v>13</v>
       </c>
+      <c r="AW3" s="104"/>
       <c r="AX3" s="104"/>
-      <c r="AY3" s="104"/>
-      <c r="AZ3" s="104"/>
-      <c r="BD3" s="104" t="s">
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="67"/>
+      <c r="BB3" s="104" t="s">
         <v>13</v>
       </c>
+      <c r="BC3" s="104"/>
+      <c r="BD3" s="104"/>
       <c r="BE3" s="104"/>
-      <c r="BF3" s="104"/>
-    </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="V4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AH4" s="55"/>
+      <c r="BI3" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="BJ3" s="104"/>
+      <c r="BK3" s="104"/>
+    </row>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AA4" s="55"/>
+      <c r="AG4" s="55"/>
       <c r="AM4" s="55"/>
-      <c r="AT4" s="55"/>
-      <c r="BF4" s="55"/>
-    </row>
-    <row r="5" spans="1:58" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="AR4" s="55"/>
+      <c r="AY4" s="55"/>
+      <c r="BK4" s="55"/>
+    </row>
+    <row r="5" spans="1:63" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A5" s="104" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="104"/>
       <c r="C5" s="104"/>
       <c r="D5" s="68"/>
-      <c r="G5" s="104" t="s">
+      <c r="F5" s="104" t="s">
         <v>13</v>
       </c>
+      <c r="G5" s="104"/>
       <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="68"/>
-      <c r="M5" s="104" t="s">
+      <c r="I5" s="68"/>
+      <c r="L5" s="104" t="s">
         <v>13</v>
       </c>
+      <c r="M5" s="104"/>
       <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="68"/>
-      <c r="S5" s="69" t="s">
+      <c r="O5" s="68"/>
+      <c r="R5" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="68"/>
+      <c r="X5" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="69"/>
-      <c r="U5" s="53" t="s">
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="V5" s="76">
+      <c r="AA5" s="76">
         <v>44861</v>
       </c>
-      <c r="Y5" s="69" t="s">
+      <c r="AD5" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="53" t="s">
+      <c r="AE5" s="69"/>
+      <c r="AF5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AB5" s="76">
+      <c r="AG5" s="76">
         <v>44833</v>
-      </c>
-      <c r="AE5" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH5" s="58">
-        <v>44804</v>
       </c>
       <c r="AJ5" s="52" t="s">
         <v>16</v>
@@ -2387,64 +2385,75 @@
       <c r="AL5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AM5" s="72">
+      <c r="AM5" s="58">
+        <v>44804</v>
+      </c>
+      <c r="AO5" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP5" s="52"/>
+      <c r="AQ5" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR5" s="72">
         <v>44776</v>
       </c>
-      <c r="AQ5" s="69" t="s">
+      <c r="AV5" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AR5" s="69"/>
-      <c r="AS5" s="53" t="s">
+      <c r="AW5" s="69"/>
+      <c r="AX5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AT5" s="59">
+      <c r="AY5" s="59">
         <v>44747</v>
       </c>
-      <c r="AW5" s="105" t="s">
+      <c r="BB5" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="AX5" s="105"/>
-      <c r="AY5" s="53" t="s">
+      <c r="BC5" s="105"/>
+      <c r="BD5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AZ5" s="59">
+      <c r="BE5" s="59">
         <v>44686</v>
       </c>
-      <c r="BD5" s="56" t="s">
+      <c r="BI5" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="BE5" s="63" t="s">
+      <c r="BJ5" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="BF5" s="59">
+      <c r="BK5" s="59">
         <v>44714</v>
       </c>
     </row>
-    <row r="6" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:63" ht="21" x14ac:dyDescent="0.35">
       <c r="D6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="61"/>
+      <c r="I6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="X6" s="52"/>
       <c r="Y6" s="52"/>
       <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="61"/>
-      <c r="AQ6" s="70"/>
-      <c r="AR6" s="70"/>
-      <c r="AS6" s="71"/>
-      <c r="AT6" s="61"/>
-      <c r="AW6" s="52"/>
-      <c r="AX6" s="52"/>
-      <c r="AY6" s="52"/>
-      <c r="AZ6" s="54"/>
-      <c r="BD6" s="60"/>
-      <c r="BE6" s="64"/>
-      <c r="BF6" s="61"/>
-    </row>
-    <row r="7" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="AA6" s="61"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="52"/>
+      <c r="AG6" s="61"/>
+      <c r="AV6" s="70"/>
+      <c r="AW6" s="70"/>
+      <c r="AX6" s="71"/>
+      <c r="AY6" s="61"/>
+      <c r="BB6" s="52"/>
+      <c r="BC6" s="52"/>
+      <c r="BD6" s="52"/>
+      <c r="BE6" s="54"/>
+      <c r="BI6" s="60"/>
+      <c r="BJ6" s="64"/>
+      <c r="BK6" s="61"/>
+    </row>
+    <row r="7" spans="1:63" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="52" t="s">
         <v>16</v>
       </c>
@@ -2453,57 +2462,57 @@
         <v>17</v>
       </c>
       <c r="D7" s="58">
+        <v>44986</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="58">
         <v>44958</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="L7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52" t="s">
+      <c r="M7" s="52"/>
+      <c r="N7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="58">
+      <c r="O7" s="58">
         <v>44930</v>
       </c>
-      <c r="M7" s="69" t="s">
+      <c r="R7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="69"/>
-      <c r="O7" s="53" t="s">
+      <c r="S7" s="69"/>
+      <c r="T7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="76">
+      <c r="U7" s="76">
         <v>44896</v>
       </c>
-      <c r="S7" s="52" t="s">
+      <c r="X7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52" t="s">
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="V7" s="58">
+      <c r="AA7" s="58">
         <v>44874</v>
       </c>
-      <c r="Y7" s="52" t="s">
+      <c r="AD7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52" t="s">
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AB7" s="58">
+      <c r="AG7" s="58">
         <v>44839</v>
-      </c>
-      <c r="AE7" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF7" s="69"/>
-      <c r="AG7" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH7" s="76">
-        <v>44805</v>
       </c>
       <c r="AJ7" s="69" t="s">
         <v>23</v>
@@ -2512,66 +2521,80 @@
       <c r="AL7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AM7" s="59">
+      <c r="AM7" s="76">
+        <v>44805</v>
+      </c>
+      <c r="AO7" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP7" s="69"/>
+      <c r="AQ7" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR7" s="59">
         <v>44777</v>
       </c>
-      <c r="AQ7" s="52" t="s">
+      <c r="AV7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AR7" s="52"/>
-      <c r="AS7" s="52" t="s">
+      <c r="AW7" s="52"/>
+      <c r="AX7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AT7" s="72">
+      <c r="AY7" s="72">
         <v>44748</v>
       </c>
-      <c r="AW7" s="52" t="s">
+      <c r="BB7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AX7" s="52"/>
-      <c r="AY7" s="52" t="s">
+      <c r="BC7" s="52"/>
+      <c r="BD7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AZ7" s="57">
+      <c r="BE7" s="57">
         <v>44691</v>
       </c>
-      <c r="BA7" s="62"/>
-      <c r="BD7" s="52" t="s">
+      <c r="BF7" s="62"/>
+      <c r="BI7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="BE7" s="65" t="s">
+      <c r="BJ7" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="BF7" s="57">
+      <c r="BK7" s="57">
         <v>44719</v>
       </c>
     </row>
-    <row r="8" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:63" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="70"/>
       <c r="B8" s="70"/>
       <c r="C8" s="71"/>
       <c r="D8" s="61"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="61"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="61"/>
-      <c r="AQ8" s="60"/>
-      <c r="AR8" s="60"/>
-      <c r="AS8" s="60"/>
-      <c r="AT8" s="61"/>
-      <c r="AW8" s="52"/>
-      <c r="AX8" s="52"/>
-      <c r="AY8" s="52"/>
-      <c r="AZ8" s="54"/>
-      <c r="BD8" s="60"/>
-      <c r="BE8" s="64"/>
-      <c r="BF8" s="61"/>
-    </row>
-    <row r="9" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="H8" s="71"/>
+      <c r="I8" s="61"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="61"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="61"/>
+      <c r="AV8" s="60"/>
+      <c r="AW8" s="60"/>
+      <c r="AX8" s="60"/>
+      <c r="AY8" s="61"/>
+      <c r="BB8" s="52"/>
+      <c r="BC8" s="52"/>
+      <c r="BD8" s="52"/>
+      <c r="BE8" s="54"/>
+      <c r="BI8" s="60"/>
+      <c r="BJ8" s="64"/>
+      <c r="BK8" s="61"/>
+    </row>
+    <row r="9" spans="1:63" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="69" t="s">
         <v>23</v>
       </c>
@@ -2580,57 +2603,57 @@
         <v>15</v>
       </c>
       <c r="D9" s="76">
+        <v>44987</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="69"/>
+      <c r="H9" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="76">
         <v>44959</v>
       </c>
-      <c r="G9" s="69" t="s">
+      <c r="L9" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="69"/>
-      <c r="I9" s="53" t="s">
+      <c r="M9" s="69"/>
+      <c r="N9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="76">
+      <c r="O9" s="76">
         <v>44931</v>
       </c>
-      <c r="M9" s="52" t="s">
+      <c r="R9" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52" t="s">
+      <c r="S9" s="52"/>
+      <c r="T9" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="58">
+      <c r="U9" s="58">
         <v>44902</v>
       </c>
-      <c r="S9" s="52" t="s">
+      <c r="X9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52" t="s">
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="V9" s="77">
+      <c r="AA9" s="77">
         <v>44875</v>
       </c>
-      <c r="Y9" s="52" t="s">
+      <c r="AD9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52" t="s">
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="AB9" s="77">
+      <c r="AG9" s="77">
         <v>44840</v>
-      </c>
-      <c r="AE9" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH9" s="77">
-        <v>44807</v>
       </c>
       <c r="AJ9" s="52" t="s">
         <v>24</v>
@@ -2639,62 +2662,76 @@
       <c r="AL9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AM9" s="58">
+      <c r="AM9" s="77">
+        <v>44807</v>
+      </c>
+      <c r="AO9" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP9" s="52"/>
+      <c r="AQ9" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR9" s="58">
         <v>44779</v>
       </c>
-      <c r="AQ9" s="52" t="s">
+      <c r="AV9" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="AR9" s="52"/>
-      <c r="AS9" s="52" t="s">
+      <c r="AW9" s="52"/>
+      <c r="AX9" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AT9" s="57">
+      <c r="AY9" s="57">
         <v>44749</v>
       </c>
-      <c r="AW9" s="52" t="s">
+      <c r="BB9" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="AX9" s="52"/>
-      <c r="AY9" s="52" t="s">
+      <c r="BC9" s="52"/>
+      <c r="BD9" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AZ9" s="59">
+      <c r="BE9" s="59">
         <v>44693</v>
       </c>
-      <c r="BD9" s="52" t="s">
+      <c r="BI9" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="BE9" s="65" t="s">
+      <c r="BJ9" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="BF9" s="59">
+      <c r="BK9" s="59">
         <v>44721</v>
       </c>
     </row>
-    <row r="10" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:63" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="60"/>
       <c r="B10" s="60"/>
       <c r="C10" s="60"/>
       <c r="D10" s="61"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="60"/>
       <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="AQ10" s="60"/>
-      <c r="AR10" s="60"/>
-      <c r="AS10" s="60"/>
-      <c r="AT10" s="61"/>
-      <c r="AW10" s="52"/>
-      <c r="AX10" s="52"/>
-      <c r="AY10" s="52"/>
-      <c r="AZ10" s="54"/>
-      <c r="BD10" s="60"/>
-      <c r="BE10" s="64"/>
-      <c r="BF10" s="61"/>
-    </row>
-    <row r="11" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="I10" s="61"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="62"/>
+      <c r="AV10" s="60"/>
+      <c r="AW10" s="60"/>
+      <c r="AX10" s="60"/>
+      <c r="AY10" s="61"/>
+      <c r="BB10" s="52"/>
+      <c r="BC10" s="52"/>
+      <c r="BD10" s="52"/>
+      <c r="BE10" s="54"/>
+      <c r="BI10" s="60"/>
+      <c r="BJ10" s="64"/>
+      <c r="BK10" s="61"/>
+    </row>
+    <row r="11" spans="1:63" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="52" t="s">
         <v>25</v>
       </c>
@@ -2703,57 +2740,57 @@
         <v>18</v>
       </c>
       <c r="D11" s="59">
+        <v>44995</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="59">
         <v>44967</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="L11" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52" t="s">
+      <c r="M11" s="52"/>
+      <c r="N11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="59">
+      <c r="O11" s="59">
         <v>44932</v>
       </c>
-      <c r="M11" s="52" t="s">
+      <c r="R11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52" t="s">
+      <c r="S11" s="52"/>
+      <c r="T11" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="77">
+      <c r="U11" s="77">
         <v>44903</v>
       </c>
-      <c r="S11" s="52" t="s">
+      <c r="X11" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52" t="s">
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="V11" s="59">
+      <c r="AA11" s="59">
         <v>44876</v>
       </c>
-      <c r="Y11" s="52" t="s">
+      <c r="AD11" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52" t="s">
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AB11" s="59">
+      <c r="AG11" s="59">
         <v>44841</v>
-      </c>
-      <c r="AE11" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH11" s="59">
-        <v>44812</v>
       </c>
       <c r="AJ11" s="52" t="s">
         <v>25</v>
@@ -2762,69 +2799,79 @@
       <c r="AL11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AM11" s="57">
+      <c r="AM11" s="59">
+        <v>44812</v>
+      </c>
+      <c r="AO11" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP11" s="52"/>
+      <c r="AQ11" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR11" s="57">
         <v>44784</v>
       </c>
-      <c r="AQ11" s="52" t="s">
+      <c r="AV11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="AR11" s="52"/>
-      <c r="AS11" s="52" t="s">
+      <c r="AW11" s="52"/>
+      <c r="AX11" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AT11" s="58">
+      <c r="AY11" s="58">
         <v>44751</v>
       </c>
-      <c r="AW11" s="52" t="s">
+      <c r="BB11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="AX11" s="60"/>
-      <c r="AY11" s="52" t="s">
+      <c r="BC11" s="60"/>
+      <c r="BD11" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="AZ11" s="57">
+      <c r="BE11" s="57">
         <v>44695</v>
       </c>
-      <c r="BD11" s="52" t="s">
+      <c r="BI11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="BE11" s="65" t="s">
+      <c r="BJ11" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="BF11" s="58">
+      <c r="BK11" s="58">
         <v>44723</v>
       </c>
     </row>
-    <row r="12" spans="1:58" ht="21" x14ac:dyDescent="0.35">
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="61"/>
+    <row r="12" spans="1:63" ht="21" x14ac:dyDescent="0.35">
+      <c r="X12" s="70"/>
       <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="61"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="61"/>
+      <c r="AD12" s="70"/>
       <c r="AE12" s="70"/>
-      <c r="AF12" s="70"/>
-      <c r="AG12" s="71"/>
-      <c r="AH12" s="61"/>
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="61"/>
       <c r="AJ12" s="70"/>
       <c r="AK12" s="70"/>
       <c r="AL12" s="71"/>
       <c r="AM12" s="61"/>
-      <c r="AQ12" s="60"/>
-      <c r="AR12" s="60"/>
-      <c r="AS12" s="60"/>
-      <c r="AT12" s="61"/>
-      <c r="AW12" s="52"/>
-      <c r="AX12" s="52"/>
-      <c r="AY12" s="52"/>
-      <c r="AZ12" s="54"/>
-      <c r="BD12" s="60"/>
-      <c r="BE12" s="64"/>
-      <c r="BF12" s="61"/>
-    </row>
-    <row r="13" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="AO12" s="70"/>
+      <c r="AP12" s="70"/>
+      <c r="AQ12" s="71"/>
+      <c r="AR12" s="61"/>
+      <c r="AV12" s="60"/>
+      <c r="AW12" s="60"/>
+      <c r="AX12" s="60"/>
+      <c r="AY12" s="61"/>
+      <c r="BB12" s="52"/>
+      <c r="BC12" s="52"/>
+      <c r="BD12" s="52"/>
+      <c r="BE12" s="54"/>
+      <c r="BI12" s="60"/>
+      <c r="BJ12" s="64"/>
+      <c r="BK12" s="61"/>
+    </row>
+    <row r="13" spans="1:63" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="52" t="s">
         <v>24</v>
       </c>
@@ -2833,57 +2880,57 @@
         <v>32</v>
       </c>
       <c r="D13" s="77">
+        <v>44993</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="77">
         <v>44966</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="L13" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52" t="s">
+      <c r="M13" s="52"/>
+      <c r="N13" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="77">
+      <c r="O13" s="77">
         <v>44938</v>
       </c>
-      <c r="M13" s="52" t="s">
+      <c r="R13" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52" t="s">
+      <c r="S13" s="52"/>
+      <c r="T13" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="59">
+      <c r="U13" s="59">
         <v>44904</v>
       </c>
-      <c r="S13" s="52" t="s">
+      <c r="X13" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52" t="s">
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="V13" s="79">
+      <c r="AA13" s="79">
         <v>44883</v>
       </c>
-      <c r="Y13" s="52" t="s">
+      <c r="AD13" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52" t="s">
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="AB13" s="79">
+      <c r="AG13" s="79">
         <v>44848</v>
-      </c>
-      <c r="AE13" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH13" s="75">
-        <v>44813</v>
       </c>
       <c r="AJ13" s="52" t="s">
         <v>21</v>
@@ -2892,81 +2939,95 @@
       <c r="AL13" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="AM13" s="73">
+      <c r="AM13" s="75">
+        <v>44813</v>
+      </c>
+      <c r="AO13" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP13" s="52"/>
+      <c r="AQ13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR13" s="73">
         <v>44785</v>
       </c>
-      <c r="AQ13" s="52" t="s">
+      <c r="AV13" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AR13" s="52"/>
-      <c r="AS13" s="52" t="s">
+      <c r="AW13" s="52"/>
+      <c r="AX13" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="AT13" s="73">
+      <c r="AY13" s="73">
         <v>44756</v>
       </c>
-      <c r="AW13" s="52" t="s">
+      <c r="BB13" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="AX13" s="52"/>
-      <c r="AY13" s="52" t="s">
+      <c r="BC13" s="52"/>
+      <c r="BD13" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AZ13" s="58">
+      <c r="BE13" s="58">
         <v>44695</v>
       </c>
-      <c r="BD13" s="52" t="s">
+      <c r="BI13" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="BE13" s="65" t="s">
+      <c r="BJ13" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="BF13" s="59">
+      <c r="BK13" s="59">
         <v>44728</v>
       </c>
     </row>
-    <row r="14" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:63" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="70"/>
       <c r="B14" s="70"/>
       <c r="C14" s="71"/>
       <c r="D14" s="61"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="61"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="61"/>
+      <c r="L14" s="70"/>
       <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="61"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="61"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="61"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="61"/>
+      <c r="X14" s="60"/>
       <c r="Y14" s="60"/>
       <c r="Z14" s="60"/>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="61"/>
+      <c r="AA14" s="61"/>
+      <c r="AD14" s="60"/>
       <c r="AE14" s="60"/>
       <c r="AF14" s="60"/>
-      <c r="AG14" s="60"/>
-      <c r="AH14" s="61"/>
+      <c r="AG14" s="61"/>
       <c r="AJ14" s="60"/>
       <c r="AK14" s="60"/>
       <c r="AL14" s="60"/>
       <c r="AM14" s="61"/>
+      <c r="AO14" s="60"/>
+      <c r="AP14" s="60"/>
       <c r="AQ14" s="60"/>
-      <c r="AR14" s="60"/>
-      <c r="AS14" s="60"/>
-      <c r="AT14" s="61"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="54"/>
-      <c r="BD14" s="60"/>
-      <c r="BE14" s="64"/>
-      <c r="BF14" s="61"/>
-    </row>
-    <row r="15" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="AR14" s="61"/>
+      <c r="AV14" s="60"/>
+      <c r="AW14" s="60"/>
+      <c r="AX14" s="60"/>
+      <c r="AY14" s="61"/>
+      <c r="BB14" s="52"/>
+      <c r="BC14" s="52"/>
+      <c r="BD14" s="52"/>
+      <c r="BE14" s="54"/>
+      <c r="BI14" s="60"/>
+      <c r="BJ14" s="64"/>
+      <c r="BK14" s="61"/>
+    </row>
+    <row r="15" spans="1:63" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="52" t="s">
         <v>21</v>
       </c>
@@ -2975,57 +3036,57 @@
         <v>22</v>
       </c>
       <c r="D15" s="79">
+        <v>45001</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="79">
         <v>44973</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="L15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52" t="s">
+      <c r="M15" s="52"/>
+      <c r="N15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="79">
+      <c r="O15" s="79">
         <v>44946</v>
       </c>
-      <c r="M15" s="52" t="s">
+      <c r="R15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52" t="s">
+      <c r="S15" s="52"/>
+      <c r="T15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="P15" s="79">
+      <c r="U15" s="79">
         <v>44911</v>
       </c>
-      <c r="S15" s="52" t="s">
+      <c r="X15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="T15" s="60"/>
-      <c r="U15" s="53" t="s">
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="V15" s="78">
+      <c r="AA15" s="78">
         <v>44884</v>
       </c>
-      <c r="Y15" s="52" t="s">
+      <c r="AD15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="53" t="s">
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AB15" s="78">
+      <c r="AG15" s="78">
         <v>44849</v>
-      </c>
-      <c r="AE15" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF15" s="60"/>
-      <c r="AG15" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH15" s="78">
-        <v>44814</v>
       </c>
       <c r="AJ15" s="52" t="s">
         <v>19</v>
@@ -3034,73 +3095,87 @@
       <c r="AL15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AM15" s="74">
+      <c r="AM15" s="78">
+        <v>44814</v>
+      </c>
+      <c r="AO15" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP15" s="60"/>
+      <c r="AQ15" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR15" s="74">
         <v>44786</v>
       </c>
-      <c r="AQ15" s="52" t="s">
+      <c r="AV15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="AR15" s="60"/>
-      <c r="AS15" s="52" t="s">
+      <c r="AW15" s="60"/>
+      <c r="AX15" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="AT15" s="74">
+      <c r="AY15" s="74">
         <v>44758</v>
       </c>
-      <c r="AW15" s="52" t="s">
+      <c r="BB15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AX15" s="52"/>
-      <c r="AY15" s="52" t="s">
+      <c r="BC15" s="52"/>
+      <c r="BD15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="AZ15" s="59">
+      <c r="BE15" s="59">
         <v>44700</v>
       </c>
-      <c r="BD15" s="52" t="s">
+      <c r="BI15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="BE15" s="65" t="s">
+      <c r="BJ15" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="BF15" s="57">
+      <c r="BK15" s="57">
         <v>44730</v>
       </c>
     </row>
-    <row r="16" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:63" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="60"/>
       <c r="B16" s="60"/>
       <c r="C16" s="60"/>
       <c r="D16" s="61"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="60"/>
       <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="L16" s="60"/>
       <c r="M16" s="60"/>
       <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="61"/>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="52"/>
-      <c r="AH16" s="54"/>
+      <c r="O16" s="61"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="61"/>
       <c r="AJ16" s="52"/>
       <c r="AK16" s="52"/>
       <c r="AL16" s="52"/>
       <c r="AM16" s="54"/>
+      <c r="AO16" s="52"/>
+      <c r="AP16" s="52"/>
       <c r="AQ16" s="52"/>
-      <c r="AR16" s="52"/>
-      <c r="AS16" s="52"/>
-      <c r="AT16" s="54"/>
+      <c r="AR16" s="54"/>
+      <c r="AV16" s="52"/>
       <c r="AW16" s="52"/>
       <c r="AX16" s="52"/>
-      <c r="AY16" s="52"/>
-      <c r="AZ16" s="54"/>
+      <c r="AY16" s="54"/>
+      <c r="BB16" s="52"/>
+      <c r="BC16" s="52"/>
       <c r="BD16" s="52"/>
-      <c r="BE16" s="65"/>
-      <c r="BF16" s="54"/>
-    </row>
-    <row r="17" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+      <c r="BE16" s="54"/>
+      <c r="BI16" s="52"/>
+      <c r="BJ16" s="65"/>
+      <c r="BK16" s="54"/>
+    </row>
+    <row r="17" spans="1:63" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="52" t="s">
         <v>19</v>
       </c>
@@ -3109,139 +3184,150 @@
         <v>15</v>
       </c>
       <c r="D17" s="78">
+        <v>45003</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="60"/>
+      <c r="H17" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="78">
         <v>44982</v>
       </c>
-      <c r="G17" s="52" t="s">
+      <c r="L17" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="60"/>
-      <c r="I17" s="53" t="s">
+      <c r="M17" s="60"/>
+      <c r="N17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="78">
+      <c r="O17" s="78">
         <v>44954</v>
       </c>
-      <c r="M17" s="52" t="s">
+      <c r="R17" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="N17" s="60"/>
-      <c r="O17" s="53" t="s">
+      <c r="S17" s="60"/>
+      <c r="T17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="P17" s="78">
+      <c r="U17" s="78">
         <v>44912</v>
       </c>
-      <c r="AW17" s="60"/>
-      <c r="AX17" s="60"/>
-      <c r="AY17" s="60"/>
-      <c r="AZ17" s="61"/>
-      <c r="BD17" s="52"/>
-      <c r="BE17" s="65"/>
-      <c r="BF17" s="54"/>
-    </row>
-    <row r="18" spans="1:58" ht="21" x14ac:dyDescent="0.35">
-      <c r="AW18" s="52"/>
-      <c r="AX18" s="52"/>
-      <c r="AY18" s="52"/>
-      <c r="AZ18" s="54"/>
+      <c r="BB17" s="60"/>
+      <c r="BC17" s="60"/>
+      <c r="BD17" s="60"/>
+      <c r="BE17" s="61"/>
+      <c r="BI17" s="52"/>
+      <c r="BJ17" s="65"/>
+      <c r="BK17" s="54"/>
+    </row>
+    <row r="18" spans="1:63" ht="21" x14ac:dyDescent="0.35">
+      <c r="BB18" s="52"/>
+      <c r="BC18" s="52"/>
       <c r="BD18" s="52"/>
-      <c r="BE18" s="65"/>
-      <c r="BF18" s="54"/>
-    </row>
-    <row r="19" spans="1:58" ht="21" x14ac:dyDescent="0.35">
-      <c r="AW19" s="52"/>
-      <c r="AX19" s="52"/>
-      <c r="AY19" s="52"/>
-      <c r="AZ19" s="54"/>
-    </row>
-    <row r="20" spans="1:58" ht="21" x14ac:dyDescent="0.35">
-      <c r="AW20" s="52"/>
-      <c r="AX20" s="52"/>
-      <c r="AY20" s="52"/>
-      <c r="AZ20" s="54"/>
-    </row>
-    <row r="21" spans="1:58" ht="21" x14ac:dyDescent="0.35">
-      <c r="AW21" s="52"/>
-      <c r="AX21" s="52"/>
-      <c r="AY21" s="52"/>
-      <c r="AZ21" s="54"/>
-    </row>
-    <row r="22" spans="1:58" ht="21" x14ac:dyDescent="0.35">
-      <c r="AW22" s="52"/>
-      <c r="AX22" s="52"/>
-      <c r="AY22" s="52"/>
-      <c r="AZ22" s="54"/>
-    </row>
-    <row r="23" spans="1:58" ht="21" x14ac:dyDescent="0.35">
-      <c r="AW23" s="52"/>
-      <c r="AX23" s="52"/>
-      <c r="AY23" s="52"/>
-      <c r="AZ23" s="54"/>
-    </row>
-    <row r="24" spans="1:58" ht="21" x14ac:dyDescent="0.35">
-      <c r="AW24" s="52"/>
-      <c r="AX24" s="52"/>
-      <c r="AY24" s="52"/>
-      <c r="AZ24" s="54"/>
-    </row>
-    <row r="25" spans="1:58" ht="21" x14ac:dyDescent="0.35">
-      <c r="AW25" s="52"/>
-      <c r="AX25" s="52"/>
-      <c r="AY25" s="52"/>
-      <c r="AZ25" s="54"/>
-    </row>
-    <row r="26" spans="1:58" ht="21" x14ac:dyDescent="0.35">
-      <c r="AW26" s="52"/>
-      <c r="AX26" s="52"/>
-      <c r="AY26" s="52"/>
-      <c r="AZ26" s="54"/>
-    </row>
-    <row r="27" spans="1:58" ht="21" x14ac:dyDescent="0.35">
-      <c r="AW27" s="52"/>
-      <c r="AX27" s="52"/>
-      <c r="AY27" s="52"/>
-      <c r="AZ27" s="54"/>
-    </row>
-    <row r="28" spans="1:58" ht="21" x14ac:dyDescent="0.35">
-      <c r="AW28" s="52"/>
-      <c r="AX28" s="52"/>
-      <c r="AY28" s="52"/>
-      <c r="AZ28" s="54"/>
-    </row>
-    <row r="29" spans="1:58" ht="21" x14ac:dyDescent="0.35">
-      <c r="AW29" s="52"/>
-      <c r="AX29" s="52"/>
-      <c r="AY29" s="52"/>
-      <c r="AZ29" s="54"/>
-    </row>
-    <row r="30" spans="1:58" ht="21" x14ac:dyDescent="0.35">
-      <c r="AW30" s="52"/>
-      <c r="AX30" s="52"/>
-      <c r="AY30" s="52"/>
-      <c r="AZ30" s="54"/>
-    </row>
-    <row r="31" spans="1:58" ht="21" x14ac:dyDescent="0.35">
-      <c r="AW31" s="52"/>
-      <c r="AX31" s="52"/>
-      <c r="AY31" s="52"/>
-      <c r="AZ31" s="54"/>
+      <c r="BE18" s="54"/>
+      <c r="BI18" s="52"/>
+      <c r="BJ18" s="65"/>
+      <c r="BK18" s="54"/>
+    </row>
+    <row r="19" spans="1:63" ht="21" x14ac:dyDescent="0.35">
+      <c r="BB19" s="52"/>
+      <c r="BC19" s="52"/>
+      <c r="BD19" s="52"/>
+      <c r="BE19" s="54"/>
+    </row>
+    <row r="20" spans="1:63" ht="21" x14ac:dyDescent="0.35">
+      <c r="BB20" s="52"/>
+      <c r="BC20" s="52"/>
+      <c r="BD20" s="52"/>
+      <c r="BE20" s="54"/>
+    </row>
+    <row r="21" spans="1:63" ht="21" x14ac:dyDescent="0.35">
+      <c r="BB21" s="52"/>
+      <c r="BC21" s="52"/>
+      <c r="BD21" s="52"/>
+      <c r="BE21" s="54"/>
+    </row>
+    <row r="22" spans="1:63" ht="21" x14ac:dyDescent="0.35">
+      <c r="BB22" s="52"/>
+      <c r="BC22" s="52"/>
+      <c r="BD22" s="52"/>
+      <c r="BE22" s="54"/>
+    </row>
+    <row r="23" spans="1:63" ht="21" x14ac:dyDescent="0.35">
+      <c r="BB23" s="52"/>
+      <c r="BC23" s="52"/>
+      <c r="BD23" s="52"/>
+      <c r="BE23" s="54"/>
+    </row>
+    <row r="24" spans="1:63" ht="21" x14ac:dyDescent="0.35">
+      <c r="BB24" s="52"/>
+      <c r="BC24" s="52"/>
+      <c r="BD24" s="52"/>
+      <c r="BE24" s="54"/>
+    </row>
+    <row r="25" spans="1:63" ht="21" x14ac:dyDescent="0.35">
+      <c r="BB25" s="52"/>
+      <c r="BC25" s="52"/>
+      <c r="BD25" s="52"/>
+      <c r="BE25" s="54"/>
+    </row>
+    <row r="26" spans="1:63" ht="21" x14ac:dyDescent="0.35">
+      <c r="BB26" s="52"/>
+      <c r="BC26" s="52"/>
+      <c r="BD26" s="52"/>
+      <c r="BE26" s="54"/>
+    </row>
+    <row r="27" spans="1:63" ht="21" x14ac:dyDescent="0.35">
+      <c r="BB27" s="52"/>
+      <c r="BC27" s="52"/>
+      <c r="BD27" s="52"/>
+      <c r="BE27" s="54"/>
+    </row>
+    <row r="28" spans="1:63" ht="21" x14ac:dyDescent="0.35">
+      <c r="BB28" s="52"/>
+      <c r="BC28" s="52"/>
+      <c r="BD28" s="52"/>
+      <c r="BE28" s="54"/>
+    </row>
+    <row r="29" spans="1:63" ht="21" x14ac:dyDescent="0.35">
+      <c r="BB29" s="52"/>
+      <c r="BC29" s="52"/>
+      <c r="BD29" s="52"/>
+      <c r="BE29" s="54"/>
+    </row>
+    <row r="30" spans="1:63" ht="21" x14ac:dyDescent="0.35">
+      <c r="BB30" s="52"/>
+      <c r="BC30" s="52"/>
+      <c r="BD30" s="52"/>
+      <c r="BE30" s="54"/>
+    </row>
+    <row r="31" spans="1:63" ht="21" x14ac:dyDescent="0.35">
+      <c r="BB31" s="52"/>
+      <c r="BC31" s="52"/>
+      <c r="BD31" s="52"/>
+      <c r="BE31" s="54"/>
     </row>
   </sheetData>
-  <sortState ref="G7:K9">
-    <sortCondition ref="J7:J9"/>
+  <sortState ref="L7:P9">
+    <sortCondition ref="O7:O9"/>
   </sortState>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="BD3:BF3"/>
-    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="BB5:BC5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AO3:AQ3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AW3:AZ3"/>
+    <mergeCell ref="BB3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="41">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>FEBRERO.,2023</t>
+  </si>
+  <si>
+    <t>CANCELADO</t>
   </si>
 </sst>
 </file>
@@ -157,7 +160,7 @@
     <numFmt numFmtId="164" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +269,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -685,7 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -935,6 +946,10 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2239,1095 +2254,1102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:BK31"/>
+  <dimension ref="B3:BL31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="36" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="36" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="36" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.42578125" customWidth="1"/>
-    <col min="41" max="41" width="36" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.42578125" customWidth="1"/>
-    <col min="48" max="48" width="36" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.140625" customWidth="1"/>
-    <col min="51" max="51" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="19.5703125" customWidth="1"/>
-    <col min="56" max="56" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.42578125" style="55" customWidth="1"/>
-    <col min="61" max="61" width="36" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="19.5703125" style="24" customWidth="1"/>
-    <col min="63" max="63" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="36" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="36" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.42578125" customWidth="1"/>
+    <col min="42" max="42" width="36" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.42578125" customWidth="1"/>
+    <col min="49" max="49" width="36" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="17.140625" customWidth="1"/>
+    <col min="52" max="52" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="19.5703125" customWidth="1"/>
+    <col min="57" max="57" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.42578125" style="55" customWidth="1"/>
+    <col min="62" max="62" width="36" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="19.5703125" style="24" customWidth="1"/>
+    <col min="64" max="64" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:63" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="X3" s="104" t="s">
+    <row r="3" spans="2:64" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Y3" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="104"/>
       <c r="Z3" s="104"/>
-      <c r="AA3" s="68"/>
-      <c r="AD3" s="104" t="s">
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="68"/>
+      <c r="AE3" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="AE3" s="104"/>
       <c r="AF3" s="104"/>
-      <c r="AG3" s="68"/>
-      <c r="AJ3" s="104" t="s">
+      <c r="AG3" s="104"/>
+      <c r="AH3" s="68"/>
+      <c r="AK3" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="AK3" s="104"/>
       <c r="AL3" s="104"/>
-      <c r="AM3" s="68"/>
-      <c r="AO3" s="104" t="s">
+      <c r="AM3" s="104"/>
+      <c r="AN3" s="68"/>
+      <c r="AP3" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="AP3" s="104"/>
       <c r="AQ3" s="104"/>
-      <c r="AR3" s="68"/>
-      <c r="AV3" s="104" t="s">
+      <c r="AR3" s="104"/>
+      <c r="AS3" s="68"/>
+      <c r="AW3" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="AW3" s="104"/>
       <c r="AX3" s="104"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="67"/>
-      <c r="BB3" s="104" t="s">
+      <c r="AY3" s="104"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="67"/>
+      <c r="BC3" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="BC3" s="104"/>
       <c r="BD3" s="104"/>
       <c r="BE3" s="104"/>
-      <c r="BI3" s="104" t="s">
+      <c r="BF3" s="104"/>
+      <c r="BJ3" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="BJ3" s="104"/>
       <c r="BK3" s="104"/>
-    </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="AA4" s="55"/>
-      <c r="AG4" s="55"/>
-      <c r="AM4" s="55"/>
-      <c r="AR4" s="55"/>
-      <c r="AY4" s="55"/>
-      <c r="BK4" s="55"/>
-    </row>
-    <row r="5" spans="1:63" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A5" s="104" t="s">
+      <c r="BL3" s="104"/>
+    </row>
+    <row r="4" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="AB4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AS4" s="55"/>
+      <c r="AZ4" s="55"/>
+      <c r="BL4" s="55"/>
+    </row>
+    <row r="5" spans="2:64" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B5" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="104"/>
       <c r="C5" s="104"/>
-      <c r="D5" s="68"/>
-      <c r="F5" s="104" t="s">
+      <c r="D5" s="104"/>
+      <c r="E5" s="68"/>
+      <c r="G5" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="104"/>
       <c r="H5" s="104"/>
-      <c r="I5" s="68"/>
-      <c r="L5" s="104" t="s">
+      <c r="I5" s="104"/>
+      <c r="J5" s="68"/>
+      <c r="M5" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="104"/>
       <c r="N5" s="104"/>
-      <c r="O5" s="68"/>
-      <c r="R5" s="104" t="s">
+      <c r="O5" s="104"/>
+      <c r="P5" s="68"/>
+      <c r="S5" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="104"/>
       <c r="T5" s="104"/>
-      <c r="U5" s="68"/>
-      <c r="X5" s="69" t="s">
+      <c r="U5" s="104"/>
+      <c r="V5" s="68"/>
+      <c r="Y5" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="53" t="s">
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AA5" s="76">
+      <c r="AB5" s="76">
         <v>44861</v>
       </c>
-      <c r="AD5" s="69" t="s">
+      <c r="AE5" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AE5" s="69"/>
-      <c r="AF5" s="53" t="s">
+      <c r="AF5" s="69"/>
+      <c r="AG5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AG5" s="76">
+      <c r="AH5" s="76">
         <v>44833</v>
       </c>
-      <c r="AJ5" s="52" t="s">
+      <c r="AK5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52" t="s">
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AM5" s="58">
+      <c r="AN5" s="58">
         <v>44804</v>
       </c>
-      <c r="AO5" s="52" t="s">
+      <c r="AP5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AP5" s="52"/>
-      <c r="AQ5" s="52" t="s">
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AR5" s="72">
+      <c r="AS5" s="72">
         <v>44776</v>
       </c>
-      <c r="AV5" s="69" t="s">
+      <c r="AW5" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AW5" s="69"/>
-      <c r="AX5" s="53" t="s">
+      <c r="AX5" s="69"/>
+      <c r="AY5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AY5" s="59">
+      <c r="AZ5" s="59">
         <v>44747</v>
       </c>
-      <c r="BB5" s="105" t="s">
+      <c r="BC5" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="BC5" s="105"/>
-      <c r="BD5" s="53" t="s">
+      <c r="BD5" s="105"/>
+      <c r="BE5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="BE5" s="59">
+      <c r="BF5" s="59">
         <v>44686</v>
       </c>
-      <c r="BI5" s="56" t="s">
+      <c r="BJ5" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="BJ5" s="63" t="s">
+      <c r="BK5" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="BK5" s="59">
+      <c r="BL5" s="59">
         <v>44714</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="D6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="X6" s="52"/>
+    <row r="6" spans="2:64" ht="21" x14ac:dyDescent="0.35">
+      <c r="E6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="V6" s="55"/>
       <c r="Y6" s="52"/>
       <c r="Z6" s="52"/>
-      <c r="AA6" s="61"/>
-      <c r="AD6" s="52"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="61"/>
       <c r="AE6" s="52"/>
       <c r="AF6" s="52"/>
-      <c r="AG6" s="61"/>
-      <c r="AV6" s="70"/>
+      <c r="AG6" s="52"/>
+      <c r="AH6" s="61"/>
       <c r="AW6" s="70"/>
-      <c r="AX6" s="71"/>
-      <c r="AY6" s="61"/>
-      <c r="BB6" s="52"/>
+      <c r="AX6" s="70"/>
+      <c r="AY6" s="71"/>
+      <c r="AZ6" s="61"/>
       <c r="BC6" s="52"/>
       <c r="BD6" s="52"/>
-      <c r="BE6" s="54"/>
-      <c r="BI6" s="60"/>
-      <c r="BJ6" s="64"/>
-      <c r="BK6" s="61"/>
-    </row>
-    <row r="7" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="52" t="s">
+      <c r="BE6" s="52"/>
+      <c r="BF6" s="54"/>
+      <c r="BJ6" s="60"/>
+      <c r="BK6" s="64"/>
+      <c r="BL6" s="61"/>
+    </row>
+    <row r="7" spans="2:64" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="58">
+      <c r="E7" s="58">
         <v>44986</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="G7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="52"/>
+      <c r="I7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="58">
+      <c r="J7" s="58">
         <v>44958</v>
       </c>
-      <c r="L7" s="52" t="s">
+      <c r="M7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52" t="s">
+      <c r="N7" s="52"/>
+      <c r="O7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="58">
+      <c r="P7" s="58">
         <v>44930</v>
       </c>
-      <c r="R7" s="69" t="s">
+      <c r="S7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="69"/>
-      <c r="T7" s="53" t="s">
+      <c r="T7" s="69"/>
+      <c r="U7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="U7" s="76">
+      <c r="V7" s="76">
         <v>44896</v>
       </c>
-      <c r="X7" s="52" t="s">
+      <c r="Y7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52" t="s">
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AA7" s="58">
+      <c r="AB7" s="58">
         <v>44874</v>
       </c>
-      <c r="AD7" s="52" t="s">
+      <c r="AE7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="52" t="s">
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AG7" s="58">
+      <c r="AH7" s="58">
         <v>44839</v>
       </c>
-      <c r="AJ7" s="69" t="s">
+      <c r="AK7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AK7" s="69"/>
-      <c r="AL7" s="53" t="s">
+      <c r="AL7" s="69"/>
+      <c r="AM7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AM7" s="76">
+      <c r="AN7" s="76">
         <v>44805</v>
       </c>
-      <c r="AO7" s="69" t="s">
+      <c r="AP7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AP7" s="69"/>
-      <c r="AQ7" s="53" t="s">
+      <c r="AQ7" s="69"/>
+      <c r="AR7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AR7" s="59">
+      <c r="AS7" s="59">
         <v>44777</v>
       </c>
-      <c r="AV7" s="52" t="s">
+      <c r="AW7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AW7" s="52"/>
-      <c r="AX7" s="52" t="s">
+      <c r="AX7" s="52"/>
+      <c r="AY7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AY7" s="72">
+      <c r="AZ7" s="72">
         <v>44748</v>
       </c>
-      <c r="BB7" s="52" t="s">
+      <c r="BC7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="BC7" s="52"/>
-      <c r="BD7" s="52" t="s">
+      <c r="BD7" s="52"/>
+      <c r="BE7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="BE7" s="57">
+      <c r="BF7" s="57">
         <v>44691</v>
       </c>
-      <c r="BF7" s="62"/>
-      <c r="BI7" s="52" t="s">
+      <c r="BG7" s="62"/>
+      <c r="BJ7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="BJ7" s="65" t="s">
+      <c r="BK7" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="BK7" s="57">
+      <c r="BL7" s="57">
         <v>44719</v>
       </c>
     </row>
-    <row r="8" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="70"/>
+    <row r="8" spans="2:64" ht="21" x14ac:dyDescent="0.35">
       <c r="B8" s="70"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="61"/>
-      <c r="F8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="61"/>
       <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="61"/>
-      <c r="L8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="61"/>
       <c r="M8" s="70"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="61"/>
-      <c r="R8" s="52"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="61"/>
       <c r="S8" s="52"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="61"/>
-      <c r="AV8" s="60"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="61"/>
       <c r="AW8" s="60"/>
       <c r="AX8" s="60"/>
-      <c r="AY8" s="61"/>
-      <c r="BB8" s="52"/>
+      <c r="AY8" s="60"/>
+      <c r="AZ8" s="61"/>
       <c r="BC8" s="52"/>
       <c r="BD8" s="52"/>
-      <c r="BE8" s="54"/>
-      <c r="BI8" s="60"/>
-      <c r="BJ8" s="64"/>
-      <c r="BK8" s="61"/>
-    </row>
-    <row r="9" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="69" t="s">
+      <c r="BE8" s="52"/>
+      <c r="BF8" s="54"/>
+      <c r="BJ8" s="60"/>
+      <c r="BK8" s="64"/>
+      <c r="BL8" s="61"/>
+    </row>
+    <row r="9" spans="2:64" ht="21" x14ac:dyDescent="0.35">
+      <c r="B9" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="69"/>
+      <c r="D9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="76">
+      <c r="E9" s="76">
         <v>44987</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="G9" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="69"/>
+      <c r="I9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="76">
+      <c r="J9" s="76">
         <v>44959</v>
       </c>
-      <c r="L9" s="69" t="s">
+      <c r="M9" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="69"/>
-      <c r="N9" s="53" t="s">
+      <c r="N9" s="69"/>
+      <c r="O9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="76">
+      <c r="P9" s="76">
         <v>44931</v>
       </c>
-      <c r="R9" s="52" t="s">
+      <c r="S9" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52" t="s">
+      <c r="T9" s="52"/>
+      <c r="U9" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="U9" s="58">
+      <c r="V9" s="58">
         <v>44902</v>
       </c>
-      <c r="X9" s="52" t="s">
+      <c r="Y9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52" t="s">
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="AA9" s="77">
+      <c r="AB9" s="77">
         <v>44875</v>
       </c>
-      <c r="AD9" s="52" t="s">
+      <c r="AE9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52" t="s">
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="AG9" s="77">
+      <c r="AH9" s="77">
         <v>44840</v>
       </c>
-      <c r="AJ9" s="52" t="s">
+      <c r="AK9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="52"/>
-      <c r="AL9" s="52" t="s">
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AM9" s="77">
+      <c r="AN9" s="77">
         <v>44807</v>
       </c>
-      <c r="AO9" s="52" t="s">
+      <c r="AP9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="AP9" s="52"/>
-      <c r="AQ9" s="52" t="s">
+      <c r="AQ9" s="52"/>
+      <c r="AR9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AR9" s="58">
+      <c r="AS9" s="58">
         <v>44779</v>
       </c>
-      <c r="AV9" s="52" t="s">
+      <c r="AW9" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="AW9" s="52"/>
-      <c r="AX9" s="52" t="s">
+      <c r="AX9" s="52"/>
+      <c r="AY9" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AY9" s="57">
+      <c r="AZ9" s="57">
         <v>44749</v>
       </c>
-      <c r="BB9" s="52" t="s">
+      <c r="BC9" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="BC9" s="52"/>
-      <c r="BD9" s="52" t="s">
+      <c r="BD9" s="52"/>
+      <c r="BE9" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="BE9" s="59">
+      <c r="BF9" s="59">
         <v>44693</v>
       </c>
-      <c r="BI9" s="52" t="s">
+      <c r="BJ9" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="BJ9" s="65" t="s">
+      <c r="BK9" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="BK9" s="59">
+      <c r="BL9" s="59">
         <v>44721</v>
       </c>
     </row>
-    <row r="10" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="60"/>
+    <row r="10" spans="2:64" ht="21" x14ac:dyDescent="0.35">
       <c r="B10" s="60"/>
       <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="F10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
       <c r="G10" s="60"/>
       <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
-      <c r="L10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="61"/>
       <c r="M10" s="60"/>
       <c r="N10" s="60"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="62"/>
-      <c r="AV10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="62"/>
       <c r="AW10" s="60"/>
       <c r="AX10" s="60"/>
-      <c r="AY10" s="61"/>
-      <c r="BB10" s="52"/>
+      <c r="AY10" s="60"/>
+      <c r="AZ10" s="61"/>
       <c r="BC10" s="52"/>
       <c r="BD10" s="52"/>
-      <c r="BE10" s="54"/>
-      <c r="BI10" s="60"/>
-      <c r="BJ10" s="64"/>
-      <c r="BK10" s="61"/>
-    </row>
-    <row r="11" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="52" t="s">
+      <c r="BE10" s="52"/>
+      <c r="BF10" s="54"/>
+      <c r="BJ10" s="60"/>
+      <c r="BK10" s="64"/>
+      <c r="BL10" s="61"/>
+    </row>
+    <row r="11" spans="2:64" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B11" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="107" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="106" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="57">
+        <v>44993</v>
+      </c>
+      <c r="G11" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52" t="s">
+      <c r="H11" s="52"/>
+      <c r="I11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="59">
-        <v>44995</v>
-      </c>
-      <c r="F11" s="52" t="s">
+      <c r="J11" s="59">
+        <v>44967</v>
+      </c>
+      <c r="M11" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52" t="s">
+      <c r="N11" s="52"/>
+      <c r="O11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="59">
-        <v>44967</v>
-      </c>
-      <c r="L11" s="52" t="s">
+      <c r="P11" s="59">
+        <v>44932</v>
+      </c>
+      <c r="S11" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" s="77">
+        <v>44903</v>
+      </c>
+      <c r="Y11" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52" t="s">
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="59">
-        <v>44932</v>
-      </c>
-      <c r="R11" s="52" t="s">
+      <c r="AB11" s="59">
+        <v>44876</v>
+      </c>
+      <c r="AE11" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH11" s="59">
+        <v>44841</v>
+      </c>
+      <c r="AK11" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL11" s="52"/>
+      <c r="AM11" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN11" s="59">
+        <v>44812</v>
+      </c>
+      <c r="AP11" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ11" s="52"/>
+      <c r="AR11" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS11" s="57">
+        <v>44784</v>
+      </c>
+      <c r="AW11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="U11" s="77">
-        <v>44903</v>
-      </c>
-      <c r="X11" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA11" s="59">
-        <v>44876</v>
-      </c>
-      <c r="AD11" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG11" s="59">
-        <v>44841</v>
-      </c>
-      <c r="AJ11" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK11" s="52"/>
-      <c r="AL11" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM11" s="59">
-        <v>44812</v>
-      </c>
-      <c r="AO11" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP11" s="52"/>
-      <c r="AQ11" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR11" s="57">
-        <v>44784</v>
-      </c>
-      <c r="AV11" s="52" t="s">
+      <c r="AX11" s="52"/>
+      <c r="AY11" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ11" s="58">
+        <v>44751</v>
+      </c>
+      <c r="BC11" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD11" s="60"/>
+      <c r="BE11" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF11" s="57">
+        <v>44695</v>
+      </c>
+      <c r="BJ11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="AW11" s="52"/>
-      <c r="AX11" s="52" t="s">
+      <c r="BK11" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="AY11" s="58">
-        <v>44751</v>
-      </c>
-      <c r="BB11" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="BC11" s="60"/>
-      <c r="BD11" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="BE11" s="57">
-        <v>44695</v>
-      </c>
-      <c r="BI11" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="BJ11" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="BK11" s="58">
+      <c r="BL11" s="58">
         <v>44723</v>
       </c>
     </row>
-    <row r="12" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="X12" s="70"/>
+    <row r="12" spans="2:64" ht="21" x14ac:dyDescent="0.35">
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="61"/>
       <c r="Y12" s="70"/>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="61"/>
-      <c r="AD12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="61"/>
       <c r="AE12" s="70"/>
-      <c r="AF12" s="71"/>
-      <c r="AG12" s="61"/>
-      <c r="AJ12" s="70"/>
+      <c r="AF12" s="70"/>
+      <c r="AG12" s="71"/>
+      <c r="AH12" s="61"/>
       <c r="AK12" s="70"/>
-      <c r="AL12" s="71"/>
-      <c r="AM12" s="61"/>
-      <c r="AO12" s="70"/>
+      <c r="AL12" s="70"/>
+      <c r="AM12" s="71"/>
+      <c r="AN12" s="61"/>
       <c r="AP12" s="70"/>
-      <c r="AQ12" s="71"/>
-      <c r="AR12" s="61"/>
-      <c r="AV12" s="60"/>
+      <c r="AQ12" s="70"/>
+      <c r="AR12" s="71"/>
+      <c r="AS12" s="61"/>
       <c r="AW12" s="60"/>
       <c r="AX12" s="60"/>
-      <c r="AY12" s="61"/>
-      <c r="BB12" s="52"/>
+      <c r="AY12" s="60"/>
+      <c r="AZ12" s="61"/>
       <c r="BC12" s="52"/>
       <c r="BD12" s="52"/>
-      <c r="BE12" s="54"/>
-      <c r="BI12" s="60"/>
-      <c r="BJ12" s="64"/>
-      <c r="BK12" s="61"/>
-    </row>
-    <row r="13" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="52" t="s">
+      <c r="BE12" s="52"/>
+      <c r="BF12" s="54"/>
+      <c r="BJ12" s="60"/>
+      <c r="BK12" s="64"/>
+      <c r="BL12" s="61"/>
+    </row>
+    <row r="13" spans="2:64" ht="21" x14ac:dyDescent="0.35">
+      <c r="B13" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="59">
+        <v>44995</v>
+      </c>
+      <c r="G13" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52" t="s">
+      <c r="H13" s="52"/>
+      <c r="I13" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="77">
-        <v>44993</v>
-      </c>
-      <c r="F13" s="52" t="s">
+      <c r="J13" s="77">
+        <v>44966</v>
+      </c>
+      <c r="M13" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52" t="s">
+      <c r="N13" s="52"/>
+      <c r="O13" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="77">
-        <v>44966</v>
-      </c>
-      <c r="L13" s="52" t="s">
+      <c r="P13" s="77">
+        <v>44938</v>
+      </c>
+      <c r="S13" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="V13" s="59">
+        <v>44904</v>
+      </c>
+      <c r="Y13" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB13" s="79">
+        <v>44883</v>
+      </c>
+      <c r="AE13" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH13" s="79">
+        <v>44848</v>
+      </c>
+      <c r="AK13" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL13" s="52"/>
+      <c r="AM13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN13" s="75">
+        <v>44813</v>
+      </c>
+      <c r="AP13" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ13" s="52"/>
+      <c r="AR13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS13" s="73">
+        <v>44785</v>
+      </c>
+      <c r="AW13" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX13" s="52"/>
+      <c r="AY13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ13" s="73">
+        <v>44756</v>
+      </c>
+      <c r="BC13" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="77">
-        <v>44938</v>
-      </c>
-      <c r="R13" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="U13" s="59">
-        <v>44904</v>
-      </c>
-      <c r="X13" s="52" t="s">
+      <c r="BD13" s="52"/>
+      <c r="BE13" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF13" s="58">
+        <v>44695</v>
+      </c>
+      <c r="BJ13" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52" t="s">
+      <c r="BK13" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="AA13" s="79">
-        <v>44883</v>
-      </c>
-      <c r="AD13" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG13" s="79">
-        <v>44848</v>
-      </c>
-      <c r="AJ13" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK13" s="52"/>
-      <c r="AL13" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM13" s="75">
-        <v>44813</v>
-      </c>
-      <c r="AO13" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="AP13" s="52"/>
-      <c r="AQ13" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR13" s="73">
-        <v>44785</v>
-      </c>
-      <c r="AV13" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="AW13" s="52"/>
-      <c r="AX13" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="AY13" s="73">
-        <v>44756</v>
-      </c>
-      <c r="BB13" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="BC13" s="52"/>
-      <c r="BD13" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="BE13" s="58">
-        <v>44695</v>
-      </c>
-      <c r="BI13" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="BJ13" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="BK13" s="59">
+      <c r="BL13" s="59">
         <v>44728</v>
       </c>
     </row>
-    <row r="14" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="70"/>
+    <row r="14" spans="2:64" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="70"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="61"/>
-      <c r="F14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="61"/>
       <c r="G14" s="70"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="61"/>
-      <c r="L14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="61"/>
       <c r="M14" s="70"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="61"/>
-      <c r="R14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="61"/>
       <c r="S14" s="70"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="61"/>
-      <c r="X14" s="60"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="61"/>
       <c r="Y14" s="60"/>
       <c r="Z14" s="60"/>
-      <c r="AA14" s="61"/>
-      <c r="AD14" s="60"/>
+      <c r="AA14" s="60"/>
+      <c r="AB14" s="61"/>
       <c r="AE14" s="60"/>
       <c r="AF14" s="60"/>
-      <c r="AG14" s="61"/>
-      <c r="AJ14" s="60"/>
+      <c r="AG14" s="60"/>
+      <c r="AH14" s="61"/>
       <c r="AK14" s="60"/>
       <c r="AL14" s="60"/>
-      <c r="AM14" s="61"/>
-      <c r="AO14" s="60"/>
+      <c r="AM14" s="60"/>
+      <c r="AN14" s="61"/>
       <c r="AP14" s="60"/>
       <c r="AQ14" s="60"/>
-      <c r="AR14" s="61"/>
-      <c r="AV14" s="60"/>
+      <c r="AR14" s="60"/>
+      <c r="AS14" s="61"/>
       <c r="AW14" s="60"/>
       <c r="AX14" s="60"/>
-      <c r="AY14" s="61"/>
-      <c r="BB14" s="52"/>
+      <c r="AY14" s="60"/>
+      <c r="AZ14" s="61"/>
       <c r="BC14" s="52"/>
       <c r="BD14" s="52"/>
-      <c r="BE14" s="54"/>
-      <c r="BI14" s="60"/>
-      <c r="BJ14" s="64"/>
-      <c r="BK14" s="61"/>
-    </row>
-    <row r="15" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="52" t="s">
+      <c r="BE14" s="52"/>
+      <c r="BF14" s="54"/>
+      <c r="BJ14" s="60"/>
+      <c r="BK14" s="64"/>
+      <c r="BL14" s="61"/>
+    </row>
+    <row r="15" spans="2:64" ht="21" x14ac:dyDescent="0.35">
+      <c r="B15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="52"/>
+      <c r="D15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="79">
+      <c r="E15" s="79">
         <v>45001</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="G15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52" t="s">
+      <c r="H15" s="52"/>
+      <c r="I15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="79">
+      <c r="J15" s="79">
         <v>44973</v>
       </c>
-      <c r="L15" s="52" t="s">
+      <c r="M15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52" t="s">
+      <c r="N15" s="52"/>
+      <c r="O15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="79">
+      <c r="P15" s="79">
         <v>44946</v>
       </c>
-      <c r="R15" s="52" t="s">
+      <c r="S15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52" t="s">
+      <c r="T15" s="52"/>
+      <c r="U15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="U15" s="79">
+      <c r="V15" s="79">
         <v>44911</v>
       </c>
-      <c r="X15" s="52" t="s">
+      <c r="Y15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="53" t="s">
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AA15" s="78">
+      <c r="AB15" s="78">
         <v>44884</v>
       </c>
-      <c r="AD15" s="52" t="s">
+      <c r="AE15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="53" t="s">
+      <c r="AF15" s="60"/>
+      <c r="AG15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AG15" s="78">
+      <c r="AH15" s="78">
         <v>44849</v>
       </c>
-      <c r="AJ15" s="52" t="s">
+      <c r="AK15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="AK15" s="60"/>
-      <c r="AL15" s="53" t="s">
+      <c r="AL15" s="60"/>
+      <c r="AM15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AM15" s="78">
+      <c r="AN15" s="78">
         <v>44814</v>
       </c>
-      <c r="AO15" s="52" t="s">
+      <c r="AP15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="AP15" s="60"/>
-      <c r="AQ15" s="53" t="s">
+      <c r="AQ15" s="60"/>
+      <c r="AR15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AR15" s="74">
+      <c r="AS15" s="74">
         <v>44786</v>
       </c>
-      <c r="AV15" s="52" t="s">
+      <c r="AW15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="AW15" s="60"/>
-      <c r="AX15" s="52" t="s">
+      <c r="AX15" s="60"/>
+      <c r="AY15" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="AY15" s="74">
+      <c r="AZ15" s="74">
         <v>44758</v>
       </c>
-      <c r="BB15" s="52" t="s">
+      <c r="BC15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="BC15" s="52"/>
-      <c r="BD15" s="52" t="s">
+      <c r="BD15" s="52"/>
+      <c r="BE15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="BE15" s="59">
+      <c r="BF15" s="59">
         <v>44700</v>
       </c>
-      <c r="BI15" s="52" t="s">
+      <c r="BJ15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="BJ15" s="65" t="s">
+      <c r="BK15" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="BK15" s="57">
+      <c r="BL15" s="57">
         <v>44730</v>
       </c>
     </row>
-    <row r="16" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="60"/>
+    <row r="16" spans="2:64" ht="21" x14ac:dyDescent="0.35">
       <c r="B16" s="60"/>
       <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
-      <c r="F16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61"/>
       <c r="G16" s="60"/>
       <c r="H16" s="60"/>
-      <c r="I16" s="61"/>
-      <c r="L16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="61"/>
       <c r="M16" s="60"/>
       <c r="N16" s="60"/>
-      <c r="O16" s="61"/>
-      <c r="R16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="61"/>
       <c r="S16" s="60"/>
       <c r="T16" s="60"/>
-      <c r="U16" s="61"/>
-      <c r="AJ16" s="52"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="61"/>
       <c r="AK16" s="52"/>
       <c r="AL16" s="52"/>
-      <c r="AM16" s="54"/>
-      <c r="AO16" s="52"/>
+      <c r="AM16" s="52"/>
+      <c r="AN16" s="54"/>
       <c r="AP16" s="52"/>
       <c r="AQ16" s="52"/>
-      <c r="AR16" s="54"/>
-      <c r="AV16" s="52"/>
+      <c r="AR16" s="52"/>
+      <c r="AS16" s="54"/>
       <c r="AW16" s="52"/>
       <c r="AX16" s="52"/>
-      <c r="AY16" s="54"/>
-      <c r="BB16" s="52"/>
+      <c r="AY16" s="52"/>
+      <c r="AZ16" s="54"/>
       <c r="BC16" s="52"/>
       <c r="BD16" s="52"/>
-      <c r="BE16" s="54"/>
-      <c r="BI16" s="52"/>
-      <c r="BJ16" s="65"/>
-      <c r="BK16" s="54"/>
-    </row>
-    <row r="17" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="52" t="s">
+      <c r="BE16" s="52"/>
+      <c r="BF16" s="54"/>
+      <c r="BJ16" s="52"/>
+      <c r="BK16" s="65"/>
+      <c r="BL16" s="54"/>
+    </row>
+    <row r="17" spans="2:64" ht="21" x14ac:dyDescent="0.35">
+      <c r="B17" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="60"/>
+      <c r="D17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="78">
+      <c r="E17" s="78">
         <v>45003</v>
       </c>
-      <c r="F17" s="52" t="s">
+      <c r="G17" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="60"/>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="60"/>
+      <c r="I17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="78">
+      <c r="J17" s="78">
         <v>44982</v>
       </c>
-      <c r="L17" s="52" t="s">
+      <c r="M17" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="60"/>
-      <c r="N17" s="53" t="s">
+      <c r="N17" s="60"/>
+      <c r="O17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="O17" s="78">
+      <c r="P17" s="78">
         <v>44954</v>
       </c>
-      <c r="R17" s="52" t="s">
+      <c r="S17" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="S17" s="60"/>
-      <c r="T17" s="53" t="s">
+      <c r="T17" s="60"/>
+      <c r="U17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="U17" s="78">
+      <c r="V17" s="78">
         <v>44912</v>
       </c>
-      <c r="BB17" s="60"/>
       <c r="BC17" s="60"/>
       <c r="BD17" s="60"/>
-      <c r="BE17" s="61"/>
-      <c r="BI17" s="52"/>
-      <c r="BJ17" s="65"/>
-      <c r="BK17" s="54"/>
-    </row>
-    <row r="18" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="BB18" s="52"/>
+      <c r="BE17" s="60"/>
+      <c r="BF17" s="61"/>
+      <c r="BJ17" s="52"/>
+      <c r="BK17" s="65"/>
+      <c r="BL17" s="54"/>
+    </row>
+    <row r="18" spans="2:64" ht="21" x14ac:dyDescent="0.35">
       <c r="BC18" s="52"/>
       <c r="BD18" s="52"/>
-      <c r="BE18" s="54"/>
-      <c r="BI18" s="52"/>
-      <c r="BJ18" s="65"/>
-      <c r="BK18" s="54"/>
-    </row>
-    <row r="19" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="BB19" s="52"/>
+      <c r="BE18" s="52"/>
+      <c r="BF18" s="54"/>
+      <c r="BJ18" s="52"/>
+      <c r="BK18" s="65"/>
+      <c r="BL18" s="54"/>
+    </row>
+    <row r="19" spans="2:64" ht="21" x14ac:dyDescent="0.35">
       <c r="BC19" s="52"/>
       <c r="BD19" s="52"/>
-      <c r="BE19" s="54"/>
-    </row>
-    <row r="20" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="BB20" s="52"/>
+      <c r="BE19" s="52"/>
+      <c r="BF19" s="54"/>
+    </row>
+    <row r="20" spans="2:64" ht="21" x14ac:dyDescent="0.35">
       <c r="BC20" s="52"/>
       <c r="BD20" s="52"/>
-      <c r="BE20" s="54"/>
-    </row>
-    <row r="21" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="BB21" s="52"/>
+      <c r="BE20" s="52"/>
+      <c r="BF20" s="54"/>
+    </row>
+    <row r="21" spans="2:64" ht="21" x14ac:dyDescent="0.35">
       <c r="BC21" s="52"/>
       <c r="BD21" s="52"/>
-      <c r="BE21" s="54"/>
-    </row>
-    <row r="22" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="BB22" s="52"/>
+      <c r="BE21" s="52"/>
+      <c r="BF21" s="54"/>
+    </row>
+    <row r="22" spans="2:64" ht="21" x14ac:dyDescent="0.35">
       <c r="BC22" s="52"/>
       <c r="BD22" s="52"/>
-      <c r="BE22" s="54"/>
-    </row>
-    <row r="23" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="BB23" s="52"/>
+      <c r="BE22" s="52"/>
+      <c r="BF22" s="54"/>
+    </row>
+    <row r="23" spans="2:64" ht="21" x14ac:dyDescent="0.35">
       <c r="BC23" s="52"/>
       <c r="BD23" s="52"/>
-      <c r="BE23" s="54"/>
-    </row>
-    <row r="24" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="BB24" s="52"/>
+      <c r="BE23" s="52"/>
+      <c r="BF23" s="54"/>
+    </row>
+    <row r="24" spans="2:64" ht="21" x14ac:dyDescent="0.35">
       <c r="BC24" s="52"/>
       <c r="BD24" s="52"/>
-      <c r="BE24" s="54"/>
-    </row>
-    <row r="25" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="BB25" s="52"/>
+      <c r="BE24" s="52"/>
+      <c r="BF24" s="54"/>
+    </row>
+    <row r="25" spans="2:64" ht="21" x14ac:dyDescent="0.35">
       <c r="BC25" s="52"/>
       <c r="BD25" s="52"/>
-      <c r="BE25" s="54"/>
-    </row>
-    <row r="26" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="BB26" s="52"/>
+      <c r="BE25" s="52"/>
+      <c r="BF25" s="54"/>
+    </row>
+    <row r="26" spans="2:64" ht="21" x14ac:dyDescent="0.35">
       <c r="BC26" s="52"/>
       <c r="BD26" s="52"/>
-      <c r="BE26" s="54"/>
-    </row>
-    <row r="27" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="BB27" s="52"/>
+      <c r="BE26" s="52"/>
+      <c r="BF26" s="54"/>
+    </row>
+    <row r="27" spans="2:64" ht="21" x14ac:dyDescent="0.35">
       <c r="BC27" s="52"/>
       <c r="BD27" s="52"/>
-      <c r="BE27" s="54"/>
-    </row>
-    <row r="28" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="BB28" s="52"/>
+      <c r="BE27" s="52"/>
+      <c r="BF27" s="54"/>
+    </row>
+    <row r="28" spans="2:64" ht="21" x14ac:dyDescent="0.35">
       <c r="BC28" s="52"/>
       <c r="BD28" s="52"/>
-      <c r="BE28" s="54"/>
-    </row>
-    <row r="29" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="BB29" s="52"/>
+      <c r="BE28" s="52"/>
+      <c r="BF28" s="54"/>
+    </row>
+    <row r="29" spans="2:64" ht="21" x14ac:dyDescent="0.35">
       <c r="BC29" s="52"/>
       <c r="BD29" s="52"/>
-      <c r="BE29" s="54"/>
-    </row>
-    <row r="30" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="BB30" s="52"/>
+      <c r="BE29" s="52"/>
+      <c r="BF29" s="54"/>
+    </row>
+    <row r="30" spans="2:64" ht="21" x14ac:dyDescent="0.35">
       <c r="BC30" s="52"/>
       <c r="BD30" s="52"/>
-      <c r="BE30" s="54"/>
-    </row>
-    <row r="31" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="BB31" s="52"/>
+      <c r="BE30" s="52"/>
+      <c r="BF30" s="54"/>
+    </row>
+    <row r="31" spans="2:64" ht="21" x14ac:dyDescent="0.35">
       <c r="BC31" s="52"/>
       <c r="BD31" s="52"/>
-      <c r="BE31" s="54"/>
+      <c r="BE31" s="52"/>
+      <c r="BF31" s="54"/>
     </row>
   </sheetData>
-  <sortState ref="L7:P9">
-    <sortCondition ref="O7:O9"/>
+  <sortState ref="B11:E13">
+    <sortCondition ref="E11:E13"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="BB5:BC5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AO3:AQ3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="BJ3:BL3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="BC3:BF3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="S5:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="42">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>CANCELADO</t>
+  </si>
+  <si>
+    <t>MARZO.,2023</t>
   </si>
 </sst>
 </file>
@@ -929,6 +932,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -946,10 +953,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1299,9 +1302,9 @@
   </sheetPr>
   <dimension ref="A2:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1322,22 +1325,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="101"/>
-      <c r="F3" s="102"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="104"/>
       <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1957,15 +1960,21 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="B20" s="11"/>
       <c r="C20" s="34"/>
       <c r="D20" s="15"/>
       <c r="E20" s="94"/>
       <c r="F20" s="13"/>
       <c r="G20" s="41"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="45"/>
+      <c r="H20" s="13">
+        <v>1856</v>
+      </c>
+      <c r="I20" s="45">
+        <v>532</v>
+      </c>
       <c r="J20" s="26"/>
       <c r="K20" s="47"/>
       <c r="L20" s="13"/>
@@ -2256,7 +2265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:BL31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -2298,48 +2307,48 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:64" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="Y3" s="104" t="s">
+      <c r="Y3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
+      <c r="Z3" s="106"/>
+      <c r="AA3" s="106"/>
       <c r="AB3" s="68"/>
-      <c r="AE3" s="104" t="s">
+      <c r="AE3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="AF3" s="104"/>
-      <c r="AG3" s="104"/>
+      <c r="AF3" s="106"/>
+      <c r="AG3" s="106"/>
       <c r="AH3" s="68"/>
-      <c r="AK3" s="104" t="s">
+      <c r="AK3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="AL3" s="104"/>
-      <c r="AM3" s="104"/>
+      <c r="AL3" s="106"/>
+      <c r="AM3" s="106"/>
       <c r="AN3" s="68"/>
-      <c r="AP3" s="104" t="s">
+      <c r="AP3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="AQ3" s="104"/>
-      <c r="AR3" s="104"/>
+      <c r="AQ3" s="106"/>
+      <c r="AR3" s="106"/>
       <c r="AS3" s="68"/>
-      <c r="AW3" s="104" t="s">
+      <c r="AW3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="AX3" s="104"/>
-      <c r="AY3" s="104"/>
+      <c r="AX3" s="106"/>
+      <c r="AY3" s="106"/>
       <c r="AZ3" s="68"/>
       <c r="BA3" s="67"/>
-      <c r="BC3" s="104" t="s">
+      <c r="BC3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="BD3" s="104"/>
-      <c r="BE3" s="104"/>
-      <c r="BF3" s="104"/>
-      <c r="BJ3" s="104" t="s">
+      <c r="BD3" s="106"/>
+      <c r="BE3" s="106"/>
+      <c r="BF3" s="106"/>
+      <c r="BJ3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="BK3" s="104"/>
-      <c r="BL3" s="104"/>
+      <c r="BK3" s="106"/>
+      <c r="BL3" s="106"/>
     </row>
     <row r="4" spans="2:64" x14ac:dyDescent="0.25">
       <c r="AB4" s="55"/>
@@ -2350,29 +2359,29 @@
       <c r="BL4" s="55"/>
     </row>
     <row r="5" spans="2:64" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
       <c r="E5" s="68"/>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
       <c r="J5" s="68"/>
-      <c r="M5" s="104" t="s">
+      <c r="M5" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
       <c r="P5" s="68"/>
-      <c r="S5" s="104" t="s">
+      <c r="S5" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
       <c r="V5" s="68"/>
       <c r="Y5" s="69" t="s">
         <v>23</v>
@@ -2424,10 +2433,10 @@
       <c r="AZ5" s="59">
         <v>44747</v>
       </c>
-      <c r="BC5" s="105" t="s">
+      <c r="BC5" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="BD5" s="105"/>
+      <c r="BD5" s="107"/>
       <c r="BE5" s="53" t="s">
         <v>15</v>
       </c>
@@ -2748,13 +2757,13 @@
       <c r="BL10" s="61"/>
     </row>
     <row r="11" spans="2:64" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="106" t="s">
+      <c r="D11" s="100" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="57">
@@ -3338,6 +3347,11 @@
     <sortCondition ref="E11:E13"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="S5:U5"/>
     <mergeCell ref="BJ3:BL3"/>
     <mergeCell ref="AW3:AY3"/>
     <mergeCell ref="AP3:AR3"/>
@@ -3345,11 +3359,6 @@
     <mergeCell ref="AE3:AG3"/>
     <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="BC3:BF3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="S5:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -1304,7 +1304,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1963,8 +1963,12 @@
       <c r="A20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="11">
+        <v>986</v>
+      </c>
+      <c r="C20" s="34">
+        <v>534</v>
+      </c>
       <c r="D20" s="15"/>
       <c r="E20" s="94"/>
       <c r="F20" s="13"/>
@@ -3347,11 +3351,6 @@
     <sortCondition ref="E11:E13"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="S5:U5"/>
     <mergeCell ref="BJ3:BL3"/>
     <mergeCell ref="AW3:AY3"/>
     <mergeCell ref="AP3:AR3"/>
@@ -3359,6 +3358,11 @@
     <mergeCell ref="AE3:AG3"/>
     <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="BC3:BF3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="S5:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="42">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -1302,7 +1302,7 @@
   </sheetPr>
   <dimension ref="A2:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
@@ -2267,20 +2267,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:BL31"/>
+  <dimension ref="A3:BR31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="36" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -2289,34 +2290,31 @@
     <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="36" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="36" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="36" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.42578125" customWidth="1"/>
-    <col min="42" max="42" width="36" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.42578125" customWidth="1"/>
-    <col min="49" max="49" width="36" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="17.140625" customWidth="1"/>
-    <col min="52" max="52" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="19.5703125" customWidth="1"/>
-    <col min="57" max="57" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.42578125" style="55" customWidth="1"/>
-    <col min="62" max="62" width="36" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="19.5703125" style="24" customWidth="1"/>
-    <col min="64" max="64" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="36" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.42578125" customWidth="1"/>
+    <col min="48" max="48" width="36" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18.42578125" customWidth="1"/>
+    <col min="55" max="55" width="36" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.140625" customWidth="1"/>
+    <col min="58" max="58" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="19.5703125" customWidth="1"/>
+    <col min="63" max="63" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.42578125" style="55" customWidth="1"/>
+    <col min="68" max="68" width="36" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.5703125" style="24" customWidth="1"/>
+    <col min="70" max="70" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:64" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="Y3" s="106" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z3" s="106"/>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="68"/>
+    <row r="3" spans="1:70" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AE3" s="106" t="s">
         <v>13</v>
       </c>
@@ -2329,52 +2327,58 @@
       <c r="AL3" s="106"/>
       <c r="AM3" s="106"/>
       <c r="AN3" s="68"/>
-      <c r="AP3" s="106" t="s">
+      <c r="AQ3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="AQ3" s="106"/>
       <c r="AR3" s="106"/>
-      <c r="AS3" s="68"/>
-      <c r="AW3" s="106" t="s">
+      <c r="AS3" s="106"/>
+      <c r="AT3" s="68"/>
+      <c r="AV3" s="106" t="s">
         <v>13</v>
       </c>
+      <c r="AW3" s="106"/>
       <c r="AX3" s="106"/>
-      <c r="AY3" s="106"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="67"/>
+      <c r="AY3" s="68"/>
       <c r="BC3" s="106" t="s">
         <v>13</v>
       </c>
       <c r="BD3" s="106"/>
       <c r="BE3" s="106"/>
-      <c r="BF3" s="106"/>
-      <c r="BJ3" s="106" t="s">
+      <c r="BF3" s="68"/>
+      <c r="BG3" s="67"/>
+      <c r="BI3" s="106" t="s">
         <v>13</v>
       </c>
+      <c r="BJ3" s="106"/>
       <c r="BK3" s="106"/>
       <c r="BL3" s="106"/>
-    </row>
-    <row r="4" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="AB4" s="55"/>
+      <c r="BP3" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="BQ3" s="106"/>
+      <c r="BR3" s="106"/>
+    </row>
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="AH4" s="55"/>
       <c r="AN4" s="55"/>
-      <c r="AS4" s="55"/>
-      <c r="AZ4" s="55"/>
-      <c r="BL4" s="55"/>
-    </row>
-    <row r="5" spans="2:64" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="106" t="s">
+      <c r="AT4" s="55"/>
+      <c r="AY4" s="55"/>
+      <c r="BF4" s="55"/>
+      <c r="BR4" s="55"/>
+    </row>
+    <row r="5" spans="1:70" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A5" s="106" t="s">
         <v>13</v>
       </c>
+      <c r="B5" s="106"/>
       <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="68"/>
-      <c r="G5" s="106" t="s">
+      <c r="D5" s="68"/>
+      <c r="H5" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="106"/>
       <c r="I5" s="106"/>
-      <c r="J5" s="68"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="68"/>
       <c r="M5" s="106" t="s">
         <v>13</v>
       </c>
@@ -2387,16 +2391,12 @@
       <c r="T5" s="106"/>
       <c r="U5" s="106"/>
       <c r="V5" s="68"/>
-      <c r="Y5" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB5" s="76">
-        <v>44861</v>
-      </c>
+      <c r="Y5" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="106"/>
+      <c r="AB5" s="68"/>
       <c r="AE5" s="69" t="s">
         <v>23</v>
       </c>
@@ -2405,103 +2405,114 @@
         <v>15</v>
       </c>
       <c r="AH5" s="76">
+        <v>44861</v>
+      </c>
+      <c r="AK5" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL5" s="69"/>
+      <c r="AM5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN5" s="76">
         <v>44833</v>
       </c>
-      <c r="AK5" s="52" t="s">
+      <c r="AQ5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52" t="s">
+      <c r="AR5" s="52"/>
+      <c r="AS5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AN5" s="58">
+      <c r="AT5" s="58">
         <v>44804</v>
       </c>
-      <c r="AP5" s="52" t="s">
+      <c r="AV5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="52" t="s">
+      <c r="AW5" s="52"/>
+      <c r="AX5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AS5" s="72">
+      <c r="AY5" s="72">
         <v>44776</v>
       </c>
-      <c r="AW5" s="69" t="s">
+      <c r="BC5" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="AZ5" s="59">
-        <v>44747</v>
-      </c>
-      <c r="BC5" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="BD5" s="107"/>
+      <c r="BD5" s="69"/>
       <c r="BE5" s="53" t="s">
         <v>15</v>
       </c>
       <c r="BF5" s="59">
+        <v>44747</v>
+      </c>
+      <c r="BI5" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="BJ5" s="107"/>
+      <c r="BK5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="BL5" s="59">
         <v>44686</v>
       </c>
-      <c r="BJ5" s="56" t="s">
+      <c r="BP5" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="BK5" s="63" t="s">
+      <c r="BQ5" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="BL5" s="59">
+      <c r="BR5" s="59">
         <v>44714</v>
       </c>
     </row>
-    <row r="6" spans="2:64" ht="21" x14ac:dyDescent="0.35">
-      <c r="E6" s="55"/>
-      <c r="J6" s="55"/>
+    <row r="6" spans="1:70" ht="21" x14ac:dyDescent="0.35">
+      <c r="D6" s="55"/>
+      <c r="K6" s="55"/>
       <c r="P6" s="55"/>
       <c r="V6" s="55"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="61"/>
+      <c r="AB6" s="55"/>
       <c r="AE6" s="52"/>
       <c r="AF6" s="52"/>
       <c r="AG6" s="52"/>
       <c r="AH6" s="61"/>
-      <c r="AW6" s="70"/>
-      <c r="AX6" s="70"/>
-      <c r="AY6" s="71"/>
-      <c r="AZ6" s="61"/>
-      <c r="BC6" s="52"/>
-      <c r="BD6" s="52"/>
-      <c r="BE6" s="52"/>
-      <c r="BF6" s="54"/>
-      <c r="BJ6" s="60"/>
-      <c r="BK6" s="64"/>
-      <c r="BL6" s="61"/>
-    </row>
-    <row r="7" spans="2:64" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="52" t="s">
+      <c r="AK6" s="52"/>
+      <c r="AL6" s="52"/>
+      <c r="AM6" s="52"/>
+      <c r="AN6" s="61"/>
+      <c r="BC6" s="70"/>
+      <c r="BD6" s="70"/>
+      <c r="BE6" s="71"/>
+      <c r="BF6" s="61"/>
+      <c r="BI6" s="52"/>
+      <c r="BJ6" s="52"/>
+      <c r="BK6" s="52"/>
+      <c r="BL6" s="54"/>
+      <c r="BP6" s="60"/>
+      <c r="BQ6" s="64"/>
+      <c r="BR6" s="61"/>
+    </row>
+    <row r="7" spans="1:70" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="58">
+      <c r="D7" s="58">
+        <v>45021</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="58">
         <v>44986</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="58">
-        <v>44958</v>
       </c>
       <c r="M7" s="52" t="s">
         <v>16</v>
@@ -2511,27 +2522,27 @@
         <v>17</v>
       </c>
       <c r="P7" s="58">
+        <v>44958</v>
+      </c>
+      <c r="S7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="V7" s="58">
         <v>44930</v>
       </c>
-      <c r="S7" s="69" t="s">
+      <c r="Y7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="T7" s="69"/>
-      <c r="U7" s="53" t="s">
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="V7" s="76">
+      <c r="AB7" s="76">
         <v>44896</v>
-      </c>
-      <c r="Y7" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB7" s="58">
-        <v>44874</v>
       </c>
       <c r="AE7" s="52" t="s">
         <v>16</v>
@@ -2541,37 +2552,37 @@
         <v>17</v>
       </c>
       <c r="AH7" s="58">
+        <v>44874</v>
+      </c>
+      <c r="AK7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL7" s="52"/>
+      <c r="AM7" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN7" s="58">
         <v>44839</v>
       </c>
-      <c r="AK7" s="69" t="s">
+      <c r="AQ7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AL7" s="69"/>
-      <c r="AM7" s="53" t="s">
+      <c r="AR7" s="69"/>
+      <c r="AS7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AN7" s="76">
+      <c r="AT7" s="76">
         <v>44805</v>
       </c>
-      <c r="AP7" s="69" t="s">
+      <c r="AV7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AQ7" s="69"/>
-      <c r="AR7" s="53" t="s">
+      <c r="AW7" s="69"/>
+      <c r="AX7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AS7" s="59">
+      <c r="AY7" s="59">
         <v>44777</v>
-      </c>
-      <c r="AW7" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="AX7" s="52"/>
-      <c r="AY7" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="AZ7" s="72">
-        <v>44748</v>
       </c>
       <c r="BC7" s="52" t="s">
         <v>16</v>
@@ -2580,69 +2591,83 @@
       <c r="BE7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="BF7" s="57">
+      <c r="BF7" s="72">
+        <v>44748</v>
+      </c>
+      <c r="BI7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ7" s="52"/>
+      <c r="BK7" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="BL7" s="57">
         <v>44691</v>
       </c>
-      <c r="BG7" s="62"/>
-      <c r="BJ7" s="52" t="s">
+      <c r="BM7" s="62"/>
+      <c r="BP7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="BK7" s="65" t="s">
+      <c r="BQ7" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="BL7" s="57">
+      <c r="BR7" s="57">
         <v>44719</v>
       </c>
     </row>
-    <row r="8" spans="2:64" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:70" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="70"/>
       <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="61"/>
-      <c r="G8" s="70"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="61"/>
       <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="61"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="61"/>
       <c r="M8" s="70"/>
       <c r="N8" s="70"/>
       <c r="O8" s="71"/>
       <c r="P8" s="61"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="61"/>
-      <c r="AW8" s="60"/>
-      <c r="AX8" s="60"/>
-      <c r="AY8" s="60"/>
-      <c r="AZ8" s="61"/>
-      <c r="BC8" s="52"/>
-      <c r="BD8" s="52"/>
-      <c r="BE8" s="52"/>
-      <c r="BF8" s="54"/>
-      <c r="BJ8" s="60"/>
-      <c r="BK8" s="64"/>
-      <c r="BL8" s="61"/>
-    </row>
-    <row r="9" spans="2:64" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="69" t="s">
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="61"/>
+      <c r="BC8" s="60"/>
+      <c r="BD8" s="60"/>
+      <c r="BE8" s="60"/>
+      <c r="BF8" s="61"/>
+      <c r="BI8" s="52"/>
+      <c r="BJ8" s="52"/>
+      <c r="BK8" s="52"/>
+      <c r="BL8" s="54"/>
+      <c r="BP8" s="60"/>
+      <c r="BQ8" s="64"/>
+      <c r="BR8" s="61"/>
+    </row>
+    <row r="9" spans="1:70" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="59">
+        <v>45027</v>
+      </c>
+      <c r="H9" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="53" t="s">
+      <c r="I9" s="69"/>
+      <c r="J9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="76">
+      <c r="K9" s="76">
         <v>44987</v>
-      </c>
-      <c r="G9" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="69"/>
-      <c r="I9" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="76">
-        <v>44959</v>
       </c>
       <c r="M9" s="69" t="s">
         <v>23</v>
@@ -2652,27 +2677,27 @@
         <v>15</v>
       </c>
       <c r="P9" s="76">
+        <v>44959</v>
+      </c>
+      <c r="S9" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="69"/>
+      <c r="U9" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="V9" s="76">
         <v>44931</v>
       </c>
-      <c r="S9" s="52" t="s">
+      <c r="Y9" s="52" t="s">
         <v>16</v>
-      </c>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="V9" s="58">
-        <v>44902</v>
-      </c>
-      <c r="Y9" s="52" t="s">
-        <v>24</v>
       </c>
       <c r="Z9" s="52"/>
       <c r="AA9" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB9" s="77">
-        <v>44875</v>
+        <v>17</v>
+      </c>
+      <c r="AB9" s="58">
+        <v>44902</v>
       </c>
       <c r="AE9" s="52" t="s">
         <v>24</v>
@@ -2682,37 +2707,37 @@
         <v>32</v>
       </c>
       <c r="AH9" s="77">
-        <v>44840</v>
+        <v>44875</v>
       </c>
       <c r="AK9" s="52" t="s">
         <v>24</v>
       </c>
       <c r="AL9" s="52"/>
       <c r="AM9" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN9" s="77">
+        <v>44840</v>
+      </c>
+      <c r="AQ9" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR9" s="52"/>
+      <c r="AS9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AN9" s="77">
+      <c r="AT9" s="77">
         <v>44807</v>
       </c>
-      <c r="AP9" s="52" t="s">
+      <c r="AV9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="AQ9" s="52"/>
-      <c r="AR9" s="52" t="s">
+      <c r="AW9" s="52"/>
+      <c r="AX9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AS9" s="58">
+      <c r="AY9" s="58">
         <v>44779</v>
-      </c>
-      <c r="AW9" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="AX9" s="52"/>
-      <c r="AY9" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="AZ9" s="57">
-        <v>44749</v>
       </c>
       <c r="BC9" s="52" t="s">
         <v>25</v>
@@ -2721,67 +2746,81 @@
       <c r="BE9" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="BF9" s="59">
+      <c r="BF9" s="57">
+        <v>44749</v>
+      </c>
+      <c r="BI9" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="BJ9" s="52"/>
+      <c r="BK9" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="BL9" s="59">
         <v>44693</v>
       </c>
-      <c r="BJ9" s="52" t="s">
+      <c r="BP9" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="BK9" s="65" t="s">
+      <c r="BQ9" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="BL9" s="59">
+      <c r="BR9" s="59">
         <v>44721</v>
       </c>
     </row>
-    <row r="10" spans="2:64" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:70" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="60"/>
       <c r="B10" s="60"/>
       <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
-      <c r="G10" s="60"/>
+      <c r="D10" s="61"/>
       <c r="H10" s="60"/>
       <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="61"/>
       <c r="M10" s="60"/>
       <c r="N10" s="60"/>
       <c r="O10" s="60"/>
       <c r="P10" s="61"/>
-      <c r="Q10" s="62"/>
-      <c r="AW10" s="60"/>
-      <c r="AX10" s="60"/>
-      <c r="AY10" s="60"/>
-      <c r="AZ10" s="61"/>
-      <c r="BC10" s="52"/>
-      <c r="BD10" s="52"/>
-      <c r="BE10" s="52"/>
-      <c r="BF10" s="54"/>
-      <c r="BJ10" s="60"/>
-      <c r="BK10" s="64"/>
-      <c r="BL10" s="61"/>
-    </row>
-    <row r="11" spans="2:64" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="100" t="s">
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="62"/>
+      <c r="BC10" s="60"/>
+      <c r="BD10" s="60"/>
+      <c r="BE10" s="60"/>
+      <c r="BF10" s="61"/>
+      <c r="BI10" s="52"/>
+      <c r="BJ10" s="52"/>
+      <c r="BK10" s="52"/>
+      <c r="BL10" s="54"/>
+      <c r="BP10" s="60"/>
+      <c r="BQ10" s="64"/>
+      <c r="BR10" s="61"/>
+    </row>
+    <row r="11" spans="1:70" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="B11" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="100" t="s">
+      <c r="C11" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="57">
+      <c r="D11" s="57"/>
+      <c r="H11" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="100" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="57">
         <v>44993</v>
-      </c>
-      <c r="G11" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="59">
-        <v>44967</v>
       </c>
       <c r="M11" s="52" t="s">
         <v>25</v>
@@ -2791,27 +2830,27 @@
         <v>18</v>
       </c>
       <c r="P11" s="59">
-        <v>44932</v>
+        <v>44967</v>
       </c>
       <c r="S11" s="52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T11" s="52"/>
       <c r="U11" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="V11" s="77">
-        <v>44903</v>
+        <v>18</v>
+      </c>
+      <c r="V11" s="59">
+        <v>44932</v>
       </c>
       <c r="Y11" s="52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z11" s="52"/>
       <c r="AA11" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB11" s="59">
-        <v>44876</v>
+        <v>32</v>
+      </c>
+      <c r="AB11" s="77">
+        <v>44903</v>
       </c>
       <c r="AE11" s="52" t="s">
         <v>25</v>
@@ -2821,7 +2860,7 @@
         <v>18</v>
       </c>
       <c r="AH11" s="59">
-        <v>44841</v>
+        <v>44876</v>
       </c>
       <c r="AK11" s="52" t="s">
         <v>25</v>
@@ -2831,57 +2870,67 @@
         <v>18</v>
       </c>
       <c r="AN11" s="59">
+        <v>44841</v>
+      </c>
+      <c r="AQ11" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR11" s="52"/>
+      <c r="AS11" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT11" s="59">
         <v>44812</v>
       </c>
-      <c r="AP11" s="52" t="s">
+      <c r="AV11" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="AQ11" s="52"/>
-      <c r="AR11" s="52" t="s">
+      <c r="AW11" s="52"/>
+      <c r="AX11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AS11" s="57">
+      <c r="AY11" s="57">
         <v>44784</v>
       </c>
-      <c r="AW11" s="52" t="s">
+      <c r="BC11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="AX11" s="52"/>
-      <c r="AY11" s="52" t="s">
+      <c r="BD11" s="52"/>
+      <c r="BE11" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AZ11" s="58">
+      <c r="BF11" s="58">
         <v>44751</v>
       </c>
-      <c r="BC11" s="52" t="s">
+      <c r="BI11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="BD11" s="60"/>
-      <c r="BE11" s="52" t="s">
+      <c r="BJ11" s="60"/>
+      <c r="BK11" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="BF11" s="57">
+      <c r="BL11" s="57">
         <v>44695</v>
       </c>
-      <c r="BJ11" s="52" t="s">
+      <c r="BP11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="BK11" s="65" t="s">
+      <c r="BQ11" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="BL11" s="58">
+      <c r="BR11" s="58">
         <v>44723</v>
       </c>
     </row>
-    <row r="12" spans="2:64" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:70" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="60"/>
       <c r="B12" s="60"/>
       <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="61"/>
       <c r="AE12" s="70"/>
       <c r="AF12" s="70"/>
       <c r="AG12" s="71"/>
@@ -2890,42 +2939,46 @@
       <c r="AL12" s="70"/>
       <c r="AM12" s="71"/>
       <c r="AN12" s="61"/>
-      <c r="AP12" s="70"/>
       <c r="AQ12" s="70"/>
-      <c r="AR12" s="71"/>
-      <c r="AS12" s="61"/>
-      <c r="AW12" s="60"/>
-      <c r="AX12" s="60"/>
-      <c r="AY12" s="60"/>
-      <c r="AZ12" s="61"/>
-      <c r="BC12" s="52"/>
-      <c r="BD12" s="52"/>
-      <c r="BE12" s="52"/>
-      <c r="BF12" s="54"/>
-      <c r="BJ12" s="60"/>
-      <c r="BK12" s="64"/>
-      <c r="BL12" s="61"/>
-    </row>
-    <row r="13" spans="2:64" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="52" t="s">
+      <c r="AR12" s="70"/>
+      <c r="AS12" s="71"/>
+      <c r="AT12" s="61"/>
+      <c r="AV12" s="70"/>
+      <c r="AW12" s="70"/>
+      <c r="AX12" s="71"/>
+      <c r="AY12" s="61"/>
+      <c r="BC12" s="60"/>
+      <c r="BD12" s="60"/>
+      <c r="BE12" s="60"/>
+      <c r="BF12" s="61"/>
+      <c r="BI12" s="52"/>
+      <c r="BJ12" s="52"/>
+      <c r="BK12" s="52"/>
+      <c r="BL12" s="54"/>
+      <c r="BP12" s="60"/>
+      <c r="BQ12" s="64"/>
+      <c r="BR12" s="61"/>
+    </row>
+    <row r="13" spans="1:70" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="69"/>
+      <c r="C13" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="76">
+        <v>45029</v>
+      </c>
+      <c r="H13" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52" t="s">
+      <c r="I13" s="52"/>
+      <c r="J13" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="59">
+      <c r="K13" s="59">
         <v>44995</v>
-      </c>
-      <c r="G13" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="77">
-        <v>44966</v>
       </c>
       <c r="M13" s="52" t="s">
         <v>24</v>
@@ -2935,27 +2988,27 @@
         <v>32</v>
       </c>
       <c r="P13" s="77">
-        <v>44938</v>
+        <v>44966</v>
       </c>
       <c r="S13" s="52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T13" s="52"/>
       <c r="U13" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="V13" s="59">
-        <v>44904</v>
+        <v>32</v>
+      </c>
+      <c r="V13" s="77">
+        <v>44938</v>
       </c>
       <c r="Y13" s="52" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Z13" s="52"/>
       <c r="AA13" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB13" s="79">
-        <v>44883</v>
+        <v>18</v>
+      </c>
+      <c r="AB13" s="59">
+        <v>44904</v>
       </c>
       <c r="AE13" s="52" t="s">
         <v>21</v>
@@ -2965,7 +3018,7 @@
         <v>22</v>
       </c>
       <c r="AH13" s="79">
-        <v>44848</v>
+        <v>44883</v>
       </c>
       <c r="AK13" s="52" t="s">
         <v>21</v>
@@ -2974,58 +3027,68 @@
       <c r="AM13" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="AN13" s="75">
+      <c r="AN13" s="79">
+        <v>44848</v>
+      </c>
+      <c r="AQ13" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR13" s="52"/>
+      <c r="AS13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT13" s="75">
         <v>44813</v>
       </c>
-      <c r="AP13" s="52" t="s">
+      <c r="AV13" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AQ13" s="52"/>
-      <c r="AR13" s="52" t="s">
+      <c r="AW13" s="52"/>
+      <c r="AX13" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="AS13" s="73">
+      <c r="AY13" s="73">
         <v>44785</v>
       </c>
-      <c r="AW13" s="52" t="s">
+      <c r="BC13" s="52" t="s">
         <v>21</v>
-      </c>
-      <c r="AX13" s="52"/>
-      <c r="AY13" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="AZ13" s="73">
-        <v>44756</v>
-      </c>
-      <c r="BC13" s="52" t="s">
-        <v>24</v>
       </c>
       <c r="BD13" s="52"/>
       <c r="BE13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF13" s="73">
+        <v>44756</v>
+      </c>
+      <c r="BI13" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="BJ13" s="52"/>
+      <c r="BK13" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="BF13" s="58">
+      <c r="BL13" s="58">
         <v>44695</v>
       </c>
-      <c r="BJ13" s="52" t="s">
+      <c r="BP13" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="BK13" s="65" t="s">
+      <c r="BQ13" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="BL13" s="59">
+      <c r="BR13" s="59">
         <v>44728</v>
       </c>
     </row>
-    <row r="14" spans="2:64" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:70" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="70"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="61"/>
-      <c r="G14" s="70"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="61"/>
       <c r="H14" s="70"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="61"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="61"/>
       <c r="M14" s="70"/>
       <c r="N14" s="70"/>
       <c r="O14" s="71"/>
@@ -3034,9 +3097,9 @@
       <c r="T14" s="70"/>
       <c r="U14" s="71"/>
       <c r="V14" s="61"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="60"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="71"/>
       <c r="AB14" s="61"/>
       <c r="AE14" s="60"/>
       <c r="AF14" s="60"/>
@@ -3046,42 +3109,46 @@
       <c r="AL14" s="60"/>
       <c r="AM14" s="60"/>
       <c r="AN14" s="61"/>
-      <c r="AP14" s="60"/>
       <c r="AQ14" s="60"/>
       <c r="AR14" s="60"/>
-      <c r="AS14" s="61"/>
+      <c r="AS14" s="60"/>
+      <c r="AT14" s="61"/>
+      <c r="AV14" s="60"/>
       <c r="AW14" s="60"/>
       <c r="AX14" s="60"/>
-      <c r="AY14" s="60"/>
-      <c r="AZ14" s="61"/>
-      <c r="BC14" s="52"/>
-      <c r="BD14" s="52"/>
-      <c r="BE14" s="52"/>
-      <c r="BF14" s="54"/>
-      <c r="BJ14" s="60"/>
-      <c r="BK14" s="64"/>
-      <c r="BL14" s="61"/>
-    </row>
-    <row r="15" spans="2:64" ht="21" x14ac:dyDescent="0.35">
-      <c r="B15" s="52" t="s">
+      <c r="AY14" s="61"/>
+      <c r="BC14" s="60"/>
+      <c r="BD14" s="60"/>
+      <c r="BE14" s="60"/>
+      <c r="BF14" s="61"/>
+      <c r="BI14" s="52"/>
+      <c r="BJ14" s="52"/>
+      <c r="BK14" s="52"/>
+      <c r="BL14" s="54"/>
+      <c r="BP14" s="60"/>
+      <c r="BQ14" s="64"/>
+      <c r="BR14" s="61"/>
+    </row>
+    <row r="15" spans="1:70" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52" t="s">
+      <c r="B15" s="52"/>
+      <c r="C15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="79">
+      <c r="D15" s="79">
+        <v>45030</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="79">
         <v>45001</v>
-      </c>
-      <c r="G15" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="79">
-        <v>44973</v>
       </c>
       <c r="M15" s="52" t="s">
         <v>21</v>
@@ -3091,7 +3158,7 @@
         <v>22</v>
       </c>
       <c r="P15" s="79">
-        <v>44946</v>
+        <v>44973</v>
       </c>
       <c r="S15" s="52" t="s">
         <v>21</v>
@@ -3101,17 +3168,17 @@
         <v>22</v>
       </c>
       <c r="V15" s="79">
+        <v>44946</v>
+      </c>
+      <c r="Y15" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB15" s="79">
         <v>44911</v>
-      </c>
-      <c r="Y15" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB15" s="78">
-        <v>44884</v>
       </c>
       <c r="AE15" s="52" t="s">
         <v>19</v>
@@ -3121,7 +3188,7 @@
         <v>15</v>
       </c>
       <c r="AH15" s="78">
-        <v>44849</v>
+        <v>44884</v>
       </c>
       <c r="AK15" s="52" t="s">
         <v>19</v>
@@ -3131,57 +3198,67 @@
         <v>15</v>
       </c>
       <c r="AN15" s="78">
+        <v>44849</v>
+      </c>
+      <c r="AQ15" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR15" s="60"/>
+      <c r="AS15" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT15" s="78">
         <v>44814</v>
       </c>
-      <c r="AP15" s="52" t="s">
+      <c r="AV15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="AQ15" s="60"/>
-      <c r="AR15" s="53" t="s">
+      <c r="AW15" s="60"/>
+      <c r="AX15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AS15" s="74">
+      <c r="AY15" s="74">
         <v>44786</v>
       </c>
-      <c r="AW15" s="52" t="s">
+      <c r="BC15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="AX15" s="60"/>
-      <c r="AY15" s="52" t="s">
+      <c r="BD15" s="60"/>
+      <c r="BE15" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="AZ15" s="74">
+      <c r="BF15" s="74">
         <v>44758</v>
       </c>
-      <c r="BC15" s="52" t="s">
+      <c r="BI15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="BD15" s="52"/>
-      <c r="BE15" s="52" t="s">
+      <c r="BJ15" s="52"/>
+      <c r="BK15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="BF15" s="59">
+      <c r="BL15" s="59">
         <v>44700</v>
       </c>
-      <c r="BJ15" s="52" t="s">
+      <c r="BP15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="BK15" s="65" t="s">
+      <c r="BQ15" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="BL15" s="57">
+      <c r="BR15" s="57">
         <v>44730</v>
       </c>
     </row>
-    <row r="16" spans="2:64" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:70" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="60"/>
       <c r="B16" s="60"/>
       <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="G16" s="60"/>
+      <c r="D16" s="61"/>
       <c r="H16" s="60"/>
       <c r="I16" s="60"/>
-      <c r="J16" s="61"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="61"/>
       <c r="M16" s="60"/>
       <c r="N16" s="60"/>
       <c r="O16" s="60"/>
@@ -3190,46 +3267,50 @@
       <c r="T16" s="60"/>
       <c r="U16" s="60"/>
       <c r="V16" s="61"/>
-      <c r="AK16" s="52"/>
-      <c r="AL16" s="52"/>
-      <c r="AM16" s="52"/>
-      <c r="AN16" s="54"/>
-      <c r="AP16" s="52"/>
+      <c r="Y16" s="60"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="60"/>
+      <c r="AB16" s="61"/>
       <c r="AQ16" s="52"/>
       <c r="AR16" s="52"/>
-      <c r="AS16" s="54"/>
+      <c r="AS16" s="52"/>
+      <c r="AT16" s="54"/>
+      <c r="AV16" s="52"/>
       <c r="AW16" s="52"/>
       <c r="AX16" s="52"/>
-      <c r="AY16" s="52"/>
-      <c r="AZ16" s="54"/>
+      <c r="AY16" s="54"/>
       <c r="BC16" s="52"/>
       <c r="BD16" s="52"/>
       <c r="BE16" s="52"/>
       <c r="BF16" s="54"/>
+      <c r="BI16" s="52"/>
       <c r="BJ16" s="52"/>
-      <c r="BK16" s="65"/>
+      <c r="BK16" s="52"/>
       <c r="BL16" s="54"/>
-    </row>
-    <row r="17" spans="2:64" ht="21" x14ac:dyDescent="0.35">
-      <c r="B17" s="52" t="s">
+      <c r="BP16" s="52"/>
+      <c r="BQ16" s="65"/>
+      <c r="BR16" s="54"/>
+    </row>
+    <row r="17" spans="1:70" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="53" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="78">
+      <c r="D17" s="78">
+        <v>45031</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="60"/>
+      <c r="J17" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="78">
         <v>45003</v>
-      </c>
-      <c r="G17" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="60"/>
-      <c r="I17" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="78">
-        <v>44982</v>
       </c>
       <c r="M17" s="52" t="s">
         <v>19</v>
@@ -3239,7 +3320,7 @@
         <v>15</v>
       </c>
       <c r="P17" s="78">
-        <v>44954</v>
+        <v>44982</v>
       </c>
       <c r="S17" s="52" t="s">
         <v>19</v>
@@ -3249,120 +3330,139 @@
         <v>15</v>
       </c>
       <c r="V17" s="78">
+        <v>44954</v>
+      </c>
+      <c r="Y17" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB17" s="78">
         <v>44912</v>
       </c>
-      <c r="BC17" s="60"/>
-      <c r="BD17" s="60"/>
-      <c r="BE17" s="60"/>
-      <c r="BF17" s="61"/>
-      <c r="BJ17" s="52"/>
-      <c r="BK17" s="65"/>
-      <c r="BL17" s="54"/>
-    </row>
-    <row r="18" spans="2:64" ht="21" x14ac:dyDescent="0.35">
-      <c r="BC18" s="52"/>
-      <c r="BD18" s="52"/>
-      <c r="BE18" s="52"/>
-      <c r="BF18" s="54"/>
+      <c r="BI17" s="60"/>
+      <c r="BJ17" s="60"/>
+      <c r="BK17" s="60"/>
+      <c r="BL17" s="61"/>
+      <c r="BP17" s="52"/>
+      <c r="BQ17" s="65"/>
+      <c r="BR17" s="54"/>
+    </row>
+    <row r="18" spans="1:70" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="BI18" s="52"/>
       <c r="BJ18" s="52"/>
-      <c r="BK18" s="65"/>
+      <c r="BK18" s="52"/>
       <c r="BL18" s="54"/>
-    </row>
-    <row r="19" spans="2:64" ht="21" x14ac:dyDescent="0.35">
-      <c r="BC19" s="52"/>
-      <c r="BD19" s="52"/>
-      <c r="BE19" s="52"/>
-      <c r="BF19" s="54"/>
-    </row>
-    <row r="20" spans="2:64" ht="21" x14ac:dyDescent="0.35">
-      <c r="BC20" s="52"/>
-      <c r="BD20" s="52"/>
-      <c r="BE20" s="52"/>
-      <c r="BF20" s="54"/>
-    </row>
-    <row r="21" spans="2:64" ht="21" x14ac:dyDescent="0.35">
-      <c r="BC21" s="52"/>
-      <c r="BD21" s="52"/>
-      <c r="BE21" s="52"/>
-      <c r="BF21" s="54"/>
-    </row>
-    <row r="22" spans="2:64" ht="21" x14ac:dyDescent="0.35">
-      <c r="BC22" s="52"/>
-      <c r="BD22" s="52"/>
-      <c r="BE22" s="52"/>
-      <c r="BF22" s="54"/>
-    </row>
-    <row r="23" spans="2:64" ht="21" x14ac:dyDescent="0.35">
-      <c r="BC23" s="52"/>
-      <c r="BD23" s="52"/>
-      <c r="BE23" s="52"/>
-      <c r="BF23" s="54"/>
-    </row>
-    <row r="24" spans="2:64" ht="21" x14ac:dyDescent="0.35">
-      <c r="BC24" s="52"/>
-      <c r="BD24" s="52"/>
-      <c r="BE24" s="52"/>
-      <c r="BF24" s="54"/>
-    </row>
-    <row r="25" spans="2:64" ht="21" x14ac:dyDescent="0.35">
-      <c r="BC25" s="52"/>
-      <c r="BD25" s="52"/>
-      <c r="BE25" s="52"/>
-      <c r="BF25" s="54"/>
-    </row>
-    <row r="26" spans="2:64" ht="21" x14ac:dyDescent="0.35">
-      <c r="BC26" s="52"/>
-      <c r="BD26" s="52"/>
-      <c r="BE26" s="52"/>
-      <c r="BF26" s="54"/>
-    </row>
-    <row r="27" spans="2:64" ht="21" x14ac:dyDescent="0.35">
-      <c r="BC27" s="52"/>
-      <c r="BD27" s="52"/>
-      <c r="BE27" s="52"/>
-      <c r="BF27" s="54"/>
-    </row>
-    <row r="28" spans="2:64" ht="21" x14ac:dyDescent="0.35">
-      <c r="BC28" s="52"/>
-      <c r="BD28" s="52"/>
-      <c r="BE28" s="52"/>
-      <c r="BF28" s="54"/>
-    </row>
-    <row r="29" spans="2:64" ht="21" x14ac:dyDescent="0.35">
-      <c r="BC29" s="52"/>
-      <c r="BD29" s="52"/>
-      <c r="BE29" s="52"/>
-      <c r="BF29" s="54"/>
-    </row>
-    <row r="30" spans="2:64" ht="21" x14ac:dyDescent="0.35">
-      <c r="BC30" s="52"/>
-      <c r="BD30" s="52"/>
-      <c r="BE30" s="52"/>
-      <c r="BF30" s="54"/>
-    </row>
-    <row r="31" spans="2:64" ht="21" x14ac:dyDescent="0.35">
-      <c r="BC31" s="52"/>
-      <c r="BD31" s="52"/>
-      <c r="BE31" s="52"/>
-      <c r="BF31" s="54"/>
+      <c r="BP18" s="52"/>
+      <c r="BQ18" s="65"/>
+      <c r="BR18" s="54"/>
+    </row>
+    <row r="19" spans="1:70" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="70"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="61"/>
+      <c r="BI19" s="52"/>
+      <c r="BJ19" s="52"/>
+      <c r="BK19" s="52"/>
+      <c r="BL19" s="54"/>
+    </row>
+    <row r="20" spans="1:70" ht="21" x14ac:dyDescent="0.35">
+      <c r="BI20" s="52"/>
+      <c r="BJ20" s="52"/>
+      <c r="BK20" s="52"/>
+      <c r="BL20" s="54"/>
+    </row>
+    <row r="21" spans="1:70" ht="21" x14ac:dyDescent="0.35">
+      <c r="BI21" s="52"/>
+      <c r="BJ21" s="52"/>
+      <c r="BK21" s="52"/>
+      <c r="BL21" s="54"/>
+    </row>
+    <row r="22" spans="1:70" ht="21" x14ac:dyDescent="0.35">
+      <c r="BI22" s="52"/>
+      <c r="BJ22" s="52"/>
+      <c r="BK22" s="52"/>
+      <c r="BL22" s="54"/>
+    </row>
+    <row r="23" spans="1:70" ht="21" x14ac:dyDescent="0.35">
+      <c r="BI23" s="52"/>
+      <c r="BJ23" s="52"/>
+      <c r="BK23" s="52"/>
+      <c r="BL23" s="54"/>
+    </row>
+    <row r="24" spans="1:70" ht="21" x14ac:dyDescent="0.35">
+      <c r="BI24" s="52"/>
+      <c r="BJ24" s="52"/>
+      <c r="BK24" s="52"/>
+      <c r="BL24" s="54"/>
+    </row>
+    <row r="25" spans="1:70" ht="21" x14ac:dyDescent="0.35">
+      <c r="BI25" s="52"/>
+      <c r="BJ25" s="52"/>
+      <c r="BK25" s="52"/>
+      <c r="BL25" s="54"/>
+    </row>
+    <row r="26" spans="1:70" ht="21" x14ac:dyDescent="0.35">
+      <c r="BI26" s="52"/>
+      <c r="BJ26" s="52"/>
+      <c r="BK26" s="52"/>
+      <c r="BL26" s="54"/>
+    </row>
+    <row r="27" spans="1:70" ht="21" x14ac:dyDescent="0.35">
+      <c r="BI27" s="52"/>
+      <c r="BJ27" s="52"/>
+      <c r="BK27" s="52"/>
+      <c r="BL27" s="54"/>
+    </row>
+    <row r="28" spans="1:70" ht="21" x14ac:dyDescent="0.35">
+      <c r="BI28" s="52"/>
+      <c r="BJ28" s="52"/>
+      <c r="BK28" s="52"/>
+      <c r="BL28" s="54"/>
+    </row>
+    <row r="29" spans="1:70" ht="21" x14ac:dyDescent="0.35">
+      <c r="BI29" s="52"/>
+      <c r="BJ29" s="52"/>
+      <c r="BK29" s="52"/>
+      <c r="BL29" s="54"/>
+    </row>
+    <row r="30" spans="1:70" ht="21" x14ac:dyDescent="0.35">
+      <c r="BI30" s="52"/>
+      <c r="BJ30" s="52"/>
+      <c r="BK30" s="52"/>
+      <c r="BL30" s="54"/>
+    </row>
+    <row r="31" spans="1:70" ht="21" x14ac:dyDescent="0.35">
+      <c r="BI31" s="52"/>
+      <c r="BJ31" s="52"/>
+      <c r="BK31" s="52"/>
+      <c r="BL31" s="54"/>
     </row>
   </sheetData>
-  <sortState ref="B11:E13">
-    <sortCondition ref="E11:E13"/>
+  <sortState ref="H11:K13">
+    <sortCondition ref="K11:K13"/>
   </sortState>
-  <mergeCells count="12">
-    <mergeCell ref="BJ3:BL3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="Y3:AA3"/>
+  <mergeCells count="13">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="BP3:BR3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AV3:AX3"/>
     <mergeCell ref="AE3:AG3"/>
     <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="BC3:BF3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="BI3:BL3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="43">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>MARZO.,2023</t>
+  </si>
+  <si>
+    <t>ABRIL,..2023</t>
   </si>
 </sst>
 </file>
@@ -1302,9 +1305,9 @@
   </sheetPr>
   <dimension ref="A2:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1969,23 +1972,41 @@
       <c r="C20" s="34">
         <v>534</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="41"/>
+      <c r="D20" s="15">
+        <v>1392</v>
+      </c>
+      <c r="E20" s="94">
+        <v>543</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1856</v>
+      </c>
+      <c r="G20" s="41">
+        <v>540</v>
+      </c>
       <c r="H20" s="13">
         <v>1856</v>
       </c>
       <c r="I20" s="45">
         <v>532</v>
       </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="50"/>
+      <c r="J20" s="26">
+        <v>1392</v>
+      </c>
+      <c r="K20" s="47">
+        <v>544</v>
+      </c>
+      <c r="L20" s="13">
+        <v>0</v>
+      </c>
+      <c r="M20" s="50" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="B21" s="11"/>
       <c r="C21" s="45"/>
       <c r="D21" s="13"/>
@@ -1996,8 +2017,12 @@
       <c r="I21" s="45"/>
       <c r="J21" s="26"/>
       <c r="K21" s="47"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="50"/>
+      <c r="L21" s="13">
+        <v>0</v>
+      </c>
+      <c r="M21" s="50" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -2269,8 +2294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:BR31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3450,12 +3475,6 @@
     <sortCondition ref="K11:K13"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="Y5:AA5"/>
     <mergeCell ref="BP3:BR3"/>
     <mergeCell ref="BC3:BE3"/>
     <mergeCell ref="AV3:AX3"/>
@@ -3463,6 +3482,12 @@
     <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="AQ3:AS3"/>
     <mergeCell ref="BI3:BL3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="Y5:AA5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="43">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -702,7 +702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -956,6 +956,10 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1305,7 +1309,7 @@
   </sheetPr>
   <dimension ref="A2:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
@@ -2292,243 +2296,258 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:BR31"/>
+  <dimension ref="B3:BY31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="62" customWidth="1"/>
     <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="36" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="36" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="36" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="36" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.42578125" customWidth="1"/>
-    <col min="48" max="48" width="36" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="18.42578125" customWidth="1"/>
+    <col min="15" max="15" width="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.85546875" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="36" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="36" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="36" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="36" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="36" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18.42578125" customWidth="1"/>
     <col min="55" max="55" width="36" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.140625" customWidth="1"/>
-    <col min="58" max="58" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="19.5703125" customWidth="1"/>
-    <col min="63" max="63" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.42578125" style="55" customWidth="1"/>
-    <col min="68" max="68" width="36" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.5703125" style="24" customWidth="1"/>
-    <col min="70" max="70" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.42578125" customWidth="1"/>
+    <col min="62" max="62" width="36" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="17.140625" customWidth="1"/>
+    <col min="65" max="65" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="19.5703125" customWidth="1"/>
+    <col min="70" max="70" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="18.42578125" style="55" customWidth="1"/>
+    <col min="75" max="75" width="36" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="19.5703125" style="24" customWidth="1"/>
+    <col min="77" max="77" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:70" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AE3" s="106" t="s">
+    <row r="3" spans="2:77" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="AF3" s="106"/>
-      <c r="AG3" s="106"/>
-      <c r="AH3" s="68"/>
-      <c r="AK3" s="106" t="s">
+      <c r="AM3" s="106"/>
+      <c r="AN3" s="106"/>
+      <c r="AO3" s="68"/>
+      <c r="AR3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="AL3" s="106"/>
-      <c r="AM3" s="106"/>
-      <c r="AN3" s="68"/>
-      <c r="AQ3" s="106" t="s">
+      <c r="AS3" s="106"/>
+      <c r="AT3" s="106"/>
+      <c r="AU3" s="68"/>
+      <c r="AX3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="AR3" s="106"/>
-      <c r="AS3" s="106"/>
-      <c r="AT3" s="68"/>
-      <c r="AV3" s="106" t="s">
-        <v>13</v>
-      </c>
-      <c r="AW3" s="106"/>
-      <c r="AX3" s="106"/>
-      <c r="AY3" s="68"/>
+      <c r="AY3" s="106"/>
+      <c r="AZ3" s="106"/>
+      <c r="BA3" s="68"/>
       <c r="BC3" s="106" t="s">
         <v>13</v>
       </c>
       <c r="BD3" s="106"/>
       <c r="BE3" s="106"/>
       <c r="BF3" s="68"/>
-      <c r="BG3" s="67"/>
-      <c r="BI3" s="106" t="s">
+      <c r="BJ3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="BJ3" s="106"/>
       <c r="BK3" s="106"/>
       <c r="BL3" s="106"/>
+      <c r="BM3" s="68"/>
+      <c r="BN3" s="67"/>
       <c r="BP3" s="106" t="s">
         <v>13</v>
       </c>
       <c r="BQ3" s="106"/>
       <c r="BR3" s="106"/>
-    </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="AH4" s="55"/>
-      <c r="AN4" s="55"/>
-      <c r="AT4" s="55"/>
-      <c r="AY4" s="55"/>
+      <c r="BS3" s="106"/>
+      <c r="BW3" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="BX3" s="106"/>
+      <c r="BY3" s="106"/>
+    </row>
+    <row r="4" spans="2:77" x14ac:dyDescent="0.25">
+      <c r="AO4" s="55"/>
+      <c r="AU4" s="55"/>
+      <c r="BA4" s="55"/>
       <c r="BF4" s="55"/>
-      <c r="BR4" s="55"/>
-    </row>
-    <row r="5" spans="1:70" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A5" s="106" t="s">
+      <c r="BM4" s="55"/>
+      <c r="BY4" s="55"/>
+    </row>
+    <row r="5" spans="2:77" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B5" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="106"/>
       <c r="C5" s="106"/>
-      <c r="D5" s="68"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="108"/>
       <c r="H5" s="106" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="106"/>
       <c r="J5" s="106"/>
       <c r="K5" s="68"/>
-      <c r="M5" s="106" t="s">
+      <c r="O5" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="68"/>
-      <c r="S5" s="106" t="s">
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="68"/>
+      <c r="T5" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="106"/>
       <c r="U5" s="106"/>
-      <c r="V5" s="68"/>
-      <c r="Y5" s="106" t="s">
+      <c r="V5" s="106"/>
+      <c r="W5" s="68"/>
+      <c r="Z5" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="Z5" s="106"/>
       <c r="AA5" s="106"/>
-      <c r="AB5" s="68"/>
-      <c r="AE5" s="69" t="s">
+      <c r="AB5" s="106"/>
+      <c r="AC5" s="68"/>
+      <c r="AF5" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG5" s="106"/>
+      <c r="AH5" s="106"/>
+      <c r="AI5" s="68"/>
+      <c r="AL5" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AF5" s="69"/>
-      <c r="AG5" s="53" t="s">
+      <c r="AM5" s="69"/>
+      <c r="AN5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="76">
+      <c r="AO5" s="76">
         <v>44861</v>
       </c>
-      <c r="AK5" s="69" t="s">
+      <c r="AR5" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AL5" s="69"/>
-      <c r="AM5" s="53" t="s">
+      <c r="AS5" s="69"/>
+      <c r="AT5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AN5" s="76">
+      <c r="AU5" s="76">
         <v>44833</v>
       </c>
-      <c r="AQ5" s="52" t="s">
+      <c r="AX5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AR5" s="52"/>
-      <c r="AS5" s="52" t="s">
+      <c r="AY5" s="52"/>
+      <c r="AZ5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AT5" s="58">
+      <c r="BA5" s="58">
         <v>44804</v>
       </c>
-      <c r="AV5" s="52" t="s">
+      <c r="BC5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AW5" s="52"/>
-      <c r="AX5" s="52" t="s">
+      <c r="BD5" s="52"/>
+      <c r="BE5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AY5" s="72">
+      <c r="BF5" s="72">
         <v>44776</v>
       </c>
-      <c r="BC5" s="69" t="s">
+      <c r="BJ5" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="BD5" s="69"/>
-      <c r="BE5" s="53" t="s">
+      <c r="BK5" s="69"/>
+      <c r="BL5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="BF5" s="59">
+      <c r="BM5" s="59">
         <v>44747</v>
       </c>
-      <c r="BI5" s="107" t="s">
+      <c r="BP5" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="BJ5" s="107"/>
-      <c r="BK5" s="53" t="s">
+      <c r="BQ5" s="107"/>
+      <c r="BR5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="BL5" s="59">
+      <c r="BS5" s="59">
         <v>44686</v>
       </c>
-      <c r="BP5" s="56" t="s">
+      <c r="BW5" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="BQ5" s="63" t="s">
+      <c r="BX5" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="BR5" s="59">
+      <c r="BY5" s="59">
         <v>44714</v>
       </c>
     </row>
-    <row r="6" spans="1:70" ht="21" x14ac:dyDescent="0.35">
-      <c r="D6" s="55"/>
+    <row r="6" spans="2:77" ht="21" x14ac:dyDescent="0.35">
+      <c r="E6" s="55"/>
+      <c r="F6" s="109"/>
       <c r="K6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="AB6" s="55"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="52"/>
-      <c r="AH6" s="61"/>
-      <c r="AK6" s="52"/>
+      <c r="R6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="AC6" s="55"/>
+      <c r="AI6" s="55"/>
       <c r="AL6" s="52"/>
       <c r="AM6" s="52"/>
-      <c r="AN6" s="61"/>
-      <c r="BC6" s="70"/>
-      <c r="BD6" s="70"/>
-      <c r="BE6" s="71"/>
-      <c r="BF6" s="61"/>
-      <c r="BI6" s="52"/>
-      <c r="BJ6" s="52"/>
-      <c r="BK6" s="52"/>
-      <c r="BL6" s="54"/>
-      <c r="BP6" s="60"/>
-      <c r="BQ6" s="64"/>
-      <c r="BR6" s="61"/>
-    </row>
-    <row r="7" spans="1:70" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="52" t="s">
+      <c r="AN6" s="52"/>
+      <c r="AO6" s="61"/>
+      <c r="AR6" s="52"/>
+      <c r="AS6" s="52"/>
+      <c r="AT6" s="52"/>
+      <c r="AU6" s="61"/>
+      <c r="BJ6" s="70"/>
+      <c r="BK6" s="70"/>
+      <c r="BL6" s="71"/>
+      <c r="BM6" s="61"/>
+      <c r="BP6" s="52"/>
+      <c r="BQ6" s="52"/>
+      <c r="BR6" s="52"/>
+      <c r="BS6" s="54"/>
+      <c r="BW6" s="60"/>
+      <c r="BX6" s="64"/>
+      <c r="BY6" s="61"/>
+    </row>
+    <row r="7" spans="2:77" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="58">
-        <v>45021</v>
-      </c>
+      <c r="E7" s="58">
+        <v>45049</v>
+      </c>
+      <c r="F7" s="61"/>
       <c r="H7" s="52" t="s">
         <v>16</v>
       </c>
@@ -2537,304 +2556,336 @@
         <v>17</v>
       </c>
       <c r="K7" s="58">
+        <v>45021</v>
+      </c>
+      <c r="O7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="58">
         <v>44986</v>
       </c>
-      <c r="M7" s="52" t="s">
+      <c r="T7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52" t="s">
+      <c r="U7" s="52"/>
+      <c r="V7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="58">
+      <c r="W7" s="58">
         <v>44958</v>
       </c>
-      <c r="S7" s="52" t="s">
+      <c r="Z7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52" t="s">
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="V7" s="58">
+      <c r="AC7" s="58">
         <v>44930</v>
       </c>
-      <c r="Y7" s="69" t="s">
+      <c r="AF7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="53" t="s">
+      <c r="AG7" s="69"/>
+      <c r="AH7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AB7" s="76">
+      <c r="AI7" s="76">
         <v>44896</v>
       </c>
-      <c r="AE7" s="52" t="s">
+      <c r="AL7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AF7" s="52"/>
-      <c r="AG7" s="52" t="s">
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AH7" s="58">
+      <c r="AO7" s="58">
         <v>44874</v>
       </c>
-      <c r="AK7" s="52" t="s">
+      <c r="AR7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AL7" s="52"/>
-      <c r="AM7" s="52" t="s">
+      <c r="AS7" s="52"/>
+      <c r="AT7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AN7" s="58">
+      <c r="AU7" s="58">
         <v>44839</v>
       </c>
-      <c r="AQ7" s="69" t="s">
+      <c r="AX7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AR7" s="69"/>
-      <c r="AS7" s="53" t="s">
+      <c r="AY7" s="69"/>
+      <c r="AZ7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AT7" s="76">
+      <c r="BA7" s="76">
         <v>44805</v>
       </c>
-      <c r="AV7" s="69" t="s">
+      <c r="BC7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AW7" s="69"/>
-      <c r="AX7" s="53" t="s">
+      <c r="BD7" s="69"/>
+      <c r="BE7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AY7" s="59">
+      <c r="BF7" s="59">
         <v>44777</v>
       </c>
-      <c r="BC7" s="52" t="s">
+      <c r="BJ7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="BD7" s="52"/>
-      <c r="BE7" s="52" t="s">
+      <c r="BK7" s="52"/>
+      <c r="BL7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="BF7" s="72">
+      <c r="BM7" s="72">
         <v>44748</v>
       </c>
-      <c r="BI7" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="BJ7" s="52"/>
-      <c r="BK7" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="BL7" s="57">
-        <v>44691</v>
-      </c>
-      <c r="BM7" s="62"/>
       <c r="BP7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="BQ7" s="65" t="s">
+      <c r="BQ7" s="52"/>
+      <c r="BR7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="BR7" s="57">
+      <c r="BS7" s="57">
+        <v>44691</v>
+      </c>
+      <c r="BT7" s="62"/>
+      <c r="BW7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="BX7" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="BY7" s="57">
         <v>44719</v>
       </c>
     </row>
-    <row r="8" spans="1:70" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="70"/>
+    <row r="8" spans="2:77" ht="21" x14ac:dyDescent="0.35">
       <c r="B8" s="70"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="61"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="H8" s="70"/>
       <c r="I8" s="70"/>
       <c r="J8" s="71"/>
       <c r="K8" s="61"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="61"/>
-      <c r="S8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="61"/>
       <c r="T8" s="70"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="61"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="61"/>
-      <c r="BC8" s="60"/>
-      <c r="BD8" s="60"/>
-      <c r="BE8" s="60"/>
-      <c r="BF8" s="61"/>
-      <c r="BI8" s="52"/>
-      <c r="BJ8" s="52"/>
-      <c r="BK8" s="52"/>
-      <c r="BL8" s="54"/>
-      <c r="BP8" s="60"/>
-      <c r="BQ8" s="64"/>
-      <c r="BR8" s="61"/>
-    </row>
-    <row r="9" spans="1:70" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="52" t="s">
+      <c r="U8" s="70"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="61"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="61"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="52"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="61"/>
+      <c r="BJ8" s="60"/>
+      <c r="BK8" s="60"/>
+      <c r="BL8" s="60"/>
+      <c r="BM8" s="61"/>
+      <c r="BP8" s="52"/>
+      <c r="BQ8" s="52"/>
+      <c r="BR8" s="52"/>
+      <c r="BS8" s="54"/>
+      <c r="BW8" s="60"/>
+      <c r="BX8" s="64"/>
+      <c r="BY8" s="61"/>
+    </row>
+    <row r="9" spans="2:77" ht="21" x14ac:dyDescent="0.35">
+      <c r="B9" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="52"/>
+      <c r="D9" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="59">
+      <c r="E9" s="59">
+        <v>45055</v>
+      </c>
+      <c r="F9" s="61"/>
+      <c r="H9" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="59">
         <v>45027</v>
       </c>
-      <c r="H9" s="69" t="s">
+      <c r="O9" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="53" t="s">
+      <c r="P9" s="69"/>
+      <c r="Q9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="76">
+      <c r="R9" s="76">
         <v>44987</v>
       </c>
-      <c r="M9" s="69" t="s">
+      <c r="T9" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="69"/>
-      <c r="O9" s="53" t="s">
+      <c r="U9" s="69"/>
+      <c r="V9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="76">
+      <c r="W9" s="76">
         <v>44959</v>
       </c>
-      <c r="S9" s="69" t="s">
+      <c r="Z9" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="T9" s="69"/>
-      <c r="U9" s="53" t="s">
+      <c r="AA9" s="69"/>
+      <c r="AB9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="76">
+      <c r="AC9" s="76">
         <v>44931</v>
       </c>
-      <c r="Y9" s="52" t="s">
+      <c r="AF9" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52" t="s">
+      <c r="AG9" s="52"/>
+      <c r="AH9" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AB9" s="58">
+      <c r="AI9" s="58">
         <v>44902</v>
       </c>
-      <c r="AE9" s="52" t="s">
+      <c r="AL9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="52" t="s">
+      <c r="AM9" s="52"/>
+      <c r="AN9" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="AH9" s="77">
+      <c r="AO9" s="77">
         <v>44875</v>
       </c>
-      <c r="AK9" s="52" t="s">
+      <c r="AR9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="AL9" s="52"/>
-      <c r="AM9" s="52" t="s">
+      <c r="AS9" s="52"/>
+      <c r="AT9" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="AN9" s="77">
+      <c r="AU9" s="77">
         <v>44840</v>
       </c>
-      <c r="AQ9" s="52" t="s">
+      <c r="AX9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="AR9" s="52"/>
-      <c r="AS9" s="52" t="s">
+      <c r="AY9" s="52"/>
+      <c r="AZ9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AT9" s="77">
+      <c r="BA9" s="77">
         <v>44807</v>
       </c>
-      <c r="AV9" s="52" t="s">
+      <c r="BC9" s="52" t="s">
         <v>24</v>
-      </c>
-      <c r="AW9" s="52"/>
-      <c r="AX9" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="AY9" s="58">
-        <v>44779</v>
-      </c>
-      <c r="BC9" s="52" t="s">
-        <v>25</v>
       </c>
       <c r="BD9" s="52"/>
       <c r="BE9" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF9" s="58">
+        <v>44779</v>
+      </c>
+      <c r="BJ9" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="BK9" s="52"/>
+      <c r="BL9" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="BF9" s="57">
+      <c r="BM9" s="57">
         <v>44749</v>
-      </c>
-      <c r="BI9" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="BJ9" s="52"/>
-      <c r="BK9" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="BL9" s="59">
-        <v>44693</v>
       </c>
       <c r="BP9" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="BQ9" s="65" t="s">
+      <c r="BQ9" s="52"/>
+      <c r="BR9" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="BR9" s="59">
+      <c r="BS9" s="59">
+        <v>44693</v>
+      </c>
+      <c r="BW9" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="BX9" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="BY9" s="59">
         <v>44721</v>
       </c>
     </row>
-    <row r="10" spans="1:70" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="60"/>
+    <row r="10" spans="2:77" ht="21" x14ac:dyDescent="0.35">
       <c r="B10" s="60"/>
       <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="H10" s="60"/>
       <c r="I10" s="60"/>
       <c r="J10" s="60"/>
       <c r="K10" s="61"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
       <c r="O10" s="60"/>
-      <c r="P10" s="61"/>
-      <c r="S10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="61"/>
       <c r="T10" s="60"/>
       <c r="U10" s="60"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="62"/>
-      <c r="BC10" s="60"/>
-      <c r="BD10" s="60"/>
-      <c r="BE10" s="60"/>
-      <c r="BF10" s="61"/>
-      <c r="BI10" s="52"/>
-      <c r="BJ10" s="52"/>
-      <c r="BK10" s="52"/>
-      <c r="BL10" s="54"/>
-      <c r="BP10" s="60"/>
-      <c r="BQ10" s="64"/>
-      <c r="BR10" s="61"/>
-    </row>
-    <row r="11" spans="1:70" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="100" t="s">
+      <c r="V10" s="60"/>
+      <c r="W10" s="61"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="61"/>
+      <c r="AD10" s="62"/>
+      <c r="BJ10" s="60"/>
+      <c r="BK10" s="60"/>
+      <c r="BL10" s="60"/>
+      <c r="BM10" s="61"/>
+      <c r="BP10" s="52"/>
+      <c r="BQ10" s="52"/>
+      <c r="BR10" s="52"/>
+      <c r="BS10" s="54"/>
+      <c r="BW10" s="60"/>
+      <c r="BX10" s="64"/>
+      <c r="BY10" s="61"/>
+    </row>
+    <row r="11" spans="2:77" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B11" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="C11" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="D11" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="61"/>
       <c r="H11" s="100" t="s">
         <v>24</v>
       </c>
@@ -2844,236 +2895,252 @@
       <c r="J11" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="57">
+      <c r="K11" s="57"/>
+      <c r="O11" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="100" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" s="57">
         <v>44993</v>
       </c>
-      <c r="M11" s="52" t="s">
+      <c r="T11" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52" t="s">
+      <c r="U11" s="52"/>
+      <c r="V11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="59">
+      <c r="W11" s="59">
         <v>44967</v>
       </c>
-      <c r="S11" s="52" t="s">
+      <c r="Z11" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52" t="s">
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="V11" s="59">
+      <c r="AC11" s="59">
         <v>44932</v>
       </c>
-      <c r="Y11" s="52" t="s">
+      <c r="AF11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52" t="s">
+      <c r="AG11" s="52"/>
+      <c r="AH11" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="AB11" s="77">
+      <c r="AI11" s="77">
         <v>44903</v>
       </c>
-      <c r="AE11" s="52" t="s">
+      <c r="AL11" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="52" t="s">
+      <c r="AM11" s="52"/>
+      <c r="AN11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AH11" s="59">
+      <c r="AO11" s="59">
         <v>44876</v>
       </c>
-      <c r="AK11" s="52" t="s">
+      <c r="AR11" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="AL11" s="52"/>
-      <c r="AM11" s="52" t="s">
+      <c r="AS11" s="52"/>
+      <c r="AT11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AN11" s="59">
+      <c r="AU11" s="59">
         <v>44841</v>
       </c>
-      <c r="AQ11" s="52" t="s">
+      <c r="AX11" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="AR11" s="52"/>
-      <c r="AS11" s="52" t="s">
+      <c r="AY11" s="52"/>
+      <c r="AZ11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AT11" s="59">
+      <c r="BA11" s="59">
         <v>44812</v>
       </c>
-      <c r="AV11" s="52" t="s">
+      <c r="BC11" s="52" t="s">
         <v>25</v>
-      </c>
-      <c r="AW11" s="52"/>
-      <c r="AX11" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY11" s="57">
-        <v>44784</v>
-      </c>
-      <c r="BC11" s="52" t="s">
-        <v>24</v>
       </c>
       <c r="BD11" s="52"/>
       <c r="BE11" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF11" s="57">
+        <v>44784</v>
+      </c>
+      <c r="BJ11" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK11" s="52"/>
+      <c r="BL11" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="BF11" s="58">
+      <c r="BM11" s="58">
         <v>44751</v>
       </c>
-      <c r="BI11" s="52" t="s">
+      <c r="BP11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="BJ11" s="60"/>
-      <c r="BK11" s="52" t="s">
+      <c r="BQ11" s="60"/>
+      <c r="BR11" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="BL11" s="57">
+      <c r="BS11" s="57">
         <v>44695</v>
       </c>
-      <c r="BP11" s="52" t="s">
+      <c r="BW11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="BQ11" s="65" t="s">
+      <c r="BX11" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="BR11" s="58">
+      <c r="BY11" s="58">
         <v>44723</v>
       </c>
     </row>
-    <row r="12" spans="1:70" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="60"/>
+    <row r="12" spans="2:77" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="60"/>
       <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="H12" s="60"/>
       <c r="I12" s="60"/>
       <c r="J12" s="60"/>
       <c r="K12" s="61"/>
-      <c r="AE12" s="70"/>
-      <c r="AF12" s="70"/>
-      <c r="AG12" s="71"/>
-      <c r="AH12" s="61"/>
-      <c r="AK12" s="70"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="61"/>
       <c r="AL12" s="70"/>
-      <c r="AM12" s="71"/>
-      <c r="AN12" s="61"/>
-      <c r="AQ12" s="70"/>
+      <c r="AM12" s="70"/>
+      <c r="AN12" s="71"/>
+      <c r="AO12" s="61"/>
       <c r="AR12" s="70"/>
-      <c r="AS12" s="71"/>
-      <c r="AT12" s="61"/>
-      <c r="AV12" s="70"/>
-      <c r="AW12" s="70"/>
-      <c r="AX12" s="71"/>
-      <c r="AY12" s="61"/>
-      <c r="BC12" s="60"/>
-      <c r="BD12" s="60"/>
-      <c r="BE12" s="60"/>
+      <c r="AS12" s="70"/>
+      <c r="AT12" s="71"/>
+      <c r="AU12" s="61"/>
+      <c r="AX12" s="70"/>
+      <c r="AY12" s="70"/>
+      <c r="AZ12" s="71"/>
+      <c r="BA12" s="61"/>
+      <c r="BC12" s="70"/>
+      <c r="BD12" s="70"/>
+      <c r="BE12" s="71"/>
       <c r="BF12" s="61"/>
-      <c r="BI12" s="52"/>
-      <c r="BJ12" s="52"/>
-      <c r="BK12" s="52"/>
-      <c r="BL12" s="54"/>
-      <c r="BP12" s="60"/>
-      <c r="BQ12" s="64"/>
-      <c r="BR12" s="61"/>
-    </row>
-    <row r="13" spans="1:70" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="69" t="s">
+      <c r="BJ12" s="60"/>
+      <c r="BK12" s="60"/>
+      <c r="BL12" s="60"/>
+      <c r="BM12" s="61"/>
+      <c r="BP12" s="52"/>
+      <c r="BQ12" s="52"/>
+      <c r="BR12" s="52"/>
+      <c r="BS12" s="54"/>
+      <c r="BW12" s="60"/>
+      <c r="BX12" s="64"/>
+      <c r="BY12" s="61"/>
+    </row>
+    <row r="13" spans="2:77" ht="21" x14ac:dyDescent="0.35">
+      <c r="B13" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="76">
+      <c r="E13" s="76">
+        <v>45057</v>
+      </c>
+      <c r="F13" s="61"/>
+      <c r="H13" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="69"/>
+      <c r="J13" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="76">
         <v>45029</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="O13" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52" t="s">
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="59">
+      <c r="R13" s="59">
         <v>44995</v>
       </c>
-      <c r="M13" s="52" t="s">
+      <c r="T13" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52" t="s">
+      <c r="U13" s="52"/>
+      <c r="V13" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="77">
+      <c r="W13" s="77">
         <v>44966</v>
       </c>
-      <c r="S13" s="52" t="s">
+      <c r="Z13" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52" t="s">
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="V13" s="77">
+      <c r="AC13" s="77">
         <v>44938</v>
       </c>
-      <c r="Y13" s="52" t="s">
+      <c r="AF13" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52" t="s">
+      <c r="AG13" s="52"/>
+      <c r="AH13" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AB13" s="59">
+      <c r="AI13" s="59">
         <v>44904</v>
       </c>
-      <c r="AE13" s="52" t="s">
+      <c r="AL13" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="52" t="s">
+      <c r="AM13" s="52"/>
+      <c r="AN13" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="AH13" s="79">
+      <c r="AO13" s="79">
         <v>44883</v>
       </c>
-      <c r="AK13" s="52" t="s">
+      <c r="AR13" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AL13" s="52"/>
-      <c r="AM13" s="52" t="s">
+      <c r="AS13" s="52"/>
+      <c r="AT13" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="AN13" s="79">
+      <c r="AU13" s="79">
         <v>44848</v>
       </c>
-      <c r="AQ13" s="52" t="s">
+      <c r="AX13" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AR13" s="52"/>
-      <c r="AS13" s="52" t="s">
+      <c r="AY13" s="52"/>
+      <c r="AZ13" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="AT13" s="75">
+      <c r="BA13" s="75">
         <v>44813</v>
-      </c>
-      <c r="AV13" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="AW13" s="52"/>
-      <c r="AX13" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="AY13" s="73">
-        <v>44785</v>
       </c>
       <c r="BC13" s="52" t="s">
         <v>21</v>
@@ -3083,88 +3150,104 @@
         <v>22</v>
       </c>
       <c r="BF13" s="73">
+        <v>44785</v>
+      </c>
+      <c r="BJ13" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="BK13" s="52"/>
+      <c r="BL13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM13" s="73">
         <v>44756</v>
       </c>
-      <c r="BI13" s="52" t="s">
+      <c r="BP13" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="BJ13" s="52"/>
-      <c r="BK13" s="52" t="s">
+      <c r="BQ13" s="52"/>
+      <c r="BR13" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="BL13" s="58">
+      <c r="BS13" s="58">
         <v>44695</v>
       </c>
-      <c r="BP13" s="52" t="s">
+      <c r="BW13" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="BQ13" s="65" t="s">
+      <c r="BX13" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="BR13" s="59">
+      <c r="BY13" s="59">
         <v>44728</v>
       </c>
     </row>
-    <row r="14" spans="1:70" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="70"/>
+    <row r="14" spans="2:77" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="70"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="61"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="H14" s="70"/>
       <c r="I14" s="70"/>
       <c r="J14" s="71"/>
       <c r="K14" s="61"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="61"/>
-      <c r="S14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="61"/>
       <c r="T14" s="70"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="61"/>
-      <c r="Y14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="61"/>
       <c r="Z14" s="70"/>
-      <c r="AA14" s="71"/>
-      <c r="AB14" s="61"/>
-      <c r="AE14" s="60"/>
-      <c r="AF14" s="60"/>
-      <c r="AG14" s="60"/>
-      <c r="AH14" s="61"/>
-      <c r="AK14" s="60"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="61"/>
+      <c r="AF14" s="70"/>
+      <c r="AG14" s="70"/>
+      <c r="AH14" s="71"/>
+      <c r="AI14" s="61"/>
       <c r="AL14" s="60"/>
       <c r="AM14" s="60"/>
-      <c r="AN14" s="61"/>
-      <c r="AQ14" s="60"/>
+      <c r="AN14" s="60"/>
+      <c r="AO14" s="61"/>
       <c r="AR14" s="60"/>
       <c r="AS14" s="60"/>
-      <c r="AT14" s="61"/>
-      <c r="AV14" s="60"/>
-      <c r="AW14" s="60"/>
+      <c r="AT14" s="60"/>
+      <c r="AU14" s="61"/>
       <c r="AX14" s="60"/>
-      <c r="AY14" s="61"/>
+      <c r="AY14" s="60"/>
+      <c r="AZ14" s="60"/>
+      <c r="BA14" s="61"/>
       <c r="BC14" s="60"/>
       <c r="BD14" s="60"/>
       <c r="BE14" s="60"/>
       <c r="BF14" s="61"/>
-      <c r="BI14" s="52"/>
-      <c r="BJ14" s="52"/>
-      <c r="BK14" s="52"/>
-      <c r="BL14" s="54"/>
-      <c r="BP14" s="60"/>
-      <c r="BQ14" s="64"/>
-      <c r="BR14" s="61"/>
-    </row>
-    <row r="15" spans="1:70" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="52" t="s">
+      <c r="BJ14" s="60"/>
+      <c r="BK14" s="60"/>
+      <c r="BL14" s="60"/>
+      <c r="BM14" s="61"/>
+      <c r="BP14" s="52"/>
+      <c r="BQ14" s="52"/>
+      <c r="BR14" s="52"/>
+      <c r="BS14" s="54"/>
+      <c r="BW14" s="60"/>
+      <c r="BX14" s="64"/>
+      <c r="BY14" s="61"/>
+    </row>
+    <row r="15" spans="2:77" ht="21" x14ac:dyDescent="0.35">
+      <c r="B15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="52"/>
+      <c r="D15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="79">
-        <v>45030</v>
-      </c>
+      <c r="E15" s="79">
+        <v>45058</v>
+      </c>
+      <c r="F15" s="61"/>
       <c r="H15" s="52" t="s">
         <v>21</v>
       </c>
@@ -3173,160 +3256,176 @@
         <v>22</v>
       </c>
       <c r="K15" s="79">
+        <v>45030</v>
+      </c>
+      <c r="O15" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="R15" s="79">
         <v>45001</v>
       </c>
-      <c r="M15" s="52" t="s">
+      <c r="T15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52" t="s">
+      <c r="U15" s="52"/>
+      <c r="V15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="P15" s="79">
+      <c r="W15" s="79">
         <v>44973</v>
       </c>
-      <c r="S15" s="52" t="s">
+      <c r="Z15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52" t="s">
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="V15" s="79">
+      <c r="AC15" s="79">
         <v>44946</v>
       </c>
-      <c r="Y15" s="52" t="s">
+      <c r="AF15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52" t="s">
+      <c r="AG15" s="52"/>
+      <c r="AH15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="AB15" s="79">
+      <c r="AI15" s="79">
         <v>44911</v>
       </c>
-      <c r="AE15" s="52" t="s">
+      <c r="AL15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="AF15" s="60"/>
-      <c r="AG15" s="53" t="s">
+      <c r="AM15" s="60"/>
+      <c r="AN15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AH15" s="78">
+      <c r="AO15" s="78">
         <v>44884</v>
       </c>
-      <c r="AK15" s="52" t="s">
+      <c r="AR15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="AL15" s="60"/>
-      <c r="AM15" s="53" t="s">
+      <c r="AS15" s="60"/>
+      <c r="AT15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AN15" s="78">
+      <c r="AU15" s="78">
         <v>44849</v>
       </c>
-      <c r="AQ15" s="52" t="s">
+      <c r="AX15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="AR15" s="60"/>
-      <c r="AS15" s="53" t="s">
+      <c r="AY15" s="60"/>
+      <c r="AZ15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AT15" s="78">
+      <c r="BA15" s="78">
         <v>44814</v>
-      </c>
-      <c r="AV15" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW15" s="60"/>
-      <c r="AX15" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="AY15" s="74">
-        <v>44786</v>
       </c>
       <c r="BC15" s="52" t="s">
         <v>19</v>
       </c>
       <c r="BD15" s="60"/>
-      <c r="BE15" s="52" t="s">
+      <c r="BE15" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="BF15" s="74">
+        <v>44786</v>
+      </c>
+      <c r="BJ15" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK15" s="60"/>
+      <c r="BL15" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="BF15" s="74">
+      <c r="BM15" s="74">
         <v>44758</v>
       </c>
-      <c r="BI15" s="52" t="s">
+      <c r="BP15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="BJ15" s="52"/>
-      <c r="BK15" s="52" t="s">
+      <c r="BQ15" s="52"/>
+      <c r="BR15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="BL15" s="59">
+      <c r="BS15" s="59">
         <v>44700</v>
       </c>
-      <c r="BP15" s="52" t="s">
+      <c r="BW15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="BQ15" s="65" t="s">
+      <c r="BX15" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="BR15" s="57">
+      <c r="BY15" s="57">
         <v>44730</v>
       </c>
     </row>
-    <row r="16" spans="1:70" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="60"/>
+    <row r="16" spans="2:77" ht="21" x14ac:dyDescent="0.35">
       <c r="B16" s="60"/>
       <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
       <c r="H16" s="60"/>
       <c r="I16" s="60"/>
       <c r="J16" s="60"/>
       <c r="K16" s="61"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
       <c r="O16" s="60"/>
-      <c r="P16" s="61"/>
-      <c r="S16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="61"/>
       <c r="T16" s="60"/>
       <c r="U16" s="60"/>
-      <c r="V16" s="61"/>
-      <c r="Y16" s="60"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="61"/>
       <c r="Z16" s="60"/>
       <c r="AA16" s="60"/>
-      <c r="AB16" s="61"/>
-      <c r="AQ16" s="52"/>
-      <c r="AR16" s="52"/>
-      <c r="AS16" s="52"/>
-      <c r="AT16" s="54"/>
-      <c r="AV16" s="52"/>
-      <c r="AW16" s="52"/>
+      <c r="AB16" s="60"/>
+      <c r="AC16" s="61"/>
+      <c r="AF16" s="60"/>
+      <c r="AG16" s="60"/>
+      <c r="AH16" s="60"/>
+      <c r="AI16" s="61"/>
       <c r="AX16" s="52"/>
-      <c r="AY16" s="54"/>
+      <c r="AY16" s="52"/>
+      <c r="AZ16" s="52"/>
+      <c r="BA16" s="54"/>
       <c r="BC16" s="52"/>
       <c r="BD16" s="52"/>
       <c r="BE16" s="52"/>
       <c r="BF16" s="54"/>
-      <c r="BI16" s="52"/>
       <c r="BJ16" s="52"/>
       <c r="BK16" s="52"/>
-      <c r="BL16" s="54"/>
+      <c r="BL16" s="52"/>
+      <c r="BM16" s="54"/>
       <c r="BP16" s="52"/>
-      <c r="BQ16" s="65"/>
-      <c r="BR16" s="54"/>
-    </row>
-    <row r="17" spans="1:70" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="52" t="s">
+      <c r="BQ16" s="52"/>
+      <c r="BR16" s="52"/>
+      <c r="BS16" s="54"/>
+      <c r="BW16" s="52"/>
+      <c r="BX16" s="65"/>
+      <c r="BY16" s="54"/>
+    </row>
+    <row r="17" spans="2:77" ht="21" x14ac:dyDescent="0.35">
+      <c r="B17" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="60"/>
+      <c r="D17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="78">
-        <v>45031</v>
-      </c>
+      <c r="E17" s="78">
+        <v>45059</v>
+      </c>
+      <c r="F17" s="61"/>
       <c r="H17" s="52" t="s">
         <v>19</v>
       </c>
@@ -3335,159 +3434,179 @@
         <v>15</v>
       </c>
       <c r="K17" s="78">
+        <v>45031</v>
+      </c>
+      <c r="O17" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="78">
         <v>45003</v>
       </c>
-      <c r="M17" s="52" t="s">
+      <c r="T17" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="N17" s="60"/>
-      <c r="O17" s="53" t="s">
+      <c r="U17" s="60"/>
+      <c r="V17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="P17" s="78">
+      <c r="W17" s="78">
         <v>44982</v>
       </c>
-      <c r="S17" s="52" t="s">
+      <c r="Z17" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="T17" s="60"/>
-      <c r="U17" s="53" t="s">
+      <c r="AA17" s="60"/>
+      <c r="AB17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="V17" s="78">
+      <c r="AC17" s="78">
         <v>44954</v>
       </c>
-      <c r="Y17" s="52" t="s">
+      <c r="AF17" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="53" t="s">
+      <c r="AG17" s="60"/>
+      <c r="AH17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AB17" s="78">
+      <c r="AI17" s="78">
         <v>44912</v>
       </c>
-      <c r="BI17" s="60"/>
-      <c r="BJ17" s="60"/>
-      <c r="BK17" s="60"/>
-      <c r="BL17" s="61"/>
-      <c r="BP17" s="52"/>
-      <c r="BQ17" s="65"/>
-      <c r="BR17" s="54"/>
-    </row>
-    <row r="18" spans="1:70" ht="21" x14ac:dyDescent="0.35">
-      <c r="A18" s="62"/>
+      <c r="BP17" s="60"/>
+      <c r="BQ17" s="60"/>
+      <c r="BR17" s="60"/>
+      <c r="BS17" s="61"/>
+      <c r="BW17" s="52"/>
+      <c r="BX17" s="65"/>
+      <c r="BY17" s="54"/>
+    </row>
+    <row r="18" spans="2:77" ht="21" x14ac:dyDescent="0.35">
       <c r="B18" s="62"/>
       <c r="C18" s="62"/>
       <c r="D18" s="62"/>
-      <c r="BI18" s="52"/>
-      <c r="BJ18" s="52"/>
-      <c r="BK18" s="52"/>
-      <c r="BL18" s="54"/>
+      <c r="E18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
       <c r="BP18" s="52"/>
-      <c r="BQ18" s="65"/>
-      <c r="BR18" s="54"/>
-    </row>
-    <row r="19" spans="1:70" ht="21" x14ac:dyDescent="0.35">
-      <c r="A19" s="70"/>
+      <c r="BQ18" s="52"/>
+      <c r="BR18" s="52"/>
+      <c r="BS18" s="54"/>
+      <c r="BW18" s="52"/>
+      <c r="BX18" s="65"/>
+      <c r="BY18" s="54"/>
+    </row>
+    <row r="19" spans="2:77" ht="21" x14ac:dyDescent="0.35">
       <c r="B19" s="70"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="61"/>
-      <c r="BI19" s="52"/>
-      <c r="BJ19" s="52"/>
-      <c r="BK19" s="52"/>
-      <c r="BL19" s="54"/>
-    </row>
-    <row r="20" spans="1:70" ht="21" x14ac:dyDescent="0.35">
-      <c r="BI20" s="52"/>
-      <c r="BJ20" s="52"/>
-      <c r="BK20" s="52"/>
-      <c r="BL20" s="54"/>
-    </row>
-    <row r="21" spans="1:70" ht="21" x14ac:dyDescent="0.35">
-      <c r="BI21" s="52"/>
-      <c r="BJ21" s="52"/>
-      <c r="BK21" s="52"/>
-      <c r="BL21" s="54"/>
-    </row>
-    <row r="22" spans="1:70" ht="21" x14ac:dyDescent="0.35">
-      <c r="BI22" s="52"/>
-      <c r="BJ22" s="52"/>
-      <c r="BK22" s="52"/>
-      <c r="BL22" s="54"/>
-    </row>
-    <row r="23" spans="1:70" ht="21" x14ac:dyDescent="0.35">
-      <c r="BI23" s="52"/>
-      <c r="BJ23" s="52"/>
-      <c r="BK23" s="52"/>
-      <c r="BL23" s="54"/>
-    </row>
-    <row r="24" spans="1:70" ht="21" x14ac:dyDescent="0.35">
-      <c r="BI24" s="52"/>
-      <c r="BJ24" s="52"/>
-      <c r="BK24" s="52"/>
-      <c r="BL24" s="54"/>
-    </row>
-    <row r="25" spans="1:70" ht="21" x14ac:dyDescent="0.35">
-      <c r="BI25" s="52"/>
-      <c r="BJ25" s="52"/>
-      <c r="BK25" s="52"/>
-      <c r="BL25" s="54"/>
-    </row>
-    <row r="26" spans="1:70" ht="21" x14ac:dyDescent="0.35">
-      <c r="BI26" s="52"/>
-      <c r="BJ26" s="52"/>
-      <c r="BK26" s="52"/>
-      <c r="BL26" s="54"/>
-    </row>
-    <row r="27" spans="1:70" ht="21" x14ac:dyDescent="0.35">
-      <c r="BI27" s="52"/>
-      <c r="BJ27" s="52"/>
-      <c r="BK27" s="52"/>
-      <c r="BL27" s="54"/>
-    </row>
-    <row r="28" spans="1:70" ht="21" x14ac:dyDescent="0.35">
-      <c r="BI28" s="52"/>
-      <c r="BJ28" s="52"/>
-      <c r="BK28" s="52"/>
-      <c r="BL28" s="54"/>
-    </row>
-    <row r="29" spans="1:70" ht="21" x14ac:dyDescent="0.35">
-      <c r="BI29" s="52"/>
-      <c r="BJ29" s="52"/>
-      <c r="BK29" s="52"/>
-      <c r="BL29" s="54"/>
-    </row>
-    <row r="30" spans="1:70" ht="21" x14ac:dyDescent="0.35">
-      <c r="BI30" s="52"/>
-      <c r="BJ30" s="52"/>
-      <c r="BK30" s="52"/>
-      <c r="BL30" s="54"/>
-    </row>
-    <row r="31" spans="1:70" ht="21" x14ac:dyDescent="0.35">
-      <c r="BI31" s="52"/>
-      <c r="BJ31" s="52"/>
-      <c r="BK31" s="52"/>
-      <c r="BL31" s="54"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="61"/>
+      <c r="BP19" s="52"/>
+      <c r="BQ19" s="52"/>
+      <c r="BR19" s="52"/>
+      <c r="BS19" s="54"/>
+    </row>
+    <row r="20" spans="2:77" ht="21" x14ac:dyDescent="0.35">
+      <c r="BP20" s="52"/>
+      <c r="BQ20" s="52"/>
+      <c r="BR20" s="52"/>
+      <c r="BS20" s="54"/>
+    </row>
+    <row r="21" spans="2:77" ht="21" x14ac:dyDescent="0.35">
+      <c r="BP21" s="52"/>
+      <c r="BQ21" s="52"/>
+      <c r="BR21" s="52"/>
+      <c r="BS21" s="54"/>
+    </row>
+    <row r="22" spans="2:77" ht="21" x14ac:dyDescent="0.35">
+      <c r="BP22" s="52"/>
+      <c r="BQ22" s="52"/>
+      <c r="BR22" s="52"/>
+      <c r="BS22" s="54"/>
+    </row>
+    <row r="23" spans="2:77" ht="21" x14ac:dyDescent="0.35">
+      <c r="BP23" s="52"/>
+      <c r="BQ23" s="52"/>
+      <c r="BR23" s="52"/>
+      <c r="BS23" s="54"/>
+    </row>
+    <row r="24" spans="2:77" ht="21" x14ac:dyDescent="0.35">
+      <c r="BP24" s="52"/>
+      <c r="BQ24" s="52"/>
+      <c r="BR24" s="52"/>
+      <c r="BS24" s="54"/>
+    </row>
+    <row r="25" spans="2:77" ht="21" x14ac:dyDescent="0.35">
+      <c r="BP25" s="52"/>
+      <c r="BQ25" s="52"/>
+      <c r="BR25" s="52"/>
+      <c r="BS25" s="54"/>
+    </row>
+    <row r="26" spans="2:77" ht="21" x14ac:dyDescent="0.35">
+      <c r="BP26" s="52"/>
+      <c r="BQ26" s="52"/>
+      <c r="BR26" s="52"/>
+      <c r="BS26" s="54"/>
+    </row>
+    <row r="27" spans="2:77" ht="21" x14ac:dyDescent="0.35">
+      <c r="BP27" s="52"/>
+      <c r="BQ27" s="52"/>
+      <c r="BR27" s="52"/>
+      <c r="BS27" s="54"/>
+    </row>
+    <row r="28" spans="2:77" ht="21" x14ac:dyDescent="0.35">
+      <c r="BP28" s="52"/>
+      <c r="BQ28" s="52"/>
+      <c r="BR28" s="52"/>
+      <c r="BS28" s="54"/>
+    </row>
+    <row r="29" spans="2:77" ht="21" x14ac:dyDescent="0.35">
+      <c r="BP29" s="52"/>
+      <c r="BQ29" s="52"/>
+      <c r="BR29" s="52"/>
+      <c r="BS29" s="54"/>
+    </row>
+    <row r="30" spans="2:77" ht="21" x14ac:dyDescent="0.35">
+      <c r="BP30" s="52"/>
+      <c r="BQ30" s="52"/>
+      <c r="BR30" s="52"/>
+      <c r="BS30" s="54"/>
+    </row>
+    <row r="31" spans="2:77" ht="21" x14ac:dyDescent="0.35">
+      <c r="BP31" s="52"/>
+      <c r="BQ31" s="52"/>
+      <c r="BR31" s="52"/>
+      <c r="BS31" s="54"/>
     </row>
   </sheetData>
-  <sortState ref="H11:K13">
-    <sortCondition ref="K11:K13"/>
+  <sortState ref="O11:R13">
+    <sortCondition ref="R11:R13"/>
   </sortState>
-  <mergeCells count="13">
-    <mergeCell ref="BP3:BR3"/>
+  <mergeCells count="14">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="BP5:BQ5"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BJ3:BL3"/>
     <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="BI3:BL3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="BP3:BS3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
@@ -939,6 +939,10 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -956,10 +960,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1309,9 +1309,9 @@
   </sheetPr>
   <dimension ref="A2:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1332,22 +1332,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="106"/>
       <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2011,16 +2011,36 @@
       <c r="A21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="47"/>
+      <c r="B21" s="11">
+        <v>986</v>
+      </c>
+      <c r="C21" s="45">
+        <v>567</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1392</v>
+      </c>
+      <c r="E21" s="94">
+        <v>568</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1856</v>
+      </c>
+      <c r="G21" s="41">
+        <v>566</v>
+      </c>
+      <c r="H21" s="13">
+        <v>1856</v>
+      </c>
+      <c r="I21" s="45">
+        <v>562</v>
+      </c>
+      <c r="J21" s="26">
+        <v>1392</v>
+      </c>
+      <c r="K21" s="47">
+        <v>569</v>
+      </c>
       <c r="L21" s="13">
         <v>0</v>
       </c>
@@ -2298,7 +2318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:BY31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -2349,48 +2369,48 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:77" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AL3" s="106" t="s">
+      <c r="AL3" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AM3" s="106"/>
-      <c r="AN3" s="106"/>
+      <c r="AM3" s="108"/>
+      <c r="AN3" s="108"/>
       <c r="AO3" s="68"/>
-      <c r="AR3" s="106" t="s">
+      <c r="AR3" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="106"/>
-      <c r="AT3" s="106"/>
+      <c r="AS3" s="108"/>
+      <c r="AT3" s="108"/>
       <c r="AU3" s="68"/>
-      <c r="AX3" s="106" t="s">
+      <c r="AX3" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AY3" s="106"/>
-      <c r="AZ3" s="106"/>
+      <c r="AY3" s="108"/>
+      <c r="AZ3" s="108"/>
       <c r="BA3" s="68"/>
-      <c r="BC3" s="106" t="s">
+      <c r="BC3" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="BD3" s="106"/>
-      <c r="BE3" s="106"/>
+      <c r="BD3" s="108"/>
+      <c r="BE3" s="108"/>
       <c r="BF3" s="68"/>
-      <c r="BJ3" s="106" t="s">
+      <c r="BJ3" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="BK3" s="106"/>
-      <c r="BL3" s="106"/>
+      <c r="BK3" s="108"/>
+      <c r="BL3" s="108"/>
       <c r="BM3" s="68"/>
       <c r="BN3" s="67"/>
-      <c r="BP3" s="106" t="s">
+      <c r="BP3" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="BQ3" s="106"/>
-      <c r="BR3" s="106"/>
-      <c r="BS3" s="106"/>
-      <c r="BW3" s="106" t="s">
+      <c r="BQ3" s="108"/>
+      <c r="BR3" s="108"/>
+      <c r="BS3" s="108"/>
+      <c r="BW3" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="BX3" s="106"/>
-      <c r="BY3" s="106"/>
+      <c r="BX3" s="108"/>
+      <c r="BY3" s="108"/>
     </row>
     <row r="4" spans="2:77" x14ac:dyDescent="0.25">
       <c r="AO4" s="55"/>
@@ -2401,42 +2421,42 @@
       <c r="BY4" s="55"/>
     </row>
     <row r="5" spans="2:77" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="68"/>
-      <c r="F5" s="108"/>
-      <c r="H5" s="106" t="s">
+      <c r="F5" s="102"/>
+      <c r="H5" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
       <c r="K5" s="68"/>
-      <c r="O5" s="106" t="s">
+      <c r="O5" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
       <c r="R5" s="68"/>
-      <c r="T5" s="106" t="s">
+      <c r="T5" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="106"/>
-      <c r="V5" s="106"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="108"/>
       <c r="W5" s="68"/>
-      <c r="Z5" s="106" t="s">
+      <c r="Z5" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AA5" s="106"/>
-      <c r="AB5" s="106"/>
+      <c r="AA5" s="108"/>
+      <c r="AB5" s="108"/>
       <c r="AC5" s="68"/>
-      <c r="AF5" s="106" t="s">
+      <c r="AF5" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AG5" s="106"/>
-      <c r="AH5" s="106"/>
+      <c r="AG5" s="108"/>
+      <c r="AH5" s="108"/>
       <c r="AI5" s="68"/>
       <c r="AL5" s="69" t="s">
         <v>23</v>
@@ -2488,10 +2508,10 @@
       <c r="BM5" s="59">
         <v>44747</v>
       </c>
-      <c r="BP5" s="107" t="s">
+      <c r="BP5" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="BQ5" s="107"/>
+      <c r="BQ5" s="109"/>
       <c r="BR5" s="53" t="s">
         <v>15</v>
       </c>
@@ -2510,7 +2530,7 @@
     </row>
     <row r="6" spans="2:77" ht="21" x14ac:dyDescent="0.35">
       <c r="E6" s="55"/>
-      <c r="F6" s="109"/>
+      <c r="F6" s="103"/>
       <c r="K6" s="55"/>
       <c r="R6" s="55"/>
       <c r="W6" s="55"/>
@@ -3593,11 +3613,6 @@
     <sortCondition ref="R11:R13"/>
   </sortState>
   <mergeCells count="14">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="Z5:AB5"/>
     <mergeCell ref="BP5:BQ5"/>
     <mergeCell ref="AF5:AH5"/>
     <mergeCell ref="BW3:BY3"/>
@@ -3607,6 +3622,11 @@
     <mergeCell ref="AR3:AT3"/>
     <mergeCell ref="AX3:AZ3"/>
     <mergeCell ref="BP3:BS3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="Z5:AB5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="44">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>ABRIL,..2023</t>
+  </si>
+  <si>
+    <t>MAYO.,2023</t>
   </si>
 </sst>
 </file>
@@ -702,7 +705,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -917,24 +920,9 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -943,6 +931,14 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1309,9 +1305,9 @@
   </sheetPr>
   <dimension ref="A2:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1332,22 +1328,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="106"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
       <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1979,7 +1975,7 @@
       <c r="D20" s="15">
         <v>1392</v>
       </c>
-      <c r="E20" s="94">
+      <c r="E20" s="90">
         <v>543</v>
       </c>
       <c r="F20" s="13">
@@ -2020,7 +2016,7 @@
       <c r="D21" s="13">
         <v>1392</v>
       </c>
-      <c r="E21" s="94">
+      <c r="E21" s="90">
         <v>568</v>
       </c>
       <c r="F21" s="13">
@@ -2049,259 +2045,265 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="93"/>
+      <c r="A22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="95"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="41">
+        <v>581</v>
+      </c>
+      <c r="H22" s="13">
+        <v>1856</v>
+      </c>
+      <c r="I22" s="45"/>
       <c r="J22" s="98"/>
       <c r="K22" s="99"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="91"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="100"/>
     </row>
     <row r="23" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="93"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="45"/>
       <c r="J23" s="98"/>
       <c r="K23" s="99"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="91"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="100"/>
     </row>
     <row r="24" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="93"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="45"/>
       <c r="J24" s="98"/>
       <c r="K24" s="99"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="91"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="100"/>
     </row>
     <row r="25" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="93"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="45"/>
       <c r="J25" s="98"/>
       <c r="K25" s="99"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="91"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="100"/>
     </row>
     <row r="26" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="93"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="98"/>
       <c r="K26" s="99"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="91"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="100"/>
     </row>
     <row r="27" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="93"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="45"/>
       <c r="J27" s="98"/>
       <c r="K27" s="99"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="91"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="100"/>
     </row>
     <row r="28" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="93"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="45"/>
       <c r="J28" s="98"/>
       <c r="K28" s="99"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="91"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="100"/>
     </row>
     <row r="29" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="93"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="45"/>
       <c r="J29" s="98"/>
       <c r="K29" s="99"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="91"/>
+      <c r="L29" s="96"/>
+      <c r="M29" s="100"/>
     </row>
     <row r="30" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="93"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="45"/>
       <c r="J30" s="98"/>
       <c r="K30" s="99"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="91"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="100"/>
     </row>
     <row r="31" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="93"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="45"/>
       <c r="J31" s="98"/>
       <c r="K31" s="99"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="91"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="100"/>
     </row>
     <row r="32" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="93"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="45"/>
       <c r="J32" s="98"/>
       <c r="K32" s="99"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="91"/>
+      <c r="L32" s="96"/>
+      <c r="M32" s="100"/>
     </row>
     <row r="33" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="93"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="45"/>
       <c r="J33" s="98"/>
       <c r="K33" s="99"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="91"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="100"/>
     </row>
     <row r="34" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="93"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="45"/>
       <c r="J34" s="98"/>
       <c r="K34" s="99"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="91"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="100"/>
     </row>
     <row r="35" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="93"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="45"/>
       <c r="J35" s="98"/>
       <c r="K35" s="99"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="91"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="100"/>
     </row>
     <row r="36" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="93"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="45"/>
       <c r="J36" s="98"/>
       <c r="K36" s="99"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="91"/>
+      <c r="L36" s="96"/>
+      <c r="M36" s="100"/>
     </row>
     <row r="37" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="93"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="45"/>
       <c r="J37" s="98"/>
       <c r="K37" s="99"/>
-      <c r="L37" s="92"/>
-      <c r="M37" s="91"/>
+      <c r="L37" s="96"/>
+      <c r="M37" s="100"/>
     </row>
     <row r="38" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
-      <c r="B38" s="90"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="93"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="45"/>
       <c r="J38" s="98"/>
       <c r="K38" s="99"/>
-      <c r="L38" s="92"/>
-      <c r="M38" s="91"/>
+      <c r="L38" s="96"/>
+      <c r="M38" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2316,29 +2318,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:BY31"/>
+  <dimension ref="B3:CE31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="62" customWidth="1"/>
     <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.85546875" customWidth="1"/>
-    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="62" customWidth="1"/>
+    <col min="14" max="14" width="36" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.85546875" customWidth="1"/>
+    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="36" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -2347,127 +2350,126 @@
     <col min="35" max="35" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="36" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="36" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="36" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="18.42578125" customWidth="1"/>
-    <col min="55" max="55" width="36" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.42578125" customWidth="1"/>
-    <col min="62" max="62" width="36" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="17.140625" customWidth="1"/>
-    <col min="65" max="65" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="68" max="69" width="19.5703125" customWidth="1"/>
-    <col min="70" max="70" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="18.42578125" style="55" customWidth="1"/>
-    <col min="75" max="75" width="36" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="19.5703125" style="24" customWidth="1"/>
-    <col min="77" max="77" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="36" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.42578125" customWidth="1"/>
+    <col min="61" max="61" width="36" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.42578125" customWidth="1"/>
+    <col min="68" max="68" width="36" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="17.140625" customWidth="1"/>
+    <col min="71" max="71" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="74" max="75" width="19.5703125" customWidth="1"/>
+    <col min="76" max="76" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="18.42578125" style="55" customWidth="1"/>
+    <col min="81" max="81" width="36" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="19.5703125" style="24" customWidth="1"/>
+    <col min="83" max="83" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:77" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AL3" s="108" t="s">
+    <row r="3" spans="2:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AR3" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="AM3" s="108"/>
-      <c r="AN3" s="108"/>
-      <c r="AO3" s="68"/>
-      <c r="AR3" s="108" t="s">
+      <c r="AS3" s="105"/>
+      <c r="AT3" s="105"/>
+      <c r="AU3" s="68"/>
+      <c r="AX3" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="108"/>
-      <c r="AT3" s="108"/>
-      <c r="AU3" s="68"/>
-      <c r="AX3" s="108" t="s">
+      <c r="AY3" s="105"/>
+      <c r="AZ3" s="105"/>
+      <c r="BA3" s="68"/>
+      <c r="BD3" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="AY3" s="108"/>
-      <c r="AZ3" s="108"/>
-      <c r="BA3" s="68"/>
-      <c r="BC3" s="108" t="s">
+      <c r="BE3" s="105"/>
+      <c r="BF3" s="105"/>
+      <c r="BG3" s="68"/>
+      <c r="BI3" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="BD3" s="108"/>
-      <c r="BE3" s="108"/>
-      <c r="BF3" s="68"/>
-      <c r="BJ3" s="108" t="s">
+      <c r="BJ3" s="105"/>
+      <c r="BK3" s="105"/>
+      <c r="BL3" s="68"/>
+      <c r="BP3" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="BK3" s="108"/>
-      <c r="BL3" s="108"/>
-      <c r="BM3" s="68"/>
-      <c r="BN3" s="67"/>
-      <c r="BP3" s="108" t="s">
+      <c r="BQ3" s="105"/>
+      <c r="BR3" s="105"/>
+      <c r="BS3" s="68"/>
+      <c r="BT3" s="67"/>
+      <c r="BV3" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="BQ3" s="108"/>
-      <c r="BR3" s="108"/>
-      <c r="BS3" s="108"/>
-      <c r="BW3" s="108" t="s">
+      <c r="BW3" s="105"/>
+      <c r="BX3" s="105"/>
+      <c r="BY3" s="105"/>
+      <c r="CC3" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="BX3" s="108"/>
-      <c r="BY3" s="108"/>
-    </row>
-    <row r="4" spans="2:77" x14ac:dyDescent="0.25">
-      <c r="AO4" s="55"/>
+      <c r="CD3" s="105"/>
+      <c r="CE3" s="105"/>
+    </row>
+    <row r="4" spans="2:83" x14ac:dyDescent="0.25">
       <c r="AU4" s="55"/>
       <c r="BA4" s="55"/>
-      <c r="BF4" s="55"/>
-      <c r="BM4" s="55"/>
-      <c r="BY4" s="55"/>
-    </row>
-    <row r="5" spans="2:77" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="108" t="s">
+      <c r="BG4" s="55"/>
+      <c r="BL4" s="55"/>
+      <c r="BS4" s="55"/>
+      <c r="CE4" s="55"/>
+    </row>
+    <row r="5" spans="2:83" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B5" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="68"/>
-      <c r="F5" s="102"/>
-      <c r="H5" s="108" t="s">
+      <c r="H5" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
       <c r="K5" s="68"/>
-      <c r="O5" s="108" t="s">
+      <c r="L5" s="93"/>
+      <c r="N5" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="68"/>
-      <c r="T5" s="108" t="s">
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="68"/>
+      <c r="U5" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="68"/>
-      <c r="Z5" s="108" t="s">
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="68"/>
+      <c r="Z5" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="AA5" s="108"/>
-      <c r="AB5" s="108"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="105"/>
       <c r="AC5" s="68"/>
-      <c r="AF5" s="108" t="s">
+      <c r="AF5" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="AG5" s="108"/>
-      <c r="AH5" s="108"/>
+      <c r="AG5" s="105"/>
+      <c r="AH5" s="105"/>
       <c r="AI5" s="68"/>
-      <c r="AL5" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM5" s="69"/>
-      <c r="AN5" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO5" s="76">
-        <v>44861</v>
-      </c>
+      <c r="AL5" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM5" s="105"/>
+      <c r="AN5" s="105"/>
+      <c r="AO5" s="68"/>
       <c r="AR5" s="69" t="s">
         <v>23</v>
       </c>
@@ -2476,98 +2478,108 @@
         <v>15</v>
       </c>
       <c r="AU5" s="76">
+        <v>44861</v>
+      </c>
+      <c r="AX5" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY5" s="69"/>
+      <c r="AZ5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA5" s="76">
         <v>44833</v>
       </c>
-      <c r="AX5" s="52" t="s">
+      <c r="BD5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AY5" s="52"/>
-      <c r="AZ5" s="52" t="s">
+      <c r="BE5" s="52"/>
+      <c r="BF5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="BA5" s="58">
+      <c r="BG5" s="58">
         <v>44804</v>
       </c>
-      <c r="BC5" s="52" t="s">
+      <c r="BI5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="BD5" s="52"/>
-      <c r="BE5" s="52" t="s">
+      <c r="BJ5" s="52"/>
+      <c r="BK5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="BF5" s="72">
+      <c r="BL5" s="72">
         <v>44776</v>
       </c>
-      <c r="BJ5" s="69" t="s">
+      <c r="BP5" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="BK5" s="69"/>
-      <c r="BL5" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="BM5" s="59">
-        <v>44747</v>
-      </c>
-      <c r="BP5" s="109" t="s">
-        <v>23</v>
-      </c>
-      <c r="BQ5" s="109"/>
+      <c r="BQ5" s="69"/>
       <c r="BR5" s="53" t="s">
         <v>15</v>
       </c>
       <c r="BS5" s="59">
+        <v>44747</v>
+      </c>
+      <c r="BV5" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="BW5" s="106"/>
+      <c r="BX5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="BY5" s="59">
         <v>44686</v>
       </c>
-      <c r="BW5" s="56" t="s">
+      <c r="CC5" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="BX5" s="63" t="s">
+      <c r="CD5" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="BY5" s="59">
+      <c r="CE5" s="59">
         <v>44714</v>
       </c>
     </row>
-    <row r="6" spans="2:77" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:83" ht="21" x14ac:dyDescent="0.35">
       <c r="E6" s="55"/>
-      <c r="F6" s="103"/>
       <c r="K6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="W6" s="55"/>
+      <c r="L6" s="94"/>
+      <c r="Q6" s="55"/>
+      <c r="X6" s="55"/>
       <c r="AC6" s="55"/>
       <c r="AI6" s="55"/>
-      <c r="AL6" s="52"/>
-      <c r="AM6" s="52"/>
-      <c r="AN6" s="52"/>
-      <c r="AO6" s="61"/>
+      <c r="AO6" s="55"/>
       <c r="AR6" s="52"/>
       <c r="AS6" s="52"/>
       <c r="AT6" s="52"/>
       <c r="AU6" s="61"/>
-      <c r="BJ6" s="70"/>
-      <c r="BK6" s="70"/>
-      <c r="BL6" s="71"/>
-      <c r="BM6" s="61"/>
-      <c r="BP6" s="52"/>
-      <c r="BQ6" s="52"/>
-      <c r="BR6" s="52"/>
-      <c r="BS6" s="54"/>
-      <c r="BW6" s="60"/>
-      <c r="BX6" s="64"/>
-      <c r="BY6" s="61"/>
-    </row>
-    <row r="7" spans="2:77" ht="21" x14ac:dyDescent="0.35">
+      <c r="AX6" s="52"/>
+      <c r="AY6" s="52"/>
+      <c r="AZ6" s="52"/>
+      <c r="BA6" s="61"/>
+      <c r="BP6" s="70"/>
+      <c r="BQ6" s="70"/>
+      <c r="BR6" s="71"/>
+      <c r="BS6" s="61"/>
+      <c r="BV6" s="52"/>
+      <c r="BW6" s="52"/>
+      <c r="BX6" s="52"/>
+      <c r="BY6" s="54"/>
+      <c r="CC6" s="60"/>
+      <c r="CD6" s="64"/>
+      <c r="CE6" s="61"/>
+    </row>
+    <row r="7" spans="2:83" ht="21" x14ac:dyDescent="0.35">
       <c r="B7" s="52" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="58">
-        <v>45049</v>
-      </c>
-      <c r="F7" s="61"/>
+        <v>18</v>
+      </c>
+      <c r="E7" s="59">
+        <v>45083</v>
+      </c>
       <c r="H7" s="52" t="s">
         <v>16</v>
       </c>
@@ -2576,27 +2588,28 @@
         <v>17</v>
       </c>
       <c r="K7" s="58">
+        <v>45049</v>
+      </c>
+      <c r="L7" s="61"/>
+      <c r="N7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="58">
         <v>45021</v>
       </c>
-      <c r="O7" s="52" t="s">
+      <c r="U7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52" t="s">
+      <c r="V7" s="52"/>
+      <c r="W7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="58">
+      <c r="X7" s="58">
         <v>44986</v>
-      </c>
-      <c r="T7" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="W7" s="58">
-        <v>44958</v>
       </c>
       <c r="Z7" s="52" t="s">
         <v>16</v>
@@ -2606,27 +2619,27 @@
         <v>17</v>
       </c>
       <c r="AC7" s="58">
+        <v>44958</v>
+      </c>
+      <c r="AF7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG7" s="52"/>
+      <c r="AH7" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI7" s="58">
         <v>44930</v>
       </c>
-      <c r="AF7" s="69" t="s">
+      <c r="AL7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="69"/>
-      <c r="AH7" s="53" t="s">
+      <c r="AM7" s="69"/>
+      <c r="AN7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AI7" s="76">
+      <c r="AO7" s="76">
         <v>44896</v>
-      </c>
-      <c r="AL7" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM7" s="52"/>
-      <c r="AN7" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO7" s="58">
-        <v>44874</v>
       </c>
       <c r="AR7" s="52" t="s">
         <v>16</v>
@@ -2636,37 +2649,37 @@
         <v>17</v>
       </c>
       <c r="AU7" s="58">
+        <v>44874</v>
+      </c>
+      <c r="AX7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY7" s="52"/>
+      <c r="AZ7" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA7" s="58">
         <v>44839</v>
       </c>
-      <c r="AX7" s="69" t="s">
+      <c r="BD7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AY7" s="69"/>
-      <c r="AZ7" s="53" t="s">
+      <c r="BE7" s="69"/>
+      <c r="BF7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="BA7" s="76">
+      <c r="BG7" s="76">
         <v>44805</v>
       </c>
-      <c r="BC7" s="69" t="s">
+      <c r="BI7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="BD7" s="69"/>
-      <c r="BE7" s="53" t="s">
+      <c r="BJ7" s="69"/>
+      <c r="BK7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="BF7" s="59">
+      <c r="BL7" s="59">
         <v>44777</v>
-      </c>
-      <c r="BJ7" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="BK7" s="52"/>
-      <c r="BL7" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="BM7" s="72">
-        <v>44748</v>
       </c>
       <c r="BP7" s="52" t="s">
         <v>16</v>
@@ -2675,70 +2688,83 @@
       <c r="BR7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="BS7" s="57">
+      <c r="BS7" s="72">
+        <v>44748</v>
+      </c>
+      <c r="BV7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="BW7" s="52"/>
+      <c r="BX7" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="BY7" s="57">
         <v>44691</v>
       </c>
-      <c r="BT7" s="62"/>
-      <c r="BW7" s="52" t="s">
+      <c r="BZ7" s="62"/>
+      <c r="CC7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="BX7" s="65" t="s">
+      <c r="CD7" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="BY7" s="57">
+      <c r="CE7" s="57">
         <v>44719</v>
       </c>
     </row>
-    <row r="8" spans="2:77" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:83" ht="21" x14ac:dyDescent="0.35">
       <c r="B8" s="70"/>
       <c r="C8" s="70"/>
       <c r="D8" s="71"/>
       <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
       <c r="H8" s="70"/>
       <c r="I8" s="70"/>
       <c r="J8" s="71"/>
       <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="N8" s="70"/>
       <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="61"/>
-      <c r="T8" s="70"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="61"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="61"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="61"/>
       <c r="Z8" s="70"/>
       <c r="AA8" s="70"/>
       <c r="AB8" s="71"/>
       <c r="AC8" s="61"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="52"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="71"/>
       <c r="AI8" s="61"/>
-      <c r="BJ8" s="60"/>
-      <c r="BK8" s="60"/>
-      <c r="BL8" s="60"/>
-      <c r="BM8" s="61"/>
-      <c r="BP8" s="52"/>
-      <c r="BQ8" s="52"/>
-      <c r="BR8" s="52"/>
-      <c r="BS8" s="54"/>
-      <c r="BW8" s="60"/>
-      <c r="BX8" s="64"/>
-      <c r="BY8" s="61"/>
-    </row>
-    <row r="9" spans="2:77" ht="21" x14ac:dyDescent="0.35">
+      <c r="AL8" s="52"/>
+      <c r="AM8" s="52"/>
+      <c r="AN8" s="52"/>
+      <c r="AO8" s="61"/>
+      <c r="BP8" s="60"/>
+      <c r="BQ8" s="60"/>
+      <c r="BR8" s="60"/>
+      <c r="BS8" s="61"/>
+      <c r="BV8" s="52"/>
+      <c r="BW8" s="52"/>
+      <c r="BX8" s="52"/>
+      <c r="BY8" s="54"/>
+      <c r="CC8" s="60"/>
+      <c r="CD8" s="64"/>
+      <c r="CE8" s="61"/>
+    </row>
+    <row r="9" spans="2:83" ht="21" x14ac:dyDescent="0.35">
       <c r="B9" s="52" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C9" s="52"/>
       <c r="D9" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="59">
-        <v>45055</v>
-      </c>
-      <c r="F9" s="61"/>
+        <v>17</v>
+      </c>
+      <c r="E9" s="58">
+        <v>45084</v>
+      </c>
       <c r="H9" s="52" t="s">
         <v>25</v>
       </c>
@@ -2747,27 +2773,28 @@
         <v>18</v>
       </c>
       <c r="K9" s="59">
+        <v>45055</v>
+      </c>
+      <c r="L9" s="61"/>
+      <c r="N9" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="59">
         <v>45027</v>
       </c>
-      <c r="O9" s="69" t="s">
+      <c r="U9" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="53" t="s">
+      <c r="V9" s="69"/>
+      <c r="W9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="R9" s="76">
+      <c r="X9" s="76">
         <v>44987</v>
-      </c>
-      <c r="T9" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="U9" s="69"/>
-      <c r="V9" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="W9" s="76">
-        <v>44959</v>
       </c>
       <c r="Z9" s="69" t="s">
         <v>23</v>
@@ -2777,27 +2804,27 @@
         <v>15</v>
       </c>
       <c r="AC9" s="76">
+        <v>44959</v>
+      </c>
+      <c r="AF9" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG9" s="69"/>
+      <c r="AH9" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI9" s="76">
         <v>44931</v>
       </c>
-      <c r="AF9" s="52" t="s">
+      <c r="AL9" s="52" t="s">
         <v>16</v>
-      </c>
-      <c r="AG9" s="52"/>
-      <c r="AH9" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI9" s="58">
-        <v>44902</v>
-      </c>
-      <c r="AL9" s="52" t="s">
-        <v>24</v>
       </c>
       <c r="AM9" s="52"/>
       <c r="AN9" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO9" s="77">
-        <v>44875</v>
+        <v>17</v>
+      </c>
+      <c r="AO9" s="58">
+        <v>44902</v>
       </c>
       <c r="AR9" s="52" t="s">
         <v>24</v>
@@ -2807,37 +2834,37 @@
         <v>32</v>
       </c>
       <c r="AU9" s="77">
-        <v>44840</v>
+        <v>44875</v>
       </c>
       <c r="AX9" s="52" t="s">
         <v>24</v>
       </c>
       <c r="AY9" s="52"/>
       <c r="AZ9" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA9" s="77">
+        <v>44840</v>
+      </c>
+      <c r="BD9" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE9" s="52"/>
+      <c r="BF9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="BA9" s="77">
+      <c r="BG9" s="77">
         <v>44807</v>
       </c>
-      <c r="BC9" s="52" t="s">
+      <c r="BI9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="BD9" s="52"/>
-      <c r="BE9" s="52" t="s">
+      <c r="BJ9" s="52"/>
+      <c r="BK9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="BF9" s="58">
+      <c r="BL9" s="58">
         <v>44779</v>
-      </c>
-      <c r="BJ9" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="BK9" s="52"/>
-      <c r="BL9" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="BM9" s="57">
-        <v>44749</v>
       </c>
       <c r="BP9" s="52" t="s">
         <v>25</v>
@@ -2846,97 +2873,111 @@
       <c r="BR9" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="BS9" s="59">
+      <c r="BS9" s="57">
+        <v>44749</v>
+      </c>
+      <c r="BV9" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="BW9" s="52"/>
+      <c r="BX9" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="BY9" s="59">
         <v>44693</v>
       </c>
-      <c r="BW9" s="52" t="s">
+      <c r="CC9" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="BX9" s="65" t="s">
+      <c r="CD9" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="BY9" s="59">
+      <c r="CE9" s="59">
         <v>44721</v>
       </c>
     </row>
-    <row r="10" spans="2:77" ht="21" x14ac:dyDescent="0.35">
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
+    <row r="10" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
       <c r="H10" s="60"/>
       <c r="I10" s="60"/>
       <c r="J10" s="60"/>
       <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="N10" s="60"/>
       <c r="O10" s="60"/>
       <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="61"/>
-      <c r="T10" s="60"/>
+      <c r="Q10" s="61"/>
       <c r="U10" s="60"/>
       <c r="V10" s="60"/>
-      <c r="W10" s="61"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="61"/>
       <c r="Z10" s="60"/>
       <c r="AA10" s="60"/>
       <c r="AB10" s="60"/>
       <c r="AC10" s="61"/>
-      <c r="AD10" s="62"/>
-      <c r="BJ10" s="60"/>
-      <c r="BK10" s="60"/>
-      <c r="BL10" s="60"/>
-      <c r="BM10" s="61"/>
-      <c r="BP10" s="52"/>
-      <c r="BQ10" s="52"/>
-      <c r="BR10" s="52"/>
-      <c r="BS10" s="54"/>
-      <c r="BW10" s="60"/>
-      <c r="BX10" s="64"/>
-      <c r="BY10" s="61"/>
-    </row>
-    <row r="11" spans="2:77" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="100" t="s">
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="60"/>
+      <c r="AH10" s="60"/>
+      <c r="AI10" s="61"/>
+      <c r="AJ10" s="62"/>
+      <c r="BP10" s="60"/>
+      <c r="BQ10" s="60"/>
+      <c r="BR10" s="60"/>
+      <c r="BS10" s="61"/>
+      <c r="BV10" s="52"/>
+      <c r="BW10" s="52"/>
+      <c r="BX10" s="52"/>
+      <c r="BY10" s="54"/>
+      <c r="CC10" s="60"/>
+      <c r="CD10" s="64"/>
+      <c r="CE10" s="61"/>
+    </row>
+    <row r="11" spans="2:83" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B11" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="79">
+        <v>45086</v>
+      </c>
+      <c r="H11" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="I11" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="100" t="s">
+      <c r="J11" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="61"/>
-      <c r="H11" s="100" t="s">
+      <c r="K11" s="57"/>
+      <c r="L11" s="61"/>
+      <c r="N11" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="101" t="s">
+      <c r="O11" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="100" t="s">
+      <c r="P11" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="57"/>
-      <c r="O11" s="100" t="s">
+      <c r="Q11" s="57"/>
+      <c r="U11" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="101" t="s">
+      <c r="V11" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="Q11" s="100" t="s">
+      <c r="W11" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="R11" s="57">
+      <c r="X11" s="57">
         <v>44993</v>
-      </c>
-      <c r="T11" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="W11" s="59">
-        <v>44967</v>
       </c>
       <c r="Z11" s="52" t="s">
         <v>25</v>
@@ -2946,27 +2987,27 @@
         <v>18</v>
       </c>
       <c r="AC11" s="59">
-        <v>44932</v>
+        <v>44967</v>
       </c>
       <c r="AF11" s="52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG11" s="52"/>
       <c r="AH11" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI11" s="77">
-        <v>44903</v>
+        <v>18</v>
+      </c>
+      <c r="AI11" s="59">
+        <v>44932</v>
       </c>
       <c r="AL11" s="52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM11" s="52"/>
       <c r="AN11" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="AO11" s="59">
-        <v>44876</v>
+        <v>32</v>
+      </c>
+      <c r="AO11" s="77">
+        <v>44903</v>
       </c>
       <c r="AR11" s="52" t="s">
         <v>25</v>
@@ -2976,7 +3017,7 @@
         <v>18</v>
       </c>
       <c r="AU11" s="59">
-        <v>44841</v>
+        <v>44876</v>
       </c>
       <c r="AX11" s="52" t="s">
         <v>25</v>
@@ -2986,66 +3027,76 @@
         <v>18</v>
       </c>
       <c r="BA11" s="59">
+        <v>44841</v>
+      </c>
+      <c r="BD11" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE11" s="52"/>
+      <c r="BF11" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="BG11" s="59">
         <v>44812</v>
       </c>
-      <c r="BC11" s="52" t="s">
+      <c r="BI11" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="BD11" s="52"/>
-      <c r="BE11" s="52" t="s">
+      <c r="BJ11" s="52"/>
+      <c r="BK11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="BF11" s="57">
+      <c r="BL11" s="57">
         <v>44784</v>
       </c>
-      <c r="BJ11" s="52" t="s">
+      <c r="BP11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="BK11" s="52"/>
-      <c r="BL11" s="52" t="s">
+      <c r="BQ11" s="52"/>
+      <c r="BR11" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="BM11" s="58">
+      <c r="BS11" s="58">
         <v>44751</v>
       </c>
-      <c r="BP11" s="52" t="s">
+      <c r="BV11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="BQ11" s="60"/>
-      <c r="BR11" s="52" t="s">
+      <c r="BW11" s="60"/>
+      <c r="BX11" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="BS11" s="57">
+      <c r="BY11" s="57">
         <v>44695</v>
       </c>
-      <c r="BW11" s="52" t="s">
+      <c r="CC11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="BX11" s="65" t="s">
+      <c r="CD11" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="BY11" s="58">
+      <c r="CE11" s="58">
         <v>44723</v>
       </c>
     </row>
-    <row r="12" spans="2:77" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:83" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="60"/>
       <c r="C12" s="60"/>
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
       <c r="H12" s="60"/>
       <c r="I12" s="60"/>
       <c r="J12" s="60"/>
       <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="N12" s="60"/>
       <c r="O12" s="60"/>
       <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="61"/>
-      <c r="AL12" s="70"/>
-      <c r="AM12" s="70"/>
-      <c r="AN12" s="71"/>
-      <c r="AO12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="61"/>
       <c r="AR12" s="70"/>
       <c r="AS12" s="70"/>
       <c r="AT12" s="71"/>
@@ -3054,34 +3105,37 @@
       <c r="AY12" s="70"/>
       <c r="AZ12" s="71"/>
       <c r="BA12" s="61"/>
-      <c r="BC12" s="70"/>
       <c r="BD12" s="70"/>
-      <c r="BE12" s="71"/>
-      <c r="BF12" s="61"/>
-      <c r="BJ12" s="60"/>
-      <c r="BK12" s="60"/>
-      <c r="BL12" s="60"/>
-      <c r="BM12" s="61"/>
-      <c r="BP12" s="52"/>
-      <c r="BQ12" s="52"/>
-      <c r="BR12" s="52"/>
-      <c r="BS12" s="54"/>
-      <c r="BW12" s="60"/>
-      <c r="BX12" s="64"/>
-      <c r="BY12" s="61"/>
-    </row>
-    <row r="13" spans="2:77" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="69"/>
+      <c r="BE12" s="70"/>
+      <c r="BF12" s="71"/>
+      <c r="BG12" s="61"/>
+      <c r="BI12" s="70"/>
+      <c r="BJ12" s="70"/>
+      <c r="BK12" s="71"/>
+      <c r="BL12" s="61"/>
+      <c r="BP12" s="60"/>
+      <c r="BQ12" s="60"/>
+      <c r="BR12" s="60"/>
+      <c r="BS12" s="61"/>
+      <c r="BV12" s="52"/>
+      <c r="BW12" s="52"/>
+      <c r="BX12" s="52"/>
+      <c r="BY12" s="54"/>
+      <c r="CC12" s="60"/>
+      <c r="CD12" s="64"/>
+      <c r="CE12" s="61"/>
+    </row>
+    <row r="13" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+      <c r="B13" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="60"/>
       <c r="D13" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="76">
-        <v>45057</v>
-      </c>
-      <c r="F13" s="61"/>
+      <c r="E13" s="78">
+        <v>45087</v>
+      </c>
       <c r="H13" s="69" t="s">
         <v>23</v>
       </c>
@@ -3090,27 +3144,28 @@
         <v>15</v>
       </c>
       <c r="K13" s="76">
+        <v>45057</v>
+      </c>
+      <c r="L13" s="61"/>
+      <c r="N13" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="69"/>
+      <c r="P13" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="76">
         <v>45029</v>
       </c>
-      <c r="O13" s="52" t="s">
+      <c r="U13" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52" t="s">
+      <c r="V13" s="52"/>
+      <c r="W13" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="R13" s="59">
+      <c r="X13" s="59">
         <v>44995</v>
-      </c>
-      <c r="T13" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="W13" s="77">
-        <v>44966</v>
       </c>
       <c r="Z13" s="52" t="s">
         <v>24</v>
@@ -3120,27 +3175,27 @@
         <v>32</v>
       </c>
       <c r="AC13" s="77">
-        <v>44938</v>
+        <v>44966</v>
       </c>
       <c r="AF13" s="52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG13" s="52"/>
       <c r="AH13" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI13" s="59">
-        <v>44904</v>
+        <v>32</v>
+      </c>
+      <c r="AI13" s="77">
+        <v>44938</v>
       </c>
       <c r="AL13" s="52" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AM13" s="52"/>
       <c r="AN13" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO13" s="79">
-        <v>44883</v>
+        <v>18</v>
+      </c>
+      <c r="AO13" s="59">
+        <v>44904</v>
       </c>
       <c r="AR13" s="52" t="s">
         <v>21</v>
@@ -3150,7 +3205,7 @@
         <v>22</v>
       </c>
       <c r="AU13" s="79">
-        <v>44848</v>
+        <v>44883</v>
       </c>
       <c r="AX13" s="52" t="s">
         <v>21</v>
@@ -3159,67 +3214,77 @@
       <c r="AZ13" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="BA13" s="75">
+      <c r="BA13" s="79">
+        <v>44848</v>
+      </c>
+      <c r="BD13" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE13" s="52"/>
+      <c r="BF13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG13" s="75">
         <v>44813</v>
       </c>
-      <c r="BC13" s="52" t="s">
+      <c r="BI13" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="BD13" s="52"/>
-      <c r="BE13" s="52" t="s">
+      <c r="BJ13" s="52"/>
+      <c r="BK13" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="BF13" s="73">
+      <c r="BL13" s="73">
         <v>44785</v>
       </c>
-      <c r="BJ13" s="52" t="s">
+      <c r="BP13" s="52" t="s">
         <v>21</v>
-      </c>
-      <c r="BK13" s="52"/>
-      <c r="BL13" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="BM13" s="73">
-        <v>44756</v>
-      </c>
-      <c r="BP13" s="52" t="s">
-        <v>24</v>
       </c>
       <c r="BQ13" s="52"/>
       <c r="BR13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="BS13" s="73">
+        <v>44756</v>
+      </c>
+      <c r="BV13" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="BW13" s="52"/>
+      <c r="BX13" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="BS13" s="58">
+      <c r="BY13" s="58">
         <v>44695</v>
       </c>
-      <c r="BW13" s="52" t="s">
+      <c r="CC13" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="BX13" s="65" t="s">
+      <c r="CD13" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="BY13" s="59">
+      <c r="CE13" s="59">
         <v>44728</v>
       </c>
     </row>
-    <row r="14" spans="2:77" ht="21" x14ac:dyDescent="0.35">
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
+    <row r="14" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
       <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
       <c r="H14" s="70"/>
       <c r="I14" s="70"/>
       <c r="J14" s="71"/>
       <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="N14" s="70"/>
       <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="61"/>
-      <c r="T14" s="70"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="61"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="61"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="61"/>
       <c r="Z14" s="70"/>
       <c r="AA14" s="70"/>
       <c r="AB14" s="71"/>
@@ -3228,9 +3293,9 @@
       <c r="AG14" s="70"/>
       <c r="AH14" s="71"/>
       <c r="AI14" s="61"/>
-      <c r="AL14" s="60"/>
-      <c r="AM14" s="60"/>
-      <c r="AN14" s="60"/>
+      <c r="AL14" s="70"/>
+      <c r="AM14" s="70"/>
+      <c r="AN14" s="71"/>
       <c r="AO14" s="61"/>
       <c r="AR14" s="60"/>
       <c r="AS14" s="60"/>
@@ -3240,34 +3305,37 @@
       <c r="AY14" s="60"/>
       <c r="AZ14" s="60"/>
       <c r="BA14" s="61"/>
-      <c r="BC14" s="60"/>
       <c r="BD14" s="60"/>
       <c r="BE14" s="60"/>
-      <c r="BF14" s="61"/>
+      <c r="BF14" s="60"/>
+      <c r="BG14" s="61"/>
+      <c r="BI14" s="60"/>
       <c r="BJ14" s="60"/>
       <c r="BK14" s="60"/>
-      <c r="BL14" s="60"/>
-      <c r="BM14" s="61"/>
-      <c r="BP14" s="52"/>
-      <c r="BQ14" s="52"/>
-      <c r="BR14" s="52"/>
-      <c r="BS14" s="54"/>
-      <c r="BW14" s="60"/>
-      <c r="BX14" s="64"/>
-      <c r="BY14" s="61"/>
-    </row>
-    <row r="15" spans="2:77" ht="21" x14ac:dyDescent="0.35">
-      <c r="B15" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="79">
-        <v>45058</v>
-      </c>
-      <c r="F15" s="61"/>
+      <c r="BL14" s="61"/>
+      <c r="BP14" s="60"/>
+      <c r="BQ14" s="60"/>
+      <c r="BR14" s="60"/>
+      <c r="BS14" s="61"/>
+      <c r="BV14" s="52"/>
+      <c r="BW14" s="52"/>
+      <c r="BX14" s="52"/>
+      <c r="BY14" s="54"/>
+      <c r="CC14" s="60"/>
+      <c r="CD14" s="64"/>
+      <c r="CE14" s="61"/>
+    </row>
+    <row r="15" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+      <c r="B15" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="69"/>
+      <c r="D15" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="76">
+        <v>45091</v>
+      </c>
       <c r="H15" s="52" t="s">
         <v>21</v>
       </c>
@@ -3276,27 +3344,28 @@
         <v>22</v>
       </c>
       <c r="K15" s="79">
+        <v>45058</v>
+      </c>
+      <c r="L15" s="61"/>
+      <c r="N15" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" s="79">
         <v>45030</v>
       </c>
-      <c r="O15" s="52" t="s">
+      <c r="U15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52" t="s">
+      <c r="V15" s="52"/>
+      <c r="W15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="79">
+      <c r="X15" s="79">
         <v>45001</v>
-      </c>
-      <c r="T15" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="W15" s="79">
-        <v>44973</v>
       </c>
       <c r="Z15" s="52" t="s">
         <v>21</v>
@@ -3306,7 +3375,7 @@
         <v>22</v>
       </c>
       <c r="AC15" s="79">
-        <v>44946</v>
+        <v>44973</v>
       </c>
       <c r="AF15" s="52" t="s">
         <v>21</v>
@@ -3316,17 +3385,17 @@
         <v>22</v>
       </c>
       <c r="AI15" s="79">
+        <v>44946</v>
+      </c>
+      <c r="AL15" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM15" s="52"/>
+      <c r="AN15" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO15" s="79">
         <v>44911</v>
-      </c>
-      <c r="AL15" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM15" s="60"/>
-      <c r="AN15" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO15" s="78">
-        <v>44884</v>
       </c>
       <c r="AR15" s="52" t="s">
         <v>19</v>
@@ -3336,7 +3405,7 @@
         <v>15</v>
       </c>
       <c r="AU15" s="78">
-        <v>44849</v>
+        <v>44884</v>
       </c>
       <c r="AX15" s="52" t="s">
         <v>19</v>
@@ -3346,66 +3415,76 @@
         <v>15</v>
       </c>
       <c r="BA15" s="78">
+        <v>44849</v>
+      </c>
+      <c r="BD15" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE15" s="60"/>
+      <c r="BF15" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG15" s="78">
         <v>44814</v>
       </c>
-      <c r="BC15" s="52" t="s">
+      <c r="BI15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="BD15" s="60"/>
-      <c r="BE15" s="53" t="s">
+      <c r="BJ15" s="60"/>
+      <c r="BK15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="BF15" s="74">
+      <c r="BL15" s="74">
         <v>44786</v>
       </c>
-      <c r="BJ15" s="52" t="s">
+      <c r="BP15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="BK15" s="60"/>
-      <c r="BL15" s="52" t="s">
+      <c r="BQ15" s="60"/>
+      <c r="BR15" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="BM15" s="74">
+      <c r="BS15" s="74">
         <v>44758</v>
       </c>
-      <c r="BP15" s="52" t="s">
+      <c r="BV15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="BQ15" s="52"/>
-      <c r="BR15" s="52" t="s">
+      <c r="BW15" s="52"/>
+      <c r="BX15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="BS15" s="59">
+      <c r="BY15" s="59">
         <v>44700</v>
       </c>
-      <c r="BW15" s="52" t="s">
+      <c r="CC15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="BX15" s="65" t="s">
+      <c r="CD15" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="BY15" s="57">
+      <c r="CE15" s="57">
         <v>44730</v>
       </c>
     </row>
-    <row r="16" spans="2:77" ht="21" x14ac:dyDescent="0.35">
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
+    <row r="16" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71"/>
       <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
       <c r="H16" s="60"/>
       <c r="I16" s="60"/>
       <c r="J16" s="60"/>
       <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="N16" s="60"/>
       <c r="O16" s="60"/>
       <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="61"/>
-      <c r="T16" s="60"/>
+      <c r="Q16" s="61"/>
       <c r="U16" s="60"/>
       <c r="V16" s="60"/>
-      <c r="W16" s="61"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="61"/>
       <c r="Z16" s="60"/>
       <c r="AA16" s="60"/>
       <c r="AB16" s="60"/>
@@ -3414,38 +3493,41 @@
       <c r="AG16" s="60"/>
       <c r="AH16" s="60"/>
       <c r="AI16" s="61"/>
-      <c r="AX16" s="52"/>
-      <c r="AY16" s="52"/>
-      <c r="AZ16" s="52"/>
-      <c r="BA16" s="54"/>
-      <c r="BC16" s="52"/>
+      <c r="AL16" s="60"/>
+      <c r="AM16" s="60"/>
+      <c r="AN16" s="60"/>
+      <c r="AO16" s="61"/>
       <c r="BD16" s="52"/>
       <c r="BE16" s="52"/>
-      <c r="BF16" s="54"/>
+      <c r="BF16" s="52"/>
+      <c r="BG16" s="54"/>
+      <c r="BI16" s="52"/>
       <c r="BJ16" s="52"/>
       <c r="BK16" s="52"/>
-      <c r="BL16" s="52"/>
-      <c r="BM16" s="54"/>
+      <c r="BL16" s="54"/>
       <c r="BP16" s="52"/>
       <c r="BQ16" s="52"/>
       <c r="BR16" s="52"/>
       <c r="BS16" s="54"/>
+      <c r="BV16" s="52"/>
       <c r="BW16" s="52"/>
-      <c r="BX16" s="65"/>
+      <c r="BX16" s="52"/>
       <c r="BY16" s="54"/>
-    </row>
-    <row r="17" spans="2:77" ht="21" x14ac:dyDescent="0.35">
-      <c r="B17" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="78">
-        <v>45059</v>
-      </c>
-      <c r="F17" s="61"/>
+      <c r="CC16" s="52"/>
+      <c r="CD16" s="65"/>
+      <c r="CE16" s="54"/>
+    </row>
+    <row r="17" spans="2:83" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B17" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="57"/>
       <c r="H17" s="52" t="s">
         <v>19</v>
       </c>
@@ -3454,27 +3536,28 @@
         <v>15</v>
       </c>
       <c r="K17" s="78">
+        <v>45059</v>
+      </c>
+      <c r="L17" s="61"/>
+      <c r="N17" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="60"/>
+      <c r="P17" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="78">
         <v>45031</v>
       </c>
-      <c r="O17" s="52" t="s">
+      <c r="U17" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="53" t="s">
+      <c r="V17" s="60"/>
+      <c r="W17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="R17" s="78">
+      <c r="X17" s="78">
         <v>45003</v>
-      </c>
-      <c r="T17" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="U17" s="60"/>
-      <c r="V17" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="W17" s="78">
-        <v>44982</v>
       </c>
       <c r="Z17" s="52" t="s">
         <v>19</v>
@@ -3484,7 +3567,7 @@
         <v>15</v>
       </c>
       <c r="AC17" s="78">
-        <v>44954</v>
+        <v>44982</v>
       </c>
       <c r="AF17" s="52" t="s">
         <v>19</v>
@@ -3494,139 +3577,158 @@
         <v>15</v>
       </c>
       <c r="AI17" s="78">
+        <v>44954</v>
+      </c>
+      <c r="AL17" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM17" s="60"/>
+      <c r="AN17" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO17" s="78">
         <v>44912</v>
       </c>
-      <c r="BP17" s="60"/>
-      <c r="BQ17" s="60"/>
-      <c r="BR17" s="60"/>
-      <c r="BS17" s="61"/>
-      <c r="BW17" s="52"/>
-      <c r="BX17" s="65"/>
-      <c r="BY17" s="54"/>
-    </row>
-    <row r="18" spans="2:77" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
+      <c r="BV17" s="60"/>
+      <c r="BW17" s="60"/>
+      <c r="BX17" s="60"/>
+      <c r="BY17" s="61"/>
+      <c r="CC17" s="52"/>
+      <c r="CD17" s="65"/>
+      <c r="CE17" s="54"/>
+    </row>
+    <row r="18" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
       <c r="H18" s="62"/>
       <c r="I18" s="62"/>
       <c r="J18" s="62"/>
       <c r="K18" s="62"/>
-      <c r="BP18" s="52"/>
-      <c r="BQ18" s="52"/>
-      <c r="BR18" s="52"/>
-      <c r="BS18" s="54"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="BV18" s="52"/>
       <c r="BW18" s="52"/>
-      <c r="BX18" s="65"/>
+      <c r="BX18" s="52"/>
       <c r="BY18" s="54"/>
-    </row>
-    <row r="19" spans="2:77" ht="21" x14ac:dyDescent="0.35">
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="CC18" s="52"/>
+      <c r="CD18" s="65"/>
+      <c r="CE18" s="54"/>
+    </row>
+    <row r="19" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="71"/>
       <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
       <c r="H19" s="70"/>
       <c r="I19" s="70"/>
       <c r="J19" s="71"/>
       <c r="K19" s="61"/>
-      <c r="BP19" s="52"/>
-      <c r="BQ19" s="52"/>
-      <c r="BR19" s="52"/>
-      <c r="BS19" s="54"/>
-    </row>
-    <row r="20" spans="2:77" ht="21" x14ac:dyDescent="0.35">
-      <c r="BP20" s="52"/>
-      <c r="BQ20" s="52"/>
-      <c r="BR20" s="52"/>
-      <c r="BS20" s="54"/>
-    </row>
-    <row r="21" spans="2:77" ht="21" x14ac:dyDescent="0.35">
-      <c r="BP21" s="52"/>
-      <c r="BQ21" s="52"/>
-      <c r="BR21" s="52"/>
-      <c r="BS21" s="54"/>
-    </row>
-    <row r="22" spans="2:77" ht="21" x14ac:dyDescent="0.35">
-      <c r="BP22" s="52"/>
-      <c r="BQ22" s="52"/>
-      <c r="BR22" s="52"/>
-      <c r="BS22" s="54"/>
-    </row>
-    <row r="23" spans="2:77" ht="21" x14ac:dyDescent="0.35">
-      <c r="BP23" s="52"/>
-      <c r="BQ23" s="52"/>
-      <c r="BR23" s="52"/>
-      <c r="BS23" s="54"/>
-    </row>
-    <row r="24" spans="2:77" ht="21" x14ac:dyDescent="0.35">
-      <c r="BP24" s="52"/>
-      <c r="BQ24" s="52"/>
-      <c r="BR24" s="52"/>
-      <c r="BS24" s="54"/>
-    </row>
-    <row r="25" spans="2:77" ht="21" x14ac:dyDescent="0.35">
-      <c r="BP25" s="52"/>
-      <c r="BQ25" s="52"/>
-      <c r="BR25" s="52"/>
-      <c r="BS25" s="54"/>
-    </row>
-    <row r="26" spans="2:77" ht="21" x14ac:dyDescent="0.35">
-      <c r="BP26" s="52"/>
-      <c r="BQ26" s="52"/>
-      <c r="BR26" s="52"/>
-      <c r="BS26" s="54"/>
-    </row>
-    <row r="27" spans="2:77" ht="21" x14ac:dyDescent="0.35">
-      <c r="BP27" s="52"/>
-      <c r="BQ27" s="52"/>
-      <c r="BR27" s="52"/>
-      <c r="BS27" s="54"/>
-    </row>
-    <row r="28" spans="2:77" ht="21" x14ac:dyDescent="0.35">
-      <c r="BP28" s="52"/>
-      <c r="BQ28" s="52"/>
-      <c r="BR28" s="52"/>
-      <c r="BS28" s="54"/>
-    </row>
-    <row r="29" spans="2:77" ht="21" x14ac:dyDescent="0.35">
-      <c r="BP29" s="52"/>
-      <c r="BQ29" s="52"/>
-      <c r="BR29" s="52"/>
-      <c r="BS29" s="54"/>
-    </row>
-    <row r="30" spans="2:77" ht="21" x14ac:dyDescent="0.35">
-      <c r="BP30" s="52"/>
-      <c r="BQ30" s="52"/>
-      <c r="BR30" s="52"/>
-      <c r="BS30" s="54"/>
-    </row>
-    <row r="31" spans="2:77" ht="21" x14ac:dyDescent="0.35">
-      <c r="BP31" s="52"/>
-      <c r="BQ31" s="52"/>
-      <c r="BR31" s="52"/>
-      <c r="BS31" s="54"/>
+      <c r="L19" s="61"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="61"/>
+      <c r="BV19" s="52"/>
+      <c r="BW19" s="52"/>
+      <c r="BX19" s="52"/>
+      <c r="BY19" s="54"/>
+    </row>
+    <row r="20" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+      <c r="BV20" s="52"/>
+      <c r="BW20" s="52"/>
+      <c r="BX20" s="52"/>
+      <c r="BY20" s="54"/>
+    </row>
+    <row r="21" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+      <c r="BV21" s="52"/>
+      <c r="BW21" s="52"/>
+      <c r="BX21" s="52"/>
+      <c r="BY21" s="54"/>
+    </row>
+    <row r="22" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+      <c r="BV22" s="52"/>
+      <c r="BW22" s="52"/>
+      <c r="BX22" s="52"/>
+      <c r="BY22" s="54"/>
+    </row>
+    <row r="23" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+      <c r="BV23" s="52"/>
+      <c r="BW23" s="52"/>
+      <c r="BX23" s="52"/>
+      <c r="BY23" s="54"/>
+    </row>
+    <row r="24" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+      <c r="BV24" s="52"/>
+      <c r="BW24" s="52"/>
+      <c r="BX24" s="52"/>
+      <c r="BY24" s="54"/>
+    </row>
+    <row r="25" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+      <c r="BV25" s="52"/>
+      <c r="BW25" s="52"/>
+      <c r="BX25" s="52"/>
+      <c r="BY25" s="54"/>
+    </row>
+    <row r="26" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+      <c r="BV26" s="52"/>
+      <c r="BW26" s="52"/>
+      <c r="BX26" s="52"/>
+      <c r="BY26" s="54"/>
+    </row>
+    <row r="27" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+      <c r="BV27" s="52"/>
+      <c r="BW27" s="52"/>
+      <c r="BX27" s="52"/>
+      <c r="BY27" s="54"/>
+    </row>
+    <row r="28" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+      <c r="BV28" s="52"/>
+      <c r="BW28" s="52"/>
+      <c r="BX28" s="52"/>
+      <c r="BY28" s="54"/>
+    </row>
+    <row r="29" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+      <c r="BV29" s="52"/>
+      <c r="BW29" s="52"/>
+      <c r="BX29" s="52"/>
+      <c r="BY29" s="54"/>
+    </row>
+    <row r="30" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+      <c r="BV30" s="52"/>
+      <c r="BW30" s="52"/>
+      <c r="BX30" s="52"/>
+      <c r="BY30" s="54"/>
+    </row>
+    <row r="31" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+      <c r="BV31" s="52"/>
+      <c r="BW31" s="52"/>
+      <c r="BX31" s="52"/>
+      <c r="BY31" s="54"/>
     </row>
   </sheetData>
-  <sortState ref="O11:R13">
-    <sortCondition ref="R11:R13"/>
+  <sortState ref="U11:X13">
+    <sortCondition ref="X11:X13"/>
   </sortState>
-  <mergeCells count="14">
-    <mergeCell ref="BP5:BQ5"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BJ3:BL3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AL3:AN3"/>
+  <mergeCells count="15">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="BV5:BW5"/>
+    <mergeCell ref="AL5:AN5"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="BP3:BR3"/>
+    <mergeCell ref="BI3:BK3"/>
     <mergeCell ref="AR3:AT3"/>
     <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="BP3:BS3"/>
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="BD3:BF3"/>
+    <mergeCell ref="BV3:BY3"/>
     <mergeCell ref="H5:J5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="U5:W5"/>
     <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="AF5:AH5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="45">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>MAYO.,2023</t>
+  </si>
+  <si>
+    <t>JUNIO,.2023</t>
   </si>
 </sst>
 </file>
@@ -705,21 +708,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -750,22 +741,13 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -788,7 +770,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -931,13 +912,6 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -956,6 +930,31 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1305,1005 +1304,1045 @@
   </sheetPr>
   <dimension ref="A2:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="31"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="35"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="31"/>
-    <col min="10" max="10" width="13.28515625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="35"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="35"/>
+    <col min="1" max="1" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="94" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="24"/>
+    <col min="4" max="4" width="15.140625" style="94" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="24"/>
+    <col min="6" max="6" width="14.42578125" style="94" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="24"/>
+    <col min="10" max="10" width="13.28515625" style="99" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="24"/>
+    <col min="12" max="12" width="14.85546875" style="94" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="37"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="16" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="17">
         <v>986</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="22">
         <v>238</v>
       </c>
-      <c r="D6" s="21">
-        <v>1392</v>
-      </c>
-      <c r="E6" s="29">
+      <c r="D6" s="17">
+        <v>1392</v>
+      </c>
+      <c r="E6" s="22">
         <v>251</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="17">
         <v>1856</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="31">
         <v>248</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="17">
         <v>1856</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="35">
         <v>241</v>
       </c>
-      <c r="J6" s="21">
-        <v>1392</v>
-      </c>
-      <c r="K6" s="43">
+      <c r="J6" s="17">
+        <v>1392</v>
+      </c>
+      <c r="K6" s="35">
         <v>250</v>
       </c>
-      <c r="L6" s="20">
-        <v>1392</v>
-      </c>
-      <c r="M6" s="29">
+      <c r="L6" s="16">
+        <v>1392</v>
+      </c>
+      <c r="M6" s="22">
         <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="6">
         <v>986</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="26">
         <v>261</v>
       </c>
-      <c r="D7" s="17">
-        <v>1392</v>
-      </c>
-      <c r="E7" s="30">
+      <c r="D7" s="13">
+        <v>1392</v>
+      </c>
+      <c r="E7" s="23">
         <v>276</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="14">
         <v>1856</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="32">
         <v>267</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="101">
         <v>1856</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="36">
         <v>260</v>
       </c>
-      <c r="J7" s="28">
-        <v>1392</v>
-      </c>
-      <c r="K7" s="46">
+      <c r="J7" s="21">
+        <v>1392</v>
+      </c>
+      <c r="K7" s="38">
         <v>268</v>
       </c>
-      <c r="L7" s="12">
-        <v>1392</v>
-      </c>
-      <c r="M7" s="49">
+      <c r="L7" s="8">
+        <v>1392</v>
+      </c>
+      <c r="M7" s="41">
         <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="7">
         <v>986</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="27">
         <v>284</v>
       </c>
-      <c r="D8" s="15">
-        <v>1392</v>
-      </c>
-      <c r="E8" s="34">
+      <c r="D8" s="11">
+        <v>1392</v>
+      </c>
+      <c r="E8" s="27">
         <v>299</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="10">
         <v>1856</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="33">
         <v>290</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="79">
         <v>2726</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="37">
         <v>281</v>
       </c>
-      <c r="J8" s="26">
-        <v>1392</v>
-      </c>
-      <c r="K8" s="47">
+      <c r="J8" s="20">
+        <v>1392</v>
+      </c>
+      <c r="K8" s="39">
         <v>291</v>
       </c>
-      <c r="L8" s="13">
-        <v>1392</v>
-      </c>
-      <c r="M8" s="50">
+      <c r="L8" s="9">
+        <v>1392</v>
+      </c>
+      <c r="M8" s="42">
         <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="7">
         <v>986</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="27">
         <v>309</v>
       </c>
-      <c r="D9" s="15">
-        <v>1392</v>
-      </c>
-      <c r="E9" s="34">
+      <c r="D9" s="11">
+        <v>1392</v>
+      </c>
+      <c r="E9" s="27">
         <v>319</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="18">
         <v>1856</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="33">
         <v>311</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="20">
         <v>2726</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="37">
         <v>308</v>
       </c>
-      <c r="J9" s="26">
-        <v>1392</v>
-      </c>
-      <c r="K9" s="47">
+      <c r="J9" s="20">
+        <v>1392</v>
+      </c>
+      <c r="K9" s="39">
         <v>312</v>
       </c>
-      <c r="L9" s="13">
-        <v>1392</v>
-      </c>
-      <c r="M9" s="50">
+      <c r="L9" s="9">
+        <v>1392</v>
+      </c>
+      <c r="M9" s="42">
         <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="7">
         <v>986</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="15">
-        <v>1392</v>
-      </c>
-      <c r="E10" s="34">
+      <c r="D10" s="11">
+        <v>1392</v>
+      </c>
+      <c r="E10" s="27">
         <v>342</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="10">
         <v>1856</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="33">
         <v>329</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="20">
         <v>1856</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="37">
         <v>331</v>
       </c>
-      <c r="J10" s="26">
-        <v>1392</v>
-      </c>
-      <c r="K10" s="47">
+      <c r="J10" s="20">
+        <v>1392</v>
+      </c>
+      <c r="K10" s="39">
         <v>333</v>
       </c>
-      <c r="L10" s="13">
-        <v>1392</v>
-      </c>
-      <c r="M10" s="50">
+      <c r="L10" s="9">
+        <v>1392</v>
+      </c>
+      <c r="M10" s="42">
         <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="7">
         <v>986</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="27">
         <v>346</v>
       </c>
-      <c r="D11" s="15">
-        <v>1392</v>
-      </c>
-      <c r="E11" s="34">
+      <c r="D11" s="11">
+        <v>1392</v>
+      </c>
+      <c r="E11" s="27">
         <v>355</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="10">
         <v>1856</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="33">
         <v>348</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="20">
         <v>1856</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="37">
         <v>347</v>
       </c>
-      <c r="J11" s="26">
-        <v>1392</v>
-      </c>
-      <c r="K11" s="47">
+      <c r="J11" s="20">
+        <v>1392</v>
+      </c>
+      <c r="K11" s="39">
         <v>357</v>
       </c>
-      <c r="L11" s="13">
-        <v>1392</v>
-      </c>
-      <c r="M11" s="50">
+      <c r="L11" s="9">
+        <v>1392</v>
+      </c>
+      <c r="M11" s="42">
         <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="7">
         <v>986</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="27">
         <v>363</v>
       </c>
-      <c r="D12" s="15">
-        <v>1392</v>
-      </c>
-      <c r="E12" s="34">
+      <c r="D12" s="11">
+        <v>1392</v>
+      </c>
+      <c r="E12" s="27">
         <v>374</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="10">
         <v>1856</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="33">
         <v>365</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="20">
         <v>1856</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="37">
         <v>364</v>
       </c>
-      <c r="J12" s="26">
-        <v>1392</v>
-      </c>
-      <c r="K12" s="47">
+      <c r="J12" s="20">
+        <v>1392</v>
+      </c>
+      <c r="K12" s="39">
         <v>375</v>
       </c>
-      <c r="L12" s="13">
-        <v>1392</v>
-      </c>
-      <c r="M12" s="50">
+      <c r="L12" s="9">
+        <v>1392</v>
+      </c>
+      <c r="M12" s="42">
         <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="7">
         <v>986</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="27">
         <v>385</v>
       </c>
-      <c r="D13" s="15">
-        <v>1392</v>
-      </c>
-      <c r="E13" s="34">
+      <c r="D13" s="11">
+        <v>1392</v>
+      </c>
+      <c r="E13" s="27">
         <v>390</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="10">
         <v>1856</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="33">
         <v>389</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="20">
         <v>1856</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="37">
         <v>384</v>
       </c>
-      <c r="J13" s="26">
-        <v>1392</v>
-      </c>
-      <c r="K13" s="47">
+      <c r="J13" s="20">
+        <v>1392</v>
+      </c>
+      <c r="K13" s="39">
         <v>391</v>
       </c>
-      <c r="L13" s="13">
-        <v>1392</v>
-      </c>
-      <c r="M13" s="50">
+      <c r="L13" s="9">
+        <v>1392</v>
+      </c>
+      <c r="M13" s="42">
         <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="7">
         <v>986</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="27">
         <v>410</v>
       </c>
-      <c r="D14" s="15">
-        <v>1392</v>
-      </c>
-      <c r="E14" s="34">
+      <c r="D14" s="11">
+        <v>1392</v>
+      </c>
+      <c r="E14" s="27">
         <v>415</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="10">
         <v>1856</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="33">
         <v>414</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="20">
         <v>1856</v>
       </c>
-      <c r="I14" s="45">
+      <c r="I14" s="37">
         <v>411</v>
       </c>
-      <c r="J14" s="26">
-        <v>1392</v>
-      </c>
-      <c r="K14" s="47">
+      <c r="J14" s="20">
+        <v>1392</v>
+      </c>
+      <c r="K14" s="39">
         <v>416</v>
       </c>
-      <c r="L14" s="13">
-        <v>1392</v>
-      </c>
-      <c r="M14" s="50">
+      <c r="L14" s="9">
+        <v>1392</v>
+      </c>
+      <c r="M14" s="42">
         <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="7">
         <v>986</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="27">
         <v>431</v>
       </c>
-      <c r="D15" s="15">
-        <v>1392</v>
-      </c>
-      <c r="E15" s="34">
+      <c r="D15" s="11">
+        <v>1392</v>
+      </c>
+      <c r="E15" s="27">
         <v>438</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="10">
         <v>1856</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="33">
         <v>436</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="20">
         <v>1856</v>
       </c>
-      <c r="I15" s="45">
+      <c r="I15" s="37">
         <v>434</v>
       </c>
-      <c r="J15" s="26">
-        <v>1392</v>
-      </c>
-      <c r="K15" s="47">
+      <c r="J15" s="20">
+        <v>1392</v>
+      </c>
+      <c r="K15" s="39">
         <v>439</v>
       </c>
-      <c r="L15" s="13">
-        <v>1392</v>
-      </c>
-      <c r="M15" s="50">
+      <c r="L15" s="9">
+        <v>1392</v>
+      </c>
+      <c r="M15" s="42">
         <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="7">
         <v>986</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="27">
         <v>442</v>
       </c>
-      <c r="D16" s="15">
-        <v>1392</v>
-      </c>
-      <c r="E16" s="34">
+      <c r="D16" s="11">
+        <v>1392</v>
+      </c>
+      <c r="E16" s="27">
         <v>452</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="10">
         <v>1856</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="33">
         <v>449</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="20">
         <v>1856</v>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="37">
         <v>447</v>
       </c>
-      <c r="J16" s="26">
-        <v>1392</v>
-      </c>
-      <c r="K16" s="47">
+      <c r="J16" s="20">
+        <v>1392</v>
+      </c>
+      <c r="K16" s="39">
         <v>453</v>
       </c>
-      <c r="L16" s="13">
-        <v>1392</v>
-      </c>
-      <c r="M16" s="50">
+      <c r="L16" s="9">
+        <v>1392</v>
+      </c>
+      <c r="M16" s="42">
         <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="81">
+      <c r="B17" s="73">
         <v>986</v>
       </c>
-      <c r="C17" s="82">
+      <c r="C17" s="74">
         <v>458</v>
       </c>
-      <c r="D17" s="83">
-        <v>1392</v>
-      </c>
-      <c r="E17" s="82">
+      <c r="D17" s="75">
+        <v>1392</v>
+      </c>
+      <c r="E17" s="74">
         <v>467</v>
       </c>
-      <c r="F17" s="84">
+      <c r="F17" s="76">
         <v>1856</v>
       </c>
-      <c r="G17" s="85">
+      <c r="G17" s="77">
         <v>464</v>
       </c>
-      <c r="H17" s="51">
+      <c r="H17" s="79">
         <v>1856</v>
       </c>
-      <c r="I17" s="86">
+      <c r="I17" s="78">
         <v>462</v>
       </c>
-      <c r="J17" s="87">
-        <v>1392</v>
-      </c>
-      <c r="K17" s="88">
+      <c r="J17" s="79">
+        <v>1392</v>
+      </c>
+      <c r="K17" s="80">
         <v>469</v>
       </c>
-      <c r="L17" s="51">
-        <v>1392</v>
-      </c>
-      <c r="M17" s="89">
+      <c r="L17" s="43">
+        <v>1392</v>
+      </c>
+      <c r="M17" s="81">
         <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="7">
         <v>986</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="27">
         <v>506</v>
       </c>
-      <c r="D18" s="15">
-        <v>1392</v>
-      </c>
-      <c r="E18" s="34">
+      <c r="D18" s="11">
+        <v>1392</v>
+      </c>
+      <c r="E18" s="27">
         <v>514</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="10">
         <v>1856</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="33">
         <v>509</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="20">
         <v>1856</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="37">
         <v>507</v>
       </c>
-      <c r="J18" s="26">
-        <v>1392</v>
-      </c>
-      <c r="K18" s="47">
+      <c r="J18" s="20">
+        <v>1392</v>
+      </c>
+      <c r="K18" s="39">
         <v>515</v>
       </c>
-      <c r="L18" s="13">
-        <v>1392</v>
-      </c>
-      <c r="M18" s="50">
+      <c r="L18" s="9">
+        <v>1392</v>
+      </c>
+      <c r="M18" s="42">
         <v>513</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="7">
         <v>986</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="27">
         <v>521</v>
       </c>
-      <c r="D19" s="15">
-        <v>1392</v>
-      </c>
-      <c r="E19" s="34">
+      <c r="D19" s="11">
+        <v>1392</v>
+      </c>
+      <c r="E19" s="27">
         <v>524</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="10">
         <v>1856</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="33">
         <v>522</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="20">
         <v>1856</v>
       </c>
-      <c r="I19" s="45">
+      <c r="I19" s="37">
         <v>520</v>
       </c>
-      <c r="J19" s="26">
-        <v>1392</v>
-      </c>
-      <c r="K19" s="47">
+      <c r="J19" s="20">
+        <v>1392</v>
+      </c>
+      <c r="K19" s="39">
         <v>525</v>
       </c>
-      <c r="L19" s="13">
-        <v>1392</v>
-      </c>
-      <c r="M19" s="50">
+      <c r="L19" s="9">
+        <v>1392</v>
+      </c>
+      <c r="M19" s="42">
         <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="7">
         <v>986</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="27">
         <v>534</v>
       </c>
-      <c r="D20" s="15">
-        <v>1392</v>
-      </c>
-      <c r="E20" s="90">
+      <c r="D20" s="11">
+        <v>1392</v>
+      </c>
+      <c r="E20" s="82">
         <v>543</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="9">
         <v>1856</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="33">
         <v>540</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="20">
         <v>1856</v>
       </c>
-      <c r="I20" s="45">
+      <c r="I20" s="37">
         <v>532</v>
       </c>
-      <c r="J20" s="26">
-        <v>1392</v>
-      </c>
-      <c r="K20" s="47">
+      <c r="J20" s="20">
+        <v>1392</v>
+      </c>
+      <c r="K20" s="39">
         <v>544</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="9">
         <v>0</v>
       </c>
-      <c r="M20" s="50" t="s">
+      <c r="M20" s="42" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="7">
         <v>986</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="37">
         <v>567</v>
       </c>
-      <c r="D21" s="13">
-        <v>1392</v>
-      </c>
-      <c r="E21" s="90">
+      <c r="D21" s="9">
+        <v>1392</v>
+      </c>
+      <c r="E21" s="82">
         <v>568</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="9">
         <v>1856</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="33">
         <v>566</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="20">
         <v>1856</v>
       </c>
-      <c r="I21" s="45">
+      <c r="I21" s="37">
         <v>562</v>
       </c>
-      <c r="J21" s="26">
-        <v>1392</v>
-      </c>
-      <c r="K21" s="47">
+      <c r="J21" s="20">
+        <v>1392</v>
+      </c>
+      <c r="K21" s="39">
         <v>569</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="9">
         <v>0</v>
       </c>
-      <c r="M21" s="50" t="s">
+      <c r="M21" s="42" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="41">
+      <c r="B22" s="7">
+        <v>986</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="9">
+        <v>1392</v>
+      </c>
+      <c r="E22" s="82">
+        <v>594</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1856</v>
+      </c>
+      <c r="G22" s="33">
+        <v>589</v>
+      </c>
+      <c r="H22" s="20">
+        <v>1856</v>
+      </c>
+      <c r="I22" s="37">
         <v>581</v>
       </c>
-      <c r="H22" s="13">
+      <c r="J22" s="20">
+        <v>1392</v>
+      </c>
+      <c r="K22" s="39">
+        <v>595</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="87" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="9">
+        <v>1392</v>
+      </c>
+      <c r="E23" s="82">
+        <v>634</v>
+      </c>
+      <c r="F23" s="9">
         <v>1856</v>
       </c>
-      <c r="I22" s="45"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="100"/>
-    </row>
-    <row r="23" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="100"/>
+      <c r="G23" s="33">
+        <v>632</v>
+      </c>
+      <c r="H23" s="20">
+        <v>1856</v>
+      </c>
+      <c r="I23" s="37">
+        <v>633</v>
+      </c>
+      <c r="J23" s="20">
+        <v>1392</v>
+      </c>
+      <c r="K23" s="39">
+        <v>635</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="87" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="100"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="87"/>
     </row>
     <row r="25" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="100"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="87"/>
     </row>
     <row r="26" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="100"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="87"/>
     </row>
     <row r="27" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="100"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="87"/>
     </row>
     <row r="28" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="100"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="87"/>
     </row>
     <row r="29" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="100"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="87"/>
     </row>
     <row r="30" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="100"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="87"/>
     </row>
     <row r="31" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="95"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="100"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="87"/>
     </row>
     <row r="32" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="100"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="87"/>
     </row>
     <row r="33" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="95"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="100"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="87"/>
     </row>
     <row r="34" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="100"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="87"/>
     </row>
     <row r="35" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="99"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="100"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="87"/>
     </row>
     <row r="36" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="95"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="98"/>
-      <c r="K36" s="99"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="100"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="87"/>
     </row>
     <row r="37" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="95"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="100"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="87"/>
     </row>
     <row r="38" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="95"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="96"/>
-      <c r="M38" s="100"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2320,7 +2359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:CE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2334,7 +2373,7 @@
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="62" customWidth="1"/>
+    <col min="12" max="12" width="15" style="54" customWidth="1"/>
     <col min="14" max="14" width="36" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.7109375" customWidth="1"/>
     <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
@@ -2368,1346 +2407,1346 @@
     <col min="71" max="71" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="74" max="75" width="19.5703125" customWidth="1"/>
     <col min="76" max="76" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="18.42578125" style="55" customWidth="1"/>
+    <col min="77" max="77" width="18.42578125" style="47" customWidth="1"/>
     <col min="81" max="81" width="36" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="19.5703125" style="24" customWidth="1"/>
+    <col min="82" max="82" width="19.5703125" style="19" customWidth="1"/>
     <col min="83" max="83" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AR3" s="105" t="s">
+      <c r="AR3" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="105"/>
-      <c r="AT3" s="105"/>
-      <c r="AU3" s="68"/>
-      <c r="AX3" s="105" t="s">
+      <c r="AS3" s="92"/>
+      <c r="AT3" s="92"/>
+      <c r="AU3" s="60"/>
+      <c r="AX3" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="AY3" s="105"/>
-      <c r="AZ3" s="105"/>
-      <c r="BA3" s="68"/>
-      <c r="BD3" s="105" t="s">
+      <c r="AY3" s="92"/>
+      <c r="AZ3" s="92"/>
+      <c r="BA3" s="60"/>
+      <c r="BD3" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="BE3" s="105"/>
-      <c r="BF3" s="105"/>
-      <c r="BG3" s="68"/>
-      <c r="BI3" s="105" t="s">
+      <c r="BE3" s="92"/>
+      <c r="BF3" s="92"/>
+      <c r="BG3" s="60"/>
+      <c r="BI3" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="BJ3" s="105"/>
-      <c r="BK3" s="105"/>
-      <c r="BL3" s="68"/>
-      <c r="BP3" s="105" t="s">
+      <c r="BJ3" s="92"/>
+      <c r="BK3" s="92"/>
+      <c r="BL3" s="60"/>
+      <c r="BP3" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="BQ3" s="105"/>
-      <c r="BR3" s="105"/>
-      <c r="BS3" s="68"/>
-      <c r="BT3" s="67"/>
-      <c r="BV3" s="105" t="s">
+      <c r="BQ3" s="92"/>
+      <c r="BR3" s="92"/>
+      <c r="BS3" s="60"/>
+      <c r="BT3" s="59"/>
+      <c r="BV3" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="BW3" s="105"/>
-      <c r="BX3" s="105"/>
-      <c r="BY3" s="105"/>
-      <c r="CC3" s="105" t="s">
+      <c r="BW3" s="92"/>
+      <c r="BX3" s="92"/>
+      <c r="BY3" s="92"/>
+      <c r="CC3" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="CD3" s="105"/>
-      <c r="CE3" s="105"/>
+      <c r="CD3" s="92"/>
+      <c r="CE3" s="92"/>
     </row>
     <row r="4" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="AU4" s="55"/>
-      <c r="BA4" s="55"/>
-      <c r="BG4" s="55"/>
-      <c r="BL4" s="55"/>
-      <c r="BS4" s="55"/>
-      <c r="CE4" s="55"/>
+      <c r="AU4" s="47"/>
+      <c r="BA4" s="47"/>
+      <c r="BG4" s="47"/>
+      <c r="BL4" s="47"/>
+      <c r="BS4" s="47"/>
+      <c r="CE4" s="47"/>
     </row>
     <row r="5" spans="2:83" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="68"/>
-      <c r="H5" s="105" t="s">
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="60"/>
+      <c r="H5" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="93"/>
-      <c r="N5" s="105" t="s">
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="85"/>
+      <c r="N5" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="68"/>
-      <c r="U5" s="105" t="s">
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="60"/>
+      <c r="U5" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
-      <c r="X5" s="68"/>
-      <c r="Z5" s="105" t="s">
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="60"/>
+      <c r="Z5" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="AA5" s="105"/>
-      <c r="AB5" s="105"/>
-      <c r="AC5" s="68"/>
-      <c r="AF5" s="105" t="s">
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="60"/>
+      <c r="AF5" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="AG5" s="105"/>
-      <c r="AH5" s="105"/>
-      <c r="AI5" s="68"/>
-      <c r="AL5" s="105" t="s">
+      <c r="AG5" s="92"/>
+      <c r="AH5" s="92"/>
+      <c r="AI5" s="60"/>
+      <c r="AL5" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="AM5" s="105"/>
-      <c r="AN5" s="105"/>
-      <c r="AO5" s="68"/>
-      <c r="AR5" s="69" t="s">
+      <c r="AM5" s="92"/>
+      <c r="AN5" s="92"/>
+      <c r="AO5" s="60"/>
+      <c r="AR5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AS5" s="69"/>
-      <c r="AT5" s="53" t="s">
+      <c r="AS5" s="61"/>
+      <c r="AT5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AU5" s="76">
+      <c r="AU5" s="68">
         <v>44861</v>
       </c>
-      <c r="AX5" s="69" t="s">
+      <c r="AX5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AY5" s="69"/>
-      <c r="AZ5" s="53" t="s">
+      <c r="AY5" s="61"/>
+      <c r="AZ5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BA5" s="76">
+      <c r="BA5" s="68">
         <v>44833</v>
       </c>
-      <c r="BD5" s="52" t="s">
+      <c r="BD5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BE5" s="52"/>
-      <c r="BF5" s="52" t="s">
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BG5" s="58">
+      <c r="BG5" s="50">
         <v>44804</v>
       </c>
-      <c r="BI5" s="52" t="s">
+      <c r="BI5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BJ5" s="52"/>
-      <c r="BK5" s="52" t="s">
+      <c r="BJ5" s="44"/>
+      <c r="BK5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BL5" s="72">
+      <c r="BL5" s="64">
         <v>44776</v>
       </c>
-      <c r="BP5" s="69" t="s">
+      <c r="BP5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BQ5" s="69"/>
-      <c r="BR5" s="53" t="s">
+      <c r="BQ5" s="61"/>
+      <c r="BR5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BS5" s="59">
+      <c r="BS5" s="51">
         <v>44747</v>
       </c>
-      <c r="BV5" s="106" t="s">
+      <c r="BV5" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="106"/>
-      <c r="BX5" s="53" t="s">
+      <c r="BW5" s="93"/>
+      <c r="BX5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BY5" s="59">
+      <c r="BY5" s="51">
         <v>44686</v>
       </c>
-      <c r="CC5" s="56" t="s">
+      <c r="CC5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="CD5" s="63" t="s">
+      <c r="CD5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="CE5" s="59">
+      <c r="CE5" s="51">
         <v>44714</v>
       </c>
     </row>
     <row r="6" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="E6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="94"/>
-      <c r="Q6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="AC6" s="55"/>
-      <c r="AI6" s="55"/>
-      <c r="AO6" s="55"/>
-      <c r="AR6" s="52"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="52"/>
-      <c r="AU6" s="61"/>
-      <c r="AX6" s="52"/>
-      <c r="AY6" s="52"/>
-      <c r="AZ6" s="52"/>
-      <c r="BA6" s="61"/>
-      <c r="BP6" s="70"/>
-      <c r="BQ6" s="70"/>
-      <c r="BR6" s="71"/>
-      <c r="BS6" s="61"/>
-      <c r="BV6" s="52"/>
-      <c r="BW6" s="52"/>
-      <c r="BX6" s="52"/>
-      <c r="BY6" s="54"/>
-      <c r="CC6" s="60"/>
-      <c r="CD6" s="64"/>
-      <c r="CE6" s="61"/>
+      <c r="E6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="86"/>
+      <c r="Q6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AI6" s="47"/>
+      <c r="AO6" s="47"/>
+      <c r="AR6" s="44"/>
+      <c r="AS6" s="44"/>
+      <c r="AT6" s="44"/>
+      <c r="AU6" s="53"/>
+      <c r="AX6" s="44"/>
+      <c r="AY6" s="44"/>
+      <c r="AZ6" s="44"/>
+      <c r="BA6" s="53"/>
+      <c r="BP6" s="62"/>
+      <c r="BQ6" s="62"/>
+      <c r="BR6" s="63"/>
+      <c r="BS6" s="53"/>
+      <c r="BV6" s="44"/>
+      <c r="BW6" s="44"/>
+      <c r="BX6" s="44"/>
+      <c r="BY6" s="46"/>
+      <c r="CC6" s="52"/>
+      <c r="CD6" s="56"/>
+      <c r="CE6" s="53"/>
     </row>
     <row r="7" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52" t="s">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="51">
         <v>45083</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52" t="s">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K7" s="50">
         <v>45049</v>
       </c>
-      <c r="L7" s="61"/>
-      <c r="N7" s="52" t="s">
+      <c r="L7" s="53"/>
+      <c r="N7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52" t="s">
+      <c r="O7" s="44"/>
+      <c r="P7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="58">
+      <c r="Q7" s="50">
         <v>45021</v>
       </c>
-      <c r="U7" s="52" t="s">
+      <c r="U7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52" t="s">
+      <c r="V7" s="44"/>
+      <c r="W7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="X7" s="58">
+      <c r="X7" s="50">
         <v>44986</v>
       </c>
-      <c r="Z7" s="52" t="s">
+      <c r="Z7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52" t="s">
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AC7" s="58">
+      <c r="AC7" s="50">
         <v>44958</v>
       </c>
-      <c r="AF7" s="52" t="s">
+      <c r="AF7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AG7" s="52"/>
-      <c r="AH7" s="52" t="s">
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AI7" s="58">
+      <c r="AI7" s="50">
         <v>44930</v>
       </c>
-      <c r="AL7" s="69" t="s">
+      <c r="AL7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AM7" s="69"/>
-      <c r="AN7" s="53" t="s">
+      <c r="AM7" s="61"/>
+      <c r="AN7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AO7" s="76">
+      <c r="AO7" s="68">
         <v>44896</v>
       </c>
-      <c r="AR7" s="52" t="s">
+      <c r="AR7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AS7" s="52"/>
-      <c r="AT7" s="52" t="s">
+      <c r="AS7" s="44"/>
+      <c r="AT7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AU7" s="58">
+      <c r="AU7" s="50">
         <v>44874</v>
       </c>
-      <c r="AX7" s="52" t="s">
+      <c r="AX7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AY7" s="52"/>
-      <c r="AZ7" s="52" t="s">
+      <c r="AY7" s="44"/>
+      <c r="AZ7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BA7" s="58">
+      <c r="BA7" s="50">
         <v>44839</v>
       </c>
-      <c r="BD7" s="69" t="s">
+      <c r="BD7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BE7" s="69"/>
-      <c r="BF7" s="53" t="s">
+      <c r="BE7" s="61"/>
+      <c r="BF7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BG7" s="76">
+      <c r="BG7" s="68">
         <v>44805</v>
       </c>
-      <c r="BI7" s="69" t="s">
+      <c r="BI7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BJ7" s="69"/>
-      <c r="BK7" s="53" t="s">
+      <c r="BJ7" s="61"/>
+      <c r="BK7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BL7" s="59">
+      <c r="BL7" s="51">
         <v>44777</v>
       </c>
-      <c r="BP7" s="52" t="s">
+      <c r="BP7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BQ7" s="52"/>
-      <c r="BR7" s="52" t="s">
+      <c r="BQ7" s="44"/>
+      <c r="BR7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BS7" s="72">
+      <c r="BS7" s="64">
         <v>44748</v>
       </c>
-      <c r="BV7" s="52" t="s">
+      <c r="BV7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BW7" s="52"/>
-      <c r="BX7" s="52" t="s">
+      <c r="BW7" s="44"/>
+      <c r="BX7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BY7" s="57">
+      <c r="BY7" s="49">
         <v>44691</v>
       </c>
-      <c r="BZ7" s="62"/>
-      <c r="CC7" s="52" t="s">
+      <c r="BZ7" s="54"/>
+      <c r="CC7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="CD7" s="65" t="s">
+      <c r="CD7" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="CE7" s="57">
+      <c r="CE7" s="49">
         <v>44719</v>
       </c>
     </row>
     <row r="8" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="61"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="61"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="61"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="61"/>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="71"/>
-      <c r="AI8" s="61"/>
-      <c r="AL8" s="52"/>
-      <c r="AM8" s="52"/>
-      <c r="AN8" s="52"/>
-      <c r="AO8" s="61"/>
-      <c r="BP8" s="60"/>
-      <c r="BQ8" s="60"/>
-      <c r="BR8" s="60"/>
-      <c r="BS8" s="61"/>
-      <c r="BV8" s="52"/>
-      <c r="BW8" s="52"/>
-      <c r="BX8" s="52"/>
-      <c r="BY8" s="54"/>
-      <c r="CC8" s="60"/>
-      <c r="CD8" s="64"/>
-      <c r="CE8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="53"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="53"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="53"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="53"/>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="63"/>
+      <c r="AI8" s="53"/>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="44"/>
+      <c r="AN8" s="44"/>
+      <c r="AO8" s="53"/>
+      <c r="BP8" s="52"/>
+      <c r="BQ8" s="52"/>
+      <c r="BR8" s="52"/>
+      <c r="BS8" s="53"/>
+      <c r="BV8" s="44"/>
+      <c r="BW8" s="44"/>
+      <c r="BX8" s="44"/>
+      <c r="BY8" s="46"/>
+      <c r="CC8" s="52"/>
+      <c r="CD8" s="56"/>
+      <c r="CE8" s="53"/>
     </row>
     <row r="9" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="50">
         <v>45084</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52" t="s">
+      <c r="I9" s="44"/>
+      <c r="J9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="59">
+      <c r="K9" s="51">
         <v>45055</v>
       </c>
-      <c r="L9" s="61"/>
-      <c r="N9" s="52" t="s">
+      <c r="L9" s="53"/>
+      <c r="N9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52" t="s">
+      <c r="O9" s="44"/>
+      <c r="P9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" s="59">
+      <c r="Q9" s="51">
         <v>45027</v>
       </c>
-      <c r="U9" s="69" t="s">
+      <c r="U9" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="V9" s="69"/>
-      <c r="W9" s="53" t="s">
+      <c r="V9" s="61"/>
+      <c r="W9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="X9" s="76">
+      <c r="X9" s="68">
         <v>44987</v>
       </c>
-      <c r="Z9" s="69" t="s">
+      <c r="Z9" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="53" t="s">
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="76">
+      <c r="AC9" s="68">
         <v>44959</v>
       </c>
-      <c r="AF9" s="69" t="s">
+      <c r="AF9" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AG9" s="69"/>
-      <c r="AH9" s="53" t="s">
+      <c r="AG9" s="61"/>
+      <c r="AH9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AI9" s="76">
+      <c r="AI9" s="68">
         <v>44931</v>
       </c>
-      <c r="AL9" s="52" t="s">
+      <c r="AL9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AM9" s="52"/>
-      <c r="AN9" s="52" t="s">
+      <c r="AM9" s="44"/>
+      <c r="AN9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AO9" s="58">
+      <c r="AO9" s="50">
         <v>44902</v>
       </c>
-      <c r="AR9" s="52" t="s">
+      <c r="AR9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AS9" s="52"/>
-      <c r="AT9" s="52" t="s">
+      <c r="AS9" s="44"/>
+      <c r="AT9" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="AU9" s="77">
+      <c r="AU9" s="69">
         <v>44875</v>
       </c>
-      <c r="AX9" s="52" t="s">
+      <c r="AX9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AY9" s="52"/>
-      <c r="AZ9" s="52" t="s">
+      <c r="AY9" s="44"/>
+      <c r="AZ9" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="BA9" s="77">
+      <c r="BA9" s="69">
         <v>44840</v>
       </c>
-      <c r="BD9" s="52" t="s">
+      <c r="BD9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="BE9" s="52"/>
-      <c r="BF9" s="52" t="s">
+      <c r="BE9" s="44"/>
+      <c r="BF9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="BG9" s="77">
+      <c r="BG9" s="69">
         <v>44807</v>
       </c>
-      <c r="BI9" s="52" t="s">
+      <c r="BI9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="BJ9" s="52"/>
-      <c r="BK9" s="52" t="s">
+      <c r="BJ9" s="44"/>
+      <c r="BK9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="BL9" s="58">
+      <c r="BL9" s="50">
         <v>44779</v>
       </c>
-      <c r="BP9" s="52" t="s">
+      <c r="BP9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BQ9" s="52"/>
-      <c r="BR9" s="52" t="s">
+      <c r="BQ9" s="44"/>
+      <c r="BR9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BS9" s="57">
+      <c r="BS9" s="49">
         <v>44749</v>
       </c>
-      <c r="BV9" s="52" t="s">
+      <c r="BV9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BW9" s="52"/>
-      <c r="BX9" s="52" t="s">
+      <c r="BW9" s="44"/>
+      <c r="BX9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BY9" s="59">
+      <c r="BY9" s="51">
         <v>44693</v>
       </c>
-      <c r="CC9" s="52" t="s">
+      <c r="CC9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="CD9" s="65" t="s">
+      <c r="CD9" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="CE9" s="59">
+      <c r="CE9" s="51">
         <v>44721</v>
       </c>
     </row>
     <row r="10" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="61"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="61"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="61"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="61"/>
-      <c r="AF10" s="60"/>
-      <c r="AG10" s="60"/>
-      <c r="AH10" s="60"/>
-      <c r="AI10" s="61"/>
-      <c r="AJ10" s="62"/>
-      <c r="BP10" s="60"/>
-      <c r="BQ10" s="60"/>
-      <c r="BR10" s="60"/>
-      <c r="BS10" s="61"/>
-      <c r="BV10" s="52"/>
-      <c r="BW10" s="52"/>
-      <c r="BX10" s="52"/>
-      <c r="BY10" s="54"/>
-      <c r="CC10" s="60"/>
-      <c r="CD10" s="64"/>
-      <c r="CE10" s="61"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="53"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="53"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="53"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="53"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="52"/>
+      <c r="AH10" s="52"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="54"/>
+      <c r="BP10" s="52"/>
+      <c r="BQ10" s="52"/>
+      <c r="BR10" s="52"/>
+      <c r="BS10" s="53"/>
+      <c r="BV10" s="44"/>
+      <c r="BW10" s="44"/>
+      <c r="BX10" s="44"/>
+      <c r="BY10" s="46"/>
+      <c r="CC10" s="52"/>
+      <c r="CD10" s="56"/>
+      <c r="CE10" s="53"/>
     </row>
     <row r="11" spans="2:83" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52" t="s">
+      <c r="C11" s="44"/>
+      <c r="D11" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="79">
+      <c r="E11" s="71">
         <v>45086</v>
       </c>
-      <c r="H11" s="91" t="s">
+      <c r="H11" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="92" t="s">
+      <c r="I11" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="91" t="s">
+      <c r="J11" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="57"/>
-      <c r="L11" s="61"/>
-      <c r="N11" s="91" t="s">
+      <c r="K11" s="49"/>
+      <c r="L11" s="53"/>
+      <c r="N11" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="92" t="s">
+      <c r="O11" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="P11" s="91" t="s">
+      <c r="P11" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="57"/>
-      <c r="U11" s="91" t="s">
+      <c r="Q11" s="49"/>
+      <c r="U11" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="V11" s="92" t="s">
+      <c r="V11" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="W11" s="91" t="s">
+      <c r="W11" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="X11" s="57">
+      <c r="X11" s="49">
         <v>44993</v>
       </c>
-      <c r="Z11" s="52" t="s">
+      <c r="Z11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="52" t="s">
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AC11" s="59">
+      <c r="AC11" s="51">
         <v>44967</v>
       </c>
-      <c r="AF11" s="52" t="s">
+      <c r="AF11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AG11" s="52"/>
-      <c r="AH11" s="52" t="s">
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AI11" s="59">
+      <c r="AI11" s="51">
         <v>44932</v>
       </c>
-      <c r="AL11" s="52" t="s">
+      <c r="AL11" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AM11" s="52"/>
-      <c r="AN11" s="52" t="s">
+      <c r="AM11" s="44"/>
+      <c r="AN11" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="AO11" s="77">
+      <c r="AO11" s="69">
         <v>44903</v>
       </c>
-      <c r="AR11" s="52" t="s">
+      <c r="AR11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AS11" s="52"/>
-      <c r="AT11" s="52" t="s">
+      <c r="AS11" s="44"/>
+      <c r="AT11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AU11" s="59">
+      <c r="AU11" s="51">
         <v>44876</v>
       </c>
-      <c r="AX11" s="52" t="s">
+      <c r="AX11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AY11" s="52"/>
-      <c r="AZ11" s="52" t="s">
+      <c r="AY11" s="44"/>
+      <c r="AZ11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BA11" s="59">
+      <c r="BA11" s="51">
         <v>44841</v>
       </c>
-      <c r="BD11" s="52" t="s">
+      <c r="BD11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BE11" s="52"/>
-      <c r="BF11" s="52" t="s">
+      <c r="BE11" s="44"/>
+      <c r="BF11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BG11" s="59">
+      <c r="BG11" s="51">
         <v>44812</v>
       </c>
-      <c r="BI11" s="52" t="s">
+      <c r="BI11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BJ11" s="52"/>
-      <c r="BK11" s="52" t="s">
+      <c r="BJ11" s="44"/>
+      <c r="BK11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BL11" s="57">
+      <c r="BL11" s="49">
         <v>44784</v>
       </c>
-      <c r="BP11" s="52" t="s">
+      <c r="BP11" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="BQ11" s="52"/>
-      <c r="BR11" s="52" t="s">
+      <c r="BQ11" s="44"/>
+      <c r="BR11" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="BS11" s="58">
+      <c r="BS11" s="50">
         <v>44751</v>
       </c>
-      <c r="BV11" s="52" t="s">
+      <c r="BV11" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BW11" s="60"/>
-      <c r="BX11" s="52" t="s">
+      <c r="BW11" s="52"/>
+      <c r="BX11" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="BY11" s="57">
+      <c r="BY11" s="49">
         <v>44695</v>
       </c>
-      <c r="CC11" s="52" t="s">
+      <c r="CC11" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="CD11" s="65" t="s">
+      <c r="CD11" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="CE11" s="58">
+      <c r="CE11" s="50">
         <v>44723</v>
       </c>
     </row>
     <row r="12" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="61"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="61"/>
-      <c r="AR12" s="70"/>
-      <c r="AS12" s="70"/>
-      <c r="AT12" s="71"/>
-      <c r="AU12" s="61"/>
-      <c r="AX12" s="70"/>
-      <c r="AY12" s="70"/>
-      <c r="AZ12" s="71"/>
-      <c r="BA12" s="61"/>
-      <c r="BD12" s="70"/>
-      <c r="BE12" s="70"/>
-      <c r="BF12" s="71"/>
-      <c r="BG12" s="61"/>
-      <c r="BI12" s="70"/>
-      <c r="BJ12" s="70"/>
-      <c r="BK12" s="71"/>
-      <c r="BL12" s="61"/>
-      <c r="BP12" s="60"/>
-      <c r="BQ12" s="60"/>
-      <c r="BR12" s="60"/>
-      <c r="BS12" s="61"/>
-      <c r="BV12" s="52"/>
-      <c r="BW12" s="52"/>
-      <c r="BX12" s="52"/>
-      <c r="BY12" s="54"/>
-      <c r="CC12" s="60"/>
-      <c r="CD12" s="64"/>
-      <c r="CE12" s="61"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="53"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="53"/>
+      <c r="AR12" s="62"/>
+      <c r="AS12" s="62"/>
+      <c r="AT12" s="63"/>
+      <c r="AU12" s="53"/>
+      <c r="AX12" s="62"/>
+      <c r="AY12" s="62"/>
+      <c r="AZ12" s="63"/>
+      <c r="BA12" s="53"/>
+      <c r="BD12" s="62"/>
+      <c r="BE12" s="62"/>
+      <c r="BF12" s="63"/>
+      <c r="BG12" s="53"/>
+      <c r="BI12" s="62"/>
+      <c r="BJ12" s="62"/>
+      <c r="BK12" s="63"/>
+      <c r="BL12" s="53"/>
+      <c r="BP12" s="52"/>
+      <c r="BQ12" s="52"/>
+      <c r="BR12" s="52"/>
+      <c r="BS12" s="53"/>
+      <c r="BV12" s="44"/>
+      <c r="BW12" s="44"/>
+      <c r="BX12" s="44"/>
+      <c r="BY12" s="46"/>
+      <c r="CC12" s="52"/>
+      <c r="CD12" s="56"/>
+      <c r="CE12" s="53"/>
     </row>
     <row r="13" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="53" t="s">
+      <c r="C13" s="52"/>
+      <c r="D13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="70">
         <v>45087</v>
       </c>
-      <c r="H13" s="69" t="s">
+      <c r="H13" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="69"/>
-      <c r="J13" s="53" t="s">
+      <c r="I13" s="61"/>
+      <c r="J13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="76">
+      <c r="K13" s="68">
         <v>45057</v>
       </c>
-      <c r="L13" s="61"/>
-      <c r="N13" s="69" t="s">
+      <c r="L13" s="53"/>
+      <c r="N13" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="69"/>
-      <c r="P13" s="53" t="s">
+      <c r="O13" s="61"/>
+      <c r="P13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="Q13" s="76">
+      <c r="Q13" s="68">
         <v>45029</v>
       </c>
-      <c r="U13" s="52" t="s">
+      <c r="U13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52" t="s">
+      <c r="V13" s="44"/>
+      <c r="W13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="X13" s="59">
+      <c r="X13" s="51">
         <v>44995</v>
       </c>
-      <c r="Z13" s="52" t="s">
+      <c r="Z13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="52" t="s">
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="AC13" s="77">
+      <c r="AC13" s="69">
         <v>44966</v>
       </c>
-      <c r="AF13" s="52" t="s">
+      <c r="AF13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AG13" s="52"/>
-      <c r="AH13" s="52" t="s">
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="AI13" s="77">
+      <c r="AI13" s="69">
         <v>44938</v>
       </c>
-      <c r="AL13" s="52" t="s">
+      <c r="AL13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AM13" s="52"/>
-      <c r="AN13" s="52" t="s">
+      <c r="AM13" s="44"/>
+      <c r="AN13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AO13" s="59">
+      <c r="AO13" s="51">
         <v>44904</v>
       </c>
-      <c r="AR13" s="52" t="s">
+      <c r="AR13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AS13" s="52"/>
-      <c r="AT13" s="52" t="s">
+      <c r="AS13" s="44"/>
+      <c r="AT13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AU13" s="79">
+      <c r="AU13" s="71">
         <v>44883</v>
       </c>
-      <c r="AX13" s="52" t="s">
+      <c r="AX13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AY13" s="52"/>
-      <c r="AZ13" s="52" t="s">
+      <c r="AY13" s="44"/>
+      <c r="AZ13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BA13" s="79">
+      <c r="BA13" s="71">
         <v>44848</v>
       </c>
-      <c r="BD13" s="52" t="s">
+      <c r="BD13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BE13" s="52"/>
-      <c r="BF13" s="52" t="s">
+      <c r="BE13" s="44"/>
+      <c r="BF13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BG13" s="75">
+      <c r="BG13" s="67">
         <v>44813</v>
       </c>
-      <c r="BI13" s="52" t="s">
+      <c r="BI13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BJ13" s="52"/>
-      <c r="BK13" s="52" t="s">
+      <c r="BJ13" s="44"/>
+      <c r="BK13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BL13" s="73">
+      <c r="BL13" s="65">
         <v>44785</v>
       </c>
-      <c r="BP13" s="52" t="s">
+      <c r="BP13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BQ13" s="52"/>
-      <c r="BR13" s="52" t="s">
+      <c r="BQ13" s="44"/>
+      <c r="BR13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BS13" s="73">
+      <c r="BS13" s="65">
         <v>44756</v>
       </c>
-      <c r="BV13" s="52" t="s">
+      <c r="BV13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="BW13" s="52"/>
-      <c r="BX13" s="52" t="s">
+      <c r="BW13" s="44"/>
+      <c r="BX13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="BY13" s="58">
+      <c r="BY13" s="50">
         <v>44695</v>
       </c>
-      <c r="CC13" s="52" t="s">
+      <c r="CC13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CD13" s="65" t="s">
+      <c r="CD13" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="CE13" s="59">
+      <c r="CE13" s="51">
         <v>44728</v>
       </c>
     </row>
     <row r="14" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="61"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="61"/>
-      <c r="Z14" s="70"/>
-      <c r="AA14" s="70"/>
-      <c r="AB14" s="71"/>
-      <c r="AC14" s="61"/>
-      <c r="AF14" s="70"/>
-      <c r="AG14" s="70"/>
-      <c r="AH14" s="71"/>
-      <c r="AI14" s="61"/>
-      <c r="AL14" s="70"/>
-      <c r="AM14" s="70"/>
-      <c r="AN14" s="71"/>
-      <c r="AO14" s="61"/>
-      <c r="AR14" s="60"/>
-      <c r="AS14" s="60"/>
-      <c r="AT14" s="60"/>
-      <c r="AU14" s="61"/>
-      <c r="AX14" s="60"/>
-      <c r="AY14" s="60"/>
-      <c r="AZ14" s="60"/>
-      <c r="BA14" s="61"/>
-      <c r="BD14" s="60"/>
-      <c r="BE14" s="60"/>
-      <c r="BF14" s="60"/>
-      <c r="BG14" s="61"/>
-      <c r="BI14" s="60"/>
-      <c r="BJ14" s="60"/>
-      <c r="BK14" s="60"/>
-      <c r="BL14" s="61"/>
-      <c r="BP14" s="60"/>
-      <c r="BQ14" s="60"/>
-      <c r="BR14" s="60"/>
-      <c r="BS14" s="61"/>
-      <c r="BV14" s="52"/>
-      <c r="BW14" s="52"/>
-      <c r="BX14" s="52"/>
-      <c r="BY14" s="54"/>
-      <c r="CC14" s="60"/>
-      <c r="CD14" s="64"/>
-      <c r="CE14" s="61"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="53"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="53"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="53"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="63"/>
+      <c r="AI14" s="53"/>
+      <c r="AL14" s="62"/>
+      <c r="AM14" s="62"/>
+      <c r="AN14" s="63"/>
+      <c r="AO14" s="53"/>
+      <c r="AR14" s="52"/>
+      <c r="AS14" s="52"/>
+      <c r="AT14" s="52"/>
+      <c r="AU14" s="53"/>
+      <c r="AX14" s="52"/>
+      <c r="AY14" s="52"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="53"/>
+      <c r="BD14" s="52"/>
+      <c r="BE14" s="52"/>
+      <c r="BF14" s="52"/>
+      <c r="BG14" s="53"/>
+      <c r="BI14" s="52"/>
+      <c r="BJ14" s="52"/>
+      <c r="BK14" s="52"/>
+      <c r="BL14" s="53"/>
+      <c r="BP14" s="52"/>
+      <c r="BQ14" s="52"/>
+      <c r="BR14" s="52"/>
+      <c r="BS14" s="53"/>
+      <c r="BV14" s="44"/>
+      <c r="BW14" s="44"/>
+      <c r="BX14" s="44"/>
+      <c r="BY14" s="46"/>
+      <c r="CC14" s="52"/>
+      <c r="CD14" s="56"/>
+      <c r="CE14" s="53"/>
     </row>
     <row r="15" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="53" t="s">
+      <c r="C15" s="61"/>
+      <c r="D15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="76">
+      <c r="E15" s="68">
         <v>45091</v>
       </c>
-      <c r="H15" s="52" t="s">
+      <c r="H15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52" t="s">
+      <c r="I15" s="44"/>
+      <c r="J15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="79">
+      <c r="K15" s="71">
         <v>45058</v>
       </c>
-      <c r="L15" s="61"/>
-      <c r="N15" s="52" t="s">
+      <c r="L15" s="53"/>
+      <c r="N15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52" t="s">
+      <c r="O15" s="44"/>
+      <c r="P15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="79">
+      <c r="Q15" s="71">
         <v>45030</v>
       </c>
-      <c r="U15" s="52" t="s">
+      <c r="U15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52" t="s">
+      <c r="V15" s="44"/>
+      <c r="W15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="X15" s="79">
+      <c r="X15" s="71">
         <v>45001</v>
       </c>
-      <c r="Z15" s="52" t="s">
+      <c r="Z15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="52" t="s">
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AC15" s="79">
+      <c r="AC15" s="71">
         <v>44973</v>
       </c>
-      <c r="AF15" s="52" t="s">
+      <c r="AF15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AG15" s="52"/>
-      <c r="AH15" s="52" t="s">
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AI15" s="79">
+      <c r="AI15" s="71">
         <v>44946</v>
       </c>
-      <c r="AL15" s="52" t="s">
+      <c r="AL15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AM15" s="52"/>
-      <c r="AN15" s="52" t="s">
+      <c r="AM15" s="44"/>
+      <c r="AN15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AO15" s="79">
+      <c r="AO15" s="71">
         <v>44911</v>
       </c>
-      <c r="AR15" s="52" t="s">
+      <c r="AR15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AS15" s="60"/>
-      <c r="AT15" s="53" t="s">
+      <c r="AS15" s="52"/>
+      <c r="AT15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AU15" s="78">
+      <c r="AU15" s="70">
         <v>44884</v>
       </c>
-      <c r="AX15" s="52" t="s">
+      <c r="AX15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AY15" s="60"/>
-      <c r="AZ15" s="53" t="s">
+      <c r="AY15" s="52"/>
+      <c r="AZ15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BA15" s="78">
+      <c r="BA15" s="70">
         <v>44849</v>
       </c>
-      <c r="BD15" s="52" t="s">
+      <c r="BD15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BE15" s="60"/>
-      <c r="BF15" s="53" t="s">
+      <c r="BE15" s="52"/>
+      <c r="BF15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BG15" s="78">
+      <c r="BG15" s="70">
         <v>44814</v>
       </c>
-      <c r="BI15" s="52" t="s">
+      <c r="BI15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BJ15" s="60"/>
-      <c r="BK15" s="53" t="s">
+      <c r="BJ15" s="52"/>
+      <c r="BK15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BL15" s="74">
+      <c r="BL15" s="66">
         <v>44786</v>
       </c>
-      <c r="BP15" s="52" t="s">
+      <c r="BP15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BQ15" s="60"/>
-      <c r="BR15" s="52" t="s">
+      <c r="BQ15" s="52"/>
+      <c r="BR15" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="BS15" s="74">
+      <c r="BS15" s="66">
         <v>44758</v>
       </c>
-      <c r="BV15" s="52" t="s">
+      <c r="BV15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BW15" s="52"/>
-      <c r="BX15" s="52" t="s">
+      <c r="BW15" s="44"/>
+      <c r="BX15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BY15" s="59">
+      <c r="BY15" s="51">
         <v>44700</v>
       </c>
-      <c r="CC15" s="52" t="s">
+      <c r="CC15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CD15" s="65" t="s">
+      <c r="CD15" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="CE15" s="57">
+      <c r="CE15" s="49">
         <v>44730</v>
       </c>
     </row>
     <row r="16" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="61"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="61"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="61"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="60"/>
-      <c r="AB16" s="60"/>
-      <c r="AC16" s="61"/>
-      <c r="AF16" s="60"/>
-      <c r="AG16" s="60"/>
-      <c r="AH16" s="60"/>
-      <c r="AI16" s="61"/>
-      <c r="AL16" s="60"/>
-      <c r="AM16" s="60"/>
-      <c r="AN16" s="60"/>
-      <c r="AO16" s="61"/>
-      <c r="BD16" s="52"/>
-      <c r="BE16" s="52"/>
-      <c r="BF16" s="52"/>
-      <c r="BG16" s="54"/>
-      <c r="BI16" s="52"/>
-      <c r="BJ16" s="52"/>
-      <c r="BK16" s="52"/>
-      <c r="BL16" s="54"/>
-      <c r="BP16" s="52"/>
-      <c r="BQ16" s="52"/>
-      <c r="BR16" s="52"/>
-      <c r="BS16" s="54"/>
-      <c r="BV16" s="52"/>
-      <c r="BW16" s="52"/>
-      <c r="BX16" s="52"/>
-      <c r="BY16" s="54"/>
-      <c r="CC16" s="52"/>
-      <c r="CD16" s="65"/>
-      <c r="CE16" s="54"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="53"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="53"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="53"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="53"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="52"/>
+      <c r="AH16" s="52"/>
+      <c r="AI16" s="53"/>
+      <c r="AL16" s="52"/>
+      <c r="AM16" s="52"/>
+      <c r="AN16" s="52"/>
+      <c r="AO16" s="53"/>
+      <c r="BD16" s="44"/>
+      <c r="BE16" s="44"/>
+      <c r="BF16" s="44"/>
+      <c r="BG16" s="46"/>
+      <c r="BI16" s="44"/>
+      <c r="BJ16" s="44"/>
+      <c r="BK16" s="44"/>
+      <c r="BL16" s="46"/>
+      <c r="BP16" s="44"/>
+      <c r="BQ16" s="44"/>
+      <c r="BR16" s="44"/>
+      <c r="BS16" s="46"/>
+      <c r="BV16" s="44"/>
+      <c r="BW16" s="44"/>
+      <c r="BX16" s="44"/>
+      <c r="BY16" s="46"/>
+      <c r="CC16" s="44"/>
+      <c r="CD16" s="57"/>
+      <c r="CE16" s="46"/>
     </row>
     <row r="17" spans="2:83" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="91" t="s">
+      <c r="D17" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="H17" s="52" t="s">
+      <c r="E17" s="49"/>
+      <c r="H17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="60"/>
-      <c r="J17" s="53" t="s">
+      <c r="I17" s="52"/>
+      <c r="J17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="78">
+      <c r="K17" s="70">
         <v>45059</v>
       </c>
-      <c r="L17" s="61"/>
-      <c r="N17" s="52" t="s">
+      <c r="L17" s="53"/>
+      <c r="N17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="60"/>
-      <c r="P17" s="53" t="s">
+      <c r="O17" s="52"/>
+      <c r="P17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="Q17" s="78">
+      <c r="Q17" s="70">
         <v>45031</v>
       </c>
-      <c r="U17" s="52" t="s">
+      <c r="U17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="V17" s="60"/>
-      <c r="W17" s="53" t="s">
+      <c r="V17" s="52"/>
+      <c r="W17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="X17" s="78">
+      <c r="X17" s="70">
         <v>45003</v>
       </c>
-      <c r="Z17" s="52" t="s">
+      <c r="Z17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AA17" s="60"/>
-      <c r="AB17" s="53" t="s">
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AC17" s="78">
+      <c r="AC17" s="70">
         <v>44982</v>
       </c>
-      <c r="AF17" s="52" t="s">
+      <c r="AF17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AG17" s="60"/>
-      <c r="AH17" s="53" t="s">
+      <c r="AG17" s="52"/>
+      <c r="AH17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AI17" s="78">
+      <c r="AI17" s="70">
         <v>44954</v>
       </c>
-      <c r="AL17" s="52" t="s">
+      <c r="AL17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AM17" s="60"/>
-      <c r="AN17" s="53" t="s">
+      <c r="AM17" s="52"/>
+      <c r="AN17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AO17" s="78">
+      <c r="AO17" s="70">
         <v>44912</v>
       </c>
-      <c r="BV17" s="60"/>
-      <c r="BW17" s="60"/>
-      <c r="BX17" s="60"/>
-      <c r="BY17" s="61"/>
-      <c r="CC17" s="52"/>
-      <c r="CD17" s="65"/>
-      <c r="CE17" s="54"/>
+      <c r="BV17" s="52"/>
+      <c r="BW17" s="52"/>
+      <c r="BX17" s="52"/>
+      <c r="BY17" s="53"/>
+      <c r="CC17" s="44"/>
+      <c r="CD17" s="57"/>
+      <c r="CE17" s="46"/>
     </row>
     <row r="18" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="BV18" s="52"/>
-      <c r="BW18" s="52"/>
-      <c r="BX18" s="52"/>
-      <c r="BY18" s="54"/>
-      <c r="CC18" s="52"/>
-      <c r="CD18" s="65"/>
-      <c r="CE18" s="54"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="BV18" s="44"/>
+      <c r="BW18" s="44"/>
+      <c r="BX18" s="44"/>
+      <c r="BY18" s="46"/>
+      <c r="CC18" s="44"/>
+      <c r="CD18" s="57"/>
+      <c r="CE18" s="46"/>
     </row>
     <row r="19" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="61"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="61"/>
-      <c r="BV19" s="52"/>
-      <c r="BW19" s="52"/>
-      <c r="BX19" s="52"/>
-      <c r="BY19" s="54"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="53"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="53"/>
+      <c r="BV19" s="44"/>
+      <c r="BW19" s="44"/>
+      <c r="BX19" s="44"/>
+      <c r="BY19" s="46"/>
     </row>
     <row r="20" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="BV20" s="52"/>
-      <c r="BW20" s="52"/>
-      <c r="BX20" s="52"/>
-      <c r="BY20" s="54"/>
+      <c r="BV20" s="44"/>
+      <c r="BW20" s="44"/>
+      <c r="BX20" s="44"/>
+      <c r="BY20" s="46"/>
     </row>
     <row r="21" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="BV21" s="52"/>
-      <c r="BW21" s="52"/>
-      <c r="BX21" s="52"/>
-      <c r="BY21" s="54"/>
+      <c r="BV21" s="44"/>
+      <c r="BW21" s="44"/>
+      <c r="BX21" s="44"/>
+      <c r="BY21" s="46"/>
     </row>
     <row r="22" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="BV22" s="52"/>
-      <c r="BW22" s="52"/>
-      <c r="BX22" s="52"/>
-      <c r="BY22" s="54"/>
+      <c r="BV22" s="44"/>
+      <c r="BW22" s="44"/>
+      <c r="BX22" s="44"/>
+      <c r="BY22" s="46"/>
     </row>
     <row r="23" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="BV23" s="52"/>
-      <c r="BW23" s="52"/>
-      <c r="BX23" s="52"/>
-      <c r="BY23" s="54"/>
+      <c r="BV23" s="44"/>
+      <c r="BW23" s="44"/>
+      <c r="BX23" s="44"/>
+      <c r="BY23" s="46"/>
     </row>
     <row r="24" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="BV24" s="52"/>
-      <c r="BW24" s="52"/>
-      <c r="BX24" s="52"/>
-      <c r="BY24" s="54"/>
+      <c r="BV24" s="44"/>
+      <c r="BW24" s="44"/>
+      <c r="BX24" s="44"/>
+      <c r="BY24" s="46"/>
     </row>
     <row r="25" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="BV25" s="52"/>
-      <c r="BW25" s="52"/>
-      <c r="BX25" s="52"/>
-      <c r="BY25" s="54"/>
+      <c r="BV25" s="44"/>
+      <c r="BW25" s="44"/>
+      <c r="BX25" s="44"/>
+      <c r="BY25" s="46"/>
     </row>
     <row r="26" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="BV26" s="52"/>
-      <c r="BW26" s="52"/>
-      <c r="BX26" s="52"/>
-      <c r="BY26" s="54"/>
+      <c r="BV26" s="44"/>
+      <c r="BW26" s="44"/>
+      <c r="BX26" s="44"/>
+      <c r="BY26" s="46"/>
     </row>
     <row r="27" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="BV27" s="52"/>
-      <c r="BW27" s="52"/>
-      <c r="BX27" s="52"/>
-      <c r="BY27" s="54"/>
+      <c r="BV27" s="44"/>
+      <c r="BW27" s="44"/>
+      <c r="BX27" s="44"/>
+      <c r="BY27" s="46"/>
     </row>
     <row r="28" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="BV28" s="52"/>
-      <c r="BW28" s="52"/>
-      <c r="BX28" s="52"/>
-      <c r="BY28" s="54"/>
+      <c r="BV28" s="44"/>
+      <c r="BW28" s="44"/>
+      <c r="BX28" s="44"/>
+      <c r="BY28" s="46"/>
     </row>
     <row r="29" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="BV29" s="52"/>
-      <c r="BW29" s="52"/>
-      <c r="BX29" s="52"/>
-      <c r="BY29" s="54"/>
+      <c r="BV29" s="44"/>
+      <c r="BW29" s="44"/>
+      <c r="BX29" s="44"/>
+      <c r="BY29" s="46"/>
     </row>
     <row r="30" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="BV30" s="52"/>
-      <c r="BW30" s="52"/>
-      <c r="BX30" s="52"/>
-      <c r="BY30" s="54"/>
+      <c r="BV30" s="44"/>
+      <c r="BW30" s="44"/>
+      <c r="BX30" s="44"/>
+      <c r="BY30" s="46"/>
     </row>
     <row r="31" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="BV31" s="52"/>
-      <c r="BW31" s="52"/>
-      <c r="BX31" s="52"/>
-      <c r="BY31" s="54"/>
+      <c r="BV31" s="44"/>
+      <c r="BW31" s="44"/>
+      <c r="BX31" s="44"/>
+      <c r="BY31" s="46"/>
     </row>
   </sheetData>
   <sortState ref="U11:X13">

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="45">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -290,7 +290,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +381,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -708,7 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -913,24 +919,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -955,6 +943,27 @@
     </xf>
     <xf numFmtId="44" fontId="5" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -965,6 +974,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF66CCFF"/>
@@ -1304,45 +1314,45 @@
   </sheetPr>
   <dimension ref="A2:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="94" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="88" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="24"/>
-    <col min="4" max="4" width="15.140625" style="94" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="88" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="24"/>
-    <col min="6" max="6" width="14.42578125" style="94" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="88" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="93" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="24"/>
-    <col min="10" max="10" width="13.28515625" style="99" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="93" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" style="24"/>
-    <col min="12" max="12" width="14.85546875" style="94" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="88" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="90"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="99"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1350,37 +1360,37 @@
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="92" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="91" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="95" t="s">
+      <c r="F5" s="89" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="100" t="s">
+      <c r="H5" s="94" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="102" t="s">
+      <c r="J5" s="96" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="96" t="s">
+      <c r="L5" s="90" t="s">
         <v>9</v>
       </c>
       <c r="M5" s="40" t="s">
@@ -1450,7 +1460,7 @@
       <c r="G7" s="32">
         <v>267</v>
       </c>
-      <c r="H7" s="101">
+      <c r="H7" s="95">
         <v>1856</v>
       </c>
       <c r="I7" s="36">
@@ -2086,8 +2096,12 @@
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="37"/>
+      <c r="B23" s="7">
+        <v>986</v>
+      </c>
+      <c r="C23" s="37">
+        <v>637</v>
+      </c>
       <c r="D23" s="9">
         <v>1392</v>
       </c>
@@ -2357,10 +2371,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:CE31"/>
+  <dimension ref="B3:CK31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2370,20 +2384,21 @@
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="54" customWidth="1"/>
     <col min="14" max="14" width="36" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.7109375" customWidth="1"/>
     <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.85546875" customWidth="1"/>
-    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="36" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" style="54" customWidth="1"/>
+    <col min="20" max="20" width="36" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="36" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.85546875" customWidth="1"/>
+    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="36" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -2392,133 +2407,132 @@
     <col min="41" max="41" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="36" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="36" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="36" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18.42578125" customWidth="1"/>
-    <col min="61" max="61" width="36" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.42578125" customWidth="1"/>
-    <col min="68" max="68" width="36" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="17.140625" customWidth="1"/>
-    <col min="71" max="71" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="74" max="75" width="19.5703125" customWidth="1"/>
-    <col min="76" max="76" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="18.42578125" style="47" customWidth="1"/>
-    <col min="81" max="81" width="36" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="19.5703125" style="19" customWidth="1"/>
-    <col min="83" max="83" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="36" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="18.42578125" customWidth="1"/>
+    <col min="67" max="67" width="36" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="18.42578125" customWidth="1"/>
+    <col min="74" max="74" width="36" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.140625" customWidth="1"/>
+    <col min="77" max="77" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="80" max="81" width="19.5703125" customWidth="1"/>
+    <col min="82" max="82" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="18.42578125" style="47" customWidth="1"/>
+    <col min="87" max="87" width="36" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="19.5703125" style="19" customWidth="1"/>
+    <col min="89" max="89" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AR3" s="92" t="s">
+    <row r="3" spans="2:89" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AX3" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="92"/>
-      <c r="AT3" s="92"/>
-      <c r="AU3" s="60"/>
-      <c r="AX3" s="92" t="s">
+      <c r="AY3" s="101"/>
+      <c r="AZ3" s="101"/>
+      <c r="BA3" s="60"/>
+      <c r="BD3" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="AY3" s="92"/>
-      <c r="AZ3" s="92"/>
-      <c r="BA3" s="60"/>
-      <c r="BD3" s="92" t="s">
+      <c r="BE3" s="101"/>
+      <c r="BF3" s="101"/>
+      <c r="BG3" s="60"/>
+      <c r="BJ3" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="BE3" s="92"/>
-      <c r="BF3" s="92"/>
-      <c r="BG3" s="60"/>
-      <c r="BI3" s="92" t="s">
+      <c r="BK3" s="101"/>
+      <c r="BL3" s="101"/>
+      <c r="BM3" s="60"/>
+      <c r="BO3" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="BJ3" s="92"/>
-      <c r="BK3" s="92"/>
-      <c r="BL3" s="60"/>
-      <c r="BP3" s="92" t="s">
+      <c r="BP3" s="101"/>
+      <c r="BQ3" s="101"/>
+      <c r="BR3" s="60"/>
+      <c r="BV3" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="BQ3" s="92"/>
-      <c r="BR3" s="92"/>
-      <c r="BS3" s="60"/>
-      <c r="BT3" s="59"/>
-      <c r="BV3" s="92" t="s">
+      <c r="BW3" s="101"/>
+      <c r="BX3" s="101"/>
+      <c r="BY3" s="60"/>
+      <c r="BZ3" s="59"/>
+      <c r="CB3" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="BW3" s="92"/>
-      <c r="BX3" s="92"/>
-      <c r="BY3" s="92"/>
-      <c r="CC3" s="92" t="s">
+      <c r="CC3" s="101"/>
+      <c r="CD3" s="101"/>
+      <c r="CE3" s="101"/>
+      <c r="CI3" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="CD3" s="92"/>
-      <c r="CE3" s="92"/>
-    </row>
-    <row r="4" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="AU4" s="47"/>
+      <c r="CJ3" s="101"/>
+      <c r="CK3" s="101"/>
+    </row>
+    <row r="4" spans="2:89" x14ac:dyDescent="0.25">
       <c r="BA4" s="47"/>
       <c r="BG4" s="47"/>
-      <c r="BL4" s="47"/>
-      <c r="BS4" s="47"/>
-      <c r="CE4" s="47"/>
-    </row>
-    <row r="5" spans="2:83" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="92" t="s">
+      <c r="BM4" s="47"/>
+      <c r="BR4" s="47"/>
+      <c r="BY4" s="47"/>
+      <c r="CK4" s="47"/>
+    </row>
+    <row r="5" spans="2:89" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B5" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="60"/>
-      <c r="H5" s="92" t="s">
+      <c r="H5" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="60"/>
-      <c r="L5" s="85"/>
-      <c r="N5" s="92" t="s">
+      <c r="N5" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
       <c r="Q5" s="60"/>
-      <c r="U5" s="92" t="s">
+      <c r="R5" s="85"/>
+      <c r="T5" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="60"/>
-      <c r="Z5" s="92" t="s">
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="60"/>
+      <c r="AA5" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="60"/>
-      <c r="AF5" s="92" t="s">
+      <c r="AB5" s="101"/>
+      <c r="AC5" s="101"/>
+      <c r="AD5" s="60"/>
+      <c r="AF5" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="AG5" s="92"/>
-      <c r="AH5" s="92"/>
+      <c r="AG5" s="101"/>
+      <c r="AH5" s="101"/>
       <c r="AI5" s="60"/>
-      <c r="AL5" s="92" t="s">
+      <c r="AL5" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="AM5" s="92"/>
-      <c r="AN5" s="92"/>
+      <c r="AM5" s="101"/>
+      <c r="AN5" s="101"/>
       <c r="AO5" s="60"/>
-      <c r="AR5" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="AS5" s="61"/>
-      <c r="AT5" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU5" s="68">
-        <v>44861</v>
-      </c>
+      <c r="AR5" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS5" s="101"/>
+      <c r="AT5" s="101"/>
+      <c r="AU5" s="60"/>
       <c r="AX5" s="61" t="s">
         <v>23</v>
       </c>
@@ -2527,88 +2541,99 @@
         <v>15</v>
       </c>
       <c r="BA5" s="68">
+        <v>44861</v>
+      </c>
+      <c r="BD5" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE5" s="61"/>
+      <c r="BF5" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG5" s="68">
         <v>44833</v>
       </c>
-      <c r="BD5" s="44" t="s">
+      <c r="BJ5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BE5" s="44"/>
-      <c r="BF5" s="44" t="s">
+      <c r="BK5" s="44"/>
+      <c r="BL5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BG5" s="50">
+      <c r="BM5" s="50">
         <v>44804</v>
       </c>
-      <c r="BI5" s="44" t="s">
+      <c r="BO5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BJ5" s="44"/>
-      <c r="BK5" s="44" t="s">
+      <c r="BP5" s="44"/>
+      <c r="BQ5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BL5" s="64">
+      <c r="BR5" s="64">
         <v>44776</v>
       </c>
-      <c r="BP5" s="61" t="s">
+      <c r="BV5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BQ5" s="61"/>
-      <c r="BR5" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="BS5" s="51">
-        <v>44747</v>
-      </c>
-      <c r="BV5" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="BW5" s="93"/>
+      <c r="BW5" s="61"/>
       <c r="BX5" s="45" t="s">
         <v>15</v>
       </c>
       <c r="BY5" s="51">
+        <v>44747</v>
+      </c>
+      <c r="CB5" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="CC5" s="102"/>
+      <c r="CD5" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="CE5" s="51">
         <v>44686</v>
       </c>
-      <c r="CC5" s="48" t="s">
+      <c r="CI5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="CD5" s="55" t="s">
+      <c r="CJ5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="CE5" s="51">
+      <c r="CK5" s="51">
         <v>44714</v>
       </c>
     </row>
-    <row r="6" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:89" ht="21" x14ac:dyDescent="0.35">
       <c r="E6" s="47"/>
       <c r="K6" s="47"/>
-      <c r="L6" s="86"/>
       <c r="Q6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="AC6" s="47"/>
+      <c r="R6" s="86"/>
+      <c r="W6" s="47"/>
+      <c r="AD6" s="47"/>
       <c r="AI6" s="47"/>
       <c r="AO6" s="47"/>
-      <c r="AR6" s="44"/>
-      <c r="AS6" s="44"/>
-      <c r="AT6" s="44"/>
-      <c r="AU6" s="53"/>
+      <c r="AU6" s="47"/>
       <c r="AX6" s="44"/>
       <c r="AY6" s="44"/>
       <c r="AZ6" s="44"/>
       <c r="BA6" s="53"/>
-      <c r="BP6" s="62"/>
-      <c r="BQ6" s="62"/>
-      <c r="BR6" s="63"/>
-      <c r="BS6" s="53"/>
-      <c r="BV6" s="44"/>
-      <c r="BW6" s="44"/>
-      <c r="BX6" s="44"/>
-      <c r="BY6" s="46"/>
-      <c r="CC6" s="52"/>
-      <c r="CD6" s="56"/>
-      <c r="CE6" s="53"/>
-    </row>
-    <row r="7" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+      <c r="BD6" s="44"/>
+      <c r="BE6" s="44"/>
+      <c r="BF6" s="44"/>
+      <c r="BG6" s="53"/>
+      <c r="BV6" s="62"/>
+      <c r="BW6" s="62"/>
+      <c r="BX6" s="63"/>
+      <c r="BY6" s="53"/>
+      <c r="CB6" s="44"/>
+      <c r="CC6" s="44"/>
+      <c r="CD6" s="44"/>
+      <c r="CE6" s="46"/>
+      <c r="CI6" s="52"/>
+      <c r="CJ6" s="56"/>
+      <c r="CK6" s="53"/>
+    </row>
+    <row r="7" spans="2:89" ht="21" x14ac:dyDescent="0.35">
       <c r="B7" s="44" t="s">
         <v>25</v>
       </c>
@@ -2617,19 +2642,18 @@
         <v>18</v>
       </c>
       <c r="E7" s="51">
-        <v>45083</v>
+        <v>45111</v>
       </c>
       <c r="H7" s="44" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I7" s="44"/>
       <c r="J7" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="50">
-        <v>45049</v>
-      </c>
-      <c r="L7" s="53"/>
+        <v>18</v>
+      </c>
+      <c r="K7" s="51">
+        <v>45083</v>
+      </c>
       <c r="N7" s="44" t="s">
         <v>16</v>
       </c>
@@ -2638,27 +2662,28 @@
         <v>17</v>
       </c>
       <c r="Q7" s="50">
+        <v>45049</v>
+      </c>
+      <c r="R7" s="53"/>
+      <c r="T7" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="W7" s="50">
         <v>45021</v>
       </c>
-      <c r="U7" s="44" t="s">
+      <c r="AA7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44" t="s">
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="X7" s="50">
+      <c r="AD7" s="50">
         <v>44986</v>
-      </c>
-      <c r="Z7" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC7" s="50">
-        <v>44958</v>
       </c>
       <c r="AF7" s="44" t="s">
         <v>16</v>
@@ -2668,27 +2693,27 @@
         <v>17</v>
       </c>
       <c r="AI7" s="50">
+        <v>44958</v>
+      </c>
+      <c r="AL7" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM7" s="44"/>
+      <c r="AN7" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO7" s="50">
         <v>44930</v>
       </c>
-      <c r="AL7" s="61" t="s">
+      <c r="AR7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AM7" s="61"/>
-      <c r="AN7" s="45" t="s">
+      <c r="AS7" s="61"/>
+      <c r="AT7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AO7" s="68">
+      <c r="AU7" s="68">
         <v>44896</v>
-      </c>
-      <c r="AR7" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS7" s="44"/>
-      <c r="AT7" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="AU7" s="50">
-        <v>44874</v>
       </c>
       <c r="AX7" s="44" t="s">
         <v>16</v>
@@ -2698,37 +2723,37 @@
         <v>17</v>
       </c>
       <c r="BA7" s="50">
+        <v>44874</v>
+      </c>
+      <c r="BD7" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE7" s="44"/>
+      <c r="BF7" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG7" s="50">
         <v>44839</v>
       </c>
-      <c r="BD7" s="61" t="s">
+      <c r="BJ7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BE7" s="61"/>
-      <c r="BF7" s="45" t="s">
+      <c r="BK7" s="61"/>
+      <c r="BL7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BG7" s="68">
+      <c r="BM7" s="68">
         <v>44805</v>
       </c>
-      <c r="BI7" s="61" t="s">
+      <c r="BO7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BJ7" s="61"/>
-      <c r="BK7" s="45" t="s">
+      <c r="BP7" s="61"/>
+      <c r="BQ7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BL7" s="51">
+      <c r="BR7" s="51">
         <v>44777</v>
-      </c>
-      <c r="BP7" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="BQ7" s="44"/>
-      <c r="BR7" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="BS7" s="64">
-        <v>44748</v>
       </c>
       <c r="BV7" s="44" t="s">
         <v>16</v>
@@ -2737,21 +2762,31 @@
       <c r="BX7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BY7" s="49">
+      <c r="BY7" s="64">
+        <v>44748</v>
+      </c>
+      <c r="CB7" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="CC7" s="44"/>
+      <c r="CD7" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="CE7" s="49">
         <v>44691</v>
       </c>
-      <c r="BZ7" s="54"/>
-      <c r="CC7" s="44" t="s">
+      <c r="CF7" s="54"/>
+      <c r="CI7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="CD7" s="57" t="s">
+      <c r="CJ7" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="CE7" s="49">
+      <c r="CK7" s="49">
         <v>44719</v>
       </c>
     </row>
-    <row r="8" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:89" ht="21" x14ac:dyDescent="0.35">
       <c r="B8" s="62"/>
       <c r="C8" s="62"/>
       <c r="D8" s="63"/>
@@ -2760,40 +2795,44 @@
       <c r="I8" s="62"/>
       <c r="J8" s="63"/>
       <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
       <c r="N8" s="62"/>
       <c r="O8" s="62"/>
       <c r="P8" s="63"/>
       <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="T8" s="62"/>
       <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="63"/>
-      <c r="X8" s="53"/>
-      <c r="Z8" s="62"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="53"/>
       <c r="AA8" s="62"/>
-      <c r="AB8" s="63"/>
-      <c r="AC8" s="53"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="53"/>
       <c r="AF8" s="62"/>
       <c r="AG8" s="62"/>
       <c r="AH8" s="63"/>
       <c r="AI8" s="53"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="44"/>
-      <c r="AN8" s="44"/>
+      <c r="AL8" s="62"/>
+      <c r="AM8" s="62"/>
+      <c r="AN8" s="63"/>
       <c r="AO8" s="53"/>
-      <c r="BP8" s="52"/>
-      <c r="BQ8" s="52"/>
-      <c r="BR8" s="52"/>
-      <c r="BS8" s="53"/>
-      <c r="BV8" s="44"/>
-      <c r="BW8" s="44"/>
-      <c r="BX8" s="44"/>
-      <c r="BY8" s="46"/>
-      <c r="CC8" s="52"/>
-      <c r="CD8" s="56"/>
-      <c r="CE8" s="53"/>
-    </row>
-    <row r="9" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+      <c r="AR8" s="44"/>
+      <c r="AS8" s="44"/>
+      <c r="AT8" s="44"/>
+      <c r="AU8" s="53"/>
+      <c r="BV8" s="52"/>
+      <c r="BW8" s="52"/>
+      <c r="BX8" s="52"/>
+      <c r="BY8" s="53"/>
+      <c r="CB8" s="44"/>
+      <c r="CC8" s="44"/>
+      <c r="CD8" s="44"/>
+      <c r="CE8" s="46"/>
+      <c r="CI8" s="52"/>
+      <c r="CJ8" s="56"/>
+      <c r="CK8" s="53"/>
+    </row>
+    <row r="9" spans="2:89" ht="21" x14ac:dyDescent="0.35">
       <c r="B9" s="44" t="s">
         <v>16</v>
       </c>
@@ -2802,19 +2841,18 @@
         <v>17</v>
       </c>
       <c r="E9" s="50">
-        <v>45084</v>
+        <v>45112</v>
       </c>
       <c r="H9" s="44" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I9" s="44"/>
       <c r="J9" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="51">
-        <v>45055</v>
-      </c>
-      <c r="L9" s="53"/>
+        <v>17</v>
+      </c>
+      <c r="K9" s="50">
+        <v>45084</v>
+      </c>
       <c r="N9" s="44" t="s">
         <v>25</v>
       </c>
@@ -2823,27 +2861,28 @@
         <v>18</v>
       </c>
       <c r="Q9" s="51">
+        <v>45055</v>
+      </c>
+      <c r="R9" s="53"/>
+      <c r="T9" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="W9" s="51">
         <v>45027</v>
       </c>
-      <c r="U9" s="61" t="s">
+      <c r="AA9" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="V9" s="61"/>
-      <c r="W9" s="45" t="s">
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="X9" s="68">
+      <c r="AD9" s="68">
         <v>44987</v>
-      </c>
-      <c r="Z9" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA9" s="61"/>
-      <c r="AB9" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC9" s="68">
-        <v>44959</v>
       </c>
       <c r="AF9" s="61" t="s">
         <v>23</v>
@@ -2853,27 +2892,27 @@
         <v>15</v>
       </c>
       <c r="AI9" s="68">
+        <v>44959</v>
+      </c>
+      <c r="AL9" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM9" s="61"/>
+      <c r="AN9" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO9" s="68">
         <v>44931</v>
       </c>
-      <c r="AL9" s="44" t="s">
+      <c r="AR9" s="44" t="s">
         <v>16</v>
-      </c>
-      <c r="AM9" s="44"/>
-      <c r="AN9" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO9" s="50">
-        <v>44902</v>
-      </c>
-      <c r="AR9" s="44" t="s">
-        <v>24</v>
       </c>
       <c r="AS9" s="44"/>
       <c r="AT9" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU9" s="69">
-        <v>44875</v>
+        <v>17</v>
+      </c>
+      <c r="AU9" s="50">
+        <v>44902</v>
       </c>
       <c r="AX9" s="44" t="s">
         <v>24</v>
@@ -2883,37 +2922,37 @@
         <v>32</v>
       </c>
       <c r="BA9" s="69">
-        <v>44840</v>
+        <v>44875</v>
       </c>
       <c r="BD9" s="44" t="s">
         <v>24</v>
       </c>
       <c r="BE9" s="44"/>
       <c r="BF9" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="BG9" s="69">
+        <v>44840</v>
+      </c>
+      <c r="BJ9" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK9" s="44"/>
+      <c r="BL9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="BG9" s="69">
+      <c r="BM9" s="69">
         <v>44807</v>
       </c>
-      <c r="BI9" s="44" t="s">
+      <c r="BO9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="BJ9" s="44"/>
-      <c r="BK9" s="44" t="s">
+      <c r="BP9" s="44"/>
+      <c r="BQ9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="BL9" s="50">
+      <c r="BR9" s="50">
         <v>44779</v>
-      </c>
-      <c r="BP9" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="BQ9" s="44"/>
-      <c r="BR9" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="BS9" s="49">
-        <v>44749</v>
       </c>
       <c r="BV9" s="44" t="s">
         <v>25</v>
@@ -2922,59 +2961,73 @@
       <c r="BX9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BY9" s="51">
+      <c r="BY9" s="49">
+        <v>44749</v>
+      </c>
+      <c r="CB9" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="CC9" s="44"/>
+      <c r="CD9" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="CE9" s="51">
         <v>44693</v>
       </c>
-      <c r="CC9" s="44" t="s">
+      <c r="CI9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="CD9" s="57" t="s">
+      <c r="CJ9" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="CE9" s="51">
+      <c r="CK9" s="51">
         <v>44721</v>
       </c>
     </row>
-    <row r="10" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:89" ht="21" x14ac:dyDescent="0.35">
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
       <c r="E10" s="53"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
       <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
       <c r="N10" s="52"/>
       <c r="O10" s="52"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="T10" s="52"/>
       <c r="U10" s="52"/>
       <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="53"/>
-      <c r="Z10" s="52"/>
+      <c r="W10" s="53"/>
       <c r="AA10" s="52"/>
       <c r="AB10" s="52"/>
-      <c r="AC10" s="53"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="53"/>
       <c r="AF10" s="52"/>
       <c r="AG10" s="52"/>
       <c r="AH10" s="52"/>
       <c r="AI10" s="53"/>
-      <c r="AJ10" s="54"/>
-      <c r="BP10" s="52"/>
-      <c r="BQ10" s="52"/>
-      <c r="BR10" s="52"/>
-      <c r="BS10" s="53"/>
-      <c r="BV10" s="44"/>
-      <c r="BW10" s="44"/>
-      <c r="BX10" s="44"/>
-      <c r="BY10" s="46"/>
-      <c r="CC10" s="52"/>
-      <c r="CD10" s="56"/>
-      <c r="CE10" s="53"/>
-    </row>
-    <row r="11" spans="2:83" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="AL10" s="52"/>
+      <c r="AM10" s="52"/>
+      <c r="AN10" s="52"/>
+      <c r="AO10" s="53"/>
+      <c r="AP10" s="54"/>
+      <c r="BV10" s="52"/>
+      <c r="BW10" s="52"/>
+      <c r="BX10" s="52"/>
+      <c r="BY10" s="53"/>
+      <c r="CB10" s="44"/>
+      <c r="CC10" s="44"/>
+      <c r="CD10" s="44"/>
+      <c r="CE10" s="46"/>
+      <c r="CI10" s="52"/>
+      <c r="CJ10" s="56"/>
+      <c r="CK10" s="53"/>
+    </row>
+    <row r="11" spans="2:89" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B11" s="44" t="s">
         <v>21</v>
       </c>
@@ -2983,19 +3036,18 @@
         <v>22</v>
       </c>
       <c r="E11" s="71">
+        <v>45114</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="71">
         <v>45086</v>
       </c>
-      <c r="H11" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="49"/>
-      <c r="L11" s="53"/>
       <c r="N11" s="83" t="s">
         <v>24</v>
       </c>
@@ -3006,27 +3058,28 @@
         <v>32</v>
       </c>
       <c r="Q11" s="49"/>
-      <c r="U11" s="83" t="s">
+      <c r="R11" s="53"/>
+      <c r="T11" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="V11" s="84" t="s">
+      <c r="U11" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="W11" s="83" t="s">
+      <c r="V11" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="X11" s="49">
+      <c r="W11" s="49"/>
+      <c r="AA11" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB11" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC11" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD11" s="49">
         <v>44993</v>
-      </c>
-      <c r="Z11" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC11" s="51">
-        <v>44967</v>
       </c>
       <c r="AF11" s="44" t="s">
         <v>25</v>
@@ -3036,27 +3089,27 @@
         <v>18</v>
       </c>
       <c r="AI11" s="51">
-        <v>44932</v>
+        <v>44967</v>
       </c>
       <c r="AL11" s="44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM11" s="44"/>
       <c r="AN11" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO11" s="69">
-        <v>44903</v>
+        <v>18</v>
+      </c>
+      <c r="AO11" s="51">
+        <v>44932</v>
       </c>
       <c r="AR11" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS11" s="44"/>
       <c r="AT11" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="AU11" s="51">
-        <v>44876</v>
+        <v>32</v>
+      </c>
+      <c r="AU11" s="69">
+        <v>44903</v>
       </c>
       <c r="AX11" s="44" t="s">
         <v>25</v>
@@ -3066,7 +3119,7 @@
         <v>18</v>
       </c>
       <c r="BA11" s="51">
-        <v>44841</v>
+        <v>44876</v>
       </c>
       <c r="BD11" s="44" t="s">
         <v>25</v>
@@ -3076,49 +3129,59 @@
         <v>18</v>
       </c>
       <c r="BG11" s="51">
+        <v>44841</v>
+      </c>
+      <c r="BJ11" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="BK11" s="44"/>
+      <c r="BL11" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="BM11" s="51">
         <v>44812</v>
       </c>
-      <c r="BI11" s="44" t="s">
+      <c r="BO11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BJ11" s="44"/>
-      <c r="BK11" s="44" t="s">
+      <c r="BP11" s="44"/>
+      <c r="BQ11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BL11" s="49">
+      <c r="BR11" s="49">
         <v>44784</v>
       </c>
-      <c r="BP11" s="44" t="s">
+      <c r="BV11" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="BQ11" s="44"/>
-      <c r="BR11" s="44" t="s">
+      <c r="BW11" s="44"/>
+      <c r="BX11" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="BS11" s="50">
+      <c r="BY11" s="50">
         <v>44751</v>
       </c>
-      <c r="BV11" s="44" t="s">
+      <c r="CB11" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BW11" s="52"/>
-      <c r="BX11" s="44" t="s">
+      <c r="CC11" s="52"/>
+      <c r="CD11" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="BY11" s="49">
+      <c r="CE11" s="49">
         <v>44695</v>
       </c>
-      <c r="CC11" s="44" t="s">
+      <c r="CI11" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="CD11" s="57" t="s">
+      <c r="CJ11" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="CE11" s="50">
+      <c r="CK11" s="50">
         <v>44723</v>
       </c>
     </row>
-    <row r="12" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:89" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
@@ -3127,19 +3190,19 @@
       <c r="I12" s="52"/>
       <c r="J12" s="52"/>
       <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
       <c r="N12" s="52"/>
       <c r="O12" s="52"/>
       <c r="P12" s="52"/>
       <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="T12" s="52"/>
       <c r="U12" s="52"/>
       <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="53"/>
-      <c r="AR12" s="62"/>
-      <c r="AS12" s="62"/>
-      <c r="AT12" s="63"/>
-      <c r="AU12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="53"/>
       <c r="AX12" s="62"/>
       <c r="AY12" s="62"/>
       <c r="AZ12" s="63"/>
@@ -3148,23 +3211,27 @@
       <c r="BE12" s="62"/>
       <c r="BF12" s="63"/>
       <c r="BG12" s="53"/>
-      <c r="BI12" s="62"/>
       <c r="BJ12" s="62"/>
-      <c r="BK12" s="63"/>
-      <c r="BL12" s="53"/>
-      <c r="BP12" s="52"/>
-      <c r="BQ12" s="52"/>
-      <c r="BR12" s="52"/>
-      <c r="BS12" s="53"/>
-      <c r="BV12" s="44"/>
-      <c r="BW12" s="44"/>
-      <c r="BX12" s="44"/>
-      <c r="BY12" s="46"/>
-      <c r="CC12" s="52"/>
-      <c r="CD12" s="56"/>
-      <c r="CE12" s="53"/>
-    </row>
-    <row r="13" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+      <c r="BK12" s="62"/>
+      <c r="BL12" s="63"/>
+      <c r="BM12" s="53"/>
+      <c r="BO12" s="62"/>
+      <c r="BP12" s="62"/>
+      <c r="BQ12" s="63"/>
+      <c r="BR12" s="53"/>
+      <c r="BV12" s="52"/>
+      <c r="BW12" s="52"/>
+      <c r="BX12" s="52"/>
+      <c r="BY12" s="53"/>
+      <c r="CB12" s="44"/>
+      <c r="CC12" s="44"/>
+      <c r="CD12" s="44"/>
+      <c r="CE12" s="46"/>
+      <c r="CI12" s="52"/>
+      <c r="CJ12" s="56"/>
+      <c r="CK12" s="53"/>
+    </row>
+    <row r="13" spans="2:89" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="44" t="s">
         <v>19</v>
       </c>
@@ -3173,19 +3240,18 @@
         <v>15</v>
       </c>
       <c r="E13" s="70">
-        <v>45087</v>
-      </c>
-      <c r="H13" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="61"/>
+        <v>45115</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="52"/>
       <c r="J13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="68">
-        <v>45057</v>
-      </c>
-      <c r="L13" s="53"/>
+      <c r="K13" s="70">
+        <v>45087</v>
+      </c>
       <c r="N13" s="61" t="s">
         <v>23</v>
       </c>
@@ -3194,27 +3260,28 @@
         <v>15</v>
       </c>
       <c r="Q13" s="68">
+        <v>45057</v>
+      </c>
+      <c r="R13" s="53"/>
+      <c r="T13" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="U13" s="61"/>
+      <c r="V13" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="W13" s="68">
         <v>45029</v>
       </c>
-      <c r="U13" s="44" t="s">
+      <c r="AA13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44" t="s">
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="X13" s="51">
+      <c r="AD13" s="51">
         <v>44995</v>
-      </c>
-      <c r="Z13" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC13" s="69">
-        <v>44966</v>
       </c>
       <c r="AF13" s="44" t="s">
         <v>24</v>
@@ -3224,27 +3291,27 @@
         <v>32</v>
       </c>
       <c r="AI13" s="69">
-        <v>44938</v>
+        <v>44966</v>
       </c>
       <c r="AL13" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM13" s="44"/>
       <c r="AN13" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="AO13" s="51">
-        <v>44904</v>
+        <v>32</v>
+      </c>
+      <c r="AO13" s="69">
+        <v>44938</v>
       </c>
       <c r="AR13" s="44" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AS13" s="44"/>
       <c r="AT13" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU13" s="71">
-        <v>44883</v>
+        <v>18</v>
+      </c>
+      <c r="AU13" s="51">
+        <v>44904</v>
       </c>
       <c r="AX13" s="44" t="s">
         <v>21</v>
@@ -3254,7 +3321,7 @@
         <v>22</v>
       </c>
       <c r="BA13" s="71">
-        <v>44848</v>
+        <v>44883</v>
       </c>
       <c r="BD13" s="44" t="s">
         <v>21</v>
@@ -3263,71 +3330,81 @@
       <c r="BF13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BG13" s="67">
+      <c r="BG13" s="71">
+        <v>44848</v>
+      </c>
+      <c r="BJ13" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="BK13" s="44"/>
+      <c r="BL13" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM13" s="67">
         <v>44813</v>
       </c>
-      <c r="BI13" s="44" t="s">
+      <c r="BO13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BJ13" s="44"/>
-      <c r="BK13" s="44" t="s">
+      <c r="BP13" s="44"/>
+      <c r="BQ13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BL13" s="65">
+      <c r="BR13" s="65">
         <v>44785</v>
       </c>
-      <c r="BP13" s="44" t="s">
+      <c r="BV13" s="44" t="s">
         <v>21</v>
-      </c>
-      <c r="BQ13" s="44"/>
-      <c r="BR13" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="BS13" s="65">
-        <v>44756</v>
-      </c>
-      <c r="BV13" s="44" t="s">
-        <v>24</v>
       </c>
       <c r="BW13" s="44"/>
       <c r="BX13" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="BY13" s="65">
+        <v>44756</v>
+      </c>
+      <c r="CB13" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="CC13" s="44"/>
+      <c r="CD13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="BY13" s="50">
+      <c r="CE13" s="50">
         <v>44695</v>
       </c>
-      <c r="CC13" s="44" t="s">
+      <c r="CI13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CD13" s="57" t="s">
+      <c r="CJ13" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="CE13" s="51">
+      <c r="CK13" s="51">
         <v>44728</v>
       </c>
     </row>
-    <row r="14" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:89" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="52"/>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
       <c r="E14" s="53"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="63"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
       <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
       <c r="N14" s="62"/>
       <c r="O14" s="62"/>
       <c r="P14" s="63"/>
       <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="T14" s="62"/>
       <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="63"/>
-      <c r="X14" s="53"/>
-      <c r="Z14" s="62"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="53"/>
       <c r="AA14" s="62"/>
-      <c r="AB14" s="63"/>
-      <c r="AC14" s="53"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="63"/>
+      <c r="AD14" s="53"/>
       <c r="AF14" s="62"/>
       <c r="AG14" s="62"/>
       <c r="AH14" s="63"/>
@@ -3336,9 +3413,9 @@
       <c r="AM14" s="62"/>
       <c r="AN14" s="63"/>
       <c r="AO14" s="53"/>
-      <c r="AR14" s="52"/>
-      <c r="AS14" s="52"/>
-      <c r="AT14" s="52"/>
+      <c r="AR14" s="62"/>
+      <c r="AS14" s="62"/>
+      <c r="AT14" s="63"/>
       <c r="AU14" s="53"/>
       <c r="AX14" s="52"/>
       <c r="AY14" s="52"/>
@@ -3348,23 +3425,27 @@
       <c r="BE14" s="52"/>
       <c r="BF14" s="52"/>
       <c r="BG14" s="53"/>
-      <c r="BI14" s="52"/>
       <c r="BJ14" s="52"/>
       <c r="BK14" s="52"/>
-      <c r="BL14" s="53"/>
+      <c r="BL14" s="52"/>
+      <c r="BM14" s="53"/>
+      <c r="BO14" s="52"/>
       <c r="BP14" s="52"/>
       <c r="BQ14" s="52"/>
-      <c r="BR14" s="52"/>
-      <c r="BS14" s="53"/>
-      <c r="BV14" s="44"/>
-      <c r="BW14" s="44"/>
-      <c r="BX14" s="44"/>
-      <c r="BY14" s="46"/>
-      <c r="CC14" s="52"/>
-      <c r="CD14" s="56"/>
-      <c r="CE14" s="53"/>
-    </row>
-    <row r="15" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+      <c r="BR14" s="53"/>
+      <c r="BV14" s="52"/>
+      <c r="BW14" s="52"/>
+      <c r="BX14" s="52"/>
+      <c r="BY14" s="53"/>
+      <c r="CB14" s="44"/>
+      <c r="CC14" s="44"/>
+      <c r="CD14" s="44"/>
+      <c r="CE14" s="46"/>
+      <c r="CI14" s="52"/>
+      <c r="CJ14" s="56"/>
+      <c r="CK14" s="53"/>
+    </row>
+    <row r="15" spans="2:89" ht="21" x14ac:dyDescent="0.35">
       <c r="B15" s="61" t="s">
         <v>23</v>
       </c>
@@ -3372,20 +3453,19 @@
       <c r="D15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="103">
+        <v>45119</v>
+      </c>
+      <c r="H15" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="61"/>
+      <c r="J15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="68">
         <v>45091</v>
       </c>
-      <c r="H15" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="71">
-        <v>45058</v>
-      </c>
-      <c r="L15" s="53"/>
       <c r="N15" s="44" t="s">
         <v>21</v>
       </c>
@@ -3394,27 +3474,28 @@
         <v>22</v>
       </c>
       <c r="Q15" s="71">
+        <v>45058</v>
+      </c>
+      <c r="R15" s="53"/>
+      <c r="T15" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="W15" s="71">
         <v>45030</v>
       </c>
-      <c r="U15" s="44" t="s">
+      <c r="AA15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44" t="s">
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="X15" s="71">
+      <c r="AD15" s="71">
         <v>45001</v>
-      </c>
-      <c r="Z15" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC15" s="71">
-        <v>44973</v>
       </c>
       <c r="AF15" s="44" t="s">
         <v>21</v>
@@ -3424,7 +3505,7 @@
         <v>22</v>
       </c>
       <c r="AI15" s="71">
-        <v>44946</v>
+        <v>44973</v>
       </c>
       <c r="AL15" s="44" t="s">
         <v>21</v>
@@ -3434,17 +3515,17 @@
         <v>22</v>
       </c>
       <c r="AO15" s="71">
+        <v>44946</v>
+      </c>
+      <c r="AR15" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS15" s="44"/>
+      <c r="AT15" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU15" s="71">
         <v>44911</v>
-      </c>
-      <c r="AR15" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="AS15" s="52"/>
-      <c r="AT15" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU15" s="70">
-        <v>44884</v>
       </c>
       <c r="AX15" s="44" t="s">
         <v>19</v>
@@ -3454,7 +3535,7 @@
         <v>15</v>
       </c>
       <c r="BA15" s="70">
-        <v>44849</v>
+        <v>44884</v>
       </c>
       <c r="BD15" s="44" t="s">
         <v>19</v>
@@ -3464,70 +3545,80 @@
         <v>15</v>
       </c>
       <c r="BG15" s="70">
+        <v>44849</v>
+      </c>
+      <c r="BJ15" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK15" s="52"/>
+      <c r="BL15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="BM15" s="70">
         <v>44814</v>
       </c>
-      <c r="BI15" s="44" t="s">
+      <c r="BO15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BJ15" s="52"/>
-      <c r="BK15" s="45" t="s">
+      <c r="BP15" s="52"/>
+      <c r="BQ15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BL15" s="66">
+      <c r="BR15" s="66">
         <v>44786</v>
       </c>
-      <c r="BP15" s="44" t="s">
+      <c r="BV15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BQ15" s="52"/>
-      <c r="BR15" s="44" t="s">
+      <c r="BW15" s="52"/>
+      <c r="BX15" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="BS15" s="66">
+      <c r="BY15" s="66">
         <v>44758</v>
       </c>
-      <c r="BV15" s="44" t="s">
+      <c r="CB15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BW15" s="44"/>
-      <c r="BX15" s="44" t="s">
+      <c r="CC15" s="44"/>
+      <c r="CD15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BY15" s="51">
+      <c r="CE15" s="51">
         <v>44700</v>
       </c>
-      <c r="CC15" s="44" t="s">
+      <c r="CI15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CD15" s="57" t="s">
+      <c r="CJ15" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="CE15" s="49">
+      <c r="CK15" s="49">
         <v>44730</v>
       </c>
     </row>
-    <row r="16" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:89" ht="21" x14ac:dyDescent="0.35">
       <c r="B16" s="62"/>
       <c r="C16" s="62"/>
       <c r="D16" s="63"/>
       <c r="E16" s="53"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="63"/>
       <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
       <c r="N16" s="52"/>
       <c r="O16" s="52"/>
       <c r="P16" s="52"/>
       <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="T16" s="52"/>
       <c r="U16" s="52"/>
       <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="53"/>
-      <c r="Z16" s="52"/>
+      <c r="W16" s="53"/>
       <c r="AA16" s="52"/>
       <c r="AB16" s="52"/>
-      <c r="AC16" s="53"/>
+      <c r="AC16" s="52"/>
+      <c r="AD16" s="53"/>
       <c r="AF16" s="52"/>
       <c r="AG16" s="52"/>
       <c r="AH16" s="52"/>
@@ -3536,27 +3627,31 @@
       <c r="AM16" s="52"/>
       <c r="AN16" s="52"/>
       <c r="AO16" s="53"/>
-      <c r="BD16" s="44"/>
-      <c r="BE16" s="44"/>
-      <c r="BF16" s="44"/>
-      <c r="BG16" s="46"/>
-      <c r="BI16" s="44"/>
+      <c r="AR16" s="52"/>
+      <c r="AS16" s="52"/>
+      <c r="AT16" s="52"/>
+      <c r="AU16" s="53"/>
       <c r="BJ16" s="44"/>
       <c r="BK16" s="44"/>
-      <c r="BL16" s="46"/>
+      <c r="BL16" s="44"/>
+      <c r="BM16" s="46"/>
+      <c r="BO16" s="44"/>
       <c r="BP16" s="44"/>
       <c r="BQ16" s="44"/>
-      <c r="BR16" s="44"/>
-      <c r="BS16" s="46"/>
+      <c r="BR16" s="46"/>
       <c r="BV16" s="44"/>
       <c r="BW16" s="44"/>
       <c r="BX16" s="44"/>
       <c r="BY16" s="46"/>
+      <c r="CB16" s="44"/>
       <c r="CC16" s="44"/>
-      <c r="CD16" s="57"/>
+      <c r="CD16" s="44"/>
       <c r="CE16" s="46"/>
-    </row>
-    <row r="17" spans="2:83" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="CI16" s="44"/>
+      <c r="CJ16" s="57"/>
+      <c r="CK16" s="46"/>
+    </row>
+    <row r="17" spans="2:89" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B17" s="83" t="s">
         <v>24</v>
       </c>
@@ -3567,17 +3662,16 @@
         <v>32</v>
       </c>
       <c r="E17" s="49"/>
-      <c r="H17" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="52"/>
-      <c r="J17" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="70">
-        <v>45059</v>
-      </c>
-      <c r="L17" s="53"/>
+      <c r="H17" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="49"/>
       <c r="N17" s="44" t="s">
         <v>19</v>
       </c>
@@ -3586,27 +3680,28 @@
         <v>15</v>
       </c>
       <c r="Q17" s="70">
+        <v>45059</v>
+      </c>
+      <c r="R17" s="53"/>
+      <c r="T17" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" s="52"/>
+      <c r="V17" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="W17" s="70">
         <v>45031</v>
       </c>
-      <c r="U17" s="44" t="s">
+      <c r="AA17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="V17" s="52"/>
-      <c r="W17" s="45" t="s">
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="X17" s="70">
+      <c r="AD17" s="70">
         <v>45003</v>
-      </c>
-      <c r="Z17" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC17" s="70">
-        <v>44982</v>
       </c>
       <c r="AF17" s="44" t="s">
         <v>19</v>
@@ -3616,7 +3711,7 @@
         <v>15</v>
       </c>
       <c r="AI17" s="70">
-        <v>44954</v>
+        <v>44982</v>
       </c>
       <c r="AL17" s="44" t="s">
         <v>19</v>
@@ -3626,148 +3721,167 @@
         <v>15</v>
       </c>
       <c r="AO17" s="70">
+        <v>44954</v>
+      </c>
+      <c r="AR17" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS17" s="52"/>
+      <c r="AT17" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU17" s="70">
         <v>44912</v>
       </c>
-      <c r="BV17" s="52"/>
-      <c r="BW17" s="52"/>
-      <c r="BX17" s="52"/>
-      <c r="BY17" s="53"/>
-      <c r="CC17" s="44"/>
-      <c r="CD17" s="57"/>
-      <c r="CE17" s="46"/>
-    </row>
-    <row r="18" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+      <c r="CB17" s="52"/>
+      <c r="CC17" s="52"/>
+      <c r="CD17" s="52"/>
+      <c r="CE17" s="53"/>
+      <c r="CI17" s="44"/>
+      <c r="CJ17" s="57"/>
+      <c r="CK17" s="46"/>
+    </row>
+    <row r="18" spans="2:89" ht="21" x14ac:dyDescent="0.35">
       <c r="B18" s="52"/>
       <c r="C18" s="52"/>
       <c r="D18" s="52"/>
       <c r="E18" s="53"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
       <c r="N18" s="54"/>
       <c r="O18" s="54"/>
       <c r="P18" s="54"/>
       <c r="Q18" s="54"/>
-      <c r="BV18" s="44"/>
-      <c r="BW18" s="44"/>
-      <c r="BX18" s="44"/>
-      <c r="BY18" s="46"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="CB18" s="44"/>
       <c r="CC18" s="44"/>
-      <c r="CD18" s="57"/>
+      <c r="CD18" s="44"/>
       <c r="CE18" s="46"/>
-    </row>
-    <row r="19" spans="2:83" ht="21" x14ac:dyDescent="0.35">
+      <c r="CI18" s="44"/>
+      <c r="CJ18" s="57"/>
+      <c r="CK18" s="46"/>
+    </row>
+    <row r="19" spans="2:89" ht="21" x14ac:dyDescent="0.35">
       <c r="B19" s="52"/>
       <c r="C19" s="52"/>
       <c r="D19" s="63"/>
       <c r="E19" s="53"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
       <c r="J19" s="63"/>
       <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
       <c r="N19" s="62"/>
       <c r="O19" s="62"/>
       <c r="P19" s="63"/>
       <c r="Q19" s="53"/>
-      <c r="BV19" s="44"/>
-      <c r="BW19" s="44"/>
-      <c r="BX19" s="44"/>
-      <c r="BY19" s="46"/>
-    </row>
-    <row r="20" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="BV20" s="44"/>
-      <c r="BW20" s="44"/>
-      <c r="BX20" s="44"/>
-      <c r="BY20" s="46"/>
-    </row>
-    <row r="21" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="BV21" s="44"/>
-      <c r="BW21" s="44"/>
-      <c r="BX21" s="44"/>
-      <c r="BY21" s="46"/>
-    </row>
-    <row r="22" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="BV22" s="44"/>
-      <c r="BW22" s="44"/>
-      <c r="BX22" s="44"/>
-      <c r="BY22" s="46"/>
-    </row>
-    <row r="23" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="BV23" s="44"/>
-      <c r="BW23" s="44"/>
-      <c r="BX23" s="44"/>
-      <c r="BY23" s="46"/>
-    </row>
-    <row r="24" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="BV24" s="44"/>
-      <c r="BW24" s="44"/>
-      <c r="BX24" s="44"/>
-      <c r="BY24" s="46"/>
-    </row>
-    <row r="25" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="BV25" s="44"/>
-      <c r="BW25" s="44"/>
-      <c r="BX25" s="44"/>
-      <c r="BY25" s="46"/>
-    </row>
-    <row r="26" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="BV26" s="44"/>
-      <c r="BW26" s="44"/>
-      <c r="BX26" s="44"/>
-      <c r="BY26" s="46"/>
-    </row>
-    <row r="27" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="BV27" s="44"/>
-      <c r="BW27" s="44"/>
-      <c r="BX27" s="44"/>
-      <c r="BY27" s="46"/>
-    </row>
-    <row r="28" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="BV28" s="44"/>
-      <c r="BW28" s="44"/>
-      <c r="BX28" s="44"/>
-      <c r="BY28" s="46"/>
-    </row>
-    <row r="29" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="BV29" s="44"/>
-      <c r="BW29" s="44"/>
-      <c r="BX29" s="44"/>
-      <c r="BY29" s="46"/>
-    </row>
-    <row r="30" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="BV30" s="44"/>
-      <c r="BW30" s="44"/>
-      <c r="BX30" s="44"/>
-      <c r="BY30" s="46"/>
-    </row>
-    <row r="31" spans="2:83" ht="21" x14ac:dyDescent="0.35">
-      <c r="BV31" s="44"/>
-      <c r="BW31" s="44"/>
-      <c r="BX31" s="44"/>
-      <c r="BY31" s="46"/>
+      <c r="R19" s="53"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="53"/>
+      <c r="CB19" s="44"/>
+      <c r="CC19" s="44"/>
+      <c r="CD19" s="44"/>
+      <c r="CE19" s="46"/>
+    </row>
+    <row r="20" spans="2:89" ht="21" x14ac:dyDescent="0.35">
+      <c r="CB20" s="44"/>
+      <c r="CC20" s="44"/>
+      <c r="CD20" s="44"/>
+      <c r="CE20" s="46"/>
+    </row>
+    <row r="21" spans="2:89" ht="21" x14ac:dyDescent="0.35">
+      <c r="CB21" s="44"/>
+      <c r="CC21" s="44"/>
+      <c r="CD21" s="44"/>
+      <c r="CE21" s="46"/>
+    </row>
+    <row r="22" spans="2:89" ht="21" x14ac:dyDescent="0.35">
+      <c r="CB22" s="44"/>
+      <c r="CC22" s="44"/>
+      <c r="CD22" s="44"/>
+      <c r="CE22" s="46"/>
+    </row>
+    <row r="23" spans="2:89" ht="21" x14ac:dyDescent="0.35">
+      <c r="CB23" s="44"/>
+      <c r="CC23" s="44"/>
+      <c r="CD23" s="44"/>
+      <c r="CE23" s="46"/>
+    </row>
+    <row r="24" spans="2:89" ht="21" x14ac:dyDescent="0.35">
+      <c r="CB24" s="44"/>
+      <c r="CC24" s="44"/>
+      <c r="CD24" s="44"/>
+      <c r="CE24" s="46"/>
+    </row>
+    <row r="25" spans="2:89" ht="21" x14ac:dyDescent="0.35">
+      <c r="CB25" s="44"/>
+      <c r="CC25" s="44"/>
+      <c r="CD25" s="44"/>
+      <c r="CE25" s="46"/>
+    </row>
+    <row r="26" spans="2:89" ht="21" x14ac:dyDescent="0.35">
+      <c r="CB26" s="44"/>
+      <c r="CC26" s="44"/>
+      <c r="CD26" s="44"/>
+      <c r="CE26" s="46"/>
+    </row>
+    <row r="27" spans="2:89" ht="21" x14ac:dyDescent="0.35">
+      <c r="CB27" s="44"/>
+      <c r="CC27" s="44"/>
+      <c r="CD27" s="44"/>
+      <c r="CE27" s="46"/>
+    </row>
+    <row r="28" spans="2:89" ht="21" x14ac:dyDescent="0.35">
+      <c r="CB28" s="44"/>
+      <c r="CC28" s="44"/>
+      <c r="CD28" s="44"/>
+      <c r="CE28" s="46"/>
+    </row>
+    <row r="29" spans="2:89" ht="21" x14ac:dyDescent="0.35">
+      <c r="CB29" s="44"/>
+      <c r="CC29" s="44"/>
+      <c r="CD29" s="44"/>
+      <c r="CE29" s="46"/>
+    </row>
+    <row r="30" spans="2:89" ht="21" x14ac:dyDescent="0.35">
+      <c r="CB30" s="44"/>
+      <c r="CC30" s="44"/>
+      <c r="CD30" s="44"/>
+      <c r="CE30" s="46"/>
+    </row>
+    <row r="31" spans="2:89" ht="21" x14ac:dyDescent="0.35">
+      <c r="CB31" s="44"/>
+      <c r="CC31" s="44"/>
+      <c r="CD31" s="44"/>
+      <c r="CE31" s="46"/>
     </row>
   </sheetData>
-  <sortState ref="U11:X13">
-    <sortCondition ref="X11:X13"/>
+  <sortState ref="AA11:AD13">
+    <sortCondition ref="AD11:AD13"/>
   </sortState>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="BV5:BW5"/>
-    <mergeCell ref="AL5:AN5"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="BP3:BR3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="AR5:AT5"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="BO3:BQ3"/>
     <mergeCell ref="AX3:AZ3"/>
     <mergeCell ref="BD3:BF3"/>
-    <mergeCell ref="BV3:BY3"/>
-    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="BJ3:BL3"/>
+    <mergeCell ref="CB3:CE3"/>
     <mergeCell ref="N5:P5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="AA5:AC5"/>
     <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AL5:AN5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
   </bookViews>
   <sheets>
-    <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId1"/>
-    <sheet name="PROGRAMACION " sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="PROGRAMA    ECOPLAG   2023    " sheetId="7" r:id="rId1"/>
+    <sheet name="Hoja4" sheetId="6" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="5" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
+    <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId5"/>
+    <sheet name="PROGRAMACION " sheetId="2" r:id="rId6"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="48">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -161,6 +165,15 @@
   </si>
   <si>
     <t>JUNIO,.2023</t>
+  </si>
+  <si>
+    <t>PROGAMA  ECOPLAG       FUMIGACION</t>
+  </si>
+  <si>
+    <t>Norma Ledo          Produccion</t>
+  </si>
+  <si>
+    <t>Norma Ledo        Verduras</t>
   </si>
 </sst>
 </file>
@@ -714,7 +727,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -944,6 +957,12 @@
     <xf numFmtId="44" fontId="5" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="13" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -954,15 +973,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -974,16 +995,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF66FF"/>
+      <color rgb="FFCCFF99"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF66CCFF"/>
       <color rgb="FFCC9900"/>
       <color rgb="FFCC99FF"/>
-      <color rgb="FFCCFF99"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF0066FF"/>
-      <color rgb="FFFF9900"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1310,13 +1331,239 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FFFF66FF"/>
+  </sheetPr>
+  <dimension ref="B5:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B5" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="60"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="47"/>
+    </row>
+    <row r="7" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="47"/>
+    </row>
+    <row r="8" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="45">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E8" s="64">
+        <v>45129</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="47"/>
+    </row>
+    <row r="10" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B10" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="57">
+        <v>11</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="50">
+        <v>45140</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B11" s="62"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="53"/>
+    </row>
+    <row r="12" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B12" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="70">
+        <v>45143</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B13" s="44"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="53"/>
+    </row>
+    <row r="14" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="45">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E14" s="49">
+        <v>45146</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="104"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="107"/>
+    </row>
+    <row r="16" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B16" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="57">
+        <v>4</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="51">
+        <v>45146</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B17" s="44"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="51"/>
+    </row>
+    <row r="18" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B18" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="57">
+        <v>7</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="97">
+        <v>45147</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B19" s="52"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+    </row>
+    <row r="20" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B20" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="57">
+        <v>5</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="71">
+        <v>45149</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B21" s="62"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="53"/>
+    </row>
+    <row r="22" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B22" s="52"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
+    </row>
+    <row r="23" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B23" s="52"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+    </row>
+    <row r="24" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B24" s="52"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A2:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1337,22 +1584,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2369,12 +2616,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:CK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2432,48 +2679,48 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:89" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AX3" s="101" t="s">
+      <c r="AX3" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="AY3" s="101"/>
-      <c r="AZ3" s="101"/>
+      <c r="AY3" s="98"/>
+      <c r="AZ3" s="98"/>
       <c r="BA3" s="60"/>
-      <c r="BD3" s="101" t="s">
+      <c r="BD3" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="BE3" s="101"/>
-      <c r="BF3" s="101"/>
+      <c r="BE3" s="98"/>
+      <c r="BF3" s="98"/>
       <c r="BG3" s="60"/>
-      <c r="BJ3" s="101" t="s">
+      <c r="BJ3" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="BK3" s="101"/>
-      <c r="BL3" s="101"/>
+      <c r="BK3" s="98"/>
+      <c r="BL3" s="98"/>
       <c r="BM3" s="60"/>
-      <c r="BO3" s="101" t="s">
+      <c r="BO3" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="BP3" s="101"/>
-      <c r="BQ3" s="101"/>
+      <c r="BP3" s="98"/>
+      <c r="BQ3" s="98"/>
       <c r="BR3" s="60"/>
-      <c r="BV3" s="101" t="s">
+      <c r="BV3" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="BW3" s="101"/>
-      <c r="BX3" s="101"/>
+      <c r="BW3" s="98"/>
+      <c r="BX3" s="98"/>
       <c r="BY3" s="60"/>
       <c r="BZ3" s="59"/>
-      <c r="CB3" s="101" t="s">
+      <c r="CB3" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="CC3" s="101"/>
-      <c r="CD3" s="101"/>
-      <c r="CE3" s="101"/>
-      <c r="CI3" s="101" t="s">
+      <c r="CC3" s="98"/>
+      <c r="CD3" s="98"/>
+      <c r="CE3" s="98"/>
+      <c r="CI3" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="CJ3" s="101"/>
-      <c r="CK3" s="101"/>
+      <c r="CJ3" s="98"/>
+      <c r="CK3" s="98"/>
     </row>
     <row r="4" spans="2:89" x14ac:dyDescent="0.25">
       <c r="BA4" s="47"/>
@@ -2484,54 +2731,54 @@
       <c r="CK4" s="47"/>
     </row>
     <row r="5" spans="2:89" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="60"/>
-      <c r="H5" s="101" t="s">
+      <c r="H5" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
       <c r="K5" s="60"/>
-      <c r="N5" s="101" t="s">
+      <c r="N5" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="98"/>
       <c r="Q5" s="60"/>
       <c r="R5" s="85"/>
-      <c r="T5" s="101" t="s">
+      <c r="T5" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="101"/>
-      <c r="V5" s="101"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="98"/>
       <c r="W5" s="60"/>
-      <c r="AA5" s="101" t="s">
+      <c r="AA5" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="101"/>
-      <c r="AC5" s="101"/>
+      <c r="AB5" s="98"/>
+      <c r="AC5" s="98"/>
       <c r="AD5" s="60"/>
-      <c r="AF5" s="101" t="s">
+      <c r="AF5" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="AG5" s="101"/>
-      <c r="AH5" s="101"/>
+      <c r="AG5" s="98"/>
+      <c r="AH5" s="98"/>
       <c r="AI5" s="60"/>
-      <c r="AL5" s="101" t="s">
+      <c r="AL5" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="AM5" s="101"/>
-      <c r="AN5" s="101"/>
+      <c r="AM5" s="98"/>
+      <c r="AN5" s="98"/>
       <c r="AO5" s="60"/>
-      <c r="AR5" s="101" t="s">
+      <c r="AR5" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="AS5" s="101"/>
-      <c r="AT5" s="101"/>
+      <c r="AS5" s="98"/>
+      <c r="AT5" s="98"/>
       <c r="AU5" s="60"/>
       <c r="AX5" s="61" t="s">
         <v>23</v>
@@ -2583,10 +2830,10 @@
       <c r="BY5" s="51">
         <v>44747</v>
       </c>
-      <c r="CB5" s="102" t="s">
+      <c r="CB5" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="CC5" s="102"/>
+      <c r="CC5" s="103"/>
       <c r="CD5" s="45" t="s">
         <v>15</v>
       </c>
@@ -3453,7 +3700,7 @@
       <c r="D15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="103">
+      <c r="E15" s="97">
         <v>45119</v>
       </c>
       <c r="H15" s="61" t="s">
@@ -3887,7 +4134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="PROGRAMA    ECOPLAG   2023    " sheetId="7" r:id="rId1"/>
-    <sheet name="Hoja4" sheetId="6" r:id="rId2"/>
+    <sheet name="FACTURACION  DE SEVICIOS ECOPLA" sheetId="6" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="5" r:id="rId3"/>
     <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
     <sheet name="FACTURACION TIENDAS " sheetId="1" r:id="rId5"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="56">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -174,6 +174,30 @@
   </si>
   <si>
     <t>Norma Ledo        Verduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUMIGACIONES DE   ECOPLAG CONTROL </t>
+  </si>
+  <si>
+    <t>NORMA PRODUCCION</t>
+  </si>
+  <si>
+    <t>P-187</t>
+  </si>
+  <si>
+    <t>JULIO .,2023</t>
+  </si>
+  <si>
+    <t>JUNIO .,2023</t>
+  </si>
+  <si>
+    <t>P-149</t>
+  </si>
+  <si>
+    <t>P-104</t>
+  </si>
+  <si>
+    <t>AGOSTO .,2023</t>
   </si>
 </sst>
 </file>
@@ -727,7 +751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -960,6 +984,14 @@
     <xf numFmtId="165" fontId="13" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -978,13 +1010,52 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1336,7 +1407,7 @@
   <dimension ref="B5:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,11 +1419,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -1427,10 +1498,10 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="104"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="107"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101"/>
     </row>
     <row r="16" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B16" s="44" t="s">
@@ -1520,12 +1591,687 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFFF66FF"/>
+  </sheetPr>
+  <dimension ref="A2:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="88" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="24"/>
+    <col min="4" max="4" width="15.140625" style="88" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="24"/>
+    <col min="6" max="6" width="14.42578125" style="88" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="93" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="24"/>
+    <col min="10" max="10" width="13.28515625" style="93" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="24"/>
+    <col min="12" max="12" width="16.28515625" style="93" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="24"/>
+    <col min="14" max="14" width="14.85546875" style="88" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+    </row>
+    <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D3" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:15" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="54" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="17">
+        <v>2830.5</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="16"/>
+      <c r="O6" s="22"/>
+    </row>
+    <row r="7" spans="1:15" s="54" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="108"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="21">
+        <v>2830.5</v>
+      </c>
+      <c r="M7" s="113" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="114"/>
+      <c r="O7" s="41"/>
+    </row>
+    <row r="8" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="116"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="120">
+        <v>2830.5</v>
+      </c>
+      <c r="M8" s="122" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="123"/>
+      <c r="O8" s="124"/>
+    </row>
+    <row r="9" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="115" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="116"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="124"/>
+    </row>
+    <row r="10" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="115"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="124"/>
+    </row>
+    <row r="11" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="115"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="124"/>
+    </row>
+    <row r="12" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="115"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="124"/>
+    </row>
+    <row r="13" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="115"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="124"/>
+    </row>
+    <row r="14" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="115"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="124"/>
+    </row>
+    <row r="15" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="124"/>
+    </row>
+    <row r="16" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="124"/>
+    </row>
+    <row r="17" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="115"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="124"/>
+    </row>
+    <row r="18" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="115"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="122"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="124"/>
+    </row>
+    <row r="19" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="115"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="124"/>
+    </row>
+    <row r="20" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="115"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="124"/>
+    </row>
+    <row r="21" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="115"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="124"/>
+    </row>
+    <row r="22" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="115"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="127"/>
+    </row>
+    <row r="23" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="115"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="127"/>
+    </row>
+    <row r="24" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="115"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="127"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="87"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="87"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="87"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="87"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="87"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="87"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="87"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="87"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="87"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="87"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="87"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="87"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="87"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="87"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="D3:F3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1561,9 +2307,9 @@
   </sheetPr>
   <dimension ref="A2:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1584,22 +2330,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="100"/>
-      <c r="F3" s="101"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2679,48 +3425,48 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:89" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AX3" s="98" t="s">
+      <c r="AX3" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="AY3" s="98"/>
-      <c r="AZ3" s="98"/>
+      <c r="AY3" s="102"/>
+      <c r="AZ3" s="102"/>
       <c r="BA3" s="60"/>
-      <c r="BD3" s="98" t="s">
+      <c r="BD3" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="BE3" s="98"/>
-      <c r="BF3" s="98"/>
+      <c r="BE3" s="102"/>
+      <c r="BF3" s="102"/>
       <c r="BG3" s="60"/>
-      <c r="BJ3" s="98" t="s">
+      <c r="BJ3" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="BK3" s="98"/>
-      <c r="BL3" s="98"/>
+      <c r="BK3" s="102"/>
+      <c r="BL3" s="102"/>
       <c r="BM3" s="60"/>
-      <c r="BO3" s="98" t="s">
+      <c r="BO3" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="BP3" s="98"/>
-      <c r="BQ3" s="98"/>
+      <c r="BP3" s="102"/>
+      <c r="BQ3" s="102"/>
       <c r="BR3" s="60"/>
-      <c r="BV3" s="98" t="s">
+      <c r="BV3" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="BW3" s="98"/>
-      <c r="BX3" s="98"/>
+      <c r="BW3" s="102"/>
+      <c r="BX3" s="102"/>
       <c r="BY3" s="60"/>
       <c r="BZ3" s="59"/>
-      <c r="CB3" s="98" t="s">
+      <c r="CB3" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="CC3" s="98"/>
-      <c r="CD3" s="98"/>
-      <c r="CE3" s="98"/>
-      <c r="CI3" s="98" t="s">
+      <c r="CC3" s="102"/>
+      <c r="CD3" s="102"/>
+      <c r="CE3" s="102"/>
+      <c r="CI3" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="CJ3" s="98"/>
-      <c r="CK3" s="98"/>
+      <c r="CJ3" s="102"/>
+      <c r="CK3" s="102"/>
     </row>
     <row r="4" spans="2:89" x14ac:dyDescent="0.25">
       <c r="BA4" s="47"/>
@@ -2731,54 +3477,54 @@
       <c r="CK4" s="47"/>
     </row>
     <row r="5" spans="2:89" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="60"/>
-      <c r="H5" s="98" t="s">
+      <c r="H5" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
       <c r="K5" s="60"/>
-      <c r="N5" s="98" t="s">
+      <c r="N5" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
       <c r="Q5" s="60"/>
       <c r="R5" s="85"/>
-      <c r="T5" s="98" t="s">
+      <c r="T5" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
+      <c r="U5" s="102"/>
+      <c r="V5" s="102"/>
       <c r="W5" s="60"/>
-      <c r="AA5" s="98" t="s">
+      <c r="AA5" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="98"/>
-      <c r="AC5" s="98"/>
+      <c r="AB5" s="102"/>
+      <c r="AC5" s="102"/>
       <c r="AD5" s="60"/>
-      <c r="AF5" s="98" t="s">
+      <c r="AF5" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="AG5" s="98"/>
-      <c r="AH5" s="98"/>
+      <c r="AG5" s="102"/>
+      <c r="AH5" s="102"/>
       <c r="AI5" s="60"/>
-      <c r="AL5" s="98" t="s">
+      <c r="AL5" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="AM5" s="98"/>
-      <c r="AN5" s="98"/>
+      <c r="AM5" s="102"/>
+      <c r="AN5" s="102"/>
       <c r="AO5" s="60"/>
-      <c r="AR5" s="98" t="s">
+      <c r="AR5" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="AS5" s="98"/>
-      <c r="AT5" s="98"/>
+      <c r="AS5" s="102"/>
+      <c r="AT5" s="102"/>
       <c r="AU5" s="60"/>
       <c r="AX5" s="61" t="s">
         <v>23</v>
@@ -2830,10 +3576,10 @@
       <c r="BY5" s="51">
         <v>44747</v>
       </c>
-      <c r="CB5" s="103" t="s">
+      <c r="CB5" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="CC5" s="103"/>
+      <c r="CC5" s="107"/>
       <c r="CD5" s="45" t="s">
         <v>15</v>
       </c>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMA    ECOPLAG   2023    " sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="56">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -167,9 +167,6 @@
     <t>JUNIO,.2023</t>
   </si>
   <si>
-    <t>PROGAMA  ECOPLAG       FUMIGACION</t>
-  </si>
-  <si>
     <t>Norma Ledo          Produccion</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>AGOSTO .,2023</t>
+  </si>
+  <si>
+    <t>PROGAMA         FUMIGACION</t>
   </si>
 </sst>
 </file>
@@ -992,24 +992,6 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1056,6 +1038,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1406,8 +1406,8 @@
   </sheetPr>
   <dimension ref="B5:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,11 +1419,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
+      <c r="B5" s="123" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -1434,15 +1434,13 @@
     </row>
     <row r="8" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="57"/>
       <c r="D8" s="45">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E8" s="64">
-        <v>45129</v>
-      </c>
+      <c r="E8" s="64"/>
     </row>
     <row r="9" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="47"/>
@@ -1457,9 +1455,7 @@
       <c r="D10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="50">
-        <v>45140</v>
-      </c>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B11" s="62"/>
@@ -1475,9 +1471,7 @@
       <c r="D12" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="70">
-        <v>45143</v>
-      </c>
+      <c r="E12" s="70"/>
     </row>
     <row r="13" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="44"/>
@@ -1487,7 +1481,7 @@
     </row>
     <row r="14" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="57"/>
       <c r="D14" s="45">
@@ -1620,22 +1614,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
+      <c r="C2" s="124" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="105"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1673,8 +1667,8 @@
       <c r="K5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="128" t="s">
-        <v>49</v>
+      <c r="L5" s="122" t="s">
+        <v>48</v>
       </c>
       <c r="M5" s="34" t="s">
         <v>5</v>
@@ -1704,330 +1698,330 @@
         <v>2830.5</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N6" s="16"/>
       <c r="O6" s="22"/>
     </row>
     <row r="7" spans="1:15" s="54" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110"/>
+        <v>51</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="104"/>
       <c r="E7" s="23"/>
-      <c r="F7" s="111"/>
+      <c r="F7" s="105"/>
       <c r="G7" s="32"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="112"/>
+      <c r="I7" s="106"/>
       <c r="J7" s="21"/>
-      <c r="K7" s="113"/>
+      <c r="K7" s="107"/>
       <c r="L7" s="21">
         <v>2830.5</v>
       </c>
-      <c r="M7" s="113" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="114"/>
+      <c r="M7" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="108"/>
       <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="115" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="117"/>
+      <c r="A8" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="110"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="111"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="120">
+      <c r="G8" s="113"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="114">
         <v>2830.5</v>
       </c>
-      <c r="M8" s="122" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="123"/>
-      <c r="O8" s="124"/>
+      <c r="M8" s="116" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="117"/>
+      <c r="O8" s="118"/>
     </row>
     <row r="9" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="116"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="117"/>
+      <c r="A9" s="109" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="110"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="111"/>
       <c r="F9" s="18"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="123"/>
-      <c r="O9" s="124"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="118"/>
     </row>
     <row r="10" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="117"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="111"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="124"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="118"/>
     </row>
     <row r="11" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="117"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="124"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="118"/>
     </row>
     <row r="12" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="117"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="111"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="124"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="116"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="118"/>
     </row>
     <row r="13" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="117"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="111"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="124"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="118"/>
     </row>
     <row r="14" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="115"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="117"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="111"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="124"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="118"/>
     </row>
     <row r="15" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="115"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="117"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="111"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="124"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="118"/>
     </row>
     <row r="16" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="115"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="117"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="111"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="124"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="118"/>
     </row>
     <row r="17" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="115"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="117"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="111"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="124"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="118"/>
     </row>
     <row r="18" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="115"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="117"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="111"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="122"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="124"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="118"/>
     </row>
     <row r="19" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="115"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="117"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="111"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="124"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="118"/>
     </row>
     <row r="20" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="115"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="124"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="118"/>
     </row>
     <row r="21" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="115"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="124"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="118"/>
     </row>
     <row r="22" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="115"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="123"/>
-      <c r="O22" s="127"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="121"/>
     </row>
     <row r="23" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="115"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="122"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="127"/>
+      <c r="A23" s="109"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="121"/>
     </row>
     <row r="24" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="115"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="122"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="127"/>
+      <c r="A24" s="109"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="121"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
@@ -2309,7 +2303,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:M1048576"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2330,22 +2324,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="105"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3364,310 +3358,312 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:CK31"/>
+  <dimension ref="B3:CR31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15" style="54" customWidth="1"/>
-    <col min="20" max="20" width="36" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.7109375" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15" style="54" customWidth="1"/>
     <col min="27" max="27" width="36" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="26.85546875" customWidth="1"/>
+    <col min="28" max="28" width="21.7109375" customWidth="1"/>
+    <col min="29" max="29" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="36" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="36" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="36" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="36" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="36" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="36" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="18.42578125" customWidth="1"/>
-    <col min="67" max="67" width="36" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="18.42578125" customWidth="1"/>
+    <col min="34" max="34" width="36" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="26.85546875" customWidth="1"/>
+    <col min="37" max="37" width="15" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="36" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="36" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="36" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="36" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="36" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="36" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.42578125" customWidth="1"/>
     <col min="74" max="74" width="36" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.140625" customWidth="1"/>
-    <col min="77" max="77" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="80" max="81" width="19.5703125" customWidth="1"/>
-    <col min="82" max="82" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="18.42578125" style="47" customWidth="1"/>
-    <col min="87" max="87" width="36" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="19.5703125" style="19" customWidth="1"/>
-    <col min="89" max="89" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="18.42578125" customWidth="1"/>
+    <col min="81" max="81" width="36" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="17.140625" customWidth="1"/>
+    <col min="84" max="84" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="87" max="88" width="19.5703125" customWidth="1"/>
+    <col min="89" max="89" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="18.42578125" style="47" customWidth="1"/>
+    <col min="94" max="94" width="36" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="19.5703125" style="19" customWidth="1"/>
+    <col min="96" max="96" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:89" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AX3" s="102" t="s">
+    <row r="3" spans="2:96" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BE3" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="AY3" s="102"/>
-      <c r="AZ3" s="102"/>
-      <c r="BA3" s="60"/>
-      <c r="BD3" s="102" t="s">
+      <c r="BF3" s="123"/>
+      <c r="BG3" s="123"/>
+      <c r="BH3" s="60"/>
+      <c r="BK3" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="BE3" s="102"/>
-      <c r="BF3" s="102"/>
-      <c r="BG3" s="60"/>
-      <c r="BJ3" s="102" t="s">
+      <c r="BL3" s="123"/>
+      <c r="BM3" s="123"/>
+      <c r="BN3" s="60"/>
+      <c r="BQ3" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="BK3" s="102"/>
-      <c r="BL3" s="102"/>
-      <c r="BM3" s="60"/>
-      <c r="BO3" s="102" t="s">
+      <c r="BR3" s="123"/>
+      <c r="BS3" s="123"/>
+      <c r="BT3" s="60"/>
+      <c r="BV3" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="BP3" s="102"/>
-      <c r="BQ3" s="102"/>
-      <c r="BR3" s="60"/>
-      <c r="BV3" s="102" t="s">
+      <c r="BW3" s="123"/>
+      <c r="BX3" s="123"/>
+      <c r="BY3" s="60"/>
+      <c r="CC3" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="BW3" s="102"/>
-      <c r="BX3" s="102"/>
-      <c r="BY3" s="60"/>
-      <c r="BZ3" s="59"/>
-      <c r="CB3" s="102" t="s">
+      <c r="CD3" s="123"/>
+      <c r="CE3" s="123"/>
+      <c r="CF3" s="60"/>
+      <c r="CG3" s="59"/>
+      <c r="CI3" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="CC3" s="102"/>
-      <c r="CD3" s="102"/>
-      <c r="CE3" s="102"/>
-      <c r="CI3" s="102" t="s">
+      <c r="CJ3" s="123"/>
+      <c r="CK3" s="123"/>
+      <c r="CL3" s="123"/>
+      <c r="CP3" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="CJ3" s="102"/>
-      <c r="CK3" s="102"/>
-    </row>
-    <row r="4" spans="2:89" x14ac:dyDescent="0.25">
-      <c r="BA4" s="47"/>
-      <c r="BG4" s="47"/>
-      <c r="BM4" s="47"/>
-      <c r="BR4" s="47"/>
+      <c r="CQ3" s="123"/>
+      <c r="CR3" s="123"/>
+    </row>
+    <row r="4" spans="2:96" x14ac:dyDescent="0.25">
+      <c r="BH4" s="47"/>
+      <c r="BN4" s="47"/>
+      <c r="BT4" s="47"/>
       <c r="BY4" s="47"/>
-      <c r="CK4" s="47"/>
-    </row>
-    <row r="5" spans="2:89" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="102" t="s">
+      <c r="CF4" s="47"/>
+      <c r="CR4" s="47"/>
+    </row>
+    <row r="5" spans="2:96" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B5" s="123" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="60"/>
+      <c r="I5" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="60"/>
-      <c r="H5" s="102" t="s">
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="60"/>
+      <c r="O5" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="60"/>
-      <c r="N5" s="102" t="s">
+      <c r="P5" s="123"/>
+      <c r="Q5" s="123"/>
+      <c r="R5" s="60"/>
+      <c r="U5" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="85"/>
-      <c r="T5" s="102" t="s">
+      <c r="V5" s="123"/>
+      <c r="W5" s="123"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="85"/>
+      <c r="AA5" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="102"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="60"/>
-      <c r="AA5" s="102" t="s">
+      <c r="AB5" s="123"/>
+      <c r="AC5" s="123"/>
+      <c r="AD5" s="60"/>
+      <c r="AH5" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="102"/>
-      <c r="AC5" s="102"/>
-      <c r="AD5" s="60"/>
-      <c r="AF5" s="102" t="s">
+      <c r="AI5" s="123"/>
+      <c r="AJ5" s="123"/>
+      <c r="AK5" s="60"/>
+      <c r="AM5" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="AG5" s="102"/>
-      <c r="AH5" s="102"/>
-      <c r="AI5" s="60"/>
-      <c r="AL5" s="102" t="s">
+      <c r="AN5" s="123"/>
+      <c r="AO5" s="123"/>
+      <c r="AP5" s="60"/>
+      <c r="AS5" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="AM5" s="102"/>
-      <c r="AN5" s="102"/>
-      <c r="AO5" s="60"/>
-      <c r="AR5" s="102" t="s">
+      <c r="AT5" s="123"/>
+      <c r="AU5" s="123"/>
+      <c r="AV5" s="60"/>
+      <c r="AY5" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="AS5" s="102"/>
-      <c r="AT5" s="102"/>
-      <c r="AU5" s="60"/>
-      <c r="AX5" s="61" t="s">
+      <c r="AZ5" s="123"/>
+      <c r="BA5" s="123"/>
+      <c r="BB5" s="60"/>
+      <c r="BE5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AY5" s="61"/>
-      <c r="AZ5" s="45" t="s">
+      <c r="BF5" s="61"/>
+      <c r="BG5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BA5" s="68">
+      <c r="BH5" s="68">
         <v>44861</v>
       </c>
-      <c r="BD5" s="61" t="s">
+      <c r="BK5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BE5" s="61"/>
-      <c r="BF5" s="45" t="s">
+      <c r="BL5" s="61"/>
+      <c r="BM5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BG5" s="68">
+      <c r="BN5" s="68">
         <v>44833</v>
       </c>
-      <c r="BJ5" s="44" t="s">
+      <c r="BQ5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BK5" s="44"/>
-      <c r="BL5" s="44" t="s">
+      <c r="BR5" s="44"/>
+      <c r="BS5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BM5" s="50">
+      <c r="BT5" s="50">
         <v>44804</v>
       </c>
-      <c r="BO5" s="44" t="s">
+      <c r="BV5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BP5" s="44"/>
-      <c r="BQ5" s="44" t="s">
+      <c r="BW5" s="44"/>
+      <c r="BX5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BR5" s="64">
+      <c r="BY5" s="64">
         <v>44776</v>
       </c>
-      <c r="BV5" s="61" t="s">
+      <c r="CC5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="61"/>
-      <c r="BX5" s="45" t="s">
+      <c r="CD5" s="61"/>
+      <c r="CE5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BY5" s="51">
+      <c r="CF5" s="51">
         <v>44747</v>
       </c>
-      <c r="CB5" s="107" t="s">
+      <c r="CI5" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="CC5" s="107"/>
-      <c r="CD5" s="45" t="s">
+      <c r="CJ5" s="128"/>
+      <c r="CK5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CE5" s="51">
+      <c r="CL5" s="51">
         <v>44686</v>
       </c>
-      <c r="CI5" s="48" t="s">
+      <c r="CP5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="CJ5" s="55" t="s">
+      <c r="CQ5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="CK5" s="51">
+      <c r="CR5" s="51">
         <v>44714</v>
       </c>
     </row>
-    <row r="6" spans="2:89" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:96" ht="21" x14ac:dyDescent="0.35">
       <c r="E6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="86"/>
-      <c r="W6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="86"/>
       <c r="AD6" s="47"/>
-      <c r="AI6" s="47"/>
-      <c r="AO6" s="47"/>
-      <c r="AU6" s="47"/>
-      <c r="AX6" s="44"/>
-      <c r="AY6" s="44"/>
-      <c r="AZ6" s="44"/>
-      <c r="BA6" s="53"/>
-      <c r="BD6" s="44"/>
+      <c r="AK6" s="47"/>
+      <c r="AP6" s="47"/>
+      <c r="AV6" s="47"/>
+      <c r="BB6" s="47"/>
       <c r="BE6" s="44"/>
       <c r="BF6" s="44"/>
-      <c r="BG6" s="53"/>
-      <c r="BV6" s="62"/>
-      <c r="BW6" s="62"/>
-      <c r="BX6" s="63"/>
-      <c r="BY6" s="53"/>
-      <c r="CB6" s="44"/>
-      <c r="CC6" s="44"/>
-      <c r="CD6" s="44"/>
-      <c r="CE6" s="46"/>
-      <c r="CI6" s="52"/>
-      <c r="CJ6" s="56"/>
-      <c r="CK6" s="53"/>
-    </row>
-    <row r="7" spans="2:89" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="44" t="s">
+      <c r="BG6" s="44"/>
+      <c r="BH6" s="53"/>
+      <c r="BK6" s="44"/>
+      <c r="BL6" s="44"/>
+      <c r="BM6" s="44"/>
+      <c r="BN6" s="53"/>
+      <c r="CC6" s="62"/>
+      <c r="CD6" s="62"/>
+      <c r="CE6" s="63"/>
+      <c r="CF6" s="53"/>
+      <c r="CI6" s="44"/>
+      <c r="CJ6" s="44"/>
+      <c r="CK6" s="44"/>
+      <c r="CL6" s="46"/>
+      <c r="CP6" s="52"/>
+      <c r="CQ6" s="56"/>
+      <c r="CR6" s="53"/>
+    </row>
+    <row r="7" spans="2:96" ht="21" x14ac:dyDescent="0.35">
+      <c r="E7" s="47"/>
+      <c r="I7" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44" t="s">
+      <c r="J7" s="44"/>
+      <c r="K7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="51">
+      <c r="L7" s="51">
         <v>45111</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="O7" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44" t="s">
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="51">
+      <c r="R7" s="51">
         <v>45083</v>
       </c>
-      <c r="N7" s="44" t="s">
+      <c r="U7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44" t="s">
+      <c r="V7" s="44"/>
+      <c r="W7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="50">
+      <c r="X7" s="50">
         <v>45049</v>
       </c>
-      <c r="R7" s="53"/>
-      <c r="T7" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="W7" s="50">
-        <v>45021</v>
-      </c>
+      <c r="Y7" s="53"/>
       <c r="AA7" s="44" t="s">
         <v>16</v>
       </c>
@@ -3676,392 +3672,415 @@
         <v>17</v>
       </c>
       <c r="AD7" s="50">
+        <v>45021</v>
+      </c>
+      <c r="AH7" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI7" s="44"/>
+      <c r="AJ7" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK7" s="50">
         <v>44986</v>
       </c>
-      <c r="AF7" s="44" t="s">
+      <c r="AM7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="44" t="s">
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AI7" s="50">
+      <c r="AP7" s="50">
         <v>44958</v>
       </c>
-      <c r="AL7" s="44" t="s">
+      <c r="AS7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AM7" s="44"/>
-      <c r="AN7" s="44" t="s">
+      <c r="AT7" s="44"/>
+      <c r="AU7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AO7" s="50">
+      <c r="AV7" s="50">
         <v>44930</v>
       </c>
-      <c r="AR7" s="61" t="s">
+      <c r="AY7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AS7" s="61"/>
-      <c r="AT7" s="45" t="s">
+      <c r="AZ7" s="61"/>
+      <c r="BA7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AU7" s="68">
+      <c r="BB7" s="68">
         <v>44896</v>
       </c>
-      <c r="AX7" s="44" t="s">
+      <c r="BE7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AY7" s="44"/>
-      <c r="AZ7" s="44" t="s">
+      <c r="BF7" s="44"/>
+      <c r="BG7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BA7" s="50">
+      <c r="BH7" s="50">
         <v>44874</v>
       </c>
-      <c r="BD7" s="44" t="s">
+      <c r="BK7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BE7" s="44"/>
-      <c r="BF7" s="44" t="s">
+      <c r="BL7" s="44"/>
+      <c r="BM7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BG7" s="50">
+      <c r="BN7" s="50">
         <v>44839</v>
       </c>
-      <c r="BJ7" s="61" t="s">
+      <c r="BQ7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BK7" s="61"/>
-      <c r="BL7" s="45" t="s">
+      <c r="BR7" s="61"/>
+      <c r="BS7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BM7" s="68">
+      <c r="BT7" s="68">
         <v>44805</v>
       </c>
-      <c r="BO7" s="61" t="s">
+      <c r="BV7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BP7" s="61"/>
-      <c r="BQ7" s="45" t="s">
+      <c r="BW7" s="61"/>
+      <c r="BX7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BR7" s="51">
+      <c r="BY7" s="51">
         <v>44777</v>
       </c>
-      <c r="BV7" s="44" t="s">
+      <c r="CC7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BW7" s="44"/>
-      <c r="BX7" s="44" t="s">
+      <c r="CD7" s="44"/>
+      <c r="CE7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BY7" s="64">
+      <c r="CF7" s="64">
         <v>44748</v>
       </c>
-      <c r="CB7" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="CC7" s="44"/>
-      <c r="CD7" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="CE7" s="49">
-        <v>44691</v>
-      </c>
-      <c r="CF7" s="54"/>
       <c r="CI7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="CJ7" s="57" t="s">
+      <c r="CJ7" s="44"/>
+      <c r="CK7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="CK7" s="49">
+      <c r="CL7" s="49">
+        <v>44691</v>
+      </c>
+      <c r="CM7" s="54"/>
+      <c r="CP7" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="CQ7" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="CR7" s="49">
         <v>44719</v>
       </c>
     </row>
-    <row r="8" spans="2:89" ht="21" x14ac:dyDescent="0.35">
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="53"/>
-      <c r="H8" s="62"/>
+    <row r="8" spans="2:96" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="45">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E8" s="64"/>
       <c r="I8" s="62"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="53"/>
-      <c r="N8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="53"/>
       <c r="O8" s="62"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="53"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="63"/>
       <c r="R8" s="53"/>
-      <c r="T8" s="62"/>
       <c r="U8" s="62"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="53"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
       <c r="AA8" s="62"/>
       <c r="AB8" s="62"/>
       <c r="AC8" s="63"/>
       <c r="AD8" s="53"/>
-      <c r="AF8" s="62"/>
-      <c r="AG8" s="62"/>
-      <c r="AH8" s="63"/>
-      <c r="AI8" s="53"/>
-      <c r="AL8" s="62"/>
+      <c r="AH8" s="62"/>
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="53"/>
       <c r="AM8" s="62"/>
-      <c r="AN8" s="63"/>
-      <c r="AO8" s="53"/>
-      <c r="AR8" s="44"/>
-      <c r="AS8" s="44"/>
-      <c r="AT8" s="44"/>
-      <c r="AU8" s="53"/>
-      <c r="BV8" s="52"/>
-      <c r="BW8" s="52"/>
-      <c r="BX8" s="52"/>
-      <c r="BY8" s="53"/>
-      <c r="CB8" s="44"/>
-      <c r="CC8" s="44"/>
-      <c r="CD8" s="44"/>
-      <c r="CE8" s="46"/>
-      <c r="CI8" s="52"/>
-      <c r="CJ8" s="56"/>
-      <c r="CK8" s="53"/>
-    </row>
-    <row r="9" spans="2:89" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="44" t="s">
+      <c r="AN8" s="62"/>
+      <c r="AO8" s="63"/>
+      <c r="AP8" s="53"/>
+      <c r="AS8" s="62"/>
+      <c r="AT8" s="62"/>
+      <c r="AU8" s="63"/>
+      <c r="AV8" s="53"/>
+      <c r="AY8" s="44"/>
+      <c r="AZ8" s="44"/>
+      <c r="BA8" s="44"/>
+      <c r="BB8" s="53"/>
+      <c r="CC8" s="52"/>
+      <c r="CD8" s="52"/>
+      <c r="CE8" s="52"/>
+      <c r="CF8" s="53"/>
+      <c r="CI8" s="44"/>
+      <c r="CJ8" s="44"/>
+      <c r="CK8" s="44"/>
+      <c r="CL8" s="46"/>
+      <c r="CP8" s="52"/>
+      <c r="CQ8" s="56"/>
+      <c r="CR8" s="53"/>
+    </row>
+    <row r="9" spans="2:96" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="47"/>
+      <c r="I9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44" t="s">
+      <c r="J9" s="44"/>
+      <c r="K9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="50">
+      <c r="L9" s="50">
         <v>45112</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="O9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44" t="s">
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="50">
+      <c r="R9" s="50">
         <v>45084</v>
       </c>
-      <c r="N9" s="44" t="s">
+      <c r="U9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44" t="s">
+      <c r="V9" s="44"/>
+      <c r="W9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" s="51">
+      <c r="X9" s="51">
         <v>45055</v>
       </c>
-      <c r="R9" s="53"/>
-      <c r="T9" s="44" t="s">
+      <c r="Y9" s="53"/>
+      <c r="AA9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44" t="s">
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="51">
+      <c r="AD9" s="51">
         <v>45027</v>
       </c>
-      <c r="AA9" s="61" t="s">
+      <c r="AH9" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AB9" s="61"/>
-      <c r="AC9" s="45" t="s">
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AD9" s="68">
+      <c r="AK9" s="68">
         <v>44987</v>
       </c>
-      <c r="AF9" s="61" t="s">
+      <c r="AM9" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="45" t="s">
+      <c r="AN9" s="61"/>
+      <c r="AO9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AI9" s="68">
+      <c r="AP9" s="68">
         <v>44959</v>
       </c>
-      <c r="AL9" s="61" t="s">
+      <c r="AS9" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AM9" s="61"/>
-      <c r="AN9" s="45" t="s">
+      <c r="AT9" s="61"/>
+      <c r="AU9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AO9" s="68">
+      <c r="AV9" s="68">
         <v>44931</v>
       </c>
-      <c r="AR9" s="44" t="s">
+      <c r="AY9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AS9" s="44"/>
-      <c r="AT9" s="44" t="s">
+      <c r="AZ9" s="44"/>
+      <c r="BA9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AU9" s="50">
+      <c r="BB9" s="50">
         <v>44902</v>
       </c>
-      <c r="AX9" s="44" t="s">
+      <c r="BE9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AY9" s="44"/>
-      <c r="AZ9" s="44" t="s">
+      <c r="BF9" s="44"/>
+      <c r="BG9" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="BA9" s="69">
+      <c r="BH9" s="69">
         <v>44875</v>
       </c>
-      <c r="BD9" s="44" t="s">
+      <c r="BK9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="BE9" s="44"/>
-      <c r="BF9" s="44" t="s">
+      <c r="BL9" s="44"/>
+      <c r="BM9" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="BG9" s="69">
+      <c r="BN9" s="69">
         <v>44840</v>
       </c>
-      <c r="BJ9" s="44" t="s">
+      <c r="BQ9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="BK9" s="44"/>
-      <c r="BL9" s="44" t="s">
+      <c r="BR9" s="44"/>
+      <c r="BS9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="BM9" s="69">
+      <c r="BT9" s="69">
         <v>44807</v>
       </c>
-      <c r="BO9" s="44" t="s">
+      <c r="BV9" s="44" t="s">
         <v>24</v>
-      </c>
-      <c r="BP9" s="44"/>
-      <c r="BQ9" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="BR9" s="50">
-        <v>44779</v>
-      </c>
-      <c r="BV9" s="44" t="s">
-        <v>25</v>
       </c>
       <c r="BW9" s="44"/>
       <c r="BX9" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="BY9" s="50">
+        <v>44779</v>
+      </c>
+      <c r="CC9" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="CD9" s="44"/>
+      <c r="CE9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BY9" s="49">
+      <c r="CF9" s="49">
         <v>44749</v>
-      </c>
-      <c r="CB9" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="CC9" s="44"/>
-      <c r="CD9" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="CE9" s="51">
-        <v>44693</v>
       </c>
       <c r="CI9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="CJ9" s="57" t="s">
+      <c r="CJ9" s="44"/>
+      <c r="CK9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="CK9" s="51">
+      <c r="CL9" s="51">
+        <v>44693</v>
+      </c>
+      <c r="CP9" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="CQ9" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="CR9" s="51">
         <v>44721</v>
       </c>
     </row>
-    <row r="10" spans="2:89" ht="21" x14ac:dyDescent="0.35">
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="53"/>
-      <c r="H10" s="44"/>
+    <row r="10" spans="2:96" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="57">
+        <v>11</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="50"/>
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
-      <c r="K10" s="53"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="53"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="53"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
       <c r="R10" s="53"/>
-      <c r="T10" s="52"/>
       <c r="U10" s="52"/>
       <c r="V10" s="52"/>
-      <c r="W10" s="53"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
       <c r="AA10" s="52"/>
       <c r="AB10" s="52"/>
       <c r="AC10" s="52"/>
       <c r="AD10" s="53"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="52"/>
       <c r="AH10" s="52"/>
-      <c r="AI10" s="53"/>
-      <c r="AL10" s="52"/>
+      <c r="AI10" s="52"/>
+      <c r="AJ10" s="52"/>
+      <c r="AK10" s="53"/>
       <c r="AM10" s="52"/>
       <c r="AN10" s="52"/>
-      <c r="AO10" s="53"/>
-      <c r="AP10" s="54"/>
-      <c r="BV10" s="52"/>
-      <c r="BW10" s="52"/>
-      <c r="BX10" s="52"/>
-      <c r="BY10" s="53"/>
-      <c r="CB10" s="44"/>
-      <c r="CC10" s="44"/>
-      <c r="CD10" s="44"/>
-      <c r="CE10" s="46"/>
-      <c r="CI10" s="52"/>
-      <c r="CJ10" s="56"/>
-      <c r="CK10" s="53"/>
-    </row>
-    <row r="11" spans="2:89" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="44" t="s">
+      <c r="AO10" s="52"/>
+      <c r="AP10" s="53"/>
+      <c r="AS10" s="52"/>
+      <c r="AT10" s="52"/>
+      <c r="AU10" s="52"/>
+      <c r="AV10" s="53"/>
+      <c r="AW10" s="54"/>
+      <c r="CC10" s="52"/>
+      <c r="CD10" s="52"/>
+      <c r="CE10" s="52"/>
+      <c r="CF10" s="53"/>
+      <c r="CI10" s="44"/>
+      <c r="CJ10" s="44"/>
+      <c r="CK10" s="44"/>
+      <c r="CL10" s="46"/>
+      <c r="CP10" s="52"/>
+      <c r="CQ10" s="56"/>
+      <c r="CR10" s="53"/>
+    </row>
+    <row r="11" spans="2:96" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="62"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="53"/>
+      <c r="I11" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44" t="s">
+      <c r="J11" s="44"/>
+      <c r="K11" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="71">
+      <c r="L11" s="71">
         <v>45114</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="O11" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44" t="s">
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="71">
+      <c r="R11" s="71">
         <v>45086</v>
       </c>
-      <c r="N11" s="83" t="s">
+      <c r="U11" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="84" t="s">
+      <c r="V11" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="P11" s="83" t="s">
+      <c r="W11" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="53"/>
-      <c r="T11" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="U11" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="V11" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="53"/>
       <c r="AA11" s="83" t="s">
         <v>24</v>
       </c>
@@ -4071,280 +4090,292 @@
       <c r="AC11" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="AD11" s="49">
+      <c r="AD11" s="49"/>
+      <c r="AH11" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI11" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ11" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK11" s="49">
         <v>44993</v>
       </c>
-      <c r="AF11" s="44" t="s">
+      <c r="AM11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AG11" s="44"/>
-      <c r="AH11" s="44" t="s">
+      <c r="AN11" s="44"/>
+      <c r="AO11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AI11" s="51">
+      <c r="AP11" s="51">
         <v>44967</v>
       </c>
-      <c r="AL11" s="44" t="s">
+      <c r="AS11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AM11" s="44"/>
-      <c r="AN11" s="44" t="s">
+      <c r="AT11" s="44"/>
+      <c r="AU11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AO11" s="51">
+      <c r="AV11" s="51">
         <v>44932</v>
       </c>
-      <c r="AR11" s="44" t="s">
+      <c r="AY11" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AS11" s="44"/>
-      <c r="AT11" s="44" t="s">
+      <c r="AZ11" s="44"/>
+      <c r="BA11" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="AU11" s="69">
+      <c r="BB11" s="69">
         <v>44903</v>
       </c>
-      <c r="AX11" s="44" t="s">
+      <c r="BE11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AY11" s="44"/>
-      <c r="AZ11" s="44" t="s">
+      <c r="BF11" s="44"/>
+      <c r="BG11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BA11" s="51">
+      <c r="BH11" s="51">
         <v>44876</v>
       </c>
-      <c r="BD11" s="44" t="s">
+      <c r="BK11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BE11" s="44"/>
-      <c r="BF11" s="44" t="s">
+      <c r="BL11" s="44"/>
+      <c r="BM11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BG11" s="51">
+      <c r="BN11" s="51">
         <v>44841</v>
       </c>
-      <c r="BJ11" s="44" t="s">
+      <c r="BQ11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BK11" s="44"/>
-      <c r="BL11" s="44" t="s">
+      <c r="BR11" s="44"/>
+      <c r="BS11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BM11" s="51">
+      <c r="BT11" s="51">
         <v>44812</v>
       </c>
-      <c r="BO11" s="44" t="s">
+      <c r="BV11" s="44" t="s">
         <v>25</v>
-      </c>
-      <c r="BP11" s="44"/>
-      <c r="BQ11" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="BR11" s="49">
-        <v>44784</v>
-      </c>
-      <c r="BV11" s="44" t="s">
-        <v>24</v>
       </c>
       <c r="BW11" s="44"/>
       <c r="BX11" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="BY11" s="49">
+        <v>44784</v>
+      </c>
+      <c r="CC11" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="CD11" s="44"/>
+      <c r="CE11" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="BY11" s="50">
+      <c r="CF11" s="50">
         <v>44751</v>
       </c>
-      <c r="CB11" s="44" t="s">
+      <c r="CI11" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CC11" s="52"/>
-      <c r="CD11" s="44" t="s">
+      <c r="CJ11" s="52"/>
+      <c r="CK11" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="CE11" s="49">
+      <c r="CL11" s="49">
         <v>44695</v>
       </c>
-      <c r="CI11" s="44" t="s">
+      <c r="CP11" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="CJ11" s="57" t="s">
+      <c r="CQ11" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="CK11" s="50">
+      <c r="CR11" s="50">
         <v>44723</v>
       </c>
     </row>
-    <row r="12" spans="2:89" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
-      <c r="H12" s="52"/>
+    <row r="12" spans="2:96" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="70"/>
       <c r="I12" s="52"/>
       <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
-      <c r="N12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="53"/>
       <c r="O12" s="52"/>
       <c r="P12" s="52"/>
-      <c r="Q12" s="53"/>
+      <c r="Q12" s="52"/>
       <c r="R12" s="53"/>
-      <c r="T12" s="52"/>
       <c r="U12" s="52"/>
       <c r="V12" s="52"/>
-      <c r="W12" s="53"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
       <c r="AA12" s="52"/>
       <c r="AB12" s="52"/>
       <c r="AC12" s="52"/>
       <c r="AD12" s="53"/>
-      <c r="AX12" s="62"/>
-      <c r="AY12" s="62"/>
-      <c r="AZ12" s="63"/>
-      <c r="BA12" s="53"/>
-      <c r="BD12" s="62"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="52"/>
+      <c r="AJ12" s="52"/>
+      <c r="AK12" s="53"/>
       <c r="BE12" s="62"/>
-      <c r="BF12" s="63"/>
-      <c r="BG12" s="53"/>
-      <c r="BJ12" s="62"/>
+      <c r="BF12" s="62"/>
+      <c r="BG12" s="63"/>
+      <c r="BH12" s="53"/>
       <c r="BK12" s="62"/>
-      <c r="BL12" s="63"/>
-      <c r="BM12" s="53"/>
-      <c r="BO12" s="62"/>
-      <c r="BP12" s="62"/>
-      <c r="BQ12" s="63"/>
-      <c r="BR12" s="53"/>
-      <c r="BV12" s="52"/>
-      <c r="BW12" s="52"/>
-      <c r="BX12" s="52"/>
+      <c r="BL12" s="62"/>
+      <c r="BM12" s="63"/>
+      <c r="BN12" s="53"/>
+      <c r="BQ12" s="62"/>
+      <c r="BR12" s="62"/>
+      <c r="BS12" s="63"/>
+      <c r="BT12" s="53"/>
+      <c r="BV12" s="62"/>
+      <c r="BW12" s="62"/>
+      <c r="BX12" s="63"/>
       <c r="BY12" s="53"/>
-      <c r="CB12" s="44"/>
-      <c r="CC12" s="44"/>
-      <c r="CD12" s="44"/>
-      <c r="CE12" s="46"/>
-      <c r="CI12" s="52"/>
-      <c r="CJ12" s="56"/>
-      <c r="CK12" s="53"/>
-    </row>
-    <row r="13" spans="2:89" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="44" t="s">
+      <c r="CC12" s="52"/>
+      <c r="CD12" s="52"/>
+      <c r="CE12" s="52"/>
+      <c r="CF12" s="53"/>
+      <c r="CI12" s="44"/>
+      <c r="CJ12" s="44"/>
+      <c r="CK12" s="44"/>
+      <c r="CL12" s="46"/>
+      <c r="CP12" s="52"/>
+      <c r="CQ12" s="56"/>
+      <c r="CR12" s="53"/>
+    </row>
+    <row r="13" spans="2:96" ht="21" x14ac:dyDescent="0.35">
+      <c r="B13" s="44"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="53"/>
+      <c r="I13" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="45" t="s">
+      <c r="J13" s="52"/>
+      <c r="K13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="70">
+      <c r="L13" s="70">
         <v>45115</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="O13" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="45" t="s">
+      <c r="P13" s="52"/>
+      <c r="Q13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="70">
+      <c r="R13" s="70">
         <v>45087</v>
       </c>
-      <c r="N13" s="61" t="s">
+      <c r="U13" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="61"/>
-      <c r="P13" s="45" t="s">
+      <c r="V13" s="61"/>
+      <c r="W13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="X13" s="68">
         <v>45057</v>
       </c>
-      <c r="R13" s="53"/>
-      <c r="T13" s="61" t="s">
+      <c r="Y13" s="53"/>
+      <c r="AA13" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="U13" s="61"/>
-      <c r="V13" s="45" t="s">
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="W13" s="68">
+      <c r="AD13" s="68">
         <v>45029</v>
       </c>
-      <c r="AA13" s="44" t="s">
+      <c r="AH13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44" t="s">
+      <c r="AI13" s="44"/>
+      <c r="AJ13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AD13" s="51">
+      <c r="AK13" s="51">
         <v>44995</v>
       </c>
-      <c r="AF13" s="44" t="s">
+      <c r="AM13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="44" t="s">
+      <c r="AN13" s="44"/>
+      <c r="AO13" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="AI13" s="69">
+      <c r="AP13" s="69">
         <v>44966</v>
       </c>
-      <c r="AL13" s="44" t="s">
+      <c r="AS13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AM13" s="44"/>
-      <c r="AN13" s="44" t="s">
+      <c r="AT13" s="44"/>
+      <c r="AU13" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="AO13" s="69">
+      <c r="AV13" s="69">
         <v>44938</v>
       </c>
-      <c r="AR13" s="44" t="s">
+      <c r="AY13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AS13" s="44"/>
-      <c r="AT13" s="44" t="s">
+      <c r="AZ13" s="44"/>
+      <c r="BA13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AU13" s="51">
+      <c r="BB13" s="51">
         <v>44904</v>
       </c>
-      <c r="AX13" s="44" t="s">
+      <c r="BE13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AY13" s="44"/>
-      <c r="AZ13" s="44" t="s">
+      <c r="BF13" s="44"/>
+      <c r="BG13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BA13" s="71">
+      <c r="BH13" s="71">
         <v>44883</v>
       </c>
-      <c r="BD13" s="44" t="s">
+      <c r="BK13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BE13" s="44"/>
-      <c r="BF13" s="44" t="s">
+      <c r="BL13" s="44"/>
+      <c r="BM13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BG13" s="71">
+      <c r="BN13" s="71">
         <v>44848</v>
       </c>
-      <c r="BJ13" s="44" t="s">
+      <c r="BQ13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BK13" s="44"/>
-      <c r="BL13" s="44" t="s">
+      <c r="BR13" s="44"/>
+      <c r="BS13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BM13" s="67">
+      <c r="BT13" s="67">
         <v>44813</v>
-      </c>
-      <c r="BO13" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="BP13" s="44"/>
-      <c r="BQ13" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="BR13" s="65">
-        <v>44785</v>
       </c>
       <c r="BV13" s="44" t="s">
         <v>21</v>
@@ -4354,132 +4385,146 @@
         <v>22</v>
       </c>
       <c r="BY13" s="65">
+        <v>44785</v>
+      </c>
+      <c r="CC13" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="CD13" s="44"/>
+      <c r="CE13" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="CF13" s="65">
         <v>44756</v>
       </c>
-      <c r="CB13" s="44" t="s">
+      <c r="CI13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="CC13" s="44"/>
-      <c r="CD13" s="44" t="s">
+      <c r="CJ13" s="44"/>
+      <c r="CK13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="CE13" s="50">
+      <c r="CL13" s="50">
         <v>44695</v>
       </c>
-      <c r="CI13" s="44" t="s">
+      <c r="CP13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CJ13" s="57" t="s">
+      <c r="CQ13" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="CK13" s="51">
+      <c r="CR13" s="51">
         <v>44728</v>
       </c>
     </row>
-    <row r="14" spans="2:89" ht="21" x14ac:dyDescent="0.35">
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
-      <c r="H14" s="52"/>
+    <row r="14" spans="2:96" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="45">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E14" s="49">
+        <v>45146</v>
+      </c>
       <c r="I14" s="52"/>
       <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="53"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="53"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
       <c r="R14" s="53"/>
-      <c r="T14" s="62"/>
       <c r="U14" s="62"/>
-      <c r="V14" s="63"/>
-      <c r="W14" s="53"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
       <c r="AA14" s="62"/>
       <c r="AB14" s="62"/>
       <c r="AC14" s="63"/>
       <c r="AD14" s="53"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="62"/>
-      <c r="AH14" s="63"/>
-      <c r="AI14" s="53"/>
-      <c r="AL14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="53"/>
       <c r="AM14" s="62"/>
-      <c r="AN14" s="63"/>
-      <c r="AO14" s="53"/>
-      <c r="AR14" s="62"/>
+      <c r="AN14" s="62"/>
+      <c r="AO14" s="63"/>
+      <c r="AP14" s="53"/>
       <c r="AS14" s="62"/>
-      <c r="AT14" s="63"/>
-      <c r="AU14" s="53"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="53"/>
-      <c r="BD14" s="52"/>
+      <c r="AT14" s="62"/>
+      <c r="AU14" s="63"/>
+      <c r="AV14" s="53"/>
+      <c r="AY14" s="62"/>
+      <c r="AZ14" s="62"/>
+      <c r="BA14" s="63"/>
+      <c r="BB14" s="53"/>
       <c r="BE14" s="52"/>
       <c r="BF14" s="52"/>
-      <c r="BG14" s="53"/>
-      <c r="BJ14" s="52"/>
+      <c r="BG14" s="52"/>
+      <c r="BH14" s="53"/>
       <c r="BK14" s="52"/>
       <c r="BL14" s="52"/>
-      <c r="BM14" s="53"/>
-      <c r="BO14" s="52"/>
-      <c r="BP14" s="52"/>
+      <c r="BM14" s="52"/>
+      <c r="BN14" s="53"/>
       <c r="BQ14" s="52"/>
-      <c r="BR14" s="53"/>
+      <c r="BR14" s="52"/>
+      <c r="BS14" s="52"/>
+      <c r="BT14" s="53"/>
       <c r="BV14" s="52"/>
       <c r="BW14" s="52"/>
       <c r="BX14" s="52"/>
       <c r="BY14" s="53"/>
-      <c r="CB14" s="44"/>
-      <c r="CC14" s="44"/>
-      <c r="CD14" s="44"/>
-      <c r="CE14" s="46"/>
-      <c r="CI14" s="52"/>
-      <c r="CJ14" s="56"/>
-      <c r="CK14" s="53"/>
-    </row>
-    <row r="15" spans="2:89" ht="21" x14ac:dyDescent="0.35">
-      <c r="B15" s="61" t="s">
+      <c r="CC14" s="52"/>
+      <c r="CD14" s="52"/>
+      <c r="CE14" s="52"/>
+      <c r="CF14" s="53"/>
+      <c r="CI14" s="44"/>
+      <c r="CJ14" s="44"/>
+      <c r="CK14" s="44"/>
+      <c r="CL14" s="46"/>
+      <c r="CP14" s="52"/>
+      <c r="CQ14" s="56"/>
+      <c r="CR14" s="53"/>
+    </row>
+    <row r="15" spans="2:96" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="98"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101"/>
+      <c r="I15" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="45" t="s">
+      <c r="J15" s="61"/>
+      <c r="K15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="97">
+      <c r="L15" s="97">
         <v>45119</v>
       </c>
-      <c r="H15" s="61" t="s">
+      <c r="O15" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="61"/>
-      <c r="J15" s="45" t="s">
+      <c r="P15" s="61"/>
+      <c r="Q15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="68">
+      <c r="R15" s="68">
         <v>45091</v>
       </c>
-      <c r="N15" s="44" t="s">
+      <c r="U15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44" t="s">
+      <c r="V15" s="44"/>
+      <c r="W15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="71">
+      <c r="X15" s="71">
         <v>45058</v>
       </c>
-      <c r="R15" s="53"/>
-      <c r="T15" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="W15" s="71">
-        <v>45030</v>
-      </c>
+      <c r="Y15" s="53"/>
       <c r="AA15" s="44" t="s">
         <v>21</v>
       </c>
@@ -4488,204 +4533,220 @@
         <v>22</v>
       </c>
       <c r="AD15" s="71">
+        <v>45030</v>
+      </c>
+      <c r="AH15" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI15" s="44"/>
+      <c r="AJ15" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK15" s="71">
         <v>45001</v>
       </c>
-      <c r="AF15" s="44" t="s">
+      <c r="AM15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AG15" s="44"/>
-      <c r="AH15" s="44" t="s">
+      <c r="AN15" s="44"/>
+      <c r="AO15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AI15" s="71">
+      <c r="AP15" s="71">
         <v>44973</v>
       </c>
-      <c r="AL15" s="44" t="s">
+      <c r="AS15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AM15" s="44"/>
-      <c r="AN15" s="44" t="s">
+      <c r="AT15" s="44"/>
+      <c r="AU15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AO15" s="71">
+      <c r="AV15" s="71">
         <v>44946</v>
       </c>
-      <c r="AR15" s="44" t="s">
+      <c r="AY15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AS15" s="44"/>
-      <c r="AT15" s="44" t="s">
+      <c r="AZ15" s="44"/>
+      <c r="BA15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AU15" s="71">
+      <c r="BB15" s="71">
         <v>44911</v>
       </c>
-      <c r="AX15" s="44" t="s">
+      <c r="BE15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AY15" s="52"/>
-      <c r="AZ15" s="45" t="s">
+      <c r="BF15" s="52"/>
+      <c r="BG15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BA15" s="70">
+      <c r="BH15" s="70">
         <v>44884</v>
       </c>
-      <c r="BD15" s="44" t="s">
+      <c r="BK15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BE15" s="52"/>
-      <c r="BF15" s="45" t="s">
+      <c r="BL15" s="52"/>
+      <c r="BM15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BG15" s="70">
+      <c r="BN15" s="70">
         <v>44849</v>
       </c>
-      <c r="BJ15" s="44" t="s">
+      <c r="BQ15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BK15" s="52"/>
-      <c r="BL15" s="45" t="s">
+      <c r="BR15" s="52"/>
+      <c r="BS15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BM15" s="70">
+      <c r="BT15" s="70">
         <v>44814</v>
-      </c>
-      <c r="BO15" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="BP15" s="52"/>
-      <c r="BQ15" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="BR15" s="66">
-        <v>44786</v>
       </c>
       <c r="BV15" s="44" t="s">
         <v>19</v>
       </c>
       <c r="BW15" s="52"/>
-      <c r="BX15" s="44" t="s">
+      <c r="BX15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="BY15" s="66">
+        <v>44786</v>
+      </c>
+      <c r="CC15" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="CD15" s="52"/>
+      <c r="CE15" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="BY15" s="66">
+      <c r="CF15" s="66">
         <v>44758</v>
       </c>
-      <c r="CB15" s="44" t="s">
+      <c r="CI15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CC15" s="44"/>
-      <c r="CD15" s="44" t="s">
+      <c r="CJ15" s="44"/>
+      <c r="CK15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="CE15" s="51">
+      <c r="CL15" s="51">
         <v>44700</v>
       </c>
-      <c r="CI15" s="44" t="s">
+      <c r="CP15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CJ15" s="57" t="s">
+      <c r="CQ15" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="CK15" s="49">
+      <c r="CR15" s="49">
         <v>44730</v>
       </c>
     </row>
-    <row r="16" spans="2:89" ht="21" x14ac:dyDescent="0.35">
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="53"/>
-      <c r="H16" s="62"/>
+    <row r="16" spans="2:96" ht="21" x14ac:dyDescent="0.35">
+      <c r="B16" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="57">
+        <v>4</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="51">
+        <v>45146</v>
+      </c>
       <c r="I16" s="62"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="53"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="53"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="53"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="63"/>
       <c r="R16" s="53"/>
-      <c r="T16" s="52"/>
       <c r="U16" s="52"/>
       <c r="V16" s="52"/>
-      <c r="W16" s="53"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
       <c r="AA16" s="52"/>
       <c r="AB16" s="52"/>
       <c r="AC16" s="52"/>
       <c r="AD16" s="53"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="52"/>
       <c r="AH16" s="52"/>
-      <c r="AI16" s="53"/>
-      <c r="AL16" s="52"/>
+      <c r="AI16" s="52"/>
+      <c r="AJ16" s="52"/>
+      <c r="AK16" s="53"/>
       <c r="AM16" s="52"/>
       <c r="AN16" s="52"/>
-      <c r="AO16" s="53"/>
-      <c r="AR16" s="52"/>
+      <c r="AO16" s="52"/>
+      <c r="AP16" s="53"/>
       <c r="AS16" s="52"/>
       <c r="AT16" s="52"/>
-      <c r="AU16" s="53"/>
-      <c r="BJ16" s="44"/>
-      <c r="BK16" s="44"/>
-      <c r="BL16" s="44"/>
-      <c r="BM16" s="46"/>
-      <c r="BO16" s="44"/>
-      <c r="BP16" s="44"/>
+      <c r="AU16" s="52"/>
+      <c r="AV16" s="53"/>
+      <c r="AY16" s="52"/>
+      <c r="AZ16" s="52"/>
+      <c r="BA16" s="52"/>
+      <c r="BB16" s="53"/>
       <c r="BQ16" s="44"/>
-      <c r="BR16" s="46"/>
+      <c r="BR16" s="44"/>
+      <c r="BS16" s="44"/>
+      <c r="BT16" s="46"/>
       <c r="BV16" s="44"/>
       <c r="BW16" s="44"/>
       <c r="BX16" s="44"/>
       <c r="BY16" s="46"/>
-      <c r="CB16" s="44"/>
       <c r="CC16" s="44"/>
       <c r="CD16" s="44"/>
-      <c r="CE16" s="46"/>
+      <c r="CE16" s="44"/>
+      <c r="CF16" s="46"/>
       <c r="CI16" s="44"/>
-      <c r="CJ16" s="57"/>
-      <c r="CK16" s="46"/>
-    </row>
-    <row r="17" spans="2:89" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B17" s="83" t="s">
+      <c r="CJ16" s="44"/>
+      <c r="CK16" s="44"/>
+      <c r="CL16" s="46"/>
+      <c r="CP16" s="44"/>
+      <c r="CQ16" s="57"/>
+      <c r="CR16" s="46"/>
+    </row>
+    <row r="17" spans="2:96" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B17" s="44"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="51"/>
+      <c r="I17" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="J17" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="K17" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="H17" s="83" t="s">
+      <c r="L17" s="49"/>
+      <c r="O17" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="84" t="s">
+      <c r="P17" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="83" t="s">
+      <c r="Q17" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="49"/>
-      <c r="N17" s="44" t="s">
+      <c r="R17" s="49"/>
+      <c r="U17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="52"/>
-      <c r="P17" s="45" t="s">
+      <c r="V17" s="52"/>
+      <c r="W17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="Q17" s="70">
+      <c r="X17" s="70">
         <v>45059</v>
       </c>
-      <c r="R17" s="53"/>
-      <c r="T17" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="U17" s="52"/>
-      <c r="V17" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="W17" s="70">
-        <v>45031</v>
-      </c>
+      <c r="Y17" s="53"/>
       <c r="AA17" s="44" t="s">
         <v>19</v>
       </c>
@@ -4694,187 +4755,242 @@
         <v>15</v>
       </c>
       <c r="AD17" s="70">
+        <v>45031</v>
+      </c>
+      <c r="AH17" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI17" s="52"/>
+      <c r="AJ17" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK17" s="70">
         <v>45003</v>
       </c>
-      <c r="AF17" s="44" t="s">
+      <c r="AM17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AG17" s="52"/>
-      <c r="AH17" s="45" t="s">
+      <c r="AN17" s="52"/>
+      <c r="AO17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AI17" s="70">
+      <c r="AP17" s="70">
         <v>44982</v>
       </c>
-      <c r="AL17" s="44" t="s">
+      <c r="AS17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AM17" s="52"/>
-      <c r="AN17" s="45" t="s">
+      <c r="AT17" s="52"/>
+      <c r="AU17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AO17" s="70">
+      <c r="AV17" s="70">
         <v>44954</v>
       </c>
-      <c r="AR17" s="44" t="s">
+      <c r="AY17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AS17" s="52"/>
-      <c r="AT17" s="45" t="s">
+      <c r="AZ17" s="52"/>
+      <c r="BA17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AU17" s="70">
+      <c r="BB17" s="70">
         <v>44912</v>
       </c>
-      <c r="CB17" s="52"/>
-      <c r="CC17" s="52"/>
-      <c r="CD17" s="52"/>
-      <c r="CE17" s="53"/>
-      <c r="CI17" s="44"/>
-      <c r="CJ17" s="57"/>
-      <c r="CK17" s="46"/>
-    </row>
-    <row r="18" spans="2:89" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="53"/>
-      <c r="H18" s="52"/>
+      <c r="CI17" s="52"/>
+      <c r="CJ17" s="52"/>
+      <c r="CK17" s="52"/>
+      <c r="CL17" s="53"/>
+      <c r="CP17" s="44"/>
+      <c r="CQ17" s="57"/>
+      <c r="CR17" s="46"/>
+    </row>
+    <row r="18" spans="2:96" ht="21" x14ac:dyDescent="0.35">
+      <c r="B18" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="57">
+        <v>7</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="97">
+        <v>45147</v>
+      </c>
       <c r="I18" s="52"/>
       <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="T18" s="54"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="53"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="53"/>
       <c r="U18" s="54"/>
       <c r="V18" s="54"/>
       <c r="W18" s="54"/>
-      <c r="CB18" s="44"/>
-      <c r="CC18" s="44"/>
-      <c r="CD18" s="44"/>
-      <c r="CE18" s="46"/>
+      <c r="X18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
       <c r="CI18" s="44"/>
-      <c r="CJ18" s="57"/>
-      <c r="CK18" s="46"/>
-    </row>
-    <row r="19" spans="2:89" ht="21" x14ac:dyDescent="0.35">
+      <c r="CJ18" s="44"/>
+      <c r="CK18" s="44"/>
+      <c r="CL18" s="46"/>
+      <c r="CP18" s="44"/>
+      <c r="CQ18" s="57"/>
+      <c r="CR18" s="46"/>
+    </row>
+    <row r="19" spans="2:96" ht="21" x14ac:dyDescent="0.35">
       <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="63"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="53"/>
-      <c r="H19" s="52"/>
       <c r="I19" s="52"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="53"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="53"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="53"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="63"/>
       <c r="R19" s="53"/>
-      <c r="T19" s="62"/>
       <c r="U19" s="62"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="53"/>
-      <c r="CB19" s="44"/>
-      <c r="CC19" s="44"/>
-      <c r="CD19" s="44"/>
-      <c r="CE19" s="46"/>
-    </row>
-    <row r="20" spans="2:89" ht="21" x14ac:dyDescent="0.35">
-      <c r="CB20" s="44"/>
-      <c r="CC20" s="44"/>
-      <c r="CD20" s="44"/>
-      <c r="CE20" s="46"/>
-    </row>
-    <row r="21" spans="2:89" ht="21" x14ac:dyDescent="0.35">
-      <c r="CB21" s="44"/>
-      <c r="CC21" s="44"/>
-      <c r="CD21" s="44"/>
-      <c r="CE21" s="46"/>
-    </row>
-    <row r="22" spans="2:89" ht="21" x14ac:dyDescent="0.35">
-      <c r="CB22" s="44"/>
-      <c r="CC22" s="44"/>
-      <c r="CD22" s="44"/>
-      <c r="CE22" s="46"/>
-    </row>
-    <row r="23" spans="2:89" ht="21" x14ac:dyDescent="0.35">
-      <c r="CB23" s="44"/>
-      <c r="CC23" s="44"/>
-      <c r="CD23" s="44"/>
-      <c r="CE23" s="46"/>
-    </row>
-    <row r="24" spans="2:89" ht="21" x14ac:dyDescent="0.35">
-      <c r="CB24" s="44"/>
-      <c r="CC24" s="44"/>
-      <c r="CD24" s="44"/>
-      <c r="CE24" s="46"/>
-    </row>
-    <row r="25" spans="2:89" ht="21" x14ac:dyDescent="0.35">
-      <c r="CB25" s="44"/>
-      <c r="CC25" s="44"/>
-      <c r="CD25" s="44"/>
-      <c r="CE25" s="46"/>
-    </row>
-    <row r="26" spans="2:89" ht="21" x14ac:dyDescent="0.35">
-      <c r="CB26" s="44"/>
-      <c r="CC26" s="44"/>
-      <c r="CD26" s="44"/>
-      <c r="CE26" s="46"/>
-    </row>
-    <row r="27" spans="2:89" ht="21" x14ac:dyDescent="0.35">
-      <c r="CB27" s="44"/>
-      <c r="CC27" s="44"/>
-      <c r="CD27" s="44"/>
-      <c r="CE27" s="46"/>
-    </row>
-    <row r="28" spans="2:89" ht="21" x14ac:dyDescent="0.35">
-      <c r="CB28" s="44"/>
-      <c r="CC28" s="44"/>
-      <c r="CD28" s="44"/>
-      <c r="CE28" s="46"/>
-    </row>
-    <row r="29" spans="2:89" ht="21" x14ac:dyDescent="0.35">
-      <c r="CB29" s="44"/>
-      <c r="CC29" s="44"/>
-      <c r="CD29" s="44"/>
-      <c r="CE29" s="46"/>
-    </row>
-    <row r="30" spans="2:89" ht="21" x14ac:dyDescent="0.35">
-      <c r="CB30" s="44"/>
-      <c r="CC30" s="44"/>
-      <c r="CD30" s="44"/>
-      <c r="CE30" s="46"/>
-    </row>
-    <row r="31" spans="2:89" ht="21" x14ac:dyDescent="0.35">
-      <c r="CB31" s="44"/>
-      <c r="CC31" s="44"/>
-      <c r="CD31" s="44"/>
-      <c r="CE31" s="46"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="63"/>
+      <c r="AD19" s="53"/>
+      <c r="CI19" s="44"/>
+      <c r="CJ19" s="44"/>
+      <c r="CK19" s="44"/>
+      <c r="CL19" s="46"/>
+    </row>
+    <row r="20" spans="2:96" ht="21" x14ac:dyDescent="0.35">
+      <c r="B20" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="57">
+        <v>5</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="71">
+        <v>45149</v>
+      </c>
+      <c r="CI20" s="44"/>
+      <c r="CJ20" s="44"/>
+      <c r="CK20" s="44"/>
+      <c r="CL20" s="46"/>
+    </row>
+    <row r="21" spans="2:96" ht="21" x14ac:dyDescent="0.35">
+      <c r="B21" s="62"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="53"/>
+      <c r="CI21" s="44"/>
+      <c r="CJ21" s="44"/>
+      <c r="CK21" s="44"/>
+      <c r="CL21" s="46"/>
+    </row>
+    <row r="22" spans="2:96" ht="21" x14ac:dyDescent="0.35">
+      <c r="B22" s="52"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
+      <c r="CI22" s="44"/>
+      <c r="CJ22" s="44"/>
+      <c r="CK22" s="44"/>
+      <c r="CL22" s="46"/>
+    </row>
+    <row r="23" spans="2:96" ht="21" x14ac:dyDescent="0.35">
+      <c r="B23" s="52"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="CI23" s="44"/>
+      <c r="CJ23" s="44"/>
+      <c r="CK23" s="44"/>
+      <c r="CL23" s="46"/>
+    </row>
+    <row r="24" spans="2:96" ht="21" x14ac:dyDescent="0.35">
+      <c r="B24" s="52"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="53"/>
+      <c r="CI24" s="44"/>
+      <c r="CJ24" s="44"/>
+      <c r="CK24" s="44"/>
+      <c r="CL24" s="46"/>
+    </row>
+    <row r="25" spans="2:96" ht="21" x14ac:dyDescent="0.35">
+      <c r="CI25" s="44"/>
+      <c r="CJ25" s="44"/>
+      <c r="CK25" s="44"/>
+      <c r="CL25" s="46"/>
+    </row>
+    <row r="26" spans="2:96" ht="21" x14ac:dyDescent="0.35">
+      <c r="CI26" s="44"/>
+      <c r="CJ26" s="44"/>
+      <c r="CK26" s="44"/>
+      <c r="CL26" s="46"/>
+    </row>
+    <row r="27" spans="2:96" ht="21" x14ac:dyDescent="0.35">
+      <c r="CI27" s="44"/>
+      <c r="CJ27" s="44"/>
+      <c r="CK27" s="44"/>
+      <c r="CL27" s="46"/>
+    </row>
+    <row r="28" spans="2:96" ht="21" x14ac:dyDescent="0.35">
+      <c r="CI28" s="44"/>
+      <c r="CJ28" s="44"/>
+      <c r="CK28" s="44"/>
+      <c r="CL28" s="46"/>
+    </row>
+    <row r="29" spans="2:96" ht="21" x14ac:dyDescent="0.35">
+      <c r="CI29" s="44"/>
+      <c r="CJ29" s="44"/>
+      <c r="CK29" s="44"/>
+      <c r="CL29" s="46"/>
+    </row>
+    <row r="30" spans="2:96" ht="21" x14ac:dyDescent="0.35">
+      <c r="CI30" s="44"/>
+      <c r="CJ30" s="44"/>
+      <c r="CK30" s="44"/>
+      <c r="CL30" s="46"/>
+    </row>
+    <row r="31" spans="2:96" ht="21" x14ac:dyDescent="0.35">
+      <c r="CI31" s="44"/>
+      <c r="CJ31" s="44"/>
+      <c r="CK31" s="44"/>
+      <c r="CL31" s="46"/>
     </row>
   </sheetData>
-  <sortState ref="AA11:AD13">
-    <sortCondition ref="AD11:AD13"/>
+  <sortState ref="AH11:AK13">
+    <sortCondition ref="AK11:AK13"/>
   </sortState>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="AR5:AT5"/>
-    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="CI5:CJ5"/>
+    <mergeCell ref="AY5:BA5"/>
+    <mergeCell ref="CP3:CR3"/>
+    <mergeCell ref="CC3:CE3"/>
     <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="BD3:BF3"/>
-    <mergeCell ref="BJ3:BL3"/>
-    <mergeCell ref="CB3:CE3"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="CI3:CL3"/>
+    <mergeCell ref="U5:W5"/>
     <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="AL5:AN5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AS5:AU5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -3360,8 +3360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:CR31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3785,7 +3785,7 @@
         <v>44719</v>
       </c>
     </row>
-    <row r="8" spans="2:96" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:96" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="44" t="s">
         <v>45</v>
       </c>
@@ -3839,7 +3839,7 @@
       <c r="CQ8" s="56"/>
       <c r="CR8" s="53"/>
     </row>
-    <row r="9" spans="2:96" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:96" ht="21" x14ac:dyDescent="0.35">
       <c r="E9" s="47"/>
       <c r="I9" s="44" t="s">
         <v>16</v>
@@ -3992,7 +3992,7 @@
         <v>44721</v>
       </c>
     </row>
-    <row r="10" spans="2:96" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:96" ht="21" x14ac:dyDescent="0.35">
       <c r="B10" s="44" t="s">
         <v>16</v>
       </c>
@@ -4045,7 +4045,7 @@
       <c r="CQ10" s="56"/>
       <c r="CR10" s="53"/>
     </row>
-    <row r="11" spans="2:96" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:96" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B11" s="62"/>
       <c r="C11" s="56"/>
       <c r="D11" s="63"/>
@@ -4203,7 +4203,7 @@
         <v>44723</v>
       </c>
     </row>
-    <row r="12" spans="2:96" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:96" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="44" t="s">
         <v>19</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="E14" s="49">
-        <v>45146</v>
+        <v>45160</v>
       </c>
       <c r="I14" s="52"/>
       <c r="J14" s="52"/>
@@ -4656,7 +4656,7 @@
         <v>18</v>
       </c>
       <c r="E16" s="51">
-        <v>45146</v>
+        <v>45160</v>
       </c>
       <c r="I16" s="62"/>
       <c r="J16" s="62"/>
@@ -4816,7 +4816,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="97">
-        <v>45147</v>
+        <v>45154</v>
       </c>
       <c r="I18" s="52"/>
       <c r="J18" s="52"/>
@@ -4974,11 +4974,6 @@
     <sortCondition ref="AK11:AK13"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="CI5:CJ5"/>
-    <mergeCell ref="AY5:BA5"/>
     <mergeCell ref="CP3:CR3"/>
     <mergeCell ref="CC3:CE3"/>
     <mergeCell ref="BV3:BX3"/>
@@ -4986,6 +4981,11 @@
     <mergeCell ref="BK3:BM3"/>
     <mergeCell ref="BQ3:BS3"/>
     <mergeCell ref="CI3:CL3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="CI5:CJ5"/>
+    <mergeCell ref="AY5:BA5"/>
     <mergeCell ref="U5:W5"/>
     <mergeCell ref="AA5:AC5"/>
     <mergeCell ref="AH5:AJ5"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMA    ECOPLAG   2023    " sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="60">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t>PROGAMA         FUMIGACION</t>
+  </si>
+  <si>
+    <t>PRODUCCION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABASTOS DE 4 CARNES SA DE CV </t>
+  </si>
+  <si>
+    <t>NORMA LEDO PARRA</t>
+  </si>
+  <si>
+    <t>OBRADOR</t>
   </si>
 </sst>
 </file>
@@ -209,7 +221,7 @@
     <numFmt numFmtId="164" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +338,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -425,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -746,12 +766,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1057,6 +1232,55 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="16" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="9" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="15" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="15" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="15" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="11" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1066,11 +1290,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFF99"/>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FF66FFFF"/>
       <color rgb="FFFF66FF"/>
-      <color rgb="FFCCFF99"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF66FFFF"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF66CCFF"/>
       <color rgb="FFCC9900"/>
@@ -2299,11 +2523,11 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A2:M38"/>
+  <dimension ref="A2:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2319,11 +2543,13 @@
     <col min="9" max="9" width="11.42578125" style="24"/>
     <col min="10" max="10" width="13.28515625" style="93" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" style="24"/>
-    <col min="12" max="12" width="14.85546875" style="88" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="28"/>
+    <col min="12" max="12" width="17" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="24"/>
+    <col min="14" max="14" width="14.85546875" style="88" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="124" t="s">
         <v>0</v>
       </c>
@@ -2334,7 +2560,7 @@
       <c r="H2" s="124"/>
       <c r="I2" s="124"/>
     </row>
-    <row r="3" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D3" s="125" t="s">
         <v>37</v>
       </c>
@@ -2342,8 +2568,29 @@
       <c r="F3" s="127"/>
       <c r="G3" s="29"/>
     </row>
-    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="135" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="141" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="144" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="145"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2365,26 +2612,32 @@
       <c r="G5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="94" t="s">
+      <c r="H5" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="96" t="s">
+      <c r="J5" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="90" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="40" t="s">
+      <c r="L5" s="139" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="140" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -2418,14 +2671,16 @@
       <c r="K6" s="35">
         <v>250</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="16">
         <v>1392</v>
       </c>
-      <c r="M6" s="22">
+      <c r="O6" s="22">
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -2459,14 +2714,16 @@
       <c r="K7" s="38">
         <v>268</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="8">
         <v>1392</v>
       </c>
-      <c r="M7" s="41">
+      <c r="O7" s="41">
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -2500,14 +2757,16 @@
       <c r="K8" s="39">
         <v>291</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="130"/>
+      <c r="M8" s="130"/>
+      <c r="N8" s="9">
         <v>1392</v>
       </c>
-      <c r="M8" s="42">
+      <c r="O8" s="42">
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -2541,14 +2800,16 @@
       <c r="K9" s="39">
         <v>312</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="130"/>
+      <c r="M9" s="130"/>
+      <c r="N9" s="9">
         <v>1392</v>
       </c>
-      <c r="M9" s="42">
+      <c r="O9" s="42">
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -2582,14 +2843,16 @@
       <c r="K10" s="39">
         <v>333</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="130"/>
+      <c r="M10" s="130"/>
+      <c r="N10" s="9">
         <v>1392</v>
       </c>
-      <c r="M10" s="42">
+      <c r="O10" s="42">
         <v>332</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
@@ -2623,14 +2886,16 @@
       <c r="K11" s="39">
         <v>357</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="130"/>
+      <c r="M11" s="130"/>
+      <c r="N11" s="9">
         <v>1392</v>
       </c>
-      <c r="M11" s="42">
+      <c r="O11" s="42">
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
@@ -2664,14 +2929,16 @@
       <c r="K12" s="39">
         <v>375</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="130"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="9">
         <v>1392</v>
       </c>
-      <c r="M12" s="42">
+      <c r="O12" s="42">
         <v>369</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
@@ -2705,14 +2972,16 @@
       <c r="K13" s="39">
         <v>391</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="130"/>
+      <c r="M13" s="130"/>
+      <c r="N13" s="9">
         <v>1392</v>
       </c>
-      <c r="M13" s="42">
+      <c r="O13" s="42">
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
@@ -2746,14 +3015,16 @@
       <c r="K14" s="39">
         <v>416</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="130"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="9">
         <v>1392</v>
       </c>
-      <c r="M14" s="42">
+      <c r="O14" s="42">
         <v>413</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
@@ -2787,14 +3058,16 @@
       <c r="K15" s="39">
         <v>439</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="130"/>
+      <c r="M15" s="130"/>
+      <c r="N15" s="9">
         <v>1392</v>
       </c>
-      <c r="M15" s="42">
+      <c r="O15" s="42">
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
@@ -2828,14 +3101,16 @@
       <c r="K16" s="39">
         <v>453</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="9">
         <v>1392</v>
       </c>
-      <c r="M16" s="42">
+      <c r="O16" s="42">
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="72" t="s">
         <v>36</v>
       </c>
@@ -2869,14 +3144,16 @@
       <c r="K17" s="80">
         <v>469</v>
       </c>
-      <c r="L17" s="43">
+      <c r="L17" s="131"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="43">
         <v>1392</v>
       </c>
-      <c r="M17" s="81">
+      <c r="O17" s="81">
         <v>463</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
@@ -2910,14 +3187,16 @@
       <c r="K18" s="39">
         <v>515</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="134"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="9">
         <v>1392</v>
       </c>
-      <c r="M18" s="42">
+      <c r="O18" s="42">
         <v>513</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
@@ -2951,14 +3230,16 @@
       <c r="K19" s="39">
         <v>525</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="134"/>
+      <c r="M19" s="133"/>
+      <c r="N19" s="9">
         <v>1392</v>
       </c>
-      <c r="M19" s="42">
+      <c r="O19" s="42">
         <v>523</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -2992,14 +3273,16 @@
       <c r="K20" s="39">
         <v>544</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="134"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="9">
         <v>0</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="O20" s="42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
@@ -3033,14 +3316,16 @@
       <c r="K21" s="39">
         <v>569</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="134"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="9">
         <v>0</v>
       </c>
-      <c r="M21" s="42" t="s">
+      <c r="O21" s="42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
@@ -3072,14 +3357,16 @@
       <c r="K22" s="39">
         <v>595</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="134"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="9">
         <v>0</v>
       </c>
-      <c r="M22" s="87" t="s">
+      <c r="O22" s="42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
@@ -3113,14 +3400,16 @@
       <c r="K23" s="39">
         <v>635</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="134"/>
+      <c r="M23" s="133"/>
+      <c r="N23" s="9">
         <v>0</v>
       </c>
-      <c r="M23" s="87" t="s">
+      <c r="O23" s="42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="7"/>
       <c r="C24" s="37"/>
@@ -3132,10 +3421,12 @@
       <c r="I24" s="37"/>
       <c r="J24" s="20"/>
       <c r="K24" s="39"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="87"/>
-    </row>
-    <row r="25" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="134"/>
+      <c r="M24" s="133"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="42"/>
+    </row>
+    <row r="25" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="7"/>
       <c r="C25" s="37"/>
@@ -3147,10 +3438,12 @@
       <c r="I25" s="37"/>
       <c r="J25" s="20"/>
       <c r="K25" s="39"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="87"/>
-    </row>
-    <row r="26" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="134"/>
+      <c r="M25" s="133"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="42"/>
+    </row>
+    <row r="26" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="7"/>
       <c r="C26" s="37"/>
@@ -3162,10 +3455,12 @@
       <c r="I26" s="37"/>
       <c r="J26" s="20"/>
       <c r="K26" s="39"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="87"/>
-    </row>
-    <row r="27" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="134"/>
+      <c r="M26" s="133"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="42"/>
+    </row>
+    <row r="27" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="7"/>
       <c r="C27" s="37"/>
@@ -3177,10 +3472,12 @@
       <c r="I27" s="37"/>
       <c r="J27" s="20"/>
       <c r="K27" s="39"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="87"/>
-    </row>
-    <row r="28" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="134"/>
+      <c r="M27" s="133"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="42"/>
+    </row>
+    <row r="28" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="7"/>
       <c r="C28" s="37"/>
@@ -3192,10 +3489,12 @@
       <c r="I28" s="37"/>
       <c r="J28" s="20"/>
       <c r="K28" s="39"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="87"/>
-    </row>
-    <row r="29" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="134"/>
+      <c r="M28" s="133"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="42"/>
+    </row>
+    <row r="29" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="7"/>
       <c r="C29" s="37"/>
@@ -3207,10 +3506,12 @@
       <c r="I29" s="37"/>
       <c r="J29" s="20"/>
       <c r="K29" s="39"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="87"/>
-    </row>
-    <row r="30" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="134"/>
+      <c r="M29" s="133"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="42"/>
+    </row>
+    <row r="30" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="7"/>
       <c r="C30" s="37"/>
@@ -3222,10 +3523,12 @@
       <c r="I30" s="37"/>
       <c r="J30" s="20"/>
       <c r="K30" s="39"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="87"/>
-    </row>
-    <row r="31" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="134"/>
+      <c r="M30" s="133"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="42"/>
+    </row>
+    <row r="31" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="7"/>
       <c r="C31" s="37"/>
@@ -3237,10 +3540,12 @@
       <c r="I31" s="37"/>
       <c r="J31" s="20"/>
       <c r="K31" s="39"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="87"/>
-    </row>
-    <row r="32" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L31" s="134"/>
+      <c r="M31" s="133"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="42"/>
+    </row>
+    <row r="32" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="7"/>
       <c r="C32" s="37"/>
@@ -3252,10 +3557,12 @@
       <c r="I32" s="37"/>
       <c r="J32" s="20"/>
       <c r="K32" s="39"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="87"/>
-    </row>
-    <row r="33" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="134"/>
+      <c r="M32" s="133"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="42"/>
+    </row>
+    <row r="33" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="7"/>
       <c r="C33" s="37"/>
@@ -3267,10 +3574,12 @@
       <c r="I33" s="37"/>
       <c r="J33" s="20"/>
       <c r="K33" s="39"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="87"/>
-    </row>
-    <row r="34" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="134"/>
+      <c r="M33" s="133"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="42"/>
+    </row>
+    <row r="34" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="7"/>
       <c r="C34" s="37"/>
@@ -3282,10 +3591,12 @@
       <c r="I34" s="37"/>
       <c r="J34" s="20"/>
       <c r="K34" s="39"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="87"/>
-    </row>
-    <row r="35" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="134"/>
+      <c r="M34" s="133"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="42"/>
+    </row>
+    <row r="35" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="7"/>
       <c r="C35" s="37"/>
@@ -3297,10 +3608,12 @@
       <c r="I35" s="37"/>
       <c r="J35" s="20"/>
       <c r="K35" s="39"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="87"/>
-    </row>
-    <row r="36" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="134"/>
+      <c r="M35" s="133"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="42"/>
+    </row>
+    <row r="36" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="7"/>
       <c r="C36" s="37"/>
@@ -3312,10 +3625,12 @@
       <c r="I36" s="37"/>
       <c r="J36" s="20"/>
       <c r="K36" s="39"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="87"/>
-    </row>
-    <row r="37" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="132"/>
+      <c r="M36" s="132"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="42"/>
+    </row>
+    <row r="37" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="7"/>
       <c r="C37" s="37"/>
@@ -3327,10 +3642,12 @@
       <c r="I37" s="37"/>
       <c r="J37" s="20"/>
       <c r="K37" s="39"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="87"/>
-    </row>
-    <row r="38" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="130"/>
+      <c r="M37" s="130"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="42"/>
+    </row>
+    <row r="38" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="7"/>
       <c r="C38" s="37"/>
@@ -3342,13 +3659,18 @@
       <c r="I38" s="37"/>
       <c r="J38" s="20"/>
       <c r="K38" s="39"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="87"/>
+      <c r="L38" s="130"/>
+      <c r="M38" s="130"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="C2:I2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3360,7 +3682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:CR31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -4974,13 +5296,6 @@
     <sortCondition ref="AK11:AK13"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="CP3:CR3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="CI3:CL3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="O5:Q5"/>
@@ -4991,6 +5306,13 @@
     <mergeCell ref="AH5:AJ5"/>
     <mergeCell ref="AM5:AO5"/>
     <mergeCell ref="AS5:AU5"/>
+    <mergeCell ref="CP3:CR3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="CI3:CL3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="62">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>OBRADOR</t>
+  </si>
+  <si>
+    <t>AGOSTO.,2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERDURAS </t>
   </si>
 </sst>
 </file>
@@ -347,7 +353,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,8 +450,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -921,12 +933,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1214,6 +1237,37 @@
     <xf numFmtId="44" fontId="5" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="9" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1228,58 +1282,52 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="16" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="15" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="15" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="15" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="11" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="16" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="9" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="15" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="17" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="15" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="15" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="11" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1643,11 +1691,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -1838,22 +1886,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="125" t="s">
+      <c r="D3" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="127"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="138"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2523,11 +2571,11 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A2:O38"/>
+  <dimension ref="A2:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2545,52 +2593,57 @@
     <col min="11" max="11" width="11.42578125" style="24"/>
     <col min="12" max="12" width="17" style="24" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" style="24"/>
-    <col min="14" max="14" width="14.85546875" style="88" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="17" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.42578125" style="24"/>
+    <col min="17" max="17" width="14.85546875" style="88" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="124" t="s">
+    <row r="2" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-    </row>
-    <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="125" t="s">
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+    </row>
+    <row r="3" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D3" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="127"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="138"/>
       <c r="G3" s="29"/>
     </row>
-    <row r="4" spans="1:15" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="135" t="s">
+    <row r="4" spans="1:18" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="141" t="s">
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="140" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="144" t="s">
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="149"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="145"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R4" s="144"/>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2612,32 +2665,39 @@
       <c r="G5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="136" t="s">
+      <c r="H5" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="137" t="s">
+      <c r="I5" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="138" t="s">
+      <c r="J5" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="137" t="s">
+      <c r="K5" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="139" t="s">
+      <c r="L5" s="132" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="140" t="s">
+      <c r="M5" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="90" t="s">
+      <c r="N5" s="152" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="133" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="R5" s="25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="12" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -2673,14 +2733,17 @@
       </c>
       <c r="L6" s="35"/>
       <c r="M6" s="35"/>
-      <c r="N6" s="16">
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="16">
         <v>1392</v>
       </c>
-      <c r="O6" s="22">
+      <c r="R6" s="22">
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -2714,16 +2777,19 @@
       <c r="K7" s="38">
         <v>268</v>
       </c>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="8">
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="8">
         <v>1392</v>
       </c>
-      <c r="O7" s="41">
+      <c r="R7" s="41">
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -2757,16 +2823,19 @@
       <c r="K8" s="39">
         <v>291</v>
       </c>
-      <c r="L8" s="130"/>
-      <c r="M8" s="130"/>
-      <c r="N8" s="9">
+      <c r="L8" s="124"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="9">
         <v>1392</v>
       </c>
-      <c r="O8" s="42">
+      <c r="R8" s="42">
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -2800,16 +2869,19 @@
       <c r="K9" s="39">
         <v>312</v>
       </c>
-      <c r="L9" s="130"/>
-      <c r="M9" s="130"/>
-      <c r="N9" s="9">
+      <c r="L9" s="124"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="9">
         <v>1392</v>
       </c>
-      <c r="O9" s="42">
+      <c r="R9" s="42">
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="32.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -2843,16 +2915,19 @@
       <c r="K10" s="39">
         <v>333</v>
       </c>
-      <c r="L10" s="130"/>
-      <c r="M10" s="130"/>
-      <c r="N10" s="9">
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="124"/>
+      <c r="Q10" s="9">
         <v>1392</v>
       </c>
-      <c r="O10" s="42">
+      <c r="R10" s="42">
         <v>332</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
@@ -2886,16 +2961,19 @@
       <c r="K11" s="39">
         <v>357</v>
       </c>
-      <c r="L11" s="130"/>
-      <c r="M11" s="130"/>
-      <c r="N11" s="9">
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="124"/>
+      <c r="Q11" s="9">
         <v>1392</v>
       </c>
-      <c r="O11" s="42">
+      <c r="R11" s="42">
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
@@ -2929,16 +3007,19 @@
       <c r="K12" s="39">
         <v>375</v>
       </c>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="9">
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="124"/>
+      <c r="Q12" s="9">
         <v>1392</v>
       </c>
-      <c r="O12" s="42">
+      <c r="R12" s="42">
         <v>369</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
@@ -2972,16 +3053,19 @@
       <c r="K13" s="39">
         <v>391</v>
       </c>
-      <c r="L13" s="130"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="9">
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="124"/>
+      <c r="Q13" s="9">
         <v>1392</v>
       </c>
-      <c r="O13" s="42">
+      <c r="R13" s="42">
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
@@ -3015,16 +3099,19 @@
       <c r="K14" s="39">
         <v>416</v>
       </c>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="9">
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="124"/>
+      <c r="Q14" s="9">
         <v>1392</v>
       </c>
-      <c r="O14" s="42">
+      <c r="R14" s="42">
         <v>413</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
@@ -3058,16 +3145,19 @@
       <c r="K15" s="39">
         <v>439</v>
       </c>
-      <c r="L15" s="130"/>
-      <c r="M15" s="130"/>
-      <c r="N15" s="9">
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="124"/>
+      <c r="Q15" s="9">
         <v>1392</v>
       </c>
-      <c r="O15" s="42">
+      <c r="R15" s="42">
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
@@ -3101,16 +3191,19 @@
       <c r="K16" s="39">
         <v>453</v>
       </c>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="9">
+      <c r="L16" s="124"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="124"/>
+      <c r="P16" s="124"/>
+      <c r="Q16" s="9">
         <v>1392</v>
       </c>
-      <c r="O16" s="42">
+      <c r="R16" s="42">
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="72" t="s">
         <v>36</v>
       </c>
@@ -3144,16 +3237,19 @@
       <c r="K17" s="80">
         <v>469</v>
       </c>
-      <c r="L17" s="131"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="43">
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="43">
         <v>1392</v>
       </c>
-      <c r="O17" s="81">
+      <c r="R17" s="81">
         <v>463</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
@@ -3187,16 +3283,19 @@
       <c r="K18" s="39">
         <v>515</v>
       </c>
-      <c r="L18" s="134"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="9">
+      <c r="L18" s="153"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="9">
         <v>1392</v>
       </c>
-      <c r="O18" s="42">
+      <c r="R18" s="42">
         <v>513</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
@@ -3230,16 +3329,19 @@
       <c r="K19" s="39">
         <v>525</v>
       </c>
-      <c r="L19" s="134"/>
-      <c r="M19" s="133"/>
-      <c r="N19" s="9">
+      <c r="L19" s="153"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="154"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="9">
         <v>1392</v>
       </c>
-      <c r="O19" s="42">
+      <c r="R19" s="42">
         <v>523</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -3273,16 +3375,19 @@
       <c r="K20" s="39">
         <v>544</v>
       </c>
-      <c r="L20" s="134"/>
-      <c r="M20" s="133"/>
-      <c r="N20" s="9">
+      <c r="L20" s="153"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="153"/>
+      <c r="O20" s="154"/>
+      <c r="P20" s="151"/>
+      <c r="Q20" s="9">
         <v>0</v>
       </c>
-      <c r="O20" s="42" t="s">
+      <c r="R20" s="42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
@@ -3316,16 +3421,19 @@
       <c r="K21" s="39">
         <v>569</v>
       </c>
-      <c r="L21" s="134"/>
-      <c r="M21" s="133"/>
-      <c r="N21" s="9">
+      <c r="L21" s="153"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="153"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="151"/>
+      <c r="Q21" s="9">
         <v>0</v>
       </c>
-      <c r="O21" s="42" t="s">
+      <c r="R21" s="42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
@@ -3357,16 +3465,19 @@
       <c r="K22" s="39">
         <v>595</v>
       </c>
-      <c r="L22" s="134"/>
-      <c r="M22" s="133"/>
-      <c r="N22" s="9">
+      <c r="L22" s="153"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="151"/>
+      <c r="Q22" s="9">
         <v>0</v>
       </c>
-      <c r="O22" s="42" t="s">
+      <c r="R22" s="42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
@@ -3400,33 +3511,45 @@
       <c r="K23" s="39">
         <v>635</v>
       </c>
-      <c r="L23" s="134"/>
-      <c r="M23" s="133"/>
-      <c r="N23" s="9">
+      <c r="L23" s="153"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="153"/>
+      <c r="O23" s="154"/>
+      <c r="P23" s="151"/>
+      <c r="Q23" s="9">
         <v>0</v>
       </c>
-      <c r="O23" s="42" t="s">
+      <c r="R23" s="42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="B24" s="7"/>
       <c r="C24" s="37"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="82"/>
+      <c r="D24" s="9">
+        <v>1392</v>
+      </c>
+      <c r="E24" s="82">
+        <v>744</v>
+      </c>
       <c r="F24" s="9"/>
       <c r="G24" s="33"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="133"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="42"/>
-    </row>
-    <row r="25" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="146"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="148"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="127"/>
+      <c r="N24" s="128"/>
+      <c r="O24" s="127"/>
+      <c r="P24" s="151"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="42"/>
+    </row>
+    <row r="25" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="7"/>
       <c r="C25" s="37"/>
@@ -3438,12 +3561,15 @@
       <c r="I25" s="37"/>
       <c r="J25" s="20"/>
       <c r="K25" s="39"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="133"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="42"/>
-    </row>
-    <row r="26" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="128"/>
+      <c r="M25" s="127"/>
+      <c r="N25" s="128"/>
+      <c r="O25" s="127"/>
+      <c r="P25" s="151"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="42"/>
+    </row>
+    <row r="26" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="7"/>
       <c r="C26" s="37"/>
@@ -3455,12 +3581,15 @@
       <c r="I26" s="37"/>
       <c r="J26" s="20"/>
       <c r="K26" s="39"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="133"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="42"/>
-    </row>
-    <row r="27" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="128"/>
+      <c r="M26" s="127"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="127"/>
+      <c r="P26" s="151"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="42"/>
+    </row>
+    <row r="27" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="7"/>
       <c r="C27" s="37"/>
@@ -3472,12 +3601,15 @@
       <c r="I27" s="37"/>
       <c r="J27" s="20"/>
       <c r="K27" s="39"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="42"/>
-    </row>
-    <row r="28" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="128"/>
+      <c r="M27" s="127"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="127"/>
+      <c r="P27" s="151"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="42"/>
+    </row>
+    <row r="28" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="7"/>
       <c r="C28" s="37"/>
@@ -3489,12 +3621,15 @@
       <c r="I28" s="37"/>
       <c r="J28" s="20"/>
       <c r="K28" s="39"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="133"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="42"/>
-    </row>
-    <row r="29" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="128"/>
+      <c r="M28" s="127"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="127"/>
+      <c r="P28" s="151"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="42"/>
+    </row>
+    <row r="29" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="7"/>
       <c r="C29" s="37"/>
@@ -3506,12 +3641,15 @@
       <c r="I29" s="37"/>
       <c r="J29" s="20"/>
       <c r="K29" s="39"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="133"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="42"/>
-    </row>
-    <row r="30" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="128"/>
+      <c r="M29" s="127"/>
+      <c r="N29" s="128"/>
+      <c r="O29" s="127"/>
+      <c r="P29" s="151"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="42"/>
+    </row>
+    <row r="30" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="7"/>
       <c r="C30" s="37"/>
@@ -3523,12 +3661,15 @@
       <c r="I30" s="37"/>
       <c r="J30" s="20"/>
       <c r="K30" s="39"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="133"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="42"/>
-    </row>
-    <row r="31" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="128"/>
+      <c r="M30" s="127"/>
+      <c r="N30" s="128"/>
+      <c r="O30" s="127"/>
+      <c r="P30" s="151"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="42"/>
+    </row>
+    <row r="31" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="7"/>
       <c r="C31" s="37"/>
@@ -3540,12 +3681,15 @@
       <c r="I31" s="37"/>
       <c r="J31" s="20"/>
       <c r="K31" s="39"/>
-      <c r="L31" s="134"/>
-      <c r="M31" s="133"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="42"/>
-    </row>
-    <row r="32" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="128"/>
+      <c r="M31" s="127"/>
+      <c r="N31" s="128"/>
+      <c r="O31" s="127"/>
+      <c r="P31" s="151"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="42"/>
+    </row>
+    <row r="32" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="7"/>
       <c r="C32" s="37"/>
@@ -3557,12 +3701,15 @@
       <c r="I32" s="37"/>
       <c r="J32" s="20"/>
       <c r="K32" s="39"/>
-      <c r="L32" s="134"/>
-      <c r="M32" s="133"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="42"/>
-    </row>
-    <row r="33" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="128"/>
+      <c r="M32" s="127"/>
+      <c r="N32" s="128"/>
+      <c r="O32" s="127"/>
+      <c r="P32" s="151"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="42"/>
+    </row>
+    <row r="33" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="7"/>
       <c r="C33" s="37"/>
@@ -3574,12 +3721,15 @@
       <c r="I33" s="37"/>
       <c r="J33" s="20"/>
       <c r="K33" s="39"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="133"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="42"/>
-    </row>
-    <row r="34" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="128"/>
+      <c r="M33" s="127"/>
+      <c r="N33" s="128"/>
+      <c r="O33" s="127"/>
+      <c r="P33" s="151"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="42"/>
+    </row>
+    <row r="34" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="7"/>
       <c r="C34" s="37"/>
@@ -3591,12 +3741,15 @@
       <c r="I34" s="37"/>
       <c r="J34" s="20"/>
       <c r="K34" s="39"/>
-      <c r="L34" s="134"/>
-      <c r="M34" s="133"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="42"/>
-    </row>
-    <row r="35" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="128"/>
+      <c r="M34" s="127"/>
+      <c r="N34" s="128"/>
+      <c r="O34" s="127"/>
+      <c r="P34" s="151"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="42"/>
+    </row>
+    <row r="35" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="7"/>
       <c r="C35" s="37"/>
@@ -3608,12 +3761,15 @@
       <c r="I35" s="37"/>
       <c r="J35" s="20"/>
       <c r="K35" s="39"/>
-      <c r="L35" s="134"/>
-      <c r="M35" s="133"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="42"/>
-    </row>
-    <row r="36" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="128"/>
+      <c r="M35" s="127"/>
+      <c r="N35" s="128"/>
+      <c r="O35" s="127"/>
+      <c r="P35" s="151"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="42"/>
+    </row>
+    <row r="36" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="7"/>
       <c r="C36" s="37"/>
@@ -3625,12 +3781,15 @@
       <c r="I36" s="37"/>
       <c r="J36" s="20"/>
       <c r="K36" s="39"/>
-      <c r="L36" s="132"/>
-      <c r="M36" s="132"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="42"/>
-    </row>
-    <row r="37" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="126"/>
+      <c r="M36" s="126"/>
+      <c r="N36" s="126"/>
+      <c r="O36" s="126"/>
+      <c r="P36" s="126"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="42"/>
+    </row>
+    <row r="37" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="7"/>
       <c r="C37" s="37"/>
@@ -3642,12 +3801,15 @@
       <c r="I37" s="37"/>
       <c r="J37" s="20"/>
       <c r="K37" s="39"/>
-      <c r="L37" s="130"/>
-      <c r="M37" s="130"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="42"/>
-    </row>
-    <row r="38" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="124"/>
+      <c r="M37" s="124"/>
+      <c r="N37" s="124"/>
+      <c r="O37" s="124"/>
+      <c r="P37" s="124"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="42"/>
+    </row>
+    <row r="38" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="7"/>
       <c r="C38" s="37"/>
@@ -3659,10 +3821,13 @@
       <c r="I38" s="37"/>
       <c r="J38" s="20"/>
       <c r="K38" s="39"/>
-      <c r="L38" s="130"/>
-      <c r="M38" s="130"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="42"/>
+      <c r="L38" s="124"/>
+      <c r="M38" s="124"/>
+      <c r="N38" s="124"/>
+      <c r="O38" s="124"/>
+      <c r="P38" s="124"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3670,7 +3835,7 @@
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3745,48 +3910,48 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:96" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="BE3" s="123" t="s">
+      <c r="BE3" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="BF3" s="123"/>
-      <c r="BG3" s="123"/>
+      <c r="BF3" s="134"/>
+      <c r="BG3" s="134"/>
       <c r="BH3" s="60"/>
-      <c r="BK3" s="123" t="s">
+      <c r="BK3" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="BL3" s="123"/>
-      <c r="BM3" s="123"/>
+      <c r="BL3" s="134"/>
+      <c r="BM3" s="134"/>
       <c r="BN3" s="60"/>
-      <c r="BQ3" s="123" t="s">
+      <c r="BQ3" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="BR3" s="123"/>
-      <c r="BS3" s="123"/>
+      <c r="BR3" s="134"/>
+      <c r="BS3" s="134"/>
       <c r="BT3" s="60"/>
-      <c r="BV3" s="123" t="s">
+      <c r="BV3" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="BW3" s="123"/>
-      <c r="BX3" s="123"/>
+      <c r="BW3" s="134"/>
+      <c r="BX3" s="134"/>
       <c r="BY3" s="60"/>
-      <c r="CC3" s="123" t="s">
+      <c r="CC3" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="CD3" s="123"/>
-      <c r="CE3" s="123"/>
+      <c r="CD3" s="134"/>
+      <c r="CE3" s="134"/>
       <c r="CF3" s="60"/>
       <c r="CG3" s="59"/>
-      <c r="CI3" s="123" t="s">
+      <c r="CI3" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="CJ3" s="123"/>
-      <c r="CK3" s="123"/>
-      <c r="CL3" s="123"/>
-      <c r="CP3" s="123" t="s">
+      <c r="CJ3" s="134"/>
+      <c r="CK3" s="134"/>
+      <c r="CL3" s="134"/>
+      <c r="CP3" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="CQ3" s="123"/>
-      <c r="CR3" s="123"/>
+      <c r="CQ3" s="134"/>
+      <c r="CR3" s="134"/>
     </row>
     <row r="4" spans="2:96" x14ac:dyDescent="0.25">
       <c r="BH4" s="47"/>
@@ -3797,60 +3962,60 @@
       <c r="CR4" s="47"/>
     </row>
     <row r="5" spans="2:96" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
       <c r="E5" s="60"/>
-      <c r="I5" s="123" t="s">
+      <c r="I5" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
       <c r="L5" s="60"/>
-      <c r="O5" s="123" t="s">
+      <c r="O5" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
       <c r="R5" s="60"/>
-      <c r="U5" s="123" t="s">
+      <c r="U5" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="123"/>
-      <c r="W5" s="123"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
       <c r="X5" s="60"/>
       <c r="Y5" s="85"/>
-      <c r="AA5" s="123" t="s">
+      <c r="AA5" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="123"/>
-      <c r="AC5" s="123"/>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="134"/>
       <c r="AD5" s="60"/>
-      <c r="AH5" s="123" t="s">
+      <c r="AH5" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="AI5" s="123"/>
-      <c r="AJ5" s="123"/>
+      <c r="AI5" s="134"/>
+      <c r="AJ5" s="134"/>
       <c r="AK5" s="60"/>
-      <c r="AM5" s="123" t="s">
+      <c r="AM5" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="AN5" s="123"/>
-      <c r="AO5" s="123"/>
+      <c r="AN5" s="134"/>
+      <c r="AO5" s="134"/>
       <c r="AP5" s="60"/>
-      <c r="AS5" s="123" t="s">
+      <c r="AS5" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="AT5" s="123"/>
-      <c r="AU5" s="123"/>
+      <c r="AT5" s="134"/>
+      <c r="AU5" s="134"/>
       <c r="AV5" s="60"/>
-      <c r="AY5" s="123" t="s">
+      <c r="AY5" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="AZ5" s="123"/>
-      <c r="BA5" s="123"/>
+      <c r="AZ5" s="134"/>
+      <c r="BA5" s="134"/>
       <c r="BB5" s="60"/>
       <c r="BE5" s="61" t="s">
         <v>23</v>
@@ -3902,10 +4067,10 @@
       <c r="CF5" s="51">
         <v>44747</v>
       </c>
-      <c r="CI5" s="128" t="s">
+      <c r="CI5" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="CJ5" s="128"/>
+      <c r="CJ5" s="145"/>
       <c r="CK5" s="45" t="s">
         <v>15</v>
       </c>
@@ -5296,6 +5461,13 @@
     <sortCondition ref="AK11:AK13"/>
   </sortState>
   <mergeCells count="17">
+    <mergeCell ref="CP3:CR3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="CI3:CL3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="O5:Q5"/>
@@ -5306,13 +5478,6 @@
     <mergeCell ref="AH5:AJ5"/>
     <mergeCell ref="AM5:AO5"/>
     <mergeCell ref="AS5:AU5"/>
-    <mergeCell ref="CP3:CR3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="CI3:CL3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMA    ECOPLAG   2023    " sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="63">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t xml:space="preserve">VERDURAS </t>
+  </si>
+  <si>
+    <t>RUBEN AMADO VEGA MURAD</t>
   </si>
 </sst>
 </file>
@@ -227,7 +230,7 @@
     <numFmt numFmtId="164" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +355,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -457,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -944,12 +955,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1268,6 +1350,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="17" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1304,29 +1411,87 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="17" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="14" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="15" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="13" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1338,14 +1503,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
+      <color rgb="FFCC9900"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF99"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FF66FFFF"/>
       <color rgb="FFFF66FF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF66CCFF"/>
-      <color rgb="FFCC9900"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF0066FF"/>
     </mruColors>
@@ -1679,7 +1844,7 @@
   <dimension ref="B5:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1691,11 +1856,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -1886,22 +2051,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="135" t="s">
+      <c r="C2" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="136" t="s">
+      <c r="D3" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="137"/>
-      <c r="F3" s="138"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="147"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2573,9 +2738,9 @@
   </sheetPr>
   <dimension ref="A2:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2600,48 +2765,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="135" t="s">
+      <c r="C2" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
     </row>
     <row r="3" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="136" t="s">
+      <c r="D3" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="137"/>
-      <c r="F3" s="138"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="147"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:18" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="140" t="s">
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="149" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="149"/>
-      <c r="O4" s="149"/>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="143" t="s">
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="144"/>
+      <c r="R4" s="153"/>
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -2683,13 +2848,13 @@
       <c r="M5" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="152" t="s">
+      <c r="N5" s="140" t="s">
         <v>61</v>
       </c>
       <c r="O5" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="150"/>
+      <c r="P5" s="138"/>
       <c r="Q5" s="90" t="s">
         <v>59</v>
       </c>
@@ -3283,11 +3448,11 @@
       <c r="K18" s="39">
         <v>515</v>
       </c>
-      <c r="L18" s="153"/>
-      <c r="M18" s="154"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="154"/>
-      <c r="P18" s="151"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="141"/>
+      <c r="O18" s="142"/>
+      <c r="P18" s="139"/>
       <c r="Q18" s="9">
         <v>1392</v>
       </c>
@@ -3329,11 +3494,11 @@
       <c r="K19" s="39">
         <v>525</v>
       </c>
-      <c r="L19" s="153"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="151"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="141"/>
+      <c r="O19" s="142"/>
+      <c r="P19" s="139"/>
       <c r="Q19" s="9">
         <v>1392</v>
       </c>
@@ -3375,11 +3540,11 @@
       <c r="K20" s="39">
         <v>544</v>
       </c>
-      <c r="L20" s="153"/>
-      <c r="M20" s="154"/>
-      <c r="N20" s="153"/>
-      <c r="O20" s="154"/>
-      <c r="P20" s="151"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="141"/>
+      <c r="O20" s="142"/>
+      <c r="P20" s="139"/>
       <c r="Q20" s="9">
         <v>0</v>
       </c>
@@ -3421,11 +3586,11 @@
       <c r="K21" s="39">
         <v>569</v>
       </c>
-      <c r="L21" s="153"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="154"/>
-      <c r="P21" s="151"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="141"/>
+      <c r="O21" s="142"/>
+      <c r="P21" s="139"/>
       <c r="Q21" s="9">
         <v>0</v>
       </c>
@@ -3465,11 +3630,11 @@
       <c r="K22" s="39">
         <v>595</v>
       </c>
-      <c r="L22" s="153"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="154"/>
-      <c r="P22" s="151"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="142"/>
+      <c r="N22" s="141"/>
+      <c r="O22" s="142"/>
+      <c r="P22" s="139"/>
       <c r="Q22" s="9">
         <v>0</v>
       </c>
@@ -3511,11 +3676,11 @@
       <c r="K23" s="39">
         <v>635</v>
       </c>
-      <c r="L23" s="153"/>
-      <c r="M23" s="154"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="154"/>
-      <c r="P23" s="151"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="142"/>
+      <c r="N23" s="141"/>
+      <c r="O23" s="142"/>
+      <c r="P23" s="139"/>
       <c r="Q23" s="9">
         <v>0</v>
       </c>
@@ -3524,28 +3689,32 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="9">
+      <c r="B24" s="73">
+        <v>986</v>
+      </c>
+      <c r="C24" s="78">
+        <v>745</v>
+      </c>
+      <c r="D24" s="43">
         <v>1392</v>
       </c>
-      <c r="E24" s="82">
+      <c r="E24" s="155">
         <v>744</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="146"/>
-      <c r="K24" s="148"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="134"/>
+      <c r="K24" s="136"/>
       <c r="L24" s="128"/>
       <c r="M24" s="127"/>
       <c r="N24" s="128"/>
       <c r="O24" s="127"/>
-      <c r="P24" s="151"/>
+      <c r="P24" s="139"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="42"/>
     </row>
@@ -3565,7 +3734,7 @@
       <c r="M25" s="127"/>
       <c r="N25" s="128"/>
       <c r="O25" s="127"/>
-      <c r="P25" s="151"/>
+      <c r="P25" s="139"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="42"/>
     </row>
@@ -3585,7 +3754,7 @@
       <c r="M26" s="127"/>
       <c r="N26" s="128"/>
       <c r="O26" s="127"/>
-      <c r="P26" s="151"/>
+      <c r="P26" s="139"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="42"/>
     </row>
@@ -3605,7 +3774,7 @@
       <c r="M27" s="127"/>
       <c r="N27" s="128"/>
       <c r="O27" s="127"/>
-      <c r="P27" s="151"/>
+      <c r="P27" s="139"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="42"/>
     </row>
@@ -3625,7 +3794,7 @@
       <c r="M28" s="127"/>
       <c r="N28" s="128"/>
       <c r="O28" s="127"/>
-      <c r="P28" s="151"/>
+      <c r="P28" s="139"/>
       <c r="Q28" s="9"/>
       <c r="R28" s="42"/>
     </row>
@@ -3645,7 +3814,7 @@
       <c r="M29" s="127"/>
       <c r="N29" s="128"/>
       <c r="O29" s="127"/>
-      <c r="P29" s="151"/>
+      <c r="P29" s="139"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="42"/>
     </row>
@@ -3665,7 +3834,7 @@
       <c r="M30" s="127"/>
       <c r="N30" s="128"/>
       <c r="O30" s="127"/>
-      <c r="P30" s="151"/>
+      <c r="P30" s="139"/>
       <c r="Q30" s="9"/>
       <c r="R30" s="42"/>
     </row>
@@ -3685,7 +3854,7 @@
       <c r="M31" s="127"/>
       <c r="N31" s="128"/>
       <c r="O31" s="127"/>
-      <c r="P31" s="151"/>
+      <c r="P31" s="139"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="42"/>
     </row>
@@ -3705,7 +3874,7 @@
       <c r="M32" s="127"/>
       <c r="N32" s="128"/>
       <c r="O32" s="127"/>
-      <c r="P32" s="151"/>
+      <c r="P32" s="139"/>
       <c r="Q32" s="9"/>
       <c r="R32" s="42"/>
     </row>
@@ -3725,7 +3894,7 @@
       <c r="M33" s="127"/>
       <c r="N33" s="128"/>
       <c r="O33" s="127"/>
-      <c r="P33" s="151"/>
+      <c r="P33" s="139"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="42"/>
     </row>
@@ -3745,7 +3914,7 @@
       <c r="M34" s="127"/>
       <c r="N34" s="128"/>
       <c r="O34" s="127"/>
-      <c r="P34" s="151"/>
+      <c r="P34" s="139"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="42"/>
     </row>
@@ -3765,7 +3934,7 @@
       <c r="M35" s="127"/>
       <c r="N35" s="128"/>
       <c r="O35" s="127"/>
-      <c r="P35" s="151"/>
+      <c r="P35" s="139"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="42"/>
     </row>
@@ -3845,10 +4014,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:CR31"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B3:CX31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3857,29 +4030,30 @@
     <col min="3" max="3" width="21.28515625" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="36" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="36" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.7109375" customWidth="1"/>
+    <col min="22" max="22" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15" style="54" customWidth="1"/>
     <col min="27" max="27" width="36" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="21.7109375" customWidth="1"/>
     <col min="29" max="29" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="36" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="26.85546875" customWidth="1"/>
-    <col min="37" max="37" width="15" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="36" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15" style="54" customWidth="1"/>
+    <col min="33" max="33" width="36" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.7109375" customWidth="1"/>
+    <col min="35" max="35" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="36" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="26.85546875" customWidth="1"/>
+    <col min="43" max="43" width="15" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="36" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -3888,145 +4062,148 @@
     <col min="54" max="54" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="36" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="36" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="36" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.42578125" customWidth="1"/>
-    <col min="74" max="74" width="36" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="18.42578125" customWidth="1"/>
-    <col min="81" max="81" width="36" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="17.140625" customWidth="1"/>
-    <col min="84" max="84" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="87" max="88" width="19.5703125" customWidth="1"/>
-    <col min="89" max="89" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="18.42578125" style="47" customWidth="1"/>
-    <col min="94" max="94" width="36" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="19.5703125" style="19" customWidth="1"/>
-    <col min="96" max="96" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="36" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="18.42578125" customWidth="1"/>
+    <col min="80" max="80" width="36" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="18.42578125" customWidth="1"/>
+    <col min="87" max="87" width="36" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="17.140625" customWidth="1"/>
+    <col min="90" max="90" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="93" max="94" width="19.5703125" customWidth="1"/>
+    <col min="95" max="95" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="18.42578125" style="47" customWidth="1"/>
+    <col min="100" max="100" width="36" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="19.5703125" style="19" customWidth="1"/>
+    <col min="102" max="102" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:96" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="BE3" s="134" t="s">
+    <row r="3" spans="2:102" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="BK3" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="BF3" s="134"/>
-      <c r="BG3" s="134"/>
-      <c r="BH3" s="60"/>
-      <c r="BK3" s="134" t="s">
+      <c r="BL3" s="143"/>
+      <c r="BM3" s="143"/>
+      <c r="BN3" s="60"/>
+      <c r="BQ3" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="BL3" s="134"/>
-      <c r="BM3" s="134"/>
-      <c r="BN3" s="60"/>
-      <c r="BQ3" s="134" t="s">
+      <c r="BR3" s="143"/>
+      <c r="BS3" s="143"/>
+      <c r="BT3" s="60"/>
+      <c r="BW3" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="BR3" s="134"/>
-      <c r="BS3" s="134"/>
-      <c r="BT3" s="60"/>
-      <c r="BV3" s="134" t="s">
+      <c r="BX3" s="143"/>
+      <c r="BY3" s="143"/>
+      <c r="BZ3" s="60"/>
+      <c r="CB3" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="BW3" s="134"/>
-      <c r="BX3" s="134"/>
-      <c r="BY3" s="60"/>
-      <c r="CC3" s="134" t="s">
+      <c r="CC3" s="143"/>
+      <c r="CD3" s="143"/>
+      <c r="CE3" s="60"/>
+      <c r="CI3" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="CD3" s="134"/>
-      <c r="CE3" s="134"/>
-      <c r="CF3" s="60"/>
-      <c r="CG3" s="59"/>
-      <c r="CI3" s="134" t="s">
+      <c r="CJ3" s="143"/>
+      <c r="CK3" s="143"/>
+      <c r="CL3" s="60"/>
+      <c r="CM3" s="59"/>
+      <c r="CO3" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="CJ3" s="134"/>
-      <c r="CK3" s="134"/>
-      <c r="CL3" s="134"/>
-      <c r="CP3" s="134" t="s">
+      <c r="CP3" s="143"/>
+      <c r="CQ3" s="143"/>
+      <c r="CR3" s="143"/>
+      <c r="CV3" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="CQ3" s="134"/>
-      <c r="CR3" s="134"/>
-    </row>
-    <row r="4" spans="2:96" x14ac:dyDescent="0.25">
-      <c r="BH4" s="47"/>
+      <c r="CW3" s="143"/>
+      <c r="CX3" s="143"/>
+    </row>
+    <row r="4" spans="2:102" x14ac:dyDescent="0.25">
+      <c r="B4" s="158"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="161"/>
       <c r="BN4" s="47"/>
       <c r="BT4" s="47"/>
-      <c r="BY4" s="47"/>
-      <c r="CF4" s="47"/>
-      <c r="CR4" s="47"/>
-    </row>
-    <row r="5" spans="2:96" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="134" t="s">
+      <c r="BZ4" s="47"/>
+      <c r="CE4" s="47"/>
+      <c r="CL4" s="47"/>
+      <c r="CX4" s="47"/>
+    </row>
+    <row r="5" spans="2:102" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B5" s="162" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="60"/>
-      <c r="I5" s="134" t="s">
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="164"/>
+      <c r="H5" s="143" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="60"/>
+      <c r="O5" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="60"/>
-      <c r="O5" s="134" t="s">
+      <c r="P5" s="143"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="60"/>
+      <c r="U5" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="134"/>
-      <c r="R5" s="60"/>
-      <c r="U5" s="134" t="s">
+      <c r="V5" s="143"/>
+      <c r="W5" s="143"/>
+      <c r="X5" s="60"/>
+      <c r="AA5" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="134"/>
-      <c r="W5" s="134"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="85"/>
-      <c r="AA5" s="134" t="s">
+      <c r="AB5" s="143"/>
+      <c r="AC5" s="143"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="85"/>
+      <c r="AG5" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="134"/>
-      <c r="AC5" s="134"/>
-      <c r="AD5" s="60"/>
-      <c r="AH5" s="134" t="s">
+      <c r="AH5" s="143"/>
+      <c r="AI5" s="143"/>
+      <c r="AJ5" s="60"/>
+      <c r="AN5" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="AI5" s="134"/>
-      <c r="AJ5" s="134"/>
-      <c r="AK5" s="60"/>
-      <c r="AM5" s="134" t="s">
+      <c r="AO5" s="143"/>
+      <c r="AP5" s="143"/>
+      <c r="AQ5" s="60"/>
+      <c r="AS5" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="AN5" s="134"/>
-      <c r="AO5" s="134"/>
-      <c r="AP5" s="60"/>
-      <c r="AS5" s="134" t="s">
+      <c r="AT5" s="143"/>
+      <c r="AU5" s="143"/>
+      <c r="AV5" s="60"/>
+      <c r="AY5" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="AT5" s="134"/>
-      <c r="AU5" s="134"/>
-      <c r="AV5" s="60"/>
-      <c r="AY5" s="134" t="s">
+      <c r="AZ5" s="143"/>
+      <c r="BA5" s="143"/>
+      <c r="BB5" s="60"/>
+      <c r="BE5" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="AZ5" s="134"/>
-      <c r="BA5" s="134"/>
-      <c r="BB5" s="60"/>
-      <c r="BE5" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="BF5" s="61"/>
-      <c r="BG5" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="BH5" s="68">
-        <v>44861</v>
-      </c>
+      <c r="BF5" s="143"/>
+      <c r="BG5" s="143"/>
+      <c r="BH5" s="60"/>
       <c r="BK5" s="61" t="s">
         <v>23</v>
       </c>
@@ -4035,101 +4212,111 @@
         <v>15</v>
       </c>
       <c r="BN5" s="68">
+        <v>44861</v>
+      </c>
+      <c r="BQ5" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="BR5" s="61"/>
+      <c r="BS5" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="BT5" s="68">
         <v>44833</v>
       </c>
-      <c r="BQ5" s="44" t="s">
+      <c r="BW5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BR5" s="44"/>
-      <c r="BS5" s="44" t="s">
+      <c r="BX5" s="44"/>
+      <c r="BY5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BT5" s="50">
+      <c r="BZ5" s="50">
         <v>44804</v>
       </c>
-      <c r="BV5" s="44" t="s">
+      <c r="CB5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BW5" s="44"/>
-      <c r="BX5" s="44" t="s">
+      <c r="CC5" s="44"/>
+      <c r="CD5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BY5" s="64">
+      <c r="CE5" s="64">
         <v>44776</v>
       </c>
-      <c r="CC5" s="61" t="s">
+      <c r="CI5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="CD5" s="61"/>
-      <c r="CE5" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="CF5" s="51">
-        <v>44747</v>
-      </c>
-      <c r="CI5" s="145" t="s">
-        <v>23</v>
-      </c>
-      <c r="CJ5" s="145"/>
+      <c r="CJ5" s="61"/>
       <c r="CK5" s="45" t="s">
         <v>15</v>
       </c>
       <c r="CL5" s="51">
+        <v>44747</v>
+      </c>
+      <c r="CO5" s="154" t="s">
+        <v>23</v>
+      </c>
+      <c r="CP5" s="154"/>
+      <c r="CQ5" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="CR5" s="51">
         <v>44686</v>
       </c>
-      <c r="CP5" s="48" t="s">
+      <c r="CV5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="CQ5" s="55" t="s">
+      <c r="CW5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="CR5" s="51">
+      <c r="CX5" s="51">
         <v>44714</v>
       </c>
     </row>
-    <row r="6" spans="2:96" ht="21" x14ac:dyDescent="0.35">
-      <c r="E6" s="47"/>
-      <c r="L6" s="47"/>
+    <row r="6" spans="2:102" ht="21" x14ac:dyDescent="0.35">
+      <c r="B6" s="165" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="167"/>
+      <c r="K6" s="47"/>
       <c r="R6" s="47"/>
       <c r="X6" s="47"/>
-      <c r="Y6" s="86"/>
       <c r="AD6" s="47"/>
-      <c r="AK6" s="47"/>
-      <c r="AP6" s="47"/>
+      <c r="AE6" s="86"/>
+      <c r="AJ6" s="47"/>
+      <c r="AQ6" s="47"/>
       <c r="AV6" s="47"/>
       <c r="BB6" s="47"/>
-      <c r="BE6" s="44"/>
-      <c r="BF6" s="44"/>
-      <c r="BG6" s="44"/>
-      <c r="BH6" s="53"/>
+      <c r="BH6" s="47"/>
       <c r="BK6" s="44"/>
       <c r="BL6" s="44"/>
       <c r="BM6" s="44"/>
       <c r="BN6" s="53"/>
-      <c r="CC6" s="62"/>
-      <c r="CD6" s="62"/>
-      <c r="CE6" s="63"/>
-      <c r="CF6" s="53"/>
-      <c r="CI6" s="44"/>
-      <c r="CJ6" s="44"/>
-      <c r="CK6" s="44"/>
-      <c r="CL6" s="46"/>
-      <c r="CP6" s="52"/>
-      <c r="CQ6" s="56"/>
-      <c r="CR6" s="53"/>
-    </row>
-    <row r="7" spans="2:96" ht="21" x14ac:dyDescent="0.35">
-      <c r="E7" s="47"/>
-      <c r="I7" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="51">
-        <v>45111</v>
-      </c>
+      <c r="BQ6" s="44"/>
+      <c r="BR6" s="44"/>
+      <c r="BS6" s="44"/>
+      <c r="BT6" s="53"/>
+      <c r="CI6" s="62"/>
+      <c r="CJ6" s="62"/>
+      <c r="CK6" s="63"/>
+      <c r="CL6" s="53"/>
+      <c r="CO6" s="44"/>
+      <c r="CP6" s="44"/>
+      <c r="CQ6" s="44"/>
+      <c r="CR6" s="46"/>
+      <c r="CV6" s="52"/>
+      <c r="CW6" s="56"/>
+      <c r="CX6" s="53"/>
+    </row>
+    <row r="7" spans="2:102" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="168"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="167"/>
+      <c r="K7" s="47"/>
       <c r="O7" s="44" t="s">
         <v>25</v>
       </c>
@@ -4138,19 +4325,18 @@
         <v>18</v>
       </c>
       <c r="R7" s="51">
-        <v>45083</v>
+        <v>45111</v>
       </c>
       <c r="U7" s="44" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="V7" s="44"/>
       <c r="W7" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="X7" s="50">
-        <v>45049</v>
-      </c>
-      <c r="Y7" s="53"/>
+        <v>18</v>
+      </c>
+      <c r="X7" s="51">
+        <v>45083</v>
+      </c>
       <c r="AA7" s="44" t="s">
         <v>16</v>
       </c>
@@ -4159,27 +4345,28 @@
         <v>17</v>
       </c>
       <c r="AD7" s="50">
+        <v>45049</v>
+      </c>
+      <c r="AE7" s="53"/>
+      <c r="AG7" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ7" s="50">
         <v>45021</v>
       </c>
-      <c r="AH7" s="44" t="s">
+      <c r="AN7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AI7" s="44"/>
-      <c r="AJ7" s="44" t="s">
+      <c r="AO7" s="44"/>
+      <c r="AP7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AK7" s="50">
+      <c r="AQ7" s="50">
         <v>44986</v>
-      </c>
-      <c r="AM7" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN7" s="44"/>
-      <c r="AO7" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP7" s="50">
-        <v>44958</v>
       </c>
       <c r="AS7" s="44" t="s">
         <v>16</v>
@@ -4189,27 +4376,27 @@
         <v>17</v>
       </c>
       <c r="AV7" s="50">
+        <v>44958</v>
+      </c>
+      <c r="AY7" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ7" s="44"/>
+      <c r="BA7" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="BB7" s="50">
         <v>44930</v>
       </c>
-      <c r="AY7" s="61" t="s">
+      <c r="BE7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AZ7" s="61"/>
-      <c r="BA7" s="45" t="s">
+      <c r="BF7" s="61"/>
+      <c r="BG7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BB7" s="68">
+      <c r="BH7" s="68">
         <v>44896</v>
-      </c>
-      <c r="BE7" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="BF7" s="44"/>
-      <c r="BG7" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="BH7" s="50">
-        <v>44874</v>
       </c>
       <c r="BK7" s="44" t="s">
         <v>16</v>
@@ -4219,37 +4406,37 @@
         <v>17</v>
       </c>
       <c r="BN7" s="50">
+        <v>44874</v>
+      </c>
+      <c r="BQ7" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR7" s="44"/>
+      <c r="BS7" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT7" s="50">
         <v>44839</v>
       </c>
-      <c r="BQ7" s="61" t="s">
+      <c r="BW7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BR7" s="61"/>
-      <c r="BS7" s="45" t="s">
+      <c r="BX7" s="61"/>
+      <c r="BY7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BT7" s="68">
+      <c r="BZ7" s="68">
         <v>44805</v>
       </c>
-      <c r="BV7" s="61" t="s">
+      <c r="CB7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BW7" s="61"/>
-      <c r="BX7" s="45" t="s">
+      <c r="CC7" s="61"/>
+      <c r="CD7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BY7" s="51">
+      <c r="CE7" s="51">
         <v>44777</v>
-      </c>
-      <c r="CC7" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="CD7" s="44"/>
-      <c r="CE7" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="CF7" s="64">
-        <v>44748</v>
       </c>
       <c r="CI7" s="44" t="s">
         <v>16</v>
@@ -4258,33 +4445,52 @@
       <c r="CK7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="CL7" s="49">
+      <c r="CL7" s="64">
+        <v>44748</v>
+      </c>
+      <c r="CO7" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="CP7" s="44"/>
+      <c r="CQ7" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="CR7" s="49">
         <v>44691</v>
       </c>
-      <c r="CM7" s="54"/>
-      <c r="CP7" s="44" t="s">
+      <c r="CS7" s="54"/>
+      <c r="CV7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="CQ7" s="57" t="s">
+      <c r="CW7" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="CR7" s="49">
+      <c r="CX7" s="49">
         <v>44719</v>
       </c>
     </row>
-    <row r="8" spans="2:96" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="44" t="s">
+    <row r="8" spans="2:102" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="171" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="172">
+        <v>11</v>
+      </c>
+      <c r="D8" s="173" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="174">
+        <v>45169</v>
+      </c>
+      <c r="F8" s="54"/>
+      <c r="H8" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="45">
+      <c r="I8" s="57"/>
+      <c r="J8" s="45">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="53"/>
+      <c r="K8" s="64"/>
       <c r="O8" s="62"/>
       <c r="P8" s="62"/>
       <c r="Q8" s="63"/>
@@ -4293,51 +4499,49 @@
       <c r="V8" s="62"/>
       <c r="W8" s="63"/>
       <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
       <c r="AA8" s="62"/>
       <c r="AB8" s="62"/>
       <c r="AC8" s="63"/>
       <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AG8" s="62"/>
       <c r="AH8" s="62"/>
-      <c r="AI8" s="62"/>
-      <c r="AJ8" s="63"/>
-      <c r="AK8" s="53"/>
-      <c r="AM8" s="62"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="53"/>
       <c r="AN8" s="62"/>
-      <c r="AO8" s="63"/>
-      <c r="AP8" s="53"/>
+      <c r="AO8" s="62"/>
+      <c r="AP8" s="63"/>
+      <c r="AQ8" s="53"/>
       <c r="AS8" s="62"/>
       <c r="AT8" s="62"/>
       <c r="AU8" s="63"/>
       <c r="AV8" s="53"/>
-      <c r="AY8" s="44"/>
-      <c r="AZ8" s="44"/>
-      <c r="BA8" s="44"/>
+      <c r="AY8" s="62"/>
+      <c r="AZ8" s="62"/>
+      <c r="BA8" s="63"/>
       <c r="BB8" s="53"/>
-      <c r="CC8" s="52"/>
-      <c r="CD8" s="52"/>
-      <c r="CE8" s="52"/>
-      <c r="CF8" s="53"/>
-      <c r="CI8" s="44"/>
-      <c r="CJ8" s="44"/>
-      <c r="CK8" s="44"/>
-      <c r="CL8" s="46"/>
-      <c r="CP8" s="52"/>
-      <c r="CQ8" s="56"/>
-      <c r="CR8" s="53"/>
-    </row>
-    <row r="9" spans="2:96" ht="21" x14ac:dyDescent="0.35">
-      <c r="E9" s="47"/>
-      <c r="I9" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="50">
-        <v>45112</v>
-      </c>
+      <c r="BE8" s="44"/>
+      <c r="BF8" s="44"/>
+      <c r="BG8" s="44"/>
+      <c r="BH8" s="53"/>
+      <c r="CI8" s="52"/>
+      <c r="CJ8" s="52"/>
+      <c r="CK8" s="52"/>
+      <c r="CL8" s="53"/>
+      <c r="CO8" s="44"/>
+      <c r="CP8" s="44"/>
+      <c r="CQ8" s="44"/>
+      <c r="CR8" s="46"/>
+      <c r="CV8" s="52"/>
+      <c r="CW8" s="56"/>
+      <c r="CX8" s="53"/>
+    </row>
+    <row r="9" spans="2:102" ht="21" x14ac:dyDescent="0.35">
+      <c r="B9" s="175"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="176"/>
+      <c r="K9" s="47"/>
       <c r="O9" s="44" t="s">
         <v>16</v>
       </c>
@@ -4346,19 +4550,18 @@
         <v>17</v>
       </c>
       <c r="R9" s="50">
-        <v>45084</v>
+        <v>45112</v>
       </c>
       <c r="U9" s="44" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="V9" s="44"/>
       <c r="W9" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="X9" s="51">
-        <v>45055</v>
-      </c>
-      <c r="Y9" s="53"/>
+        <v>17</v>
+      </c>
+      <c r="X9" s="50">
+        <v>45084</v>
+      </c>
       <c r="AA9" s="44" t="s">
         <v>25</v>
       </c>
@@ -4367,27 +4570,28 @@
         <v>18</v>
       </c>
       <c r="AD9" s="51">
+        <v>45055</v>
+      </c>
+      <c r="AE9" s="53"/>
+      <c r="AG9" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH9" s="44"/>
+      <c r="AI9" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ9" s="51">
         <v>45027</v>
       </c>
-      <c r="AH9" s="61" t="s">
+      <c r="AN9" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="45" t="s">
+      <c r="AO9" s="61"/>
+      <c r="AP9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AK9" s="68">
+      <c r="AQ9" s="68">
         <v>44987</v>
-      </c>
-      <c r="AM9" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN9" s="61"/>
-      <c r="AO9" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP9" s="68">
-        <v>44959</v>
       </c>
       <c r="AS9" s="61" t="s">
         <v>23</v>
@@ -4397,27 +4601,27 @@
         <v>15</v>
       </c>
       <c r="AV9" s="68">
+        <v>44959</v>
+      </c>
+      <c r="AY9" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ9" s="61"/>
+      <c r="BA9" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB9" s="68">
         <v>44931</v>
       </c>
-      <c r="AY9" s="44" t="s">
+      <c r="BE9" s="44" t="s">
         <v>16</v>
-      </c>
-      <c r="AZ9" s="44"/>
-      <c r="BA9" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="BB9" s="50">
-        <v>44902</v>
-      </c>
-      <c r="BE9" s="44" t="s">
-        <v>24</v>
       </c>
       <c r="BF9" s="44"/>
       <c r="BG9" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="BH9" s="69">
-        <v>44875</v>
+        <v>17</v>
+      </c>
+      <c r="BH9" s="50">
+        <v>44902</v>
       </c>
       <c r="BK9" s="44" t="s">
         <v>24</v>
@@ -4427,37 +4631,37 @@
         <v>32</v>
       </c>
       <c r="BN9" s="69">
-        <v>44840</v>
+        <v>44875</v>
       </c>
       <c r="BQ9" s="44" t="s">
         <v>24</v>
       </c>
       <c r="BR9" s="44"/>
       <c r="BS9" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="BT9" s="69">
+        <v>44840</v>
+      </c>
+      <c r="BW9" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="BX9" s="44"/>
+      <c r="BY9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="BT9" s="69">
+      <c r="BZ9" s="69">
         <v>44807</v>
       </c>
-      <c r="BV9" s="44" t="s">
+      <c r="CB9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="BW9" s="44"/>
-      <c r="BX9" s="44" t="s">
+      <c r="CC9" s="44"/>
+      <c r="CD9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="BY9" s="50">
+      <c r="CE9" s="50">
         <v>44779</v>
-      </c>
-      <c r="CC9" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="CD9" s="44"/>
-      <c r="CE9" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="CF9" s="49">
-        <v>44749</v>
       </c>
       <c r="CI9" s="44" t="s">
         <v>25</v>
@@ -4466,87 +4670,101 @@
       <c r="CK9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="CL9" s="51">
+      <c r="CL9" s="49">
+        <v>44749</v>
+      </c>
+      <c r="CO9" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="CP9" s="44"/>
+      <c r="CQ9" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="CR9" s="51">
         <v>44693</v>
       </c>
-      <c r="CP9" s="44" t="s">
+      <c r="CV9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="CQ9" s="57" t="s">
+      <c r="CW9" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="CR9" s="51">
+      <c r="CX9" s="51">
         <v>44721</v>
       </c>
     </row>
-    <row r="10" spans="2:96" ht="21" x14ac:dyDescent="0.35">
-      <c r="B10" s="44" t="s">
+    <row r="10" spans="2:102" ht="21" x14ac:dyDescent="0.35">
+      <c r="B10" s="171" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="156"/>
+      <c r="D10" s="177" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="178">
+        <v>45171</v>
+      </c>
+      <c r="H10" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="57">
+      <c r="I10" s="57">
         <v>11</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="J10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="53"/>
+      <c r="K10" s="50"/>
       <c r="O10" s="44"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="53"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
       <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
       <c r="AA10" s="52"/>
       <c r="AB10" s="52"/>
       <c r="AC10" s="52"/>
       <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AG10" s="52"/>
       <c r="AH10" s="52"/>
       <c r="AI10" s="52"/>
-      <c r="AJ10" s="52"/>
-      <c r="AK10" s="53"/>
-      <c r="AM10" s="52"/>
+      <c r="AJ10" s="53"/>
       <c r="AN10" s="52"/>
       <c r="AO10" s="52"/>
-      <c r="AP10" s="53"/>
+      <c r="AP10" s="52"/>
+      <c r="AQ10" s="53"/>
       <c r="AS10" s="52"/>
       <c r="AT10" s="52"/>
       <c r="AU10" s="52"/>
       <c r="AV10" s="53"/>
-      <c r="AW10" s="54"/>
-      <c r="CC10" s="52"/>
-      <c r="CD10" s="52"/>
-      <c r="CE10" s="52"/>
-      <c r="CF10" s="53"/>
-      <c r="CI10" s="44"/>
-      <c r="CJ10" s="44"/>
-      <c r="CK10" s="44"/>
-      <c r="CL10" s="46"/>
-      <c r="CP10" s="52"/>
-      <c r="CQ10" s="56"/>
-      <c r="CR10" s="53"/>
-    </row>
-    <row r="11" spans="2:96" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="62"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="53"/>
-      <c r="I11" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="71">
-        <v>45114</v>
-      </c>
+      <c r="AY10" s="52"/>
+      <c r="AZ10" s="52"/>
+      <c r="BA10" s="52"/>
+      <c r="BB10" s="53"/>
+      <c r="BC10" s="54"/>
+      <c r="CI10" s="52"/>
+      <c r="CJ10" s="52"/>
+      <c r="CK10" s="52"/>
+      <c r="CL10" s="53"/>
+      <c r="CO10" s="44"/>
+      <c r="CP10" s="44"/>
+      <c r="CQ10" s="44"/>
+      <c r="CR10" s="46"/>
+      <c r="CV10" s="52"/>
+      <c r="CW10" s="56"/>
+      <c r="CX10" s="53"/>
+    </row>
+    <row r="11" spans="2:102" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B11" s="175"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="176"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="53"/>
       <c r="O11" s="44" t="s">
         <v>21</v>
       </c>
@@ -4555,19 +4773,18 @@
         <v>22</v>
       </c>
       <c r="R11" s="71">
+        <v>45114</v>
+      </c>
+      <c r="U11" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="X11" s="71">
         <v>45086</v>
       </c>
-      <c r="U11" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="V11" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="W11" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="53"/>
       <c r="AA11" s="83" t="s">
         <v>24</v>
       </c>
@@ -4578,27 +4795,28 @@
         <v>32</v>
       </c>
       <c r="AD11" s="49"/>
-      <c r="AH11" s="83" t="s">
+      <c r="AE11" s="53"/>
+      <c r="AG11" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="AI11" s="84" t="s">
+      <c r="AH11" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="AJ11" s="83" t="s">
+      <c r="AI11" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="AK11" s="49">
+      <c r="AJ11" s="49"/>
+      <c r="AN11" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO11" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP11" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ11" s="49">
         <v>44993</v>
-      </c>
-      <c r="AM11" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN11" s="44"/>
-      <c r="AO11" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP11" s="51">
-        <v>44967</v>
       </c>
       <c r="AS11" s="44" t="s">
         <v>25</v>
@@ -4608,27 +4826,27 @@
         <v>18</v>
       </c>
       <c r="AV11" s="51">
-        <v>44932</v>
+        <v>44967</v>
       </c>
       <c r="AY11" s="44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ11" s="44"/>
       <c r="BA11" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB11" s="69">
-        <v>44903</v>
+        <v>18</v>
+      </c>
+      <c r="BB11" s="51">
+        <v>44932</v>
       </c>
       <c r="BE11" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BF11" s="44"/>
       <c r="BG11" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="BH11" s="51">
-        <v>44876</v>
+        <v>32</v>
+      </c>
+      <c r="BH11" s="69">
+        <v>44903</v>
       </c>
       <c r="BK11" s="44" t="s">
         <v>25</v>
@@ -4638,7 +4856,7 @@
         <v>18</v>
       </c>
       <c r="BN11" s="51">
-        <v>44841</v>
+        <v>44876</v>
       </c>
       <c r="BQ11" s="44" t="s">
         <v>25</v>
@@ -4648,61 +4866,79 @@
         <v>18</v>
       </c>
       <c r="BT11" s="51">
+        <v>44841</v>
+      </c>
+      <c r="BW11" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="BX11" s="44"/>
+      <c r="BY11" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="BZ11" s="51">
         <v>44812</v>
       </c>
-      <c r="BV11" s="44" t="s">
+      <c r="CB11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BW11" s="44"/>
-      <c r="BX11" s="44" t="s">
+      <c r="CC11" s="44"/>
+      <c r="CD11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BY11" s="49">
+      <c r="CE11" s="49">
         <v>44784</v>
       </c>
-      <c r="CC11" s="44" t="s">
+      <c r="CI11" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="CD11" s="44"/>
-      <c r="CE11" s="44" t="s">
+      <c r="CJ11" s="44"/>
+      <c r="CK11" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="CF11" s="50">
+      <c r="CL11" s="50">
         <v>44751</v>
       </c>
-      <c r="CI11" s="44" t="s">
+      <c r="CO11" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CJ11" s="52"/>
-      <c r="CK11" s="44" t="s">
+      <c r="CP11" s="52"/>
+      <c r="CQ11" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="CL11" s="49">
+      <c r="CR11" s="49">
         <v>44695</v>
       </c>
-      <c r="CP11" s="44" t="s">
+      <c r="CV11" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="CQ11" s="57" t="s">
+      <c r="CW11" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="CR11" s="50">
+      <c r="CX11" s="50">
         <v>44723</v>
       </c>
     </row>
-    <row r="12" spans="2:96" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="44" t="s">
+    <row r="12" spans="2:102" ht="21" x14ac:dyDescent="0.35">
+      <c r="B12" s="180" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="172">
+        <v>5</v>
+      </c>
+      <c r="D12" s="173" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="181">
+        <v>45177</v>
+      </c>
+      <c r="H12" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="45" t="s">
+      <c r="I12" s="56"/>
+      <c r="J12" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="53"/>
+      <c r="K12" s="70"/>
       <c r="O12" s="52"/>
       <c r="P12" s="52"/>
       <c r="Q12" s="52"/>
@@ -4711,19 +4947,19 @@
       <c r="V12" s="52"/>
       <c r="W12" s="52"/>
       <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
       <c r="AA12" s="52"/>
       <c r="AB12" s="52"/>
       <c r="AC12" s="52"/>
       <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AG12" s="52"/>
       <c r="AH12" s="52"/>
       <c r="AI12" s="52"/>
-      <c r="AJ12" s="52"/>
-      <c r="AK12" s="53"/>
-      <c r="BE12" s="62"/>
-      <c r="BF12" s="62"/>
-      <c r="BG12" s="63"/>
-      <c r="BH12" s="53"/>
+      <c r="AJ12" s="53"/>
+      <c r="AN12" s="52"/>
+      <c r="AO12" s="52"/>
+      <c r="AP12" s="52"/>
+      <c r="AQ12" s="53"/>
       <c r="BK12" s="62"/>
       <c r="BL12" s="62"/>
       <c r="BM12" s="63"/>
@@ -4732,37 +4968,35 @@
       <c r="BR12" s="62"/>
       <c r="BS12" s="63"/>
       <c r="BT12" s="53"/>
-      <c r="BV12" s="62"/>
       <c r="BW12" s="62"/>
-      <c r="BX12" s="63"/>
-      <c r="BY12" s="53"/>
-      <c r="CC12" s="52"/>
-      <c r="CD12" s="52"/>
-      <c r="CE12" s="52"/>
-      <c r="CF12" s="53"/>
-      <c r="CI12" s="44"/>
-      <c r="CJ12" s="44"/>
-      <c r="CK12" s="44"/>
-      <c r="CL12" s="46"/>
-      <c r="CP12" s="52"/>
-      <c r="CQ12" s="56"/>
-      <c r="CR12" s="53"/>
-    </row>
-    <row r="13" spans="2:96" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="44"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="53"/>
-      <c r="I13" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="70">
-        <v>45115</v>
-      </c>
+      <c r="BX12" s="62"/>
+      <c r="BY12" s="63"/>
+      <c r="BZ12" s="53"/>
+      <c r="CB12" s="62"/>
+      <c r="CC12" s="62"/>
+      <c r="CD12" s="63"/>
+      <c r="CE12" s="53"/>
+      <c r="CI12" s="52"/>
+      <c r="CJ12" s="52"/>
+      <c r="CK12" s="52"/>
+      <c r="CL12" s="53"/>
+      <c r="CO12" s="44"/>
+      <c r="CP12" s="44"/>
+      <c r="CQ12" s="44"/>
+      <c r="CR12" s="46"/>
+      <c r="CV12" s="52"/>
+      <c r="CW12" s="56"/>
+      <c r="CX12" s="53"/>
+    </row>
+    <row r="13" spans="2:102" ht="21" x14ac:dyDescent="0.35">
+      <c r="B13" s="182"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="176"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="53"/>
       <c r="O13" s="44" t="s">
         <v>19</v>
       </c>
@@ -4771,19 +5005,18 @@
         <v>15</v>
       </c>
       <c r="R13" s="70">
-        <v>45087</v>
-      </c>
-      <c r="U13" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="V13" s="61"/>
+        <v>45115</v>
+      </c>
+      <c r="U13" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="V13" s="52"/>
       <c r="W13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="X13" s="68">
-        <v>45057</v>
-      </c>
-      <c r="Y13" s="53"/>
+      <c r="X13" s="70">
+        <v>45087</v>
+      </c>
       <c r="AA13" s="61" t="s">
         <v>23</v>
       </c>
@@ -4792,27 +5025,28 @@
         <v>15</v>
       </c>
       <c r="AD13" s="68">
+        <v>45057</v>
+      </c>
+      <c r="AE13" s="53"/>
+      <c r="AG13" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH13" s="61"/>
+      <c r="AI13" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ13" s="68">
         <v>45029</v>
       </c>
-      <c r="AH13" s="44" t="s">
+      <c r="AN13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AI13" s="44"/>
-      <c r="AJ13" s="44" t="s">
+      <c r="AO13" s="44"/>
+      <c r="AP13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AK13" s="51">
+      <c r="AQ13" s="51">
         <v>44995</v>
-      </c>
-      <c r="AM13" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN13" s="44"/>
-      <c r="AO13" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP13" s="69">
-        <v>44966</v>
       </c>
       <c r="AS13" s="44" t="s">
         <v>24</v>
@@ -4822,27 +5056,27 @@
         <v>32</v>
       </c>
       <c r="AV13" s="69">
-        <v>44938</v>
+        <v>44966</v>
       </c>
       <c r="AY13" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ13" s="44"/>
       <c r="BA13" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="BB13" s="51">
-        <v>44904</v>
+        <v>32</v>
+      </c>
+      <c r="BB13" s="69">
+        <v>44938</v>
       </c>
       <c r="BE13" s="44" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BF13" s="44"/>
       <c r="BG13" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="BH13" s="71">
-        <v>44883</v>
+        <v>18</v>
+      </c>
+      <c r="BH13" s="51">
+        <v>44904</v>
       </c>
       <c r="BK13" s="44" t="s">
         <v>21</v>
@@ -4852,7 +5086,7 @@
         <v>22</v>
       </c>
       <c r="BN13" s="71">
-        <v>44848</v>
+        <v>44883</v>
       </c>
       <c r="BQ13" s="44" t="s">
         <v>21</v>
@@ -4861,85 +5095,103 @@
       <c r="BS13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BT13" s="67">
+      <c r="BT13" s="71">
+        <v>44848</v>
+      </c>
+      <c r="BW13" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="BX13" s="44"/>
+      <c r="BY13" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="BZ13" s="67">
         <v>44813</v>
       </c>
-      <c r="BV13" s="44" t="s">
+      <c r="CB13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BW13" s="44"/>
-      <c r="BX13" s="44" t="s">
+      <c r="CC13" s="44"/>
+      <c r="CD13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BY13" s="65">
+      <c r="CE13" s="65">
         <v>44785</v>
       </c>
-      <c r="CC13" s="44" t="s">
+      <c r="CI13" s="44" t="s">
         <v>21</v>
-      </c>
-      <c r="CD13" s="44"/>
-      <c r="CE13" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="CF13" s="65">
-        <v>44756</v>
-      </c>
-      <c r="CI13" s="44" t="s">
-        <v>24</v>
       </c>
       <c r="CJ13" s="44"/>
       <c r="CK13" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="CL13" s="65">
+        <v>44756</v>
+      </c>
+      <c r="CO13" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="CP13" s="44"/>
+      <c r="CQ13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="CL13" s="50">
+      <c r="CR13" s="50">
         <v>44695</v>
       </c>
-      <c r="CP13" s="44" t="s">
+      <c r="CV13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CQ13" s="57" t="s">
+      <c r="CW13" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="CR13" s="51">
+      <c r="CX13" s="51">
         <v>44728</v>
       </c>
     </row>
-    <row r="14" spans="2:96" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="83" t="s">
+    <row r="14" spans="2:102" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="183" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="172">
+        <v>7</v>
+      </c>
+      <c r="D14" s="177" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="184">
+        <v>45181</v>
+      </c>
+      <c r="H14" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="45">
+      <c r="I14" s="57"/>
+      <c r="J14" s="45">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E14" s="49">
+      <c r="K14" s="49">
         <v>45160</v>
       </c>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="53"/>
       <c r="O14" s="52"/>
       <c r="P14" s="52"/>
       <c r="Q14" s="52"/>
       <c r="R14" s="53"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="63"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
       <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
       <c r="AA14" s="62"/>
       <c r="AB14" s="62"/>
       <c r="AC14" s="63"/>
       <c r="AD14" s="53"/>
+      <c r="AE14" s="53"/>
+      <c r="AG14" s="62"/>
       <c r="AH14" s="62"/>
-      <c r="AI14" s="62"/>
-      <c r="AJ14" s="63"/>
-      <c r="AK14" s="53"/>
-      <c r="AM14" s="62"/>
+      <c r="AI14" s="63"/>
+      <c r="AJ14" s="53"/>
       <c r="AN14" s="62"/>
-      <c r="AO14" s="63"/>
-      <c r="AP14" s="53"/>
+      <c r="AO14" s="62"/>
+      <c r="AP14" s="63"/>
+      <c r="AQ14" s="53"/>
       <c r="AS14" s="62"/>
       <c r="AT14" s="62"/>
       <c r="AU14" s="63"/>
@@ -4948,9 +5200,9 @@
       <c r="AZ14" s="62"/>
       <c r="BA14" s="63"/>
       <c r="BB14" s="53"/>
-      <c r="BE14" s="52"/>
-      <c r="BF14" s="52"/>
-      <c r="BG14" s="52"/>
+      <c r="BE14" s="62"/>
+      <c r="BF14" s="62"/>
+      <c r="BG14" s="63"/>
       <c r="BH14" s="53"/>
       <c r="BK14" s="52"/>
       <c r="BL14" s="52"/>
@@ -4960,37 +5212,35 @@
       <c r="BR14" s="52"/>
       <c r="BS14" s="52"/>
       <c r="BT14" s="53"/>
-      <c r="BV14" s="52"/>
       <c r="BW14" s="52"/>
       <c r="BX14" s="52"/>
-      <c r="BY14" s="53"/>
+      <c r="BY14" s="52"/>
+      <c r="BZ14" s="53"/>
+      <c r="CB14" s="52"/>
       <c r="CC14" s="52"/>
       <c r="CD14" s="52"/>
-      <c r="CE14" s="52"/>
-      <c r="CF14" s="53"/>
-      <c r="CI14" s="44"/>
-      <c r="CJ14" s="44"/>
-      <c r="CK14" s="44"/>
-      <c r="CL14" s="46"/>
-      <c r="CP14" s="52"/>
-      <c r="CQ14" s="56"/>
-      <c r="CR14" s="53"/>
-    </row>
-    <row r="15" spans="2:96" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="98"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
-      <c r="I15" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="61"/>
-      <c r="K15" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="97">
-        <v>45119</v>
-      </c>
+      <c r="CE14" s="53"/>
+      <c r="CI14" s="52"/>
+      <c r="CJ14" s="52"/>
+      <c r="CK14" s="52"/>
+      <c r="CL14" s="53"/>
+      <c r="CO14" s="44"/>
+      <c r="CP14" s="44"/>
+      <c r="CQ14" s="44"/>
+      <c r="CR14" s="46"/>
+      <c r="CV14" s="52"/>
+      <c r="CW14" s="56"/>
+      <c r="CX14" s="53"/>
+    </row>
+    <row r="15" spans="2:102" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="175"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="176"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="101"/>
       <c r="O15" s="61" t="s">
         <v>23</v>
       </c>
@@ -4998,20 +5248,19 @@
       <c r="Q15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="68">
+      <c r="R15" s="97">
+        <v>45119</v>
+      </c>
+      <c r="U15" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="V15" s="61"/>
+      <c r="W15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="X15" s="68">
         <v>45091</v>
       </c>
-      <c r="U15" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="X15" s="71">
-        <v>45058</v>
-      </c>
-      <c r="Y15" s="53"/>
       <c r="AA15" s="44" t="s">
         <v>21</v>
       </c>
@@ -5020,27 +5269,28 @@
         <v>22</v>
       </c>
       <c r="AD15" s="71">
+        <v>45058</v>
+      </c>
+      <c r="AE15" s="53"/>
+      <c r="AG15" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ15" s="71">
         <v>45030</v>
       </c>
-      <c r="AH15" s="44" t="s">
+      <c r="AN15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AI15" s="44"/>
-      <c r="AJ15" s="44" t="s">
+      <c r="AO15" s="44"/>
+      <c r="AP15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AK15" s="71">
+      <c r="AQ15" s="71">
         <v>45001</v>
-      </c>
-      <c r="AM15" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN15" s="44"/>
-      <c r="AO15" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP15" s="71">
-        <v>44973</v>
       </c>
       <c r="AS15" s="44" t="s">
         <v>21</v>
@@ -5050,7 +5300,7 @@
         <v>22</v>
       </c>
       <c r="AV15" s="71">
-        <v>44946</v>
+        <v>44973</v>
       </c>
       <c r="AY15" s="44" t="s">
         <v>21</v>
@@ -5060,17 +5310,17 @@
         <v>22</v>
       </c>
       <c r="BB15" s="71">
+        <v>44946</v>
+      </c>
+      <c r="BE15" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF15" s="44"/>
+      <c r="BG15" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH15" s="71">
         <v>44911</v>
-      </c>
-      <c r="BE15" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="BF15" s="52"/>
-      <c r="BG15" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="BH15" s="70">
-        <v>44884</v>
       </c>
       <c r="BK15" s="44" t="s">
         <v>19</v>
@@ -5080,7 +5330,7 @@
         <v>15</v>
       </c>
       <c r="BN15" s="70">
-        <v>44849</v>
+        <v>44884</v>
       </c>
       <c r="BQ15" s="44" t="s">
         <v>19</v>
@@ -5090,86 +5340,102 @@
         <v>15</v>
       </c>
       <c r="BT15" s="70">
+        <v>44849</v>
+      </c>
+      <c r="BW15" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="BX15" s="52"/>
+      <c r="BY15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="BZ15" s="70">
         <v>44814</v>
       </c>
-      <c r="BV15" s="44" t="s">
+      <c r="CB15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BW15" s="52"/>
-      <c r="BX15" s="45" t="s">
+      <c r="CC15" s="52"/>
+      <c r="CD15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BY15" s="66">
+      <c r="CE15" s="66">
         <v>44786</v>
       </c>
-      <c r="CC15" s="44" t="s">
+      <c r="CI15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CD15" s="52"/>
-      <c r="CE15" s="44" t="s">
+      <c r="CJ15" s="52"/>
+      <c r="CK15" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="CF15" s="66">
+      <c r="CL15" s="66">
         <v>44758</v>
       </c>
-      <c r="CI15" s="44" t="s">
+      <c r="CO15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CJ15" s="44"/>
-      <c r="CK15" s="44" t="s">
+      <c r="CP15" s="44"/>
+      <c r="CQ15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="CL15" s="51">
+      <c r="CR15" s="51">
         <v>44700</v>
       </c>
-      <c r="CP15" s="44" t="s">
+      <c r="CV15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CQ15" s="57" t="s">
+      <c r="CW15" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="CR15" s="49">
+      <c r="CX15" s="49">
         <v>44730</v>
       </c>
     </row>
-    <row r="16" spans="2:96" ht="21" x14ac:dyDescent="0.35">
-      <c r="B16" s="44" t="s">
+    <row r="16" spans="2:102" ht="21" x14ac:dyDescent="0.35">
+      <c r="B16" s="171" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="172"/>
+      <c r="D16" s="177">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E16" s="185">
+        <v>45190</v>
+      </c>
+      <c r="H16" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="57">
+      <c r="I16" s="57">
         <v>4</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="J16" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="51">
+      <c r="K16" s="51">
         <v>45160</v>
       </c>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="53"/>
       <c r="O16" s="62"/>
       <c r="P16" s="62"/>
       <c r="Q16" s="63"/>
       <c r="R16" s="53"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="63"/>
       <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
       <c r="AA16" s="52"/>
       <c r="AB16" s="52"/>
       <c r="AC16" s="52"/>
       <c r="AD16" s="53"/>
+      <c r="AE16" s="53"/>
+      <c r="AG16" s="52"/>
       <c r="AH16" s="52"/>
       <c r="AI16" s="52"/>
-      <c r="AJ16" s="52"/>
-      <c r="AK16" s="53"/>
-      <c r="AM16" s="52"/>
+      <c r="AJ16" s="53"/>
       <c r="AN16" s="52"/>
       <c r="AO16" s="52"/>
-      <c r="AP16" s="53"/>
+      <c r="AP16" s="52"/>
+      <c r="AQ16" s="53"/>
       <c r="AS16" s="52"/>
       <c r="AT16" s="52"/>
       <c r="AU16" s="52"/>
@@ -5178,41 +5444,39 @@
       <c r="AZ16" s="52"/>
       <c r="BA16" s="52"/>
       <c r="BB16" s="53"/>
-      <c r="BQ16" s="44"/>
-      <c r="BR16" s="44"/>
-      <c r="BS16" s="44"/>
-      <c r="BT16" s="46"/>
-      <c r="BV16" s="44"/>
+      <c r="BE16" s="52"/>
+      <c r="BF16" s="52"/>
+      <c r="BG16" s="52"/>
+      <c r="BH16" s="53"/>
       <c r="BW16" s="44"/>
       <c r="BX16" s="44"/>
-      <c r="BY16" s="46"/>
+      <c r="BY16" s="44"/>
+      <c r="BZ16" s="46"/>
+      <c r="CB16" s="44"/>
       <c r="CC16" s="44"/>
       <c r="CD16" s="44"/>
-      <c r="CE16" s="44"/>
-      <c r="CF16" s="46"/>
+      <c r="CE16" s="46"/>
       <c r="CI16" s="44"/>
       <c r="CJ16" s="44"/>
       <c r="CK16" s="44"/>
       <c r="CL16" s="46"/>
+      <c r="CO16" s="44"/>
       <c r="CP16" s="44"/>
-      <c r="CQ16" s="57"/>
+      <c r="CQ16" s="44"/>
       <c r="CR16" s="46"/>
-    </row>
-    <row r="17" spans="2:96" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B17" s="44"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="51"/>
-      <c r="I17" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="49"/>
+      <c r="CV16" s="44"/>
+      <c r="CW16" s="57"/>
+      <c r="CX16" s="46"/>
+    </row>
+    <row r="17" spans="2:102" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B17" s="175"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="176"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="51"/>
       <c r="O17" s="83" t="s">
         <v>24</v>
       </c>
@@ -5223,17 +5487,16 @@
         <v>32</v>
       </c>
       <c r="R17" s="49"/>
-      <c r="U17" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="V17" s="52"/>
-      <c r="W17" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="X17" s="70">
-        <v>45059</v>
-      </c>
-      <c r="Y17" s="53"/>
+      <c r="U17" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="V17" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="W17" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="X17" s="49"/>
       <c r="AA17" s="44" t="s">
         <v>19</v>
       </c>
@@ -5242,27 +5505,28 @@
         <v>15</v>
       </c>
       <c r="AD17" s="70">
+        <v>45059</v>
+      </c>
+      <c r="AE17" s="53"/>
+      <c r="AG17" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ17" s="70">
         <v>45031</v>
       </c>
-      <c r="AH17" s="44" t="s">
+      <c r="AN17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AI17" s="52"/>
-      <c r="AJ17" s="45" t="s">
+      <c r="AO17" s="52"/>
+      <c r="AP17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AK17" s="70">
+      <c r="AQ17" s="70">
         <v>45003</v>
-      </c>
-      <c r="AM17" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN17" s="52"/>
-      <c r="AO17" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP17" s="70">
-        <v>44982</v>
       </c>
       <c r="AS17" s="44" t="s">
         <v>19</v>
@@ -5272,7 +5536,7 @@
         <v>15</v>
       </c>
       <c r="AV17" s="70">
-        <v>44954</v>
+        <v>44982</v>
       </c>
       <c r="AY17" s="44" t="s">
         <v>19</v>
@@ -5282,202 +5546,262 @@
         <v>15</v>
       </c>
       <c r="BB17" s="70">
+        <v>44954</v>
+      </c>
+      <c r="BE17" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF17" s="52"/>
+      <c r="BG17" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="BH17" s="70">
         <v>44912</v>
       </c>
-      <c r="CI17" s="52"/>
-      <c r="CJ17" s="52"/>
-      <c r="CK17" s="52"/>
-      <c r="CL17" s="53"/>
-      <c r="CP17" s="44"/>
-      <c r="CQ17" s="57"/>
-      <c r="CR17" s="46"/>
-    </row>
-    <row r="18" spans="2:96" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="61" t="s">
+      <c r="CO17" s="52"/>
+      <c r="CP17" s="52"/>
+      <c r="CQ17" s="52"/>
+      <c r="CR17" s="53"/>
+      <c r="CV17" s="44"/>
+      <c r="CW17" s="57"/>
+      <c r="CX17" s="46"/>
+    </row>
+    <row r="18" spans="2:102" ht="21" x14ac:dyDescent="0.35">
+      <c r="B18" s="186" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="172"/>
+      <c r="D18" s="177">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E18" s="187">
+        <v>45191</v>
+      </c>
+      <c r="H18" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="57">
+      <c r="I18" s="57">
         <v>7</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="J18" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="97">
+      <c r="K18" s="97">
         <v>45154</v>
       </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="53"/>
       <c r="O18" s="52"/>
       <c r="P18" s="52"/>
       <c r="Q18" s="52"/>
       <c r="R18" s="53"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="53"/>
       <c r="AA18" s="54"/>
       <c r="AB18" s="54"/>
       <c r="AC18" s="54"/>
       <c r="AD18" s="54"/>
-      <c r="CI18" s="44"/>
-      <c r="CJ18" s="44"/>
-      <c r="CK18" s="44"/>
-      <c r="CL18" s="46"/>
+      <c r="AG18" s="54"/>
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="54"/>
+      <c r="AJ18" s="54"/>
+      <c r="CO18" s="44"/>
       <c r="CP18" s="44"/>
-      <c r="CQ18" s="57"/>
+      <c r="CQ18" s="44"/>
       <c r="CR18" s="46"/>
-    </row>
-    <row r="19" spans="2:96" ht="21" x14ac:dyDescent="0.35">
-      <c r="B19" s="52"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
-      <c r="I19" s="52"/>
+      <c r="CV18" s="44"/>
+      <c r="CW18" s="57"/>
+      <c r="CX18" s="46"/>
+    </row>
+    <row r="19" spans="2:102" ht="21" x14ac:dyDescent="0.35">
+      <c r="B19" s="175"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="176"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="56"/>
       <c r="J19" s="52"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="53"/>
+      <c r="K19" s="53"/>
       <c r="O19" s="52"/>
       <c r="P19" s="52"/>
       <c r="Q19" s="63"/>
       <c r="R19" s="53"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="62"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
       <c r="W19" s="63"/>
       <c r="X19" s="53"/>
-      <c r="Y19" s="53"/>
       <c r="AA19" s="62"/>
       <c r="AB19" s="62"/>
       <c r="AC19" s="63"/>
       <c r="AD19" s="53"/>
-      <c r="CI19" s="44"/>
-      <c r="CJ19" s="44"/>
-      <c r="CK19" s="44"/>
-      <c r="CL19" s="46"/>
-    </row>
-    <row r="20" spans="2:96" ht="21" x14ac:dyDescent="0.35">
-      <c r="B20" s="44" t="s">
+      <c r="AE19" s="53"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="62"/>
+      <c r="AI19" s="63"/>
+      <c r="AJ19" s="53"/>
+      <c r="CO19" s="44"/>
+      <c r="CP19" s="44"/>
+      <c r="CQ19" s="44"/>
+      <c r="CR19" s="46"/>
+    </row>
+    <row r="20" spans="2:102" ht="21" x14ac:dyDescent="0.35">
+      <c r="B20" s="180" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="172">
+        <v>4</v>
+      </c>
+      <c r="D20" s="173" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="188">
+        <v>45191</v>
+      </c>
+      <c r="H20" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="57">
+      <c r="I20" s="57">
         <v>5</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="J20" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="71">
+      <c r="K20" s="71">
         <v>45149</v>
       </c>
-      <c r="CI20" s="44"/>
-      <c r="CJ20" s="44"/>
-      <c r="CK20" s="44"/>
-      <c r="CL20" s="46"/>
-    </row>
-    <row r="21" spans="2:96" ht="21" x14ac:dyDescent="0.35">
-      <c r="B21" s="62"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="53"/>
-      <c r="CI21" s="44"/>
-      <c r="CJ21" s="44"/>
-      <c r="CK21" s="44"/>
-      <c r="CL21" s="46"/>
-    </row>
-    <row r="22" spans="2:96" ht="21" x14ac:dyDescent="0.35">
-      <c r="B22" s="52"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
-      <c r="CI22" s="44"/>
-      <c r="CJ22" s="44"/>
-      <c r="CK22" s="44"/>
-      <c r="CL22" s="46"/>
-    </row>
-    <row r="23" spans="2:96" ht="21" x14ac:dyDescent="0.35">
-      <c r="B23" s="52"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="CI23" s="44"/>
-      <c r="CJ23" s="44"/>
-      <c r="CK23" s="44"/>
-      <c r="CL23" s="46"/>
-    </row>
-    <row r="24" spans="2:96" ht="21" x14ac:dyDescent="0.35">
-      <c r="B24" s="52"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="53"/>
-      <c r="CI24" s="44"/>
-      <c r="CJ24" s="44"/>
-      <c r="CK24" s="44"/>
-      <c r="CL24" s="46"/>
-    </row>
-    <row r="25" spans="2:96" ht="21" x14ac:dyDescent="0.35">
-      <c r="CI25" s="44"/>
-      <c r="CJ25" s="44"/>
-      <c r="CK25" s="44"/>
-      <c r="CL25" s="46"/>
-    </row>
-    <row r="26" spans="2:96" ht="21" x14ac:dyDescent="0.35">
-      <c r="CI26" s="44"/>
-      <c r="CJ26" s="44"/>
-      <c r="CK26" s="44"/>
-      <c r="CL26" s="46"/>
-    </row>
-    <row r="27" spans="2:96" ht="21" x14ac:dyDescent="0.35">
-      <c r="CI27" s="44"/>
-      <c r="CJ27" s="44"/>
-      <c r="CK27" s="44"/>
-      <c r="CL27" s="46"/>
-    </row>
-    <row r="28" spans="2:96" ht="21" x14ac:dyDescent="0.35">
-      <c r="CI28" s="44"/>
-      <c r="CJ28" s="44"/>
-      <c r="CK28" s="44"/>
-      <c r="CL28" s="46"/>
-    </row>
-    <row r="29" spans="2:96" ht="21" x14ac:dyDescent="0.35">
-      <c r="CI29" s="44"/>
-      <c r="CJ29" s="44"/>
-      <c r="CK29" s="44"/>
-      <c r="CL29" s="46"/>
-    </row>
-    <row r="30" spans="2:96" ht="21" x14ac:dyDescent="0.35">
-      <c r="CI30" s="44"/>
-      <c r="CJ30" s="44"/>
-      <c r="CK30" s="44"/>
-      <c r="CL30" s="46"/>
-    </row>
-    <row r="31" spans="2:96" ht="21" x14ac:dyDescent="0.35">
-      <c r="CI31" s="44"/>
-      <c r="CJ31" s="44"/>
-      <c r="CK31" s="44"/>
-      <c r="CL31" s="46"/>
+      <c r="CO20" s="44"/>
+      <c r="CP20" s="44"/>
+      <c r="CQ20" s="44"/>
+      <c r="CR20" s="46"/>
+    </row>
+    <row r="21" spans="2:102" ht="21" x14ac:dyDescent="0.35">
+      <c r="B21" s="182"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="176"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="53"/>
+      <c r="CO21" s="44"/>
+      <c r="CP21" s="44"/>
+      <c r="CQ21" s="44"/>
+      <c r="CR21" s="46"/>
+    </row>
+    <row r="22" spans="2:102" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B22" s="189" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="190" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="191" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="187"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="53"/>
+      <c r="CO22" s="44"/>
+      <c r="CP22" s="44"/>
+      <c r="CQ22" s="44"/>
+      <c r="CR22" s="46"/>
+    </row>
+    <row r="23" spans="2:102" ht="21" x14ac:dyDescent="0.35">
+      <c r="B23" s="175"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="179"/>
+      <c r="E23" s="176"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
+      <c r="CO23" s="44"/>
+      <c r="CP23" s="44"/>
+      <c r="CQ23" s="44"/>
+      <c r="CR23" s="46"/>
+    </row>
+    <row r="24" spans="2:102" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="192"/>
+      <c r="C24" s="193"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="195"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="53"/>
+      <c r="CO24" s="44"/>
+      <c r="CP24" s="44"/>
+      <c r="CQ24" s="44"/>
+      <c r="CR24" s="46"/>
+    </row>
+    <row r="25" spans="2:102" ht="21" x14ac:dyDescent="0.35">
+      <c r="CO25" s="44"/>
+      <c r="CP25" s="44"/>
+      <c r="CQ25" s="44"/>
+      <c r="CR25" s="46"/>
+    </row>
+    <row r="26" spans="2:102" ht="21" x14ac:dyDescent="0.35">
+      <c r="CO26" s="44"/>
+      <c r="CP26" s="44"/>
+      <c r="CQ26" s="44"/>
+      <c r="CR26" s="46"/>
+    </row>
+    <row r="27" spans="2:102" ht="21" x14ac:dyDescent="0.35">
+      <c r="CO27" s="44"/>
+      <c r="CP27" s="44"/>
+      <c r="CQ27" s="44"/>
+      <c r="CR27" s="46"/>
+    </row>
+    <row r="28" spans="2:102" ht="21" x14ac:dyDescent="0.35">
+      <c r="CO28" s="44"/>
+      <c r="CP28" s="44"/>
+      <c r="CQ28" s="44"/>
+      <c r="CR28" s="46"/>
+    </row>
+    <row r="29" spans="2:102" ht="21" x14ac:dyDescent="0.35">
+      <c r="CO29" s="44"/>
+      <c r="CP29" s="44"/>
+      <c r="CQ29" s="44"/>
+      <c r="CR29" s="46"/>
+    </row>
+    <row r="30" spans="2:102" ht="21" x14ac:dyDescent="0.35">
+      <c r="CO30" s="44"/>
+      <c r="CP30" s="44"/>
+      <c r="CQ30" s="44"/>
+      <c r="CR30" s="46"/>
+    </row>
+    <row r="31" spans="2:102" ht="21" x14ac:dyDescent="0.35">
+      <c r="CO31" s="44"/>
+      <c r="CP31" s="44"/>
+      <c r="CQ31" s="44"/>
+      <c r="CR31" s="46"/>
     </row>
   </sheetData>
-  <sortState ref="AH11:AK13">
-    <sortCondition ref="AK11:AK13"/>
+  <sortState ref="B8:E21">
+    <sortCondition ref="E8:E21"/>
   </sortState>
-  <mergeCells count="17">
-    <mergeCell ref="CP3:CR3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="BE3:BG3"/>
+  <mergeCells count="19">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="BE5:BG5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="AS5:AU5"/>
+    <mergeCell ref="AY5:BA5"/>
+    <mergeCell ref="CV3:CX3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CB3:CD3"/>
     <mergeCell ref="BK3:BM3"/>
     <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="CI3:CL3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="CI5:CJ5"/>
-    <mergeCell ref="AY5:BA5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="AS5:AU5"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="CO3:CR3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMA    ECOPLAG   2023    " sheetId="7" r:id="rId1"/>
@@ -1031,7 +1031,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1375,42 +1375,6 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="16" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="15" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="15" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="15" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="11" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1424,19 +1388,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1492,6 +1444,78 @@
     </xf>
     <xf numFmtId="18" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="16" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="15" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="15" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="15" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="11" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1856,11 +1880,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="180"/>
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -2051,22 +2075,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="145" t="s">
+      <c r="D3" s="182" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="146"/>
-      <c r="F3" s="147"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="184"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2738,9 +2762,9 @@
   </sheetPr>
   <dimension ref="A2:R38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2756,7 +2780,7 @@
     <col min="9" max="9" width="11.42578125" style="24"/>
     <col min="10" max="10" width="13.28515625" style="93" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" style="24"/>
-    <col min="12" max="12" width="17" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="196" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" style="24"/>
     <col min="14" max="14" width="17" style="24" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="11.42578125" style="24"/>
@@ -2765,48 +2789,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
     </row>
     <row r="3" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="145" t="s">
+      <c r="D3" s="182" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="146"/>
-      <c r="F3" s="147"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="184"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:18" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="149" t="s">
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="186" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="151"/>
+      <c r="I4" s="187"/>
+      <c r="J4" s="187"/>
+      <c r="K4" s="187"/>
+      <c r="L4" s="187"/>
+      <c r="M4" s="188"/>
       <c r="N4" s="137"/>
       <c r="O4" s="137"/>
       <c r="P4" s="137"/>
-      <c r="Q4" s="152" t="s">
+      <c r="Q4" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="153"/>
+      <c r="R4" s="190"/>
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -2896,7 +2920,7 @@
       <c r="K6" s="35">
         <v>250</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="197"/>
       <c r="M6" s="35"/>
       <c r="N6" s="35"/>
       <c r="O6" s="35"/>
@@ -2942,7 +2966,7 @@
       <c r="K7" s="38">
         <v>268</v>
       </c>
-      <c r="L7" s="123"/>
+      <c r="L7" s="198"/>
       <c r="M7" s="123"/>
       <c r="N7" s="123"/>
       <c r="O7" s="123"/>
@@ -2988,7 +3012,7 @@
       <c r="K8" s="39">
         <v>291</v>
       </c>
-      <c r="L8" s="124"/>
+      <c r="L8" s="199"/>
       <c r="M8" s="124"/>
       <c r="N8" s="124"/>
       <c r="O8" s="124"/>
@@ -3034,7 +3058,7 @@
       <c r="K9" s="39">
         <v>312</v>
       </c>
-      <c r="L9" s="124"/>
+      <c r="L9" s="199"/>
       <c r="M9" s="124"/>
       <c r="N9" s="124"/>
       <c r="O9" s="124"/>
@@ -3080,7 +3104,7 @@
       <c r="K10" s="39">
         <v>333</v>
       </c>
-      <c r="L10" s="124"/>
+      <c r="L10" s="199"/>
       <c r="M10" s="124"/>
       <c r="N10" s="124"/>
       <c r="O10" s="124"/>
@@ -3126,7 +3150,7 @@
       <c r="K11" s="39">
         <v>357</v>
       </c>
-      <c r="L11" s="124"/>
+      <c r="L11" s="199"/>
       <c r="M11" s="124"/>
       <c r="N11" s="124"/>
       <c r="O11" s="124"/>
@@ -3172,7 +3196,7 @@
       <c r="K12" s="39">
         <v>375</v>
       </c>
-      <c r="L12" s="124"/>
+      <c r="L12" s="199"/>
       <c r="M12" s="124"/>
       <c r="N12" s="124"/>
       <c r="O12" s="124"/>
@@ -3218,7 +3242,7 @@
       <c r="K13" s="39">
         <v>391</v>
       </c>
-      <c r="L13" s="124"/>
+      <c r="L13" s="199"/>
       <c r="M13" s="124"/>
       <c r="N13" s="124"/>
       <c r="O13" s="124"/>
@@ -3264,7 +3288,7 @@
       <c r="K14" s="39">
         <v>416</v>
       </c>
-      <c r="L14" s="124"/>
+      <c r="L14" s="199"/>
       <c r="M14" s="124"/>
       <c r="N14" s="124"/>
       <c r="O14" s="124"/>
@@ -3310,7 +3334,7 @@
       <c r="K15" s="39">
         <v>439</v>
       </c>
-      <c r="L15" s="124"/>
+      <c r="L15" s="199"/>
       <c r="M15" s="124"/>
       <c r="N15" s="124"/>
       <c r="O15" s="124"/>
@@ -3356,7 +3380,7 @@
       <c r="K16" s="39">
         <v>453</v>
       </c>
-      <c r="L16" s="124"/>
+      <c r="L16" s="199"/>
       <c r="M16" s="124"/>
       <c r="N16" s="124"/>
       <c r="O16" s="124"/>
@@ -3402,7 +3426,7 @@
       <c r="K17" s="80">
         <v>469</v>
       </c>
-      <c r="L17" s="125"/>
+      <c r="L17" s="200"/>
       <c r="M17" s="125"/>
       <c r="N17" s="125"/>
       <c r="O17" s="125"/>
@@ -3448,7 +3472,7 @@
       <c r="K18" s="39">
         <v>515</v>
       </c>
-      <c r="L18" s="141"/>
+      <c r="L18" s="201"/>
       <c r="M18" s="142"/>
       <c r="N18" s="141"/>
       <c r="O18" s="142"/>
@@ -3494,7 +3518,7 @@
       <c r="K19" s="39">
         <v>525</v>
       </c>
-      <c r="L19" s="141"/>
+      <c r="L19" s="201"/>
       <c r="M19" s="142"/>
       <c r="N19" s="141"/>
       <c r="O19" s="142"/>
@@ -3540,7 +3564,7 @@
       <c r="K20" s="39">
         <v>544</v>
       </c>
-      <c r="L20" s="141"/>
+      <c r="L20" s="201"/>
       <c r="M20" s="142"/>
       <c r="N20" s="141"/>
       <c r="O20" s="142"/>
@@ -3586,7 +3610,7 @@
       <c r="K21" s="39">
         <v>569</v>
       </c>
-      <c r="L21" s="141"/>
+      <c r="L21" s="201"/>
       <c r="M21" s="142"/>
       <c r="N21" s="141"/>
       <c r="O21" s="142"/>
@@ -3630,7 +3654,7 @@
       <c r="K22" s="39">
         <v>595</v>
       </c>
-      <c r="L22" s="141"/>
+      <c r="L22" s="201"/>
       <c r="M22" s="142"/>
       <c r="N22" s="141"/>
       <c r="O22" s="142"/>
@@ -3676,7 +3700,7 @@
       <c r="K23" s="39">
         <v>635</v>
       </c>
-      <c r="L23" s="141"/>
+      <c r="L23" s="201"/>
       <c r="M23" s="142"/>
       <c r="N23" s="141"/>
       <c r="O23" s="142"/>
@@ -3701,7 +3725,7 @@
       <c r="D24" s="43">
         <v>1392</v>
       </c>
-      <c r="E24" s="155">
+      <c r="E24" s="143">
         <v>744</v>
       </c>
       <c r="F24" s="43"/>
@@ -3710,8 +3734,12 @@
       <c r="I24" s="135"/>
       <c r="J24" s="134"/>
       <c r="K24" s="136"/>
-      <c r="L24" s="128"/>
-      <c r="M24" s="127"/>
+      <c r="L24" s="202">
+        <v>1624</v>
+      </c>
+      <c r="M24" s="127">
+        <v>746</v>
+      </c>
       <c r="N24" s="128"/>
       <c r="O24" s="127"/>
       <c r="P24" s="139"/>
@@ -3730,7 +3758,7 @@
       <c r="I25" s="37"/>
       <c r="J25" s="20"/>
       <c r="K25" s="39"/>
-      <c r="L25" s="128"/>
+      <c r="L25" s="202"/>
       <c r="M25" s="127"/>
       <c r="N25" s="128"/>
       <c r="O25" s="127"/>
@@ -3750,7 +3778,7 @@
       <c r="I26" s="37"/>
       <c r="J26" s="20"/>
       <c r="K26" s="39"/>
-      <c r="L26" s="128"/>
+      <c r="L26" s="202"/>
       <c r="M26" s="127"/>
       <c r="N26" s="128"/>
       <c r="O26" s="127"/>
@@ -3770,7 +3798,7 @@
       <c r="I27" s="37"/>
       <c r="J27" s="20"/>
       <c r="K27" s="39"/>
-      <c r="L27" s="128"/>
+      <c r="L27" s="202"/>
       <c r="M27" s="127"/>
       <c r="N27" s="128"/>
       <c r="O27" s="127"/>
@@ -3790,7 +3818,7 @@
       <c r="I28" s="37"/>
       <c r="J28" s="20"/>
       <c r="K28" s="39"/>
-      <c r="L28" s="128"/>
+      <c r="L28" s="202"/>
       <c r="M28" s="127"/>
       <c r="N28" s="128"/>
       <c r="O28" s="127"/>
@@ -3810,7 +3838,7 @@
       <c r="I29" s="37"/>
       <c r="J29" s="20"/>
       <c r="K29" s="39"/>
-      <c r="L29" s="128"/>
+      <c r="L29" s="202"/>
       <c r="M29" s="127"/>
       <c r="N29" s="128"/>
       <c r="O29" s="127"/>
@@ -3830,7 +3858,7 @@
       <c r="I30" s="37"/>
       <c r="J30" s="20"/>
       <c r="K30" s="39"/>
-      <c r="L30" s="128"/>
+      <c r="L30" s="202"/>
       <c r="M30" s="127"/>
       <c r="N30" s="128"/>
       <c r="O30" s="127"/>
@@ -3850,7 +3878,7 @@
       <c r="I31" s="37"/>
       <c r="J31" s="20"/>
       <c r="K31" s="39"/>
-      <c r="L31" s="128"/>
+      <c r="L31" s="202"/>
       <c r="M31" s="127"/>
       <c r="N31" s="128"/>
       <c r="O31" s="127"/>
@@ -3870,7 +3898,7 @@
       <c r="I32" s="37"/>
       <c r="J32" s="20"/>
       <c r="K32" s="39"/>
-      <c r="L32" s="128"/>
+      <c r="L32" s="202"/>
       <c r="M32" s="127"/>
       <c r="N32" s="128"/>
       <c r="O32" s="127"/>
@@ -3890,7 +3918,7 @@
       <c r="I33" s="37"/>
       <c r="J33" s="20"/>
       <c r="K33" s="39"/>
-      <c r="L33" s="128"/>
+      <c r="L33" s="202"/>
       <c r="M33" s="127"/>
       <c r="N33" s="128"/>
       <c r="O33" s="127"/>
@@ -3910,7 +3938,7 @@
       <c r="I34" s="37"/>
       <c r="J34" s="20"/>
       <c r="K34" s="39"/>
-      <c r="L34" s="128"/>
+      <c r="L34" s="202"/>
       <c r="M34" s="127"/>
       <c r="N34" s="128"/>
       <c r="O34" s="127"/>
@@ -3930,7 +3958,7 @@
       <c r="I35" s="37"/>
       <c r="J35" s="20"/>
       <c r="K35" s="39"/>
-      <c r="L35" s="128"/>
+      <c r="L35" s="202"/>
       <c r="M35" s="127"/>
       <c r="N35" s="128"/>
       <c r="O35" s="127"/>
@@ -3950,7 +3978,7 @@
       <c r="I36" s="37"/>
       <c r="J36" s="20"/>
       <c r="K36" s="39"/>
-      <c r="L36" s="126"/>
+      <c r="L36" s="203"/>
       <c r="M36" s="126"/>
       <c r="N36" s="126"/>
       <c r="O36" s="126"/>
@@ -3970,7 +3998,7 @@
       <c r="I37" s="37"/>
       <c r="J37" s="20"/>
       <c r="K37" s="39"/>
-      <c r="L37" s="124"/>
+      <c r="L37" s="199"/>
       <c r="M37" s="124"/>
       <c r="N37" s="124"/>
       <c r="O37" s="124"/>
@@ -3990,7 +4018,7 @@
       <c r="I38" s="37"/>
       <c r="J38" s="20"/>
       <c r="K38" s="39"/>
-      <c r="L38" s="124"/>
+      <c r="L38" s="199"/>
       <c r="M38" s="124"/>
       <c r="N38" s="124"/>
       <c r="O38" s="124"/>
@@ -4019,7 +4047,7 @@
   </sheetPr>
   <dimension ref="B3:CX31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="H22" sqref="H22"/>
     </sheetView>
@@ -4087,54 +4115,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:102" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="BK3" s="143" t="s">
+      <c r="BK3" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="BL3" s="143"/>
-      <c r="BM3" s="143"/>
+      <c r="BL3" s="180"/>
+      <c r="BM3" s="180"/>
       <c r="BN3" s="60"/>
-      <c r="BQ3" s="143" t="s">
+      <c r="BQ3" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="BR3" s="143"/>
-      <c r="BS3" s="143"/>
+      <c r="BR3" s="180"/>
+      <c r="BS3" s="180"/>
       <c r="BT3" s="60"/>
-      <c r="BW3" s="143" t="s">
+      <c r="BW3" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="BX3" s="143"/>
-      <c r="BY3" s="143"/>
+      <c r="BX3" s="180"/>
+      <c r="BY3" s="180"/>
       <c r="BZ3" s="60"/>
-      <c r="CB3" s="143" t="s">
+      <c r="CB3" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="CC3" s="143"/>
-      <c r="CD3" s="143"/>
+      <c r="CC3" s="180"/>
+      <c r="CD3" s="180"/>
       <c r="CE3" s="60"/>
-      <c r="CI3" s="143" t="s">
+      <c r="CI3" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="CJ3" s="143"/>
-      <c r="CK3" s="143"/>
+      <c r="CJ3" s="180"/>
+      <c r="CK3" s="180"/>
       <c r="CL3" s="60"/>
       <c r="CM3" s="59"/>
-      <c r="CO3" s="143" t="s">
+      <c r="CO3" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="CP3" s="143"/>
-      <c r="CQ3" s="143"/>
-      <c r="CR3" s="143"/>
-      <c r="CV3" s="143" t="s">
+      <c r="CP3" s="180"/>
+      <c r="CQ3" s="180"/>
+      <c r="CR3" s="180"/>
+      <c r="CV3" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="CW3" s="143"/>
-      <c r="CX3" s="143"/>
+      <c r="CW3" s="180"/>
+      <c r="CX3" s="180"/>
     </row>
     <row r="4" spans="2:102" x14ac:dyDescent="0.25">
-      <c r="B4" s="158"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="161"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="149"/>
       <c r="BN4" s="47"/>
       <c r="BT4" s="47"/>
       <c r="BZ4" s="47"/>
@@ -4143,66 +4171,66 @@
       <c r="CX4" s="47"/>
     </row>
     <row r="5" spans="2:102" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="191" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="164"/>
-      <c r="H5" s="143" t="s">
+      <c r="C5" s="192"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="150"/>
+      <c r="H5" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
+      <c r="I5" s="180"/>
+      <c r="J5" s="180"/>
       <c r="K5" s="60"/>
-      <c r="O5" s="143" t="s">
+      <c r="O5" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="143"/>
-      <c r="Q5" s="143"/>
+      <c r="P5" s="180"/>
+      <c r="Q5" s="180"/>
       <c r="R5" s="60"/>
-      <c r="U5" s="143" t="s">
+      <c r="U5" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="143"/>
-      <c r="W5" s="143"/>
+      <c r="V5" s="180"/>
+      <c r="W5" s="180"/>
       <c r="X5" s="60"/>
-      <c r="AA5" s="143" t="s">
+      <c r="AA5" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="143"/>
-      <c r="AC5" s="143"/>
+      <c r="AB5" s="180"/>
+      <c r="AC5" s="180"/>
       <c r="AD5" s="60"/>
       <c r="AE5" s="85"/>
-      <c r="AG5" s="143" t="s">
+      <c r="AG5" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="AH5" s="143"/>
-      <c r="AI5" s="143"/>
+      <c r="AH5" s="180"/>
+      <c r="AI5" s="180"/>
       <c r="AJ5" s="60"/>
-      <c r="AN5" s="143" t="s">
+      <c r="AN5" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="AO5" s="143"/>
-      <c r="AP5" s="143"/>
+      <c r="AO5" s="180"/>
+      <c r="AP5" s="180"/>
       <c r="AQ5" s="60"/>
-      <c r="AS5" s="143" t="s">
+      <c r="AS5" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="AT5" s="143"/>
-      <c r="AU5" s="143"/>
+      <c r="AT5" s="180"/>
+      <c r="AU5" s="180"/>
       <c r="AV5" s="60"/>
-      <c r="AY5" s="143" t="s">
+      <c r="AY5" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="AZ5" s="143"/>
-      <c r="BA5" s="143"/>
+      <c r="AZ5" s="180"/>
+      <c r="BA5" s="180"/>
       <c r="BB5" s="60"/>
-      <c r="BE5" s="143" t="s">
+      <c r="BE5" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="BF5" s="143"/>
-      <c r="BG5" s="143"/>
+      <c r="BF5" s="180"/>
+      <c r="BG5" s="180"/>
       <c r="BH5" s="60"/>
       <c r="BK5" s="61" t="s">
         <v>23</v>
@@ -4254,10 +4282,10 @@
       <c r="CL5" s="51">
         <v>44747</v>
       </c>
-      <c r="CO5" s="154" t="s">
+      <c r="CO5" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="CP5" s="154"/>
+      <c r="CP5" s="195"/>
       <c r="CQ5" s="45" t="s">
         <v>15</v>
       </c>
@@ -4275,12 +4303,12 @@
       </c>
     </row>
     <row r="6" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="193" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="167"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="151"/>
       <c r="K6" s="47"/>
       <c r="R6" s="47"/>
       <c r="X6" s="47"/>
@@ -4312,10 +4340,10 @@
       <c r="CX6" s="53"/>
     </row>
     <row r="7" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="168"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="167"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="151"/>
       <c r="K7" s="47"/>
       <c r="O7" s="44" t="s">
         <v>25</v>
@@ -4470,16 +4498,16 @@
       </c>
     </row>
     <row r="8" spans="2:102" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="171" t="s">
+      <c r="B8" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="172">
+      <c r="C8" s="156">
         <v>11</v>
       </c>
-      <c r="D8" s="173" t="s">
+      <c r="D8" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="174">
+      <c r="E8" s="158">
         <v>45169</v>
       </c>
       <c r="F8" s="54"/>
@@ -4537,10 +4565,10 @@
       <c r="CX8" s="53"/>
     </row>
     <row r="9" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="175"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="176"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="160"/>
       <c r="K9" s="47"/>
       <c r="O9" s="44" t="s">
         <v>16</v>
@@ -4694,14 +4722,14 @@
       </c>
     </row>
     <row r="10" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B10" s="171" t="s">
+      <c r="B10" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="156"/>
-      <c r="D10" s="177" t="s">
+      <c r="C10" s="144"/>
+      <c r="D10" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="178">
+      <c r="E10" s="162">
         <v>45171</v>
       </c>
       <c r="H10" s="44" t="s">
@@ -4757,10 +4785,10 @@
       <c r="CX10" s="53"/>
     </row>
     <row r="11" spans="2:102" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="175"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="176"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="160"/>
       <c r="H11" s="62"/>
       <c r="I11" s="56"/>
       <c r="J11" s="63"/>
@@ -4919,16 +4947,16 @@
       </c>
     </row>
     <row r="12" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="180" t="s">
+      <c r="B12" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="172">
+      <c r="C12" s="156">
         <v>5</v>
       </c>
-      <c r="D12" s="173" t="s">
+      <c r="D12" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="181">
+      <c r="E12" s="165">
         <v>45177</v>
       </c>
       <c r="H12" s="44" t="s">
@@ -4989,10 +5017,10 @@
       <c r="CX12" s="53"/>
     </row>
     <row r="13" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="182"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="176"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="160"/>
       <c r="H13" s="44"/>
       <c r="I13" s="56"/>
       <c r="J13" s="45"/>
@@ -5149,16 +5177,16 @@
       </c>
     </row>
     <row r="14" spans="2:102" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="183" t="s">
+      <c r="B14" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="156">
         <v>7</v>
       </c>
-      <c r="D14" s="177" t="s">
+      <c r="D14" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="184">
+      <c r="E14" s="168">
         <v>45181</v>
       </c>
       <c r="H14" s="83" t="s">
@@ -5233,10 +5261,10 @@
       <c r="CX14" s="53"/>
     </row>
     <row r="15" spans="2:102" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="175"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="176"/>
+      <c r="B15" s="159"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="160"/>
       <c r="H15" s="98"/>
       <c r="I15" s="99"/>
       <c r="J15" s="100"/>
@@ -5393,14 +5421,14 @@
       </c>
     </row>
     <row r="16" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B16" s="171" t="s">
+      <c r="B16" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="172"/>
-      <c r="D16" s="177">
+      <c r="C16" s="156"/>
+      <c r="D16" s="161">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E16" s="185">
+      <c r="E16" s="169">
         <v>45190</v>
       </c>
       <c r="H16" s="44" t="s">
@@ -5469,10 +5497,10 @@
       <c r="CX16" s="46"/>
     </row>
     <row r="17" spans="2:102" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B17" s="175"/>
-      <c r="C17" s="156"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="176"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="160"/>
       <c r="H17" s="44"/>
       <c r="I17" s="57"/>
       <c r="J17" s="44"/>
@@ -5567,14 +5595,14 @@
       <c r="CX17" s="46"/>
     </row>
     <row r="18" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="186" t="s">
+      <c r="B18" s="170" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="172"/>
-      <c r="D18" s="177">
+      <c r="C18" s="156"/>
+      <c r="D18" s="161">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E18" s="187">
+      <c r="E18" s="171">
         <v>45191</v>
       </c>
       <c r="H18" s="61" t="s">
@@ -5614,10 +5642,10 @@
       <c r="CX18" s="46"/>
     </row>
     <row r="19" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B19" s="175"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="176"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="160"/>
       <c r="H19" s="52"/>
       <c r="I19" s="56"/>
       <c r="J19" s="52"/>
@@ -5645,16 +5673,16 @@
       <c r="CR19" s="46"/>
     </row>
     <row r="20" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B20" s="180" t="s">
+      <c r="B20" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="156">
         <v>4</v>
       </c>
-      <c r="D20" s="173" t="s">
+      <c r="D20" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="188">
+      <c r="E20" s="172">
         <v>45191</v>
       </c>
       <c r="H20" s="44" t="s">
@@ -5675,10 +5703,10 @@
       <c r="CR20" s="46"/>
     </row>
     <row r="21" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B21" s="182"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="176"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="160"/>
       <c r="H21" s="62"/>
       <c r="I21" s="56"/>
       <c r="J21" s="63"/>
@@ -5689,16 +5717,16 @@
       <c r="CR21" s="46"/>
     </row>
     <row r="22" spans="2:102" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B22" s="189" t="s">
+      <c r="B22" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="190" t="s">
+      <c r="C22" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="191" t="s">
+      <c r="D22" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="187"/>
+      <c r="E22" s="171"/>
       <c r="H22" s="52"/>
       <c r="I22" s="56"/>
       <c r="J22" s="52"/>
@@ -5709,10 +5737,10 @@
       <c r="CR22" s="46"/>
     </row>
     <row r="23" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B23" s="175"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="179"/>
-      <c r="E23" s="176"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="160"/>
       <c r="H23" s="52"/>
       <c r="I23" s="56"/>
       <c r="J23" s="52"/>
@@ -5723,10 +5751,10 @@
       <c r="CR23" s="46"/>
     </row>
     <row r="24" spans="2:102" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="192"/>
-      <c r="C24" s="193"/>
-      <c r="D24" s="194"/>
-      <c r="E24" s="195"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="179"/>
       <c r="H24" s="52"/>
       <c r="I24" s="56"/>
       <c r="J24" s="63"/>
@@ -5783,11 +5811,13 @@
     <sortCondition ref="E8:E21"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="CV3:CX3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CB3:CD3"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="CO3:CR3"/>
     <mergeCell ref="CO5:CP5"/>
     <mergeCell ref="BE5:BG5"/>
     <mergeCell ref="AA5:AC5"/>
@@ -5795,13 +5825,11 @@
     <mergeCell ref="AN5:AP5"/>
     <mergeCell ref="AS5:AU5"/>
     <mergeCell ref="AY5:BA5"/>
-    <mergeCell ref="CV3:CX3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CB3:CD3"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="CO3:CR3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="U5:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="63">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -1031,7 +1031,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1334,9 +1334,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="5" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1368,9 +1365,6 @@
     </xf>
     <xf numFmtId="44" fontId="5" fillId="17" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1446,6 +1440,30 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1479,43 +1497,19 @@
     <xf numFmtId="44" fontId="15" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1880,11 +1874,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="180" t="s">
+      <c r="B5" s="186" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -2075,22 +2069,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="187" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="182" t="s">
+      <c r="D3" s="188" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="183"/>
-      <c r="F3" s="184"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="190"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2762,9 +2756,9 @@
   </sheetPr>
   <dimension ref="A2:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2780,57 +2774,57 @@
     <col min="9" max="9" width="11.42578125" style="24"/>
     <col min="10" max="10" width="13.28515625" style="93" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" style="24"/>
-    <col min="12" max="12" width="17" style="196" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="178" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" style="24"/>
-    <col min="14" max="14" width="17" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" style="178" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="11.42578125" style="24"/>
     <col min="17" max="17" width="14.85546875" style="88" customWidth="1"/>
     <col min="18" max="18" width="17.140625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
     </row>
     <row r="3" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="182" t="s">
+      <c r="D3" s="188" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="183"/>
-      <c r="F3" s="184"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="190"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:18" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="185" t="s">
+      <c r="B4" s="191" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="186" t="s">
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="192" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
-      <c r="K4" s="187"/>
-      <c r="L4" s="187"/>
-      <c r="M4" s="188"/>
-      <c r="N4" s="137"/>
-      <c r="O4" s="137"/>
-      <c r="P4" s="137"/>
-      <c r="Q4" s="189" t="s">
+      <c r="I4" s="193"/>
+      <c r="J4" s="193"/>
+      <c r="K4" s="193"/>
+      <c r="L4" s="193"/>
+      <c r="M4" s="194"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="190"/>
+      <c r="R4" s="196"/>
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -2854,31 +2848,31 @@
       <c r="G5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="129" t="s">
+      <c r="H5" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="130" t="s">
+      <c r="I5" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="131" t="s">
+      <c r="J5" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="130" t="s">
+      <c r="K5" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="132" t="s">
+      <c r="L5" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="133" t="s">
+      <c r="M5" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="140" t="s">
+      <c r="N5" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="133" t="s">
+      <c r="O5" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="138"/>
+      <c r="P5" s="137"/>
       <c r="Q5" s="90" t="s">
         <v>59</v>
       </c>
@@ -2920,9 +2914,9 @@
       <c r="K6" s="35">
         <v>250</v>
       </c>
-      <c r="L6" s="197"/>
+      <c r="L6" s="179"/>
       <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
+      <c r="N6" s="179"/>
       <c r="O6" s="35"/>
       <c r="P6" s="35"/>
       <c r="Q6" s="16">
@@ -2966,9 +2960,9 @@
       <c r="K7" s="38">
         <v>268</v>
       </c>
-      <c r="L7" s="198"/>
+      <c r="L7" s="180"/>
       <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
+      <c r="N7" s="180"/>
       <c r="O7" s="123"/>
       <c r="P7" s="123"/>
       <c r="Q7" s="8">
@@ -3012,9 +3006,9 @@
       <c r="K8" s="39">
         <v>291</v>
       </c>
-      <c r="L8" s="199"/>
+      <c r="L8" s="181"/>
       <c r="M8" s="124"/>
-      <c r="N8" s="124"/>
+      <c r="N8" s="181"/>
       <c r="O8" s="124"/>
       <c r="P8" s="124"/>
       <c r="Q8" s="9">
@@ -3058,9 +3052,9 @@
       <c r="K9" s="39">
         <v>312</v>
       </c>
-      <c r="L9" s="199"/>
+      <c r="L9" s="181"/>
       <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
+      <c r="N9" s="181"/>
       <c r="O9" s="124"/>
       <c r="P9" s="124"/>
       <c r="Q9" s="9">
@@ -3104,9 +3098,9 @@
       <c r="K10" s="39">
         <v>333</v>
       </c>
-      <c r="L10" s="199"/>
+      <c r="L10" s="181"/>
       <c r="M10" s="124"/>
-      <c r="N10" s="124"/>
+      <c r="N10" s="181"/>
       <c r="O10" s="124"/>
       <c r="P10" s="124"/>
       <c r="Q10" s="9">
@@ -3150,9 +3144,9 @@
       <c r="K11" s="39">
         <v>357</v>
       </c>
-      <c r="L11" s="199"/>
+      <c r="L11" s="181"/>
       <c r="M11" s="124"/>
-      <c r="N11" s="124"/>
+      <c r="N11" s="181"/>
       <c r="O11" s="124"/>
       <c r="P11" s="124"/>
       <c r="Q11" s="9">
@@ -3196,9 +3190,9 @@
       <c r="K12" s="39">
         <v>375</v>
       </c>
-      <c r="L12" s="199"/>
+      <c r="L12" s="181"/>
       <c r="M12" s="124"/>
-      <c r="N12" s="124"/>
+      <c r="N12" s="181"/>
       <c r="O12" s="124"/>
       <c r="P12" s="124"/>
       <c r="Q12" s="9">
@@ -3242,9 +3236,9 @@
       <c r="K13" s="39">
         <v>391</v>
       </c>
-      <c r="L13" s="199"/>
+      <c r="L13" s="181"/>
       <c r="M13" s="124"/>
-      <c r="N13" s="124"/>
+      <c r="N13" s="181"/>
       <c r="O13" s="124"/>
       <c r="P13" s="124"/>
       <c r="Q13" s="9">
@@ -3288,9 +3282,9 @@
       <c r="K14" s="39">
         <v>416</v>
       </c>
-      <c r="L14" s="199"/>
+      <c r="L14" s="181"/>
       <c r="M14" s="124"/>
-      <c r="N14" s="124"/>
+      <c r="N14" s="181"/>
       <c r="O14" s="124"/>
       <c r="P14" s="124"/>
       <c r="Q14" s="9">
@@ -3334,9 +3328,9 @@
       <c r="K15" s="39">
         <v>439</v>
       </c>
-      <c r="L15" s="199"/>
+      <c r="L15" s="181"/>
       <c r="M15" s="124"/>
-      <c r="N15" s="124"/>
+      <c r="N15" s="181"/>
       <c r="O15" s="124"/>
       <c r="P15" s="124"/>
       <c r="Q15" s="9">
@@ -3380,9 +3374,9 @@
       <c r="K16" s="39">
         <v>453</v>
       </c>
-      <c r="L16" s="199"/>
+      <c r="L16" s="181"/>
       <c r="M16" s="124"/>
-      <c r="N16" s="124"/>
+      <c r="N16" s="181"/>
       <c r="O16" s="124"/>
       <c r="P16" s="124"/>
       <c r="Q16" s="9">
@@ -3426,9 +3420,9 @@
       <c r="K17" s="80">
         <v>469</v>
       </c>
-      <c r="L17" s="200"/>
+      <c r="L17" s="182"/>
       <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
+      <c r="N17" s="182"/>
       <c r="O17" s="125"/>
       <c r="P17" s="125"/>
       <c r="Q17" s="43">
@@ -3472,11 +3466,11 @@
       <c r="K18" s="39">
         <v>515</v>
       </c>
-      <c r="L18" s="201"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="141"/>
-      <c r="O18" s="142"/>
-      <c r="P18" s="139"/>
+      <c r="L18" s="183"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="183"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="138"/>
       <c r="Q18" s="9">
         <v>1392</v>
       </c>
@@ -3518,11 +3512,11 @@
       <c r="K19" s="39">
         <v>525</v>
       </c>
-      <c r="L19" s="201"/>
-      <c r="M19" s="142"/>
-      <c r="N19" s="141"/>
-      <c r="O19" s="142"/>
-      <c r="P19" s="139"/>
+      <c r="L19" s="183"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="183"/>
+      <c r="O19" s="140"/>
+      <c r="P19" s="138"/>
       <c r="Q19" s="9">
         <v>1392</v>
       </c>
@@ -3564,11 +3558,11 @@
       <c r="K20" s="39">
         <v>544</v>
       </c>
-      <c r="L20" s="201"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="141"/>
-      <c r="O20" s="142"/>
-      <c r="P20" s="139"/>
+      <c r="L20" s="183"/>
+      <c r="M20" s="140"/>
+      <c r="N20" s="183"/>
+      <c r="O20" s="140"/>
+      <c r="P20" s="138"/>
       <c r="Q20" s="9">
         <v>0</v>
       </c>
@@ -3610,11 +3604,11 @@
       <c r="K21" s="39">
         <v>569</v>
       </c>
-      <c r="L21" s="201"/>
-      <c r="M21" s="142"/>
-      <c r="N21" s="141"/>
-      <c r="O21" s="142"/>
-      <c r="P21" s="139"/>
+      <c r="L21" s="183"/>
+      <c r="M21" s="140"/>
+      <c r="N21" s="183"/>
+      <c r="O21" s="140"/>
+      <c r="P21" s="138"/>
       <c r="Q21" s="9">
         <v>0</v>
       </c>
@@ -3654,11 +3648,11 @@
       <c r="K22" s="39">
         <v>595</v>
       </c>
-      <c r="L22" s="201"/>
-      <c r="M22" s="142"/>
-      <c r="N22" s="141"/>
-      <c r="O22" s="142"/>
-      <c r="P22" s="139"/>
+      <c r="L22" s="183"/>
+      <c r="M22" s="140"/>
+      <c r="N22" s="183"/>
+      <c r="O22" s="140"/>
+      <c r="P22" s="138"/>
       <c r="Q22" s="9">
         <v>0</v>
       </c>
@@ -3700,11 +3694,11 @@
       <c r="K23" s="39">
         <v>635</v>
       </c>
-      <c r="L23" s="201"/>
-      <c r="M23" s="142"/>
-      <c r="N23" s="141"/>
-      <c r="O23" s="142"/>
-      <c r="P23" s="139"/>
+      <c r="L23" s="183"/>
+      <c r="M23" s="140"/>
+      <c r="N23" s="183"/>
+      <c r="O23" s="140"/>
+      <c r="P23" s="138"/>
       <c r="Q23" s="9">
         <v>0</v>
       </c>
@@ -3725,26 +3719,38 @@
       <c r="D24" s="43">
         <v>1392</v>
       </c>
-      <c r="E24" s="143">
+      <c r="E24" s="141">
         <v>744</v>
       </c>
-      <c r="F24" s="43"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="134"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="202">
+      <c r="F24" s="43">
+        <v>1856</v>
+      </c>
+      <c r="G24" s="77">
+        <v>749</v>
+      </c>
+      <c r="H24" s="133"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="184">
         <v>1624</v>
       </c>
       <c r="M24" s="127">
         <v>746</v>
       </c>
-      <c r="N24" s="128"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="139"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="184">
+        <v>986</v>
+      </c>
+      <c r="O24" s="127">
+        <v>750</v>
+      </c>
+      <c r="P24" s="138"/>
+      <c r="Q24" s="9">
+        <v>0</v>
+      </c>
+      <c r="R24" s="42" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
@@ -3758,11 +3764,11 @@
       <c r="I25" s="37"/>
       <c r="J25" s="20"/>
       <c r="K25" s="39"/>
-      <c r="L25" s="202"/>
+      <c r="L25" s="184"/>
       <c r="M25" s="127"/>
-      <c r="N25" s="128"/>
+      <c r="N25" s="184"/>
       <c r="O25" s="127"/>
-      <c r="P25" s="139"/>
+      <c r="P25" s="138"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="42"/>
     </row>
@@ -3778,11 +3784,11 @@
       <c r="I26" s="37"/>
       <c r="J26" s="20"/>
       <c r="K26" s="39"/>
-      <c r="L26" s="202"/>
+      <c r="L26" s="184"/>
       <c r="M26" s="127"/>
-      <c r="N26" s="128"/>
+      <c r="N26" s="184"/>
       <c r="O26" s="127"/>
-      <c r="P26" s="139"/>
+      <c r="P26" s="138"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="42"/>
     </row>
@@ -3798,11 +3804,11 @@
       <c r="I27" s="37"/>
       <c r="J27" s="20"/>
       <c r="K27" s="39"/>
-      <c r="L27" s="202"/>
+      <c r="L27" s="184"/>
       <c r="M27" s="127"/>
-      <c r="N27" s="128"/>
+      <c r="N27" s="184"/>
       <c r="O27" s="127"/>
-      <c r="P27" s="139"/>
+      <c r="P27" s="138"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="42"/>
     </row>
@@ -3818,11 +3824,11 @@
       <c r="I28" s="37"/>
       <c r="J28" s="20"/>
       <c r="K28" s="39"/>
-      <c r="L28" s="202"/>
+      <c r="L28" s="184"/>
       <c r="M28" s="127"/>
-      <c r="N28" s="128"/>
+      <c r="N28" s="184"/>
       <c r="O28" s="127"/>
-      <c r="P28" s="139"/>
+      <c r="P28" s="138"/>
       <c r="Q28" s="9"/>
       <c r="R28" s="42"/>
     </row>
@@ -3838,11 +3844,11 @@
       <c r="I29" s="37"/>
       <c r="J29" s="20"/>
       <c r="K29" s="39"/>
-      <c r="L29" s="202"/>
+      <c r="L29" s="184"/>
       <c r="M29" s="127"/>
-      <c r="N29" s="128"/>
+      <c r="N29" s="184"/>
       <c r="O29" s="127"/>
-      <c r="P29" s="139"/>
+      <c r="P29" s="138"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="42"/>
     </row>
@@ -3858,11 +3864,11 @@
       <c r="I30" s="37"/>
       <c r="J30" s="20"/>
       <c r="K30" s="39"/>
-      <c r="L30" s="202"/>
+      <c r="L30" s="184"/>
       <c r="M30" s="127"/>
-      <c r="N30" s="128"/>
+      <c r="N30" s="184"/>
       <c r="O30" s="127"/>
-      <c r="P30" s="139"/>
+      <c r="P30" s="138"/>
       <c r="Q30" s="9"/>
       <c r="R30" s="42"/>
     </row>
@@ -3878,11 +3884,11 @@
       <c r="I31" s="37"/>
       <c r="J31" s="20"/>
       <c r="K31" s="39"/>
-      <c r="L31" s="202"/>
+      <c r="L31" s="184"/>
       <c r="M31" s="127"/>
-      <c r="N31" s="128"/>
+      <c r="N31" s="184"/>
       <c r="O31" s="127"/>
-      <c r="P31" s="139"/>
+      <c r="P31" s="138"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="42"/>
     </row>
@@ -3898,11 +3904,11 @@
       <c r="I32" s="37"/>
       <c r="J32" s="20"/>
       <c r="K32" s="39"/>
-      <c r="L32" s="202"/>
+      <c r="L32" s="184"/>
       <c r="M32" s="127"/>
-      <c r="N32" s="128"/>
+      <c r="N32" s="184"/>
       <c r="O32" s="127"/>
-      <c r="P32" s="139"/>
+      <c r="P32" s="138"/>
       <c r="Q32" s="9"/>
       <c r="R32" s="42"/>
     </row>
@@ -3918,11 +3924,11 @@
       <c r="I33" s="37"/>
       <c r="J33" s="20"/>
       <c r="K33" s="39"/>
-      <c r="L33" s="202"/>
+      <c r="L33" s="184"/>
       <c r="M33" s="127"/>
-      <c r="N33" s="128"/>
+      <c r="N33" s="184"/>
       <c r="O33" s="127"/>
-      <c r="P33" s="139"/>
+      <c r="P33" s="138"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="42"/>
     </row>
@@ -3938,11 +3944,11 @@
       <c r="I34" s="37"/>
       <c r="J34" s="20"/>
       <c r="K34" s="39"/>
-      <c r="L34" s="202"/>
+      <c r="L34" s="184"/>
       <c r="M34" s="127"/>
-      <c r="N34" s="128"/>
+      <c r="N34" s="184"/>
       <c r="O34" s="127"/>
-      <c r="P34" s="139"/>
+      <c r="P34" s="138"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="42"/>
     </row>
@@ -3958,11 +3964,11 @@
       <c r="I35" s="37"/>
       <c r="J35" s="20"/>
       <c r="K35" s="39"/>
-      <c r="L35" s="202"/>
+      <c r="L35" s="184"/>
       <c r="M35" s="127"/>
-      <c r="N35" s="128"/>
+      <c r="N35" s="184"/>
       <c r="O35" s="127"/>
-      <c r="P35" s="139"/>
+      <c r="P35" s="138"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="42"/>
     </row>
@@ -3978,9 +3984,9 @@
       <c r="I36" s="37"/>
       <c r="J36" s="20"/>
       <c r="K36" s="39"/>
-      <c r="L36" s="203"/>
+      <c r="L36" s="185"/>
       <c r="M36" s="126"/>
-      <c r="N36" s="126"/>
+      <c r="N36" s="185"/>
       <c r="O36" s="126"/>
       <c r="P36" s="126"/>
       <c r="Q36" s="9"/>
@@ -3998,9 +4004,9 @@
       <c r="I37" s="37"/>
       <c r="J37" s="20"/>
       <c r="K37" s="39"/>
-      <c r="L37" s="199"/>
+      <c r="L37" s="181"/>
       <c r="M37" s="124"/>
-      <c r="N37" s="124"/>
+      <c r="N37" s="181"/>
       <c r="O37" s="124"/>
       <c r="P37" s="124"/>
       <c r="Q37" s="9"/>
@@ -4018,9 +4024,9 @@
       <c r="I38" s="37"/>
       <c r="J38" s="20"/>
       <c r="K38" s="39"/>
-      <c r="L38" s="199"/>
+      <c r="L38" s="181"/>
       <c r="M38" s="124"/>
-      <c r="N38" s="124"/>
+      <c r="N38" s="181"/>
       <c r="O38" s="124"/>
       <c r="P38" s="124"/>
       <c r="Q38" s="9"/>
@@ -4115,54 +4121,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:102" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="BK3" s="180" t="s">
+      <c r="BK3" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="BL3" s="180"/>
-      <c r="BM3" s="180"/>
+      <c r="BL3" s="186"/>
+      <c r="BM3" s="186"/>
       <c r="BN3" s="60"/>
-      <c r="BQ3" s="180" t="s">
+      <c r="BQ3" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="BR3" s="180"/>
-      <c r="BS3" s="180"/>
+      <c r="BR3" s="186"/>
+      <c r="BS3" s="186"/>
       <c r="BT3" s="60"/>
-      <c r="BW3" s="180" t="s">
+      <c r="BW3" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="BX3" s="180"/>
-      <c r="BY3" s="180"/>
+      <c r="BX3" s="186"/>
+      <c r="BY3" s="186"/>
       <c r="BZ3" s="60"/>
-      <c r="CB3" s="180" t="s">
+      <c r="CB3" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="CC3" s="180"/>
-      <c r="CD3" s="180"/>
+      <c r="CC3" s="186"/>
+      <c r="CD3" s="186"/>
       <c r="CE3" s="60"/>
-      <c r="CI3" s="180" t="s">
+      <c r="CI3" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="CJ3" s="180"/>
-      <c r="CK3" s="180"/>
+      <c r="CJ3" s="186"/>
+      <c r="CK3" s="186"/>
       <c r="CL3" s="60"/>
       <c r="CM3" s="59"/>
-      <c r="CO3" s="180" t="s">
+      <c r="CO3" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="CP3" s="180"/>
-      <c r="CQ3" s="180"/>
-      <c r="CR3" s="180"/>
-      <c r="CV3" s="180" t="s">
+      <c r="CP3" s="186"/>
+      <c r="CQ3" s="186"/>
+      <c r="CR3" s="186"/>
+      <c r="CV3" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="CW3" s="180"/>
-      <c r="CX3" s="180"/>
+      <c r="CW3" s="186"/>
+      <c r="CX3" s="186"/>
     </row>
     <row r="4" spans="2:102" x14ac:dyDescent="0.25">
-      <c r="B4" s="146"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="149"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="147"/>
       <c r="BN4" s="47"/>
       <c r="BT4" s="47"/>
       <c r="BZ4" s="47"/>
@@ -4171,66 +4177,66 @@
       <c r="CX4" s="47"/>
     </row>
     <row r="5" spans="2:102" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="191" t="s">
+      <c r="B5" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="192"/>
-      <c r="D5" s="192"/>
-      <c r="E5" s="150"/>
-      <c r="H5" s="180" t="s">
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="148"/>
+      <c r="H5" s="186" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="180"/>
-      <c r="J5" s="180"/>
+      <c r="I5" s="186"/>
+      <c r="J5" s="186"/>
       <c r="K5" s="60"/>
-      <c r="O5" s="180" t="s">
+      <c r="O5" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="180"/>
-      <c r="Q5" s="180"/>
+      <c r="P5" s="186"/>
+      <c r="Q5" s="186"/>
       <c r="R5" s="60"/>
-      <c r="U5" s="180" t="s">
+      <c r="U5" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="180"/>
-      <c r="W5" s="180"/>
+      <c r="V5" s="186"/>
+      <c r="W5" s="186"/>
       <c r="X5" s="60"/>
-      <c r="AA5" s="180" t="s">
+      <c r="AA5" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="180"/>
-      <c r="AC5" s="180"/>
+      <c r="AB5" s="186"/>
+      <c r="AC5" s="186"/>
       <c r="AD5" s="60"/>
       <c r="AE5" s="85"/>
-      <c r="AG5" s="180" t="s">
+      <c r="AG5" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="AH5" s="180"/>
-      <c r="AI5" s="180"/>
+      <c r="AH5" s="186"/>
+      <c r="AI5" s="186"/>
       <c r="AJ5" s="60"/>
-      <c r="AN5" s="180" t="s">
+      <c r="AN5" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="AO5" s="180"/>
-      <c r="AP5" s="180"/>
+      <c r="AO5" s="186"/>
+      <c r="AP5" s="186"/>
       <c r="AQ5" s="60"/>
-      <c r="AS5" s="180" t="s">
+      <c r="AS5" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="AT5" s="180"/>
-      <c r="AU5" s="180"/>
+      <c r="AT5" s="186"/>
+      <c r="AU5" s="186"/>
       <c r="AV5" s="60"/>
-      <c r="AY5" s="180" t="s">
+      <c r="AY5" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="AZ5" s="180"/>
-      <c r="BA5" s="180"/>
+      <c r="AZ5" s="186"/>
+      <c r="BA5" s="186"/>
       <c r="BB5" s="60"/>
-      <c r="BE5" s="180" t="s">
+      <c r="BE5" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="BF5" s="180"/>
-      <c r="BG5" s="180"/>
+      <c r="BF5" s="186"/>
+      <c r="BG5" s="186"/>
       <c r="BH5" s="60"/>
       <c r="BK5" s="61" t="s">
         <v>23</v>
@@ -4282,10 +4288,10 @@
       <c r="CL5" s="51">
         <v>44747</v>
       </c>
-      <c r="CO5" s="195" t="s">
+      <c r="CO5" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="CP5" s="195"/>
+      <c r="CP5" s="197"/>
       <c r="CQ5" s="45" t="s">
         <v>15</v>
       </c>
@@ -4303,12 +4309,12 @@
       </c>
     </row>
     <row r="6" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="193" t="s">
+      <c r="B6" s="200" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="151"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="149"/>
       <c r="K6" s="47"/>
       <c r="R6" s="47"/>
       <c r="X6" s="47"/>
@@ -4340,10 +4346,10 @@
       <c r="CX6" s="53"/>
     </row>
     <row r="7" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="152"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="151"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="149"/>
       <c r="K7" s="47"/>
       <c r="O7" s="44" t="s">
         <v>25</v>
@@ -4498,16 +4504,16 @@
       </c>
     </row>
     <row r="8" spans="2:102" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="156">
+      <c r="C8" s="154">
         <v>11</v>
       </c>
-      <c r="D8" s="157" t="s">
+      <c r="D8" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="158">
+      <c r="E8" s="156">
         <v>45169</v>
       </c>
       <c r="F8" s="54"/>
@@ -4565,10 +4571,10 @@
       <c r="CX8" s="53"/>
     </row>
     <row r="9" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="159"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="160"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="158"/>
       <c r="K9" s="47"/>
       <c r="O9" s="44" t="s">
         <v>16</v>
@@ -4722,14 +4728,14 @@
       </c>
     </row>
     <row r="10" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="144"/>
-      <c r="D10" s="161" t="s">
+      <c r="C10" s="142"/>
+      <c r="D10" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="162">
+      <c r="E10" s="160">
         <v>45171</v>
       </c>
       <c r="H10" s="44" t="s">
@@ -4785,10 +4791,10 @@
       <c r="CX10" s="53"/>
     </row>
     <row r="11" spans="2:102" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="159"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="160"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="158"/>
       <c r="H11" s="62"/>
       <c r="I11" s="56"/>
       <c r="J11" s="63"/>
@@ -4947,16 +4953,16 @@
       </c>
     </row>
     <row r="12" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="164" t="s">
+      <c r="B12" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="156">
+      <c r="C12" s="154">
         <v>5</v>
       </c>
-      <c r="D12" s="157" t="s">
+      <c r="D12" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="165">
+      <c r="E12" s="163">
         <v>45177</v>
       </c>
       <c r="H12" s="44" t="s">
@@ -5017,10 +5023,10 @@
       <c r="CX12" s="53"/>
     </row>
     <row r="13" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="166"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="160"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="158"/>
       <c r="H13" s="44"/>
       <c r="I13" s="56"/>
       <c r="J13" s="45"/>
@@ -5177,16 +5183,16 @@
       </c>
     </row>
     <row r="14" spans="2:102" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="167" t="s">
+      <c r="B14" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="156">
+      <c r="C14" s="154">
         <v>7</v>
       </c>
-      <c r="D14" s="161" t="s">
+      <c r="D14" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="168">
+      <c r="E14" s="166">
         <v>45181</v>
       </c>
       <c r="H14" s="83" t="s">
@@ -5261,10 +5267,10 @@
       <c r="CX14" s="53"/>
     </row>
     <row r="15" spans="2:102" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="159"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="160"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="158"/>
       <c r="H15" s="98"/>
       <c r="I15" s="99"/>
       <c r="J15" s="100"/>
@@ -5421,14 +5427,14 @@
       </c>
     </row>
     <row r="16" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B16" s="155" t="s">
+      <c r="B16" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="156"/>
-      <c r="D16" s="161">
+      <c r="C16" s="154"/>
+      <c r="D16" s="159">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E16" s="169">
+      <c r="E16" s="167">
         <v>45190</v>
       </c>
       <c r="H16" s="44" t="s">
@@ -5497,10 +5503,10 @@
       <c r="CX16" s="46"/>
     </row>
     <row r="17" spans="2:102" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B17" s="159"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="160"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="158"/>
       <c r="H17" s="44"/>
       <c r="I17" s="57"/>
       <c r="J17" s="44"/>
@@ -5595,14 +5601,14 @@
       <c r="CX17" s="46"/>
     </row>
     <row r="18" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="170" t="s">
+      <c r="B18" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="156"/>
-      <c r="D18" s="161">
+      <c r="C18" s="154"/>
+      <c r="D18" s="159">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E18" s="171">
+      <c r="E18" s="169">
         <v>45191</v>
       </c>
       <c r="H18" s="61" t="s">
@@ -5642,10 +5648,10 @@
       <c r="CX18" s="46"/>
     </row>
     <row r="19" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B19" s="159"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="160"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="158"/>
       <c r="H19" s="52"/>
       <c r="I19" s="56"/>
       <c r="J19" s="52"/>
@@ -5673,16 +5679,16 @@
       <c r="CR19" s="46"/>
     </row>
     <row r="20" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B20" s="164" t="s">
+      <c r="B20" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="156">
+      <c r="C20" s="154">
         <v>4</v>
       </c>
-      <c r="D20" s="157" t="s">
+      <c r="D20" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="172">
+      <c r="E20" s="170">
         <v>45191</v>
       </c>
       <c r="H20" s="44" t="s">
@@ -5703,10 +5709,10 @@
       <c r="CR20" s="46"/>
     </row>
     <row r="21" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B21" s="166"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="160"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="158"/>
       <c r="H21" s="62"/>
       <c r="I21" s="56"/>
       <c r="J21" s="63"/>
@@ -5717,16 +5723,16 @@
       <c r="CR21" s="46"/>
     </row>
     <row r="22" spans="2:102" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B22" s="173" t="s">
+      <c r="B22" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="174" t="s">
+      <c r="C22" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="175" t="s">
+      <c r="D22" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="171"/>
+      <c r="E22" s="169"/>
       <c r="H22" s="52"/>
       <c r="I22" s="56"/>
       <c r="J22" s="52"/>
@@ -5737,10 +5743,10 @@
       <c r="CR22" s="46"/>
     </row>
     <row r="23" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B23" s="159"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="160"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="158"/>
       <c r="H23" s="52"/>
       <c r="I23" s="56"/>
       <c r="J23" s="52"/>
@@ -5751,10 +5757,10 @@
       <c r="CR23" s="46"/>
     </row>
     <row r="24" spans="2:102" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="176"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="179"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="176"/>
+      <c r="E24" s="177"/>
       <c r="H24" s="52"/>
       <c r="I24" s="56"/>
       <c r="J24" s="63"/>
@@ -5811,6 +5817,18 @@
     <sortCondition ref="E8:E21"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="BE5:BG5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="AS5:AU5"/>
+    <mergeCell ref="AY5:BA5"/>
     <mergeCell ref="CV3:CX3"/>
     <mergeCell ref="CI3:CK3"/>
     <mergeCell ref="CB3:CD3"/>
@@ -5818,18 +5836,6 @@
     <mergeCell ref="BQ3:BS3"/>
     <mergeCell ref="BW3:BY3"/>
     <mergeCell ref="CO3:CR3"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="BE5:BG5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AN5:AP5"/>
-    <mergeCell ref="AS5:AU5"/>
-    <mergeCell ref="AY5:BA5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="U5:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="64">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>RUBEN AMADO VEGA MURAD</t>
+  </si>
+  <si>
+    <t>FUMIGACION  CAMIONETAS     10    A  250.00  C/U</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1034,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1497,20 +1500,38 @@
     <xf numFmtId="44" fontId="15" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="16" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="14" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="14" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1521,13 +1542,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FFCC9900"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCCFF99"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFF66FF"/>
-      <color rgb="FF00FF00"/>
       <color rgb="FF66CCFF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF0066FF"/>
@@ -2756,9 +2777,9 @@
   </sheetPr>
   <dimension ref="A2:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q25" sqref="Q25"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3753,13 +3774,17 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="33"/>
+      <c r="A25" s="202">
+        <v>45159</v>
+      </c>
+      <c r="B25" s="203"/>
+      <c r="C25" s="204" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="205"/>
+      <c r="E25" s="206"/>
+      <c r="F25" s="205"/>
+      <c r="G25" s="207"/>
       <c r="H25" s="20"/>
       <c r="I25" s="37"/>
       <c r="J25" s="20"/>
@@ -4177,11 +4202,11 @@
       <c r="CX4" s="47"/>
     </row>
     <row r="5" spans="2:102" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="198" t="s">
+      <c r="B5" s="197" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
       <c r="E5" s="148"/>
       <c r="H5" s="186" t="s">
         <v>55</v>
@@ -4288,10 +4313,10 @@
       <c r="CL5" s="51">
         <v>44747</v>
       </c>
-      <c r="CO5" s="197" t="s">
+      <c r="CO5" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="CP5" s="197"/>
+      <c r="CP5" s="201"/>
       <c r="CQ5" s="45" t="s">
         <v>15</v>
       </c>
@@ -4309,11 +4334,11 @@
       </c>
     </row>
     <row r="6" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="200" t="s">
+      <c r="B6" s="199" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
       <c r="E6" s="149"/>
       <c r="K6" s="47"/>
       <c r="R6" s="47"/>
@@ -5817,11 +5842,13 @@
     <sortCondition ref="E8:E21"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="CV3:CX3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CB3:CD3"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="CO3:CR3"/>
     <mergeCell ref="CO5:CP5"/>
     <mergeCell ref="BE5:BG5"/>
     <mergeCell ref="AA5:AC5"/>
@@ -5829,13 +5856,11 @@
     <mergeCell ref="AN5:AP5"/>
     <mergeCell ref="AS5:AU5"/>
     <mergeCell ref="AY5:BA5"/>
-    <mergeCell ref="CV3:CX3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CB3:CD3"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="CO3:CR3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="U5:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="64">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -1467,6 +1467,24 @@
     <xf numFmtId="44" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="14" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="14" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1500,38 +1518,20 @@
     <xf numFmtId="44" fontId="15" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="14" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="14" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1895,11 +1895,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="186" t="s">
+      <c r="B5" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="192"/>
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -2090,22 +2090,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="187" t="s">
+      <c r="C2" s="193" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="194" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="190"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="196"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2779,7 +2779,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2804,48 +2804,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="187" t="s">
+      <c r="C2" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
     </row>
     <row r="3" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="194" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="190"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="196"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:18" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="191" t="s">
+      <c r="B4" s="197" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="192" t="s">
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="197"/>
+      <c r="G4" s="197"/>
+      <c r="H4" s="198" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="193"/>
-      <c r="J4" s="193"/>
-      <c r="K4" s="193"/>
-      <c r="L4" s="193"/>
-      <c r="M4" s="194"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="199"/>
+      <c r="K4" s="199"/>
+      <c r="L4" s="199"/>
+      <c r="M4" s="200"/>
       <c r="N4" s="136"/>
       <c r="O4" s="136"/>
       <c r="P4" s="136"/>
-      <c r="Q4" s="195" t="s">
+      <c r="Q4" s="201" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="196"/>
+      <c r="R4" s="202"/>
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -3774,17 +3774,17 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="202">
+      <c r="A25" s="186">
         <v>45159</v>
       </c>
-      <c r="B25" s="203"/>
-      <c r="C25" s="204" t="s">
+      <c r="B25" s="187"/>
+      <c r="C25" s="188" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="205"/>
-      <c r="E25" s="206"/>
-      <c r="F25" s="205"/>
-      <c r="G25" s="207"/>
+      <c r="D25" s="189"/>
+      <c r="E25" s="190"/>
+      <c r="F25" s="189"/>
+      <c r="G25" s="191"/>
       <c r="H25" s="20"/>
       <c r="I25" s="37"/>
       <c r="J25" s="20"/>
@@ -3798,17 +3798,27 @@
       <c r="R25" s="42"/>
     </row>
     <row r="26" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
+      <c r="A26" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="B26" s="7"/>
       <c r="C26" s="37"/>
       <c r="D26" s="9"/>
       <c r="E26" s="82"/>
       <c r="F26" s="9"/>
       <c r="G26" s="33"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="39"/>
+      <c r="H26" s="20">
+        <v>1856</v>
+      </c>
+      <c r="I26" s="37">
+        <v>803</v>
+      </c>
+      <c r="J26" s="20">
+        <v>1392</v>
+      </c>
+      <c r="K26" s="39">
+        <v>806</v>
+      </c>
       <c r="L26" s="184"/>
       <c r="M26" s="127"/>
       <c r="N26" s="184"/>
@@ -4146,48 +4156,48 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:102" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="BK3" s="186" t="s">
+      <c r="BK3" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="BL3" s="186"/>
-      <c r="BM3" s="186"/>
+      <c r="BL3" s="192"/>
+      <c r="BM3" s="192"/>
       <c r="BN3" s="60"/>
-      <c r="BQ3" s="186" t="s">
+      <c r="BQ3" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="BR3" s="186"/>
-      <c r="BS3" s="186"/>
+      <c r="BR3" s="192"/>
+      <c r="BS3" s="192"/>
       <c r="BT3" s="60"/>
-      <c r="BW3" s="186" t="s">
+      <c r="BW3" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="BX3" s="186"/>
-      <c r="BY3" s="186"/>
+      <c r="BX3" s="192"/>
+      <c r="BY3" s="192"/>
       <c r="BZ3" s="60"/>
-      <c r="CB3" s="186" t="s">
+      <c r="CB3" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="CC3" s="186"/>
-      <c r="CD3" s="186"/>
+      <c r="CC3" s="192"/>
+      <c r="CD3" s="192"/>
       <c r="CE3" s="60"/>
-      <c r="CI3" s="186" t="s">
+      <c r="CI3" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="CJ3" s="186"/>
-      <c r="CK3" s="186"/>
+      <c r="CJ3" s="192"/>
+      <c r="CK3" s="192"/>
       <c r="CL3" s="60"/>
       <c r="CM3" s="59"/>
-      <c r="CO3" s="186" t="s">
+      <c r="CO3" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="CP3" s="186"/>
-      <c r="CQ3" s="186"/>
-      <c r="CR3" s="186"/>
-      <c r="CV3" s="186" t="s">
+      <c r="CP3" s="192"/>
+      <c r="CQ3" s="192"/>
+      <c r="CR3" s="192"/>
+      <c r="CV3" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="CW3" s="186"/>
-      <c r="CX3" s="186"/>
+      <c r="CW3" s="192"/>
+      <c r="CX3" s="192"/>
     </row>
     <row r="4" spans="2:102" x14ac:dyDescent="0.25">
       <c r="B4" s="144"/>
@@ -4202,66 +4212,66 @@
       <c r="CX4" s="47"/>
     </row>
     <row r="5" spans="2:102" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="197" t="s">
+      <c r="B5" s="204" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="198"/>
-      <c r="D5" s="198"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="205"/>
       <c r="E5" s="148"/>
-      <c r="H5" s="186" t="s">
+      <c r="H5" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="186"/>
-      <c r="J5" s="186"/>
+      <c r="I5" s="192"/>
+      <c r="J5" s="192"/>
       <c r="K5" s="60"/>
-      <c r="O5" s="186" t="s">
+      <c r="O5" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="186"/>
-      <c r="Q5" s="186"/>
+      <c r="P5" s="192"/>
+      <c r="Q5" s="192"/>
       <c r="R5" s="60"/>
-      <c r="U5" s="186" t="s">
+      <c r="U5" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="186"/>
-      <c r="W5" s="186"/>
+      <c r="V5" s="192"/>
+      <c r="W5" s="192"/>
       <c r="X5" s="60"/>
-      <c r="AA5" s="186" t="s">
+      <c r="AA5" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="186"/>
-      <c r="AC5" s="186"/>
+      <c r="AB5" s="192"/>
+      <c r="AC5" s="192"/>
       <c r="AD5" s="60"/>
       <c r="AE5" s="85"/>
-      <c r="AG5" s="186" t="s">
+      <c r="AG5" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="AH5" s="186"/>
-      <c r="AI5" s="186"/>
+      <c r="AH5" s="192"/>
+      <c r="AI5" s="192"/>
       <c r="AJ5" s="60"/>
-      <c r="AN5" s="186" t="s">
+      <c r="AN5" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="AO5" s="186"/>
-      <c r="AP5" s="186"/>
+      <c r="AO5" s="192"/>
+      <c r="AP5" s="192"/>
       <c r="AQ5" s="60"/>
-      <c r="AS5" s="186" t="s">
+      <c r="AS5" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="AT5" s="186"/>
-      <c r="AU5" s="186"/>
+      <c r="AT5" s="192"/>
+      <c r="AU5" s="192"/>
       <c r="AV5" s="60"/>
-      <c r="AY5" s="186" t="s">
+      <c r="AY5" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="AZ5" s="186"/>
-      <c r="BA5" s="186"/>
+      <c r="AZ5" s="192"/>
+      <c r="BA5" s="192"/>
       <c r="BB5" s="60"/>
-      <c r="BE5" s="186" t="s">
+      <c r="BE5" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="BF5" s="186"/>
-      <c r="BG5" s="186"/>
+      <c r="BF5" s="192"/>
+      <c r="BG5" s="192"/>
       <c r="BH5" s="60"/>
       <c r="BK5" s="61" t="s">
         <v>23</v>
@@ -4313,10 +4323,10 @@
       <c r="CL5" s="51">
         <v>44747</v>
       </c>
-      <c r="CO5" s="201" t="s">
+      <c r="CO5" s="203" t="s">
         <v>23</v>
       </c>
-      <c r="CP5" s="201"/>
+      <c r="CP5" s="203"/>
       <c r="CQ5" s="45" t="s">
         <v>15</v>
       </c>
@@ -4334,11 +4344,11 @@
       </c>
     </row>
     <row r="6" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="199" t="s">
+      <c r="B6" s="206" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="207"/>
       <c r="E6" s="149"/>
       <c r="K6" s="47"/>
       <c r="R6" s="47"/>
@@ -5842,6 +5852,18 @@
     <sortCondition ref="E8:E21"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="BE5:BG5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="AS5:AU5"/>
+    <mergeCell ref="AY5:BA5"/>
     <mergeCell ref="CV3:CX3"/>
     <mergeCell ref="CI3:CK3"/>
     <mergeCell ref="CB3:CD3"/>
@@ -5849,18 +5871,6 @@
     <mergeCell ref="BQ3:BS3"/>
     <mergeCell ref="BW3:BY3"/>
     <mergeCell ref="CO3:CR3"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="BE5:BG5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AN5:AP5"/>
-    <mergeCell ref="AS5:AU5"/>
-    <mergeCell ref="AY5:BA5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="U5:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -1518,20 +1518,20 @@
     <xf numFmtId="44" fontId="15" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2779,7 +2779,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3803,8 +3803,12 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="37"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="82"/>
+      <c r="D26" s="9">
+        <v>1392</v>
+      </c>
+      <c r="E26" s="82">
+        <v>807</v>
+      </c>
       <c r="F26" s="9"/>
       <c r="G26" s="33"/>
       <c r="H26" s="20">
@@ -4212,11 +4216,11 @@
       <c r="CX4" s="47"/>
     </row>
     <row r="5" spans="2:102" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="204" t="s">
+      <c r="B5" s="203" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="205"/>
-      <c r="D5" s="205"/>
+      <c r="C5" s="204"/>
+      <c r="D5" s="204"/>
       <c r="E5" s="148"/>
       <c r="H5" s="192" t="s">
         <v>55</v>
@@ -4323,10 +4327,10 @@
       <c r="CL5" s="51">
         <v>44747</v>
       </c>
-      <c r="CO5" s="203" t="s">
+      <c r="CO5" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="CP5" s="203"/>
+      <c r="CP5" s="207"/>
       <c r="CQ5" s="45" t="s">
         <v>15</v>
       </c>
@@ -4344,11 +4348,11 @@
       </c>
     </row>
     <row r="6" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="206" t="s">
+      <c r="B6" s="205" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="207"/>
-      <c r="D6" s="207"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
       <c r="E6" s="149"/>
       <c r="K6" s="47"/>
       <c r="R6" s="47"/>
@@ -5852,11 +5856,13 @@
     <sortCondition ref="E8:E21"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="CV3:CX3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CB3:CD3"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="CO3:CR3"/>
     <mergeCell ref="CO5:CP5"/>
     <mergeCell ref="BE5:BG5"/>
     <mergeCell ref="AA5:AC5"/>
@@ -5864,13 +5870,11 @@
     <mergeCell ref="AN5:AP5"/>
     <mergeCell ref="AS5:AU5"/>
     <mergeCell ref="AY5:BA5"/>
-    <mergeCell ref="CV3:CX3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CB3:CD3"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="CO3:CR3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="U5:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMA    ECOPLAG   2023    " sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="68">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -222,6 +222,18 @@
   </si>
   <si>
     <t>FUMIGACION  CAMIONETAS     10    A  250.00  C/U</t>
+  </si>
+  <si>
+    <t>SEPT--2023</t>
+  </si>
+  <si>
+    <t>752  Trampas</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>21-sept-</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1046,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1518,20 +1530,35 @@
     <xf numFmtId="44" fontId="15" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2779,7 +2806,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3795,61 +3822,107 @@
       <c r="O25" s="127"/>
       <c r="P25" s="138"/>
       <c r="Q25" s="9"/>
-      <c r="R25" s="42"/>
-    </row>
-    <row r="26" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R25" s="42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="37"/>
+      <c r="B26" s="7">
+        <v>986</v>
+      </c>
+      <c r="C26" s="37">
+        <v>745</v>
+      </c>
       <c r="D26" s="9">
         <v>1392</v>
       </c>
       <c r="E26" s="82">
+        <v>744</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1856</v>
+      </c>
+      <c r="G26" s="33">
+        <v>749</v>
+      </c>
+      <c r="H26" s="20">
+        <v>0</v>
+      </c>
+      <c r="I26" s="37"/>
+      <c r="J26" s="20">
+        <v>0</v>
+      </c>
+      <c r="K26" s="39"/>
+      <c r="L26" s="184">
+        <v>3480</v>
+      </c>
+      <c r="M26" s="208" t="s">
+        <v>65</v>
+      </c>
+      <c r="N26" s="184">
+        <v>986</v>
+      </c>
+      <c r="O26" s="212">
+        <v>750</v>
+      </c>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="9">
+        <v>0</v>
+      </c>
+      <c r="R26" s="42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="7">
+        <v>986</v>
+      </c>
+      <c r="C27" s="37">
+        <v>814</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1392</v>
+      </c>
+      <c r="E27" s="82">
         <v>807</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="20">
+      <c r="F27" s="9"/>
+      <c r="G27" s="209">
+        <v>45191</v>
+      </c>
+      <c r="H27" s="20">
         <v>1856</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I27" s="37">
         <v>803</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J27" s="20">
         <v>1392</v>
       </c>
-      <c r="K26" s="39">
+      <c r="K27" s="39">
         <v>806</v>
       </c>
-      <c r="L26" s="184"/>
-      <c r="M26" s="127"/>
-      <c r="N26" s="184"/>
-      <c r="O26" s="127"/>
-      <c r="P26" s="138"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="42"/>
-    </row>
-    <row r="27" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="39"/>
       <c r="L27" s="184"/>
-      <c r="M27" s="127"/>
+      <c r="M27" s="211" t="s">
+        <v>67</v>
+      </c>
       <c r="N27" s="184"/>
-      <c r="O27" s="127"/>
+      <c r="O27" s="210">
+        <v>45191</v>
+      </c>
       <c r="P27" s="138"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="42"/>
+      <c r="Q27" s="9">
+        <v>0</v>
+      </c>
+      <c r="R27" s="42" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
@@ -4094,17 +4167,19 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H22" sqref="H22"/>
+      <selection pane="topRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="19" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="19" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="36" bestFit="1" customWidth="1"/>
@@ -4216,11 +4291,11 @@
       <c r="CX4" s="47"/>
     </row>
     <row r="5" spans="2:102" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="203" t="s">
+      <c r="B5" s="204" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="204"/>
-      <c r="D5" s="204"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="205"/>
       <c r="E5" s="148"/>
       <c r="H5" s="192" t="s">
         <v>55</v>
@@ -4327,10 +4402,10 @@
       <c r="CL5" s="51">
         <v>44747</v>
       </c>
-      <c r="CO5" s="207" t="s">
+      <c r="CO5" s="203" t="s">
         <v>23</v>
       </c>
-      <c r="CP5" s="207"/>
+      <c r="CP5" s="203"/>
       <c r="CQ5" s="45" t="s">
         <v>15</v>
       </c>
@@ -4348,11 +4423,11 @@
       </c>
     </row>
     <row r="6" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="205" t="s">
+      <c r="B6" s="206" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="206"/>
-      <c r="D6" s="206"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="207"/>
       <c r="E6" s="149"/>
       <c r="K6" s="47"/>
       <c r="R6" s="47"/>
@@ -5856,6 +5931,18 @@
     <sortCondition ref="E8:E21"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="BE5:BG5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="AS5:AU5"/>
+    <mergeCell ref="AY5:BA5"/>
     <mergeCell ref="CV3:CX3"/>
     <mergeCell ref="CI3:CK3"/>
     <mergeCell ref="CB3:CD3"/>
@@ -5863,20 +5950,9 @@
     <mergeCell ref="BQ3:BS3"/>
     <mergeCell ref="BW3:BY3"/>
     <mergeCell ref="CO3:CR3"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="BE5:BG5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AN5:AP5"/>
-    <mergeCell ref="AS5:AU5"/>
-    <mergeCell ref="AY5:BA5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="U5:W5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMA    ECOPLAG   2023    " sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="67">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -231,9 +232,6 @@
   </si>
   <si>
     <t>c</t>
-  </si>
-  <si>
-    <t>21-sept-</t>
   </si>
 </sst>
 </file>
@@ -1497,6 +1495,21 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1530,35 +1543,20 @@
     <xf numFmtId="44" fontId="15" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1922,11 +1920,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="192" t="s">
+      <c r="B5" s="197" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="192"/>
-      <c r="D5" s="192"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -2117,22 +2115,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="193" t="s">
+      <c r="C2" s="198" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="194" t="s">
+      <c r="D3" s="199" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="195"/>
-      <c r="F3" s="196"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="201"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2804,9 +2802,9 @@
   </sheetPr>
   <dimension ref="A2:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2831,48 +2829,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="193" t="s">
+      <c r="C2" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
     </row>
     <row r="3" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="194" t="s">
+      <c r="D3" s="199" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="195"/>
-      <c r="F3" s="196"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="201"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:18" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="197" t="s">
+      <c r="B4" s="202" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="197"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="197"/>
-      <c r="G4" s="197"/>
-      <c r="H4" s="198" t="s">
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="203" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="199"/>
-      <c r="J4" s="199"/>
-      <c r="K4" s="199"/>
-      <c r="L4" s="199"/>
-      <c r="M4" s="200"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="205"/>
       <c r="N4" s="136"/>
       <c r="O4" s="136"/>
       <c r="P4" s="136"/>
-      <c r="Q4" s="201" t="s">
+      <c r="Q4" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="202"/>
+      <c r="R4" s="207"/>
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -3859,13 +3857,13 @@
       <c r="L26" s="184">
         <v>3480</v>
       </c>
-      <c r="M26" s="208" t="s">
+      <c r="M26" s="192" t="s">
         <v>65</v>
       </c>
       <c r="N26" s="184">
         <v>986</v>
       </c>
-      <c r="O26" s="212">
+      <c r="O26" s="193">
         <v>750</v>
       </c>
       <c r="P26" s="138"/>
@@ -3892,9 +3890,11 @@
       <c r="E27" s="82">
         <v>807</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="209">
-        <v>45191</v>
+      <c r="F27" s="9">
+        <v>1856</v>
+      </c>
+      <c r="G27" s="195">
+        <v>823</v>
       </c>
       <c r="H27" s="20">
         <v>1856</v>
@@ -3908,13 +3908,17 @@
       <c r="K27" s="39">
         <v>806</v>
       </c>
-      <c r="L27" s="184"/>
-      <c r="M27" s="211" t="s">
-        <v>67</v>
-      </c>
-      <c r="N27" s="184"/>
-      <c r="O27" s="210">
-        <v>45191</v>
+      <c r="L27" s="184">
+        <v>1624</v>
+      </c>
+      <c r="M27" s="194">
+        <v>821</v>
+      </c>
+      <c r="N27" s="184">
+        <v>986</v>
+      </c>
+      <c r="O27" s="196">
+        <v>822</v>
       </c>
       <c r="P27" s="138"/>
       <c r="Q27" s="9">
@@ -4163,349 +4167,363 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B3:CX31"/>
+  <dimension ref="C3:DE31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
     <col min="15" max="15" width="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.28515625" style="19" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="36" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.7109375" customWidth="1"/>
-    <col min="29" max="29" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15" style="54" customWidth="1"/>
-    <col min="33" max="33" width="36" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.7109375" customWidth="1"/>
-    <col min="35" max="35" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="36" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="36" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="36" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.7109375" customWidth="1"/>
+    <col min="36" max="36" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15" style="54" customWidth="1"/>
     <col min="40" max="40" width="36" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="26.85546875" customWidth="1"/>
+    <col min="41" max="41" width="21.7109375" customWidth="1"/>
+    <col min="42" max="42" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="15" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="36" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="36" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="36" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="36" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="36" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="36" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="18.42578125" customWidth="1"/>
-    <col min="80" max="80" width="36" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="18.42578125" customWidth="1"/>
+    <col min="47" max="47" width="36" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.85546875" customWidth="1"/>
+    <col min="50" max="50" width="15" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="36" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="36" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="36" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="36" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="36" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="36" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="18.42578125" customWidth="1"/>
     <col min="87" max="87" width="36" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="17.140625" customWidth="1"/>
-    <col min="90" max="90" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="93" max="94" width="19.5703125" customWidth="1"/>
-    <col min="95" max="95" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="18.42578125" style="47" customWidth="1"/>
-    <col min="100" max="100" width="36" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="19.5703125" style="19" customWidth="1"/>
-    <col min="102" max="102" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="18.42578125" customWidth="1"/>
+    <col min="94" max="94" width="36" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="17.140625" customWidth="1"/>
+    <col min="97" max="97" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="100" max="101" width="19.5703125" customWidth="1"/>
+    <col min="102" max="102" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="18.42578125" style="47" customWidth="1"/>
+    <col min="107" max="107" width="36" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="19.5703125" style="19" customWidth="1"/>
+    <col min="109" max="109" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:102" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="BK3" s="192" t="s">
+    <row r="3" spans="3:109" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="BR3" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="BL3" s="192"/>
-      <c r="BM3" s="192"/>
-      <c r="BN3" s="60"/>
-      <c r="BQ3" s="192" t="s">
+      <c r="BS3" s="197"/>
+      <c r="BT3" s="197"/>
+      <c r="BU3" s="60"/>
+      <c r="BX3" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="BR3" s="192"/>
-      <c r="BS3" s="192"/>
-      <c r="BT3" s="60"/>
-      <c r="BW3" s="192" t="s">
+      <c r="BY3" s="197"/>
+      <c r="BZ3" s="197"/>
+      <c r="CA3" s="60"/>
+      <c r="CD3" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="BX3" s="192"/>
-      <c r="BY3" s="192"/>
-      <c r="BZ3" s="60"/>
-      <c r="CB3" s="192" t="s">
+      <c r="CE3" s="197"/>
+      <c r="CF3" s="197"/>
+      <c r="CG3" s="60"/>
+      <c r="CI3" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="CC3" s="192"/>
-      <c r="CD3" s="192"/>
-      <c r="CE3" s="60"/>
-      <c r="CI3" s="192" t="s">
+      <c r="CJ3" s="197"/>
+      <c r="CK3" s="197"/>
+      <c r="CL3" s="60"/>
+      <c r="CP3" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="CJ3" s="192"/>
-      <c r="CK3" s="192"/>
-      <c r="CL3" s="60"/>
-      <c r="CM3" s="59"/>
-      <c r="CO3" s="192" t="s">
+      <c r="CQ3" s="197"/>
+      <c r="CR3" s="197"/>
+      <c r="CS3" s="60"/>
+      <c r="CT3" s="59"/>
+      <c r="CV3" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="CP3" s="192"/>
-      <c r="CQ3" s="192"/>
-      <c r="CR3" s="192"/>
-      <c r="CV3" s="192" t="s">
+      <c r="CW3" s="197"/>
+      <c r="CX3" s="197"/>
+      <c r="CY3" s="197"/>
+      <c r="DC3" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="CW3" s="192"/>
-      <c r="CX3" s="192"/>
-    </row>
-    <row r="4" spans="2:102" x14ac:dyDescent="0.25">
-      <c r="B4" s="144"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="147"/>
-      <c r="BN4" s="47"/>
-      <c r="BT4" s="47"/>
-      <c r="BZ4" s="47"/>
-      <c r="CE4" s="47"/>
+      <c r="DD3" s="197"/>
+      <c r="DE3" s="197"/>
+    </row>
+    <row r="4" spans="3:109" x14ac:dyDescent="0.25">
+      <c r="C4" s="144"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="147"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="147"/>
+      <c r="BU4" s="47"/>
+      <c r="CA4" s="47"/>
+      <c r="CG4" s="47"/>
       <c r="CL4" s="47"/>
-      <c r="CX4" s="47"/>
-    </row>
-    <row r="5" spans="2:102" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="204" t="s">
+      <c r="CS4" s="47"/>
+      <c r="DE4" s="47"/>
+    </row>
+    <row r="5" spans="3:109" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C5" s="208" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="205"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="148"/>
-      <c r="H5" s="192" t="s">
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="F5" s="148"/>
+      <c r="I5" s="208" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="192"/>
-      <c r="J5" s="192"/>
-      <c r="K5" s="60"/>
-      <c r="O5" s="192" t="s">
+      <c r="J5" s="209"/>
+      <c r="K5" s="209"/>
+      <c r="L5" s="148"/>
+      <c r="O5" s="197" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="197"/>
+      <c r="Q5" s="197"/>
+      <c r="R5" s="60"/>
+      <c r="V5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="192"/>
-      <c r="Q5" s="192"/>
-      <c r="R5" s="60"/>
-      <c r="U5" s="192" t="s">
+      <c r="W5" s="197"/>
+      <c r="X5" s="197"/>
+      <c r="Y5" s="60"/>
+      <c r="AB5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="192"/>
-      <c r="W5" s="192"/>
-      <c r="X5" s="60"/>
-      <c r="AA5" s="192" t="s">
+      <c r="AC5" s="197"/>
+      <c r="AD5" s="197"/>
+      <c r="AE5" s="60"/>
+      <c r="AH5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="192"/>
-      <c r="AC5" s="192"/>
-      <c r="AD5" s="60"/>
-      <c r="AE5" s="85"/>
-      <c r="AG5" s="192" t="s">
+      <c r="AI5" s="197"/>
+      <c r="AJ5" s="197"/>
+      <c r="AK5" s="60"/>
+      <c r="AL5" s="85"/>
+      <c r="AN5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="AH5" s="192"/>
-      <c r="AI5" s="192"/>
-      <c r="AJ5" s="60"/>
-      <c r="AN5" s="192" t="s">
+      <c r="AO5" s="197"/>
+      <c r="AP5" s="197"/>
+      <c r="AQ5" s="60"/>
+      <c r="AU5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="AO5" s="192"/>
-      <c r="AP5" s="192"/>
-      <c r="AQ5" s="60"/>
-      <c r="AS5" s="192" t="s">
+      <c r="AV5" s="197"/>
+      <c r="AW5" s="197"/>
+      <c r="AX5" s="60"/>
+      <c r="AZ5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="AT5" s="192"/>
-      <c r="AU5" s="192"/>
-      <c r="AV5" s="60"/>
-      <c r="AY5" s="192" t="s">
+      <c r="BA5" s="197"/>
+      <c r="BB5" s="197"/>
+      <c r="BC5" s="60"/>
+      <c r="BF5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="AZ5" s="192"/>
-      <c r="BA5" s="192"/>
-      <c r="BB5" s="60"/>
-      <c r="BE5" s="192" t="s">
+      <c r="BG5" s="197"/>
+      <c r="BH5" s="197"/>
+      <c r="BI5" s="60"/>
+      <c r="BL5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="BF5" s="192"/>
-      <c r="BG5" s="192"/>
-      <c r="BH5" s="60"/>
-      <c r="BK5" s="61" t="s">
+      <c r="BM5" s="197"/>
+      <c r="BN5" s="197"/>
+      <c r="BO5" s="60"/>
+      <c r="BR5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BL5" s="61"/>
-      <c r="BM5" s="45" t="s">
+      <c r="BS5" s="61"/>
+      <c r="BT5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BN5" s="68">
+      <c r="BU5" s="68">
         <v>44861</v>
       </c>
-      <c r="BQ5" s="61" t="s">
+      <c r="BX5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BR5" s="61"/>
-      <c r="BS5" s="45" t="s">
+      <c r="BY5" s="61"/>
+      <c r="BZ5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BT5" s="68">
+      <c r="CA5" s="68">
         <v>44833</v>
       </c>
-      <c r="BW5" s="44" t="s">
+      <c r="CD5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BX5" s="44"/>
-      <c r="BY5" s="44" t="s">
+      <c r="CE5" s="44"/>
+      <c r="CF5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BZ5" s="50">
+      <c r="CG5" s="50">
         <v>44804</v>
       </c>
-      <c r="CB5" s="44" t="s">
+      <c r="CI5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="CC5" s="44"/>
-      <c r="CD5" s="44" t="s">
+      <c r="CJ5" s="44"/>
+      <c r="CK5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="CE5" s="64">
+      <c r="CL5" s="64">
         <v>44776</v>
       </c>
-      <c r="CI5" s="61" t="s">
+      <c r="CP5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="CJ5" s="61"/>
-      <c r="CK5" s="45" t="s">
+      <c r="CQ5" s="61"/>
+      <c r="CR5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CL5" s="51">
+      <c r="CS5" s="51">
         <v>44747</v>
       </c>
-      <c r="CO5" s="203" t="s">
+      <c r="CV5" s="212" t="s">
         <v>23</v>
       </c>
-      <c r="CP5" s="203"/>
-      <c r="CQ5" s="45" t="s">
+      <c r="CW5" s="212"/>
+      <c r="CX5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CR5" s="51">
+      <c r="CY5" s="51">
         <v>44686</v>
       </c>
-      <c r="CV5" s="48" t="s">
+      <c r="DC5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="CW5" s="55" t="s">
+      <c r="DD5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="CX5" s="51">
+      <c r="DE5" s="51">
         <v>44714</v>
       </c>
     </row>
-    <row r="6" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="206" t="s">
+    <row r="6" spans="3:109" ht="21" x14ac:dyDescent="0.35">
+      <c r="C6" s="210" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="207"/>
-      <c r="D6" s="207"/>
-      <c r="E6" s="149"/>
-      <c r="K6" s="47"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="149"/>
+      <c r="I6" s="210" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="211"/>
+      <c r="K6" s="211"/>
+      <c r="L6" s="149"/>
       <c r="R6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="86"/>
-      <c r="AJ6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="86"/>
       <c r="AQ6" s="47"/>
-      <c r="AV6" s="47"/>
-      <c r="BB6" s="47"/>
-      <c r="BH6" s="47"/>
-      <c r="BK6" s="44"/>
-      <c r="BL6" s="44"/>
-      <c r="BM6" s="44"/>
-      <c r="BN6" s="53"/>
-      <c r="BQ6" s="44"/>
+      <c r="AX6" s="47"/>
+      <c r="BC6" s="47"/>
+      <c r="BI6" s="47"/>
+      <c r="BO6" s="47"/>
       <c r="BR6" s="44"/>
       <c r="BS6" s="44"/>
-      <c r="BT6" s="53"/>
-      <c r="CI6" s="62"/>
-      <c r="CJ6" s="62"/>
-      <c r="CK6" s="63"/>
-      <c r="CL6" s="53"/>
-      <c r="CO6" s="44"/>
-      <c r="CP6" s="44"/>
-      <c r="CQ6" s="44"/>
-      <c r="CR6" s="46"/>
-      <c r="CV6" s="52"/>
-      <c r="CW6" s="56"/>
-      <c r="CX6" s="53"/>
-    </row>
-    <row r="7" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="150"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="149"/>
-      <c r="K7" s="47"/>
-      <c r="O7" s="44" t="s">
+      <c r="BT6" s="44"/>
+      <c r="BU6" s="53"/>
+      <c r="BX6" s="44"/>
+      <c r="BY6" s="44"/>
+      <c r="BZ6" s="44"/>
+      <c r="CA6" s="53"/>
+      <c r="CP6" s="62"/>
+      <c r="CQ6" s="62"/>
+      <c r="CR6" s="63"/>
+      <c r="CS6" s="53"/>
+      <c r="CV6" s="44"/>
+      <c r="CW6" s="44"/>
+      <c r="CX6" s="44"/>
+      <c r="CY6" s="46"/>
+      <c r="DC6" s="52"/>
+      <c r="DD6" s="56"/>
+      <c r="DE6" s="53"/>
+    </row>
+    <row r="7" spans="3:109" ht="21" x14ac:dyDescent="0.35">
+      <c r="C7" s="150"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="149"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="149"/>
+      <c r="R7" s="47"/>
+      <c r="V7" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44" t="s">
+      <c r="W7" s="44"/>
+      <c r="X7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="51">
+      <c r="Y7" s="51">
         <v>45111</v>
       </c>
-      <c r="U7" s="44" t="s">
+      <c r="AB7" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44" t="s">
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="X7" s="51">
+      <c r="AE7" s="51">
         <v>45083</v>
       </c>
-      <c r="AA7" s="44" t="s">
+      <c r="AH7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44" t="s">
+      <c r="AI7" s="44"/>
+      <c r="AJ7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AD7" s="50">
+      <c r="AK7" s="50">
         <v>45049</v>
       </c>
-      <c r="AE7" s="53"/>
-      <c r="AG7" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ7" s="50">
-        <v>45021</v>
-      </c>
+      <c r="AL7" s="53"/>
       <c r="AN7" s="44" t="s">
         <v>16</v>
       </c>
@@ -4514,446 +4532,475 @@
         <v>17</v>
       </c>
       <c r="AQ7" s="50">
+        <v>45021</v>
+      </c>
+      <c r="AU7" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV7" s="44"/>
+      <c r="AW7" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX7" s="50">
         <v>44986</v>
       </c>
-      <c r="AS7" s="44" t="s">
+      <c r="AZ7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AT7" s="44"/>
-      <c r="AU7" s="44" t="s">
+      <c r="BA7" s="44"/>
+      <c r="BB7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AV7" s="50">
+      <c r="BC7" s="50">
         <v>44958</v>
       </c>
-      <c r="AY7" s="44" t="s">
+      <c r="BF7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AZ7" s="44"/>
-      <c r="BA7" s="44" t="s">
+      <c r="BG7" s="44"/>
+      <c r="BH7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BB7" s="50">
+      <c r="BI7" s="50">
         <v>44930</v>
       </c>
-      <c r="BE7" s="61" t="s">
+      <c r="BL7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BF7" s="61"/>
-      <c r="BG7" s="45" t="s">
+      <c r="BM7" s="61"/>
+      <c r="BN7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BH7" s="68">
+      <c r="BO7" s="68">
         <v>44896</v>
       </c>
-      <c r="BK7" s="44" t="s">
+      <c r="BR7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BL7" s="44"/>
-      <c r="BM7" s="44" t="s">
+      <c r="BS7" s="44"/>
+      <c r="BT7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BN7" s="50">
+      <c r="BU7" s="50">
         <v>44874</v>
       </c>
-      <c r="BQ7" s="44" t="s">
+      <c r="BX7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BR7" s="44"/>
-      <c r="BS7" s="44" t="s">
+      <c r="BY7" s="44"/>
+      <c r="BZ7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BT7" s="50">
+      <c r="CA7" s="50">
         <v>44839</v>
       </c>
-      <c r="BW7" s="61" t="s">
+      <c r="CD7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BX7" s="61"/>
-      <c r="BY7" s="45" t="s">
+      <c r="CE7" s="61"/>
+      <c r="CF7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BZ7" s="68">
+      <c r="CG7" s="68">
         <v>44805</v>
       </c>
-      <c r="CB7" s="61" t="s">
+      <c r="CI7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="CC7" s="61"/>
-      <c r="CD7" s="45" t="s">
+      <c r="CJ7" s="61"/>
+      <c r="CK7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CE7" s="51">
+      <c r="CL7" s="51">
         <v>44777</v>
       </c>
-      <c r="CI7" s="44" t="s">
+      <c r="CP7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="CJ7" s="44"/>
-      <c r="CK7" s="44" t="s">
+      <c r="CQ7" s="44"/>
+      <c r="CR7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="CL7" s="64">
+      <c r="CS7" s="64">
         <v>44748</v>
       </c>
-      <c r="CO7" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="CP7" s="44"/>
-      <c r="CQ7" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="CR7" s="49">
-        <v>44691</v>
-      </c>
-      <c r="CS7" s="54"/>
       <c r="CV7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="CW7" s="57" t="s">
+      <c r="CW7" s="44"/>
+      <c r="CX7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="CX7" s="49">
+      <c r="CY7" s="49">
+        <v>44691</v>
+      </c>
+      <c r="CZ7" s="54"/>
+      <c r="DC7" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="DD7" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="DE7" s="49">
         <v>44719</v>
       </c>
     </row>
-    <row r="8" spans="2:102" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="153" t="s">
+    <row r="8" spans="3:109" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="154">
+      <c r="D8" s="154"/>
+      <c r="E8" s="155" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="156">
+        <v>45197</v>
+      </c>
+      <c r="G8" s="54"/>
+      <c r="I8" s="153" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="154">
         <v>11</v>
       </c>
-      <c r="D8" s="155" t="s">
+      <c r="K8" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="156">
+      <c r="L8" s="156">
         <v>45169</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="H8" s="44" t="s">
+      <c r="M8" s="54"/>
+      <c r="O8" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="45">
+      <c r="P8" s="57"/>
+      <c r="Q8" s="45">
         <v>0.66666666666666663</v>
       </c>
-      <c r="K8" s="64"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="53"/>
-      <c r="U8" s="62"/>
+      <c r="R8" s="64"/>
       <c r="V8" s="62"/>
-      <c r="W8" s="63"/>
-      <c r="X8" s="53"/>
-      <c r="AA8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="53"/>
       <c r="AB8" s="62"/>
-      <c r="AC8" s="63"/>
-      <c r="AD8" s="53"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="63"/>
       <c r="AE8" s="53"/>
-      <c r="AG8" s="62"/>
       <c r="AH8" s="62"/>
-      <c r="AI8" s="63"/>
-      <c r="AJ8" s="53"/>
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
       <c r="AN8" s="62"/>
       <c r="AO8" s="62"/>
       <c r="AP8" s="63"/>
       <c r="AQ8" s="53"/>
-      <c r="AS8" s="62"/>
-      <c r="AT8" s="62"/>
-      <c r="AU8" s="63"/>
-      <c r="AV8" s="53"/>
-      <c r="AY8" s="62"/>
+      <c r="AU8" s="62"/>
+      <c r="AV8" s="62"/>
+      <c r="AW8" s="63"/>
+      <c r="AX8" s="53"/>
       <c r="AZ8" s="62"/>
-      <c r="BA8" s="63"/>
-      <c r="BB8" s="53"/>
-      <c r="BE8" s="44"/>
-      <c r="BF8" s="44"/>
-      <c r="BG8" s="44"/>
-      <c r="BH8" s="53"/>
-      <c r="CI8" s="52"/>
-      <c r="CJ8" s="52"/>
-      <c r="CK8" s="52"/>
-      <c r="CL8" s="53"/>
-      <c r="CO8" s="44"/>
-      <c r="CP8" s="44"/>
-      <c r="CQ8" s="44"/>
-      <c r="CR8" s="46"/>
-      <c r="CV8" s="52"/>
-      <c r="CW8" s="56"/>
-      <c r="CX8" s="53"/>
-    </row>
-    <row r="9" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="157"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="143"/>
-      <c r="E9" s="158"/>
-      <c r="K9" s="47"/>
-      <c r="O9" s="44" t="s">
+      <c r="BA8" s="62"/>
+      <c r="BB8" s="63"/>
+      <c r="BC8" s="53"/>
+      <c r="BF8" s="62"/>
+      <c r="BG8" s="62"/>
+      <c r="BH8" s="63"/>
+      <c r="BI8" s="53"/>
+      <c r="BL8" s="44"/>
+      <c r="BM8" s="44"/>
+      <c r="BN8" s="44"/>
+      <c r="BO8" s="53"/>
+      <c r="CP8" s="52"/>
+      <c r="CQ8" s="52"/>
+      <c r="CR8" s="52"/>
+      <c r="CS8" s="53"/>
+      <c r="CV8" s="44"/>
+      <c r="CW8" s="44"/>
+      <c r="CX8" s="44"/>
+      <c r="CY8" s="46"/>
+      <c r="DC8" s="52"/>
+      <c r="DD8" s="56"/>
+      <c r="DE8" s="53"/>
+    </row>
+    <row r="9" spans="3:109" ht="21" x14ac:dyDescent="0.35">
+      <c r="C9" s="157"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="158"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="158"/>
+      <c r="R9" s="47"/>
+      <c r="V9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44" t="s">
+      <c r="W9" s="44"/>
+      <c r="X9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="50">
+      <c r="Y9" s="50">
         <v>45112</v>
       </c>
-      <c r="U9" s="44" t="s">
+      <c r="AB9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44" t="s">
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="X9" s="50">
+      <c r="AE9" s="50">
         <v>45084</v>
       </c>
-      <c r="AA9" s="44" t="s">
+      <c r="AH9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="44" t="s">
+      <c r="AI9" s="44"/>
+      <c r="AJ9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AD9" s="51">
+      <c r="AK9" s="51">
         <v>45055</v>
       </c>
-      <c r="AE9" s="53"/>
-      <c r="AG9" s="44" t="s">
+      <c r="AL9" s="53"/>
+      <c r="AN9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AH9" s="44"/>
-      <c r="AI9" s="44" t="s">
+      <c r="AO9" s="44"/>
+      <c r="AP9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AJ9" s="51">
+      <c r="AQ9" s="51">
         <v>45027</v>
       </c>
-      <c r="AN9" s="61" t="s">
+      <c r="AU9" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AO9" s="61"/>
-      <c r="AP9" s="45" t="s">
+      <c r="AV9" s="61"/>
+      <c r="AW9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AQ9" s="68">
+      <c r="AX9" s="68">
         <v>44987</v>
       </c>
-      <c r="AS9" s="61" t="s">
+      <c r="AZ9" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AT9" s="61"/>
-      <c r="AU9" s="45" t="s">
+      <c r="BA9" s="61"/>
+      <c r="BB9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AV9" s="68">
+      <c r="BC9" s="68">
         <v>44959</v>
       </c>
-      <c r="AY9" s="61" t="s">
+      <c r="BF9" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AZ9" s="61"/>
-      <c r="BA9" s="45" t="s">
+      <c r="BG9" s="61"/>
+      <c r="BH9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BB9" s="68">
+      <c r="BI9" s="68">
         <v>44931</v>
       </c>
-      <c r="BE9" s="44" t="s">
+      <c r="BL9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BF9" s="44"/>
-      <c r="BG9" s="44" t="s">
+      <c r="BM9" s="44"/>
+      <c r="BN9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BH9" s="50">
+      <c r="BO9" s="50">
         <v>44902</v>
       </c>
-      <c r="BK9" s="44" t="s">
+      <c r="BR9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="BL9" s="44"/>
-      <c r="BM9" s="44" t="s">
+      <c r="BS9" s="44"/>
+      <c r="BT9" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="BN9" s="69">
+      <c r="BU9" s="69">
         <v>44875</v>
       </c>
-      <c r="BQ9" s="44" t="s">
+      <c r="BX9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="BR9" s="44"/>
-      <c r="BS9" s="44" t="s">
+      <c r="BY9" s="44"/>
+      <c r="BZ9" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="BT9" s="69">
+      <c r="CA9" s="69">
         <v>44840</v>
       </c>
-      <c r="BW9" s="44" t="s">
+      <c r="CD9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="BX9" s="44"/>
-      <c r="BY9" s="44" t="s">
+      <c r="CE9" s="44"/>
+      <c r="CF9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="BZ9" s="69">
+      <c r="CG9" s="69">
         <v>44807</v>
       </c>
-      <c r="CB9" s="44" t="s">
+      <c r="CI9" s="44" t="s">
         <v>24</v>
-      </c>
-      <c r="CC9" s="44"/>
-      <c r="CD9" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="CE9" s="50">
-        <v>44779</v>
-      </c>
-      <c r="CI9" s="44" t="s">
-        <v>25</v>
       </c>
       <c r="CJ9" s="44"/>
       <c r="CK9" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="CL9" s="50">
+        <v>44779</v>
+      </c>
+      <c r="CP9" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="CQ9" s="44"/>
+      <c r="CR9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="CL9" s="49">
+      <c r="CS9" s="49">
         <v>44749</v>
-      </c>
-      <c r="CO9" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="CP9" s="44"/>
-      <c r="CQ9" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="CR9" s="51">
-        <v>44693</v>
       </c>
       <c r="CV9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="CW9" s="57" t="s">
+      <c r="CW9" s="44"/>
+      <c r="CX9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="CX9" s="51">
+      <c r="CY9" s="51">
+        <v>44693</v>
+      </c>
+      <c r="DC9" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="DD9" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="DE9" s="51">
         <v>44721</v>
       </c>
     </row>
-    <row r="10" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B10" s="153" t="s">
+    <row r="10" spans="3:109" ht="21" x14ac:dyDescent="0.35">
+      <c r="C10" s="162" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="154"/>
+      <c r="E10" s="155" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="163">
+        <v>45205</v>
+      </c>
+      <c r="I10" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="142"/>
-      <c r="D10" s="159" t="s">
+      <c r="J10" s="142"/>
+      <c r="K10" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="160">
+      <c r="L10" s="160">
         <v>45171</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="O10" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="57">
+      <c r="P10" s="57">
         <v>11</v>
       </c>
-      <c r="J10" s="44" t="s">
+      <c r="Q10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="50"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="53"/>
-      <c r="U10" s="44"/>
+      <c r="R10" s="50"/>
       <c r="V10" s="44"/>
       <c r="W10" s="44"/>
-      <c r="X10" s="53"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="53"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="53"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
       <c r="AE10" s="53"/>
-      <c r="AG10" s="52"/>
       <c r="AH10" s="52"/>
       <c r="AI10" s="52"/>
-      <c r="AJ10" s="53"/>
+      <c r="AJ10" s="52"/>
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
       <c r="AN10" s="52"/>
       <c r="AO10" s="52"/>
       <c r="AP10" s="52"/>
       <c r="AQ10" s="53"/>
-      <c r="AS10" s="52"/>
-      <c r="AT10" s="52"/>
       <c r="AU10" s="52"/>
-      <c r="AV10" s="53"/>
-      <c r="AY10" s="52"/>
+      <c r="AV10" s="52"/>
+      <c r="AW10" s="52"/>
+      <c r="AX10" s="53"/>
       <c r="AZ10" s="52"/>
       <c r="BA10" s="52"/>
-      <c r="BB10" s="53"/>
-      <c r="BC10" s="54"/>
-      <c r="CI10" s="52"/>
-      <c r="CJ10" s="52"/>
-      <c r="CK10" s="52"/>
-      <c r="CL10" s="53"/>
-      <c r="CO10" s="44"/>
-      <c r="CP10" s="44"/>
-      <c r="CQ10" s="44"/>
-      <c r="CR10" s="46"/>
-      <c r="CV10" s="52"/>
-      <c r="CW10" s="56"/>
-      <c r="CX10" s="53"/>
-    </row>
-    <row r="11" spans="2:102" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="157"/>
-      <c r="C11" s="142"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="158"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="53"/>
-      <c r="O11" s="44" t="s">
+      <c r="BB10" s="52"/>
+      <c r="BC10" s="53"/>
+      <c r="BF10" s="52"/>
+      <c r="BG10" s="52"/>
+      <c r="BH10" s="52"/>
+      <c r="BI10" s="53"/>
+      <c r="BJ10" s="54"/>
+      <c r="CP10" s="52"/>
+      <c r="CQ10" s="52"/>
+      <c r="CR10" s="52"/>
+      <c r="CS10" s="53"/>
+      <c r="CV10" s="44"/>
+      <c r="CW10" s="44"/>
+      <c r="CX10" s="44"/>
+      <c r="CY10" s="46"/>
+      <c r="DC10" s="52"/>
+      <c r="DD10" s="56"/>
+      <c r="DE10" s="53"/>
+    </row>
+    <row r="11" spans="3:109" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C11" s="157"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="158"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="158"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="53"/>
+      <c r="V11" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44" t="s">
+      <c r="W11" s="44"/>
+      <c r="X11" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="R11" s="71">
+      <c r="Y11" s="71">
         <v>45114</v>
       </c>
-      <c r="U11" s="44" t="s">
+      <c r="AB11" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44" t="s">
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="X11" s="71">
+      <c r="AE11" s="71">
         <v>45086</v>
       </c>
-      <c r="AA11" s="83" t="s">
+      <c r="AH11" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="AB11" s="84" t="s">
+      <c r="AI11" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="AC11" s="83" t="s">
+      <c r="AJ11" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="53"/>
-      <c r="AG11" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH11" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI11" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ11" s="49"/>
+      <c r="AK11" s="49"/>
+      <c r="AL11" s="53"/>
       <c r="AN11" s="83" t="s">
         <v>24</v>
       </c>
@@ -4963,308 +5010,322 @@
       <c r="AP11" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="AQ11" s="49">
+      <c r="AQ11" s="49"/>
+      <c r="AU11" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV11" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="AW11" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX11" s="49">
         <v>44993</v>
       </c>
-      <c r="AS11" s="44" t="s">
+      <c r="AZ11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AT11" s="44"/>
-      <c r="AU11" s="44" t="s">
+      <c r="BA11" s="44"/>
+      <c r="BB11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AV11" s="51">
+      <c r="BC11" s="51">
         <v>44967</v>
       </c>
-      <c r="AY11" s="44" t="s">
+      <c r="BF11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AZ11" s="44"/>
-      <c r="BA11" s="44" t="s">
+      <c r="BG11" s="44"/>
+      <c r="BH11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BB11" s="51">
+      <c r="BI11" s="51">
         <v>44932</v>
       </c>
-      <c r="BE11" s="44" t="s">
+      <c r="BL11" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="BF11" s="44"/>
-      <c r="BG11" s="44" t="s">
+      <c r="BM11" s="44"/>
+      <c r="BN11" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="BH11" s="69">
+      <c r="BO11" s="69">
         <v>44903</v>
       </c>
-      <c r="BK11" s="44" t="s">
+      <c r="BR11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BL11" s="44"/>
-      <c r="BM11" s="44" t="s">
+      <c r="BS11" s="44"/>
+      <c r="BT11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BN11" s="51">
+      <c r="BU11" s="51">
         <v>44876</v>
       </c>
-      <c r="BQ11" s="44" t="s">
+      <c r="BX11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BR11" s="44"/>
-      <c r="BS11" s="44" t="s">
+      <c r="BY11" s="44"/>
+      <c r="BZ11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BT11" s="51">
+      <c r="CA11" s="51">
         <v>44841</v>
       </c>
-      <c r="BW11" s="44" t="s">
+      <c r="CD11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BX11" s="44"/>
-      <c r="BY11" s="44" t="s">
+      <c r="CE11" s="44"/>
+      <c r="CF11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BZ11" s="51">
+      <c r="CG11" s="51">
         <v>44812</v>
       </c>
-      <c r="CB11" s="44" t="s">
+      <c r="CI11" s="44" t="s">
         <v>25</v>
-      </c>
-      <c r="CC11" s="44"/>
-      <c r="CD11" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="CE11" s="49">
-        <v>44784</v>
-      </c>
-      <c r="CI11" s="44" t="s">
-        <v>24</v>
       </c>
       <c r="CJ11" s="44"/>
       <c r="CK11" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="CL11" s="49">
+        <v>44784</v>
+      </c>
+      <c r="CP11" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="CQ11" s="44"/>
+      <c r="CR11" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="CL11" s="50">
+      <c r="CS11" s="50">
         <v>44751</v>
       </c>
-      <c r="CO11" s="44" t="s">
+      <c r="CV11" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CP11" s="52"/>
-      <c r="CQ11" s="44" t="s">
+      <c r="CW11" s="52"/>
+      <c r="CX11" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="CR11" s="49">
+      <c r="CY11" s="49">
         <v>44695</v>
       </c>
-      <c r="CV11" s="44" t="s">
+      <c r="DC11" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="CW11" s="57" t="s">
+      <c r="DD11" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="CX11" s="50">
+      <c r="DE11" s="50">
         <v>44723</v>
       </c>
     </row>
-    <row r="12" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="162" t="s">
+    <row r="12" spans="3:109" ht="21" x14ac:dyDescent="0.35">
+      <c r="C12" s="153" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="142"/>
+      <c r="E12" s="159" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="160">
+        <v>45206</v>
+      </c>
+      <c r="I12" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="154">
+      <c r="J12" s="154">
         <v>5</v>
       </c>
-      <c r="D12" s="155" t="s">
+      <c r="K12" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="163">
+      <c r="L12" s="163">
         <v>45177</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="O12" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="45" t="s">
+      <c r="P12" s="56"/>
+      <c r="Q12" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="70"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="53"/>
-      <c r="U12" s="52"/>
+      <c r="R12" s="70"/>
       <c r="V12" s="52"/>
       <c r="W12" s="52"/>
-      <c r="X12" s="53"/>
-      <c r="AA12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="53"/>
       <c r="AB12" s="52"/>
       <c r="AC12" s="52"/>
-      <c r="AD12" s="53"/>
+      <c r="AD12" s="52"/>
       <c r="AE12" s="53"/>
-      <c r="AG12" s="52"/>
       <c r="AH12" s="52"/>
       <c r="AI12" s="52"/>
-      <c r="AJ12" s="53"/>
+      <c r="AJ12" s="52"/>
+      <c r="AK12" s="53"/>
+      <c r="AL12" s="53"/>
       <c r="AN12" s="52"/>
       <c r="AO12" s="52"/>
       <c r="AP12" s="52"/>
       <c r="AQ12" s="53"/>
-      <c r="BK12" s="62"/>
-      <c r="BL12" s="62"/>
-      <c r="BM12" s="63"/>
-      <c r="BN12" s="53"/>
-      <c r="BQ12" s="62"/>
+      <c r="AU12" s="52"/>
+      <c r="AV12" s="52"/>
+      <c r="AW12" s="52"/>
+      <c r="AX12" s="53"/>
       <c r="BR12" s="62"/>
-      <c r="BS12" s="63"/>
-      <c r="BT12" s="53"/>
-      <c r="BW12" s="62"/>
+      <c r="BS12" s="62"/>
+      <c r="BT12" s="63"/>
+      <c r="BU12" s="53"/>
       <c r="BX12" s="62"/>
-      <c r="BY12" s="63"/>
-      <c r="BZ12" s="53"/>
-      <c r="CB12" s="62"/>
-      <c r="CC12" s="62"/>
-      <c r="CD12" s="63"/>
-      <c r="CE12" s="53"/>
-      <c r="CI12" s="52"/>
-      <c r="CJ12" s="52"/>
-      <c r="CK12" s="52"/>
+      <c r="BY12" s="62"/>
+      <c r="BZ12" s="63"/>
+      <c r="CA12" s="53"/>
+      <c r="CD12" s="62"/>
+      <c r="CE12" s="62"/>
+      <c r="CF12" s="63"/>
+      <c r="CG12" s="53"/>
+      <c r="CI12" s="62"/>
+      <c r="CJ12" s="62"/>
+      <c r="CK12" s="63"/>
       <c r="CL12" s="53"/>
-      <c r="CO12" s="44"/>
-      <c r="CP12" s="44"/>
-      <c r="CQ12" s="44"/>
-      <c r="CR12" s="46"/>
-      <c r="CV12" s="52"/>
-      <c r="CW12" s="56"/>
-      <c r="CX12" s="53"/>
-    </row>
-    <row r="13" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="164"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="158"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="53"/>
-      <c r="O13" s="44" t="s">
+      <c r="CP12" s="52"/>
+      <c r="CQ12" s="52"/>
+      <c r="CR12" s="52"/>
+      <c r="CS12" s="53"/>
+      <c r="CV12" s="44"/>
+      <c r="CW12" s="44"/>
+      <c r="CX12" s="44"/>
+      <c r="CY12" s="46"/>
+      <c r="DC12" s="52"/>
+      <c r="DD12" s="56"/>
+      <c r="DE12" s="53"/>
+    </row>
+    <row r="13" spans="3:109" ht="21" x14ac:dyDescent="0.35">
+      <c r="C13" s="164"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="158"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="158"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="53"/>
+      <c r="V13" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="45" t="s">
+      <c r="W13" s="52"/>
+      <c r="X13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="70">
+      <c r="Y13" s="70">
         <v>45115</v>
       </c>
-      <c r="U13" s="44" t="s">
+      <c r="AB13" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="V13" s="52"/>
-      <c r="W13" s="45" t="s">
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="X13" s="70">
+      <c r="AE13" s="70">
         <v>45087</v>
       </c>
-      <c r="AA13" s="61" t="s">
+      <c r="AH13" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AB13" s="61"/>
-      <c r="AC13" s="45" t="s">
+      <c r="AI13" s="61"/>
+      <c r="AJ13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AD13" s="68">
+      <c r="AK13" s="68">
         <v>45057</v>
       </c>
-      <c r="AE13" s="53"/>
-      <c r="AG13" s="61" t="s">
+      <c r="AL13" s="53"/>
+      <c r="AN13" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AH13" s="61"/>
-      <c r="AI13" s="45" t="s">
+      <c r="AO13" s="61"/>
+      <c r="AP13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AJ13" s="68">
+      <c r="AQ13" s="68">
         <v>45029</v>
       </c>
-      <c r="AN13" s="44" t="s">
+      <c r="AU13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AO13" s="44"/>
-      <c r="AP13" s="44" t="s">
+      <c r="AV13" s="44"/>
+      <c r="AW13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AQ13" s="51">
+      <c r="AX13" s="51">
         <v>44995</v>
       </c>
-      <c r="AS13" s="44" t="s">
+      <c r="AZ13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AT13" s="44"/>
-      <c r="AU13" s="44" t="s">
+      <c r="BA13" s="44"/>
+      <c r="BB13" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="AV13" s="69">
+      <c r="BC13" s="69">
         <v>44966</v>
       </c>
-      <c r="AY13" s="44" t="s">
+      <c r="BF13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AZ13" s="44"/>
-      <c r="BA13" s="44" t="s">
+      <c r="BG13" s="44"/>
+      <c r="BH13" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="BB13" s="69">
+      <c r="BI13" s="69">
         <v>44938</v>
       </c>
-      <c r="BE13" s="44" t="s">
+      <c r="BL13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BF13" s="44"/>
-      <c r="BG13" s="44" t="s">
+      <c r="BM13" s="44"/>
+      <c r="BN13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BH13" s="51">
+      <c r="BO13" s="51">
         <v>44904</v>
       </c>
-      <c r="BK13" s="44" t="s">
+      <c r="BR13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BL13" s="44"/>
-      <c r="BM13" s="44" t="s">
+      <c r="BS13" s="44"/>
+      <c r="BT13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BN13" s="71">
+      <c r="BU13" s="71">
         <v>44883</v>
       </c>
-      <c r="BQ13" s="44" t="s">
+      <c r="BX13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BR13" s="44"/>
-      <c r="BS13" s="44" t="s">
+      <c r="BY13" s="44"/>
+      <c r="BZ13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BT13" s="71">
+      <c r="CA13" s="71">
         <v>44848</v>
       </c>
-      <c r="BW13" s="44" t="s">
+      <c r="CD13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BX13" s="44"/>
-      <c r="BY13" s="44" t="s">
+      <c r="CE13" s="44"/>
+      <c r="CF13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BZ13" s="67">
+      <c r="CG13" s="67">
         <v>44813</v>
-      </c>
-      <c r="CB13" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="CC13" s="44"/>
-      <c r="CD13" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="CE13" s="65">
-        <v>44785</v>
       </c>
       <c r="CI13" s="44" t="s">
         <v>21</v>
@@ -5274,162 +5335,176 @@
         <v>22</v>
       </c>
       <c r="CL13" s="65">
+        <v>44785</v>
+      </c>
+      <c r="CP13" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="CQ13" s="44"/>
+      <c r="CR13" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="CS13" s="65">
         <v>44756</v>
       </c>
-      <c r="CO13" s="44" t="s">
+      <c r="CV13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="CP13" s="44"/>
-      <c r="CQ13" s="44" t="s">
+      <c r="CW13" s="44"/>
+      <c r="CX13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="CR13" s="50">
+      <c r="CY13" s="50">
         <v>44695</v>
       </c>
-      <c r="CV13" s="44" t="s">
+      <c r="DC13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CW13" s="57" t="s">
+      <c r="DD13" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="CX13" s="51">
+      <c r="DE13" s="51">
         <v>44728</v>
       </c>
     </row>
-    <row r="14" spans="2:102" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="165" t="s">
+    <row r="14" spans="3:109" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="154">
+      <c r="D14" s="154"/>
+      <c r="E14" s="159" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="166">
+        <v>45209</v>
+      </c>
+      <c r="I14" s="165" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="154">
         <v>7</v>
       </c>
-      <c r="D14" s="159" t="s">
+      <c r="K14" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="166">
+      <c r="L14" s="166">
         <v>45181</v>
       </c>
-      <c r="H14" s="83" t="s">
+      <c r="O14" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="45">
+      <c r="P14" s="57"/>
+      <c r="Q14" s="45">
         <v>0.72916666666666663</v>
       </c>
-      <c r="K14" s="49">
+      <c r="R14" s="49">
         <v>45160</v>
       </c>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="53"/>
-      <c r="U14" s="52"/>
       <c r="V14" s="52"/>
       <c r="W14" s="52"/>
-      <c r="X14" s="53"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="63"/>
-      <c r="AD14" s="53"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="53"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="52"/>
       <c r="AE14" s="53"/>
-      <c r="AG14" s="62"/>
       <c r="AH14" s="62"/>
-      <c r="AI14" s="63"/>
-      <c r="AJ14" s="53"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="53"/>
+      <c r="AL14" s="53"/>
       <c r="AN14" s="62"/>
       <c r="AO14" s="62"/>
       <c r="AP14" s="63"/>
       <c r="AQ14" s="53"/>
-      <c r="AS14" s="62"/>
-      <c r="AT14" s="62"/>
-      <c r="AU14" s="63"/>
-      <c r="AV14" s="53"/>
-      <c r="AY14" s="62"/>
+      <c r="AU14" s="62"/>
+      <c r="AV14" s="62"/>
+      <c r="AW14" s="63"/>
+      <c r="AX14" s="53"/>
       <c r="AZ14" s="62"/>
-      <c r="BA14" s="63"/>
-      <c r="BB14" s="53"/>
-      <c r="BE14" s="62"/>
+      <c r="BA14" s="62"/>
+      <c r="BB14" s="63"/>
+      <c r="BC14" s="53"/>
       <c r="BF14" s="62"/>
-      <c r="BG14" s="63"/>
-      <c r="BH14" s="53"/>
-      <c r="BK14" s="52"/>
-      <c r="BL14" s="52"/>
-      <c r="BM14" s="52"/>
-      <c r="BN14" s="53"/>
-      <c r="BQ14" s="52"/>
+      <c r="BG14" s="62"/>
+      <c r="BH14" s="63"/>
+      <c r="BI14" s="53"/>
+      <c r="BL14" s="62"/>
+      <c r="BM14" s="62"/>
+      <c r="BN14" s="63"/>
+      <c r="BO14" s="53"/>
       <c r="BR14" s="52"/>
       <c r="BS14" s="52"/>
-      <c r="BT14" s="53"/>
-      <c r="BW14" s="52"/>
+      <c r="BT14" s="52"/>
+      <c r="BU14" s="53"/>
       <c r="BX14" s="52"/>
       <c r="BY14" s="52"/>
-      <c r="BZ14" s="53"/>
-      <c r="CB14" s="52"/>
-      <c r="CC14" s="52"/>
+      <c r="BZ14" s="52"/>
+      <c r="CA14" s="53"/>
       <c r="CD14" s="52"/>
-      <c r="CE14" s="53"/>
+      <c r="CE14" s="52"/>
+      <c r="CF14" s="52"/>
+      <c r="CG14" s="53"/>
       <c r="CI14" s="52"/>
       <c r="CJ14" s="52"/>
       <c r="CK14" s="52"/>
       <c r="CL14" s="53"/>
-      <c r="CO14" s="44"/>
-      <c r="CP14" s="44"/>
-      <c r="CQ14" s="44"/>
-      <c r="CR14" s="46"/>
-      <c r="CV14" s="52"/>
-      <c r="CW14" s="56"/>
-      <c r="CX14" s="53"/>
-    </row>
-    <row r="15" spans="2:102" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="157"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="158"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="101"/>
-      <c r="O15" s="61" t="s">
+      <c r="CP14" s="52"/>
+      <c r="CQ14" s="52"/>
+      <c r="CR14" s="52"/>
+      <c r="CS14" s="53"/>
+      <c r="CV14" s="44"/>
+      <c r="CW14" s="44"/>
+      <c r="CX14" s="44"/>
+      <c r="CY14" s="46"/>
+      <c r="DC14" s="52"/>
+      <c r="DD14" s="56"/>
+      <c r="DE14" s="53"/>
+    </row>
+    <row r="15" spans="3:109" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="157"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="158"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="158"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="100"/>
+      <c r="R15" s="101"/>
+      <c r="V15" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="45" t="s">
+      <c r="W15" s="61"/>
+      <c r="X15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="97">
+      <c r="Y15" s="97">
         <v>45119</v>
       </c>
-      <c r="U15" s="61" t="s">
+      <c r="AB15" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="V15" s="61"/>
-      <c r="W15" s="45" t="s">
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="X15" s="68">
+      <c r="AE15" s="68">
         <v>45091</v>
       </c>
-      <c r="AA15" s="44" t="s">
+      <c r="AH15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AB15" s="44"/>
-      <c r="AC15" s="44" t="s">
+      <c r="AI15" s="44"/>
+      <c r="AJ15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AD15" s="71">
+      <c r="AK15" s="71">
         <v>45058</v>
       </c>
-      <c r="AE15" s="53"/>
-      <c r="AG15" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH15" s="44"/>
-      <c r="AI15" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ15" s="71">
-        <v>45030</v>
-      </c>
+      <c r="AL15" s="53"/>
       <c r="AN15" s="44" t="s">
         <v>21</v>
       </c>
@@ -5438,234 +5513,248 @@
         <v>22</v>
       </c>
       <c r="AQ15" s="71">
+        <v>45030</v>
+      </c>
+      <c r="AU15" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV15" s="44"/>
+      <c r="AW15" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX15" s="71">
         <v>45001</v>
       </c>
-      <c r="AS15" s="44" t="s">
+      <c r="AZ15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AT15" s="44"/>
-      <c r="AU15" s="44" t="s">
+      <c r="BA15" s="44"/>
+      <c r="BB15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AV15" s="71">
+      <c r="BC15" s="71">
         <v>44973</v>
       </c>
-      <c r="AY15" s="44" t="s">
+      <c r="BF15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AZ15" s="44"/>
-      <c r="BA15" s="44" t="s">
+      <c r="BG15" s="44"/>
+      <c r="BH15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BB15" s="71">
+      <c r="BI15" s="71">
         <v>44946</v>
       </c>
-      <c r="BE15" s="44" t="s">
+      <c r="BL15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BF15" s="44"/>
-      <c r="BG15" s="44" t="s">
+      <c r="BM15" s="44"/>
+      <c r="BN15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BH15" s="71">
+      <c r="BO15" s="71">
         <v>44911</v>
       </c>
-      <c r="BK15" s="44" t="s">
+      <c r="BR15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BL15" s="52"/>
-      <c r="BM15" s="45" t="s">
+      <c r="BS15" s="52"/>
+      <c r="BT15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BN15" s="70">
+      <c r="BU15" s="70">
         <v>44884</v>
       </c>
-      <c r="BQ15" s="44" t="s">
+      <c r="BX15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BR15" s="52"/>
-      <c r="BS15" s="45" t="s">
+      <c r="BY15" s="52"/>
+      <c r="BZ15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BT15" s="70">
+      <c r="CA15" s="70">
         <v>44849</v>
       </c>
-      <c r="BW15" s="44" t="s">
+      <c r="CD15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BX15" s="52"/>
-      <c r="BY15" s="45" t="s">
+      <c r="CE15" s="52"/>
+      <c r="CF15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BZ15" s="70">
+      <c r="CG15" s="70">
         <v>44814</v>
-      </c>
-      <c r="CB15" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="CC15" s="52"/>
-      <c r="CD15" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="CE15" s="66">
-        <v>44786</v>
       </c>
       <c r="CI15" s="44" t="s">
         <v>19</v>
       </c>
       <c r="CJ15" s="52"/>
-      <c r="CK15" s="44" t="s">
+      <c r="CK15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="CL15" s="66">
+        <v>44786</v>
+      </c>
+      <c r="CP15" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="CQ15" s="52"/>
+      <c r="CR15" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="CL15" s="66">
+      <c r="CS15" s="66">
         <v>44758</v>
       </c>
-      <c r="CO15" s="44" t="s">
+      <c r="CV15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CP15" s="44"/>
-      <c r="CQ15" s="44" t="s">
+      <c r="CW15" s="44"/>
+      <c r="CX15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="CR15" s="51">
+      <c r="CY15" s="51">
         <v>44700</v>
       </c>
-      <c r="CV15" s="44" t="s">
+      <c r="DC15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CW15" s="57" t="s">
+      <c r="DD15" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="CX15" s="49">
+      <c r="DE15" s="49">
         <v>44730</v>
       </c>
     </row>
-    <row r="16" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B16" s="153" t="s">
+    <row r="16" spans="3:109" ht="21" x14ac:dyDescent="0.35">
+      <c r="C16" s="168" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="154"/>
+      <c r="E16" s="159">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F16" s="169">
+        <v>45217</v>
+      </c>
+      <c r="I16" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="154"/>
-      <c r="D16" s="159">
+      <c r="J16" s="154"/>
+      <c r="K16" s="159">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E16" s="167">
+      <c r="L16" s="167">
         <v>45190</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="O16" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="57">
+      <c r="P16" s="57">
         <v>4</v>
       </c>
-      <c r="J16" s="44" t="s">
+      <c r="Q16" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="51">
+      <c r="R16" s="51">
         <v>45160</v>
       </c>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="53"/>
-      <c r="U16" s="62"/>
       <c r="V16" s="62"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="53"/>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="53"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="53"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="63"/>
       <c r="AE16" s="53"/>
-      <c r="AG16" s="52"/>
       <c r="AH16" s="52"/>
       <c r="AI16" s="52"/>
-      <c r="AJ16" s="53"/>
+      <c r="AJ16" s="52"/>
+      <c r="AK16" s="53"/>
+      <c r="AL16" s="53"/>
       <c r="AN16" s="52"/>
       <c r="AO16" s="52"/>
       <c r="AP16" s="52"/>
       <c r="AQ16" s="53"/>
-      <c r="AS16" s="52"/>
-      <c r="AT16" s="52"/>
       <c r="AU16" s="52"/>
-      <c r="AV16" s="53"/>
-      <c r="AY16" s="52"/>
+      <c r="AV16" s="52"/>
+      <c r="AW16" s="52"/>
+      <c r="AX16" s="53"/>
       <c r="AZ16" s="52"/>
       <c r="BA16" s="52"/>
-      <c r="BB16" s="53"/>
-      <c r="BE16" s="52"/>
+      <c r="BB16" s="52"/>
+      <c r="BC16" s="53"/>
       <c r="BF16" s="52"/>
       <c r="BG16" s="52"/>
-      <c r="BH16" s="53"/>
-      <c r="BW16" s="44"/>
-      <c r="BX16" s="44"/>
-      <c r="BY16" s="44"/>
-      <c r="BZ16" s="46"/>
-      <c r="CB16" s="44"/>
-      <c r="CC16" s="44"/>
+      <c r="BH16" s="52"/>
+      <c r="BI16" s="53"/>
+      <c r="BL16" s="52"/>
+      <c r="BM16" s="52"/>
+      <c r="BN16" s="52"/>
+      <c r="BO16" s="53"/>
       <c r="CD16" s="44"/>
-      <c r="CE16" s="46"/>
+      <c r="CE16" s="44"/>
+      <c r="CF16" s="44"/>
+      <c r="CG16" s="46"/>
       <c r="CI16" s="44"/>
       <c r="CJ16" s="44"/>
       <c r="CK16" s="44"/>
       <c r="CL16" s="46"/>
-      <c r="CO16" s="44"/>
       <c r="CP16" s="44"/>
       <c r="CQ16" s="44"/>
-      <c r="CR16" s="46"/>
+      <c r="CR16" s="44"/>
+      <c r="CS16" s="46"/>
       <c r="CV16" s="44"/>
-      <c r="CW16" s="57"/>
-      <c r="CX16" s="46"/>
-    </row>
-    <row r="17" spans="2:102" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B17" s="157"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="158"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="51"/>
-      <c r="O17" s="83" t="s">
+      <c r="CW16" s="44"/>
+      <c r="CX16" s="44"/>
+      <c r="CY16" s="46"/>
+      <c r="DC16" s="44"/>
+      <c r="DD16" s="57"/>
+      <c r="DE16" s="46"/>
+    </row>
+    <row r="17" spans="3:109" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C17" s="168"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="158"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="158"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="51"/>
+      <c r="V17" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="P17" s="84" t="s">
+      <c r="W17" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="Q17" s="83" t="s">
+      <c r="X17" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="R17" s="49"/>
-      <c r="U17" s="83" t="s">
+      <c r="Y17" s="49"/>
+      <c r="AB17" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="V17" s="84" t="s">
+      <c r="AC17" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="W17" s="83" t="s">
+      <c r="AD17" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="X17" s="49"/>
-      <c r="AA17" s="44" t="s">
+      <c r="AE17" s="49"/>
+      <c r="AH17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="45" t="s">
+      <c r="AI17" s="52"/>
+      <c r="AJ17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AD17" s="70">
+      <c r="AK17" s="70">
         <v>45059</v>
       </c>
-      <c r="AE17" s="53"/>
-      <c r="AG17" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH17" s="52"/>
-      <c r="AI17" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ17" s="70">
-        <v>45031</v>
-      </c>
+      <c r="AL17" s="53"/>
       <c r="AN17" s="44" t="s">
         <v>19</v>
       </c>
@@ -5674,282 +5763,340 @@
         <v>15</v>
       </c>
       <c r="AQ17" s="70">
+        <v>45031</v>
+      </c>
+      <c r="AU17" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV17" s="52"/>
+      <c r="AW17" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX17" s="70">
         <v>45003</v>
       </c>
-      <c r="AS17" s="44" t="s">
+      <c r="AZ17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AT17" s="52"/>
-      <c r="AU17" s="45" t="s">
+      <c r="BA17" s="52"/>
+      <c r="BB17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AV17" s="70">
+      <c r="BC17" s="70">
         <v>44982</v>
       </c>
-      <c r="AY17" s="44" t="s">
+      <c r="BF17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AZ17" s="52"/>
-      <c r="BA17" s="45" t="s">
+      <c r="BG17" s="52"/>
+      <c r="BH17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BB17" s="70">
+      <c r="BI17" s="70">
         <v>44954</v>
       </c>
-      <c r="BE17" s="44" t="s">
+      <c r="BL17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BF17" s="52"/>
-      <c r="BG17" s="45" t="s">
+      <c r="BM17" s="52"/>
+      <c r="BN17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BH17" s="70">
+      <c r="BO17" s="70">
         <v>44912</v>
       </c>
-      <c r="CO17" s="52"/>
-      <c r="CP17" s="52"/>
-      <c r="CQ17" s="52"/>
-      <c r="CR17" s="53"/>
-      <c r="CV17" s="44"/>
-      <c r="CW17" s="57"/>
-      <c r="CX17" s="46"/>
-    </row>
-    <row r="18" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="168" t="s">
+      <c r="CV17" s="52"/>
+      <c r="CW17" s="52"/>
+      <c r="CX17" s="52"/>
+      <c r="CY17" s="53"/>
+      <c r="DC17" s="44"/>
+      <c r="DD17" s="57"/>
+      <c r="DE17" s="46"/>
+    </row>
+    <row r="18" spans="3:109" ht="21" x14ac:dyDescent="0.35">
+      <c r="C18" s="153" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="154"/>
+      <c r="E18" s="159">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F18" s="167">
+        <v>45218</v>
+      </c>
+      <c r="I18" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="154"/>
-      <c r="D18" s="159">
+      <c r="J18" s="154"/>
+      <c r="K18" s="159">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E18" s="169">
+      <c r="L18" s="169">
         <v>45191</v>
       </c>
-      <c r="H18" s="61" t="s">
+      <c r="O18" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="57">
+      <c r="P18" s="57">
         <v>7</v>
       </c>
-      <c r="J18" s="45" t="s">
+      <c r="Q18" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="97">
+      <c r="R18" s="97">
         <v>45154</v>
       </c>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="53"/>
-      <c r="U18" s="52"/>
       <c r="V18" s="52"/>
       <c r="W18" s="52"/>
-      <c r="X18" s="53"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="54"/>
-      <c r="AG18" s="54"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="53"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="52"/>
+      <c r="AE18" s="53"/>
       <c r="AH18" s="54"/>
       <c r="AI18" s="54"/>
       <c r="AJ18" s="54"/>
-      <c r="CO18" s="44"/>
-      <c r="CP18" s="44"/>
-      <c r="CQ18" s="44"/>
-      <c r="CR18" s="46"/>
+      <c r="AK18" s="54"/>
+      <c r="AN18" s="54"/>
+      <c r="AO18" s="54"/>
+      <c r="AP18" s="54"/>
+      <c r="AQ18" s="54"/>
       <c r="CV18" s="44"/>
-      <c r="CW18" s="57"/>
-      <c r="CX18" s="46"/>
-    </row>
-    <row r="19" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B19" s="157"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="158"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
+      <c r="CW18" s="44"/>
+      <c r="CX18" s="44"/>
+      <c r="CY18" s="46"/>
+      <c r="DC18" s="44"/>
+      <c r="DD18" s="57"/>
+      <c r="DE18" s="46"/>
+    </row>
+    <row r="19" spans="3:109" ht="21" x14ac:dyDescent="0.35">
+      <c r="C19" s="157"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="158"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="161"/>
+      <c r="L19" s="158"/>
       <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="63"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="52"/>
       <c r="R19" s="53"/>
-      <c r="U19" s="52"/>
       <c r="V19" s="52"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="53"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="63"/>
-      <c r="AD19" s="53"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="53"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="63"/>
       <c r="AE19" s="53"/>
-      <c r="AG19" s="62"/>
       <c r="AH19" s="62"/>
-      <c r="AI19" s="63"/>
-      <c r="AJ19" s="53"/>
-      <c r="CO19" s="44"/>
-      <c r="CP19" s="44"/>
-      <c r="CQ19" s="44"/>
-      <c r="CR19" s="46"/>
-    </row>
-    <row r="20" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B20" s="162" t="s">
+      <c r="AI19" s="62"/>
+      <c r="AJ19" s="63"/>
+      <c r="AK19" s="53"/>
+      <c r="AL19" s="53"/>
+      <c r="AN19" s="62"/>
+      <c r="AO19" s="62"/>
+      <c r="AP19" s="63"/>
+      <c r="AQ19" s="53"/>
+      <c r="CV19" s="44"/>
+      <c r="CW19" s="44"/>
+      <c r="CX19" s="44"/>
+      <c r="CY19" s="46"/>
+    </row>
+    <row r="20" spans="3:109" ht="21" x14ac:dyDescent="0.35">
+      <c r="C20" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="154">
+      <c r="D20" s="154"/>
+      <c r="E20" s="155" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="170">
+        <v>45219</v>
+      </c>
+      <c r="I20" s="162" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="154">
         <v>4</v>
       </c>
-      <c r="D20" s="155" t="s">
+      <c r="K20" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="170">
+      <c r="L20" s="170">
         <v>45191</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="O20" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="57">
+      <c r="P20" s="57">
         <v>5</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="Q20" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="71">
+      <c r="R20" s="71">
         <v>45149</v>
       </c>
-      <c r="CO20" s="44"/>
-      <c r="CP20" s="44"/>
-      <c r="CQ20" s="44"/>
-      <c r="CR20" s="46"/>
-    </row>
-    <row r="21" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B21" s="164"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="158"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="53"/>
-      <c r="CO21" s="44"/>
-      <c r="CP21" s="44"/>
-      <c r="CQ21" s="44"/>
-      <c r="CR21" s="46"/>
-    </row>
-    <row r="22" spans="2:102" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B22" s="171" t="s">
+      <c r="CV20" s="44"/>
+      <c r="CW20" s="44"/>
+      <c r="CX20" s="44"/>
+      <c r="CY20" s="46"/>
+    </row>
+    <row r="21" spans="3:109" ht="21" x14ac:dyDescent="0.35">
+      <c r="C21" s="164"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="158"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="158"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="53"/>
+      <c r="CV21" s="44"/>
+      <c r="CW21" s="44"/>
+      <c r="CX21" s="44"/>
+      <c r="CY21" s="46"/>
+    </row>
+    <row r="22" spans="3:109" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C22" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="172" t="s">
+      <c r="D22" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="173" t="s">
+      <c r="E22" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="169"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="53"/>
-      <c r="CO22" s="44"/>
-      <c r="CP22" s="44"/>
-      <c r="CQ22" s="44"/>
-      <c r="CR22" s="46"/>
-    </row>
-    <row r="23" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="B23" s="157"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="158"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="53"/>
-      <c r="CO23" s="44"/>
-      <c r="CP23" s="44"/>
-      <c r="CQ23" s="44"/>
-      <c r="CR23" s="46"/>
-    </row>
-    <row r="24" spans="2:102" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="174"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="176"/>
-      <c r="E24" s="177"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="53"/>
-      <c r="CO24" s="44"/>
-      <c r="CP24" s="44"/>
-      <c r="CQ24" s="44"/>
-      <c r="CR24" s="46"/>
-    </row>
-    <row r="25" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="CO25" s="44"/>
-      <c r="CP25" s="44"/>
-      <c r="CQ25" s="44"/>
-      <c r="CR25" s="46"/>
-    </row>
-    <row r="26" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="CO26" s="44"/>
-      <c r="CP26" s="44"/>
-      <c r="CQ26" s="44"/>
-      <c r="CR26" s="46"/>
-    </row>
-    <row r="27" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="CO27" s="44"/>
-      <c r="CP27" s="44"/>
-      <c r="CQ27" s="44"/>
-      <c r="CR27" s="46"/>
-    </row>
-    <row r="28" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="CO28" s="44"/>
-      <c r="CP28" s="44"/>
-      <c r="CQ28" s="44"/>
-      <c r="CR28" s="46"/>
-    </row>
-    <row r="29" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="CO29" s="44"/>
-      <c r="CP29" s="44"/>
-      <c r="CQ29" s="44"/>
-      <c r="CR29" s="46"/>
-    </row>
-    <row r="30" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="CO30" s="44"/>
-      <c r="CP30" s="44"/>
-      <c r="CQ30" s="44"/>
-      <c r="CR30" s="46"/>
-    </row>
-    <row r="31" spans="2:102" ht="21" x14ac:dyDescent="0.35">
-      <c r="CO31" s="44"/>
-      <c r="CP31" s="44"/>
-      <c r="CQ31" s="44"/>
-      <c r="CR31" s="46"/>
+      <c r="F22" s="169"/>
+      <c r="I22" s="171" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="172" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="173" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="169"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="53"/>
+      <c r="CV22" s="44"/>
+      <c r="CW22" s="44"/>
+      <c r="CX22" s="44"/>
+      <c r="CY22" s="46"/>
+    </row>
+    <row r="23" spans="3:109" ht="21" x14ac:dyDescent="0.35">
+      <c r="C23" s="157"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="158"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="161"/>
+      <c r="L23" s="158"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="53"/>
+      <c r="CV23" s="44"/>
+      <c r="CW23" s="44"/>
+      <c r="CX23" s="44"/>
+      <c r="CY23" s="46"/>
+    </row>
+    <row r="24" spans="3:109" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="174"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="176"/>
+      <c r="F24" s="177"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="175"/>
+      <c r="K24" s="176"/>
+      <c r="L24" s="177"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="53"/>
+      <c r="CV24" s="44"/>
+      <c r="CW24" s="44"/>
+      <c r="CX24" s="44"/>
+      <c r="CY24" s="46"/>
+    </row>
+    <row r="25" spans="3:109" ht="21" x14ac:dyDescent="0.35">
+      <c r="CV25" s="44"/>
+      <c r="CW25" s="44"/>
+      <c r="CX25" s="44"/>
+      <c r="CY25" s="46"/>
+    </row>
+    <row r="26" spans="3:109" ht="21" x14ac:dyDescent="0.35">
+      <c r="CV26" s="44"/>
+      <c r="CW26" s="44"/>
+      <c r="CX26" s="44"/>
+      <c r="CY26" s="46"/>
+    </row>
+    <row r="27" spans="3:109" ht="21" x14ac:dyDescent="0.35">
+      <c r="CV27" s="44"/>
+      <c r="CW27" s="44"/>
+      <c r="CX27" s="44"/>
+      <c r="CY27" s="46"/>
+    </row>
+    <row r="28" spans="3:109" ht="21" x14ac:dyDescent="0.35">
+      <c r="CV28" s="44"/>
+      <c r="CW28" s="44"/>
+      <c r="CX28" s="44"/>
+      <c r="CY28" s="46"/>
+    </row>
+    <row r="29" spans="3:109" ht="21" x14ac:dyDescent="0.35">
+      <c r="CV29" s="44"/>
+      <c r="CW29" s="44"/>
+      <c r="CX29" s="44"/>
+      <c r="CY29" s="46"/>
+    </row>
+    <row r="30" spans="3:109" ht="21" x14ac:dyDescent="0.35">
+      <c r="CV30" s="44"/>
+      <c r="CW30" s="44"/>
+      <c r="CX30" s="44"/>
+      <c r="CY30" s="46"/>
+    </row>
+    <row r="31" spans="3:109" ht="21" x14ac:dyDescent="0.35">
+      <c r="CV31" s="44"/>
+      <c r="CW31" s="44"/>
+      <c r="CX31" s="44"/>
+      <c r="CY31" s="46"/>
     </row>
   </sheetData>
-  <sortState ref="B8:E21">
-    <sortCondition ref="E8:E21"/>
+  <sortState ref="I8:L21">
+    <sortCondition ref="L8:L21"/>
   </sortState>
-  <mergeCells count="19">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="H5:J5"/>
+  <mergeCells count="21">
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
     <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="BE5:BG5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="DC3:DE3"/>
+    <mergeCell ref="CP3:CR3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="CV3:CY3"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="BL5:BN5"/>
+    <mergeCell ref="AH5:AJ5"/>
     <mergeCell ref="AN5:AP5"/>
-    <mergeCell ref="AS5:AU5"/>
-    <mergeCell ref="AY5:BA5"/>
-    <mergeCell ref="CV3:CX3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CB3:CD3"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="CO3:CR3"/>
+    <mergeCell ref="AU5:AW5"/>
+    <mergeCell ref="AZ5:BB5"/>
+    <mergeCell ref="BF5:BH5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -21,7 +21,6 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4170,7 +4169,7 @@
   <dimension ref="C3:DE31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4654,7 +4653,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="156">
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="G8" s="54"/>
       <c r="I8" s="153" t="s">
@@ -6076,11 +6075,6 @@
     <sortCondition ref="L8:L21"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="AB5:AD5"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="DC3:DE3"/>
@@ -6097,6 +6091,11 @@
     <mergeCell ref="AU5:AW5"/>
     <mergeCell ref="AZ5:BB5"/>
     <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AB5:AD5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMA    ECOPLAG   2023    " sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="68">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>OCT.,2023</t>
   </si>
 </sst>
 </file>
@@ -2801,9 +2804,9 @@
   </sheetPr>
   <dimension ref="A2:R38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3928,15 +3931,21 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
+      <c r="A28" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B28" s="7"/>
       <c r="C28" s="37"/>
       <c r="D28" s="9"/>
       <c r="E28" s="82"/>
       <c r="F28" s="9"/>
       <c r="G28" s="33"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="37"/>
+      <c r="H28" s="20">
+        <v>1856</v>
+      </c>
+      <c r="I28" s="37">
+        <v>829</v>
+      </c>
       <c r="J28" s="20"/>
       <c r="K28" s="39"/>
       <c r="L28" s="184"/>
@@ -4168,7 +4177,7 @@
   </sheetPr>
   <dimension ref="C3:DE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -6075,6 +6084,11 @@
     <sortCondition ref="L8:L21"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AB5:AD5"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="DC3:DE3"/>
@@ -6091,11 +6105,6 @@
     <mergeCell ref="AU5:AW5"/>
     <mergeCell ref="AZ5:BB5"/>
     <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="AB5:AD5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -2806,7 +2806,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3936,8 +3936,12 @@
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="37"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="82"/>
+      <c r="D28" s="9">
+        <v>1392</v>
+      </c>
+      <c r="E28" s="82">
+        <v>830</v>
+      </c>
       <c r="F28" s="9"/>
       <c r="G28" s="33"/>
       <c r="H28" s="20">
@@ -3946,8 +3950,12 @@
       <c r="I28" s="37">
         <v>829</v>
       </c>
-      <c r="J28" s="20"/>
-      <c r="K28" s="39"/>
+      <c r="J28" s="20">
+        <v>1392</v>
+      </c>
+      <c r="K28" s="39">
+        <v>831</v>
+      </c>
       <c r="L28" s="184"/>
       <c r="M28" s="127"/>
       <c r="N28" s="184"/>
@@ -6084,11 +6092,6 @@
     <sortCondition ref="L8:L21"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="AB5:AD5"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="DC3:DE3"/>
@@ -6105,6 +6108,11 @@
     <mergeCell ref="AU5:AW5"/>
     <mergeCell ref="AZ5:BB5"/>
     <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AB5:AD5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -2805,8 +2805,8 @@
   <dimension ref="A2:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3934,8 +3934,12 @@
       <c r="A28" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="37"/>
+      <c r="B28" s="7">
+        <v>986</v>
+      </c>
+      <c r="C28" s="37">
+        <v>834</v>
+      </c>
       <c r="D28" s="9">
         <v>1392</v>
       </c>
@@ -6092,6 +6096,11 @@
     <sortCondition ref="L8:L21"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AB5:AD5"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="DC3:DE3"/>
@@ -6108,11 +6117,6 @@
     <mergeCell ref="AU5:AW5"/>
     <mergeCell ref="AZ5:BB5"/>
     <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="AB5:AD5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMA    ECOPLAG   2023    " sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="68">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -2804,7 +2804,7 @@
   </sheetPr>
   <dimension ref="A2:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
@@ -4187,373 +4187,387 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="C3:DE31"/>
+  <dimension ref="B3:DL31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" style="19" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.28515625" style="19" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="36" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" style="19" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" customWidth="1"/>
     <col min="22" max="22" width="36" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.28515625" style="19" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="36" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="36" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.7109375" customWidth="1"/>
-    <col min="36" max="36" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15" style="54" customWidth="1"/>
-    <col min="40" max="40" width="36" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21.7109375" customWidth="1"/>
-    <col min="42" max="42" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="36" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="36" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.7109375" customWidth="1"/>
+    <col min="43" max="43" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15" style="54" customWidth="1"/>
     <col min="47" max="47" width="36" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="26.85546875" customWidth="1"/>
+    <col min="48" max="48" width="21.7109375" customWidth="1"/>
+    <col min="49" max="49" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="15" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="36" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="36" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="36" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="36" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="36" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="36" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="18.42578125" customWidth="1"/>
-    <col min="87" max="87" width="36" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="18.42578125" customWidth="1"/>
+    <col min="54" max="54" width="36" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="26.85546875" customWidth="1"/>
+    <col min="57" max="57" width="15" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="36" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="36" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="36" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="36" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="36" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="36" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="18.42578125" customWidth="1"/>
     <col min="94" max="94" width="36" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="17.140625" customWidth="1"/>
-    <col min="97" max="97" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="100" max="101" width="19.5703125" customWidth="1"/>
-    <col min="102" max="102" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="18.42578125" style="47" customWidth="1"/>
-    <col min="107" max="107" width="36" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="19.5703125" style="19" customWidth="1"/>
-    <col min="109" max="109" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="18.42578125" customWidth="1"/>
+    <col min="101" max="101" width="36" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="17.140625" customWidth="1"/>
+    <col min="104" max="104" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="19.5703125" customWidth="1"/>
+    <col min="109" max="109" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="18.42578125" style="47" customWidth="1"/>
+    <col min="114" max="114" width="36" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="19.5703125" style="19" customWidth="1"/>
+    <col min="116" max="116" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:109" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="BR3" s="197" t="s">
+    <row r="3" spans="2:116" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="BY3" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="BS3" s="197"/>
-      <c r="BT3" s="197"/>
-      <c r="BU3" s="60"/>
-      <c r="BX3" s="197" t="s">
+      <c r="BZ3" s="197"/>
+      <c r="CA3" s="197"/>
+      <c r="CB3" s="60"/>
+      <c r="CE3" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="BY3" s="197"/>
-      <c r="BZ3" s="197"/>
-      <c r="CA3" s="60"/>
-      <c r="CD3" s="197" t="s">
+      <c r="CF3" s="197"/>
+      <c r="CG3" s="197"/>
+      <c r="CH3" s="60"/>
+      <c r="CK3" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="CE3" s="197"/>
-      <c r="CF3" s="197"/>
-      <c r="CG3" s="60"/>
-      <c r="CI3" s="197" t="s">
-        <v>13</v>
-      </c>
-      <c r="CJ3" s="197"/>
-      <c r="CK3" s="197"/>
-      <c r="CL3" s="60"/>
+      <c r="CL3" s="197"/>
+      <c r="CM3" s="197"/>
+      <c r="CN3" s="60"/>
       <c r="CP3" s="197" t="s">
         <v>13</v>
       </c>
       <c r="CQ3" s="197"/>
       <c r="CR3" s="197"/>
       <c r="CS3" s="60"/>
-      <c r="CT3" s="59"/>
-      <c r="CV3" s="197" t="s">
+      <c r="CW3" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="CW3" s="197"/>
       <c r="CX3" s="197"/>
       <c r="CY3" s="197"/>
+      <c r="CZ3" s="60"/>
+      <c r="DA3" s="59"/>
       <c r="DC3" s="197" t="s">
         <v>13</v>
       </c>
       <c r="DD3" s="197"/>
       <c r="DE3" s="197"/>
-    </row>
-    <row r="4" spans="3:109" x14ac:dyDescent="0.25">
-      <c r="C4" s="144"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="147"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="147"/>
-      <c r="BU4" s="47"/>
-      <c r="CA4" s="47"/>
-      <c r="CG4" s="47"/>
-      <c r="CL4" s="47"/>
+      <c r="DF3" s="197"/>
+      <c r="DJ3" s="197" t="s">
+        <v>13</v>
+      </c>
+      <c r="DK3" s="197"/>
+      <c r="DL3" s="197"/>
+    </row>
+    <row r="4" spans="2:116" x14ac:dyDescent="0.25">
+      <c r="B4" s="144"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="147"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="147"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="145"/>
+      <c r="R4" s="146"/>
+      <c r="S4" s="147"/>
+      <c r="CB4" s="47"/>
+      <c r="CH4" s="47"/>
+      <c r="CN4" s="47"/>
       <c r="CS4" s="47"/>
-      <c r="DE4" s="47"/>
-    </row>
-    <row r="5" spans="3:109" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C5" s="208" t="s">
+      <c r="CZ4" s="47"/>
+      <c r="DL4" s="47"/>
+    </row>
+    <row r="5" spans="2:116" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B5" s="208" t="s">
         <v>55</v>
       </c>
+      <c r="C5" s="209"/>
       <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="148"/>
-      <c r="I5" s="208" t="s">
+      <c r="E5" s="148"/>
+      <c r="J5" s="208" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="209"/>
       <c r="K5" s="209"/>
-      <c r="L5" s="148"/>
-      <c r="O5" s="197" t="s">
+      <c r="L5" s="209"/>
+      <c r="M5" s="148"/>
+      <c r="P5" s="208" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="197"/>
-      <c r="Q5" s="197"/>
-      <c r="R5" s="60"/>
+      <c r="Q5" s="209"/>
+      <c r="R5" s="209"/>
+      <c r="S5" s="148"/>
       <c r="V5" s="197" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="W5" s="197"/>
       <c r="X5" s="197"/>
       <c r="Y5" s="60"/>
-      <c r="AB5" s="197" t="s">
+      <c r="AC5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="197"/>
       <c r="AD5" s="197"/>
-      <c r="AE5" s="60"/>
-      <c r="AH5" s="197" t="s">
+      <c r="AE5" s="197"/>
+      <c r="AF5" s="60"/>
+      <c r="AI5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="AI5" s="197"/>
       <c r="AJ5" s="197"/>
-      <c r="AK5" s="60"/>
-      <c r="AL5" s="85"/>
-      <c r="AN5" s="197" t="s">
+      <c r="AK5" s="197"/>
+      <c r="AL5" s="60"/>
+      <c r="AO5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="AO5" s="197"/>
       <c r="AP5" s="197"/>
-      <c r="AQ5" s="60"/>
+      <c r="AQ5" s="197"/>
+      <c r="AR5" s="60"/>
+      <c r="AS5" s="85"/>
       <c r="AU5" s="197" t="s">
         <v>13</v>
       </c>
       <c r="AV5" s="197"/>
       <c r="AW5" s="197"/>
       <c r="AX5" s="60"/>
-      <c r="AZ5" s="197" t="s">
+      <c r="BB5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="BA5" s="197"/>
-      <c r="BB5" s="197"/>
-      <c r="BC5" s="60"/>
-      <c r="BF5" s="197" t="s">
+      <c r="BC5" s="197"/>
+      <c r="BD5" s="197"/>
+      <c r="BE5" s="60"/>
+      <c r="BG5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="BG5" s="197"/>
       <c r="BH5" s="197"/>
-      <c r="BI5" s="60"/>
-      <c r="BL5" s="197" t="s">
+      <c r="BI5" s="197"/>
+      <c r="BJ5" s="60"/>
+      <c r="BM5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="BM5" s="197"/>
       <c r="BN5" s="197"/>
-      <c r="BO5" s="60"/>
-      <c r="BR5" s="61" t="s">
+      <c r="BO5" s="197"/>
+      <c r="BP5" s="60"/>
+      <c r="BS5" s="197" t="s">
+        <v>13</v>
+      </c>
+      <c r="BT5" s="197"/>
+      <c r="BU5" s="197"/>
+      <c r="BV5" s="60"/>
+      <c r="BY5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BS5" s="61"/>
-      <c r="BT5" s="45" t="s">
+      <c r="BZ5" s="61"/>
+      <c r="CA5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BU5" s="68">
+      <c r="CB5" s="68">
         <v>44861</v>
       </c>
-      <c r="BX5" s="61" t="s">
+      <c r="CE5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BY5" s="61"/>
-      <c r="BZ5" s="45" t="s">
+      <c r="CF5" s="61"/>
+      <c r="CG5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CA5" s="68">
+      <c r="CH5" s="68">
         <v>44833</v>
       </c>
-      <c r="CD5" s="44" t="s">
+      <c r="CK5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="CE5" s="44"/>
-      <c r="CF5" s="44" t="s">
+      <c r="CL5" s="44"/>
+      <c r="CM5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="CG5" s="50">
+      <c r="CN5" s="50">
         <v>44804</v>
       </c>
-      <c r="CI5" s="44" t="s">
+      <c r="CP5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="CJ5" s="44"/>
-      <c r="CK5" s="44" t="s">
+      <c r="CQ5" s="44"/>
+      <c r="CR5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="CL5" s="64">
+      <c r="CS5" s="64">
         <v>44776</v>
       </c>
-      <c r="CP5" s="61" t="s">
+      <c r="CW5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="CQ5" s="61"/>
-      <c r="CR5" s="45" t="s">
+      <c r="CX5" s="61"/>
+      <c r="CY5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CS5" s="51">
+      <c r="CZ5" s="51">
         <v>44747</v>
       </c>
-      <c r="CV5" s="212" t="s">
+      <c r="DC5" s="212" t="s">
         <v>23</v>
       </c>
-      <c r="CW5" s="212"/>
-      <c r="CX5" s="45" t="s">
+      <c r="DD5" s="212"/>
+      <c r="DE5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CY5" s="51">
+      <c r="DF5" s="51">
         <v>44686</v>
       </c>
-      <c r="DC5" s="48" t="s">
+      <c r="DJ5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="DD5" s="55" t="s">
+      <c r="DK5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="DE5" s="51">
+      <c r="DL5" s="51">
         <v>44714</v>
       </c>
     </row>
-    <row r="6" spans="3:109" ht="21" x14ac:dyDescent="0.35">
-      <c r="C6" s="210" t="s">
+    <row r="6" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+      <c r="B6" s="210" t="s">
         <v>62</v>
       </c>
+      <c r="C6" s="211"/>
       <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="149"/>
-      <c r="I6" s="210" t="s">
+      <c r="E6" s="149"/>
+      <c r="J6" s="210" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="211"/>
       <c r="K6" s="211"/>
-      <c r="L6" s="149"/>
-      <c r="R6" s="47"/>
+      <c r="L6" s="211"/>
+      <c r="M6" s="149"/>
+      <c r="P6" s="210" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="211"/>
+      <c r="R6" s="211"/>
+      <c r="S6" s="149"/>
       <c r="Y6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="86"/>
-      <c r="AQ6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AL6" s="47"/>
+      <c r="AR6" s="47"/>
+      <c r="AS6" s="86"/>
       <c r="AX6" s="47"/>
-      <c r="BC6" s="47"/>
-      <c r="BI6" s="47"/>
-      <c r="BO6" s="47"/>
-      <c r="BR6" s="44"/>
-      <c r="BS6" s="44"/>
-      <c r="BT6" s="44"/>
-      <c r="BU6" s="53"/>
-      <c r="BX6" s="44"/>
+      <c r="BE6" s="47"/>
+      <c r="BJ6" s="47"/>
+      <c r="BP6" s="47"/>
+      <c r="BV6" s="47"/>
       <c r="BY6" s="44"/>
       <c r="BZ6" s="44"/>
-      <c r="CA6" s="53"/>
-      <c r="CP6" s="62"/>
-      <c r="CQ6" s="62"/>
-      <c r="CR6" s="63"/>
-      <c r="CS6" s="53"/>
-      <c r="CV6" s="44"/>
-      <c r="CW6" s="44"/>
-      <c r="CX6" s="44"/>
-      <c r="CY6" s="46"/>
-      <c r="DC6" s="52"/>
-      <c r="DD6" s="56"/>
-      <c r="DE6" s="53"/>
-    </row>
-    <row r="7" spans="3:109" ht="21" x14ac:dyDescent="0.35">
-      <c r="C7" s="150"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="149"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="152"/>
-      <c r="L7" s="149"/>
-      <c r="R7" s="47"/>
-      <c r="V7" s="44" t="s">
+      <c r="CA6" s="44"/>
+      <c r="CB6" s="53"/>
+      <c r="CE6" s="44"/>
+      <c r="CF6" s="44"/>
+      <c r="CG6" s="44"/>
+      <c r="CH6" s="53"/>
+      <c r="CW6" s="62"/>
+      <c r="CX6" s="62"/>
+      <c r="CY6" s="63"/>
+      <c r="CZ6" s="53"/>
+      <c r="DC6" s="44"/>
+      <c r="DD6" s="44"/>
+      <c r="DE6" s="44"/>
+      <c r="DF6" s="46"/>
+      <c r="DJ6" s="52"/>
+      <c r="DK6" s="56"/>
+      <c r="DL6" s="53"/>
+    </row>
+    <row r="7" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="150"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="149"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="149"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="151"/>
+      <c r="R7" s="152"/>
+      <c r="S7" s="149"/>
+      <c r="Y7" s="47"/>
+      <c r="AC7" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44" t="s">
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="51">
+      <c r="AF7" s="51">
         <v>45111</v>
       </c>
-      <c r="AB7" s="44" t="s">
+      <c r="AI7" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44" t="s">
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AE7" s="51">
+      <c r="AL7" s="51">
         <v>45083</v>
       </c>
-      <c r="AH7" s="44" t="s">
+      <c r="AO7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AI7" s="44"/>
-      <c r="AJ7" s="44" t="s">
+      <c r="AP7" s="44"/>
+      <c r="AQ7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AK7" s="50">
+      <c r="AR7" s="50">
         <v>45049</v>
       </c>
-      <c r="AL7" s="53"/>
-      <c r="AN7" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO7" s="44"/>
-      <c r="AP7" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ7" s="50">
-        <v>45021</v>
-      </c>
+      <c r="AS7" s="53"/>
       <c r="AU7" s="44" t="s">
         <v>16</v>
       </c>
@@ -4562,475 +4576,503 @@
         <v>17</v>
       </c>
       <c r="AX7" s="50">
+        <v>45021</v>
+      </c>
+      <c r="BB7" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC7" s="44"/>
+      <c r="BD7" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE7" s="50">
         <v>44986</v>
       </c>
-      <c r="AZ7" s="44" t="s">
+      <c r="BG7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BA7" s="44"/>
-      <c r="BB7" s="44" t="s">
+      <c r="BH7" s="44"/>
+      <c r="BI7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BC7" s="50">
+      <c r="BJ7" s="50">
         <v>44958</v>
       </c>
-      <c r="BF7" s="44" t="s">
+      <c r="BM7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BG7" s="44"/>
-      <c r="BH7" s="44" t="s">
+      <c r="BN7" s="44"/>
+      <c r="BO7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BI7" s="50">
+      <c r="BP7" s="50">
         <v>44930</v>
       </c>
-      <c r="BL7" s="61" t="s">
+      <c r="BS7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BM7" s="61"/>
-      <c r="BN7" s="45" t="s">
+      <c r="BT7" s="61"/>
+      <c r="BU7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BO7" s="68">
+      <c r="BV7" s="68">
         <v>44896</v>
       </c>
-      <c r="BR7" s="44" t="s">
+      <c r="BY7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BS7" s="44"/>
-      <c r="BT7" s="44" t="s">
+      <c r="BZ7" s="44"/>
+      <c r="CA7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BU7" s="50">
+      <c r="CB7" s="50">
         <v>44874</v>
       </c>
-      <c r="BX7" s="44" t="s">
+      <c r="CE7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BY7" s="44"/>
-      <c r="BZ7" s="44" t="s">
+      <c r="CF7" s="44"/>
+      <c r="CG7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="CA7" s="50">
+      <c r="CH7" s="50">
         <v>44839</v>
       </c>
-      <c r="CD7" s="61" t="s">
+      <c r="CK7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="CE7" s="61"/>
-      <c r="CF7" s="45" t="s">
+      <c r="CL7" s="61"/>
+      <c r="CM7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CG7" s="68">
+      <c r="CN7" s="68">
         <v>44805</v>
       </c>
-      <c r="CI7" s="61" t="s">
+      <c r="CP7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="CJ7" s="61"/>
-      <c r="CK7" s="45" t="s">
+      <c r="CQ7" s="61"/>
+      <c r="CR7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CL7" s="51">
+      <c r="CS7" s="51">
         <v>44777</v>
       </c>
-      <c r="CP7" s="44" t="s">
+      <c r="CW7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="CQ7" s="44"/>
-      <c r="CR7" s="44" t="s">
+      <c r="CX7" s="44"/>
+      <c r="CY7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="CS7" s="64">
+      <c r="CZ7" s="64">
         <v>44748</v>
       </c>
-      <c r="CV7" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="CW7" s="44"/>
-      <c r="CX7" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="CY7" s="49">
-        <v>44691</v>
-      </c>
-      <c r="CZ7" s="54"/>
       <c r="DC7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="DD7" s="57" t="s">
+      <c r="DD7" s="44"/>
+      <c r="DE7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="DE7" s="49">
+      <c r="DF7" s="49">
+        <v>44691</v>
+      </c>
+      <c r="DG7" s="54"/>
+      <c r="DJ7" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="DK7" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="DL7" s="49">
         <v>44719</v>
       </c>
     </row>
-    <row r="8" spans="3:109" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="153" t="s">
+    <row r="8" spans="2:116" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="153" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="142"/>
+      <c r="D8" s="159" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="160">
+        <v>45234</v>
+      </c>
+      <c r="J8" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="154"/>
-      <c r="E8" s="155" t="s">
+      <c r="K8" s="154"/>
+      <c r="L8" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="156">
+      <c r="M8" s="156">
         <v>45204</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="I8" s="153" t="s">
+      <c r="N8" s="54"/>
+      <c r="P8" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="154">
+      <c r="Q8" s="154">
         <v>11</v>
       </c>
-      <c r="K8" s="155" t="s">
+      <c r="R8" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="156">
+      <c r="S8" s="156">
         <v>45169</v>
       </c>
-      <c r="M8" s="54"/>
-      <c r="O8" s="44" t="s">
+      <c r="T8" s="54"/>
+      <c r="V8" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="45">
+      <c r="W8" s="57"/>
+      <c r="X8" s="45">
         <v>0.66666666666666663</v>
       </c>
-      <c r="R8" s="64"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="63"/>
-      <c r="Y8" s="53"/>
-      <c r="AB8" s="62"/>
+      <c r="Y8" s="64"/>
       <c r="AC8" s="62"/>
-      <c r="AD8" s="63"/>
-      <c r="AE8" s="53"/>
-      <c r="AH8" s="62"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="53"/>
       <c r="AI8" s="62"/>
-      <c r="AJ8" s="63"/>
-      <c r="AK8" s="53"/>
+      <c r="AJ8" s="62"/>
+      <c r="AK8" s="63"/>
       <c r="AL8" s="53"/>
-      <c r="AN8" s="62"/>
       <c r="AO8" s="62"/>
-      <c r="AP8" s="63"/>
-      <c r="AQ8" s="53"/>
+      <c r="AP8" s="62"/>
+      <c r="AQ8" s="63"/>
+      <c r="AR8" s="53"/>
+      <c r="AS8" s="53"/>
       <c r="AU8" s="62"/>
       <c r="AV8" s="62"/>
       <c r="AW8" s="63"/>
       <c r="AX8" s="53"/>
-      <c r="AZ8" s="62"/>
-      <c r="BA8" s="62"/>
-      <c r="BB8" s="63"/>
-      <c r="BC8" s="53"/>
-      <c r="BF8" s="62"/>
+      <c r="BB8" s="62"/>
+      <c r="BC8" s="62"/>
+      <c r="BD8" s="63"/>
+      <c r="BE8" s="53"/>
       <c r="BG8" s="62"/>
-      <c r="BH8" s="63"/>
-      <c r="BI8" s="53"/>
-      <c r="BL8" s="44"/>
-      <c r="BM8" s="44"/>
-      <c r="BN8" s="44"/>
-      <c r="BO8" s="53"/>
-      <c r="CP8" s="52"/>
-      <c r="CQ8" s="52"/>
-      <c r="CR8" s="52"/>
-      <c r="CS8" s="53"/>
-      <c r="CV8" s="44"/>
-      <c r="CW8" s="44"/>
-      <c r="CX8" s="44"/>
-      <c r="CY8" s="46"/>
-      <c r="DC8" s="52"/>
-      <c r="DD8" s="56"/>
-      <c r="DE8" s="53"/>
-    </row>
-    <row r="9" spans="3:109" ht="21" x14ac:dyDescent="0.35">
-      <c r="C9" s="157"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="158"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="158"/>
-      <c r="R9" s="47"/>
-      <c r="V9" s="44" t="s">
+      <c r="BH8" s="62"/>
+      <c r="BI8" s="63"/>
+      <c r="BJ8" s="53"/>
+      <c r="BM8" s="62"/>
+      <c r="BN8" s="62"/>
+      <c r="BO8" s="63"/>
+      <c r="BP8" s="53"/>
+      <c r="BS8" s="44"/>
+      <c r="BT8" s="44"/>
+      <c r="BU8" s="44"/>
+      <c r="BV8" s="53"/>
+      <c r="CW8" s="52"/>
+      <c r="CX8" s="52"/>
+      <c r="CY8" s="52"/>
+      <c r="CZ8" s="53"/>
+      <c r="DC8" s="44"/>
+      <c r="DD8" s="44"/>
+      <c r="DE8" s="44"/>
+      <c r="DF8" s="46"/>
+      <c r="DJ8" s="52"/>
+      <c r="DK8" s="56"/>
+      <c r="DL8" s="53"/>
+    </row>
+    <row r="9" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+      <c r="B9" s="157"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="158"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="158"/>
+      <c r="P9" s="157"/>
+      <c r="Q9" s="142"/>
+      <c r="R9" s="143"/>
+      <c r="S9" s="158"/>
+      <c r="Y9" s="47"/>
+      <c r="AC9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44" t="s">
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="Y9" s="50">
+      <c r="AF9" s="50">
         <v>45112</v>
       </c>
-      <c r="AB9" s="44" t="s">
+      <c r="AI9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="44" t="s">
+      <c r="AJ9" s="44"/>
+      <c r="AK9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AE9" s="50">
+      <c r="AL9" s="50">
         <v>45084</v>
       </c>
-      <c r="AH9" s="44" t="s">
+      <c r="AO9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AI9" s="44"/>
-      <c r="AJ9" s="44" t="s">
+      <c r="AP9" s="44"/>
+      <c r="AQ9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AK9" s="51">
+      <c r="AR9" s="51">
         <v>45055</v>
       </c>
-      <c r="AL9" s="53"/>
-      <c r="AN9" s="44" t="s">
+      <c r="AS9" s="53"/>
+      <c r="AU9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AO9" s="44"/>
-      <c r="AP9" s="44" t="s">
+      <c r="AV9" s="44"/>
+      <c r="AW9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AQ9" s="51">
+      <c r="AX9" s="51">
         <v>45027</v>
       </c>
-      <c r="AU9" s="61" t="s">
+      <c r="BB9" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AV9" s="61"/>
-      <c r="AW9" s="45" t="s">
+      <c r="BC9" s="61"/>
+      <c r="BD9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AX9" s="68">
+      <c r="BE9" s="68">
         <v>44987</v>
       </c>
-      <c r="AZ9" s="61" t="s">
+      <c r="BG9" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BA9" s="61"/>
-      <c r="BB9" s="45" t="s">
+      <c r="BH9" s="61"/>
+      <c r="BI9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BC9" s="68">
+      <c r="BJ9" s="68">
         <v>44959</v>
       </c>
-      <c r="BF9" s="61" t="s">
+      <c r="BM9" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BG9" s="61"/>
-      <c r="BH9" s="45" t="s">
+      <c r="BN9" s="61"/>
+      <c r="BO9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BI9" s="68">
+      <c r="BP9" s="68">
         <v>44931</v>
       </c>
-      <c r="BL9" s="44" t="s">
+      <c r="BS9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BM9" s="44"/>
-      <c r="BN9" s="44" t="s">
+      <c r="BT9" s="44"/>
+      <c r="BU9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BO9" s="50">
+      <c r="BV9" s="50">
         <v>44902</v>
       </c>
-      <c r="BR9" s="44" t="s">
+      <c r="BY9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="BS9" s="44"/>
-      <c r="BT9" s="44" t="s">
+      <c r="BZ9" s="44"/>
+      <c r="CA9" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="BU9" s="69">
+      <c r="CB9" s="69">
         <v>44875</v>
       </c>
-      <c r="BX9" s="44" t="s">
+      <c r="CE9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="BY9" s="44"/>
-      <c r="BZ9" s="44" t="s">
+      <c r="CF9" s="44"/>
+      <c r="CG9" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="CA9" s="69">
+      <c r="CH9" s="69">
         <v>44840</v>
       </c>
-      <c r="CD9" s="44" t="s">
+      <c r="CK9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="CE9" s="44"/>
-      <c r="CF9" s="44" t="s">
+      <c r="CL9" s="44"/>
+      <c r="CM9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="CG9" s="69">
+      <c r="CN9" s="69">
         <v>44807</v>
       </c>
-      <c r="CI9" s="44" t="s">
+      <c r="CP9" s="44" t="s">
         <v>24</v>
-      </c>
-      <c r="CJ9" s="44"/>
-      <c r="CK9" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="CL9" s="50">
-        <v>44779</v>
-      </c>
-      <c r="CP9" s="44" t="s">
-        <v>25</v>
       </c>
       <c r="CQ9" s="44"/>
       <c r="CR9" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="CS9" s="50">
+        <v>44779</v>
+      </c>
+      <c r="CW9" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="CX9" s="44"/>
+      <c r="CY9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="CS9" s="49">
+      <c r="CZ9" s="49">
         <v>44749</v>
-      </c>
-      <c r="CV9" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="CW9" s="44"/>
-      <c r="CX9" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="CY9" s="51">
-        <v>44693</v>
       </c>
       <c r="DC9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="DD9" s="57" t="s">
+      <c r="DD9" s="44"/>
+      <c r="DE9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="DE9" s="51">
+      <c r="DF9" s="51">
+        <v>44693</v>
+      </c>
+      <c r="DJ9" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="DK9" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="DL9" s="51">
         <v>44721</v>
       </c>
     </row>
-    <row r="10" spans="3:109" ht="21" x14ac:dyDescent="0.35">
-      <c r="C10" s="162" t="s">
+    <row r="10" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+      <c r="B10" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="154"/>
-      <c r="E10" s="155" t="s">
+      <c r="C10" s="154"/>
+      <c r="D10" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="163">
+      <c r="E10" s="163">
+        <v>45236</v>
+      </c>
+      <c r="J10" s="162" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="154"/>
+      <c r="L10" s="155" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="163">
         <v>45205</v>
       </c>
-      <c r="I10" s="153" t="s">
+      <c r="P10" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="142"/>
-      <c r="K10" s="159" t="s">
+      <c r="Q10" s="142"/>
+      <c r="R10" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="160">
+      <c r="S10" s="160">
         <v>45171</v>
       </c>
-      <c r="O10" s="44" t="s">
+      <c r="V10" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="57">
+      <c r="W10" s="57">
         <v>11</v>
       </c>
-      <c r="Q10" s="44" t="s">
+      <c r="X10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="R10" s="50"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="53"/>
-      <c r="AB10" s="44"/>
+      <c r="Y10" s="50"/>
       <c r="AC10" s="44"/>
       <c r="AD10" s="44"/>
-      <c r="AE10" s="53"/>
-      <c r="AH10" s="52"/>
-      <c r="AI10" s="52"/>
-      <c r="AJ10" s="52"/>
-      <c r="AK10" s="53"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="53"/>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="44"/>
+      <c r="AK10" s="44"/>
       <c r="AL10" s="53"/>
-      <c r="AN10" s="52"/>
       <c r="AO10" s="52"/>
       <c r="AP10" s="52"/>
-      <c r="AQ10" s="53"/>
+      <c r="AQ10" s="52"/>
+      <c r="AR10" s="53"/>
+      <c r="AS10" s="53"/>
       <c r="AU10" s="52"/>
       <c r="AV10" s="52"/>
       <c r="AW10" s="52"/>
       <c r="AX10" s="53"/>
-      <c r="AZ10" s="52"/>
-      <c r="BA10" s="52"/>
       <c r="BB10" s="52"/>
-      <c r="BC10" s="53"/>
-      <c r="BF10" s="52"/>
+      <c r="BC10" s="52"/>
+      <c r="BD10" s="52"/>
+      <c r="BE10" s="53"/>
       <c r="BG10" s="52"/>
       <c r="BH10" s="52"/>
-      <c r="BI10" s="53"/>
-      <c r="BJ10" s="54"/>
-      <c r="CP10" s="52"/>
-      <c r="CQ10" s="52"/>
-      <c r="CR10" s="52"/>
-      <c r="CS10" s="53"/>
-      <c r="CV10" s="44"/>
-      <c r="CW10" s="44"/>
-      <c r="CX10" s="44"/>
-      <c r="CY10" s="46"/>
-      <c r="DC10" s="52"/>
-      <c r="DD10" s="56"/>
-      <c r="DE10" s="53"/>
-    </row>
-    <row r="11" spans="3:109" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C11" s="157"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="158"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="142"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="158"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="53"/>
-      <c r="V11" s="44" t="s">
+      <c r="BI10" s="52"/>
+      <c r="BJ10" s="53"/>
+      <c r="BM10" s="52"/>
+      <c r="BN10" s="52"/>
+      <c r="BO10" s="52"/>
+      <c r="BP10" s="53"/>
+      <c r="BQ10" s="54"/>
+      <c r="CW10" s="52"/>
+      <c r="CX10" s="52"/>
+      <c r="CY10" s="52"/>
+      <c r="CZ10" s="53"/>
+      <c r="DC10" s="44"/>
+      <c r="DD10" s="44"/>
+      <c r="DE10" s="44"/>
+      <c r="DF10" s="46"/>
+      <c r="DJ10" s="52"/>
+      <c r="DK10" s="56"/>
+      <c r="DL10" s="53"/>
+    </row>
+    <row r="11" spans="2:116" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B11" s="157"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="158"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="142"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="158"/>
+      <c r="P11" s="157"/>
+      <c r="Q11" s="142"/>
+      <c r="R11" s="161"/>
+      <c r="S11" s="158"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="53"/>
+      <c r="AC11" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44" t="s">
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Y11" s="71">
+      <c r="AF11" s="71">
         <v>45114</v>
       </c>
-      <c r="AB11" s="44" t="s">
+      <c r="AI11" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="44" t="s">
+      <c r="AJ11" s="44"/>
+      <c r="AK11" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AE11" s="71">
+      <c r="AL11" s="71">
         <v>45086</v>
       </c>
-      <c r="AH11" s="83" t="s">
+      <c r="AO11" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="AI11" s="84" t="s">
+      <c r="AP11" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="AJ11" s="83" t="s">
+      <c r="AQ11" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="AK11" s="49"/>
-      <c r="AL11" s="53"/>
-      <c r="AN11" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO11" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP11" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ11" s="49"/>
+      <c r="AR11" s="49"/>
+      <c r="AS11" s="53"/>
       <c r="AU11" s="83" t="s">
         <v>24</v>
       </c>
@@ -5040,322 +5082,336 @@
       <c r="AW11" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="AX11" s="49">
+      <c r="AX11" s="49"/>
+      <c r="BB11" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC11" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="BD11" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE11" s="49">
         <v>44993</v>
       </c>
-      <c r="AZ11" s="44" t="s">
+      <c r="BG11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BA11" s="44"/>
-      <c r="BB11" s="44" t="s">
+      <c r="BH11" s="44"/>
+      <c r="BI11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BC11" s="51">
+      <c r="BJ11" s="51">
         <v>44967</v>
       </c>
-      <c r="BF11" s="44" t="s">
+      <c r="BM11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BG11" s="44"/>
-      <c r="BH11" s="44" t="s">
+      <c r="BN11" s="44"/>
+      <c r="BO11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BI11" s="51">
+      <c r="BP11" s="51">
         <v>44932</v>
       </c>
-      <c r="BL11" s="44" t="s">
+      <c r="BS11" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="BM11" s="44"/>
-      <c r="BN11" s="44" t="s">
+      <c r="BT11" s="44"/>
+      <c r="BU11" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="BO11" s="69">
+      <c r="BV11" s="69">
         <v>44903</v>
       </c>
-      <c r="BR11" s="44" t="s">
+      <c r="BY11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BS11" s="44"/>
-      <c r="BT11" s="44" t="s">
+      <c r="BZ11" s="44"/>
+      <c r="CA11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BU11" s="51">
+      <c r="CB11" s="51">
         <v>44876</v>
       </c>
-      <c r="BX11" s="44" t="s">
+      <c r="CE11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BY11" s="44"/>
-      <c r="BZ11" s="44" t="s">
+      <c r="CF11" s="44"/>
+      <c r="CG11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="CA11" s="51">
+      <c r="CH11" s="51">
         <v>44841</v>
       </c>
-      <c r="CD11" s="44" t="s">
+      <c r="CK11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="CE11" s="44"/>
-      <c r="CF11" s="44" t="s">
+      <c r="CL11" s="44"/>
+      <c r="CM11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="CG11" s="51">
+      <c r="CN11" s="51">
         <v>44812</v>
       </c>
-      <c r="CI11" s="44" t="s">
+      <c r="CP11" s="44" t="s">
         <v>25</v>
-      </c>
-      <c r="CJ11" s="44"/>
-      <c r="CK11" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="CL11" s="49">
-        <v>44784</v>
-      </c>
-      <c r="CP11" s="44" t="s">
-        <v>24</v>
       </c>
       <c r="CQ11" s="44"/>
       <c r="CR11" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="CS11" s="49">
+        <v>44784</v>
+      </c>
+      <c r="CW11" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="CX11" s="44"/>
+      <c r="CY11" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="CS11" s="50">
+      <c r="CZ11" s="50">
         <v>44751</v>
       </c>
-      <c r="CV11" s="44" t="s">
+      <c r="DC11" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CW11" s="52"/>
-      <c r="CX11" s="44" t="s">
+      <c r="DD11" s="52"/>
+      <c r="DE11" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="CY11" s="49">
+      <c r="DF11" s="49">
         <v>44695</v>
       </c>
-      <c r="DC11" s="44" t="s">
+      <c r="DJ11" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="DD11" s="57" t="s">
+      <c r="DK11" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="DE11" s="50">
+      <c r="DL11" s="50">
         <v>44723</v>
       </c>
     </row>
-    <row r="12" spans="3:109" ht="21" x14ac:dyDescent="0.35">
-      <c r="C12" s="153" t="s">
+    <row r="12" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+      <c r="B12" s="165" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="154"/>
+      <c r="D12" s="159" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="166">
+        <v>45237</v>
+      </c>
+      <c r="J12" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="142"/>
-      <c r="E12" s="159" t="s">
+      <c r="K12" s="142"/>
+      <c r="L12" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="160">
+      <c r="M12" s="160">
         <v>45206</v>
       </c>
-      <c r="I12" s="162" t="s">
+      <c r="P12" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="154">
+      <c r="Q12" s="154">
         <v>5</v>
       </c>
-      <c r="K12" s="155" t="s">
+      <c r="R12" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="163">
+      <c r="S12" s="163">
         <v>45177</v>
       </c>
-      <c r="O12" s="44" t="s">
+      <c r="V12" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="45" t="s">
+      <c r="W12" s="56"/>
+      <c r="X12" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="R12" s="70"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="53"/>
-      <c r="AB12" s="52"/>
+      <c r="Y12" s="70"/>
       <c r="AC12" s="52"/>
       <c r="AD12" s="52"/>
-      <c r="AE12" s="53"/>
-      <c r="AH12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="53"/>
       <c r="AI12" s="52"/>
       <c r="AJ12" s="52"/>
-      <c r="AK12" s="53"/>
+      <c r="AK12" s="52"/>
       <c r="AL12" s="53"/>
-      <c r="AN12" s="52"/>
       <c r="AO12" s="52"/>
       <c r="AP12" s="52"/>
-      <c r="AQ12" s="53"/>
+      <c r="AQ12" s="52"/>
+      <c r="AR12" s="53"/>
+      <c r="AS12" s="53"/>
       <c r="AU12" s="52"/>
       <c r="AV12" s="52"/>
       <c r="AW12" s="52"/>
       <c r="AX12" s="53"/>
-      <c r="BR12" s="62"/>
-      <c r="BS12" s="62"/>
-      <c r="BT12" s="63"/>
-      <c r="BU12" s="53"/>
-      <c r="BX12" s="62"/>
+      <c r="BB12" s="52"/>
+      <c r="BC12" s="52"/>
+      <c r="BD12" s="52"/>
+      <c r="BE12" s="53"/>
       <c r="BY12" s="62"/>
-      <c r="BZ12" s="63"/>
-      <c r="CA12" s="53"/>
-      <c r="CD12" s="62"/>
+      <c r="BZ12" s="62"/>
+      <c r="CA12" s="63"/>
+      <c r="CB12" s="53"/>
       <c r="CE12" s="62"/>
-      <c r="CF12" s="63"/>
-      <c r="CG12" s="53"/>
-      <c r="CI12" s="62"/>
-      <c r="CJ12" s="62"/>
-      <c r="CK12" s="63"/>
-      <c r="CL12" s="53"/>
-      <c r="CP12" s="52"/>
-      <c r="CQ12" s="52"/>
-      <c r="CR12" s="52"/>
+      <c r="CF12" s="62"/>
+      <c r="CG12" s="63"/>
+      <c r="CH12" s="53"/>
+      <c r="CK12" s="62"/>
+      <c r="CL12" s="62"/>
+      <c r="CM12" s="63"/>
+      <c r="CN12" s="53"/>
+      <c r="CP12" s="62"/>
+      <c r="CQ12" s="62"/>
+      <c r="CR12" s="63"/>
       <c r="CS12" s="53"/>
-      <c r="CV12" s="44"/>
-      <c r="CW12" s="44"/>
-      <c r="CX12" s="44"/>
-      <c r="CY12" s="46"/>
-      <c r="DC12" s="52"/>
-      <c r="DD12" s="56"/>
-      <c r="DE12" s="53"/>
-    </row>
-    <row r="13" spans="3:109" ht="21" x14ac:dyDescent="0.35">
-      <c r="C13" s="164"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="158"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="158"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="53"/>
-      <c r="V13" s="44" t="s">
+      <c r="CW12" s="52"/>
+      <c r="CX12" s="52"/>
+      <c r="CY12" s="52"/>
+      <c r="CZ12" s="53"/>
+      <c r="DC12" s="44"/>
+      <c r="DD12" s="44"/>
+      <c r="DE12" s="44"/>
+      <c r="DF12" s="46"/>
+      <c r="DJ12" s="52"/>
+      <c r="DK12" s="56"/>
+      <c r="DL12" s="53"/>
+    </row>
+    <row r="13" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+      <c r="B13" s="168"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="158"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="158"/>
+      <c r="P13" s="164"/>
+      <c r="Q13" s="142"/>
+      <c r="R13" s="143"/>
+      <c r="S13" s="158"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="53"/>
+      <c r="AC13" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="W13" s="52"/>
-      <c r="X13" s="45" t="s">
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="Y13" s="70">
+      <c r="AF13" s="70">
         <v>45115</v>
       </c>
-      <c r="AB13" s="44" t="s">
+      <c r="AI13" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AC13" s="52"/>
-      <c r="AD13" s="45" t="s">
+      <c r="AJ13" s="52"/>
+      <c r="AK13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AE13" s="70">
+      <c r="AL13" s="70">
         <v>45087</v>
       </c>
-      <c r="AH13" s="61" t="s">
+      <c r="AO13" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AI13" s="61"/>
-      <c r="AJ13" s="45" t="s">
+      <c r="AP13" s="61"/>
+      <c r="AQ13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AK13" s="68">
+      <c r="AR13" s="68">
         <v>45057</v>
       </c>
-      <c r="AL13" s="53"/>
-      <c r="AN13" s="61" t="s">
+      <c r="AS13" s="53"/>
+      <c r="AU13" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AO13" s="61"/>
-      <c r="AP13" s="45" t="s">
+      <c r="AV13" s="61"/>
+      <c r="AW13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AQ13" s="68">
+      <c r="AX13" s="68">
         <v>45029</v>
       </c>
-      <c r="AU13" s="44" t="s">
+      <c r="BB13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AV13" s="44"/>
-      <c r="AW13" s="44" t="s">
+      <c r="BC13" s="44"/>
+      <c r="BD13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AX13" s="51">
+      <c r="BE13" s="51">
         <v>44995</v>
       </c>
-      <c r="AZ13" s="44" t="s">
+      <c r="BG13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="BA13" s="44"/>
-      <c r="BB13" s="44" t="s">
+      <c r="BH13" s="44"/>
+      <c r="BI13" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="BC13" s="69">
+      <c r="BJ13" s="69">
         <v>44966</v>
       </c>
-      <c r="BF13" s="44" t="s">
+      <c r="BM13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="BG13" s="44"/>
-      <c r="BH13" s="44" t="s">
+      <c r="BN13" s="44"/>
+      <c r="BO13" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="BI13" s="69">
+      <c r="BP13" s="69">
         <v>44938</v>
       </c>
-      <c r="BL13" s="44" t="s">
+      <c r="BS13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BM13" s="44"/>
-      <c r="BN13" s="44" t="s">
+      <c r="BT13" s="44"/>
+      <c r="BU13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BO13" s="51">
+      <c r="BV13" s="51">
         <v>44904</v>
       </c>
-      <c r="BR13" s="44" t="s">
+      <c r="BY13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BS13" s="44"/>
-      <c r="BT13" s="44" t="s">
+      <c r="BZ13" s="44"/>
+      <c r="CA13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BU13" s="71">
+      <c r="CB13" s="71">
         <v>44883</v>
       </c>
-      <c r="BX13" s="44" t="s">
+      <c r="CE13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BY13" s="44"/>
-      <c r="BZ13" s="44" t="s">
+      <c r="CF13" s="44"/>
+      <c r="CG13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="CA13" s="71">
+      <c r="CH13" s="71">
         <v>44848</v>
       </c>
-      <c r="CD13" s="44" t="s">
+      <c r="CK13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CE13" s="44"/>
-      <c r="CF13" s="44" t="s">
+      <c r="CL13" s="44"/>
+      <c r="CM13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="CG13" s="67">
+      <c r="CN13" s="67">
         <v>44813</v>
-      </c>
-      <c r="CI13" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="CJ13" s="44"/>
-      <c r="CK13" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="CL13" s="65">
-        <v>44785</v>
       </c>
       <c r="CP13" s="44" t="s">
         <v>21</v>
@@ -5365,176 +5421,190 @@
         <v>22</v>
       </c>
       <c r="CS13" s="65">
+        <v>44785</v>
+      </c>
+      <c r="CW13" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="CX13" s="44"/>
+      <c r="CY13" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="CZ13" s="65">
         <v>44756</v>
       </c>
-      <c r="CV13" s="44" t="s">
+      <c r="DC13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="CW13" s="44"/>
-      <c r="CX13" s="44" t="s">
+      <c r="DD13" s="44"/>
+      <c r="DE13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="CY13" s="50">
+      <c r="DF13" s="50">
         <v>44695</v>
       </c>
-      <c r="DC13" s="44" t="s">
+      <c r="DJ13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="DD13" s="57" t="s">
+      <c r="DK13" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="DE13" s="51">
+      <c r="DL13" s="51">
         <v>44728</v>
       </c>
     </row>
-    <row r="14" spans="3:109" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="165" t="s">
+    <row r="14" spans="2:116" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="153" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="154"/>
+      <c r="D14" s="155" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="156">
+        <v>45239</v>
+      </c>
+      <c r="J14" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="154"/>
-      <c r="E14" s="159" t="s">
+      <c r="K14" s="154"/>
+      <c r="L14" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="166">
+      <c r="M14" s="166">
         <v>45209</v>
       </c>
-      <c r="I14" s="165" t="s">
+      <c r="P14" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="154">
+      <c r="Q14" s="154">
         <v>7</v>
       </c>
-      <c r="K14" s="159" t="s">
+      <c r="R14" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="166">
+      <c r="S14" s="166">
         <v>45181</v>
       </c>
-      <c r="O14" s="83" t="s">
+      <c r="V14" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="45">
+      <c r="W14" s="57"/>
+      <c r="X14" s="45">
         <v>0.72916666666666663</v>
       </c>
-      <c r="R14" s="49">
+      <c r="Y14" s="49">
         <v>45160</v>
       </c>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="53"/>
-      <c r="AB14" s="52"/>
       <c r="AC14" s="52"/>
       <c r="AD14" s="52"/>
-      <c r="AE14" s="53"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="62"/>
-      <c r="AJ14" s="63"/>
-      <c r="AK14" s="53"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="53"/>
+      <c r="AI14" s="52"/>
+      <c r="AJ14" s="52"/>
+      <c r="AK14" s="52"/>
       <c r="AL14" s="53"/>
-      <c r="AN14" s="62"/>
       <c r="AO14" s="62"/>
-      <c r="AP14" s="63"/>
-      <c r="AQ14" s="53"/>
+      <c r="AP14" s="62"/>
+      <c r="AQ14" s="63"/>
+      <c r="AR14" s="53"/>
+      <c r="AS14" s="53"/>
       <c r="AU14" s="62"/>
       <c r="AV14" s="62"/>
       <c r="AW14" s="63"/>
       <c r="AX14" s="53"/>
-      <c r="AZ14" s="62"/>
-      <c r="BA14" s="62"/>
-      <c r="BB14" s="63"/>
-      <c r="BC14" s="53"/>
-      <c r="BF14" s="62"/>
+      <c r="BB14" s="62"/>
+      <c r="BC14" s="62"/>
+      <c r="BD14" s="63"/>
+      <c r="BE14" s="53"/>
       <c r="BG14" s="62"/>
-      <c r="BH14" s="63"/>
-      <c r="BI14" s="53"/>
-      <c r="BL14" s="62"/>
+      <c r="BH14" s="62"/>
+      <c r="BI14" s="63"/>
+      <c r="BJ14" s="53"/>
       <c r="BM14" s="62"/>
-      <c r="BN14" s="63"/>
-      <c r="BO14" s="53"/>
-      <c r="BR14" s="52"/>
-      <c r="BS14" s="52"/>
-      <c r="BT14" s="52"/>
-      <c r="BU14" s="53"/>
-      <c r="BX14" s="52"/>
+      <c r="BN14" s="62"/>
+      <c r="BO14" s="63"/>
+      <c r="BP14" s="53"/>
+      <c r="BS14" s="62"/>
+      <c r="BT14" s="62"/>
+      <c r="BU14" s="63"/>
+      <c r="BV14" s="53"/>
       <c r="BY14" s="52"/>
       <c r="BZ14" s="52"/>
-      <c r="CA14" s="53"/>
-      <c r="CD14" s="52"/>
+      <c r="CA14" s="52"/>
+      <c r="CB14" s="53"/>
       <c r="CE14" s="52"/>
       <c r="CF14" s="52"/>
-      <c r="CG14" s="53"/>
-      <c r="CI14" s="52"/>
-      <c r="CJ14" s="52"/>
+      <c r="CG14" s="52"/>
+      <c r="CH14" s="53"/>
       <c r="CK14" s="52"/>
-      <c r="CL14" s="53"/>
+      <c r="CL14" s="52"/>
+      <c r="CM14" s="52"/>
+      <c r="CN14" s="53"/>
       <c r="CP14" s="52"/>
       <c r="CQ14" s="52"/>
       <c r="CR14" s="52"/>
       <c r="CS14" s="53"/>
-      <c r="CV14" s="44"/>
-      <c r="CW14" s="44"/>
-      <c r="CX14" s="44"/>
-      <c r="CY14" s="46"/>
-      <c r="DC14" s="52"/>
-      <c r="DD14" s="56"/>
-      <c r="DE14" s="53"/>
-    </row>
-    <row r="15" spans="3:109" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="157"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="158"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="158"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="101"/>
-      <c r="V15" s="61" t="s">
+      <c r="CW14" s="52"/>
+      <c r="CX14" s="52"/>
+      <c r="CY14" s="52"/>
+      <c r="CZ14" s="53"/>
+      <c r="DC14" s="44"/>
+      <c r="DD14" s="44"/>
+      <c r="DE14" s="44"/>
+      <c r="DF14" s="46"/>
+      <c r="DJ14" s="52"/>
+      <c r="DK14" s="56"/>
+      <c r="DL14" s="53"/>
+    </row>
+    <row r="15" spans="2:116" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="157"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="158"/>
+      <c r="J15" s="157"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="158"/>
+      <c r="P15" s="157"/>
+      <c r="Q15" s="142"/>
+      <c r="R15" s="143"/>
+      <c r="S15" s="158"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="99"/>
+      <c r="X15" s="100"/>
+      <c r="Y15" s="101"/>
+      <c r="AC15" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="W15" s="61"/>
-      <c r="X15" s="45" t="s">
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="Y15" s="97">
+      <c r="AF15" s="97">
         <v>45119</v>
       </c>
-      <c r="AB15" s="61" t="s">
+      <c r="AI15" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AC15" s="61"/>
-      <c r="AD15" s="45" t="s">
+      <c r="AJ15" s="61"/>
+      <c r="AK15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AE15" s="68">
+      <c r="AL15" s="68">
         <v>45091</v>
       </c>
-      <c r="AH15" s="44" t="s">
+      <c r="AO15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AI15" s="44"/>
-      <c r="AJ15" s="44" t="s">
+      <c r="AP15" s="44"/>
+      <c r="AQ15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AK15" s="71">
+      <c r="AR15" s="71">
         <v>45058</v>
       </c>
-      <c r="AL15" s="53"/>
-      <c r="AN15" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="AO15" s="44"/>
-      <c r="AP15" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="AQ15" s="71">
-        <v>45030</v>
-      </c>
+      <c r="AS15" s="53"/>
       <c r="AU15" s="44" t="s">
         <v>21</v>
       </c>
@@ -5543,248 +5613,262 @@
         <v>22</v>
       </c>
       <c r="AX15" s="71">
+        <v>45030</v>
+      </c>
+      <c r="BB15" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC15" s="44"/>
+      <c r="BD15" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="BE15" s="71">
         <v>45001</v>
       </c>
-      <c r="AZ15" s="44" t="s">
+      <c r="BG15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BA15" s="44"/>
-      <c r="BB15" s="44" t="s">
+      <c r="BH15" s="44"/>
+      <c r="BI15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BC15" s="71">
+      <c r="BJ15" s="71">
         <v>44973</v>
       </c>
-      <c r="BF15" s="44" t="s">
+      <c r="BM15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BG15" s="44"/>
-      <c r="BH15" s="44" t="s">
+      <c r="BN15" s="44"/>
+      <c r="BO15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BI15" s="71">
+      <c r="BP15" s="71">
         <v>44946</v>
       </c>
-      <c r="BL15" s="44" t="s">
+      <c r="BS15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BM15" s="44"/>
-      <c r="BN15" s="44" t="s">
+      <c r="BT15" s="44"/>
+      <c r="BU15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BO15" s="71">
+      <c r="BV15" s="71">
         <v>44911</v>
       </c>
-      <c r="BR15" s="44" t="s">
+      <c r="BY15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BS15" s="52"/>
-      <c r="BT15" s="45" t="s">
+      <c r="BZ15" s="52"/>
+      <c r="CA15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BU15" s="70">
+      <c r="CB15" s="70">
         <v>44884</v>
       </c>
-      <c r="BX15" s="44" t="s">
+      <c r="CE15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BY15" s="52"/>
-      <c r="BZ15" s="45" t="s">
+      <c r="CF15" s="52"/>
+      <c r="CG15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CA15" s="70">
+      <c r="CH15" s="70">
         <v>44849</v>
       </c>
-      <c r="CD15" s="44" t="s">
+      <c r="CK15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CE15" s="52"/>
-      <c r="CF15" s="45" t="s">
+      <c r="CL15" s="52"/>
+      <c r="CM15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CG15" s="70">
+      <c r="CN15" s="70">
         <v>44814</v>
-      </c>
-      <c r="CI15" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="CJ15" s="52"/>
-      <c r="CK15" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="CL15" s="66">
-        <v>44786</v>
       </c>
       <c r="CP15" s="44" t="s">
         <v>19</v>
       </c>
       <c r="CQ15" s="52"/>
-      <c r="CR15" s="44" t="s">
+      <c r="CR15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="CS15" s="66">
+        <v>44786</v>
+      </c>
+      <c r="CW15" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="CX15" s="52"/>
+      <c r="CY15" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="CS15" s="66">
+      <c r="CZ15" s="66">
         <v>44758</v>
       </c>
-      <c r="CV15" s="44" t="s">
+      <c r="DC15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CW15" s="44"/>
-      <c r="CX15" s="44" t="s">
+      <c r="DD15" s="44"/>
+      <c r="DE15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="CY15" s="51">
+      <c r="DF15" s="51">
         <v>44700</v>
       </c>
-      <c r="DC15" s="44" t="s">
+      <c r="DJ15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="DD15" s="57" t="s">
+      <c r="DK15" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="DE15" s="49">
+      <c r="DL15" s="49">
         <v>44730</v>
       </c>
     </row>
-    <row r="16" spans="3:109" ht="21" x14ac:dyDescent="0.35">
-      <c r="C16" s="168" t="s">
+    <row r="16" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+      <c r="B16" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="154"/>
-      <c r="E16" s="159">
+      <c r="C16" s="154"/>
+      <c r="D16" s="159">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F16" s="169">
+      <c r="E16" s="169">
+        <v>45245</v>
+      </c>
+      <c r="J16" s="168" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="154"/>
+      <c r="L16" s="159">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="M16" s="169">
         <v>45217</v>
       </c>
-      <c r="I16" s="153" t="s">
+      <c r="P16" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="154"/>
-      <c r="K16" s="159">
+      <c r="Q16" s="154"/>
+      <c r="R16" s="159">
         <v>0.66666666666666663</v>
       </c>
-      <c r="L16" s="167">
+      <c r="S16" s="167">
         <v>45190</v>
       </c>
-      <c r="O16" s="44" t="s">
+      <c r="V16" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="P16" s="57">
+      <c r="W16" s="57">
         <v>4</v>
       </c>
-      <c r="Q16" s="44" t="s">
+      <c r="X16" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="R16" s="51">
+      <c r="Y16" s="51">
         <v>45160</v>
       </c>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="63"/>
-      <c r="Y16" s="53"/>
-      <c r="AB16" s="62"/>
       <c r="AC16" s="62"/>
-      <c r="AD16" s="63"/>
-      <c r="AE16" s="53"/>
-      <c r="AH16" s="52"/>
-      <c r="AI16" s="52"/>
-      <c r="AJ16" s="52"/>
-      <c r="AK16" s="53"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="53"/>
+      <c r="AI16" s="62"/>
+      <c r="AJ16" s="62"/>
+      <c r="AK16" s="63"/>
       <c r="AL16" s="53"/>
-      <c r="AN16" s="52"/>
       <c r="AO16" s="52"/>
       <c r="AP16" s="52"/>
-      <c r="AQ16" s="53"/>
+      <c r="AQ16" s="52"/>
+      <c r="AR16" s="53"/>
+      <c r="AS16" s="53"/>
       <c r="AU16" s="52"/>
       <c r="AV16" s="52"/>
       <c r="AW16" s="52"/>
       <c r="AX16" s="53"/>
-      <c r="AZ16" s="52"/>
-      <c r="BA16" s="52"/>
       <c r="BB16" s="52"/>
-      <c r="BC16" s="53"/>
-      <c r="BF16" s="52"/>
+      <c r="BC16" s="52"/>
+      <c r="BD16" s="52"/>
+      <c r="BE16" s="53"/>
       <c r="BG16" s="52"/>
       <c r="BH16" s="52"/>
-      <c r="BI16" s="53"/>
-      <c r="BL16" s="52"/>
+      <c r="BI16" s="52"/>
+      <c r="BJ16" s="53"/>
       <c r="BM16" s="52"/>
       <c r="BN16" s="52"/>
-      <c r="BO16" s="53"/>
-      <c r="CD16" s="44"/>
-      <c r="CE16" s="44"/>
-      <c r="CF16" s="44"/>
-      <c r="CG16" s="46"/>
-      <c r="CI16" s="44"/>
-      <c r="CJ16" s="44"/>
+      <c r="BO16" s="52"/>
+      <c r="BP16" s="53"/>
+      <c r="BS16" s="52"/>
+      <c r="BT16" s="52"/>
+      <c r="BU16" s="52"/>
+      <c r="BV16" s="53"/>
       <c r="CK16" s="44"/>
-      <c r="CL16" s="46"/>
+      <c r="CL16" s="44"/>
+      <c r="CM16" s="44"/>
+      <c r="CN16" s="46"/>
       <c r="CP16" s="44"/>
       <c r="CQ16" s="44"/>
       <c r="CR16" s="44"/>
       <c r="CS16" s="46"/>
-      <c r="CV16" s="44"/>
       <c r="CW16" s="44"/>
       <c r="CX16" s="44"/>
-      <c r="CY16" s="46"/>
+      <c r="CY16" s="44"/>
+      <c r="CZ16" s="46"/>
       <c r="DC16" s="44"/>
-      <c r="DD16" s="57"/>
-      <c r="DE16" s="46"/>
-    </row>
-    <row r="17" spans="3:109" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C17" s="168"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="158"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="158"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="51"/>
-      <c r="V17" s="83" t="s">
+      <c r="DD16" s="44"/>
+      <c r="DE16" s="44"/>
+      <c r="DF16" s="46"/>
+      <c r="DJ16" s="44"/>
+      <c r="DK16" s="57"/>
+      <c r="DL16" s="46"/>
+    </row>
+    <row r="17" spans="2:116" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B17" s="168"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="158"/>
+      <c r="J17" s="168"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="158"/>
+      <c r="P17" s="157"/>
+      <c r="Q17" s="142"/>
+      <c r="R17" s="143"/>
+      <c r="S17" s="158"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="51"/>
+      <c r="AC17" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="W17" s="84" t="s">
+      <c r="AD17" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="X17" s="83" t="s">
+      <c r="AE17" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Y17" s="49"/>
-      <c r="AB17" s="83" t="s">
+      <c r="AF17" s="49"/>
+      <c r="AI17" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="AC17" s="84" t="s">
+      <c r="AJ17" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="AD17" s="83" t="s">
+      <c r="AK17" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="AE17" s="49"/>
-      <c r="AH17" s="44" t="s">
+      <c r="AL17" s="49"/>
+      <c r="AO17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AI17" s="52"/>
-      <c r="AJ17" s="45" t="s">
+      <c r="AP17" s="52"/>
+      <c r="AQ17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AK17" s="70">
+      <c r="AR17" s="70">
         <v>45059</v>
       </c>
-      <c r="AL17" s="53"/>
-      <c r="AN17" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="AO17" s="52"/>
-      <c r="AP17" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ17" s="70">
-        <v>45031</v>
-      </c>
+      <c r="AS17" s="53"/>
       <c r="AU17" s="44" t="s">
         <v>19</v>
       </c>
@@ -5793,330 +5877,388 @@
         <v>15</v>
       </c>
       <c r="AX17" s="70">
+        <v>45031</v>
+      </c>
+      <c r="BB17" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC17" s="52"/>
+      <c r="BD17" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE17" s="70">
         <v>45003</v>
       </c>
-      <c r="AZ17" s="44" t="s">
+      <c r="BG17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BA17" s="52"/>
-      <c r="BB17" s="45" t="s">
+      <c r="BH17" s="52"/>
+      <c r="BI17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BC17" s="70">
+      <c r="BJ17" s="70">
         <v>44982</v>
       </c>
-      <c r="BF17" s="44" t="s">
+      <c r="BM17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BG17" s="52"/>
-      <c r="BH17" s="45" t="s">
+      <c r="BN17" s="52"/>
+      <c r="BO17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BI17" s="70">
+      <c r="BP17" s="70">
         <v>44954</v>
       </c>
-      <c r="BL17" s="44" t="s">
+      <c r="BS17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BM17" s="52"/>
-      <c r="BN17" s="45" t="s">
+      <c r="BT17" s="52"/>
+      <c r="BU17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BO17" s="70">
+      <c r="BV17" s="70">
         <v>44912</v>
       </c>
-      <c r="CV17" s="52"/>
-      <c r="CW17" s="52"/>
-      <c r="CX17" s="52"/>
-      <c r="CY17" s="53"/>
-      <c r="DC17" s="44"/>
-      <c r="DD17" s="57"/>
-      <c r="DE17" s="46"/>
-    </row>
-    <row r="18" spans="3:109" ht="21" x14ac:dyDescent="0.35">
-      <c r="C18" s="153" t="s">
+      <c r="DC17" s="52"/>
+      <c r="DD17" s="52"/>
+      <c r="DE17" s="52"/>
+      <c r="DF17" s="53"/>
+      <c r="DJ17" s="44"/>
+      <c r="DK17" s="57"/>
+      <c r="DL17" s="46"/>
+    </row>
+    <row r="18" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+      <c r="B18" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="154"/>
-      <c r="E18" s="159">
+      <c r="C18" s="154"/>
+      <c r="D18" s="159">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F18" s="167">
+      <c r="E18" s="167">
+        <v>45246</v>
+      </c>
+      <c r="J18" s="153" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="154"/>
+      <c r="L18" s="159">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M18" s="167">
         <v>45218</v>
       </c>
-      <c r="I18" s="168" t="s">
+      <c r="P18" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="154"/>
-      <c r="K18" s="159">
+      <c r="Q18" s="154"/>
+      <c r="R18" s="159">
         <v>0.72916666666666663</v>
       </c>
-      <c r="L18" s="169">
+      <c r="S18" s="169">
         <v>45191</v>
       </c>
-      <c r="O18" s="61" t="s">
+      <c r="V18" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="P18" s="57">
+      <c r="W18" s="57">
         <v>7</v>
       </c>
-      <c r="Q18" s="45" t="s">
+      <c r="X18" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="R18" s="97">
+      <c r="Y18" s="97">
         <v>45154</v>
       </c>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="53"/>
-      <c r="AB18" s="52"/>
       <c r="AC18" s="52"/>
       <c r="AD18" s="52"/>
-      <c r="AE18" s="53"/>
-      <c r="AH18" s="54"/>
-      <c r="AI18" s="54"/>
-      <c r="AJ18" s="54"/>
-      <c r="AK18" s="54"/>
-      <c r="AN18" s="54"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="53"/>
+      <c r="AI18" s="52"/>
+      <c r="AJ18" s="52"/>
+      <c r="AK18" s="52"/>
+      <c r="AL18" s="53"/>
       <c r="AO18" s="54"/>
       <c r="AP18" s="54"/>
       <c r="AQ18" s="54"/>
-      <c r="CV18" s="44"/>
-      <c r="CW18" s="44"/>
-      <c r="CX18" s="44"/>
-      <c r="CY18" s="46"/>
+      <c r="AR18" s="54"/>
+      <c r="AU18" s="54"/>
+      <c r="AV18" s="54"/>
+      <c r="AW18" s="54"/>
+      <c r="AX18" s="54"/>
       <c r="DC18" s="44"/>
-      <c r="DD18" s="57"/>
-      <c r="DE18" s="46"/>
-    </row>
-    <row r="19" spans="3:109" ht="21" x14ac:dyDescent="0.35">
-      <c r="C19" s="157"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="158"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="158"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="53"/>
+      <c r="DD18" s="44"/>
+      <c r="DE18" s="44"/>
+      <c r="DF18" s="46"/>
+      <c r="DJ18" s="44"/>
+      <c r="DK18" s="57"/>
+      <c r="DL18" s="46"/>
+    </row>
+    <row r="19" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+      <c r="B19" s="157"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="158"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="158"/>
+      <c r="P19" s="157"/>
+      <c r="Q19" s="142"/>
+      <c r="R19" s="161"/>
+      <c r="S19" s="158"/>
       <c r="V19" s="52"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="63"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="52"/>
       <c r="Y19" s="53"/>
-      <c r="AB19" s="52"/>
       <c r="AC19" s="52"/>
-      <c r="AD19" s="63"/>
-      <c r="AE19" s="53"/>
-      <c r="AH19" s="62"/>
-      <c r="AI19" s="62"/>
-      <c r="AJ19" s="63"/>
-      <c r="AK19" s="53"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="53"/>
+      <c r="AI19" s="52"/>
+      <c r="AJ19" s="52"/>
+      <c r="AK19" s="63"/>
       <c r="AL19" s="53"/>
-      <c r="AN19" s="62"/>
       <c r="AO19" s="62"/>
-      <c r="AP19" s="63"/>
-      <c r="AQ19" s="53"/>
-      <c r="CV19" s="44"/>
-      <c r="CW19" s="44"/>
-      <c r="CX19" s="44"/>
-      <c r="CY19" s="46"/>
-    </row>
-    <row r="20" spans="3:109" ht="21" x14ac:dyDescent="0.35">
-      <c r="C20" s="162" t="s">
+      <c r="AP19" s="62"/>
+      <c r="AQ19" s="63"/>
+      <c r="AR19" s="53"/>
+      <c r="AS19" s="53"/>
+      <c r="AU19" s="62"/>
+      <c r="AV19" s="62"/>
+      <c r="AW19" s="63"/>
+      <c r="AX19" s="53"/>
+      <c r="DC19" s="44"/>
+      <c r="DD19" s="44"/>
+      <c r="DE19" s="44"/>
+      <c r="DF19" s="46"/>
+    </row>
+    <row r="20" spans="2:116" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B20" s="171" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="172"/>
+      <c r="D20" s="173" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="169">
+        <v>45252</v>
+      </c>
+      <c r="J20" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="154"/>
-      <c r="E20" s="155" t="s">
+      <c r="K20" s="154"/>
+      <c r="L20" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="170">
+      <c r="M20" s="170">
         <v>45219</v>
       </c>
-      <c r="I20" s="162" t="s">
+      <c r="P20" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="154">
+      <c r="Q20" s="154">
         <v>4</v>
       </c>
-      <c r="K20" s="155" t="s">
+      <c r="R20" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="170">
+      <c r="S20" s="170">
         <v>45191</v>
       </c>
-      <c r="O20" s="44" t="s">
+      <c r="V20" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="P20" s="57">
+      <c r="W20" s="57">
         <v>5</v>
       </c>
-      <c r="Q20" s="44" t="s">
+      <c r="X20" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="R20" s="71">
+      <c r="Y20" s="71">
         <v>45149</v>
       </c>
-      <c r="CV20" s="44"/>
-      <c r="CW20" s="44"/>
-      <c r="CX20" s="44"/>
-      <c r="CY20" s="46"/>
-    </row>
-    <row r="21" spans="3:109" ht="21" x14ac:dyDescent="0.35">
-      <c r="C21" s="164"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="158"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="158"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="53"/>
-      <c r="CV21" s="44"/>
-      <c r="CW21" s="44"/>
-      <c r="CX21" s="44"/>
-      <c r="CY21" s="46"/>
-    </row>
-    <row r="22" spans="3:109" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C22" s="171" t="s">
+      <c r="DC20" s="44"/>
+      <c r="DD20" s="44"/>
+      <c r="DE20" s="44"/>
+      <c r="DF20" s="46"/>
+    </row>
+    <row r="21" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+      <c r="B21" s="164"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="158"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="158"/>
+      <c r="P21" s="164"/>
+      <c r="Q21" s="142"/>
+      <c r="R21" s="143"/>
+      <c r="S21" s="158"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="53"/>
+      <c r="DC21" s="44"/>
+      <c r="DD21" s="44"/>
+      <c r="DE21" s="44"/>
+      <c r="DF21" s="46"/>
+    </row>
+    <row r="22" spans="2:116" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B22" s="162" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="154"/>
+      <c r="D22" s="155" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="170">
+        <v>45254</v>
+      </c>
+      <c r="J22" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="172" t="s">
+      <c r="K22" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="173" t="s">
+      <c r="L22" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="169"/>
-      <c r="I22" s="171" t="s">
+      <c r="M22" s="169"/>
+      <c r="P22" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="172" t="s">
+      <c r="Q22" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="173" t="s">
+      <c r="R22" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="L22" s="169"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="53"/>
-      <c r="CV22" s="44"/>
-      <c r="CW22" s="44"/>
-      <c r="CX22" s="44"/>
-      <c r="CY22" s="46"/>
-    </row>
-    <row r="23" spans="3:109" ht="21" x14ac:dyDescent="0.35">
-      <c r="C23" s="157"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="158"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="161"/>
-      <c r="L23" s="158"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="53"/>
-      <c r="CV23" s="44"/>
-      <c r="CW23" s="44"/>
-      <c r="CX23" s="44"/>
-      <c r="CY23" s="46"/>
-    </row>
-    <row r="24" spans="3:109" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="174"/>
-      <c r="D24" s="175"/>
-      <c r="E24" s="176"/>
-      <c r="F24" s="177"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="175"/>
-      <c r="K24" s="176"/>
-      <c r="L24" s="177"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="53"/>
-      <c r="CV24" s="44"/>
-      <c r="CW24" s="44"/>
-      <c r="CX24" s="44"/>
-      <c r="CY24" s="46"/>
-    </row>
-    <row r="25" spans="3:109" ht="21" x14ac:dyDescent="0.35">
-      <c r="CV25" s="44"/>
-      <c r="CW25" s="44"/>
-      <c r="CX25" s="44"/>
-      <c r="CY25" s="46"/>
-    </row>
-    <row r="26" spans="3:109" ht="21" x14ac:dyDescent="0.35">
-      <c r="CV26" s="44"/>
-      <c r="CW26" s="44"/>
-      <c r="CX26" s="44"/>
-      <c r="CY26" s="46"/>
-    </row>
-    <row r="27" spans="3:109" ht="21" x14ac:dyDescent="0.35">
-      <c r="CV27" s="44"/>
-      <c r="CW27" s="44"/>
-      <c r="CX27" s="44"/>
-      <c r="CY27" s="46"/>
-    </row>
-    <row r="28" spans="3:109" ht="21" x14ac:dyDescent="0.35">
-      <c r="CV28" s="44"/>
-      <c r="CW28" s="44"/>
-      <c r="CX28" s="44"/>
-      <c r="CY28" s="46"/>
-    </row>
-    <row r="29" spans="3:109" ht="21" x14ac:dyDescent="0.35">
-      <c r="CV29" s="44"/>
-      <c r="CW29" s="44"/>
-      <c r="CX29" s="44"/>
-      <c r="CY29" s="46"/>
-    </row>
-    <row r="30" spans="3:109" ht="21" x14ac:dyDescent="0.35">
-      <c r="CV30" s="44"/>
-      <c r="CW30" s="44"/>
-      <c r="CX30" s="44"/>
-      <c r="CY30" s="46"/>
-    </row>
-    <row r="31" spans="3:109" ht="21" x14ac:dyDescent="0.35">
-      <c r="CV31" s="44"/>
-      <c r="CW31" s="44"/>
-      <c r="CX31" s="44"/>
-      <c r="CY31" s="46"/>
+      <c r="S22" s="169"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="53"/>
+      <c r="DC22" s="44"/>
+      <c r="DD22" s="44"/>
+      <c r="DE22" s="44"/>
+      <c r="DF22" s="46"/>
+    </row>
+    <row r="23" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+      <c r="B23" s="157"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="158"/>
+      <c r="J23" s="157"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="158"/>
+      <c r="P23" s="157"/>
+      <c r="Q23" s="142"/>
+      <c r="R23" s="161"/>
+      <c r="S23" s="158"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="53"/>
+      <c r="DC23" s="44"/>
+      <c r="DD23" s="44"/>
+      <c r="DE23" s="44"/>
+      <c r="DF23" s="46"/>
+    </row>
+    <row r="24" spans="2:116" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="174"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="176"/>
+      <c r="E24" s="177"/>
+      <c r="J24" s="174"/>
+      <c r="K24" s="175"/>
+      <c r="L24" s="176"/>
+      <c r="M24" s="177"/>
+      <c r="P24" s="174"/>
+      <c r="Q24" s="175"/>
+      <c r="R24" s="176"/>
+      <c r="S24" s="177"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="53"/>
+      <c r="DC24" s="44"/>
+      <c r="DD24" s="44"/>
+      <c r="DE24" s="44"/>
+      <c r="DF24" s="46"/>
+    </row>
+    <row r="25" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+      <c r="DC25" s="44"/>
+      <c r="DD25" s="44"/>
+      <c r="DE25" s="44"/>
+      <c r="DF25" s="46"/>
+    </row>
+    <row r="26" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+      <c r="DC26" s="44"/>
+      <c r="DD26" s="44"/>
+      <c r="DE26" s="44"/>
+      <c r="DF26" s="46"/>
+    </row>
+    <row r="27" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+      <c r="DC27" s="44"/>
+      <c r="DD27" s="44"/>
+      <c r="DE27" s="44"/>
+      <c r="DF27" s="46"/>
+    </row>
+    <row r="28" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+      <c r="DC28" s="44"/>
+      <c r="DD28" s="44"/>
+      <c r="DE28" s="44"/>
+      <c r="DF28" s="46"/>
+    </row>
+    <row r="29" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+      <c r="DC29" s="44"/>
+      <c r="DD29" s="44"/>
+      <c r="DE29" s="44"/>
+      <c r="DF29" s="46"/>
+    </row>
+    <row r="30" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+      <c r="DC30" s="44"/>
+      <c r="DD30" s="44"/>
+      <c r="DE30" s="44"/>
+      <c r="DF30" s="46"/>
+    </row>
+    <row r="31" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+      <c r="DC31" s="44"/>
+      <c r="DD31" s="44"/>
+      <c r="DE31" s="44"/>
+      <c r="DF31" s="46"/>
     </row>
   </sheetData>
-  <sortState ref="I8:L21">
-    <sortCondition ref="L8:L21"/>
+  <sortState ref="P8:S21">
+    <sortCondition ref="S8:S21"/>
   </sortState>
-  <mergeCells count="21">
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="O5:Q5"/>
+  <mergeCells count="23">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="DJ3:DL3"/>
+    <mergeCell ref="CW3:CY3"/>
+    <mergeCell ref="CP3:CR3"/>
+    <mergeCell ref="BY3:CA3"/>
+    <mergeCell ref="CE3:CG3"/>
+    <mergeCell ref="CK3:CM3"/>
+    <mergeCell ref="DC3:DF3"/>
+    <mergeCell ref="DC5:DD5"/>
+    <mergeCell ref="BS5:BU5"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="AU5:AW5"/>
+    <mergeCell ref="BB5:BD5"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="BM5:BO5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P6:R6"/>
     <mergeCell ref="V5:X5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="DC3:DE3"/>
-    <mergeCell ref="CP3:CR3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="BX3:BZ3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="CV3:CY3"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="BL5:BN5"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AN5:AP5"/>
-    <mergeCell ref="AU5:AW5"/>
-    <mergeCell ref="AZ5:BB5"/>
-    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AI5:AK5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="68">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -2805,8 +2805,8 @@
   <dimension ref="A2:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3946,8 +3946,12 @@
       <c r="E28" s="82">
         <v>830</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="33"/>
+      <c r="F28" s="9">
+        <v>1856</v>
+      </c>
+      <c r="G28" s="33">
+        <v>842</v>
+      </c>
       <c r="H28" s="20">
         <v>1856</v>
       </c>
@@ -3960,13 +3964,25 @@
       <c r="K28" s="39">
         <v>831</v>
       </c>
-      <c r="L28" s="184"/>
-      <c r="M28" s="127"/>
-      <c r="N28" s="184"/>
-      <c r="O28" s="127"/>
+      <c r="L28" s="184">
+        <v>1624</v>
+      </c>
+      <c r="M28" s="127">
+        <v>840</v>
+      </c>
+      <c r="N28" s="184">
+        <v>986</v>
+      </c>
+      <c r="O28" s="127">
+        <v>837</v>
+      </c>
       <c r="P28" s="138"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="42"/>
+      <c r="Q28" s="9">
+        <v>0</v>
+      </c>
+      <c r="R28" s="42" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="29" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
@@ -6236,6 +6252,13 @@
     <sortCondition ref="S8:S21"/>
   </sortState>
   <mergeCells count="23">
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="BM5:BO5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AI5:AK5"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="J5:L5"/>
@@ -6252,13 +6275,6 @@
     <mergeCell ref="AO5:AQ5"/>
     <mergeCell ref="AU5:AW5"/>
     <mergeCell ref="BB5:BD5"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="BM5:BO5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AI5:AK5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -4206,7 +4206,7 @@
   <dimension ref="B3:DL31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4967,7 +4967,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="163">
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="J10" s="162" t="s">
         <v>21</v>
@@ -5220,7 +5220,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="166">
-        <v>45237</v>
+        <v>45240</v>
       </c>
       <c r="J12" s="153" t="s">
         <v>19</v>
@@ -6252,13 +6252,6 @@
     <sortCondition ref="S8:S21"/>
   </sortState>
   <mergeCells count="23">
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="BM5:BO5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AI5:AK5"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="J5:L5"/>
@@ -6275,6 +6268,13 @@
     <mergeCell ref="AO5:AQ5"/>
     <mergeCell ref="AU5:AW5"/>
     <mergeCell ref="BB5:BD5"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="BM5:BO5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AI5:AK5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMA    ECOPLAG   2023    " sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="69">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>OCT.,2023</t>
+  </si>
+  <si>
+    <t>NOV.,2023</t>
   </si>
 </sst>
 </file>
@@ -2804,9 +2807,9 @@
   </sheetPr>
   <dimension ref="A2:R38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3985,7 +3988,9 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="B29" s="7"/>
       <c r="C29" s="37"/>
       <c r="D29" s="9"/>
@@ -3994,8 +3999,12 @@
       <c r="G29" s="33"/>
       <c r="H29" s="20"/>
       <c r="I29" s="37"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="39"/>
+      <c r="J29" s="20">
+        <v>1392</v>
+      </c>
+      <c r="K29" s="39">
+        <v>854</v>
+      </c>
       <c r="L29" s="184"/>
       <c r="M29" s="127"/>
       <c r="N29" s="184"/>
@@ -4205,7 +4214,7 @@
   </sheetPr>
   <dimension ref="B3:DL31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -6252,6 +6261,13 @@
     <sortCondition ref="S8:S21"/>
   </sortState>
   <mergeCells count="23">
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="BM5:BO5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AI5:AK5"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="J5:L5"/>
@@ -6268,13 +6284,6 @@
     <mergeCell ref="AO5:AQ5"/>
     <mergeCell ref="AU5:AW5"/>
     <mergeCell ref="BB5:BD5"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="BM5:BO5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AI5:AK5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -2808,8 +2808,8 @@
   <dimension ref="A2:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3991,14 +3991,26 @@
       <c r="A29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="82"/>
+      <c r="B29" s="7">
+        <v>986</v>
+      </c>
+      <c r="C29" s="37">
+        <v>859</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1392</v>
+      </c>
+      <c r="E29" s="82">
+        <v>856</v>
+      </c>
       <c r="F29" s="9"/>
       <c r="G29" s="33"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="37"/>
+      <c r="H29" s="20">
+        <v>1856</v>
+      </c>
+      <c r="I29" s="37">
+        <v>857</v>
+      </c>
       <c r="J29" s="20">
         <v>1392</v>
       </c>
@@ -6261,13 +6273,6 @@
     <sortCondition ref="S8:S21"/>
   </sortState>
   <mergeCells count="23">
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="BM5:BO5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AI5:AK5"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="J5:L5"/>
@@ -6284,6 +6289,13 @@
     <mergeCell ref="AO5:AQ5"/>
     <mergeCell ref="AU5:AW5"/>
     <mergeCell ref="BB5:BD5"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="BM5:BO5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AI5:AK5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMA    ECOPLAG   2023    " sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="71">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>NOV.,2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>5.00 PM</t>
   </si>
 </sst>
 </file>
@@ -2807,9 +2813,9 @@
   </sheetPr>
   <dimension ref="A2:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4017,10 +4023,18 @@
       <c r="K29" s="39">
         <v>854</v>
       </c>
-      <c r="L29" s="184"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="184"/>
-      <c r="O29" s="127"/>
+      <c r="L29" s="184">
+        <v>1624</v>
+      </c>
+      <c r="M29" s="127">
+        <v>881</v>
+      </c>
+      <c r="N29" s="184">
+        <v>986</v>
+      </c>
+      <c r="O29" s="127">
+        <v>860</v>
+      </c>
       <c r="P29" s="138"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="42"/>
@@ -4224,10 +4238,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B3:DL31"/>
+  <dimension ref="B1:DT31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4236,118 +4250,130 @@
     <col min="3" max="3" width="21.28515625" style="19" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
     <col min="10" max="10" width="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.28515625" style="19" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="36" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.28515625" style="19" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" customWidth="1"/>
-    <col min="22" max="22" width="36" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.28515625" style="19" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="36" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="36" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="21.7109375" customWidth="1"/>
-    <col min="43" max="43" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15" style="54" customWidth="1"/>
-    <col min="47" max="47" width="36" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21.7109375" customWidth="1"/>
-    <col min="49" max="49" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="36" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="26.85546875" customWidth="1"/>
-    <col min="57" max="57" width="15" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="36" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="36" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="36" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="36" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="36" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="36" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="18.42578125" customWidth="1"/>
-    <col min="94" max="94" width="36" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="18.42578125" customWidth="1"/>
-    <col min="101" max="101" width="36" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="17.140625" customWidth="1"/>
-    <col min="104" max="104" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="107" max="108" width="19.5703125" customWidth="1"/>
-    <col min="109" max="109" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="18.42578125" style="47" customWidth="1"/>
-    <col min="114" max="114" width="36" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="19.5703125" style="19" customWidth="1"/>
-    <col min="116" max="116" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="36" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.28515625" style="19" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.42578125" customWidth="1"/>
+    <col min="24" max="24" width="36" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.28515625" style="19" customWidth="1"/>
+    <col min="26" max="26" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" customWidth="1"/>
+    <col min="30" max="30" width="36" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.28515625" style="19" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="36" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="36" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="36" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.7109375" customWidth="1"/>
+    <col min="51" max="51" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15" style="54" customWidth="1"/>
+    <col min="55" max="55" width="36" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="21.7109375" customWidth="1"/>
+    <col min="57" max="57" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="36" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="26.85546875" customWidth="1"/>
+    <col min="65" max="65" width="15" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="36" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="36" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="36" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="36" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="36" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="36" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="18.42578125" customWidth="1"/>
+    <col min="102" max="102" width="36" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="18.42578125" customWidth="1"/>
+    <col min="109" max="109" width="36" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="17.140625" customWidth="1"/>
+    <col min="112" max="112" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="115" max="116" width="19.5703125" customWidth="1"/>
+    <col min="117" max="117" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="18.42578125" style="47" customWidth="1"/>
+    <col min="122" max="122" width="36" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="19.5703125" style="19" customWidth="1"/>
+    <col min="124" max="124" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:116" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="BY3" s="197" t="s">
+    <row r="1" spans="2:124" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="2:124" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="CG3" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="BZ3" s="197"/>
-      <c r="CA3" s="197"/>
-      <c r="CB3" s="60"/>
-      <c r="CE3" s="197" t="s">
+      <c r="CH3" s="197"/>
+      <c r="CI3" s="197"/>
+      <c r="CJ3" s="60"/>
+      <c r="CM3" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="CF3" s="197"/>
-      <c r="CG3" s="197"/>
-      <c r="CH3" s="60"/>
-      <c r="CK3" s="197" t="s">
+      <c r="CN3" s="197"/>
+      <c r="CO3" s="197"/>
+      <c r="CP3" s="60"/>
+      <c r="CS3" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="CL3" s="197"/>
-      <c r="CM3" s="197"/>
-      <c r="CN3" s="60"/>
-      <c r="CP3" s="197" t="s">
+      <c r="CT3" s="197"/>
+      <c r="CU3" s="197"/>
+      <c r="CV3" s="60"/>
+      <c r="CX3" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="CQ3" s="197"/>
-      <c r="CR3" s="197"/>
-      <c r="CS3" s="60"/>
-      <c r="CW3" s="197" t="s">
+      <c r="CY3" s="197"/>
+      <c r="CZ3" s="197"/>
+      <c r="DA3" s="60"/>
+      <c r="DE3" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="CX3" s="197"/>
-      <c r="CY3" s="197"/>
-      <c r="CZ3" s="60"/>
-      <c r="DA3" s="59"/>
-      <c r="DC3" s="197" t="s">
+      <c r="DF3" s="197"/>
+      <c r="DG3" s="197"/>
+      <c r="DH3" s="60"/>
+      <c r="DI3" s="59"/>
+      <c r="DK3" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="DD3" s="197"/>
-      <c r="DE3" s="197"/>
-      <c r="DF3" s="197"/>
-      <c r="DJ3" s="197" t="s">
+      <c r="DL3" s="197"/>
+      <c r="DM3" s="197"/>
+      <c r="DN3" s="197"/>
+      <c r="DR3" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="DK3" s="197"/>
-      <c r="DL3" s="197"/>
-    </row>
-    <row r="4" spans="2:116" x14ac:dyDescent="0.25">
+      <c r="DS3" s="197"/>
+      <c r="DT3" s="197"/>
+    </row>
+    <row r="4" spans="2:124" x14ac:dyDescent="0.25">
       <c r="B4" s="144"/>
       <c r="C4" s="145"/>
       <c r="D4" s="146"/>
@@ -4356,18 +4382,22 @@
       <c r="K4" s="145"/>
       <c r="L4" s="146"/>
       <c r="M4" s="147"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="145"/>
-      <c r="R4" s="146"/>
-      <c r="S4" s="147"/>
-      <c r="CB4" s="47"/>
-      <c r="CH4" s="47"/>
-      <c r="CN4" s="47"/>
-      <c r="CS4" s="47"/>
-      <c r="CZ4" s="47"/>
-      <c r="DL4" s="47"/>
-    </row>
-    <row r="5" spans="2:116" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="R4" s="144"/>
+      <c r="S4" s="145"/>
+      <c r="T4" s="146"/>
+      <c r="U4" s="147"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="145"/>
+      <c r="Z4" s="146"/>
+      <c r="AA4" s="147"/>
+      <c r="CJ4" s="47"/>
+      <c r="CP4" s="47"/>
+      <c r="CV4" s="47"/>
+      <c r="DA4" s="47"/>
+      <c r="DH4" s="47"/>
+      <c r="DT4" s="47"/>
+    </row>
+    <row r="5" spans="2:124" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B5" s="208" t="s">
         <v>55</v>
       </c>
@@ -4380,138 +4410,144 @@
       <c r="K5" s="209"/>
       <c r="L5" s="209"/>
       <c r="M5" s="148"/>
-      <c r="P5" s="208" t="s">
+      <c r="R5" s="208" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" s="209"/>
-      <c r="R5" s="209"/>
-      <c r="S5" s="148"/>
-      <c r="V5" s="197" t="s">
+      <c r="S5" s="209"/>
+      <c r="T5" s="209"/>
+      <c r="U5" s="148"/>
+      <c r="X5" s="208" t="s">
         <v>55</v>
       </c>
-      <c r="W5" s="197"/>
-      <c r="X5" s="197"/>
-      <c r="Y5" s="60"/>
-      <c r="AC5" s="197" t="s">
+      <c r="Y5" s="209"/>
+      <c r="Z5" s="209"/>
+      <c r="AA5" s="148"/>
+      <c r="AD5" s="197" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE5" s="197"/>
+      <c r="AF5" s="197"/>
+      <c r="AG5" s="60"/>
+      <c r="AK5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="AD5" s="197"/>
-      <c r="AE5" s="197"/>
-      <c r="AF5" s="60"/>
-      <c r="AI5" s="197" t="s">
+      <c r="AL5" s="197"/>
+      <c r="AM5" s="197"/>
+      <c r="AN5" s="60"/>
+      <c r="AQ5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="AJ5" s="197"/>
-      <c r="AK5" s="197"/>
-      <c r="AL5" s="60"/>
-      <c r="AO5" s="197" t="s">
+      <c r="AR5" s="197"/>
+      <c r="AS5" s="197"/>
+      <c r="AT5" s="60"/>
+      <c r="AW5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="AP5" s="197"/>
-      <c r="AQ5" s="197"/>
-      <c r="AR5" s="60"/>
-      <c r="AS5" s="85"/>
-      <c r="AU5" s="197" t="s">
+      <c r="AX5" s="197"/>
+      <c r="AY5" s="197"/>
+      <c r="AZ5" s="60"/>
+      <c r="BA5" s="85"/>
+      <c r="BC5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="AV5" s="197"/>
-      <c r="AW5" s="197"/>
-      <c r="AX5" s="60"/>
-      <c r="BB5" s="197" t="s">
+      <c r="BD5" s="197"/>
+      <c r="BE5" s="197"/>
+      <c r="BF5" s="60"/>
+      <c r="BJ5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="BC5" s="197"/>
-      <c r="BD5" s="197"/>
-      <c r="BE5" s="60"/>
-      <c r="BG5" s="197" t="s">
+      <c r="BK5" s="197"/>
+      <c r="BL5" s="197"/>
+      <c r="BM5" s="60"/>
+      <c r="BO5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="BH5" s="197"/>
-      <c r="BI5" s="197"/>
-      <c r="BJ5" s="60"/>
-      <c r="BM5" s="197" t="s">
+      <c r="BP5" s="197"/>
+      <c r="BQ5" s="197"/>
+      <c r="BR5" s="60"/>
+      <c r="BU5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="BN5" s="197"/>
-      <c r="BO5" s="197"/>
-      <c r="BP5" s="60"/>
-      <c r="BS5" s="197" t="s">
+      <c r="BV5" s="197"/>
+      <c r="BW5" s="197"/>
+      <c r="BX5" s="60"/>
+      <c r="CA5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="BT5" s="197"/>
-      <c r="BU5" s="197"/>
-      <c r="BV5" s="60"/>
-      <c r="BY5" s="61" t="s">
+      <c r="CB5" s="197"/>
+      <c r="CC5" s="197"/>
+      <c r="CD5" s="60"/>
+      <c r="CG5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BZ5" s="61"/>
-      <c r="CA5" s="45" t="s">
+      <c r="CH5" s="61"/>
+      <c r="CI5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CB5" s="68">
+      <c r="CJ5" s="68">
         <v>44861</v>
       </c>
-      <c r="CE5" s="61" t="s">
+      <c r="CM5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="CF5" s="61"/>
-      <c r="CG5" s="45" t="s">
+      <c r="CN5" s="61"/>
+      <c r="CO5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CH5" s="68">
+      <c r="CP5" s="68">
         <v>44833</v>
       </c>
-      <c r="CK5" s="44" t="s">
+      <c r="CS5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="CL5" s="44"/>
-      <c r="CM5" s="44" t="s">
+      <c r="CT5" s="44"/>
+      <c r="CU5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="CN5" s="50">
+      <c r="CV5" s="50">
         <v>44804</v>
       </c>
-      <c r="CP5" s="44" t="s">
+      <c r="CX5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="CQ5" s="44"/>
-      <c r="CR5" s="44" t="s">
+      <c r="CY5" s="44"/>
+      <c r="CZ5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="CS5" s="64">
+      <c r="DA5" s="64">
         <v>44776</v>
       </c>
-      <c r="CW5" s="61" t="s">
+      <c r="DE5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="CX5" s="61"/>
-      <c r="CY5" s="45" t="s">
+      <c r="DF5" s="61"/>
+      <c r="DG5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CZ5" s="51">
+      <c r="DH5" s="51">
         <v>44747</v>
       </c>
-      <c r="DC5" s="212" t="s">
+      <c r="DK5" s="212" t="s">
         <v>23</v>
       </c>
-      <c r="DD5" s="212"/>
-      <c r="DE5" s="45" t="s">
+      <c r="DL5" s="212"/>
+      <c r="DM5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="DF5" s="51">
+      <c r="DN5" s="51">
         <v>44686</v>
       </c>
-      <c r="DJ5" s="48" t="s">
+      <c r="DR5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="DK5" s="55" t="s">
+      <c r="DS5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="DL5" s="51">
+      <c r="DT5" s="51">
         <v>44714</v>
       </c>
     </row>
-    <row r="6" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:124" ht="21" x14ac:dyDescent="0.35">
       <c r="B6" s="210" t="s">
         <v>62</v>
       </c>
@@ -4524,43 +4560,49 @@
       <c r="K6" s="211"/>
       <c r="L6" s="211"/>
       <c r="M6" s="149"/>
-      <c r="P6" s="210" t="s">
+      <c r="R6" s="210" t="s">
         <v>62</v>
       </c>
-      <c r="Q6" s="211"/>
-      <c r="R6" s="211"/>
-      <c r="S6" s="149"/>
-      <c r="Y6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AR6" s="47"/>
-      <c r="AS6" s="86"/>
-      <c r="AX6" s="47"/>
-      <c r="BE6" s="47"/>
-      <c r="BJ6" s="47"/>
-      <c r="BP6" s="47"/>
-      <c r="BV6" s="47"/>
-      <c r="BY6" s="44"/>
-      <c r="BZ6" s="44"/>
-      <c r="CA6" s="44"/>
-      <c r="CB6" s="53"/>
-      <c r="CE6" s="44"/>
-      <c r="CF6" s="44"/>
+      <c r="S6" s="211"/>
+      <c r="T6" s="211"/>
+      <c r="U6" s="149"/>
+      <c r="X6" s="210" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y6" s="211"/>
+      <c r="Z6" s="211"/>
+      <c r="AA6" s="149"/>
+      <c r="AG6" s="47"/>
+      <c r="AN6" s="47"/>
+      <c r="AT6" s="47"/>
+      <c r="AZ6" s="47"/>
+      <c r="BA6" s="86"/>
+      <c r="BF6" s="47"/>
+      <c r="BM6" s="47"/>
+      <c r="BR6" s="47"/>
+      <c r="BX6" s="47"/>
+      <c r="CD6" s="47"/>
       <c r="CG6" s="44"/>
-      <c r="CH6" s="53"/>
-      <c r="CW6" s="62"/>
-      <c r="CX6" s="62"/>
-      <c r="CY6" s="63"/>
-      <c r="CZ6" s="53"/>
-      <c r="DC6" s="44"/>
-      <c r="DD6" s="44"/>
-      <c r="DE6" s="44"/>
-      <c r="DF6" s="46"/>
-      <c r="DJ6" s="52"/>
-      <c r="DK6" s="56"/>
-      <c r="DL6" s="53"/>
-    </row>
-    <row r="7" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+      <c r="CH6" s="44"/>
+      <c r="CI6" s="44"/>
+      <c r="CJ6" s="53"/>
+      <c r="CM6" s="44"/>
+      <c r="CN6" s="44"/>
+      <c r="CO6" s="44"/>
+      <c r="CP6" s="53"/>
+      <c r="DE6" s="62"/>
+      <c r="DF6" s="62"/>
+      <c r="DG6" s="63"/>
+      <c r="DH6" s="53"/>
+      <c r="DK6" s="44"/>
+      <c r="DL6" s="44"/>
+      <c r="DM6" s="44"/>
+      <c r="DN6" s="46"/>
+      <c r="DR6" s="52"/>
+      <c r="DS6" s="56"/>
+      <c r="DT6" s="53"/>
+    </row>
+    <row r="7" spans="2:124" ht="21" x14ac:dyDescent="0.35">
       <c r="B7" s="150"/>
       <c r="C7" s="151"/>
       <c r="D7" s="152"/>
@@ -4569,417 +4611,435 @@
       <c r="K7" s="151"/>
       <c r="L7" s="152"/>
       <c r="M7" s="149"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="151"/>
-      <c r="R7" s="152"/>
-      <c r="S7" s="149"/>
-      <c r="Y7" s="47"/>
-      <c r="AC7" s="44" t="s">
+      <c r="R7" s="150"/>
+      <c r="S7" s="151"/>
+      <c r="T7" s="152"/>
+      <c r="U7" s="149"/>
+      <c r="X7" s="150"/>
+      <c r="Y7" s="151"/>
+      <c r="Z7" s="152"/>
+      <c r="AA7" s="149"/>
+      <c r="AG7" s="47"/>
+      <c r="AK7" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44" t="s">
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AF7" s="51">
+      <c r="AN7" s="51">
         <v>45111</v>
       </c>
-      <c r="AI7" s="44" t="s">
+      <c r="AQ7" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AJ7" s="44"/>
-      <c r="AK7" s="44" t="s">
+      <c r="AR7" s="44"/>
+      <c r="AS7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AL7" s="51">
+      <c r="AT7" s="51">
         <v>45083</v>
       </c>
-      <c r="AO7" s="44" t="s">
+      <c r="AW7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AP7" s="44"/>
-      <c r="AQ7" s="44" t="s">
+      <c r="AX7" s="44"/>
+      <c r="AY7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AR7" s="50">
+      <c r="AZ7" s="50">
         <v>45049</v>
       </c>
-      <c r="AS7" s="53"/>
-      <c r="AU7" s="44" t="s">
+      <c r="BA7" s="53"/>
+      <c r="BC7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AV7" s="44"/>
-      <c r="AW7" s="44" t="s">
+      <c r="BD7" s="44"/>
+      <c r="BE7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AX7" s="50">
+      <c r="BF7" s="50">
         <v>45021</v>
       </c>
-      <c r="BB7" s="44" t="s">
+      <c r="BJ7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BC7" s="44"/>
-      <c r="BD7" s="44" t="s">
+      <c r="BK7" s="44"/>
+      <c r="BL7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BE7" s="50">
+      <c r="BM7" s="50">
         <v>44986</v>
       </c>
-      <c r="BG7" s="44" t="s">
+      <c r="BO7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BH7" s="44"/>
-      <c r="BI7" s="44" t="s">
+      <c r="BP7" s="44"/>
+      <c r="BQ7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BJ7" s="50">
+      <c r="BR7" s="50">
         <v>44958</v>
       </c>
-      <c r="BM7" s="44" t="s">
+      <c r="BU7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BN7" s="44"/>
-      <c r="BO7" s="44" t="s">
+      <c r="BV7" s="44"/>
+      <c r="BW7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BP7" s="50">
+      <c r="BX7" s="50">
         <v>44930</v>
       </c>
-      <c r="BS7" s="61" t="s">
+      <c r="CA7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BT7" s="61"/>
-      <c r="BU7" s="45" t="s">
+      <c r="CB7" s="61"/>
+      <c r="CC7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BV7" s="68">
+      <c r="CD7" s="68">
         <v>44896</v>
       </c>
-      <c r="BY7" s="44" t="s">
+      <c r="CG7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BZ7" s="44"/>
-      <c r="CA7" s="44" t="s">
+      <c r="CH7" s="44"/>
+      <c r="CI7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="CB7" s="50">
+      <c r="CJ7" s="50">
         <v>44874</v>
       </c>
-      <c r="CE7" s="44" t="s">
+      <c r="CM7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="CF7" s="44"/>
-      <c r="CG7" s="44" t="s">
+      <c r="CN7" s="44"/>
+      <c r="CO7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="CH7" s="50">
+      <c r="CP7" s="50">
         <v>44839</v>
       </c>
-      <c r="CK7" s="61" t="s">
+      <c r="CS7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="CL7" s="61"/>
-      <c r="CM7" s="45" t="s">
+      <c r="CT7" s="61"/>
+      <c r="CU7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CN7" s="68">
+      <c r="CV7" s="68">
         <v>44805</v>
       </c>
-      <c r="CP7" s="61" t="s">
+      <c r="CX7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="CQ7" s="61"/>
-      <c r="CR7" s="45" t="s">
+      <c r="CY7" s="61"/>
+      <c r="CZ7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CS7" s="51">
+      <c r="DA7" s="51">
         <v>44777</v>
       </c>
-      <c r="CW7" s="44" t="s">
+      <c r="DE7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="CX7" s="44"/>
-      <c r="CY7" s="44" t="s">
+      <c r="DF7" s="44"/>
+      <c r="DG7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="CZ7" s="64">
+      <c r="DH7" s="64">
         <v>44748</v>
       </c>
-      <c r="DC7" s="44" t="s">
+      <c r="DK7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="DD7" s="44"/>
-      <c r="DE7" s="44" t="s">
+      <c r="DL7" s="44"/>
+      <c r="DM7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="DF7" s="49">
+      <c r="DN7" s="49">
         <v>44691</v>
       </c>
-      <c r="DG7" s="54"/>
-      <c r="DJ7" s="44" t="s">
+      <c r="DO7" s="54"/>
+      <c r="DR7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="DK7" s="57" t="s">
+      <c r="DS7" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="DL7" s="49">
+      <c r="DT7" s="49">
         <v>44719</v>
       </c>
     </row>
-    <row r="8" spans="2:116" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:124" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="153" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="142"/>
       <c r="D8" s="159" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="160">
+        <v>45261</v>
+      </c>
+      <c r="J8" s="153" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="142"/>
+      <c r="L8" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="160">
+      <c r="M8" s="160">
         <v>45234</v>
       </c>
-      <c r="J8" s="153" t="s">
+      <c r="R8" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="154"/>
-      <c r="L8" s="155" t="s">
+      <c r="S8" s="154"/>
+      <c r="T8" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="156">
+      <c r="U8" s="156">
         <v>45204</v>
       </c>
-      <c r="N8" s="54"/>
-      <c r="P8" s="153" t="s">
+      <c r="V8" s="54"/>
+      <c r="X8" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="154">
+      <c r="Y8" s="154">
         <v>11</v>
       </c>
-      <c r="R8" s="155" t="s">
+      <c r="Z8" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="156">
+      <c r="AA8" s="156">
         <v>45169</v>
       </c>
-      <c r="T8" s="54"/>
-      <c r="V8" s="44" t="s">
+      <c r="AB8" s="54"/>
+      <c r="AD8" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="W8" s="57"/>
-      <c r="X8" s="45">
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="45">
         <v>0.66666666666666663</v>
       </c>
-      <c r="Y8" s="64"/>
-      <c r="AC8" s="62"/>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="63"/>
-      <c r="AF8" s="53"/>
-      <c r="AI8" s="62"/>
-      <c r="AJ8" s="62"/>
-      <c r="AK8" s="63"/>
-      <c r="AL8" s="53"/>
-      <c r="AO8" s="62"/>
-      <c r="AP8" s="62"/>
-      <c r="AQ8" s="63"/>
-      <c r="AR8" s="53"/>
-      <c r="AS8" s="53"/>
-      <c r="AU8" s="62"/>
-      <c r="AV8" s="62"/>
-      <c r="AW8" s="63"/>
-      <c r="AX8" s="53"/>
-      <c r="BB8" s="62"/>
+      <c r="AG8" s="64"/>
+      <c r="AK8" s="62"/>
+      <c r="AL8" s="62"/>
+      <c r="AM8" s="63"/>
+      <c r="AN8" s="53"/>
+      <c r="AQ8" s="62"/>
+      <c r="AR8" s="62"/>
+      <c r="AS8" s="63"/>
+      <c r="AT8" s="53"/>
+      <c r="AW8" s="62"/>
+      <c r="AX8" s="62"/>
+      <c r="AY8" s="63"/>
+      <c r="AZ8" s="53"/>
+      <c r="BA8" s="53"/>
       <c r="BC8" s="62"/>
-      <c r="BD8" s="63"/>
-      <c r="BE8" s="53"/>
-      <c r="BG8" s="62"/>
-      <c r="BH8" s="62"/>
-      <c r="BI8" s="63"/>
-      <c r="BJ8" s="53"/>
-      <c r="BM8" s="62"/>
-      <c r="BN8" s="62"/>
-      <c r="BO8" s="63"/>
-      <c r="BP8" s="53"/>
-      <c r="BS8" s="44"/>
-      <c r="BT8" s="44"/>
-      <c r="BU8" s="44"/>
-      <c r="BV8" s="53"/>
-      <c r="CW8" s="52"/>
-      <c r="CX8" s="52"/>
-      <c r="CY8" s="52"/>
-      <c r="CZ8" s="53"/>
-      <c r="DC8" s="44"/>
-      <c r="DD8" s="44"/>
-      <c r="DE8" s="44"/>
-      <c r="DF8" s="46"/>
-      <c r="DJ8" s="52"/>
-      <c r="DK8" s="56"/>
-      <c r="DL8" s="53"/>
-    </row>
-    <row r="9" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+      <c r="BD8" s="62"/>
+      <c r="BE8" s="63"/>
+      <c r="BF8" s="53"/>
+      <c r="BJ8" s="62"/>
+      <c r="BK8" s="62"/>
+      <c r="BL8" s="63"/>
+      <c r="BM8" s="53"/>
+      <c r="BO8" s="62"/>
+      <c r="BP8" s="62"/>
+      <c r="BQ8" s="63"/>
+      <c r="BR8" s="53"/>
+      <c r="BU8" s="62"/>
+      <c r="BV8" s="62"/>
+      <c r="BW8" s="63"/>
+      <c r="BX8" s="53"/>
+      <c r="CA8" s="44"/>
+      <c r="CB8" s="44"/>
+      <c r="CC8" s="44"/>
+      <c r="CD8" s="53"/>
+      <c r="DE8" s="52"/>
+      <c r="DF8" s="52"/>
+      <c r="DG8" s="52"/>
+      <c r="DH8" s="53"/>
+      <c r="DK8" s="44"/>
+      <c r="DL8" s="44"/>
+      <c r="DM8" s="44"/>
+      <c r="DN8" s="46"/>
+      <c r="DR8" s="52"/>
+      <c r="DS8" s="56"/>
+      <c r="DT8" s="53"/>
+    </row>
+    <row r="9" spans="2:124" ht="21" x14ac:dyDescent="0.35">
       <c r="B9" s="157"/>
       <c r="C9" s="142"/>
       <c r="D9" s="161"/>
       <c r="E9" s="158"/>
       <c r="J9" s="157"/>
       <c r="K9" s="142"/>
-      <c r="L9" s="143"/>
+      <c r="L9" s="161"/>
       <c r="M9" s="158"/>
-      <c r="P9" s="157"/>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="143"/>
-      <c r="S9" s="158"/>
-      <c r="Y9" s="47"/>
-      <c r="AC9" s="44" t="s">
+      <c r="R9" s="157"/>
+      <c r="S9" s="142"/>
+      <c r="T9" s="143"/>
+      <c r="U9" s="158"/>
+      <c r="X9" s="157"/>
+      <c r="Y9" s="142"/>
+      <c r="Z9" s="143"/>
+      <c r="AA9" s="158"/>
+      <c r="AG9" s="47"/>
+      <c r="AK9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44" t="s">
+      <c r="AL9" s="44"/>
+      <c r="AM9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AF9" s="50">
+      <c r="AN9" s="50">
         <v>45112</v>
       </c>
-      <c r="AI9" s="44" t="s">
+      <c r="AQ9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AJ9" s="44"/>
-      <c r="AK9" s="44" t="s">
+      <c r="AR9" s="44"/>
+      <c r="AS9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AL9" s="50">
+      <c r="AT9" s="50">
         <v>45084</v>
       </c>
-      <c r="AO9" s="44" t="s">
+      <c r="AW9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AP9" s="44"/>
-      <c r="AQ9" s="44" t="s">
+      <c r="AX9" s="44"/>
+      <c r="AY9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AR9" s="51">
+      <c r="AZ9" s="51">
         <v>45055</v>
       </c>
-      <c r="AS9" s="53"/>
-      <c r="AU9" s="44" t="s">
+      <c r="BA9" s="53"/>
+      <c r="BC9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AV9" s="44"/>
-      <c r="AW9" s="44" t="s">
+      <c r="BD9" s="44"/>
+      <c r="BE9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AX9" s="51">
+      <c r="BF9" s="51">
         <v>45027</v>
       </c>
-      <c r="BB9" s="61" t="s">
+      <c r="BJ9" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BC9" s="61"/>
-      <c r="BD9" s="45" t="s">
+      <c r="BK9" s="61"/>
+      <c r="BL9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BE9" s="68">
+      <c r="BM9" s="68">
         <v>44987</v>
       </c>
-      <c r="BG9" s="61" t="s">
+      <c r="BO9" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BH9" s="61"/>
-      <c r="BI9" s="45" t="s">
+      <c r="BP9" s="61"/>
+      <c r="BQ9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BJ9" s="68">
+      <c r="BR9" s="68">
         <v>44959</v>
       </c>
-      <c r="BM9" s="61" t="s">
+      <c r="BU9" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BN9" s="61"/>
-      <c r="BO9" s="45" t="s">
+      <c r="BV9" s="61"/>
+      <c r="BW9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BP9" s="68">
+      <c r="BX9" s="68">
         <v>44931</v>
       </c>
-      <c r="BS9" s="44" t="s">
+      <c r="CA9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BT9" s="44"/>
-      <c r="BU9" s="44" t="s">
+      <c r="CB9" s="44"/>
+      <c r="CC9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BV9" s="50">
+      <c r="CD9" s="50">
         <v>44902</v>
       </c>
-      <c r="BY9" s="44" t="s">
+      <c r="CG9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="BZ9" s="44"/>
-      <c r="CA9" s="44" t="s">
+      <c r="CH9" s="44"/>
+      <c r="CI9" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="CB9" s="69">
+      <c r="CJ9" s="69">
         <v>44875</v>
       </c>
-      <c r="CE9" s="44" t="s">
+      <c r="CM9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="CF9" s="44"/>
-      <c r="CG9" s="44" t="s">
+      <c r="CN9" s="44"/>
+      <c r="CO9" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="CH9" s="69">
+      <c r="CP9" s="69">
         <v>44840</v>
       </c>
-      <c r="CK9" s="44" t="s">
+      <c r="CS9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="CL9" s="44"/>
-      <c r="CM9" s="44" t="s">
+      <c r="CT9" s="44"/>
+      <c r="CU9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="CN9" s="69">
+      <c r="CV9" s="69">
         <v>44807</v>
       </c>
-      <c r="CP9" s="44" t="s">
+      <c r="CX9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="CQ9" s="44"/>
-      <c r="CR9" s="44" t="s">
+      <c r="CY9" s="44"/>
+      <c r="CZ9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="CS9" s="50">
+      <c r="DA9" s="50">
         <v>44779</v>
       </c>
-      <c r="CW9" s="44" t="s">
+      <c r="DE9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="CX9" s="44"/>
-      <c r="CY9" s="44" t="s">
+      <c r="DF9" s="44"/>
+      <c r="DG9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="CZ9" s="49">
+      <c r="DH9" s="49">
         <v>44749</v>
       </c>
-      <c r="DC9" s="44" t="s">
+      <c r="DK9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="DD9" s="44"/>
-      <c r="DE9" s="44" t="s">
+      <c r="DL9" s="44"/>
+      <c r="DM9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="DF9" s="51">
+      <c r="DN9" s="51">
         <v>44693</v>
       </c>
-      <c r="DJ9" s="44" t="s">
+      <c r="DR9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="DK9" s="57" t="s">
+      <c r="DS9" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="DL9" s="51">
+      <c r="DT9" s="51">
         <v>44721</v>
       </c>
     </row>
-    <row r="10" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:124" ht="21" x14ac:dyDescent="0.35">
       <c r="B10" s="162" t="s">
         <v>21</v>
       </c>
@@ -4988,7 +5048,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="163">
-        <v>45238</v>
+        <v>45266</v>
       </c>
       <c r="J10" s="162" t="s">
         <v>21</v>
@@ -4998,72 +5058,82 @@
         <v>22</v>
       </c>
       <c r="M10" s="163">
+        <v>45238</v>
+      </c>
+      <c r="R10" s="162" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="154"/>
+      <c r="T10" s="155" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" s="163">
         <v>45205</v>
       </c>
-      <c r="P10" s="153" t="s">
+      <c r="X10" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="159" t="s">
+      <c r="Y10" s="142"/>
+      <c r="Z10" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="S10" s="160">
+      <c r="AA10" s="160">
         <v>45171</v>
       </c>
-      <c r="V10" s="44" t="s">
+      <c r="AD10" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="W10" s="57">
+      <c r="AE10" s="57">
         <v>11</v>
       </c>
-      <c r="X10" s="44" t="s">
+      <c r="AF10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="Y10" s="50"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="53"/>
-      <c r="AI10" s="44"/>
-      <c r="AJ10" s="44"/>
+      <c r="AG10" s="50"/>
       <c r="AK10" s="44"/>
-      <c r="AL10" s="53"/>
-      <c r="AO10" s="52"/>
-      <c r="AP10" s="52"/>
-      <c r="AQ10" s="52"/>
-      <c r="AR10" s="53"/>
-      <c r="AS10" s="53"/>
-      <c r="AU10" s="52"/>
-      <c r="AV10" s="52"/>
+      <c r="AL10" s="44"/>
+      <c r="AM10" s="44"/>
+      <c r="AN10" s="53"/>
+      <c r="AQ10" s="44"/>
+      <c r="AR10" s="44"/>
+      <c r="AS10" s="44"/>
+      <c r="AT10" s="53"/>
       <c r="AW10" s="52"/>
-      <c r="AX10" s="53"/>
-      <c r="BB10" s="52"/>
+      <c r="AX10" s="52"/>
+      <c r="AY10" s="52"/>
+      <c r="AZ10" s="53"/>
+      <c r="BA10" s="53"/>
       <c r="BC10" s="52"/>
       <c r="BD10" s="52"/>
-      <c r="BE10" s="53"/>
-      <c r="BG10" s="52"/>
-      <c r="BH10" s="52"/>
-      <c r="BI10" s="52"/>
-      <c r="BJ10" s="53"/>
-      <c r="BM10" s="52"/>
-      <c r="BN10" s="52"/>
+      <c r="BE10" s="52"/>
+      <c r="BF10" s="53"/>
+      <c r="BJ10" s="52"/>
+      <c r="BK10" s="52"/>
+      <c r="BL10" s="52"/>
+      <c r="BM10" s="53"/>
       <c r="BO10" s="52"/>
-      <c r="BP10" s="53"/>
-      <c r="BQ10" s="54"/>
-      <c r="CW10" s="52"/>
-      <c r="CX10" s="52"/>
-      <c r="CY10" s="52"/>
-      <c r="CZ10" s="53"/>
-      <c r="DC10" s="44"/>
-      <c r="DD10" s="44"/>
-      <c r="DE10" s="44"/>
-      <c r="DF10" s="46"/>
-      <c r="DJ10" s="52"/>
-      <c r="DK10" s="56"/>
-      <c r="DL10" s="53"/>
-    </row>
-    <row r="11" spans="2:116" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="157"/>
+      <c r="BP10" s="52"/>
+      <c r="BQ10" s="52"/>
+      <c r="BR10" s="53"/>
+      <c r="BU10" s="52"/>
+      <c r="BV10" s="52"/>
+      <c r="BW10" s="52"/>
+      <c r="BX10" s="53"/>
+      <c r="BY10" s="54"/>
+      <c r="DE10" s="52"/>
+      <c r="DF10" s="52"/>
+      <c r="DG10" s="52"/>
+      <c r="DH10" s="53"/>
+      <c r="DK10" s="44"/>
+      <c r="DL10" s="44"/>
+      <c r="DM10" s="44"/>
+      <c r="DN10" s="46"/>
+      <c r="DR10" s="52"/>
+      <c r="DS10" s="56"/>
+      <c r="DT10" s="53"/>
+    </row>
+    <row r="11" spans="2:124" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B11" s="168"/>
       <c r="C11" s="142"/>
       <c r="D11" s="161"/>
       <c r="E11" s="158"/>
@@ -5071,531 +5141,559 @@
       <c r="K11" s="142"/>
       <c r="L11" s="161"/>
       <c r="M11" s="158"/>
-      <c r="P11" s="157"/>
-      <c r="Q11" s="142"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="158"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="63"/>
-      <c r="Y11" s="53"/>
-      <c r="AC11" s="44" t="s">
+      <c r="R11" s="157"/>
+      <c r="S11" s="142"/>
+      <c r="T11" s="161"/>
+      <c r="U11" s="158"/>
+      <c r="X11" s="157"/>
+      <c r="Y11" s="142"/>
+      <c r="Z11" s="161"/>
+      <c r="AA11" s="158"/>
+      <c r="AD11" s="62"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="63"/>
+      <c r="AG11" s="53"/>
+      <c r="AK11" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="44" t="s">
+      <c r="AL11" s="44"/>
+      <c r="AM11" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AF11" s="71">
+      <c r="AN11" s="71">
         <v>45114</v>
       </c>
-      <c r="AI11" s="44" t="s">
+      <c r="AQ11" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AJ11" s="44"/>
-      <c r="AK11" s="44" t="s">
+      <c r="AR11" s="44"/>
+      <c r="AS11" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AL11" s="71">
+      <c r="AT11" s="71">
         <v>45086</v>
       </c>
-      <c r="AO11" s="83" t="s">
+      <c r="AW11" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="AP11" s="84" t="s">
+      <c r="AX11" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="AQ11" s="83" t="s">
+      <c r="AY11" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="AR11" s="49"/>
-      <c r="AS11" s="53"/>
-      <c r="AU11" s="83" t="s">
+      <c r="AZ11" s="49"/>
+      <c r="BA11" s="53"/>
+      <c r="BC11" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="AV11" s="84" t="s">
+      <c r="BD11" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="AW11" s="83" t="s">
+      <c r="BE11" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="AX11" s="49"/>
-      <c r="BB11" s="83" t="s">
+      <c r="BF11" s="49"/>
+      <c r="BJ11" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="BC11" s="84" t="s">
+      <c r="BK11" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="BD11" s="83" t="s">
+      <c r="BL11" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="BE11" s="49">
+      <c r="BM11" s="49">
         <v>44993</v>
       </c>
-      <c r="BG11" s="44" t="s">
+      <c r="BO11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BH11" s="44"/>
-      <c r="BI11" s="44" t="s">
+      <c r="BP11" s="44"/>
+      <c r="BQ11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BJ11" s="51">
+      <c r="BR11" s="51">
         <v>44967</v>
       </c>
-      <c r="BM11" s="44" t="s">
+      <c r="BU11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BN11" s="44"/>
-      <c r="BO11" s="44" t="s">
+      <c r="BV11" s="44"/>
+      <c r="BW11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BP11" s="51">
+      <c r="BX11" s="51">
         <v>44932</v>
       </c>
-      <c r="BS11" s="44" t="s">
+      <c r="CA11" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="BT11" s="44"/>
-      <c r="BU11" s="44" t="s">
+      <c r="CB11" s="44"/>
+      <c r="CC11" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="BV11" s="69">
+      <c r="CD11" s="69">
         <v>44903</v>
       </c>
-      <c r="BY11" s="44" t="s">
+      <c r="CG11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BZ11" s="44"/>
-      <c r="CA11" s="44" t="s">
+      <c r="CH11" s="44"/>
+      <c r="CI11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="CB11" s="51">
+      <c r="CJ11" s="51">
         <v>44876</v>
       </c>
-      <c r="CE11" s="44" t="s">
+      <c r="CM11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="CF11" s="44"/>
-      <c r="CG11" s="44" t="s">
+      <c r="CN11" s="44"/>
+      <c r="CO11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="CH11" s="51">
+      <c r="CP11" s="51">
         <v>44841</v>
       </c>
-      <c r="CK11" s="44" t="s">
+      <c r="CS11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="CL11" s="44"/>
-      <c r="CM11" s="44" t="s">
+      <c r="CT11" s="44"/>
+      <c r="CU11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="CN11" s="51">
+      <c r="CV11" s="51">
         <v>44812</v>
       </c>
-      <c r="CP11" s="44" t="s">
+      <c r="CX11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="CQ11" s="44"/>
-      <c r="CR11" s="44" t="s">
+      <c r="CY11" s="44"/>
+      <c r="CZ11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="CS11" s="49">
+      <c r="DA11" s="49">
         <v>44784</v>
       </c>
-      <c r="CW11" s="44" t="s">
+      <c r="DE11" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="CX11" s="44"/>
-      <c r="CY11" s="44" t="s">
+      <c r="DF11" s="44"/>
+      <c r="DG11" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="CZ11" s="50">
+      <c r="DH11" s="50">
         <v>44751</v>
       </c>
-      <c r="DC11" s="44" t="s">
+      <c r="DK11" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="DD11" s="52"/>
-      <c r="DE11" s="44" t="s">
+      <c r="DL11" s="52"/>
+      <c r="DM11" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="DF11" s="49">
+      <c r="DN11" s="49">
         <v>44695</v>
       </c>
-      <c r="DJ11" s="44" t="s">
+      <c r="DR11" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="DK11" s="57" t="s">
+      <c r="DS11" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="DL11" s="50">
+      <c r="DT11" s="50">
         <v>44723</v>
       </c>
     </row>
-    <row r="12" spans="2:116" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="165" t="s">
+    <row r="12" spans="2:124" ht="21" x14ac:dyDescent="0.35">
+      <c r="B12" s="153" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="154"/>
+      <c r="D12" s="155" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="156">
+        <v>45267</v>
+      </c>
+      <c r="J12" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="154"/>
-      <c r="D12" s="159" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="166">
-        <v>45240</v>
-      </c>
-      <c r="J12" s="153" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="142"/>
+      <c r="K12" s="154"/>
       <c r="L12" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="160">
+      <c r="M12" s="166">
+        <v>45240</v>
+      </c>
+      <c r="R12" s="153" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" s="142"/>
+      <c r="T12" s="159" t="s">
+        <v>15</v>
+      </c>
+      <c r="U12" s="160">
         <v>45206</v>
       </c>
-      <c r="P12" s="162" t="s">
+      <c r="X12" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="Q12" s="154">
+      <c r="Y12" s="154">
         <v>5</v>
       </c>
-      <c r="R12" s="155" t="s">
+      <c r="Z12" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="163">
+      <c r="AA12" s="163">
         <v>45177</v>
       </c>
-      <c r="V12" s="44" t="s">
+      <c r="AD12" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="W12" s="56"/>
-      <c r="X12" s="45" t="s">
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="Y12" s="70"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="53"/>
-      <c r="AI12" s="52"/>
-      <c r="AJ12" s="52"/>
+      <c r="AG12" s="70"/>
       <c r="AK12" s="52"/>
-      <c r="AL12" s="53"/>
-      <c r="AO12" s="52"/>
-      <c r="AP12" s="52"/>
+      <c r="AL12" s="52"/>
+      <c r="AM12" s="52"/>
+      <c r="AN12" s="53"/>
       <c r="AQ12" s="52"/>
-      <c r="AR12" s="53"/>
-      <c r="AS12" s="53"/>
-      <c r="AU12" s="52"/>
-      <c r="AV12" s="52"/>
+      <c r="AR12" s="52"/>
+      <c r="AS12" s="52"/>
+      <c r="AT12" s="53"/>
       <c r="AW12" s="52"/>
-      <c r="AX12" s="53"/>
-      <c r="BB12" s="52"/>
+      <c r="AX12" s="52"/>
+      <c r="AY12" s="52"/>
+      <c r="AZ12" s="53"/>
+      <c r="BA12" s="53"/>
       <c r="BC12" s="52"/>
       <c r="BD12" s="52"/>
-      <c r="BE12" s="53"/>
-      <c r="BY12" s="62"/>
-      <c r="BZ12" s="62"/>
-      <c r="CA12" s="63"/>
-      <c r="CB12" s="53"/>
-      <c r="CE12" s="62"/>
-      <c r="CF12" s="62"/>
-      <c r="CG12" s="63"/>
-      <c r="CH12" s="53"/>
-      <c r="CK12" s="62"/>
-      <c r="CL12" s="62"/>
-      <c r="CM12" s="63"/>
-      <c r="CN12" s="53"/>
-      <c r="CP12" s="62"/>
-      <c r="CQ12" s="62"/>
-      <c r="CR12" s="63"/>
-      <c r="CS12" s="53"/>
-      <c r="CW12" s="52"/>
-      <c r="CX12" s="52"/>
-      <c r="CY12" s="52"/>
-      <c r="CZ12" s="53"/>
-      <c r="DC12" s="44"/>
-      <c r="DD12" s="44"/>
-      <c r="DE12" s="44"/>
-      <c r="DF12" s="46"/>
-      <c r="DJ12" s="52"/>
-      <c r="DK12" s="56"/>
-      <c r="DL12" s="53"/>
-    </row>
-    <row r="13" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+      <c r="BE12" s="52"/>
+      <c r="BF12" s="53"/>
+      <c r="BJ12" s="52"/>
+      <c r="BK12" s="52"/>
+      <c r="BL12" s="52"/>
+      <c r="BM12" s="53"/>
+      <c r="CG12" s="62"/>
+      <c r="CH12" s="62"/>
+      <c r="CI12" s="63"/>
+      <c r="CJ12" s="53"/>
+      <c r="CM12" s="62"/>
+      <c r="CN12" s="62"/>
+      <c r="CO12" s="63"/>
+      <c r="CP12" s="53"/>
+      <c r="CS12" s="62"/>
+      <c r="CT12" s="62"/>
+      <c r="CU12" s="63"/>
+      <c r="CV12" s="53"/>
+      <c r="CX12" s="62"/>
+      <c r="CY12" s="62"/>
+      <c r="CZ12" s="63"/>
+      <c r="DA12" s="53"/>
+      <c r="DE12" s="52"/>
+      <c r="DF12" s="52"/>
+      <c r="DG12" s="52"/>
+      <c r="DH12" s="53"/>
+      <c r="DK12" s="44"/>
+      <c r="DL12" s="44"/>
+      <c r="DM12" s="44"/>
+      <c r="DN12" s="46"/>
+      <c r="DR12" s="52"/>
+      <c r="DS12" s="56"/>
+      <c r="DT12" s="53"/>
+    </row>
+    <row r="13" spans="2:124" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="168"/>
       <c r="C13" s="142"/>
       <c r="D13" s="161"/>
       <c r="E13" s="158"/>
-      <c r="J13" s="164"/>
+      <c r="J13" s="168"/>
       <c r="K13" s="142"/>
-      <c r="L13" s="143"/>
+      <c r="L13" s="161"/>
       <c r="M13" s="158"/>
-      <c r="P13" s="164"/>
-      <c r="Q13" s="142"/>
-      <c r="R13" s="143"/>
-      <c r="S13" s="158"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="53"/>
-      <c r="AC13" s="44" t="s">
+      <c r="R13" s="164"/>
+      <c r="S13" s="142"/>
+      <c r="T13" s="143"/>
+      <c r="U13" s="158"/>
+      <c r="X13" s="164"/>
+      <c r="Y13" s="142"/>
+      <c r="Z13" s="143"/>
+      <c r="AA13" s="158"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="53"/>
+      <c r="AK13" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="45" t="s">
+      <c r="AL13" s="52"/>
+      <c r="AM13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AF13" s="70">
+      <c r="AN13" s="70">
         <v>45115</v>
       </c>
-      <c r="AI13" s="44" t="s">
+      <c r="AQ13" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AJ13" s="52"/>
-      <c r="AK13" s="45" t="s">
+      <c r="AR13" s="52"/>
+      <c r="AS13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AL13" s="70">
+      <c r="AT13" s="70">
         <v>45087</v>
       </c>
-      <c r="AO13" s="61" t="s">
+      <c r="AW13" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AP13" s="61"/>
-      <c r="AQ13" s="45" t="s">
+      <c r="AX13" s="61"/>
+      <c r="AY13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AR13" s="68">
+      <c r="AZ13" s="68">
         <v>45057</v>
       </c>
-      <c r="AS13" s="53"/>
-      <c r="AU13" s="61" t="s">
+      <c r="BA13" s="53"/>
+      <c r="BC13" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AV13" s="61"/>
-      <c r="AW13" s="45" t="s">
+      <c r="BD13" s="61"/>
+      <c r="BE13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AX13" s="68">
+      <c r="BF13" s="68">
         <v>45029</v>
       </c>
-      <c r="BB13" s="44" t="s">
+      <c r="BJ13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BC13" s="44"/>
-      <c r="BD13" s="44" t="s">
+      <c r="BK13" s="44"/>
+      <c r="BL13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BE13" s="51">
+      <c r="BM13" s="51">
         <v>44995</v>
       </c>
-      <c r="BG13" s="44" t="s">
+      <c r="BO13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="BH13" s="44"/>
-      <c r="BI13" s="44" t="s">
+      <c r="BP13" s="44"/>
+      <c r="BQ13" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="BJ13" s="69">
+      <c r="BR13" s="69">
         <v>44966</v>
       </c>
-      <c r="BM13" s="44" t="s">
+      <c r="BU13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="BN13" s="44"/>
-      <c r="BO13" s="44" t="s">
+      <c r="BV13" s="44"/>
+      <c r="BW13" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="BP13" s="69">
+      <c r="BX13" s="69">
         <v>44938</v>
       </c>
-      <c r="BS13" s="44" t="s">
+      <c r="CA13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BT13" s="44"/>
-      <c r="BU13" s="44" t="s">
+      <c r="CB13" s="44"/>
+      <c r="CC13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BV13" s="51">
+      <c r="CD13" s="51">
         <v>44904</v>
       </c>
-      <c r="BY13" s="44" t="s">
+      <c r="CG13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BZ13" s="44"/>
-      <c r="CA13" s="44" t="s">
+      <c r="CH13" s="44"/>
+      <c r="CI13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="CB13" s="71">
+      <c r="CJ13" s="71">
         <v>44883</v>
       </c>
-      <c r="CE13" s="44" t="s">
+      <c r="CM13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CF13" s="44"/>
-      <c r="CG13" s="44" t="s">
+      <c r="CN13" s="44"/>
+      <c r="CO13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="CH13" s="71">
+      <c r="CP13" s="71">
         <v>44848</v>
       </c>
-      <c r="CK13" s="44" t="s">
+      <c r="CS13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CL13" s="44"/>
-      <c r="CM13" s="44" t="s">
+      <c r="CT13" s="44"/>
+      <c r="CU13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="CN13" s="67">
+      <c r="CV13" s="67">
         <v>44813</v>
       </c>
-      <c r="CP13" s="44" t="s">
+      <c r="CX13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CQ13" s="44"/>
-      <c r="CR13" s="44" t="s">
+      <c r="CY13" s="44"/>
+      <c r="CZ13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="CS13" s="65">
+      <c r="DA13" s="65">
         <v>44785</v>
       </c>
-      <c r="CW13" s="44" t="s">
+      <c r="DE13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CX13" s="44"/>
-      <c r="CY13" s="44" t="s">
+      <c r="DF13" s="44"/>
+      <c r="DG13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="CZ13" s="65">
+      <c r="DH13" s="65">
         <v>44756</v>
       </c>
-      <c r="DC13" s="44" t="s">
+      <c r="DK13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="DD13" s="44"/>
-      <c r="DE13" s="44" t="s">
+      <c r="DL13" s="44"/>
+      <c r="DM13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="DF13" s="50">
+      <c r="DN13" s="50">
         <v>44695</v>
       </c>
-      <c r="DJ13" s="44" t="s">
+      <c r="DR13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="DK13" s="57" t="s">
+      <c r="DS13" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="DL13" s="51">
+      <c r="DT13" s="51">
         <v>44728</v>
       </c>
     </row>
-    <row r="14" spans="2:116" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="153" t="s">
+    <row r="14" spans="2:124" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="165" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="154"/>
+      <c r="D14" s="159" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="166">
+        <v>45268</v>
+      </c>
+      <c r="J14" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="154"/>
-      <c r="D14" s="155" t="s">
+      <c r="K14" s="154"/>
+      <c r="L14" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="156">
+      <c r="M14" s="156">
         <v>45239</v>
       </c>
-      <c r="J14" s="165" t="s">
+      <c r="R14" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="154"/>
-      <c r="L14" s="159" t="s">
+      <c r="S14" s="154"/>
+      <c r="T14" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="166">
+      <c r="U14" s="166">
         <v>45209</v>
       </c>
-      <c r="P14" s="165" t="s">
+      <c r="X14" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="154">
+      <c r="Y14" s="154">
         <v>7</v>
       </c>
-      <c r="R14" s="159" t="s">
+      <c r="Z14" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="S14" s="166">
+      <c r="AA14" s="166">
         <v>45181</v>
       </c>
-      <c r="V14" s="83" t="s">
+      <c r="AD14" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="W14" s="57"/>
-      <c r="X14" s="45">
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="45">
         <v>0.72916666666666663</v>
       </c>
-      <c r="Y14" s="49">
+      <c r="AG14" s="49">
         <v>45160</v>
       </c>
-      <c r="AC14" s="52"/>
-      <c r="AD14" s="52"/>
-      <c r="AE14" s="52"/>
-      <c r="AF14" s="53"/>
-      <c r="AI14" s="52"/>
-      <c r="AJ14" s="52"/>
       <c r="AK14" s="52"/>
-      <c r="AL14" s="53"/>
-      <c r="AO14" s="62"/>
-      <c r="AP14" s="62"/>
-      <c r="AQ14" s="63"/>
-      <c r="AR14" s="53"/>
-      <c r="AS14" s="53"/>
-      <c r="AU14" s="62"/>
-      <c r="AV14" s="62"/>
-      <c r="AW14" s="63"/>
-      <c r="AX14" s="53"/>
-      <c r="BB14" s="62"/>
+      <c r="AL14" s="52"/>
+      <c r="AM14" s="52"/>
+      <c r="AN14" s="53"/>
+      <c r="AQ14" s="52"/>
+      <c r="AR14" s="52"/>
+      <c r="AS14" s="52"/>
+      <c r="AT14" s="53"/>
+      <c r="AW14" s="62"/>
+      <c r="AX14" s="62"/>
+      <c r="AY14" s="63"/>
+      <c r="AZ14" s="53"/>
+      <c r="BA14" s="53"/>
       <c r="BC14" s="62"/>
-      <c r="BD14" s="63"/>
-      <c r="BE14" s="53"/>
-      <c r="BG14" s="62"/>
-      <c r="BH14" s="62"/>
-      <c r="BI14" s="63"/>
-      <c r="BJ14" s="53"/>
-      <c r="BM14" s="62"/>
-      <c r="BN14" s="62"/>
-      <c r="BO14" s="63"/>
-      <c r="BP14" s="53"/>
-      <c r="BS14" s="62"/>
-      <c r="BT14" s="62"/>
-      <c r="BU14" s="63"/>
-      <c r="BV14" s="53"/>
-      <c r="BY14" s="52"/>
-      <c r="BZ14" s="52"/>
-      <c r="CA14" s="52"/>
-      <c r="CB14" s="53"/>
-      <c r="CE14" s="52"/>
-      <c r="CF14" s="52"/>
+      <c r="BD14" s="62"/>
+      <c r="BE14" s="63"/>
+      <c r="BF14" s="53"/>
+      <c r="BJ14" s="62"/>
+      <c r="BK14" s="62"/>
+      <c r="BL14" s="63"/>
+      <c r="BM14" s="53"/>
+      <c r="BO14" s="62"/>
+      <c r="BP14" s="62"/>
+      <c r="BQ14" s="63"/>
+      <c r="BR14" s="53"/>
+      <c r="BU14" s="62"/>
+      <c r="BV14" s="62"/>
+      <c r="BW14" s="63"/>
+      <c r="BX14" s="53"/>
+      <c r="CA14" s="62"/>
+      <c r="CB14" s="62"/>
+      <c r="CC14" s="63"/>
+      <c r="CD14" s="53"/>
       <c r="CG14" s="52"/>
-      <c r="CH14" s="53"/>
-      <c r="CK14" s="52"/>
-      <c r="CL14" s="52"/>
+      <c r="CH14" s="52"/>
+      <c r="CI14" s="52"/>
+      <c r="CJ14" s="53"/>
       <c r="CM14" s="52"/>
-      <c r="CN14" s="53"/>
-      <c r="CP14" s="52"/>
-      <c r="CQ14" s="52"/>
-      <c r="CR14" s="52"/>
-      <c r="CS14" s="53"/>
-      <c r="CW14" s="52"/>
+      <c r="CN14" s="52"/>
+      <c r="CO14" s="52"/>
+      <c r="CP14" s="53"/>
+      <c r="CS14" s="52"/>
+      <c r="CT14" s="52"/>
+      <c r="CU14" s="52"/>
+      <c r="CV14" s="53"/>
       <c r="CX14" s="52"/>
       <c r="CY14" s="52"/>
-      <c r="CZ14" s="53"/>
-      <c r="DC14" s="44"/>
-      <c r="DD14" s="44"/>
-      <c r="DE14" s="44"/>
-      <c r="DF14" s="46"/>
-      <c r="DJ14" s="52"/>
-      <c r="DK14" s="56"/>
-      <c r="DL14" s="53"/>
-    </row>
-    <row r="15" spans="2:116" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="157"/>
+      <c r="CZ14" s="52"/>
+      <c r="DA14" s="53"/>
+      <c r="DE14" s="52"/>
+      <c r="DF14" s="52"/>
+      <c r="DG14" s="52"/>
+      <c r="DH14" s="53"/>
+      <c r="DK14" s="44"/>
+      <c r="DL14" s="44"/>
+      <c r="DM14" s="44"/>
+      <c r="DN14" s="46"/>
+      <c r="DR14" s="52"/>
+      <c r="DS14" s="56"/>
+      <c r="DT14" s="53"/>
+    </row>
+    <row r="15" spans="2:124" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="168"/>
       <c r="C15" s="142"/>
       <c r="D15" s="143"/>
       <c r="E15" s="158"/>
@@ -5603,175 +5701,179 @@
       <c r="K15" s="142"/>
       <c r="L15" s="143"/>
       <c r="M15" s="158"/>
-      <c r="P15" s="157"/>
-      <c r="Q15" s="142"/>
-      <c r="R15" s="143"/>
-      <c r="S15" s="158"/>
-      <c r="V15" s="98"/>
-      <c r="W15" s="99"/>
-      <c r="X15" s="100"/>
-      <c r="Y15" s="101"/>
-      <c r="AC15" s="61" t="s">
+      <c r="R15" s="157"/>
+      <c r="S15" s="142"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="158"/>
+      <c r="X15" s="157"/>
+      <c r="Y15" s="142"/>
+      <c r="Z15" s="143"/>
+      <c r="AA15" s="158"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="99"/>
+      <c r="AF15" s="100"/>
+      <c r="AG15" s="101"/>
+      <c r="AK15" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AD15" s="61"/>
-      <c r="AE15" s="45" t="s">
+      <c r="AL15" s="61"/>
+      <c r="AM15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AF15" s="97">
+      <c r="AN15" s="97">
         <v>45119</v>
       </c>
-      <c r="AI15" s="61" t="s">
+      <c r="AQ15" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AJ15" s="61"/>
-      <c r="AK15" s="45" t="s">
+      <c r="AR15" s="61"/>
+      <c r="AS15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AL15" s="68">
+      <c r="AT15" s="68">
         <v>45091</v>
       </c>
-      <c r="AO15" s="44" t="s">
+      <c r="AW15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AP15" s="44"/>
-      <c r="AQ15" s="44" t="s">
+      <c r="AX15" s="44"/>
+      <c r="AY15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AR15" s="71">
+      <c r="AZ15" s="71">
         <v>45058</v>
       </c>
-      <c r="AS15" s="53"/>
-      <c r="AU15" s="44" t="s">
+      <c r="BA15" s="53"/>
+      <c r="BC15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AV15" s="44"/>
-      <c r="AW15" s="44" t="s">
+      <c r="BD15" s="44"/>
+      <c r="BE15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AX15" s="71">
+      <c r="BF15" s="71">
         <v>45030</v>
       </c>
-      <c r="BB15" s="44" t="s">
+      <c r="BJ15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BC15" s="44"/>
-      <c r="BD15" s="44" t="s">
+      <c r="BK15" s="44"/>
+      <c r="BL15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BE15" s="71">
+      <c r="BM15" s="71">
         <v>45001</v>
       </c>
-      <c r="BG15" s="44" t="s">
+      <c r="BO15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BH15" s="44"/>
-      <c r="BI15" s="44" t="s">
+      <c r="BP15" s="44"/>
+      <c r="BQ15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BJ15" s="71">
+      <c r="BR15" s="71">
         <v>44973</v>
       </c>
-      <c r="BM15" s="44" t="s">
+      <c r="BU15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BN15" s="44"/>
-      <c r="BO15" s="44" t="s">
+      <c r="BV15" s="44"/>
+      <c r="BW15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BP15" s="71">
+      <c r="BX15" s="71">
         <v>44946</v>
       </c>
-      <c r="BS15" s="44" t="s">
+      <c r="CA15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BT15" s="44"/>
-      <c r="BU15" s="44" t="s">
+      <c r="CB15" s="44"/>
+      <c r="CC15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BV15" s="71">
+      <c r="CD15" s="71">
         <v>44911</v>
       </c>
-      <c r="BY15" s="44" t="s">
+      <c r="CG15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BZ15" s="52"/>
-      <c r="CA15" s="45" t="s">
+      <c r="CH15" s="52"/>
+      <c r="CI15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CB15" s="70">
+      <c r="CJ15" s="70">
         <v>44884</v>
       </c>
-      <c r="CE15" s="44" t="s">
+      <c r="CM15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CF15" s="52"/>
-      <c r="CG15" s="45" t="s">
+      <c r="CN15" s="52"/>
+      <c r="CO15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CH15" s="70">
+      <c r="CP15" s="70">
         <v>44849</v>
       </c>
-      <c r="CK15" s="44" t="s">
+      <c r="CS15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CL15" s="52"/>
-      <c r="CM15" s="45" t="s">
+      <c r="CT15" s="52"/>
+      <c r="CU15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CN15" s="70">
+      <c r="CV15" s="70">
         <v>44814</v>
       </c>
-      <c r="CP15" s="44" t="s">
+      <c r="CX15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CQ15" s="52"/>
-      <c r="CR15" s="45" t="s">
+      <c r="CY15" s="52"/>
+      <c r="CZ15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CS15" s="66">
+      <c r="DA15" s="66">
         <v>44786</v>
       </c>
-      <c r="CW15" s="44" t="s">
+      <c r="DE15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CX15" s="52"/>
-      <c r="CY15" s="44" t="s">
+      <c r="DF15" s="52"/>
+      <c r="DG15" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="CZ15" s="66">
+      <c r="DH15" s="66">
         <v>44758</v>
       </c>
-      <c r="DC15" s="44" t="s">
+      <c r="DK15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="DD15" s="44"/>
-      <c r="DE15" s="44" t="s">
+      <c r="DL15" s="44"/>
+      <c r="DM15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="DF15" s="51">
+      <c r="DN15" s="51">
         <v>44700</v>
       </c>
-      <c r="DJ15" s="44" t="s">
+      <c r="DR15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="DK15" s="57" t="s">
+      <c r="DS15" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="DL15" s="49">
+      <c r="DT15" s="49">
         <v>44730</v>
       </c>
     </row>
-    <row r="16" spans="2:116" ht="21" x14ac:dyDescent="0.35">
-      <c r="B16" s="168" t="s">
-        <v>46</v>
+    <row r="16" spans="2:124" ht="21" x14ac:dyDescent="0.35">
+      <c r="B16" s="153" t="s">
+        <v>45</v>
       </c>
       <c r="C16" s="154"/>
       <c r="D16" s="159">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="E16" s="169">
-        <v>45245</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E16" s="167">
+        <v>45244</v>
       </c>
       <c r="J16" s="168" t="s">
         <v>46</v>
@@ -5781,84 +5883,94 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="M16" s="169">
+        <v>45245</v>
+      </c>
+      <c r="R16" s="168" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16" s="154"/>
+      <c r="T16" s="159">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="U16" s="169">
         <v>45217</v>
       </c>
-      <c r="P16" s="153" t="s">
+      <c r="X16" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="Q16" s="154"/>
-      <c r="R16" s="159">
+      <c r="Y16" s="154"/>
+      <c r="Z16" s="159">
         <v>0.66666666666666663</v>
       </c>
-      <c r="S16" s="167">
+      <c r="AA16" s="167">
         <v>45190</v>
       </c>
-      <c r="V16" s="44" t="s">
+      <c r="AD16" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="57">
+      <c r="AE16" s="57">
         <v>4</v>
       </c>
-      <c r="X16" s="44" t="s">
+      <c r="AF16" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="Y16" s="51">
+      <c r="AG16" s="51">
         <v>45160</v>
       </c>
-      <c r="AC16" s="62"/>
-      <c r="AD16" s="62"/>
-      <c r="AE16" s="63"/>
-      <c r="AF16" s="53"/>
-      <c r="AI16" s="62"/>
-      <c r="AJ16" s="62"/>
-      <c r="AK16" s="63"/>
-      <c r="AL16" s="53"/>
-      <c r="AO16" s="52"/>
-      <c r="AP16" s="52"/>
-      <c r="AQ16" s="52"/>
-      <c r="AR16" s="53"/>
-      <c r="AS16" s="53"/>
-      <c r="AU16" s="52"/>
-      <c r="AV16" s="52"/>
+      <c r="AK16" s="62"/>
+      <c r="AL16" s="62"/>
+      <c r="AM16" s="63"/>
+      <c r="AN16" s="53"/>
+      <c r="AQ16" s="62"/>
+      <c r="AR16" s="62"/>
+      <c r="AS16" s="63"/>
+      <c r="AT16" s="53"/>
       <c r="AW16" s="52"/>
-      <c r="AX16" s="53"/>
-      <c r="BB16" s="52"/>
+      <c r="AX16" s="52"/>
+      <c r="AY16" s="52"/>
+      <c r="AZ16" s="53"/>
+      <c r="BA16" s="53"/>
       <c r="BC16" s="52"/>
       <c r="BD16" s="52"/>
-      <c r="BE16" s="53"/>
-      <c r="BG16" s="52"/>
-      <c r="BH16" s="52"/>
-      <c r="BI16" s="52"/>
-      <c r="BJ16" s="53"/>
-      <c r="BM16" s="52"/>
-      <c r="BN16" s="52"/>
+      <c r="BE16" s="52"/>
+      <c r="BF16" s="53"/>
+      <c r="BJ16" s="52"/>
+      <c r="BK16" s="52"/>
+      <c r="BL16" s="52"/>
+      <c r="BM16" s="53"/>
       <c r="BO16" s="52"/>
-      <c r="BP16" s="53"/>
-      <c r="BS16" s="52"/>
-      <c r="BT16" s="52"/>
+      <c r="BP16" s="52"/>
+      <c r="BQ16" s="52"/>
+      <c r="BR16" s="53"/>
       <c r="BU16" s="52"/>
-      <c r="BV16" s="53"/>
-      <c r="CK16" s="44"/>
-      <c r="CL16" s="44"/>
-      <c r="CM16" s="44"/>
-      <c r="CN16" s="46"/>
-      <c r="CP16" s="44"/>
-      <c r="CQ16" s="44"/>
-      <c r="CR16" s="44"/>
-      <c r="CS16" s="46"/>
-      <c r="CW16" s="44"/>
+      <c r="BV16" s="52"/>
+      <c r="BW16" s="52"/>
+      <c r="BX16" s="53"/>
+      <c r="CA16" s="52"/>
+      <c r="CB16" s="52"/>
+      <c r="CC16" s="52"/>
+      <c r="CD16" s="53"/>
+      <c r="CS16" s="44"/>
+      <c r="CT16" s="44"/>
+      <c r="CU16" s="44"/>
+      <c r="CV16" s="46"/>
       <c r="CX16" s="44"/>
       <c r="CY16" s="44"/>
-      <c r="CZ16" s="46"/>
-      <c r="DC16" s="44"/>
-      <c r="DD16" s="44"/>
+      <c r="CZ16" s="44"/>
+      <c r="DA16" s="46"/>
       <c r="DE16" s="44"/>
-      <c r="DF16" s="46"/>
-      <c r="DJ16" s="44"/>
-      <c r="DK16" s="57"/>
-      <c r="DL16" s="46"/>
-    </row>
-    <row r="17" spans="2:116" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="DF16" s="44"/>
+      <c r="DG16" s="44"/>
+      <c r="DH16" s="46"/>
+      <c r="DK16" s="44"/>
+      <c r="DL16" s="44"/>
+      <c r="DM16" s="44"/>
+      <c r="DN16" s="46"/>
+      <c r="DR16" s="44"/>
+      <c r="DS16" s="57"/>
+      <c r="DT16" s="46"/>
+    </row>
+    <row r="17" spans="2:124" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B17" s="168"/>
       <c r="C17" s="142"/>
       <c r="D17" s="143"/>
@@ -5867,113 +5979,117 @@
       <c r="K17" s="142"/>
       <c r="L17" s="143"/>
       <c r="M17" s="158"/>
-      <c r="P17" s="157"/>
-      <c r="Q17" s="142"/>
-      <c r="R17" s="143"/>
-      <c r="S17" s="158"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="51"/>
-      <c r="AC17" s="83" t="s">
+      <c r="R17" s="168"/>
+      <c r="S17" s="142"/>
+      <c r="T17" s="143"/>
+      <c r="U17" s="158"/>
+      <c r="X17" s="157"/>
+      <c r="Y17" s="142"/>
+      <c r="Z17" s="143"/>
+      <c r="AA17" s="158"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="51"/>
+      <c r="AK17" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="AD17" s="84" t="s">
+      <c r="AL17" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="AE17" s="83" t="s">
+      <c r="AM17" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="AF17" s="49"/>
-      <c r="AI17" s="83" t="s">
+      <c r="AN17" s="49"/>
+      <c r="AQ17" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="AJ17" s="84" t="s">
+      <c r="AR17" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="AK17" s="83" t="s">
+      <c r="AS17" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="AL17" s="49"/>
-      <c r="AO17" s="44" t="s">
+      <c r="AT17" s="49"/>
+      <c r="AW17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AP17" s="52"/>
-      <c r="AQ17" s="45" t="s">
+      <c r="AX17" s="52"/>
+      <c r="AY17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AR17" s="70">
+      <c r="AZ17" s="70">
         <v>45059</v>
       </c>
-      <c r="AS17" s="53"/>
-      <c r="AU17" s="44" t="s">
+      <c r="BA17" s="53"/>
+      <c r="BC17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AV17" s="52"/>
-      <c r="AW17" s="45" t="s">
+      <c r="BD17" s="52"/>
+      <c r="BE17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AX17" s="70">
+      <c r="BF17" s="70">
         <v>45031</v>
       </c>
-      <c r="BB17" s="44" t="s">
+      <c r="BJ17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BC17" s="52"/>
-      <c r="BD17" s="45" t="s">
+      <c r="BK17" s="52"/>
+      <c r="BL17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BE17" s="70">
+      <c r="BM17" s="70">
         <v>45003</v>
       </c>
-      <c r="BG17" s="44" t="s">
+      <c r="BO17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BH17" s="52"/>
-      <c r="BI17" s="45" t="s">
+      <c r="BP17" s="52"/>
+      <c r="BQ17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BJ17" s="70">
+      <c r="BR17" s="70">
         <v>44982</v>
       </c>
-      <c r="BM17" s="44" t="s">
+      <c r="BU17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BN17" s="52"/>
-      <c r="BO17" s="45" t="s">
+      <c r="BV17" s="52"/>
+      <c r="BW17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BP17" s="70">
+      <c r="BX17" s="70">
         <v>44954</v>
       </c>
-      <c r="BS17" s="44" t="s">
+      <c r="CA17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BT17" s="52"/>
-      <c r="BU17" s="45" t="s">
+      <c r="CB17" s="52"/>
+      <c r="CC17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BV17" s="70">
+      <c r="CD17" s="70">
         <v>44912</v>
       </c>
-      <c r="DC17" s="52"/>
-      <c r="DD17" s="52"/>
-      <c r="DE17" s="52"/>
-      <c r="DF17" s="53"/>
-      <c r="DJ17" s="44"/>
-      <c r="DK17" s="57"/>
-      <c r="DL17" s="46"/>
-    </row>
-    <row r="18" spans="2:116" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="153" t="s">
-        <v>45</v>
+      <c r="DK17" s="52"/>
+      <c r="DL17" s="52"/>
+      <c r="DM17" s="52"/>
+      <c r="DN17" s="53"/>
+      <c r="DR17" s="44"/>
+      <c r="DS17" s="57"/>
+      <c r="DT17" s="46"/>
+    </row>
+    <row r="18" spans="2:124" ht="21" x14ac:dyDescent="0.35">
+      <c r="B18" s="168" t="s">
+        <v>46</v>
       </c>
       <c r="C18" s="154"/>
       <c r="D18" s="159">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E18" s="167">
-        <v>45246</v>
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E18" s="169">
+        <v>45275</v>
       </c>
       <c r="J18" s="153" t="s">
         <v>45</v>
@@ -5983,55 +6099,65 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="M18" s="167">
+        <v>45246</v>
+      </c>
+      <c r="R18" s="153" t="s">
+        <v>45</v>
+      </c>
+      <c r="S18" s="154"/>
+      <c r="T18" s="159">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U18" s="167">
         <v>45218</v>
       </c>
-      <c r="P18" s="168" t="s">
+      <c r="X18" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="159">
+      <c r="Y18" s="154"/>
+      <c r="Z18" s="159">
         <v>0.72916666666666663</v>
       </c>
-      <c r="S18" s="169">
+      <c r="AA18" s="169">
         <v>45191</v>
       </c>
-      <c r="V18" s="61" t="s">
+      <c r="AD18" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="W18" s="57">
+      <c r="AE18" s="57">
         <v>7</v>
       </c>
-      <c r="X18" s="45" t="s">
+      <c r="AF18" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="Y18" s="97">
+      <c r="AG18" s="97">
         <v>45154</v>
       </c>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="52"/>
-      <c r="AE18" s="52"/>
-      <c r="AF18" s="53"/>
-      <c r="AI18" s="52"/>
-      <c r="AJ18" s="52"/>
       <c r="AK18" s="52"/>
-      <c r="AL18" s="53"/>
-      <c r="AO18" s="54"/>
-      <c r="AP18" s="54"/>
-      <c r="AQ18" s="54"/>
-      <c r="AR18" s="54"/>
-      <c r="AU18" s="54"/>
-      <c r="AV18" s="54"/>
+      <c r="AL18" s="52"/>
+      <c r="AM18" s="52"/>
+      <c r="AN18" s="53"/>
+      <c r="AQ18" s="52"/>
+      <c r="AR18" s="52"/>
+      <c r="AS18" s="52"/>
+      <c r="AT18" s="53"/>
       <c r="AW18" s="54"/>
       <c r="AX18" s="54"/>
-      <c r="DC18" s="44"/>
-      <c r="DD18" s="44"/>
-      <c r="DE18" s="44"/>
-      <c r="DF18" s="46"/>
-      <c r="DJ18" s="44"/>
-      <c r="DK18" s="57"/>
-      <c r="DL18" s="46"/>
-    </row>
-    <row r="19" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+      <c r="AY18" s="54"/>
+      <c r="AZ18" s="54"/>
+      <c r="BC18" s="54"/>
+      <c r="BD18" s="54"/>
+      <c r="BE18" s="54"/>
+      <c r="BF18" s="54"/>
+      <c r="DK18" s="44"/>
+      <c r="DL18" s="44"/>
+      <c r="DM18" s="44"/>
+      <c r="DN18" s="46"/>
+      <c r="DR18" s="44"/>
+      <c r="DS18" s="57"/>
+      <c r="DT18" s="46"/>
+    </row>
+    <row r="19" spans="2:124" ht="21" x14ac:dyDescent="0.35">
       <c r="B19" s="157"/>
       <c r="C19" s="142"/>
       <c r="D19" s="161"/>
@@ -6040,37 +6166,41 @@
       <c r="K19" s="142"/>
       <c r="L19" s="161"/>
       <c r="M19" s="158"/>
-      <c r="P19" s="157"/>
-      <c r="Q19" s="142"/>
-      <c r="R19" s="161"/>
-      <c r="S19" s="158"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="53"/>
-      <c r="AC19" s="52"/>
+      <c r="R19" s="157"/>
+      <c r="S19" s="142"/>
+      <c r="T19" s="161"/>
+      <c r="U19" s="158"/>
+      <c r="X19" s="157"/>
+      <c r="Y19" s="142"/>
+      <c r="Z19" s="161"/>
+      <c r="AA19" s="158"/>
       <c r="AD19" s="52"/>
-      <c r="AE19" s="63"/>
-      <c r="AF19" s="53"/>
-      <c r="AI19" s="52"/>
-      <c r="AJ19" s="52"/>
-      <c r="AK19" s="63"/>
-      <c r="AL19" s="53"/>
-      <c r="AO19" s="62"/>
-      <c r="AP19" s="62"/>
-      <c r="AQ19" s="63"/>
-      <c r="AR19" s="53"/>
-      <c r="AS19" s="53"/>
-      <c r="AU19" s="62"/>
-      <c r="AV19" s="62"/>
-      <c r="AW19" s="63"/>
-      <c r="AX19" s="53"/>
-      <c r="DC19" s="44"/>
-      <c r="DD19" s="44"/>
-      <c r="DE19" s="44"/>
-      <c r="DF19" s="46"/>
-    </row>
-    <row r="20" spans="2:116" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="53"/>
+      <c r="AK19" s="52"/>
+      <c r="AL19" s="52"/>
+      <c r="AM19" s="63"/>
+      <c r="AN19" s="53"/>
+      <c r="AQ19" s="52"/>
+      <c r="AR19" s="52"/>
+      <c r="AS19" s="63"/>
+      <c r="AT19" s="53"/>
+      <c r="AW19" s="62"/>
+      <c r="AX19" s="62"/>
+      <c r="AY19" s="63"/>
+      <c r="AZ19" s="53"/>
+      <c r="BA19" s="53"/>
+      <c r="BC19" s="62"/>
+      <c r="BD19" s="62"/>
+      <c r="BE19" s="63"/>
+      <c r="BF19" s="53"/>
+      <c r="DK19" s="44"/>
+      <c r="DL19" s="44"/>
+      <c r="DM19" s="44"/>
+      <c r="DN19" s="46"/>
+    </row>
+    <row r="20" spans="2:124" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="171" t="s">
         <v>24</v>
       </c>
@@ -6079,48 +6209,58 @@
         <v>32</v>
       </c>
       <c r="E20" s="169">
+        <v>45250</v>
+      </c>
+      <c r="J20" s="171" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="172"/>
+      <c r="L20" s="173" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="169">
         <v>45252</v>
       </c>
-      <c r="J20" s="162" t="s">
+      <c r="R20" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="154"/>
-      <c r="L20" s="155" t="s">
+      <c r="S20" s="154"/>
+      <c r="T20" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="M20" s="170">
+      <c r="U20" s="170">
         <v>45219</v>
       </c>
-      <c r="P20" s="162" t="s">
+      <c r="X20" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="Q20" s="154">
+      <c r="Y20" s="154">
         <v>4</v>
       </c>
-      <c r="R20" s="155" t="s">
+      <c r="Z20" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="S20" s="170">
+      <c r="AA20" s="170">
         <v>45191</v>
       </c>
-      <c r="V20" s="44" t="s">
+      <c r="AD20" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="W20" s="57">
+      <c r="AE20" s="57">
         <v>5</v>
       </c>
-      <c r="X20" s="44" t="s">
+      <c r="AF20" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Y20" s="71">
+      <c r="AG20" s="71">
         <v>45149</v>
       </c>
-      <c r="DC20" s="44"/>
-      <c r="DD20" s="44"/>
-      <c r="DE20" s="44"/>
-      <c r="DF20" s="46"/>
-    </row>
-    <row r="21" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+      <c r="DK20" s="44"/>
+      <c r="DL20" s="44"/>
+      <c r="DM20" s="44"/>
+      <c r="DN20" s="46"/>
+    </row>
+    <row r="21" spans="2:124" ht="21" x14ac:dyDescent="0.35">
       <c r="B21" s="164"/>
       <c r="C21" s="142"/>
       <c r="D21" s="143"/>
@@ -6129,20 +6269,24 @@
       <c r="K21" s="142"/>
       <c r="L21" s="143"/>
       <c r="M21" s="158"/>
-      <c r="P21" s="164"/>
-      <c r="Q21" s="142"/>
-      <c r="R21" s="143"/>
-      <c r="S21" s="158"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="63"/>
-      <c r="Y21" s="53"/>
-      <c r="DC21" s="44"/>
-      <c r="DD21" s="44"/>
-      <c r="DE21" s="44"/>
-      <c r="DF21" s="46"/>
-    </row>
-    <row r="22" spans="2:116" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="R21" s="164"/>
+      <c r="S21" s="142"/>
+      <c r="T21" s="143"/>
+      <c r="U21" s="158"/>
+      <c r="X21" s="164"/>
+      <c r="Y21" s="142"/>
+      <c r="Z21" s="143"/>
+      <c r="AA21" s="158"/>
+      <c r="AD21" s="62"/>
+      <c r="AE21" s="56"/>
+      <c r="AF21" s="63"/>
+      <c r="AG21" s="53"/>
+      <c r="DK21" s="44"/>
+      <c r="DL21" s="44"/>
+      <c r="DM21" s="44"/>
+      <c r="DN21" s="46"/>
+    </row>
+    <row r="22" spans="2:124" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B22" s="162" t="s">
         <v>25</v>
       </c>
@@ -6151,38 +6295,48 @@
         <v>18</v>
       </c>
       <c r="E22" s="170">
+        <v>45289</v>
+      </c>
+      <c r="J22" s="162" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="154"/>
+      <c r="L22" s="155" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="170">
         <v>45254</v>
       </c>
-      <c r="J22" s="171" t="s">
+      <c r="R22" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="172" t="s">
+      <c r="S22" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="173" t="s">
+      <c r="T22" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="169"/>
-      <c r="P22" s="171" t="s">
+      <c r="U22" s="169"/>
+      <c r="X22" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="Q22" s="172" t="s">
+      <c r="Y22" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="R22" s="173" t="s">
+      <c r="Z22" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="S22" s="169"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="53"/>
-      <c r="DC22" s="44"/>
-      <c r="DD22" s="44"/>
-      <c r="DE22" s="44"/>
-      <c r="DF22" s="46"/>
-    </row>
-    <row r="23" spans="2:116" ht="21" x14ac:dyDescent="0.35">
+      <c r="AA22" s="169"/>
+      <c r="AD22" s="52"/>
+      <c r="AE22" s="56"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="53"/>
+      <c r="DK22" s="44"/>
+      <c r="DL22" s="44"/>
+      <c r="DM22" s="44"/>
+      <c r="DN22" s="46"/>
+    </row>
+    <row r="23" spans="2:124" ht="21" x14ac:dyDescent="0.35">
       <c r="B23" s="157"/>
       <c r="C23" s="142"/>
       <c r="D23" s="161"/>
@@ -6191,20 +6345,24 @@
       <c r="K23" s="142"/>
       <c r="L23" s="161"/>
       <c r="M23" s="158"/>
-      <c r="P23" s="157"/>
-      <c r="Q23" s="142"/>
-      <c r="R23" s="161"/>
-      <c r="S23" s="158"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="53"/>
-      <c r="DC23" s="44"/>
-      <c r="DD23" s="44"/>
-      <c r="DE23" s="44"/>
-      <c r="DF23" s="46"/>
-    </row>
-    <row r="24" spans="2:116" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="R23" s="157"/>
+      <c r="S23" s="142"/>
+      <c r="T23" s="161"/>
+      <c r="U23" s="158"/>
+      <c r="X23" s="157"/>
+      <c r="Y23" s="142"/>
+      <c r="Z23" s="161"/>
+      <c r="AA23" s="158"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="56"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="53"/>
+      <c r="DK23" s="44"/>
+      <c r="DL23" s="44"/>
+      <c r="DM23" s="44"/>
+      <c r="DN23" s="46"/>
+    </row>
+    <row r="24" spans="2:124" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="174"/>
       <c r="C24" s="175"/>
       <c r="D24" s="176"/>
@@ -6213,89 +6371,95 @@
       <c r="K24" s="175"/>
       <c r="L24" s="176"/>
       <c r="M24" s="177"/>
-      <c r="P24" s="174"/>
-      <c r="Q24" s="175"/>
-      <c r="R24" s="176"/>
-      <c r="S24" s="177"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="53"/>
-      <c r="DC24" s="44"/>
-      <c r="DD24" s="44"/>
-      <c r="DE24" s="44"/>
-      <c r="DF24" s="46"/>
-    </row>
-    <row r="25" spans="2:116" ht="21" x14ac:dyDescent="0.35">
-      <c r="DC25" s="44"/>
-      <c r="DD25" s="44"/>
-      <c r="DE25" s="44"/>
-      <c r="DF25" s="46"/>
-    </row>
-    <row r="26" spans="2:116" ht="21" x14ac:dyDescent="0.35">
-      <c r="DC26" s="44"/>
-      <c r="DD26" s="44"/>
-      <c r="DE26" s="44"/>
-      <c r="DF26" s="46"/>
-    </row>
-    <row r="27" spans="2:116" ht="21" x14ac:dyDescent="0.35">
-      <c r="DC27" s="44"/>
-      <c r="DD27" s="44"/>
-      <c r="DE27" s="44"/>
-      <c r="DF27" s="46"/>
-    </row>
-    <row r="28" spans="2:116" ht="21" x14ac:dyDescent="0.35">
-      <c r="DC28" s="44"/>
-      <c r="DD28" s="44"/>
-      <c r="DE28" s="44"/>
-      <c r="DF28" s="46"/>
-    </row>
-    <row r="29" spans="2:116" ht="21" x14ac:dyDescent="0.35">
-      <c r="DC29" s="44"/>
-      <c r="DD29" s="44"/>
-      <c r="DE29" s="44"/>
-      <c r="DF29" s="46"/>
-    </row>
-    <row r="30" spans="2:116" ht="21" x14ac:dyDescent="0.35">
-      <c r="DC30" s="44"/>
-      <c r="DD30" s="44"/>
-      <c r="DE30" s="44"/>
-      <c r="DF30" s="46"/>
-    </row>
-    <row r="31" spans="2:116" ht="21" x14ac:dyDescent="0.35">
-      <c r="DC31" s="44"/>
-      <c r="DD31" s="44"/>
-      <c r="DE31" s="44"/>
-      <c r="DF31" s="46"/>
+      <c r="R24" s="174"/>
+      <c r="S24" s="175"/>
+      <c r="T24" s="176"/>
+      <c r="U24" s="177"/>
+      <c r="X24" s="174"/>
+      <c r="Y24" s="175"/>
+      <c r="Z24" s="176"/>
+      <c r="AA24" s="177"/>
+      <c r="AD24" s="52"/>
+      <c r="AE24" s="56"/>
+      <c r="AF24" s="63"/>
+      <c r="AG24" s="53"/>
+      <c r="DK24" s="44"/>
+      <c r="DL24" s="44"/>
+      <c r="DM24" s="44"/>
+      <c r="DN24" s="46"/>
+    </row>
+    <row r="25" spans="2:124" ht="21" x14ac:dyDescent="0.35">
+      <c r="DK25" s="44"/>
+      <c r="DL25" s="44"/>
+      <c r="DM25" s="44"/>
+      <c r="DN25" s="46"/>
+    </row>
+    <row r="26" spans="2:124" ht="21" x14ac:dyDescent="0.35">
+      <c r="DK26" s="44"/>
+      <c r="DL26" s="44"/>
+      <c r="DM26" s="44"/>
+      <c r="DN26" s="46"/>
+    </row>
+    <row r="27" spans="2:124" ht="21" x14ac:dyDescent="0.35">
+      <c r="DK27" s="44"/>
+      <c r="DL27" s="44"/>
+      <c r="DM27" s="44"/>
+      <c r="DN27" s="46"/>
+    </row>
+    <row r="28" spans="2:124" ht="21" x14ac:dyDescent="0.35">
+      <c r="DK28" s="44"/>
+      <c r="DL28" s="44"/>
+      <c r="DM28" s="44"/>
+      <c r="DN28" s="46"/>
+    </row>
+    <row r="29" spans="2:124" ht="21" x14ac:dyDescent="0.35">
+      <c r="DK29" s="44"/>
+      <c r="DL29" s="44"/>
+      <c r="DM29" s="44"/>
+      <c r="DN29" s="46"/>
+    </row>
+    <row r="30" spans="2:124" ht="21" x14ac:dyDescent="0.35">
+      <c r="DK30" s="44"/>
+      <c r="DL30" s="44"/>
+      <c r="DM30" s="44"/>
+      <c r="DN30" s="46"/>
+    </row>
+    <row r="31" spans="2:124" ht="21" x14ac:dyDescent="0.35">
+      <c r="DK31" s="44"/>
+      <c r="DL31" s="44"/>
+      <c r="DM31" s="44"/>
+      <c r="DN31" s="46"/>
     </row>
   </sheetData>
-  <sortState ref="P8:S21">
-    <sortCondition ref="S8:S21"/>
+  <sortState ref="X8:AA21">
+    <sortCondition ref="AA8:AA21"/>
   </sortState>
-  <mergeCells count="23">
+  <mergeCells count="25">
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="BO5:BQ5"/>
+    <mergeCell ref="BU5:BW5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AQ5:AS5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="J6:L6"/>
-    <mergeCell ref="DJ3:DL3"/>
-    <mergeCell ref="CW3:CY3"/>
-    <mergeCell ref="CP3:CR3"/>
-    <mergeCell ref="BY3:CA3"/>
-    <mergeCell ref="CE3:CG3"/>
-    <mergeCell ref="CK3:CM3"/>
-    <mergeCell ref="DC3:DF3"/>
-    <mergeCell ref="DC5:DD5"/>
-    <mergeCell ref="BS5:BU5"/>
-    <mergeCell ref="AO5:AQ5"/>
-    <mergeCell ref="AU5:AW5"/>
-    <mergeCell ref="BB5:BD5"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="BM5:BO5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="DR3:DT3"/>
+    <mergeCell ref="DE3:DG3"/>
+    <mergeCell ref="CX3:CZ3"/>
+    <mergeCell ref="CG3:CI3"/>
+    <mergeCell ref="CM3:CO3"/>
+    <mergeCell ref="CS3:CU3"/>
+    <mergeCell ref="DK3:DN3"/>
+    <mergeCell ref="DK5:DL5"/>
+    <mergeCell ref="CA5:CC5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="BJ5:BL5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMA    ECOPLAG   2023    " sheetId="7" r:id="rId1"/>
@@ -2813,9 +2813,9 @@
   </sheetPr>
   <dimension ref="A2:R38"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
+      <selection pane="bottomLeft" activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4009,8 +4009,12 @@
       <c r="E29" s="82">
         <v>856</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="33"/>
+      <c r="F29" s="9">
+        <v>1856</v>
+      </c>
+      <c r="G29" s="33">
+        <v>871</v>
+      </c>
       <c r="H29" s="20">
         <v>1856</v>
       </c>
@@ -4036,8 +4040,12 @@
         <v>860</v>
       </c>
       <c r="P29" s="138"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="42"/>
+      <c r="Q29" s="9">
+        <v>1392</v>
+      </c>
+      <c r="R29" s="42">
+        <v>866</v>
+      </c>
     </row>
     <row r="30" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
@@ -4240,7 +4248,7 @@
   </sheetPr>
   <dimension ref="B1:DT31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -6435,6 +6443,18 @@
     <sortCondition ref="AA8:AA21"/>
   </sortState>
   <mergeCells count="25">
+    <mergeCell ref="DK5:DL5"/>
+    <mergeCell ref="CA5:CC5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="BJ5:BL5"/>
+    <mergeCell ref="DR3:DT3"/>
+    <mergeCell ref="DE3:DG3"/>
+    <mergeCell ref="CX3:CZ3"/>
+    <mergeCell ref="CG3:CI3"/>
+    <mergeCell ref="CM3:CO3"/>
+    <mergeCell ref="CS3:CU3"/>
+    <mergeCell ref="DK3:DN3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="BO5:BQ5"/>
@@ -6448,18 +6468,6 @@
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="R5:T5"/>
     <mergeCell ref="R6:T6"/>
-    <mergeCell ref="DR3:DT3"/>
-    <mergeCell ref="DE3:DG3"/>
-    <mergeCell ref="CX3:CZ3"/>
-    <mergeCell ref="CG3:CI3"/>
-    <mergeCell ref="CM3:CO3"/>
-    <mergeCell ref="CS3:CU3"/>
-    <mergeCell ref="DK3:DN3"/>
-    <mergeCell ref="DK5:DL5"/>
-    <mergeCell ref="CA5:CC5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="BJ5:BL5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMA    ECOPLAG   2023    " sheetId="7" r:id="rId1"/>
@@ -1554,20 +1554,20 @@
     <xf numFmtId="44" fontId="15" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2813,7 +2813,7 @@
   </sheetPr>
   <dimension ref="A2:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R30" sqref="R30"/>
     </sheetView>
@@ -4248,8 +4248,8 @@
   </sheetPr>
   <dimension ref="B1:DT31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4406,29 +4406,29 @@
       <c r="DT4" s="47"/>
     </row>
     <row r="5" spans="2:124" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="208" t="s">
+      <c r="B5" s="209" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="209"/>
-      <c r="D5" s="209"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
       <c r="E5" s="148"/>
-      <c r="J5" s="208" t="s">
+      <c r="J5" s="209" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="209"/>
-      <c r="L5" s="209"/>
+      <c r="K5" s="210"/>
+      <c r="L5" s="210"/>
       <c r="M5" s="148"/>
-      <c r="R5" s="208" t="s">
+      <c r="R5" s="209" t="s">
         <v>55</v>
       </c>
-      <c r="S5" s="209"/>
-      <c r="T5" s="209"/>
+      <c r="S5" s="210"/>
+      <c r="T5" s="210"/>
       <c r="U5" s="148"/>
-      <c r="X5" s="208" t="s">
+      <c r="X5" s="209" t="s">
         <v>55</v>
       </c>
-      <c r="Y5" s="209"/>
-      <c r="Z5" s="209"/>
+      <c r="Y5" s="210"/>
+      <c r="Z5" s="210"/>
       <c r="AA5" s="148"/>
       <c r="AD5" s="197" t="s">
         <v>55</v>
@@ -4535,10 +4535,10 @@
       <c r="DH5" s="51">
         <v>44747</v>
       </c>
-      <c r="DK5" s="212" t="s">
+      <c r="DK5" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="DL5" s="212"/>
+      <c r="DL5" s="208"/>
       <c r="DM5" s="45" t="s">
         <v>15</v>
       </c>
@@ -4556,29 +4556,29 @@
       </c>
     </row>
     <row r="6" spans="2:124" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="210" t="s">
+      <c r="B6" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="212"/>
       <c r="E6" s="149"/>
-      <c r="J6" s="210" t="s">
+      <c r="J6" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="211"/>
-      <c r="L6" s="211"/>
+      <c r="K6" s="212"/>
+      <c r="L6" s="212"/>
       <c r="M6" s="149"/>
-      <c r="R6" s="210" t="s">
+      <c r="R6" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="S6" s="211"/>
-      <c r="T6" s="211"/>
+      <c r="S6" s="212"/>
+      <c r="T6" s="212"/>
       <c r="U6" s="149"/>
-      <c r="X6" s="210" t="s">
+      <c r="X6" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="Y6" s="211"/>
-      <c r="Z6" s="211"/>
+      <c r="Y6" s="212"/>
+      <c r="Z6" s="212"/>
       <c r="AA6" s="149"/>
       <c r="AG6" s="47"/>
       <c r="AN6" s="47"/>
@@ -5881,7 +5881,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E16" s="167">
-        <v>45244</v>
+        <v>45274</v>
       </c>
       <c r="J16" s="168" t="s">
         <v>46</v>
@@ -6217,7 +6217,7 @@
         <v>32</v>
       </c>
       <c r="E20" s="169">
-        <v>45250</v>
+        <v>45280</v>
       </c>
       <c r="J20" s="171" t="s">
         <v>24</v>
@@ -6443,18 +6443,6 @@
     <sortCondition ref="AA8:AA21"/>
   </sortState>
   <mergeCells count="25">
-    <mergeCell ref="DK5:DL5"/>
-    <mergeCell ref="CA5:CC5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="BJ5:BL5"/>
-    <mergeCell ref="DR3:DT3"/>
-    <mergeCell ref="DE3:DG3"/>
-    <mergeCell ref="CX3:CZ3"/>
-    <mergeCell ref="CG3:CI3"/>
-    <mergeCell ref="CM3:CO3"/>
-    <mergeCell ref="CS3:CU3"/>
-    <mergeCell ref="DK3:DN3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="BO5:BQ5"/>
@@ -6468,6 +6456,18 @@
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="R5:T5"/>
     <mergeCell ref="R6:T6"/>
+    <mergeCell ref="DR3:DT3"/>
+    <mergeCell ref="DE3:DG3"/>
+    <mergeCell ref="CX3:CZ3"/>
+    <mergeCell ref="CG3:CI3"/>
+    <mergeCell ref="CM3:CO3"/>
+    <mergeCell ref="CS3:CU3"/>
+    <mergeCell ref="DK3:DN3"/>
+    <mergeCell ref="DK5:DL5"/>
+    <mergeCell ref="CA5:CC5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="BJ5:BL5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMA    ECOPLAG   2023    " sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="72">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>5.00 PM</t>
+  </si>
+  <si>
+    <t>DIC.,2023</t>
   </si>
 </sst>
 </file>
@@ -2813,9 +2816,9 @@
   </sheetPr>
   <dimension ref="A2:R38"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R30" sqref="R30"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4048,15 +4051,25 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
+      <c r="A30" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="B30" s="7"/>
       <c r="C30" s="37"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="82"/>
+      <c r="D30" s="9">
+        <v>1392</v>
+      </c>
+      <c r="E30" s="82">
+        <v>898</v>
+      </c>
       <c r="F30" s="9"/>
       <c r="G30" s="33"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="37"/>
+      <c r="H30" s="20">
+        <v>1856</v>
+      </c>
+      <c r="I30" s="37">
+        <v>899</v>
+      </c>
       <c r="J30" s="20"/>
       <c r="K30" s="39"/>
       <c r="L30" s="184"/>
@@ -4248,7 +4261,7 @@
   </sheetPr>
   <dimension ref="B1:DT31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -1557,20 +1557,20 @@
     <xf numFmtId="44" fontId="15" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2818,7 +2818,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4054,8 +4054,12 @@
       <c r="A30" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="37"/>
+      <c r="B30" s="7">
+        <v>986</v>
+      </c>
+      <c r="C30" s="37">
+        <v>900</v>
+      </c>
       <c r="D30" s="9">
         <v>1392</v>
       </c>
@@ -4419,29 +4423,29 @@
       <c r="DT4" s="47"/>
     </row>
     <row r="5" spans="2:124" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="209" t="s">
+      <c r="B5" s="208" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="210"/>
-      <c r="D5" s="210"/>
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
       <c r="E5" s="148"/>
-      <c r="J5" s="209" t="s">
+      <c r="J5" s="208" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="210"/>
-      <c r="L5" s="210"/>
+      <c r="K5" s="209"/>
+      <c r="L5" s="209"/>
       <c r="M5" s="148"/>
-      <c r="R5" s="209" t="s">
+      <c r="R5" s="208" t="s">
         <v>55</v>
       </c>
-      <c r="S5" s="210"/>
-      <c r="T5" s="210"/>
+      <c r="S5" s="209"/>
+      <c r="T5" s="209"/>
       <c r="U5" s="148"/>
-      <c r="X5" s="209" t="s">
+      <c r="X5" s="208" t="s">
         <v>55</v>
       </c>
-      <c r="Y5" s="210"/>
-      <c r="Z5" s="210"/>
+      <c r="Y5" s="209"/>
+      <c r="Z5" s="209"/>
       <c r="AA5" s="148"/>
       <c r="AD5" s="197" t="s">
         <v>55</v>
@@ -4548,10 +4552,10 @@
       <c r="DH5" s="51">
         <v>44747</v>
       </c>
-      <c r="DK5" s="208" t="s">
+      <c r="DK5" s="212" t="s">
         <v>23</v>
       </c>
-      <c r="DL5" s="208"/>
+      <c r="DL5" s="212"/>
       <c r="DM5" s="45" t="s">
         <v>15</v>
       </c>
@@ -4569,29 +4573,29 @@
       </c>
     </row>
     <row r="6" spans="2:124" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="211" t="s">
+      <c r="B6" s="210" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="212"/>
-      <c r="D6" s="212"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
       <c r="E6" s="149"/>
-      <c r="J6" s="211" t="s">
+      <c r="J6" s="210" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="212"/>
-      <c r="L6" s="212"/>
+      <c r="K6" s="211"/>
+      <c r="L6" s="211"/>
       <c r="M6" s="149"/>
-      <c r="R6" s="211" t="s">
+      <c r="R6" s="210" t="s">
         <v>62</v>
       </c>
-      <c r="S6" s="212"/>
-      <c r="T6" s="212"/>
+      <c r="S6" s="211"/>
+      <c r="T6" s="211"/>
       <c r="U6" s="149"/>
-      <c r="X6" s="211" t="s">
+      <c r="X6" s="210" t="s">
         <v>62</v>
       </c>
-      <c r="Y6" s="212"/>
-      <c r="Z6" s="212"/>
+      <c r="Y6" s="211"/>
+      <c r="Z6" s="211"/>
       <c r="AA6" s="149"/>
       <c r="AG6" s="47"/>
       <c r="AN6" s="47"/>
@@ -6456,6 +6460,18 @@
     <sortCondition ref="AA8:AA21"/>
   </sortState>
   <mergeCells count="25">
+    <mergeCell ref="DK5:DL5"/>
+    <mergeCell ref="CA5:CC5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="BJ5:BL5"/>
+    <mergeCell ref="DR3:DT3"/>
+    <mergeCell ref="DE3:DG3"/>
+    <mergeCell ref="CX3:CZ3"/>
+    <mergeCell ref="CG3:CI3"/>
+    <mergeCell ref="CM3:CO3"/>
+    <mergeCell ref="CS3:CU3"/>
+    <mergeCell ref="DK3:DN3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="BO5:BQ5"/>
@@ -6469,18 +6485,6 @@
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="R5:T5"/>
     <mergeCell ref="R6:T6"/>
-    <mergeCell ref="DR3:DT3"/>
-    <mergeCell ref="DE3:DG3"/>
-    <mergeCell ref="CX3:CZ3"/>
-    <mergeCell ref="CG3:CI3"/>
-    <mergeCell ref="CM3:CO3"/>
-    <mergeCell ref="CS3:CU3"/>
-    <mergeCell ref="DK3:DN3"/>
-    <mergeCell ref="DK5:DL5"/>
-    <mergeCell ref="CA5:CC5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="BJ5:BL5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMA    ECOPLAG   2023    " sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="72">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -1058,7 +1058,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1557,20 +1557,23 @@
     <xf numFmtId="44" fontId="15" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2816,9 +2819,9 @@
   </sheetPr>
   <dimension ref="A2:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4076,10 +4079,18 @@
       </c>
       <c r="J30" s="20"/>
       <c r="K30" s="39"/>
-      <c r="L30" s="184"/>
-      <c r="M30" s="127"/>
-      <c r="N30" s="184"/>
-      <c r="O30" s="127"/>
+      <c r="L30" s="184">
+        <v>1624</v>
+      </c>
+      <c r="M30" s="127">
+        <v>908</v>
+      </c>
+      <c r="N30" s="184">
+        <v>986</v>
+      </c>
+      <c r="O30" s="127">
+        <v>909</v>
+      </c>
       <c r="P30" s="138"/>
       <c r="Q30" s="9"/>
       <c r="R30" s="42"/>
@@ -4263,10 +4274,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B1:DT31"/>
+  <dimension ref="B1:EB31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4279,126 +4290,133 @@
     <col min="11" max="11" width="21.28515625" style="19" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" customWidth="1"/>
     <col min="18" max="18" width="36" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21.28515625" style="19" customWidth="1"/>
     <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.42578125" customWidth="1"/>
-    <col min="24" max="24" width="36" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.28515625" style="19" customWidth="1"/>
-    <col min="26" max="26" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" customWidth="1"/>
-    <col min="30" max="30" width="36" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.28515625" style="19" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="36" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="36" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="36" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="21.7109375" customWidth="1"/>
-    <col min="51" max="51" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15" style="54" customWidth="1"/>
-    <col min="55" max="55" width="36" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="21.7109375" customWidth="1"/>
-    <col min="57" max="57" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="36" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="26.85546875" customWidth="1"/>
-    <col min="65" max="65" width="15" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="36" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="36" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="36" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="36" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="36" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="36" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="18.42578125" customWidth="1"/>
-    <col min="102" max="102" width="36" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="18.42578125" customWidth="1"/>
-    <col min="109" max="109" width="36" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="17.140625" customWidth="1"/>
-    <col min="112" max="112" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="115" max="116" width="19.5703125" customWidth="1"/>
-    <col min="117" max="117" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="18.42578125" style="47" customWidth="1"/>
-    <col min="122" max="122" width="36" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="19.5703125" style="19" customWidth="1"/>
-    <col min="124" max="124" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" customWidth="1"/>
+    <col min="26" max="26" width="36" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.28515625" style="19" customWidth="1"/>
+    <col min="28" max="28" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="11.42578125" customWidth="1"/>
+    <col min="32" max="32" width="36" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.28515625" style="19" customWidth="1"/>
+    <col min="34" max="34" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.42578125" customWidth="1"/>
+    <col min="38" max="38" width="36" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.28515625" style="19" customWidth="1"/>
+    <col min="40" max="40" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="36" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="36" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="36" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.7109375" customWidth="1"/>
+    <col min="59" max="59" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15" style="54" customWidth="1"/>
+    <col min="63" max="63" width="36" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.7109375" customWidth="1"/>
+    <col min="65" max="65" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="15" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="36" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="26.85546875" customWidth="1"/>
+    <col min="73" max="73" width="15" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="36" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="36" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="36" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="36" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="36" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="36" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="18.42578125" customWidth="1"/>
+    <col min="110" max="110" width="36" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="18.42578125" customWidth="1"/>
+    <col min="117" max="117" width="36" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="17.140625" customWidth="1"/>
+    <col min="120" max="120" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="123" max="124" width="19.5703125" customWidth="1"/>
+    <col min="125" max="125" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="18.42578125" style="47" customWidth="1"/>
+    <col min="130" max="130" width="36" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="19.5703125" style="19" customWidth="1"/>
+    <col min="132" max="132" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:124" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:132" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>69</v>
       </c>
       <c r="J1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="2:124" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="CG3" s="197" t="s">
+      <c r="R1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="2:132" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="CO3" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="CH3" s="197"/>
-      <c r="CI3" s="197"/>
-      <c r="CJ3" s="60"/>
-      <c r="CM3" s="197" t="s">
+      <c r="CP3" s="197"/>
+      <c r="CQ3" s="197"/>
+      <c r="CR3" s="60"/>
+      <c r="CU3" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="CN3" s="197"/>
-      <c r="CO3" s="197"/>
-      <c r="CP3" s="60"/>
-      <c r="CS3" s="197" t="s">
+      <c r="CV3" s="197"/>
+      <c r="CW3" s="197"/>
+      <c r="CX3" s="60"/>
+      <c r="DA3" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="CT3" s="197"/>
-      <c r="CU3" s="197"/>
-      <c r="CV3" s="60"/>
-      <c r="CX3" s="197" t="s">
+      <c r="DB3" s="197"/>
+      <c r="DC3" s="197"/>
+      <c r="DD3" s="60"/>
+      <c r="DF3" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="CY3" s="197"/>
-      <c r="CZ3" s="197"/>
-      <c r="DA3" s="60"/>
-      <c r="DE3" s="197" t="s">
+      <c r="DG3" s="197"/>
+      <c r="DH3" s="197"/>
+      <c r="DI3" s="60"/>
+      <c r="DM3" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="DF3" s="197"/>
-      <c r="DG3" s="197"/>
-      <c r="DH3" s="60"/>
-      <c r="DI3" s="59"/>
-      <c r="DK3" s="197" t="s">
+      <c r="DN3" s="197"/>
+      <c r="DO3" s="197"/>
+      <c r="DP3" s="60"/>
+      <c r="DQ3" s="59"/>
+      <c r="DS3" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="DL3" s="197"/>
-      <c r="DM3" s="197"/>
-      <c r="DN3" s="197"/>
-      <c r="DR3" s="197" t="s">
+      <c r="DT3" s="197"/>
+      <c r="DU3" s="197"/>
+      <c r="DV3" s="197"/>
+      <c r="DZ3" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="DS3" s="197"/>
-      <c r="DT3" s="197"/>
-    </row>
-    <row r="4" spans="2:124" x14ac:dyDescent="0.25">
+      <c r="EA3" s="197"/>
+      <c r="EB3" s="197"/>
+    </row>
+    <row r="4" spans="2:132" x14ac:dyDescent="0.25">
       <c r="B4" s="144"/>
       <c r="C4" s="145"/>
       <c r="D4" s="146"/>
@@ -4411,223 +4429,239 @@
       <c r="S4" s="145"/>
       <c r="T4" s="146"/>
       <c r="U4" s="147"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="145"/>
-      <c r="Z4" s="146"/>
-      <c r="AA4" s="147"/>
-      <c r="CJ4" s="47"/>
-      <c r="CP4" s="47"/>
-      <c r="CV4" s="47"/>
-      <c r="DA4" s="47"/>
-      <c r="DH4" s="47"/>
-      <c r="DT4" s="47"/>
-    </row>
-    <row r="5" spans="2:124" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="208" t="s">
+      <c r="Z4" s="144"/>
+      <c r="AA4" s="145"/>
+      <c r="AB4" s="146"/>
+      <c r="AC4" s="147"/>
+      <c r="AF4" s="144"/>
+      <c r="AG4" s="145"/>
+      <c r="AH4" s="146"/>
+      <c r="AI4" s="147"/>
+      <c r="CR4" s="47"/>
+      <c r="CX4" s="47"/>
+      <c r="DD4" s="47"/>
+      <c r="DI4" s="47"/>
+      <c r="DP4" s="47"/>
+      <c r="EB4" s="47"/>
+    </row>
+    <row r="5" spans="2:132" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B5" s="209" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="209"/>
-      <c r="D5" s="209"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
       <c r="E5" s="148"/>
-      <c r="J5" s="208" t="s">
+      <c r="J5" s="209" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="209"/>
-      <c r="L5" s="209"/>
+      <c r="K5" s="210"/>
+      <c r="L5" s="210"/>
       <c r="M5" s="148"/>
-      <c r="R5" s="208" t="s">
+      <c r="R5" s="209" t="s">
         <v>55</v>
       </c>
-      <c r="S5" s="209"/>
-      <c r="T5" s="209"/>
+      <c r="S5" s="210"/>
+      <c r="T5" s="210"/>
       <c r="U5" s="148"/>
-      <c r="X5" s="208" t="s">
+      <c r="Z5" s="209" t="s">
         <v>55</v>
       </c>
-      <c r="Y5" s="209"/>
-      <c r="Z5" s="209"/>
-      <c r="AA5" s="148"/>
-      <c r="AD5" s="197" t="s">
+      <c r="AA5" s="210"/>
+      <c r="AB5" s="210"/>
+      <c r="AC5" s="148"/>
+      <c r="AF5" s="209" t="s">
         <v>55</v>
       </c>
-      <c r="AE5" s="197"/>
-      <c r="AF5" s="197"/>
-      <c r="AG5" s="60"/>
-      <c r="AK5" s="197" t="s">
+      <c r="AG5" s="210"/>
+      <c r="AH5" s="210"/>
+      <c r="AI5" s="148"/>
+      <c r="AL5" s="197" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM5" s="197"/>
+      <c r="AN5" s="197"/>
+      <c r="AO5" s="60"/>
+      <c r="AS5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="AL5" s="197"/>
-      <c r="AM5" s="197"/>
-      <c r="AN5" s="60"/>
-      <c r="AQ5" s="197" t="s">
+      <c r="AT5" s="197"/>
+      <c r="AU5" s="197"/>
+      <c r="AV5" s="60"/>
+      <c r="AY5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="AR5" s="197"/>
-      <c r="AS5" s="197"/>
-      <c r="AT5" s="60"/>
-      <c r="AW5" s="197" t="s">
+      <c r="AZ5" s="197"/>
+      <c r="BA5" s="197"/>
+      <c r="BB5" s="60"/>
+      <c r="BE5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="AX5" s="197"/>
-      <c r="AY5" s="197"/>
-      <c r="AZ5" s="60"/>
-      <c r="BA5" s="85"/>
-      <c r="BC5" s="197" t="s">
+      <c r="BF5" s="197"/>
+      <c r="BG5" s="197"/>
+      <c r="BH5" s="60"/>
+      <c r="BI5" s="85"/>
+      <c r="BK5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="BD5" s="197"/>
-      <c r="BE5" s="197"/>
-      <c r="BF5" s="60"/>
-      <c r="BJ5" s="197" t="s">
+      <c r="BL5" s="197"/>
+      <c r="BM5" s="197"/>
+      <c r="BN5" s="60"/>
+      <c r="BR5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="BK5" s="197"/>
-      <c r="BL5" s="197"/>
-      <c r="BM5" s="60"/>
-      <c r="BO5" s="197" t="s">
+      <c r="BS5" s="197"/>
+      <c r="BT5" s="197"/>
+      <c r="BU5" s="60"/>
+      <c r="BW5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="BP5" s="197"/>
-      <c r="BQ5" s="197"/>
-      <c r="BR5" s="60"/>
-      <c r="BU5" s="197" t="s">
+      <c r="BX5" s="197"/>
+      <c r="BY5" s="197"/>
+      <c r="BZ5" s="60"/>
+      <c r="CC5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="BV5" s="197"/>
-      <c r="BW5" s="197"/>
-      <c r="BX5" s="60"/>
-      <c r="CA5" s="197" t="s">
+      <c r="CD5" s="197"/>
+      <c r="CE5" s="197"/>
+      <c r="CF5" s="60"/>
+      <c r="CI5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="CB5" s="197"/>
-      <c r="CC5" s="197"/>
-      <c r="CD5" s="60"/>
-      <c r="CG5" s="61" t="s">
+      <c r="CJ5" s="197"/>
+      <c r="CK5" s="197"/>
+      <c r="CL5" s="60"/>
+      <c r="CO5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="CH5" s="61"/>
-      <c r="CI5" s="45" t="s">
+      <c r="CP5" s="61"/>
+      <c r="CQ5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CJ5" s="68">
+      <c r="CR5" s="68">
         <v>44861</v>
       </c>
-      <c r="CM5" s="61" t="s">
+      <c r="CU5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="CN5" s="61"/>
-      <c r="CO5" s="45" t="s">
+      <c r="CV5" s="61"/>
+      <c r="CW5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CP5" s="68">
+      <c r="CX5" s="68">
         <v>44833</v>
       </c>
-      <c r="CS5" s="44" t="s">
+      <c r="DA5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="CT5" s="44"/>
-      <c r="CU5" s="44" t="s">
+      <c r="DB5" s="44"/>
+      <c r="DC5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="CV5" s="50">
+      <c r="DD5" s="50">
         <v>44804</v>
       </c>
-      <c r="CX5" s="44" t="s">
+      <c r="DF5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="CY5" s="44"/>
-      <c r="CZ5" s="44" t="s">
+      <c r="DG5" s="44"/>
+      <c r="DH5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="DA5" s="64">
+      <c r="DI5" s="64">
         <v>44776</v>
       </c>
-      <c r="DE5" s="61" t="s">
+      <c r="DM5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="DF5" s="61"/>
-      <c r="DG5" s="45" t="s">
+      <c r="DN5" s="61"/>
+      <c r="DO5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="DH5" s="51">
+      <c r="DP5" s="51">
         <v>44747</v>
       </c>
-      <c r="DK5" s="212" t="s">
+      <c r="DS5" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="DL5" s="212"/>
-      <c r="DM5" s="45" t="s">
+      <c r="DT5" s="208"/>
+      <c r="DU5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="DN5" s="51">
+      <c r="DV5" s="51">
         <v>44686</v>
       </c>
-      <c r="DR5" s="48" t="s">
+      <c r="DZ5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="DS5" s="55" t="s">
+      <c r="EA5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="DT5" s="51">
+      <c r="EB5" s="51">
         <v>44714</v>
       </c>
     </row>
-    <row r="6" spans="2:124" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="210" t="s">
+    <row r="6" spans="2:132" ht="21" x14ac:dyDescent="0.35">
+      <c r="B6" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="212"/>
       <c r="E6" s="149"/>
-      <c r="J6" s="210" t="s">
+      <c r="J6" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="211"/>
-      <c r="L6" s="211"/>
+      <c r="K6" s="212"/>
+      <c r="L6" s="212"/>
       <c r="M6" s="149"/>
-      <c r="R6" s="210" t="s">
+      <c r="R6" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="S6" s="211"/>
-      <c r="T6" s="211"/>
+      <c r="S6" s="212"/>
+      <c r="T6" s="212"/>
       <c r="U6" s="149"/>
-      <c r="X6" s="210" t="s">
+      <c r="Z6" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="Y6" s="211"/>
-      <c r="Z6" s="211"/>
-      <c r="AA6" s="149"/>
-      <c r="AG6" s="47"/>
-      <c r="AN6" s="47"/>
-      <c r="AT6" s="47"/>
-      <c r="AZ6" s="47"/>
-      <c r="BA6" s="86"/>
-      <c r="BF6" s="47"/>
-      <c r="BM6" s="47"/>
-      <c r="BR6" s="47"/>
-      <c r="BX6" s="47"/>
-      <c r="CD6" s="47"/>
-      <c r="CG6" s="44"/>
-      <c r="CH6" s="44"/>
-      <c r="CI6" s="44"/>
-      <c r="CJ6" s="53"/>
-      <c r="CM6" s="44"/>
-      <c r="CN6" s="44"/>
+      <c r="AA6" s="212"/>
+      <c r="AB6" s="212"/>
+      <c r="AC6" s="149"/>
+      <c r="AF6" s="211" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG6" s="212"/>
+      <c r="AH6" s="212"/>
+      <c r="AI6" s="149"/>
+      <c r="AO6" s="47"/>
+      <c r="AV6" s="47"/>
+      <c r="BB6" s="47"/>
+      <c r="BH6" s="47"/>
+      <c r="BI6" s="86"/>
+      <c r="BN6" s="47"/>
+      <c r="BU6" s="47"/>
+      <c r="BZ6" s="47"/>
+      <c r="CF6" s="47"/>
+      <c r="CL6" s="47"/>
       <c r="CO6" s="44"/>
-      <c r="CP6" s="53"/>
-      <c r="DE6" s="62"/>
-      <c r="DF6" s="62"/>
-      <c r="DG6" s="63"/>
-      <c r="DH6" s="53"/>
-      <c r="DK6" s="44"/>
-      <c r="DL6" s="44"/>
-      <c r="DM6" s="44"/>
-      <c r="DN6" s="46"/>
-      <c r="DR6" s="52"/>
-      <c r="DS6" s="56"/>
-      <c r="DT6" s="53"/>
-    </row>
-    <row r="7" spans="2:124" ht="21" x14ac:dyDescent="0.35">
+      <c r="CP6" s="44"/>
+      <c r="CQ6" s="44"/>
+      <c r="CR6" s="53"/>
+      <c r="CU6" s="44"/>
+      <c r="CV6" s="44"/>
+      <c r="CW6" s="44"/>
+      <c r="CX6" s="53"/>
+      <c r="DM6" s="62"/>
+      <c r="DN6" s="62"/>
+      <c r="DO6" s="63"/>
+      <c r="DP6" s="53"/>
+      <c r="DS6" s="44"/>
+      <c r="DT6" s="44"/>
+      <c r="DU6" s="44"/>
+      <c r="DV6" s="46"/>
+      <c r="DZ6" s="52"/>
+      <c r="EA6" s="56"/>
+      <c r="EB6" s="53"/>
+    </row>
+    <row r="7" spans="2:132" ht="21" x14ac:dyDescent="0.35">
       <c r="B7" s="150"/>
       <c r="C7" s="151"/>
       <c r="D7" s="152"/>
@@ -4640,262 +4674,276 @@
       <c r="S7" s="151"/>
       <c r="T7" s="152"/>
       <c r="U7" s="149"/>
-      <c r="X7" s="150"/>
-      <c r="Y7" s="151"/>
-      <c r="Z7" s="152"/>
-      <c r="AA7" s="149"/>
-      <c r="AG7" s="47"/>
-      <c r="AK7" s="44" t="s">
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="151"/>
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="149"/>
+      <c r="AF7" s="150"/>
+      <c r="AG7" s="151"/>
+      <c r="AH7" s="152"/>
+      <c r="AI7" s="149"/>
+      <c r="AO7" s="47"/>
+      <c r="AS7" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AL7" s="44"/>
-      <c r="AM7" s="44" t="s">
+      <c r="AT7" s="44"/>
+      <c r="AU7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AN7" s="51">
+      <c r="AV7" s="51">
         <v>45111</v>
       </c>
-      <c r="AQ7" s="44" t="s">
+      <c r="AY7" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AR7" s="44"/>
-      <c r="AS7" s="44" t="s">
+      <c r="AZ7" s="44"/>
+      <c r="BA7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AT7" s="51">
+      <c r="BB7" s="51">
         <v>45083</v>
       </c>
-      <c r="AW7" s="44" t="s">
+      <c r="BE7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AX7" s="44"/>
-      <c r="AY7" s="44" t="s">
+      <c r="BF7" s="44"/>
+      <c r="BG7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AZ7" s="50">
+      <c r="BH7" s="50">
         <v>45049</v>
       </c>
-      <c r="BA7" s="53"/>
-      <c r="BC7" s="44" t="s">
+      <c r="BI7" s="53"/>
+      <c r="BK7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BD7" s="44"/>
-      <c r="BE7" s="44" t="s">
+      <c r="BL7" s="44"/>
+      <c r="BM7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BF7" s="50">
+      <c r="BN7" s="50">
         <v>45021</v>
       </c>
-      <c r="BJ7" s="44" t="s">
+      <c r="BR7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BK7" s="44"/>
-      <c r="BL7" s="44" t="s">
+      <c r="BS7" s="44"/>
+      <c r="BT7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BM7" s="50">
+      <c r="BU7" s="50">
         <v>44986</v>
       </c>
-      <c r="BO7" s="44" t="s">
+      <c r="BW7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BP7" s="44"/>
-      <c r="BQ7" s="44" t="s">
+      <c r="BX7" s="44"/>
+      <c r="BY7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BR7" s="50">
+      <c r="BZ7" s="50">
         <v>44958</v>
       </c>
-      <c r="BU7" s="44" t="s">
+      <c r="CC7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BV7" s="44"/>
-      <c r="BW7" s="44" t="s">
+      <c r="CD7" s="44"/>
+      <c r="CE7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BX7" s="50">
+      <c r="CF7" s="50">
         <v>44930</v>
       </c>
-      <c r="CA7" s="61" t="s">
+      <c r="CI7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="CB7" s="61"/>
-      <c r="CC7" s="45" t="s">
+      <c r="CJ7" s="61"/>
+      <c r="CK7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CD7" s="68">
+      <c r="CL7" s="68">
         <v>44896</v>
       </c>
-      <c r="CG7" s="44" t="s">
+      <c r="CO7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="CH7" s="44"/>
-      <c r="CI7" s="44" t="s">
+      <c r="CP7" s="44"/>
+      <c r="CQ7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="CJ7" s="50">
+      <c r="CR7" s="50">
         <v>44874</v>
       </c>
-      <c r="CM7" s="44" t="s">
+      <c r="CU7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="CN7" s="44"/>
-      <c r="CO7" s="44" t="s">
+      <c r="CV7" s="44"/>
+      <c r="CW7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="CP7" s="50">
+      <c r="CX7" s="50">
         <v>44839</v>
       </c>
-      <c r="CS7" s="61" t="s">
+      <c r="DA7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="CT7" s="61"/>
-      <c r="CU7" s="45" t="s">
+      <c r="DB7" s="61"/>
+      <c r="DC7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CV7" s="68">
+      <c r="DD7" s="68">
         <v>44805</v>
       </c>
-      <c r="CX7" s="61" t="s">
+      <c r="DF7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="CY7" s="61"/>
-      <c r="CZ7" s="45" t="s">
+      <c r="DG7" s="61"/>
+      <c r="DH7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="DA7" s="51">
+      <c r="DI7" s="51">
         <v>44777</v>
       </c>
-      <c r="DE7" s="44" t="s">
+      <c r="DM7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="DF7" s="44"/>
-      <c r="DG7" s="44" t="s">
+      <c r="DN7" s="44"/>
+      <c r="DO7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="DH7" s="64">
+      <c r="DP7" s="64">
         <v>44748</v>
       </c>
-      <c r="DK7" s="44" t="s">
+      <c r="DS7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="DL7" s="44"/>
-      <c r="DM7" s="44" t="s">
+      <c r="DT7" s="44"/>
+      <c r="DU7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="DN7" s="49">
+      <c r="DV7" s="49">
         <v>44691</v>
       </c>
-      <c r="DO7" s="54"/>
-      <c r="DR7" s="44" t="s">
+      <c r="DW7" s="54"/>
+      <c r="DZ7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="DS7" s="57" t="s">
+      <c r="EA7" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="DT7" s="49">
+      <c r="EB7" s="49">
         <v>44719</v>
       </c>
     </row>
-    <row r="8" spans="2:124" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:132" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="153" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="142"/>
-      <c r="D8" s="159" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="160">
-        <v>45261</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="154"/>
+      <c r="D8" s="155" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="156">
+        <v>45295</v>
       </c>
       <c r="J8" s="153" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="142"/>
       <c r="L8" s="159" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="160">
+        <v>45261</v>
+      </c>
+      <c r="R8" s="153" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="142"/>
+      <c r="T8" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="160">
+      <c r="U8" s="160">
         <v>45234</v>
       </c>
-      <c r="R8" s="153" t="s">
+      <c r="Z8" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="154"/>
-      <c r="T8" s="155" t="s">
+      <c r="AA8" s="154"/>
+      <c r="AB8" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="U8" s="156">
+      <c r="AC8" s="156">
         <v>45204</v>
       </c>
-      <c r="V8" s="54"/>
-      <c r="X8" s="153" t="s">
+      <c r="AD8" s="54"/>
+      <c r="AF8" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="Y8" s="154">
+      <c r="AG8" s="154">
         <v>11</v>
       </c>
-      <c r="Z8" s="155" t="s">
+      <c r="AH8" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="AA8" s="156">
+      <c r="AI8" s="156">
         <v>45169</v>
       </c>
-      <c r="AB8" s="54"/>
-      <c r="AD8" s="44" t="s">
+      <c r="AJ8" s="54"/>
+      <c r="AL8" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="AE8" s="57"/>
-      <c r="AF8" s="45">
+      <c r="AM8" s="57"/>
+      <c r="AN8" s="45">
         <v>0.66666666666666663</v>
       </c>
-      <c r="AG8" s="64"/>
-      <c r="AK8" s="62"/>
-      <c r="AL8" s="62"/>
-      <c r="AM8" s="63"/>
-      <c r="AN8" s="53"/>
-      <c r="AQ8" s="62"/>
-      <c r="AR8" s="62"/>
-      <c r="AS8" s="63"/>
-      <c r="AT8" s="53"/>
-      <c r="AW8" s="62"/>
-      <c r="AX8" s="62"/>
-      <c r="AY8" s="63"/>
-      <c r="AZ8" s="53"/>
-      <c r="BA8" s="53"/>
-      <c r="BC8" s="62"/>
-      <c r="BD8" s="62"/>
-      <c r="BE8" s="63"/>
-      <c r="BF8" s="53"/>
-      <c r="BJ8" s="62"/>
+      <c r="AO8" s="64"/>
+      <c r="AS8" s="62"/>
+      <c r="AT8" s="62"/>
+      <c r="AU8" s="63"/>
+      <c r="AV8" s="53"/>
+      <c r="AY8" s="62"/>
+      <c r="AZ8" s="62"/>
+      <c r="BA8" s="63"/>
+      <c r="BB8" s="53"/>
+      <c r="BE8" s="62"/>
+      <c r="BF8" s="62"/>
+      <c r="BG8" s="63"/>
+      <c r="BH8" s="53"/>
+      <c r="BI8" s="53"/>
       <c r="BK8" s="62"/>
-      <c r="BL8" s="63"/>
-      <c r="BM8" s="53"/>
-      <c r="BO8" s="62"/>
-      <c r="BP8" s="62"/>
-      <c r="BQ8" s="63"/>
-      <c r="BR8" s="53"/>
-      <c r="BU8" s="62"/>
-      <c r="BV8" s="62"/>
-      <c r="BW8" s="63"/>
-      <c r="BX8" s="53"/>
-      <c r="CA8" s="44"/>
-      <c r="CB8" s="44"/>
-      <c r="CC8" s="44"/>
-      <c r="CD8" s="53"/>
-      <c r="DE8" s="52"/>
-      <c r="DF8" s="52"/>
-      <c r="DG8" s="52"/>
-      <c r="DH8" s="53"/>
-      <c r="DK8" s="44"/>
-      <c r="DL8" s="44"/>
-      <c r="DM8" s="44"/>
-      <c r="DN8" s="46"/>
-      <c r="DR8" s="52"/>
-      <c r="DS8" s="56"/>
-      <c r="DT8" s="53"/>
-    </row>
-    <row r="9" spans="2:124" ht="21" x14ac:dyDescent="0.35">
+      <c r="BL8" s="62"/>
+      <c r="BM8" s="63"/>
+      <c r="BN8" s="53"/>
+      <c r="BR8" s="62"/>
+      <c r="BS8" s="62"/>
+      <c r="BT8" s="63"/>
+      <c r="BU8" s="53"/>
+      <c r="BW8" s="62"/>
+      <c r="BX8" s="62"/>
+      <c r="BY8" s="63"/>
+      <c r="BZ8" s="53"/>
+      <c r="CC8" s="62"/>
+      <c r="CD8" s="62"/>
+      <c r="CE8" s="63"/>
+      <c r="CF8" s="53"/>
+      <c r="CI8" s="44"/>
+      <c r="CJ8" s="44"/>
+      <c r="CK8" s="44"/>
+      <c r="CL8" s="53"/>
+      <c r="DM8" s="52"/>
+      <c r="DN8" s="52"/>
+      <c r="DO8" s="52"/>
+      <c r="DP8" s="53"/>
+      <c r="DS8" s="44"/>
+      <c r="DT8" s="44"/>
+      <c r="DU8" s="44"/>
+      <c r="DV8" s="46"/>
+      <c r="DZ8" s="52"/>
+      <c r="EA8" s="56"/>
+      <c r="EB8" s="53"/>
+    </row>
+    <row r="9" spans="2:132" ht="21" x14ac:dyDescent="0.35">
       <c r="B9" s="157"/>
       <c r="C9" s="142"/>
       <c r="D9" s="161"/>
@@ -4906,165 +4954,169 @@
       <c r="M9" s="158"/>
       <c r="R9" s="157"/>
       <c r="S9" s="142"/>
-      <c r="T9" s="143"/>
+      <c r="T9" s="161"/>
       <c r="U9" s="158"/>
-      <c r="X9" s="157"/>
-      <c r="Y9" s="142"/>
-      <c r="Z9" s="143"/>
-      <c r="AA9" s="158"/>
-      <c r="AG9" s="47"/>
-      <c r="AK9" s="44" t="s">
+      <c r="Z9" s="157"/>
+      <c r="AA9" s="142"/>
+      <c r="AB9" s="143"/>
+      <c r="AC9" s="158"/>
+      <c r="AF9" s="157"/>
+      <c r="AG9" s="142"/>
+      <c r="AH9" s="143"/>
+      <c r="AI9" s="158"/>
+      <c r="AO9" s="47"/>
+      <c r="AS9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AL9" s="44"/>
-      <c r="AM9" s="44" t="s">
+      <c r="AT9" s="44"/>
+      <c r="AU9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AN9" s="50">
+      <c r="AV9" s="50">
         <v>45112</v>
       </c>
-      <c r="AQ9" s="44" t="s">
+      <c r="AY9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AR9" s="44"/>
-      <c r="AS9" s="44" t="s">
+      <c r="AZ9" s="44"/>
+      <c r="BA9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AT9" s="50">
+      <c r="BB9" s="50">
         <v>45084</v>
       </c>
-      <c r="AW9" s="44" t="s">
+      <c r="BE9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AX9" s="44"/>
-      <c r="AY9" s="44" t="s">
+      <c r="BF9" s="44"/>
+      <c r="BG9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AZ9" s="51">
+      <c r="BH9" s="51">
         <v>45055</v>
       </c>
-      <c r="BA9" s="53"/>
-      <c r="BC9" s="44" t="s">
+      <c r="BI9" s="53"/>
+      <c r="BK9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BD9" s="44"/>
-      <c r="BE9" s="44" t="s">
+      <c r="BL9" s="44"/>
+      <c r="BM9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BF9" s="51">
+      <c r="BN9" s="51">
         <v>45027</v>
       </c>
-      <c r="BJ9" s="61" t="s">
+      <c r="BR9" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BK9" s="61"/>
-      <c r="BL9" s="45" t="s">
+      <c r="BS9" s="61"/>
+      <c r="BT9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BM9" s="68">
+      <c r="BU9" s="68">
         <v>44987</v>
       </c>
-      <c r="BO9" s="61" t="s">
+      <c r="BW9" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BP9" s="61"/>
-      <c r="BQ9" s="45" t="s">
+      <c r="BX9" s="61"/>
+      <c r="BY9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BR9" s="68">
+      <c r="BZ9" s="68">
         <v>44959</v>
       </c>
-      <c r="BU9" s="61" t="s">
+      <c r="CC9" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BV9" s="61"/>
-      <c r="BW9" s="45" t="s">
+      <c r="CD9" s="61"/>
+      <c r="CE9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BX9" s="68">
+      <c r="CF9" s="68">
         <v>44931</v>
       </c>
-      <c r="CA9" s="44" t="s">
+      <c r="CI9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="CB9" s="44"/>
-      <c r="CC9" s="44" t="s">
+      <c r="CJ9" s="44"/>
+      <c r="CK9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="CD9" s="50">
+      <c r="CL9" s="50">
         <v>44902</v>
       </c>
-      <c r="CG9" s="44" t="s">
+      <c r="CO9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="CH9" s="44"/>
-      <c r="CI9" s="44" t="s">
+      <c r="CP9" s="44"/>
+      <c r="CQ9" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="CJ9" s="69">
+      <c r="CR9" s="69">
         <v>44875</v>
       </c>
-      <c r="CM9" s="44" t="s">
+      <c r="CU9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="CN9" s="44"/>
-      <c r="CO9" s="44" t="s">
+      <c r="CV9" s="44"/>
+      <c r="CW9" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="CP9" s="69">
+      <c r="CX9" s="69">
         <v>44840</v>
       </c>
-      <c r="CS9" s="44" t="s">
+      <c r="DA9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="CT9" s="44"/>
-      <c r="CU9" s="44" t="s">
+      <c r="DB9" s="44"/>
+      <c r="DC9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="CV9" s="69">
+      <c r="DD9" s="69">
         <v>44807</v>
       </c>
-      <c r="CX9" s="44" t="s">
+      <c r="DF9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="CY9" s="44"/>
-      <c r="CZ9" s="44" t="s">
+      <c r="DG9" s="44"/>
+      <c r="DH9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="DA9" s="50">
+      <c r="DI9" s="50">
         <v>44779</v>
       </c>
-      <c r="DE9" s="44" t="s">
+      <c r="DM9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="DF9" s="44"/>
-      <c r="DG9" s="44" t="s">
+      <c r="DN9" s="44"/>
+      <c r="DO9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="DH9" s="49">
+      <c r="DP9" s="49">
         <v>44749</v>
       </c>
-      <c r="DK9" s="44" t="s">
+      <c r="DS9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="DL9" s="44"/>
-      <c r="DM9" s="44" t="s">
+      <c r="DT9" s="44"/>
+      <c r="DU9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="DN9" s="51">
+      <c r="DV9" s="51">
         <v>44693</v>
       </c>
-      <c r="DR9" s="44" t="s">
+      <c r="DZ9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="DS9" s="57" t="s">
+      <c r="EA9" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="DT9" s="51">
+      <c r="EB9" s="51">
         <v>44721</v>
       </c>
     </row>
-    <row r="10" spans="2:124" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:132" ht="21" x14ac:dyDescent="0.35">
       <c r="B10" s="162" t="s">
         <v>21</v>
       </c>
@@ -5073,7 +5125,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="163">
-        <v>45266</v>
+        <v>45296</v>
       </c>
       <c r="J10" s="162" t="s">
         <v>21</v>
@@ -5083,7 +5135,7 @@
         <v>22</v>
       </c>
       <c r="M10" s="163">
-        <v>45238</v>
+        <v>45266</v>
       </c>
       <c r="R10" s="162" t="s">
         <v>21</v>
@@ -5093,76 +5145,86 @@
         <v>22</v>
       </c>
       <c r="U10" s="163">
+        <v>45238</v>
+      </c>
+      <c r="Z10" s="162" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA10" s="154"/>
+      <c r="AB10" s="155" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC10" s="163">
         <v>45205</v>
       </c>
-      <c r="X10" s="153" t="s">
+      <c r="AF10" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="Y10" s="142"/>
-      <c r="Z10" s="159" t="s">
+      <c r="AG10" s="142"/>
+      <c r="AH10" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="AA10" s="160">
+      <c r="AI10" s="160">
         <v>45171</v>
       </c>
-      <c r="AD10" s="44" t="s">
+      <c r="AL10" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AE10" s="57">
+      <c r="AM10" s="57">
         <v>11</v>
       </c>
-      <c r="AF10" s="44" t="s">
+      <c r="AN10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AG10" s="50"/>
-      <c r="AK10" s="44"/>
-      <c r="AL10" s="44"/>
-      <c r="AM10" s="44"/>
-      <c r="AN10" s="53"/>
-      <c r="AQ10" s="44"/>
-      <c r="AR10" s="44"/>
+      <c r="AO10" s="50"/>
       <c r="AS10" s="44"/>
-      <c r="AT10" s="53"/>
-      <c r="AW10" s="52"/>
-      <c r="AX10" s="52"/>
-      <c r="AY10" s="52"/>
-      <c r="AZ10" s="53"/>
-      <c r="BA10" s="53"/>
-      <c r="BC10" s="52"/>
-      <c r="BD10" s="52"/>
+      <c r="AT10" s="44"/>
+      <c r="AU10" s="44"/>
+      <c r="AV10" s="53"/>
+      <c r="AY10" s="44"/>
+      <c r="AZ10" s="44"/>
+      <c r="BA10" s="44"/>
+      <c r="BB10" s="53"/>
       <c r="BE10" s="52"/>
-      <c r="BF10" s="53"/>
-      <c r="BJ10" s="52"/>
+      <c r="BF10" s="52"/>
+      <c r="BG10" s="52"/>
+      <c r="BH10" s="53"/>
+      <c r="BI10" s="53"/>
       <c r="BK10" s="52"/>
       <c r="BL10" s="52"/>
-      <c r="BM10" s="53"/>
-      <c r="BO10" s="52"/>
-      <c r="BP10" s="52"/>
-      <c r="BQ10" s="52"/>
-      <c r="BR10" s="53"/>
-      <c r="BU10" s="52"/>
-      <c r="BV10" s="52"/>
+      <c r="BM10" s="52"/>
+      <c r="BN10" s="53"/>
+      <c r="BR10" s="52"/>
+      <c r="BS10" s="52"/>
+      <c r="BT10" s="52"/>
+      <c r="BU10" s="53"/>
       <c r="BW10" s="52"/>
-      <c r="BX10" s="53"/>
-      <c r="BY10" s="54"/>
-      <c r="DE10" s="52"/>
-      <c r="DF10" s="52"/>
-      <c r="DG10" s="52"/>
-      <c r="DH10" s="53"/>
-      <c r="DK10" s="44"/>
-      <c r="DL10" s="44"/>
-      <c r="DM10" s="44"/>
-      <c r="DN10" s="46"/>
-      <c r="DR10" s="52"/>
-      <c r="DS10" s="56"/>
-      <c r="DT10" s="53"/>
-    </row>
-    <row r="11" spans="2:124" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="BX10" s="52"/>
+      <c r="BY10" s="52"/>
+      <c r="BZ10" s="53"/>
+      <c r="CC10" s="52"/>
+      <c r="CD10" s="52"/>
+      <c r="CE10" s="52"/>
+      <c r="CF10" s="53"/>
+      <c r="CG10" s="54"/>
+      <c r="DM10" s="52"/>
+      <c r="DN10" s="52"/>
+      <c r="DO10" s="52"/>
+      <c r="DP10" s="53"/>
+      <c r="DS10" s="44"/>
+      <c r="DT10" s="44"/>
+      <c r="DU10" s="44"/>
+      <c r="DV10" s="46"/>
+      <c r="DZ10" s="52"/>
+      <c r="EA10" s="56"/>
+      <c r="EB10" s="53"/>
+    </row>
+    <row r="11" spans="2:132" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B11" s="168"/>
       <c r="C11" s="142"/>
-      <c r="D11" s="161"/>
+      <c r="D11" s="143"/>
       <c r="E11" s="158"/>
-      <c r="J11" s="157"/>
+      <c r="J11" s="168"/>
       <c r="K11" s="142"/>
       <c r="L11" s="161"/>
       <c r="M11" s="158"/>
@@ -5170,559 +5232,587 @@
       <c r="S11" s="142"/>
       <c r="T11" s="161"/>
       <c r="U11" s="158"/>
-      <c r="X11" s="157"/>
-      <c r="Y11" s="142"/>
-      <c r="Z11" s="161"/>
-      <c r="AA11" s="158"/>
-      <c r="AD11" s="62"/>
-      <c r="AE11" s="56"/>
-      <c r="AF11" s="63"/>
-      <c r="AG11" s="53"/>
-      <c r="AK11" s="44" t="s">
+      <c r="Z11" s="157"/>
+      <c r="AA11" s="142"/>
+      <c r="AB11" s="161"/>
+      <c r="AC11" s="158"/>
+      <c r="AF11" s="157"/>
+      <c r="AG11" s="142"/>
+      <c r="AH11" s="161"/>
+      <c r="AI11" s="158"/>
+      <c r="AL11" s="62"/>
+      <c r="AM11" s="56"/>
+      <c r="AN11" s="63"/>
+      <c r="AO11" s="53"/>
+      <c r="AS11" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AL11" s="44"/>
-      <c r="AM11" s="44" t="s">
+      <c r="AT11" s="44"/>
+      <c r="AU11" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AN11" s="71">
+      <c r="AV11" s="71">
         <v>45114</v>
       </c>
-      <c r="AQ11" s="44" t="s">
+      <c r="AY11" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AR11" s="44"/>
-      <c r="AS11" s="44" t="s">
+      <c r="AZ11" s="44"/>
+      <c r="BA11" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AT11" s="71">
+      <c r="BB11" s="71">
         <v>45086</v>
       </c>
-      <c r="AW11" s="83" t="s">
+      <c r="BE11" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="AX11" s="84" t="s">
+      <c r="BF11" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="AY11" s="83" t="s">
+      <c r="BG11" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="AZ11" s="49"/>
-      <c r="BA11" s="53"/>
-      <c r="BC11" s="83" t="s">
+      <c r="BH11" s="49"/>
+      <c r="BI11" s="53"/>
+      <c r="BK11" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="BD11" s="84" t="s">
+      <c r="BL11" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="BE11" s="83" t="s">
+      <c r="BM11" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="BF11" s="49"/>
-      <c r="BJ11" s="83" t="s">
+      <c r="BN11" s="49"/>
+      <c r="BR11" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="BK11" s="84" t="s">
+      <c r="BS11" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="BL11" s="83" t="s">
+      <c r="BT11" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="BM11" s="49">
+      <c r="BU11" s="49">
         <v>44993</v>
       </c>
-      <c r="BO11" s="44" t="s">
+      <c r="BW11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BP11" s="44"/>
-      <c r="BQ11" s="44" t="s">
+      <c r="BX11" s="44"/>
+      <c r="BY11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BR11" s="51">
+      <c r="BZ11" s="51">
         <v>44967</v>
       </c>
-      <c r="BU11" s="44" t="s">
+      <c r="CC11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BV11" s="44"/>
-      <c r="BW11" s="44" t="s">
+      <c r="CD11" s="44"/>
+      <c r="CE11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BX11" s="51">
+      <c r="CF11" s="51">
         <v>44932</v>
       </c>
-      <c r="CA11" s="44" t="s">
+      <c r="CI11" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="CB11" s="44"/>
-      <c r="CC11" s="44" t="s">
+      <c r="CJ11" s="44"/>
+      <c r="CK11" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="CD11" s="69">
+      <c r="CL11" s="69">
         <v>44903</v>
       </c>
-      <c r="CG11" s="44" t="s">
+      <c r="CO11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="CH11" s="44"/>
-      <c r="CI11" s="44" t="s">
+      <c r="CP11" s="44"/>
+      <c r="CQ11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="CJ11" s="51">
+      <c r="CR11" s="51">
         <v>44876</v>
       </c>
-      <c r="CM11" s="44" t="s">
+      <c r="CU11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="CN11" s="44"/>
-      <c r="CO11" s="44" t="s">
+      <c r="CV11" s="44"/>
+      <c r="CW11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="CP11" s="51">
+      <c r="CX11" s="51">
         <v>44841</v>
       </c>
-      <c r="CS11" s="44" t="s">
+      <c r="DA11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="CT11" s="44"/>
-      <c r="CU11" s="44" t="s">
+      <c r="DB11" s="44"/>
+      <c r="DC11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="CV11" s="51">
+      <c r="DD11" s="51">
         <v>44812</v>
       </c>
-      <c r="CX11" s="44" t="s">
+      <c r="DF11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="CY11" s="44"/>
-      <c r="CZ11" s="44" t="s">
+      <c r="DG11" s="44"/>
+      <c r="DH11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="DA11" s="49">
+      <c r="DI11" s="49">
         <v>44784</v>
       </c>
-      <c r="DE11" s="44" t="s">
+      <c r="DM11" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="DF11" s="44"/>
-      <c r="DG11" s="44" t="s">
+      <c r="DN11" s="44"/>
+      <c r="DO11" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="DH11" s="50">
+      <c r="DP11" s="50">
         <v>44751</v>
       </c>
-      <c r="DK11" s="44" t="s">
+      <c r="DS11" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="DL11" s="52"/>
-      <c r="DM11" s="44" t="s">
+      <c r="DT11" s="52"/>
+      <c r="DU11" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="DN11" s="49">
+      <c r="DV11" s="49">
         <v>44695</v>
       </c>
-      <c r="DR11" s="44" t="s">
+      <c r="DZ11" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="DS11" s="57" t="s">
+      <c r="EA11" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="DT11" s="50">
+      <c r="EB11" s="50">
         <v>44723</v>
       </c>
     </row>
-    <row r="12" spans="2:124" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:132" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="153" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="142"/>
+      <c r="D12" s="159" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="160">
+        <v>45297</v>
+      </c>
+      <c r="J12" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="154"/>
-      <c r="D12" s="155" t="s">
+      <c r="K12" s="154"/>
+      <c r="L12" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="156">
+      <c r="M12" s="156">
         <v>45267</v>
       </c>
-      <c r="J12" s="165" t="s">
+      <c r="R12" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="154"/>
-      <c r="L12" s="159" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="166">
-        <v>45240</v>
-      </c>
-      <c r="R12" s="153" t="s">
-        <v>19</v>
-      </c>
-      <c r="S12" s="142"/>
+      <c r="S12" s="154"/>
       <c r="T12" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="U12" s="160">
+      <c r="U12" s="166">
+        <v>45240</v>
+      </c>
+      <c r="Z12" s="153" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA12" s="142"/>
+      <c r="AB12" s="159" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC12" s="160">
         <v>45206</v>
       </c>
-      <c r="X12" s="162" t="s">
+      <c r="AF12" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="Y12" s="154">
+      <c r="AG12" s="154">
         <v>5</v>
       </c>
-      <c r="Z12" s="155" t="s">
+      <c r="AH12" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="AA12" s="163">
+      <c r="AI12" s="163">
         <v>45177</v>
       </c>
-      <c r="AD12" s="44" t="s">
+      <c r="AL12" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AE12" s="56"/>
-      <c r="AF12" s="45" t="s">
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AG12" s="70"/>
-      <c r="AK12" s="52"/>
-      <c r="AL12" s="52"/>
-      <c r="AM12" s="52"/>
-      <c r="AN12" s="53"/>
-      <c r="AQ12" s="52"/>
-      <c r="AR12" s="52"/>
+      <c r="AO12" s="70"/>
       <c r="AS12" s="52"/>
-      <c r="AT12" s="53"/>
-      <c r="AW12" s="52"/>
-      <c r="AX12" s="52"/>
+      <c r="AT12" s="52"/>
+      <c r="AU12" s="52"/>
+      <c r="AV12" s="53"/>
       <c r="AY12" s="52"/>
-      <c r="AZ12" s="53"/>
-      <c r="BA12" s="53"/>
-      <c r="BC12" s="52"/>
-      <c r="BD12" s="52"/>
+      <c r="AZ12" s="52"/>
+      <c r="BA12" s="52"/>
+      <c r="BB12" s="53"/>
       <c r="BE12" s="52"/>
-      <c r="BF12" s="53"/>
-      <c r="BJ12" s="52"/>
+      <c r="BF12" s="52"/>
+      <c r="BG12" s="52"/>
+      <c r="BH12" s="53"/>
+      <c r="BI12" s="53"/>
       <c r="BK12" s="52"/>
       <c r="BL12" s="52"/>
-      <c r="BM12" s="53"/>
-      <c r="CG12" s="62"/>
-      <c r="CH12" s="62"/>
-      <c r="CI12" s="63"/>
-      <c r="CJ12" s="53"/>
-      <c r="CM12" s="62"/>
-      <c r="CN12" s="62"/>
-      <c r="CO12" s="63"/>
-      <c r="CP12" s="53"/>
-      <c r="CS12" s="62"/>
-      <c r="CT12" s="62"/>
-      <c r="CU12" s="63"/>
-      <c r="CV12" s="53"/>
-      <c r="CX12" s="62"/>
-      <c r="CY12" s="62"/>
-      <c r="CZ12" s="63"/>
-      <c r="DA12" s="53"/>
-      <c r="DE12" s="52"/>
-      <c r="DF12" s="52"/>
-      <c r="DG12" s="52"/>
-      <c r="DH12" s="53"/>
-      <c r="DK12" s="44"/>
-      <c r="DL12" s="44"/>
-      <c r="DM12" s="44"/>
-      <c r="DN12" s="46"/>
-      <c r="DR12" s="52"/>
-      <c r="DS12" s="56"/>
-      <c r="DT12" s="53"/>
-    </row>
-    <row r="13" spans="2:124" ht="21" x14ac:dyDescent="0.35">
+      <c r="BM12" s="52"/>
+      <c r="BN12" s="53"/>
+      <c r="BR12" s="52"/>
+      <c r="BS12" s="52"/>
+      <c r="BT12" s="52"/>
+      <c r="BU12" s="53"/>
+      <c r="CO12" s="62"/>
+      <c r="CP12" s="62"/>
+      <c r="CQ12" s="63"/>
+      <c r="CR12" s="53"/>
+      <c r="CU12" s="62"/>
+      <c r="CV12" s="62"/>
+      <c r="CW12" s="63"/>
+      <c r="CX12" s="53"/>
+      <c r="DA12" s="62"/>
+      <c r="DB12" s="62"/>
+      <c r="DC12" s="63"/>
+      <c r="DD12" s="53"/>
+      <c r="DF12" s="62"/>
+      <c r="DG12" s="62"/>
+      <c r="DH12" s="63"/>
+      <c r="DI12" s="53"/>
+      <c r="DM12" s="52"/>
+      <c r="DN12" s="52"/>
+      <c r="DO12" s="52"/>
+      <c r="DP12" s="53"/>
+      <c r="DS12" s="44"/>
+      <c r="DT12" s="44"/>
+      <c r="DU12" s="44"/>
+      <c r="DV12" s="46"/>
+      <c r="DZ12" s="52"/>
+      <c r="EA12" s="56"/>
+      <c r="EB12" s="53"/>
+    </row>
+    <row r="13" spans="2:132" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="168"/>
       <c r="C13" s="142"/>
-      <c r="D13" s="161"/>
+      <c r="D13" s="143"/>
       <c r="E13" s="158"/>
       <c r="J13" s="168"/>
       <c r="K13" s="142"/>
       <c r="L13" s="161"/>
       <c r="M13" s="158"/>
-      <c r="R13" s="164"/>
+      <c r="R13" s="168"/>
       <c r="S13" s="142"/>
-      <c r="T13" s="143"/>
+      <c r="T13" s="161"/>
       <c r="U13" s="158"/>
-      <c r="X13" s="164"/>
-      <c r="Y13" s="142"/>
-      <c r="Z13" s="143"/>
-      <c r="AA13" s="158"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="56"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="53"/>
-      <c r="AK13" s="44" t="s">
+      <c r="Z13" s="164"/>
+      <c r="AA13" s="142"/>
+      <c r="AB13" s="143"/>
+      <c r="AC13" s="158"/>
+      <c r="AF13" s="164"/>
+      <c r="AG13" s="142"/>
+      <c r="AH13" s="143"/>
+      <c r="AI13" s="158"/>
+      <c r="AL13" s="44"/>
+      <c r="AM13" s="56"/>
+      <c r="AN13" s="45"/>
+      <c r="AO13" s="53"/>
+      <c r="AS13" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AL13" s="52"/>
-      <c r="AM13" s="45" t="s">
+      <c r="AT13" s="52"/>
+      <c r="AU13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AN13" s="70">
+      <c r="AV13" s="70">
         <v>45115</v>
       </c>
-      <c r="AQ13" s="44" t="s">
+      <c r="AY13" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AR13" s="52"/>
-      <c r="AS13" s="45" t="s">
+      <c r="AZ13" s="52"/>
+      <c r="BA13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AT13" s="70">
+      <c r="BB13" s="70">
         <v>45087</v>
       </c>
-      <c r="AW13" s="61" t="s">
+      <c r="BE13" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AX13" s="61"/>
-      <c r="AY13" s="45" t="s">
+      <c r="BF13" s="61"/>
+      <c r="BG13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AZ13" s="68">
+      <c r="BH13" s="68">
         <v>45057</v>
       </c>
-      <c r="BA13" s="53"/>
-      <c r="BC13" s="61" t="s">
+      <c r="BI13" s="53"/>
+      <c r="BK13" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BD13" s="61"/>
-      <c r="BE13" s="45" t="s">
+      <c r="BL13" s="61"/>
+      <c r="BM13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BF13" s="68">
+      <c r="BN13" s="68">
         <v>45029</v>
       </c>
-      <c r="BJ13" s="44" t="s">
+      <c r="BR13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BK13" s="44"/>
-      <c r="BL13" s="44" t="s">
+      <c r="BS13" s="44"/>
+      <c r="BT13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BM13" s="51">
+      <c r="BU13" s="51">
         <v>44995</v>
       </c>
-      <c r="BO13" s="44" t="s">
+      <c r="BW13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="BP13" s="44"/>
-      <c r="BQ13" s="44" t="s">
+      <c r="BX13" s="44"/>
+      <c r="BY13" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="BR13" s="69">
+      <c r="BZ13" s="69">
         <v>44966</v>
       </c>
-      <c r="BU13" s="44" t="s">
+      <c r="CC13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="BV13" s="44"/>
-      <c r="BW13" s="44" t="s">
+      <c r="CD13" s="44"/>
+      <c r="CE13" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="BX13" s="69">
+      <c r="CF13" s="69">
         <v>44938</v>
       </c>
-      <c r="CA13" s="44" t="s">
+      <c r="CI13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="CB13" s="44"/>
-      <c r="CC13" s="44" t="s">
+      <c r="CJ13" s="44"/>
+      <c r="CK13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="CD13" s="51">
+      <c r="CL13" s="51">
         <v>44904</v>
       </c>
-      <c r="CG13" s="44" t="s">
+      <c r="CO13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CH13" s="44"/>
-      <c r="CI13" s="44" t="s">
+      <c r="CP13" s="44"/>
+      <c r="CQ13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="CJ13" s="71">
+      <c r="CR13" s="71">
         <v>44883</v>
       </c>
-      <c r="CM13" s="44" t="s">
+      <c r="CU13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CN13" s="44"/>
-      <c r="CO13" s="44" t="s">
+      <c r="CV13" s="44"/>
+      <c r="CW13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="CP13" s="71">
+      <c r="CX13" s="71">
         <v>44848</v>
       </c>
-      <c r="CS13" s="44" t="s">
+      <c r="DA13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CT13" s="44"/>
-      <c r="CU13" s="44" t="s">
+      <c r="DB13" s="44"/>
+      <c r="DC13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="CV13" s="67">
+      <c r="DD13" s="67">
         <v>44813</v>
       </c>
-      <c r="CX13" s="44" t="s">
+      <c r="DF13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CY13" s="44"/>
-      <c r="CZ13" s="44" t="s">
+      <c r="DG13" s="44"/>
+      <c r="DH13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="DA13" s="65">
+      <c r="DI13" s="65">
         <v>44785</v>
       </c>
-      <c r="DE13" s="44" t="s">
+      <c r="DM13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="DF13" s="44"/>
-      <c r="DG13" s="44" t="s">
+      <c r="DN13" s="44"/>
+      <c r="DO13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="DH13" s="65">
+      <c r="DP13" s="65">
         <v>44756</v>
       </c>
-      <c r="DK13" s="44" t="s">
+      <c r="DS13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="DL13" s="44"/>
-      <c r="DM13" s="44" t="s">
+      <c r="DT13" s="44"/>
+      <c r="DU13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="DN13" s="50">
+      <c r="DV13" s="50">
         <v>44695</v>
       </c>
-      <c r="DR13" s="44" t="s">
+      <c r="DZ13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="DS13" s="57" t="s">
+      <c r="EA13" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="DT13" s="51">
+      <c r="EB13" s="51">
         <v>44728</v>
       </c>
     </row>
-    <row r="14" spans="2:124" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="165" t="s">
+    <row r="14" spans="2:132" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="153" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="154"/>
+      <c r="D14" s="159">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E14" s="167">
+        <v>45302</v>
+      </c>
+      <c r="J14" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="154"/>
-      <c r="D14" s="159" t="s">
+      <c r="K14" s="154"/>
+      <c r="L14" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="166">
+      <c r="M14" s="166">
         <v>45268</v>
       </c>
-      <c r="J14" s="153" t="s">
+      <c r="R14" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="154"/>
-      <c r="L14" s="155" t="s">
+      <c r="S14" s="154"/>
+      <c r="T14" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="156">
+      <c r="U14" s="156">
         <v>45239</v>
       </c>
-      <c r="R14" s="165" t="s">
+      <c r="Z14" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="154"/>
-      <c r="T14" s="159" t="s">
+      <c r="AA14" s="154"/>
+      <c r="AB14" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="U14" s="166">
+      <c r="AC14" s="166">
         <v>45209</v>
       </c>
-      <c r="X14" s="165" t="s">
+      <c r="AF14" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="Y14" s="154">
+      <c r="AG14" s="154">
         <v>7</v>
       </c>
-      <c r="Z14" s="159" t="s">
+      <c r="AH14" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="AA14" s="166">
+      <c r="AI14" s="166">
         <v>45181</v>
       </c>
-      <c r="AD14" s="83" t="s">
+      <c r="AL14" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="45">
+      <c r="AM14" s="57"/>
+      <c r="AN14" s="45">
         <v>0.72916666666666663</v>
       </c>
-      <c r="AG14" s="49">
+      <c r="AO14" s="49">
         <v>45160</v>
       </c>
-      <c r="AK14" s="52"/>
-      <c r="AL14" s="52"/>
-      <c r="AM14" s="52"/>
-      <c r="AN14" s="53"/>
-      <c r="AQ14" s="52"/>
-      <c r="AR14" s="52"/>
       <c r="AS14" s="52"/>
-      <c r="AT14" s="53"/>
-      <c r="AW14" s="62"/>
-      <c r="AX14" s="62"/>
-      <c r="AY14" s="63"/>
-      <c r="AZ14" s="53"/>
-      <c r="BA14" s="53"/>
-      <c r="BC14" s="62"/>
-      <c r="BD14" s="62"/>
-      <c r="BE14" s="63"/>
-      <c r="BF14" s="53"/>
-      <c r="BJ14" s="62"/>
+      <c r="AT14" s="52"/>
+      <c r="AU14" s="52"/>
+      <c r="AV14" s="53"/>
+      <c r="AY14" s="52"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="52"/>
+      <c r="BB14" s="53"/>
+      <c r="BE14" s="62"/>
+      <c r="BF14" s="62"/>
+      <c r="BG14" s="63"/>
+      <c r="BH14" s="53"/>
+      <c r="BI14" s="53"/>
       <c r="BK14" s="62"/>
-      <c r="BL14" s="63"/>
-      <c r="BM14" s="53"/>
-      <c r="BO14" s="62"/>
-      <c r="BP14" s="62"/>
-      <c r="BQ14" s="63"/>
-      <c r="BR14" s="53"/>
-      <c r="BU14" s="62"/>
-      <c r="BV14" s="62"/>
-      <c r="BW14" s="63"/>
-      <c r="BX14" s="53"/>
-      <c r="CA14" s="62"/>
-      <c r="CB14" s="62"/>
-      <c r="CC14" s="63"/>
-      <c r="CD14" s="53"/>
-      <c r="CG14" s="52"/>
-      <c r="CH14" s="52"/>
-      <c r="CI14" s="52"/>
-      <c r="CJ14" s="53"/>
-      <c r="CM14" s="52"/>
-      <c r="CN14" s="52"/>
+      <c r="BL14" s="62"/>
+      <c r="BM14" s="63"/>
+      <c r="BN14" s="53"/>
+      <c r="BR14" s="62"/>
+      <c r="BS14" s="62"/>
+      <c r="BT14" s="63"/>
+      <c r="BU14" s="53"/>
+      <c r="BW14" s="62"/>
+      <c r="BX14" s="62"/>
+      <c r="BY14" s="63"/>
+      <c r="BZ14" s="53"/>
+      <c r="CC14" s="62"/>
+      <c r="CD14" s="62"/>
+      <c r="CE14" s="63"/>
+      <c r="CF14" s="53"/>
+      <c r="CI14" s="62"/>
+      <c r="CJ14" s="62"/>
+      <c r="CK14" s="63"/>
+      <c r="CL14" s="53"/>
       <c r="CO14" s="52"/>
-      <c r="CP14" s="53"/>
-      <c r="CS14" s="52"/>
-      <c r="CT14" s="52"/>
+      <c r="CP14" s="52"/>
+      <c r="CQ14" s="52"/>
+      <c r="CR14" s="53"/>
       <c r="CU14" s="52"/>
-      <c r="CV14" s="53"/>
-      <c r="CX14" s="52"/>
-      <c r="CY14" s="52"/>
-      <c r="CZ14" s="52"/>
-      <c r="DA14" s="53"/>
-      <c r="DE14" s="52"/>
+      <c r="CV14" s="52"/>
+      <c r="CW14" s="52"/>
+      <c r="CX14" s="53"/>
+      <c r="DA14" s="52"/>
+      <c r="DB14" s="52"/>
+      <c r="DC14" s="52"/>
+      <c r="DD14" s="53"/>
       <c r="DF14" s="52"/>
       <c r="DG14" s="52"/>
-      <c r="DH14" s="53"/>
-      <c r="DK14" s="44"/>
-      <c r="DL14" s="44"/>
-      <c r="DM14" s="44"/>
-      <c r="DN14" s="46"/>
-      <c r="DR14" s="52"/>
-      <c r="DS14" s="56"/>
-      <c r="DT14" s="53"/>
-    </row>
-    <row r="15" spans="2:124" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="168"/>
+      <c r="DH14" s="52"/>
+      <c r="DI14" s="53"/>
+      <c r="DM14" s="52"/>
+      <c r="DN14" s="52"/>
+      <c r="DO14" s="52"/>
+      <c r="DP14" s="53"/>
+      <c r="DS14" s="44"/>
+      <c r="DT14" s="44"/>
+      <c r="DU14" s="44"/>
+      <c r="DV14" s="46"/>
+      <c r="DZ14" s="52"/>
+      <c r="EA14" s="56"/>
+      <c r="EB14" s="53"/>
+    </row>
+    <row r="15" spans="2:132" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="164"/>
       <c r="C15" s="142"/>
       <c r="D15" s="143"/>
       <c r="E15" s="158"/>
-      <c r="J15" s="157"/>
+      <c r="J15" s="168"/>
       <c r="K15" s="142"/>
       <c r="L15" s="143"/>
       <c r="M15" s="158"/>
@@ -5730,185 +5820,189 @@
       <c r="S15" s="142"/>
       <c r="T15" s="143"/>
       <c r="U15" s="158"/>
-      <c r="X15" s="157"/>
-      <c r="Y15" s="142"/>
-      <c r="Z15" s="143"/>
-      <c r="AA15" s="158"/>
-      <c r="AD15" s="98"/>
-      <c r="AE15" s="99"/>
-      <c r="AF15" s="100"/>
-      <c r="AG15" s="101"/>
-      <c r="AK15" s="61" t="s">
+      <c r="Z15" s="157"/>
+      <c r="AA15" s="142"/>
+      <c r="AB15" s="143"/>
+      <c r="AC15" s="158"/>
+      <c r="AF15" s="157"/>
+      <c r="AG15" s="142"/>
+      <c r="AH15" s="143"/>
+      <c r="AI15" s="158"/>
+      <c r="AL15" s="98"/>
+      <c r="AM15" s="99"/>
+      <c r="AN15" s="100"/>
+      <c r="AO15" s="101"/>
+      <c r="AS15" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AL15" s="61"/>
-      <c r="AM15" s="45" t="s">
+      <c r="AT15" s="61"/>
+      <c r="AU15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AN15" s="97">
+      <c r="AV15" s="97">
         <v>45119</v>
       </c>
-      <c r="AQ15" s="61" t="s">
+      <c r="AY15" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AR15" s="61"/>
-      <c r="AS15" s="45" t="s">
+      <c r="AZ15" s="61"/>
+      <c r="BA15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AT15" s="68">
+      <c r="BB15" s="68">
         <v>45091</v>
       </c>
-      <c r="AW15" s="44" t="s">
+      <c r="BE15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AX15" s="44"/>
-      <c r="AY15" s="44" t="s">
+      <c r="BF15" s="44"/>
+      <c r="BG15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AZ15" s="71">
+      <c r="BH15" s="71">
         <v>45058</v>
       </c>
-      <c r="BA15" s="53"/>
-      <c r="BC15" s="44" t="s">
+      <c r="BI15" s="53"/>
+      <c r="BK15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BD15" s="44"/>
-      <c r="BE15" s="44" t="s">
+      <c r="BL15" s="44"/>
+      <c r="BM15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BF15" s="71">
+      <c r="BN15" s="71">
         <v>45030</v>
       </c>
-      <c r="BJ15" s="44" t="s">
+      <c r="BR15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BK15" s="44"/>
-      <c r="BL15" s="44" t="s">
+      <c r="BS15" s="44"/>
+      <c r="BT15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BM15" s="71">
+      <c r="BU15" s="71">
         <v>45001</v>
       </c>
-      <c r="BO15" s="44" t="s">
+      <c r="BW15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BP15" s="44"/>
-      <c r="BQ15" s="44" t="s">
+      <c r="BX15" s="44"/>
+      <c r="BY15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BR15" s="71">
+      <c r="BZ15" s="71">
         <v>44973</v>
       </c>
-      <c r="BU15" s="44" t="s">
+      <c r="CC15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BV15" s="44"/>
-      <c r="BW15" s="44" t="s">
+      <c r="CD15" s="44"/>
+      <c r="CE15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BX15" s="71">
+      <c r="CF15" s="71">
         <v>44946</v>
       </c>
-      <c r="CA15" s="44" t="s">
+      <c r="CI15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CB15" s="44"/>
-      <c r="CC15" s="44" t="s">
+      <c r="CJ15" s="44"/>
+      <c r="CK15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="CD15" s="71">
+      <c r="CL15" s="71">
         <v>44911</v>
       </c>
-      <c r="CG15" s="44" t="s">
+      <c r="CO15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CH15" s="52"/>
-      <c r="CI15" s="45" t="s">
+      <c r="CP15" s="52"/>
+      <c r="CQ15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CJ15" s="70">
+      <c r="CR15" s="70">
         <v>44884</v>
       </c>
-      <c r="CM15" s="44" t="s">
+      <c r="CU15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CN15" s="52"/>
-      <c r="CO15" s="45" t="s">
+      <c r="CV15" s="52"/>
+      <c r="CW15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CP15" s="70">
+      <c r="CX15" s="70">
         <v>44849</v>
       </c>
-      <c r="CS15" s="44" t="s">
+      <c r="DA15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CT15" s="52"/>
-      <c r="CU15" s="45" t="s">
+      <c r="DB15" s="52"/>
+      <c r="DC15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CV15" s="70">
+      <c r="DD15" s="70">
         <v>44814</v>
       </c>
-      <c r="CX15" s="44" t="s">
+      <c r="DF15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CY15" s="52"/>
-      <c r="CZ15" s="45" t="s">
+      <c r="DG15" s="52"/>
+      <c r="DH15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="DA15" s="66">
+      <c r="DI15" s="66">
         <v>44786</v>
       </c>
-      <c r="DE15" s="44" t="s">
+      <c r="DM15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="DF15" s="52"/>
-      <c r="DG15" s="44" t="s">
+      <c r="DN15" s="52"/>
+      <c r="DO15" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="DH15" s="66">
+      <c r="DP15" s="66">
         <v>44758</v>
       </c>
-      <c r="DK15" s="44" t="s">
+      <c r="DS15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="DL15" s="44"/>
-      <c r="DM15" s="44" t="s">
+      <c r="DT15" s="44"/>
+      <c r="DU15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="DN15" s="51">
+      <c r="DV15" s="51">
         <v>44700</v>
       </c>
-      <c r="DR15" s="44" t="s">
+      <c r="DZ15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="DS15" s="57" t="s">
+      <c r="EA15" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="DT15" s="49">
+      <c r="EB15" s="49">
         <v>44730</v>
       </c>
     </row>
-    <row r="16" spans="2:124" ht="21" x14ac:dyDescent="0.35">
-      <c r="B16" s="153" t="s">
+    <row r="16" spans="2:132" ht="21" x14ac:dyDescent="0.35">
+      <c r="B16" s="165" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="154"/>
+      <c r="D16" s="159" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="166">
+        <v>45303</v>
+      </c>
+      <c r="J16" s="153" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" s="154"/>
-      <c r="D16" s="159">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E16" s="167">
-        <v>45274</v>
-      </c>
-      <c r="J16" s="168" t="s">
-        <v>46</v>
       </c>
       <c r="K16" s="154"/>
       <c r="L16" s="159">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="M16" s="169">
-        <v>45245</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M16" s="167">
+        <v>45274</v>
       </c>
       <c r="R16" s="168" t="s">
         <v>46</v>
@@ -5918,84 +6012,94 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="U16" s="169">
+        <v>45245</v>
+      </c>
+      <c r="Z16" s="168" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA16" s="154"/>
+      <c r="AB16" s="159">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="AC16" s="169">
         <v>45217</v>
       </c>
-      <c r="X16" s="153" t="s">
+      <c r="AF16" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="Y16" s="154"/>
-      <c r="Z16" s="159">
+      <c r="AG16" s="154"/>
+      <c r="AH16" s="159">
         <v>0.66666666666666663</v>
       </c>
-      <c r="AA16" s="167">
+      <c r="AI16" s="167">
         <v>45190</v>
       </c>
-      <c r="AD16" s="44" t="s">
+      <c r="AL16" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AE16" s="57">
+      <c r="AM16" s="57">
         <v>4</v>
       </c>
-      <c r="AF16" s="44" t="s">
+      <c r="AN16" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AG16" s="51">
+      <c r="AO16" s="51">
         <v>45160</v>
       </c>
-      <c r="AK16" s="62"/>
-      <c r="AL16" s="62"/>
-      <c r="AM16" s="63"/>
-      <c r="AN16" s="53"/>
-      <c r="AQ16" s="62"/>
-      <c r="AR16" s="62"/>
-      <c r="AS16" s="63"/>
-      <c r="AT16" s="53"/>
-      <c r="AW16" s="52"/>
-      <c r="AX16" s="52"/>
-      <c r="AY16" s="52"/>
-      <c r="AZ16" s="53"/>
-      <c r="BA16" s="53"/>
-      <c r="BC16" s="52"/>
-      <c r="BD16" s="52"/>
+      <c r="AS16" s="62"/>
+      <c r="AT16" s="62"/>
+      <c r="AU16" s="63"/>
+      <c r="AV16" s="53"/>
+      <c r="AY16" s="62"/>
+      <c r="AZ16" s="62"/>
+      <c r="BA16" s="63"/>
+      <c r="BB16" s="53"/>
       <c r="BE16" s="52"/>
-      <c r="BF16" s="53"/>
-      <c r="BJ16" s="52"/>
+      <c r="BF16" s="52"/>
+      <c r="BG16" s="52"/>
+      <c r="BH16" s="53"/>
+      <c r="BI16" s="53"/>
       <c r="BK16" s="52"/>
       <c r="BL16" s="52"/>
-      <c r="BM16" s="53"/>
-      <c r="BO16" s="52"/>
-      <c r="BP16" s="52"/>
-      <c r="BQ16" s="52"/>
-      <c r="BR16" s="53"/>
-      <c r="BU16" s="52"/>
-      <c r="BV16" s="52"/>
+      <c r="BM16" s="52"/>
+      <c r="BN16" s="53"/>
+      <c r="BR16" s="52"/>
+      <c r="BS16" s="52"/>
+      <c r="BT16" s="52"/>
+      <c r="BU16" s="53"/>
       <c r="BW16" s="52"/>
-      <c r="BX16" s="53"/>
-      <c r="CA16" s="52"/>
-      <c r="CB16" s="52"/>
+      <c r="BX16" s="52"/>
+      <c r="BY16" s="52"/>
+      <c r="BZ16" s="53"/>
       <c r="CC16" s="52"/>
-      <c r="CD16" s="53"/>
-      <c r="CS16" s="44"/>
-      <c r="CT16" s="44"/>
-      <c r="CU16" s="44"/>
-      <c r="CV16" s="46"/>
-      <c r="CX16" s="44"/>
-      <c r="CY16" s="44"/>
-      <c r="CZ16" s="44"/>
-      <c r="DA16" s="46"/>
-      <c r="DE16" s="44"/>
+      <c r="CD16" s="52"/>
+      <c r="CE16" s="52"/>
+      <c r="CF16" s="53"/>
+      <c r="CI16" s="52"/>
+      <c r="CJ16" s="52"/>
+      <c r="CK16" s="52"/>
+      <c r="CL16" s="53"/>
+      <c r="DA16" s="44"/>
+      <c r="DB16" s="44"/>
+      <c r="DC16" s="44"/>
+      <c r="DD16" s="46"/>
       <c r="DF16" s="44"/>
       <c r="DG16" s="44"/>
-      <c r="DH16" s="46"/>
-      <c r="DK16" s="44"/>
-      <c r="DL16" s="44"/>
+      <c r="DH16" s="44"/>
+      <c r="DI16" s="46"/>
       <c r="DM16" s="44"/>
-      <c r="DN16" s="46"/>
-      <c r="DR16" s="44"/>
-      <c r="DS16" s="57"/>
-      <c r="DT16" s="46"/>
-    </row>
-    <row r="17" spans="2:124" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="DN16" s="44"/>
+      <c r="DO16" s="44"/>
+      <c r="DP16" s="46"/>
+      <c r="DS16" s="44"/>
+      <c r="DT16" s="44"/>
+      <c r="DU16" s="44"/>
+      <c r="DV16" s="46"/>
+      <c r="DZ16" s="44"/>
+      <c r="EA16" s="57"/>
+      <c r="EB16" s="46"/>
+    </row>
+    <row r="17" spans="2:132" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B17" s="168"/>
       <c r="C17" s="142"/>
       <c r="D17" s="143"/>
@@ -6008,104 +6112,108 @@
       <c r="S17" s="142"/>
       <c r="T17" s="143"/>
       <c r="U17" s="158"/>
-      <c r="X17" s="157"/>
-      <c r="Y17" s="142"/>
-      <c r="Z17" s="143"/>
-      <c r="AA17" s="158"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="44"/>
-      <c r="AG17" s="51"/>
-      <c r="AK17" s="83" t="s">
+      <c r="Z17" s="168"/>
+      <c r="AA17" s="142"/>
+      <c r="AB17" s="143"/>
+      <c r="AC17" s="158"/>
+      <c r="AF17" s="157"/>
+      <c r="AG17" s="142"/>
+      <c r="AH17" s="143"/>
+      <c r="AI17" s="158"/>
+      <c r="AL17" s="44"/>
+      <c r="AM17" s="57"/>
+      <c r="AN17" s="44"/>
+      <c r="AO17" s="51"/>
+      <c r="AS17" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="AL17" s="84" t="s">
+      <c r="AT17" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="AM17" s="83" t="s">
+      <c r="AU17" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="AN17" s="49"/>
-      <c r="AQ17" s="83" t="s">
+      <c r="AV17" s="49"/>
+      <c r="AY17" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="AR17" s="84" t="s">
+      <c r="AZ17" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="AS17" s="83" t="s">
+      <c r="BA17" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="AT17" s="49"/>
-      <c r="AW17" s="44" t="s">
+      <c r="BB17" s="49"/>
+      <c r="BE17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AX17" s="52"/>
-      <c r="AY17" s="45" t="s">
+      <c r="BF17" s="52"/>
+      <c r="BG17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AZ17" s="70">
+      <c r="BH17" s="70">
         <v>45059</v>
       </c>
-      <c r="BA17" s="53"/>
-      <c r="BC17" s="44" t="s">
+      <c r="BI17" s="53"/>
+      <c r="BK17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BD17" s="52"/>
-      <c r="BE17" s="45" t="s">
+      <c r="BL17" s="52"/>
+      <c r="BM17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BF17" s="70">
+      <c r="BN17" s="70">
         <v>45031</v>
       </c>
-      <c r="BJ17" s="44" t="s">
+      <c r="BR17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BK17" s="52"/>
-      <c r="BL17" s="45" t="s">
+      <c r="BS17" s="52"/>
+      <c r="BT17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BM17" s="70">
+      <c r="BU17" s="70">
         <v>45003</v>
       </c>
-      <c r="BO17" s="44" t="s">
+      <c r="BW17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BP17" s="52"/>
-      <c r="BQ17" s="45" t="s">
+      <c r="BX17" s="52"/>
+      <c r="BY17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BR17" s="70">
+      <c r="BZ17" s="70">
         <v>44982</v>
       </c>
-      <c r="BU17" s="44" t="s">
+      <c r="CC17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BV17" s="52"/>
-      <c r="BW17" s="45" t="s">
+      <c r="CD17" s="52"/>
+      <c r="CE17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BX17" s="70">
+      <c r="CF17" s="70">
         <v>44954</v>
       </c>
-      <c r="CA17" s="44" t="s">
+      <c r="CI17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CB17" s="52"/>
-      <c r="CC17" s="45" t="s">
+      <c r="CJ17" s="52"/>
+      <c r="CK17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="CD17" s="70">
+      <c r="CL17" s="70">
         <v>44912</v>
       </c>
-      <c r="DK17" s="52"/>
-      <c r="DL17" s="52"/>
-      <c r="DM17" s="52"/>
-      <c r="DN17" s="53"/>
-      <c r="DR17" s="44"/>
-      <c r="DS17" s="57"/>
-      <c r="DT17" s="46"/>
-    </row>
-    <row r="18" spans="2:124" ht="21" x14ac:dyDescent="0.35">
+      <c r="DS17" s="52"/>
+      <c r="DT17" s="52"/>
+      <c r="DU17" s="52"/>
+      <c r="DV17" s="53"/>
+      <c r="DZ17" s="44"/>
+      <c r="EA17" s="57"/>
+      <c r="EB17" s="46"/>
+    </row>
+    <row r="18" spans="2:132" ht="21" x14ac:dyDescent="0.35">
       <c r="B18" s="168" t="s">
         <v>46</v>
       </c>
@@ -6114,17 +6222,17 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="E18" s="169">
-        <v>45275</v>
-      </c>
-      <c r="J18" s="153" t="s">
-        <v>45</v>
+        <v>45307</v>
+      </c>
+      <c r="J18" s="168" t="s">
+        <v>46</v>
       </c>
       <c r="K18" s="154"/>
       <c r="L18" s="159">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M18" s="167">
-        <v>45246</v>
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="M18" s="169">
+        <v>45275</v>
       </c>
       <c r="R18" s="153" t="s">
         <v>45</v>
@@ -6134,57 +6242,67 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="U18" s="167">
+        <v>45246</v>
+      </c>
+      <c r="Z18" s="153" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA18" s="154"/>
+      <c r="AB18" s="159">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AC18" s="167">
         <v>45218</v>
       </c>
-      <c r="X18" s="168" t="s">
+      <c r="AF18" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="Y18" s="154"/>
-      <c r="Z18" s="159">
+      <c r="AG18" s="154"/>
+      <c r="AH18" s="159">
         <v>0.72916666666666663</v>
       </c>
-      <c r="AA18" s="169">
+      <c r="AI18" s="169">
         <v>45191</v>
       </c>
-      <c r="AD18" s="61" t="s">
+      <c r="AL18" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AE18" s="57">
+      <c r="AM18" s="57">
         <v>7</v>
       </c>
-      <c r="AF18" s="45" t="s">
+      <c r="AN18" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AG18" s="97">
+      <c r="AO18" s="97">
         <v>45154</v>
       </c>
-      <c r="AK18" s="52"/>
-      <c r="AL18" s="52"/>
-      <c r="AM18" s="52"/>
-      <c r="AN18" s="53"/>
-      <c r="AQ18" s="52"/>
-      <c r="AR18" s="52"/>
       <c r="AS18" s="52"/>
-      <c r="AT18" s="53"/>
-      <c r="AW18" s="54"/>
-      <c r="AX18" s="54"/>
-      <c r="AY18" s="54"/>
-      <c r="AZ18" s="54"/>
-      <c r="BC18" s="54"/>
-      <c r="BD18" s="54"/>
+      <c r="AT18" s="52"/>
+      <c r="AU18" s="52"/>
+      <c r="AV18" s="53"/>
+      <c r="AY18" s="52"/>
+      <c r="AZ18" s="52"/>
+      <c r="BA18" s="52"/>
+      <c r="BB18" s="53"/>
       <c r="BE18" s="54"/>
       <c r="BF18" s="54"/>
-      <c r="DK18" s="44"/>
-      <c r="DL18" s="44"/>
-      <c r="DM18" s="44"/>
-      <c r="DN18" s="46"/>
-      <c r="DR18" s="44"/>
-      <c r="DS18" s="57"/>
-      <c r="DT18" s="46"/>
-    </row>
-    <row r="19" spans="2:124" ht="21" x14ac:dyDescent="0.35">
+      <c r="BG18" s="54"/>
+      <c r="BH18" s="54"/>
+      <c r="BK18" s="54"/>
+      <c r="BL18" s="54"/>
+      <c r="BM18" s="54"/>
+      <c r="BN18" s="54"/>
+      <c r="DS18" s="44"/>
+      <c r="DT18" s="44"/>
+      <c r="DU18" s="44"/>
+      <c r="DV18" s="46"/>
+      <c r="DZ18" s="44"/>
+      <c r="EA18" s="57"/>
+      <c r="EB18" s="46"/>
+    </row>
+    <row r="19" spans="2:132" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B19" s="157"/>
-      <c r="C19" s="142"/>
+      <c r="C19" s="213"/>
       <c r="D19" s="161"/>
       <c r="E19" s="158"/>
       <c r="J19" s="157"/>
@@ -6195,37 +6313,41 @@
       <c r="S19" s="142"/>
       <c r="T19" s="161"/>
       <c r="U19" s="158"/>
-      <c r="X19" s="157"/>
-      <c r="Y19" s="142"/>
-      <c r="Z19" s="161"/>
-      <c r="AA19" s="158"/>
-      <c r="AD19" s="52"/>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="53"/>
-      <c r="AK19" s="52"/>
+      <c r="Z19" s="157"/>
+      <c r="AA19" s="142"/>
+      <c r="AB19" s="161"/>
+      <c r="AC19" s="158"/>
+      <c r="AF19" s="157"/>
+      <c r="AG19" s="142"/>
+      <c r="AH19" s="161"/>
+      <c r="AI19" s="158"/>
       <c r="AL19" s="52"/>
-      <c r="AM19" s="63"/>
-      <c r="AN19" s="53"/>
-      <c r="AQ19" s="52"/>
-      <c r="AR19" s="52"/>
-      <c r="AS19" s="63"/>
-      <c r="AT19" s="53"/>
-      <c r="AW19" s="62"/>
-      <c r="AX19" s="62"/>
-      <c r="AY19" s="63"/>
-      <c r="AZ19" s="53"/>
-      <c r="BA19" s="53"/>
-      <c r="BC19" s="62"/>
-      <c r="BD19" s="62"/>
-      <c r="BE19" s="63"/>
-      <c r="BF19" s="53"/>
-      <c r="DK19" s="44"/>
-      <c r="DL19" s="44"/>
-      <c r="DM19" s="44"/>
-      <c r="DN19" s="46"/>
-    </row>
-    <row r="20" spans="2:124" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="AM19" s="56"/>
+      <c r="AN19" s="52"/>
+      <c r="AO19" s="53"/>
+      <c r="AS19" s="52"/>
+      <c r="AT19" s="52"/>
+      <c r="AU19" s="63"/>
+      <c r="AV19" s="53"/>
+      <c r="AY19" s="52"/>
+      <c r="AZ19" s="52"/>
+      <c r="BA19" s="63"/>
+      <c r="BB19" s="53"/>
+      <c r="BE19" s="62"/>
+      <c r="BF19" s="62"/>
+      <c r="BG19" s="63"/>
+      <c r="BH19" s="53"/>
+      <c r="BI19" s="53"/>
+      <c r="BK19" s="62"/>
+      <c r="BL19" s="62"/>
+      <c r="BM19" s="63"/>
+      <c r="BN19" s="53"/>
+      <c r="DS19" s="44"/>
+      <c r="DT19" s="44"/>
+      <c r="DU19" s="44"/>
+      <c r="DV19" s="46"/>
+    </row>
+    <row r="20" spans="2:132" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="171" t="s">
         <v>24</v>
       </c>
@@ -6234,7 +6356,7 @@
         <v>32</v>
       </c>
       <c r="E20" s="169">
-        <v>45280</v>
+        <v>45308</v>
       </c>
       <c r="J20" s="171" t="s">
         <v>24</v>
@@ -6244,51 +6366,61 @@
         <v>32</v>
       </c>
       <c r="M20" s="169">
+        <v>45280</v>
+      </c>
+      <c r="R20" s="171" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" s="172"/>
+      <c r="T20" s="173" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" s="169">
         <v>45252</v>
       </c>
-      <c r="R20" s="162" t="s">
+      <c r="Z20" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="S20" s="154"/>
-      <c r="T20" s="155" t="s">
+      <c r="AA20" s="154"/>
+      <c r="AB20" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="U20" s="170">
+      <c r="AC20" s="170">
         <v>45219</v>
       </c>
-      <c r="X20" s="162" t="s">
+      <c r="AF20" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="Y20" s="154">
+      <c r="AG20" s="154">
         <v>4</v>
       </c>
-      <c r="Z20" s="155" t="s">
+      <c r="AH20" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="AA20" s="170">
+      <c r="AI20" s="170">
         <v>45191</v>
       </c>
-      <c r="AD20" s="44" t="s">
+      <c r="AL20" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AE20" s="57">
+      <c r="AM20" s="57">
         <v>5</v>
       </c>
-      <c r="AF20" s="44" t="s">
+      <c r="AN20" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AG20" s="71">
+      <c r="AO20" s="71">
         <v>45149</v>
       </c>
-      <c r="DK20" s="44"/>
-      <c r="DL20" s="44"/>
-      <c r="DM20" s="44"/>
-      <c r="DN20" s="46"/>
-    </row>
-    <row r="21" spans="2:124" ht="21" x14ac:dyDescent="0.35">
-      <c r="B21" s="164"/>
+      <c r="DS20" s="44"/>
+      <c r="DT20" s="44"/>
+      <c r="DU20" s="44"/>
+      <c r="DV20" s="46"/>
+    </row>
+    <row r="21" spans="2:132" ht="21" x14ac:dyDescent="0.35">
+      <c r="B21" s="157"/>
       <c r="C21" s="142"/>
-      <c r="D21" s="143"/>
+      <c r="D21" s="161"/>
       <c r="E21" s="158"/>
       <c r="J21" s="164"/>
       <c r="K21" s="142"/>
@@ -6298,20 +6430,24 @@
       <c r="S21" s="142"/>
       <c r="T21" s="143"/>
       <c r="U21" s="158"/>
-      <c r="X21" s="164"/>
-      <c r="Y21" s="142"/>
-      <c r="Z21" s="143"/>
-      <c r="AA21" s="158"/>
-      <c r="AD21" s="62"/>
-      <c r="AE21" s="56"/>
-      <c r="AF21" s="63"/>
-      <c r="AG21" s="53"/>
-      <c r="DK21" s="44"/>
-      <c r="DL21" s="44"/>
-      <c r="DM21" s="44"/>
-      <c r="DN21" s="46"/>
-    </row>
-    <row r="22" spans="2:124" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="Z21" s="164"/>
+      <c r="AA21" s="142"/>
+      <c r="AB21" s="143"/>
+      <c r="AC21" s="158"/>
+      <c r="AF21" s="164"/>
+      <c r="AG21" s="142"/>
+      <c r="AH21" s="143"/>
+      <c r="AI21" s="158"/>
+      <c r="AL21" s="62"/>
+      <c r="AM21" s="56"/>
+      <c r="AN21" s="63"/>
+      <c r="AO21" s="53"/>
+      <c r="DS21" s="44"/>
+      <c r="DT21" s="44"/>
+      <c r="DU21" s="44"/>
+      <c r="DV21" s="46"/>
+    </row>
+    <row r="22" spans="2:132" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B22" s="162" t="s">
         <v>25</v>
       </c>
@@ -6320,7 +6456,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="170">
-        <v>45289</v>
+        <v>45322</v>
       </c>
       <c r="J22" s="162" t="s">
         <v>25</v>
@@ -6330,38 +6466,48 @@
         <v>18</v>
       </c>
       <c r="M22" s="170">
+        <v>45289</v>
+      </c>
+      <c r="R22" s="162" t="s">
+        <v>25</v>
+      </c>
+      <c r="S22" s="154"/>
+      <c r="T22" s="155" t="s">
+        <v>18</v>
+      </c>
+      <c r="U22" s="170">
         <v>45254</v>
       </c>
-      <c r="R22" s="171" t="s">
+      <c r="Z22" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="S22" s="172" t="s">
+      <c r="AA22" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="T22" s="173" t="s">
+      <c r="AB22" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="U22" s="169"/>
-      <c r="X22" s="171" t="s">
+      <c r="AC22" s="169"/>
+      <c r="AF22" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="Y22" s="172" t="s">
+      <c r="AG22" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="Z22" s="173" t="s">
+      <c r="AH22" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="AA22" s="169"/>
-      <c r="AD22" s="52"/>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="53"/>
-      <c r="DK22" s="44"/>
-      <c r="DL22" s="44"/>
-      <c r="DM22" s="44"/>
-      <c r="DN22" s="46"/>
-    </row>
-    <row r="23" spans="2:124" ht="21" x14ac:dyDescent="0.35">
+      <c r="AI22" s="169"/>
+      <c r="AL22" s="52"/>
+      <c r="AM22" s="56"/>
+      <c r="AN22" s="52"/>
+      <c r="AO22" s="53"/>
+      <c r="DS22" s="44"/>
+      <c r="DT22" s="44"/>
+      <c r="DU22" s="44"/>
+      <c r="DV22" s="46"/>
+    </row>
+    <row r="23" spans="2:132" ht="21" x14ac:dyDescent="0.35">
       <c r="B23" s="157"/>
       <c r="C23" s="142"/>
       <c r="D23" s="161"/>
@@ -6374,20 +6520,24 @@
       <c r="S23" s="142"/>
       <c r="T23" s="161"/>
       <c r="U23" s="158"/>
-      <c r="X23" s="157"/>
-      <c r="Y23" s="142"/>
-      <c r="Z23" s="161"/>
-      <c r="AA23" s="158"/>
-      <c r="AD23" s="52"/>
-      <c r="AE23" s="56"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="53"/>
-      <c r="DK23" s="44"/>
-      <c r="DL23" s="44"/>
-      <c r="DM23" s="44"/>
-      <c r="DN23" s="46"/>
-    </row>
-    <row r="24" spans="2:124" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z23" s="157"/>
+      <c r="AA23" s="142"/>
+      <c r="AB23" s="161"/>
+      <c r="AC23" s="158"/>
+      <c r="AF23" s="157"/>
+      <c r="AG23" s="142"/>
+      <c r="AH23" s="161"/>
+      <c r="AI23" s="158"/>
+      <c r="AL23" s="52"/>
+      <c r="AM23" s="56"/>
+      <c r="AN23" s="52"/>
+      <c r="AO23" s="53"/>
+      <c r="DS23" s="44"/>
+      <c r="DT23" s="44"/>
+      <c r="DU23" s="44"/>
+      <c r="DV23" s="46"/>
+    </row>
+    <row r="24" spans="2:132" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="174"/>
       <c r="C24" s="175"/>
       <c r="D24" s="176"/>
@@ -6400,91 +6550,97 @@
       <c r="S24" s="175"/>
       <c r="T24" s="176"/>
       <c r="U24" s="177"/>
-      <c r="X24" s="174"/>
-      <c r="Y24" s="175"/>
-      <c r="Z24" s="176"/>
-      <c r="AA24" s="177"/>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="56"/>
-      <c r="AF24" s="63"/>
-      <c r="AG24" s="53"/>
-      <c r="DK24" s="44"/>
-      <c r="DL24" s="44"/>
-      <c r="DM24" s="44"/>
-      <c r="DN24" s="46"/>
-    </row>
-    <row r="25" spans="2:124" ht="21" x14ac:dyDescent="0.35">
-      <c r="DK25" s="44"/>
-      <c r="DL25" s="44"/>
-      <c r="DM25" s="44"/>
-      <c r="DN25" s="46"/>
-    </row>
-    <row r="26" spans="2:124" ht="21" x14ac:dyDescent="0.35">
-      <c r="DK26" s="44"/>
-      <c r="DL26" s="44"/>
-      <c r="DM26" s="44"/>
-      <c r="DN26" s="46"/>
-    </row>
-    <row r="27" spans="2:124" ht="21" x14ac:dyDescent="0.35">
-      <c r="DK27" s="44"/>
-      <c r="DL27" s="44"/>
-      <c r="DM27" s="44"/>
-      <c r="DN27" s="46"/>
-    </row>
-    <row r="28" spans="2:124" ht="21" x14ac:dyDescent="0.35">
-      <c r="DK28" s="44"/>
-      <c r="DL28" s="44"/>
-      <c r="DM28" s="44"/>
-      <c r="DN28" s="46"/>
-    </row>
-    <row r="29" spans="2:124" ht="21" x14ac:dyDescent="0.35">
-      <c r="DK29" s="44"/>
-      <c r="DL29" s="44"/>
-      <c r="DM29" s="44"/>
-      <c r="DN29" s="46"/>
-    </row>
-    <row r="30" spans="2:124" ht="21" x14ac:dyDescent="0.35">
-      <c r="DK30" s="44"/>
-      <c r="DL30" s="44"/>
-      <c r="DM30" s="44"/>
-      <c r="DN30" s="46"/>
-    </row>
-    <row r="31" spans="2:124" ht="21" x14ac:dyDescent="0.35">
-      <c r="DK31" s="44"/>
-      <c r="DL31" s="44"/>
-      <c r="DM31" s="44"/>
-      <c r="DN31" s="46"/>
+      <c r="Z24" s="174"/>
+      <c r="AA24" s="175"/>
+      <c r="AB24" s="176"/>
+      <c r="AC24" s="177"/>
+      <c r="AF24" s="174"/>
+      <c r="AG24" s="175"/>
+      <c r="AH24" s="176"/>
+      <c r="AI24" s="177"/>
+      <c r="AL24" s="52"/>
+      <c r="AM24" s="56"/>
+      <c r="AN24" s="63"/>
+      <c r="AO24" s="53"/>
+      <c r="DS24" s="44"/>
+      <c r="DT24" s="44"/>
+      <c r="DU24" s="44"/>
+      <c r="DV24" s="46"/>
+    </row>
+    <row r="25" spans="2:132" ht="21" x14ac:dyDescent="0.35">
+      <c r="DS25" s="44"/>
+      <c r="DT25" s="44"/>
+      <c r="DU25" s="44"/>
+      <c r="DV25" s="46"/>
+    </row>
+    <row r="26" spans="2:132" ht="21" x14ac:dyDescent="0.35">
+      <c r="DS26" s="44"/>
+      <c r="DT26" s="44"/>
+      <c r="DU26" s="44"/>
+      <c r="DV26" s="46"/>
+    </row>
+    <row r="27" spans="2:132" ht="21" x14ac:dyDescent="0.35">
+      <c r="DS27" s="44"/>
+      <c r="DT27" s="44"/>
+      <c r="DU27" s="44"/>
+      <c r="DV27" s="46"/>
+    </row>
+    <row r="28" spans="2:132" ht="21" x14ac:dyDescent="0.35">
+      <c r="DS28" s="44"/>
+      <c r="DT28" s="44"/>
+      <c r="DU28" s="44"/>
+      <c r="DV28" s="46"/>
+    </row>
+    <row r="29" spans="2:132" ht="21" x14ac:dyDescent="0.35">
+      <c r="DS29" s="44"/>
+      <c r="DT29" s="44"/>
+      <c r="DU29" s="44"/>
+      <c r="DV29" s="46"/>
+    </row>
+    <row r="30" spans="2:132" ht="21" x14ac:dyDescent="0.35">
+      <c r="DS30" s="44"/>
+      <c r="DT30" s="44"/>
+      <c r="DU30" s="44"/>
+      <c r="DV30" s="46"/>
+    </row>
+    <row r="31" spans="2:132" ht="21" x14ac:dyDescent="0.35">
+      <c r="DS31" s="44"/>
+      <c r="DT31" s="44"/>
+      <c r="DU31" s="44"/>
+      <c r="DV31" s="46"/>
     </row>
   </sheetData>
-  <sortState ref="X8:AA21">
-    <sortCondition ref="AA8:AA21"/>
+  <sortState ref="B8:E22">
+    <sortCondition ref="E8:E22"/>
   </sortState>
-  <mergeCells count="25">
-    <mergeCell ref="DK5:DL5"/>
-    <mergeCell ref="CA5:CC5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="BJ5:BL5"/>
-    <mergeCell ref="DR3:DT3"/>
-    <mergeCell ref="DE3:DG3"/>
-    <mergeCell ref="CX3:CZ3"/>
-    <mergeCell ref="CG3:CI3"/>
-    <mergeCell ref="CM3:CO3"/>
-    <mergeCell ref="CS3:CU3"/>
-    <mergeCell ref="DK3:DN3"/>
+  <mergeCells count="27">
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="BO5:BQ5"/>
-    <mergeCell ref="BU5:BW5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AQ5:AS5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="J6:L6"/>
+    <mergeCell ref="BW5:BY5"/>
+    <mergeCell ref="CC5:CE5"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AL5:AN5"/>
+    <mergeCell ref="AS5:AU5"/>
+    <mergeCell ref="AY5:BA5"/>
     <mergeCell ref="R5:T5"/>
     <mergeCell ref="R6:T6"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="DM3:DO3"/>
+    <mergeCell ref="DF3:DH3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CU3:CW3"/>
+    <mergeCell ref="DA3:DC3"/>
+    <mergeCell ref="DS3:DV3"/>
+    <mergeCell ref="DS5:DT5"/>
+    <mergeCell ref="CI5:CK5"/>
+    <mergeCell ref="BE5:BG5"/>
+    <mergeCell ref="BK5:BM5"/>
+    <mergeCell ref="BR5:BT5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMA    ECOPLAG   2023    " sheetId="7" r:id="rId1"/>
@@ -1524,6 +1524,9 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1557,23 +1560,20 @@
     <xf numFmtId="44" fontId="15" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1937,11 +1937,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="197" t="s">
+      <c r="B5" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="197"/>
-      <c r="D5" s="197"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -2132,22 +2132,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="198" t="s">
+      <c r="C2" s="199" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="199" t="s">
+      <c r="D3" s="200" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="200"/>
-      <c r="F3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="202"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2819,9 +2819,9 @@
   </sheetPr>
   <dimension ref="A2:R38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2846,48 +2846,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="198" t="s">
+      <c r="C2" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
     </row>
     <row r="3" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="199" t="s">
+      <c r="D3" s="200" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="200"/>
-      <c r="F3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="202"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:18" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="202" t="s">
+      <c r="B4" s="203" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="203" t="s">
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="204" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="205"/>
+      <c r="M4" s="206"/>
       <c r="N4" s="136"/>
       <c r="O4" s="136"/>
       <c r="P4" s="136"/>
-      <c r="Q4" s="206" t="s">
+      <c r="Q4" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="207"/>
+      <c r="R4" s="208"/>
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -4077,8 +4077,12 @@
       <c r="I30" s="37">
         <v>899</v>
       </c>
-      <c r="J30" s="20"/>
-      <c r="K30" s="39"/>
+      <c r="J30" s="20">
+        <v>1392</v>
+      </c>
+      <c r="K30" s="39">
+        <v>896</v>
+      </c>
       <c r="L30" s="184">
         <v>1624</v>
       </c>
@@ -4092,8 +4096,12 @@
         <v>909</v>
       </c>
       <c r="P30" s="138"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="42"/>
+      <c r="Q30" s="9">
+        <v>1392</v>
+      </c>
+      <c r="R30" s="42">
+        <v>918</v>
+      </c>
     </row>
     <row r="31" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
@@ -4276,8 +4284,8 @@
   </sheetPr>
   <dimension ref="B1:EB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4373,48 +4381,48 @@
       </c>
     </row>
     <row r="3" spans="2:132" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="CO3" s="197" t="s">
+      <c r="CO3" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="CP3" s="197"/>
-      <c r="CQ3" s="197"/>
+      <c r="CP3" s="198"/>
+      <c r="CQ3" s="198"/>
       <c r="CR3" s="60"/>
-      <c r="CU3" s="197" t="s">
+      <c r="CU3" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="CV3" s="197"/>
-      <c r="CW3" s="197"/>
+      <c r="CV3" s="198"/>
+      <c r="CW3" s="198"/>
       <c r="CX3" s="60"/>
-      <c r="DA3" s="197" t="s">
+      <c r="DA3" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="DB3" s="197"/>
-      <c r="DC3" s="197"/>
+      <c r="DB3" s="198"/>
+      <c r="DC3" s="198"/>
       <c r="DD3" s="60"/>
-      <c r="DF3" s="197" t="s">
+      <c r="DF3" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="DG3" s="197"/>
-      <c r="DH3" s="197"/>
+      <c r="DG3" s="198"/>
+      <c r="DH3" s="198"/>
       <c r="DI3" s="60"/>
-      <c r="DM3" s="197" t="s">
+      <c r="DM3" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="DN3" s="197"/>
-      <c r="DO3" s="197"/>
+      <c r="DN3" s="198"/>
+      <c r="DO3" s="198"/>
       <c r="DP3" s="60"/>
       <c r="DQ3" s="59"/>
-      <c r="DS3" s="197" t="s">
+      <c r="DS3" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="DT3" s="197"/>
-      <c r="DU3" s="197"/>
-      <c r="DV3" s="197"/>
-      <c r="DZ3" s="197" t="s">
+      <c r="DT3" s="198"/>
+      <c r="DU3" s="198"/>
+      <c r="DV3" s="198"/>
+      <c r="DZ3" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="EA3" s="197"/>
-      <c r="EB3" s="197"/>
+      <c r="EA3" s="198"/>
+      <c r="EB3" s="198"/>
     </row>
     <row r="4" spans="2:132" x14ac:dyDescent="0.25">
       <c r="B4" s="144"/>
@@ -4475,60 +4483,60 @@
       <c r="AG5" s="210"/>
       <c r="AH5" s="210"/>
       <c r="AI5" s="148"/>
-      <c r="AL5" s="197" t="s">
+      <c r="AL5" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="AM5" s="197"/>
-      <c r="AN5" s="197"/>
+      <c r="AM5" s="198"/>
+      <c r="AN5" s="198"/>
       <c r="AO5" s="60"/>
-      <c r="AS5" s="197" t="s">
+      <c r="AS5" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="AT5" s="197"/>
-      <c r="AU5" s="197"/>
+      <c r="AT5" s="198"/>
+      <c r="AU5" s="198"/>
       <c r="AV5" s="60"/>
-      <c r="AY5" s="197" t="s">
+      <c r="AY5" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="AZ5" s="197"/>
-      <c r="BA5" s="197"/>
+      <c r="AZ5" s="198"/>
+      <c r="BA5" s="198"/>
       <c r="BB5" s="60"/>
-      <c r="BE5" s="197" t="s">
+      <c r="BE5" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="BF5" s="197"/>
-      <c r="BG5" s="197"/>
+      <c r="BF5" s="198"/>
+      <c r="BG5" s="198"/>
       <c r="BH5" s="60"/>
       <c r="BI5" s="85"/>
-      <c r="BK5" s="197" t="s">
+      <c r="BK5" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="BL5" s="197"/>
-      <c r="BM5" s="197"/>
+      <c r="BL5" s="198"/>
+      <c r="BM5" s="198"/>
       <c r="BN5" s="60"/>
-      <c r="BR5" s="197" t="s">
+      <c r="BR5" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="BS5" s="197"/>
-      <c r="BT5" s="197"/>
+      <c r="BS5" s="198"/>
+      <c r="BT5" s="198"/>
       <c r="BU5" s="60"/>
-      <c r="BW5" s="197" t="s">
+      <c r="BW5" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="BX5" s="197"/>
-      <c r="BY5" s="197"/>
+      <c r="BX5" s="198"/>
+      <c r="BY5" s="198"/>
       <c r="BZ5" s="60"/>
-      <c r="CC5" s="197" t="s">
+      <c r="CC5" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="CD5" s="197"/>
-      <c r="CE5" s="197"/>
+      <c r="CD5" s="198"/>
+      <c r="CE5" s="198"/>
       <c r="CF5" s="60"/>
-      <c r="CI5" s="197" t="s">
+      <c r="CI5" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="CJ5" s="197"/>
-      <c r="CK5" s="197"/>
+      <c r="CJ5" s="198"/>
+      <c r="CK5" s="198"/>
       <c r="CL5" s="60"/>
       <c r="CO5" s="61" t="s">
         <v>23</v>
@@ -4580,10 +4588,10 @@
       <c r="DP5" s="51">
         <v>44747</v>
       </c>
-      <c r="DS5" s="208" t="s">
+      <c r="DS5" s="213" t="s">
         <v>23</v>
       </c>
-      <c r="DT5" s="208"/>
+      <c r="DT5" s="213"/>
       <c r="DU5" s="45" t="s">
         <v>15</v>
       </c>
@@ -6302,7 +6310,7 @@
     </row>
     <row r="19" spans="2:132" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B19" s="157"/>
-      <c r="C19" s="213"/>
+      <c r="C19" s="197"/>
       <c r="D19" s="161"/>
       <c r="E19" s="158"/>
       <c r="J19" s="157"/>
@@ -6614,21 +6622,11 @@
     <sortCondition ref="E8:E22"/>
   </sortState>
   <mergeCells count="27">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="BW5:BY5"/>
-    <mergeCell ref="CC5:CE5"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AL5:AN5"/>
-    <mergeCell ref="AS5:AU5"/>
-    <mergeCell ref="AY5:BA5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="DS5:DT5"/>
+    <mergeCell ref="CI5:CK5"/>
+    <mergeCell ref="BE5:BG5"/>
+    <mergeCell ref="BK5:BM5"/>
+    <mergeCell ref="BR5:BT5"/>
     <mergeCell ref="DZ3:EB3"/>
     <mergeCell ref="DM3:DO3"/>
     <mergeCell ref="DF3:DH3"/>
@@ -6636,11 +6634,21 @@
     <mergeCell ref="CU3:CW3"/>
     <mergeCell ref="DA3:DC3"/>
     <mergeCell ref="DS3:DV3"/>
-    <mergeCell ref="DS5:DT5"/>
-    <mergeCell ref="CI5:CK5"/>
-    <mergeCell ref="BE5:BG5"/>
-    <mergeCell ref="BK5:BM5"/>
-    <mergeCell ref="BR5:BT5"/>
+    <mergeCell ref="CC5:CE5"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AL5:AN5"/>
+    <mergeCell ref="AS5:AU5"/>
+    <mergeCell ref="AY5:BA5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="BW5:BY5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="Z6:AB6"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMA    ECOPLAG   2023    " sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="80">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -246,6 +246,30 @@
   </si>
   <si>
     <t>DIC.,2023</t>
+  </si>
+  <si>
+    <t>bbva</t>
+  </si>
+  <si>
+    <t>15-Dic--23</t>
+  </si>
+  <si>
+    <t>21-Dic--23</t>
+  </si>
+  <si>
+    <t>Santander</t>
+  </si>
+  <si>
+    <t>8-Dic--23</t>
+  </si>
+  <si>
+    <t>29-Dic---23</t>
+  </si>
+  <si>
+    <t>7-Dic--23</t>
+  </si>
+  <si>
+    <t>11-Dic--23</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1082,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1560,21 +1584,49 @@
     <xf numFmtId="44" fontId="15" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2819,8 +2871,8 @@
   </sheetPr>
   <dimension ref="A2:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -4069,8 +4121,12 @@
       <c r="E30" s="82">
         <v>898</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="33"/>
+      <c r="F30" s="9">
+        <v>1856</v>
+      </c>
+      <c r="G30" s="33">
+        <v>926</v>
+      </c>
       <c r="H30" s="20">
         <v>1856</v>
       </c>
@@ -4103,25 +4159,53 @@
         <v>918</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" s="223" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="37"/>
+      <c r="B31" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="214" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="215" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="216" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" s="214" t="s">
+        <v>75</v>
+      </c>
       <c r="J31" s="20"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="184"/>
-      <c r="M31" s="127"/>
-      <c r="N31" s="184"/>
-      <c r="O31" s="127"/>
-      <c r="P31" s="138"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="42"/>
+      <c r="K31" s="217"/>
+      <c r="L31" s="218">
+        <v>45275</v>
+      </c>
+      <c r="M31" s="219" t="s">
+        <v>72</v>
+      </c>
+      <c r="N31" s="220" t="s">
+        <v>73</v>
+      </c>
+      <c r="O31" s="219" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" s="221"/>
+      <c r="Q31" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="R31" s="222" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="32" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
@@ -4284,8 +4368,8 @@
   </sheetPr>
   <dimension ref="B1:EB31"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4453,35 +4537,35 @@
       <c r="EB4" s="47"/>
     </row>
     <row r="5" spans="2:132" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="209" t="s">
+      <c r="B5" s="210" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="210"/>
-      <c r="D5" s="210"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="211"/>
       <c r="E5" s="148"/>
-      <c r="J5" s="209" t="s">
+      <c r="J5" s="210" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="210"/>
-      <c r="L5" s="210"/>
+      <c r="K5" s="211"/>
+      <c r="L5" s="211"/>
       <c r="M5" s="148"/>
-      <c r="R5" s="209" t="s">
+      <c r="R5" s="210" t="s">
         <v>55</v>
       </c>
-      <c r="S5" s="210"/>
-      <c r="T5" s="210"/>
+      <c r="S5" s="211"/>
+      <c r="T5" s="211"/>
       <c r="U5" s="148"/>
-      <c r="Z5" s="209" t="s">
+      <c r="Z5" s="210" t="s">
         <v>55</v>
       </c>
-      <c r="AA5" s="210"/>
-      <c r="AB5" s="210"/>
+      <c r="AA5" s="211"/>
+      <c r="AB5" s="211"/>
       <c r="AC5" s="148"/>
-      <c r="AF5" s="209" t="s">
+      <c r="AF5" s="210" t="s">
         <v>55</v>
       </c>
-      <c r="AG5" s="210"/>
-      <c r="AH5" s="210"/>
+      <c r="AG5" s="211"/>
+      <c r="AH5" s="211"/>
       <c r="AI5" s="148"/>
       <c r="AL5" s="198" t="s">
         <v>55</v>
@@ -4588,10 +4672,10 @@
       <c r="DP5" s="51">
         <v>44747</v>
       </c>
-      <c r="DS5" s="213" t="s">
+      <c r="DS5" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="DT5" s="213"/>
+      <c r="DT5" s="209"/>
       <c r="DU5" s="45" t="s">
         <v>15</v>
       </c>
@@ -4609,35 +4693,35 @@
       </c>
     </row>
     <row r="6" spans="2:132" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="211" t="s">
+      <c r="B6" s="212" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="212"/>
-      <c r="D6" s="212"/>
+      <c r="C6" s="213"/>
+      <c r="D6" s="213"/>
       <c r="E6" s="149"/>
-      <c r="J6" s="211" t="s">
+      <c r="J6" s="212" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="212"/>
-      <c r="L6" s="212"/>
+      <c r="K6" s="213"/>
+      <c r="L6" s="213"/>
       <c r="M6" s="149"/>
-      <c r="R6" s="211" t="s">
+      <c r="R6" s="212" t="s">
         <v>62</v>
       </c>
-      <c r="S6" s="212"/>
-      <c r="T6" s="212"/>
+      <c r="S6" s="213"/>
+      <c r="T6" s="213"/>
       <c r="U6" s="149"/>
-      <c r="Z6" s="211" t="s">
+      <c r="Z6" s="212" t="s">
         <v>62</v>
       </c>
-      <c r="AA6" s="212"/>
-      <c r="AB6" s="212"/>
+      <c r="AA6" s="213"/>
+      <c r="AB6" s="213"/>
       <c r="AC6" s="149"/>
-      <c r="AF6" s="211" t="s">
+      <c r="AF6" s="212" t="s">
         <v>62</v>
       </c>
-      <c r="AG6" s="212"/>
-      <c r="AH6" s="212"/>
+      <c r="AG6" s="213"/>
+      <c r="AH6" s="213"/>
       <c r="AI6" s="149"/>
       <c r="AO6" s="47"/>
       <c r="AV6" s="47"/>
@@ -6622,24 +6706,6 @@
     <sortCondition ref="E8:E22"/>
   </sortState>
   <mergeCells count="27">
-    <mergeCell ref="DS5:DT5"/>
-    <mergeCell ref="CI5:CK5"/>
-    <mergeCell ref="BE5:BG5"/>
-    <mergeCell ref="BK5:BM5"/>
-    <mergeCell ref="BR5:BT5"/>
-    <mergeCell ref="DZ3:EB3"/>
-    <mergeCell ref="DM3:DO3"/>
-    <mergeCell ref="DF3:DH3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CU3:CW3"/>
-    <mergeCell ref="DA3:DC3"/>
-    <mergeCell ref="DS3:DV3"/>
-    <mergeCell ref="CC5:CE5"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AL5:AN5"/>
-    <mergeCell ref="AS5:AU5"/>
-    <mergeCell ref="AY5:BA5"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="J5:L5"/>
@@ -6649,6 +6715,24 @@
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="Z5:AB5"/>
     <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AL5:AN5"/>
+    <mergeCell ref="AS5:AU5"/>
+    <mergeCell ref="AY5:BA5"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="DM3:DO3"/>
+    <mergeCell ref="DF3:DH3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CU3:CW3"/>
+    <mergeCell ref="DA3:DC3"/>
+    <mergeCell ref="DS3:DV3"/>
+    <mergeCell ref="DS5:DT5"/>
+    <mergeCell ref="CI5:CK5"/>
+    <mergeCell ref="BE5:BG5"/>
+    <mergeCell ref="BK5:BM5"/>
+    <mergeCell ref="BR5:BT5"/>
+    <mergeCell ref="CC5:CE5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="82">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t>11-Dic--23</t>
+  </si>
+  <si>
+    <t>BBVA</t>
+  </si>
+  <si>
+    <t>3-Ene--24</t>
   </si>
 </sst>
 </file>
@@ -415,7 +421,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,6 +524,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="45">
     <border>
@@ -1082,7 +1094,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1551,6 +1563,34 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1584,49 +1624,53 @@
     <xf numFmtId="44" fontId="15" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="18" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="18" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="18" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="18" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1636,10 +1680,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FFCC9900"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF99"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFF66FF"/>
@@ -1989,11 +2033,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="198" t="s">
+      <c r="B5" s="208" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="198"/>
-      <c r="D5" s="198"/>
+      <c r="C5" s="208"/>
+      <c r="D5" s="208"/>
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -2184,22 +2228,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="199" t="s">
+      <c r="C2" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="200" t="s">
+      <c r="D3" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="201"/>
-      <c r="F3" s="202"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="212"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2871,9 +2915,9 @@
   </sheetPr>
   <dimension ref="A2:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2898,48 +2942,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="199" t="s">
+      <c r="C2" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
     </row>
     <row r="3" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="200" t="s">
+      <c r="D3" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="201"/>
-      <c r="F3" s="202"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="212"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:18" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="203" t="s">
+      <c r="B4" s="213" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="203"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="204" t="s">
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="214" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="205"/>
-      <c r="J4" s="205"/>
-      <c r="K4" s="205"/>
-      <c r="L4" s="205"/>
-      <c r="M4" s="206"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="216"/>
       <c r="N4" s="136"/>
       <c r="O4" s="136"/>
       <c r="P4" s="136"/>
-      <c r="Q4" s="207" t="s">
+      <c r="Q4" s="217" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="208"/>
+      <c r="R4" s="218"/>
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -4159,73 +4203,77 @@
         <v>918</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="223" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" s="207" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="214" t="s">
+      <c r="C31" s="198" t="s">
         <v>75</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="215" t="s">
+      <c r="E31" s="199" t="s">
         <v>72</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="216" t="s">
+      <c r="G31" s="200" t="s">
         <v>72</v>
       </c>
       <c r="H31" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I31" s="214" t="s">
+      <c r="I31" s="198" t="s">
         <v>75</v>
       </c>
-      <c r="J31" s="20"/>
-      <c r="K31" s="217"/>
-      <c r="L31" s="218">
+      <c r="J31" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="K31" s="201" t="s">
+        <v>80</v>
+      </c>
+      <c r="L31" s="202">
         <v>45275</v>
       </c>
-      <c r="M31" s="219" t="s">
+      <c r="M31" s="203" t="s">
         <v>72</v>
       </c>
-      <c r="N31" s="220" t="s">
+      <c r="N31" s="204" t="s">
         <v>73</v>
       </c>
-      <c r="O31" s="219" t="s">
+      <c r="O31" s="203" t="s">
         <v>72</v>
       </c>
-      <c r="P31" s="221"/>
+      <c r="P31" s="205"/>
       <c r="Q31" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="R31" s="222" t="s">
+      <c r="R31" s="206" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="184"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="184"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="138"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="42"/>
+      <c r="A32" s="224"/>
+      <c r="B32" s="225"/>
+      <c r="C32" s="226"/>
+      <c r="D32" s="227"/>
+      <c r="E32" s="228"/>
+      <c r="F32" s="227"/>
+      <c r="G32" s="229"/>
+      <c r="H32" s="230"/>
+      <c r="I32" s="226"/>
+      <c r="J32" s="230"/>
+      <c r="K32" s="231"/>
+      <c r="L32" s="232"/>
+      <c r="M32" s="233"/>
+      <c r="N32" s="232"/>
+      <c r="O32" s="233"/>
+      <c r="P32" s="234"/>
+      <c r="Q32" s="227"/>
+      <c r="R32" s="235"/>
     </row>
     <row r="33" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
@@ -4465,48 +4513,48 @@
       </c>
     </row>
     <row r="3" spans="2:132" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="CO3" s="198" t="s">
+      <c r="CO3" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="CP3" s="198"/>
-      <c r="CQ3" s="198"/>
+      <c r="CP3" s="208"/>
+      <c r="CQ3" s="208"/>
       <c r="CR3" s="60"/>
-      <c r="CU3" s="198" t="s">
+      <c r="CU3" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="CV3" s="198"/>
-      <c r="CW3" s="198"/>
+      <c r="CV3" s="208"/>
+      <c r="CW3" s="208"/>
       <c r="CX3" s="60"/>
-      <c r="DA3" s="198" t="s">
+      <c r="DA3" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="DB3" s="198"/>
-      <c r="DC3" s="198"/>
+      <c r="DB3" s="208"/>
+      <c r="DC3" s="208"/>
       <c r="DD3" s="60"/>
-      <c r="DF3" s="198" t="s">
+      <c r="DF3" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="DG3" s="198"/>
-      <c r="DH3" s="198"/>
+      <c r="DG3" s="208"/>
+      <c r="DH3" s="208"/>
       <c r="DI3" s="60"/>
-      <c r="DM3" s="198" t="s">
+      <c r="DM3" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="DN3" s="198"/>
-      <c r="DO3" s="198"/>
+      <c r="DN3" s="208"/>
+      <c r="DO3" s="208"/>
       <c r="DP3" s="60"/>
       <c r="DQ3" s="59"/>
-      <c r="DS3" s="198" t="s">
+      <c r="DS3" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="DT3" s="198"/>
-      <c r="DU3" s="198"/>
-      <c r="DV3" s="198"/>
-      <c r="DZ3" s="198" t="s">
+      <c r="DT3" s="208"/>
+      <c r="DU3" s="208"/>
+      <c r="DV3" s="208"/>
+      <c r="DZ3" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="EA3" s="198"/>
-      <c r="EB3" s="198"/>
+      <c r="EA3" s="208"/>
+      <c r="EB3" s="208"/>
     </row>
     <row r="4" spans="2:132" x14ac:dyDescent="0.25">
       <c r="B4" s="144"/>
@@ -4537,90 +4585,90 @@
       <c r="EB4" s="47"/>
     </row>
     <row r="5" spans="2:132" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="210" t="s">
+      <c r="B5" s="219" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="220"/>
       <c r="E5" s="148"/>
-      <c r="J5" s="210" t="s">
+      <c r="J5" s="219" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="211"/>
-      <c r="L5" s="211"/>
+      <c r="K5" s="220"/>
+      <c r="L5" s="220"/>
       <c r="M5" s="148"/>
-      <c r="R5" s="210" t="s">
+      <c r="R5" s="219" t="s">
         <v>55</v>
       </c>
-      <c r="S5" s="211"/>
-      <c r="T5" s="211"/>
+      <c r="S5" s="220"/>
+      <c r="T5" s="220"/>
       <c r="U5" s="148"/>
-      <c r="Z5" s="210" t="s">
+      <c r="Z5" s="219" t="s">
         <v>55</v>
       </c>
-      <c r="AA5" s="211"/>
-      <c r="AB5" s="211"/>
+      <c r="AA5" s="220"/>
+      <c r="AB5" s="220"/>
       <c r="AC5" s="148"/>
-      <c r="AF5" s="210" t="s">
+      <c r="AF5" s="219" t="s">
         <v>55</v>
       </c>
-      <c r="AG5" s="211"/>
-      <c r="AH5" s="211"/>
+      <c r="AG5" s="220"/>
+      <c r="AH5" s="220"/>
       <c r="AI5" s="148"/>
-      <c r="AL5" s="198" t="s">
+      <c r="AL5" s="208" t="s">
         <v>55</v>
       </c>
-      <c r="AM5" s="198"/>
-      <c r="AN5" s="198"/>
+      <c r="AM5" s="208"/>
+      <c r="AN5" s="208"/>
       <c r="AO5" s="60"/>
-      <c r="AS5" s="198" t="s">
+      <c r="AS5" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="AT5" s="198"/>
-      <c r="AU5" s="198"/>
+      <c r="AT5" s="208"/>
+      <c r="AU5" s="208"/>
       <c r="AV5" s="60"/>
-      <c r="AY5" s="198" t="s">
+      <c r="AY5" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="AZ5" s="198"/>
-      <c r="BA5" s="198"/>
+      <c r="AZ5" s="208"/>
+      <c r="BA5" s="208"/>
       <c r="BB5" s="60"/>
-      <c r="BE5" s="198" t="s">
+      <c r="BE5" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="BF5" s="198"/>
-      <c r="BG5" s="198"/>
+      <c r="BF5" s="208"/>
+      <c r="BG5" s="208"/>
       <c r="BH5" s="60"/>
       <c r="BI5" s="85"/>
-      <c r="BK5" s="198" t="s">
+      <c r="BK5" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="BL5" s="198"/>
-      <c r="BM5" s="198"/>
+      <c r="BL5" s="208"/>
+      <c r="BM5" s="208"/>
       <c r="BN5" s="60"/>
-      <c r="BR5" s="198" t="s">
+      <c r="BR5" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="BS5" s="198"/>
-      <c r="BT5" s="198"/>
+      <c r="BS5" s="208"/>
+      <c r="BT5" s="208"/>
       <c r="BU5" s="60"/>
-      <c r="BW5" s="198" t="s">
+      <c r="BW5" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="BX5" s="198"/>
-      <c r="BY5" s="198"/>
+      <c r="BX5" s="208"/>
+      <c r="BY5" s="208"/>
       <c r="BZ5" s="60"/>
-      <c r="CC5" s="198" t="s">
+      <c r="CC5" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="CD5" s="198"/>
-      <c r="CE5" s="198"/>
+      <c r="CD5" s="208"/>
+      <c r="CE5" s="208"/>
       <c r="CF5" s="60"/>
-      <c r="CI5" s="198" t="s">
+      <c r="CI5" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="CJ5" s="198"/>
-      <c r="CK5" s="198"/>
+      <c r="CJ5" s="208"/>
+      <c r="CK5" s="208"/>
       <c r="CL5" s="60"/>
       <c r="CO5" s="61" t="s">
         <v>23</v>
@@ -4672,10 +4720,10 @@
       <c r="DP5" s="51">
         <v>44747</v>
       </c>
-      <c r="DS5" s="209" t="s">
+      <c r="DS5" s="223" t="s">
         <v>23</v>
       </c>
-      <c r="DT5" s="209"/>
+      <c r="DT5" s="223"/>
       <c r="DU5" s="45" t="s">
         <v>15</v>
       </c>
@@ -4693,35 +4741,35 @@
       </c>
     </row>
     <row r="6" spans="2:132" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="212" t="s">
+      <c r="B6" s="221" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="213"/>
-      <c r="D6" s="213"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="222"/>
       <c r="E6" s="149"/>
-      <c r="J6" s="212" t="s">
+      <c r="J6" s="221" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="213"/>
-      <c r="L6" s="213"/>
+      <c r="K6" s="222"/>
+      <c r="L6" s="222"/>
       <c r="M6" s="149"/>
-      <c r="R6" s="212" t="s">
+      <c r="R6" s="221" t="s">
         <v>62</v>
       </c>
-      <c r="S6" s="213"/>
-      <c r="T6" s="213"/>
+      <c r="S6" s="222"/>
+      <c r="T6" s="222"/>
       <c r="U6" s="149"/>
-      <c r="Z6" s="212" t="s">
+      <c r="Z6" s="221" t="s">
         <v>62</v>
       </c>
-      <c r="AA6" s="213"/>
-      <c r="AB6" s="213"/>
+      <c r="AA6" s="222"/>
+      <c r="AB6" s="222"/>
       <c r="AC6" s="149"/>
-      <c r="AF6" s="212" t="s">
+      <c r="AF6" s="221" t="s">
         <v>62</v>
       </c>
-      <c r="AG6" s="213"/>
-      <c r="AH6" s="213"/>
+      <c r="AG6" s="222"/>
+      <c r="AH6" s="222"/>
       <c r="AI6" s="149"/>
       <c r="AO6" s="47"/>
       <c r="AV6" s="47"/>
@@ -6706,6 +6754,19 @@
     <sortCondition ref="E8:E22"/>
   </sortState>
   <mergeCells count="27">
+    <mergeCell ref="DS5:DT5"/>
+    <mergeCell ref="CI5:CK5"/>
+    <mergeCell ref="BE5:BG5"/>
+    <mergeCell ref="BK5:BM5"/>
+    <mergeCell ref="BR5:BT5"/>
+    <mergeCell ref="CC5:CE5"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="DM3:DO3"/>
+    <mergeCell ref="DF3:DH3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CU3:CW3"/>
+    <mergeCell ref="DA3:DC3"/>
+    <mergeCell ref="DS3:DV3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="J5:L5"/>
@@ -6720,19 +6781,6 @@
     <mergeCell ref="AL5:AN5"/>
     <mergeCell ref="AS5:AU5"/>
     <mergeCell ref="AY5:BA5"/>
-    <mergeCell ref="DZ3:EB3"/>
-    <mergeCell ref="DM3:DO3"/>
-    <mergeCell ref="DF3:DH3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CU3:CW3"/>
-    <mergeCell ref="DA3:DC3"/>
-    <mergeCell ref="DS3:DV3"/>
-    <mergeCell ref="DS5:DT5"/>
-    <mergeCell ref="CI5:CK5"/>
-    <mergeCell ref="BE5:BG5"/>
-    <mergeCell ref="BK5:BM5"/>
-    <mergeCell ref="BR5:BT5"/>
-    <mergeCell ref="CC5:CE5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="84">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>3-Ene--24</t>
+  </si>
+  <si>
+    <t>ENERO.,2024</t>
+  </si>
+  <si>
+    <t>2  0  2  4</t>
   </si>
 </sst>
 </file>
@@ -1591,6 +1597,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="18" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="18" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="18" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="18" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1624,51 +1662,19 @@
     <xf numFmtId="44" fontId="15" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="18" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="18" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="18" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="18" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2033,11 +2039,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="208" t="s">
+      <c r="B5" s="220" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="208"/>
-      <c r="D5" s="208"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="220"/>
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -2228,22 +2234,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="209" t="s">
+      <c r="C2" s="221" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="210" t="s">
+      <c r="D3" s="222" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="211"/>
-      <c r="F3" s="212"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="224"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2916,8 +2922,8 @@
   <dimension ref="A2:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2942,48 +2948,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="209" t="s">
+      <c r="C2" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
     </row>
     <row r="3" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="210" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="211"/>
-      <c r="F3" s="212"/>
+      <c r="D3" s="222" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="223"/>
+      <c r="F3" s="224"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:18" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="225" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="213"/>
-      <c r="H4" s="214" t="s">
+      <c r="C4" s="225"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="225"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="225"/>
+      <c r="H4" s="226" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
-      <c r="K4" s="215"/>
-      <c r="L4" s="215"/>
-      <c r="M4" s="216"/>
+      <c r="I4" s="227"/>
+      <c r="J4" s="227"/>
+      <c r="K4" s="227"/>
+      <c r="L4" s="227"/>
+      <c r="M4" s="228"/>
       <c r="N4" s="136"/>
       <c r="O4" s="136"/>
       <c r="P4" s="136"/>
-      <c r="Q4" s="217" t="s">
+      <c r="Q4" s="229" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="218"/>
+      <c r="R4" s="230"/>
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -3591,7 +3597,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="21" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
@@ -3637,7 +3643,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="21" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
@@ -3683,7 +3689,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="21" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -3729,7 +3735,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="21" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
@@ -3775,7 +3781,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
@@ -3819,7 +3825,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
@@ -3865,7 +3871,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="72" t="s">
         <v>60</v>
       </c>
@@ -3911,7 +3917,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="186">
         <v>45159</v>
       </c>
@@ -3937,7 +3943,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="32.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>60</v>
       </c>
@@ -3987,7 +3993,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>64</v>
       </c>
@@ -4041,7 +4047,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>67</v>
       </c>
@@ -4095,7 +4101,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>68</v>
       </c>
@@ -4149,7 +4155,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>71</v>
       </c>
@@ -4203,7 +4209,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="207" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" s="207" customFormat="1" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="7" t="s">
         <v>79</v>
@@ -4256,35 +4262,45 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="224"/>
-      <c r="B32" s="225"/>
-      <c r="C32" s="226"/>
-      <c r="D32" s="227"/>
-      <c r="E32" s="228"/>
-      <c r="F32" s="227"/>
-      <c r="G32" s="229"/>
-      <c r="H32" s="230"/>
-      <c r="I32" s="226"/>
-      <c r="J32" s="230"/>
-      <c r="K32" s="231"/>
-      <c r="L32" s="232"/>
-      <c r="M32" s="233"/>
-      <c r="N32" s="232"/>
-      <c r="O32" s="233"/>
-      <c r="P32" s="234"/>
-      <c r="Q32" s="227"/>
-      <c r="R32" s="235"/>
+      <c r="A32" s="208"/>
+      <c r="B32" s="209"/>
+      <c r="C32" s="210"/>
+      <c r="D32" s="211"/>
+      <c r="E32" s="212"/>
+      <c r="F32" s="211"/>
+      <c r="G32" s="213"/>
+      <c r="H32" s="214"/>
+      <c r="I32" s="210"/>
+      <c r="J32" s="214"/>
+      <c r="K32" s="215"/>
+      <c r="L32" s="216"/>
+      <c r="M32" s="217"/>
+      <c r="N32" s="216"/>
+      <c r="O32" s="217"/>
+      <c r="P32" s="218"/>
+      <c r="Q32" s="211"/>
+      <c r="R32" s="219"/>
     </row>
     <row r="33" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
+      <c r="A33" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="B33" s="7"/>
       <c r="C33" s="37"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="82"/>
+      <c r="D33" s="9">
+        <v>1392</v>
+      </c>
+      <c r="E33" s="82">
+        <v>990</v>
+      </c>
       <c r="F33" s="9"/>
       <c r="G33" s="33"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="37"/>
+      <c r="H33" s="20">
+        <v>1856</v>
+      </c>
+      <c r="I33" s="37">
+        <v>989</v>
+      </c>
       <c r="J33" s="20"/>
       <c r="K33" s="39"/>
       <c r="L33" s="184"/>
@@ -4513,48 +4529,48 @@
       </c>
     </row>
     <row r="3" spans="2:132" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="CO3" s="208" t="s">
+      <c r="CO3" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="CP3" s="208"/>
-      <c r="CQ3" s="208"/>
+      <c r="CP3" s="220"/>
+      <c r="CQ3" s="220"/>
       <c r="CR3" s="60"/>
-      <c r="CU3" s="208" t="s">
+      <c r="CU3" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="CV3" s="208"/>
-      <c r="CW3" s="208"/>
+      <c r="CV3" s="220"/>
+      <c r="CW3" s="220"/>
       <c r="CX3" s="60"/>
-      <c r="DA3" s="208" t="s">
+      <c r="DA3" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="DB3" s="208"/>
-      <c r="DC3" s="208"/>
+      <c r="DB3" s="220"/>
+      <c r="DC3" s="220"/>
       <c r="DD3" s="60"/>
-      <c r="DF3" s="208" t="s">
+      <c r="DF3" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="DG3" s="208"/>
-      <c r="DH3" s="208"/>
+      <c r="DG3" s="220"/>
+      <c r="DH3" s="220"/>
       <c r="DI3" s="60"/>
-      <c r="DM3" s="208" t="s">
+      <c r="DM3" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="DN3" s="208"/>
-      <c r="DO3" s="208"/>
+      <c r="DN3" s="220"/>
+      <c r="DO3" s="220"/>
       <c r="DP3" s="60"/>
       <c r="DQ3" s="59"/>
-      <c r="DS3" s="208" t="s">
+      <c r="DS3" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="DT3" s="208"/>
-      <c r="DU3" s="208"/>
-      <c r="DV3" s="208"/>
-      <c r="DZ3" s="208" t="s">
+      <c r="DT3" s="220"/>
+      <c r="DU3" s="220"/>
+      <c r="DV3" s="220"/>
+      <c r="DZ3" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="EA3" s="208"/>
-      <c r="EB3" s="208"/>
+      <c r="EA3" s="220"/>
+      <c r="EB3" s="220"/>
     </row>
     <row r="4" spans="2:132" x14ac:dyDescent="0.25">
       <c r="B4" s="144"/>
@@ -4585,90 +4601,90 @@
       <c r="EB4" s="47"/>
     </row>
     <row r="5" spans="2:132" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="220"/>
-      <c r="D5" s="220"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
       <c r="E5" s="148"/>
-      <c r="J5" s="219" t="s">
+      <c r="J5" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="220"/>
-      <c r="L5" s="220"/>
+      <c r="K5" s="233"/>
+      <c r="L5" s="233"/>
       <c r="M5" s="148"/>
-      <c r="R5" s="219" t="s">
+      <c r="R5" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="S5" s="220"/>
-      <c r="T5" s="220"/>
+      <c r="S5" s="233"/>
+      <c r="T5" s="233"/>
       <c r="U5" s="148"/>
-      <c r="Z5" s="219" t="s">
+      <c r="Z5" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="AA5" s="220"/>
-      <c r="AB5" s="220"/>
+      <c r="AA5" s="233"/>
+      <c r="AB5" s="233"/>
       <c r="AC5" s="148"/>
-      <c r="AF5" s="219" t="s">
+      <c r="AF5" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="AG5" s="220"/>
-      <c r="AH5" s="220"/>
+      <c r="AG5" s="233"/>
+      <c r="AH5" s="233"/>
       <c r="AI5" s="148"/>
-      <c r="AL5" s="208" t="s">
+      <c r="AL5" s="220" t="s">
         <v>55</v>
       </c>
-      <c r="AM5" s="208"/>
-      <c r="AN5" s="208"/>
+      <c r="AM5" s="220"/>
+      <c r="AN5" s="220"/>
       <c r="AO5" s="60"/>
-      <c r="AS5" s="208" t="s">
+      <c r="AS5" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="AT5" s="208"/>
-      <c r="AU5" s="208"/>
+      <c r="AT5" s="220"/>
+      <c r="AU5" s="220"/>
       <c r="AV5" s="60"/>
-      <c r="AY5" s="208" t="s">
+      <c r="AY5" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="AZ5" s="208"/>
-      <c r="BA5" s="208"/>
+      <c r="AZ5" s="220"/>
+      <c r="BA5" s="220"/>
       <c r="BB5" s="60"/>
-      <c r="BE5" s="208" t="s">
+      <c r="BE5" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="BF5" s="208"/>
-      <c r="BG5" s="208"/>
+      <c r="BF5" s="220"/>
+      <c r="BG5" s="220"/>
       <c r="BH5" s="60"/>
       <c r="BI5" s="85"/>
-      <c r="BK5" s="208" t="s">
+      <c r="BK5" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="BL5" s="208"/>
-      <c r="BM5" s="208"/>
+      <c r="BL5" s="220"/>
+      <c r="BM5" s="220"/>
       <c r="BN5" s="60"/>
-      <c r="BR5" s="208" t="s">
+      <c r="BR5" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="BS5" s="208"/>
-      <c r="BT5" s="208"/>
+      <c r="BS5" s="220"/>
+      <c r="BT5" s="220"/>
       <c r="BU5" s="60"/>
-      <c r="BW5" s="208" t="s">
+      <c r="BW5" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="BX5" s="208"/>
-      <c r="BY5" s="208"/>
+      <c r="BX5" s="220"/>
+      <c r="BY5" s="220"/>
       <c r="BZ5" s="60"/>
-      <c r="CC5" s="208" t="s">
+      <c r="CC5" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="CD5" s="208"/>
-      <c r="CE5" s="208"/>
+      <c r="CD5" s="220"/>
+      <c r="CE5" s="220"/>
       <c r="CF5" s="60"/>
-      <c r="CI5" s="208" t="s">
+      <c r="CI5" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="CJ5" s="208"/>
-      <c r="CK5" s="208"/>
+      <c r="CJ5" s="220"/>
+      <c r="CK5" s="220"/>
       <c r="CL5" s="60"/>
       <c r="CO5" s="61" t="s">
         <v>23</v>
@@ -4720,10 +4736,10 @@
       <c r="DP5" s="51">
         <v>44747</v>
       </c>
-      <c r="DS5" s="223" t="s">
+      <c r="DS5" s="231" t="s">
         <v>23</v>
       </c>
-      <c r="DT5" s="223"/>
+      <c r="DT5" s="231"/>
       <c r="DU5" s="45" t="s">
         <v>15</v>
       </c>
@@ -4741,35 +4757,35 @@
       </c>
     </row>
     <row r="6" spans="2:132" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="221" t="s">
+      <c r="B6" s="234" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="222"/>
-      <c r="D6" s="222"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
       <c r="E6" s="149"/>
-      <c r="J6" s="221" t="s">
+      <c r="J6" s="234" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="222"/>
-      <c r="L6" s="222"/>
+      <c r="K6" s="235"/>
+      <c r="L6" s="235"/>
       <c r="M6" s="149"/>
-      <c r="R6" s="221" t="s">
+      <c r="R6" s="234" t="s">
         <v>62</v>
       </c>
-      <c r="S6" s="222"/>
-      <c r="T6" s="222"/>
+      <c r="S6" s="235"/>
+      <c r="T6" s="235"/>
       <c r="U6" s="149"/>
-      <c r="Z6" s="221" t="s">
+      <c r="Z6" s="234" t="s">
         <v>62</v>
       </c>
-      <c r="AA6" s="222"/>
-      <c r="AB6" s="222"/>
+      <c r="AA6" s="235"/>
+      <c r="AB6" s="235"/>
       <c r="AC6" s="149"/>
-      <c r="AF6" s="221" t="s">
+      <c r="AF6" s="234" t="s">
         <v>62</v>
       </c>
-      <c r="AG6" s="222"/>
-      <c r="AH6" s="222"/>
+      <c r="AG6" s="235"/>
+      <c r="AH6" s="235"/>
       <c r="AI6" s="149"/>
       <c r="AO6" s="47"/>
       <c r="AV6" s="47"/>
@@ -6754,19 +6770,6 @@
     <sortCondition ref="E8:E22"/>
   </sortState>
   <mergeCells count="27">
-    <mergeCell ref="DS5:DT5"/>
-    <mergeCell ref="CI5:CK5"/>
-    <mergeCell ref="BE5:BG5"/>
-    <mergeCell ref="BK5:BM5"/>
-    <mergeCell ref="BR5:BT5"/>
-    <mergeCell ref="CC5:CE5"/>
-    <mergeCell ref="DZ3:EB3"/>
-    <mergeCell ref="DM3:DO3"/>
-    <mergeCell ref="DF3:DH3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CU3:CW3"/>
-    <mergeCell ref="DA3:DC3"/>
-    <mergeCell ref="DS3:DV3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="J5:L5"/>
@@ -6781,6 +6784,19 @@
     <mergeCell ref="AL5:AN5"/>
     <mergeCell ref="AS5:AU5"/>
     <mergeCell ref="AY5:BA5"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="DM3:DO3"/>
+    <mergeCell ref="DF3:DH3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CU3:CW3"/>
+    <mergeCell ref="DA3:DC3"/>
+    <mergeCell ref="DS3:DV3"/>
+    <mergeCell ref="DS5:DT5"/>
+    <mergeCell ref="CI5:CK5"/>
+    <mergeCell ref="BE5:BG5"/>
+    <mergeCell ref="BK5:BM5"/>
+    <mergeCell ref="BR5:BT5"/>
+    <mergeCell ref="CC5:CE5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="85">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>2  0  2  4</t>
+  </si>
+  <si>
+    <t>5-Ene.,23</t>
   </si>
 </sst>
 </file>
@@ -1662,20 +1665,20 @@
     <xf numFmtId="44" fontId="15" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2923,7 +2926,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4319,8 +4322,12 @@
       <c r="E34" s="82"/>
       <c r="F34" s="9"/>
       <c r="G34" s="33"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="37"/>
+      <c r="H34" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" s="37" t="s">
+        <v>75</v>
+      </c>
       <c r="J34" s="20"/>
       <c r="K34" s="39"/>
       <c r="L34" s="184"/>
@@ -4601,35 +4608,35 @@
       <c r="EB4" s="47"/>
     </row>
     <row r="5" spans="2:132" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="232" t="s">
+      <c r="B5" s="231" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
+      <c r="C5" s="232"/>
+      <c r="D5" s="232"/>
       <c r="E5" s="148"/>
-      <c r="J5" s="232" t="s">
+      <c r="J5" s="231" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="233"/>
-      <c r="L5" s="233"/>
+      <c r="K5" s="232"/>
+      <c r="L5" s="232"/>
       <c r="M5" s="148"/>
-      <c r="R5" s="232" t="s">
+      <c r="R5" s="231" t="s">
         <v>55</v>
       </c>
-      <c r="S5" s="233"/>
-      <c r="T5" s="233"/>
+      <c r="S5" s="232"/>
+      <c r="T5" s="232"/>
       <c r="U5" s="148"/>
-      <c r="Z5" s="232" t="s">
+      <c r="Z5" s="231" t="s">
         <v>55</v>
       </c>
-      <c r="AA5" s="233"/>
-      <c r="AB5" s="233"/>
+      <c r="AA5" s="232"/>
+      <c r="AB5" s="232"/>
       <c r="AC5" s="148"/>
-      <c r="AF5" s="232" t="s">
+      <c r="AF5" s="231" t="s">
         <v>55</v>
       </c>
-      <c r="AG5" s="233"/>
-      <c r="AH5" s="233"/>
+      <c r="AG5" s="232"/>
+      <c r="AH5" s="232"/>
       <c r="AI5" s="148"/>
       <c r="AL5" s="220" t="s">
         <v>55</v>
@@ -4736,10 +4743,10 @@
       <c r="DP5" s="51">
         <v>44747</v>
       </c>
-      <c r="DS5" s="231" t="s">
+      <c r="DS5" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="DT5" s="231"/>
+      <c r="DT5" s="235"/>
       <c r="DU5" s="45" t="s">
         <v>15</v>
       </c>
@@ -4757,35 +4764,35 @@
       </c>
     </row>
     <row r="6" spans="2:132" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="234" t="s">
+      <c r="B6" s="233" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="235"/>
-      <c r="D6" s="235"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
       <c r="E6" s="149"/>
-      <c r="J6" s="234" t="s">
+      <c r="J6" s="233" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="235"/>
-      <c r="L6" s="235"/>
+      <c r="K6" s="234"/>
+      <c r="L6" s="234"/>
       <c r="M6" s="149"/>
-      <c r="R6" s="234" t="s">
+      <c r="R6" s="233" t="s">
         <v>62</v>
       </c>
-      <c r="S6" s="235"/>
-      <c r="T6" s="235"/>
+      <c r="S6" s="234"/>
+      <c r="T6" s="234"/>
       <c r="U6" s="149"/>
-      <c r="Z6" s="234" t="s">
+      <c r="Z6" s="233" t="s">
         <v>62</v>
       </c>
-      <c r="AA6" s="235"/>
-      <c r="AB6" s="235"/>
+      <c r="AA6" s="234"/>
+      <c r="AB6" s="234"/>
       <c r="AC6" s="149"/>
-      <c r="AF6" s="234" t="s">
+      <c r="AF6" s="233" t="s">
         <v>62</v>
       </c>
-      <c r="AG6" s="235"/>
-      <c r="AH6" s="235"/>
+      <c r="AG6" s="234"/>
+      <c r="AH6" s="234"/>
       <c r="AI6" s="149"/>
       <c r="AO6" s="47"/>
       <c r="AV6" s="47"/>
@@ -6770,6 +6777,19 @@
     <sortCondition ref="E8:E22"/>
   </sortState>
   <mergeCells count="27">
+    <mergeCell ref="DS5:DT5"/>
+    <mergeCell ref="CI5:CK5"/>
+    <mergeCell ref="BE5:BG5"/>
+    <mergeCell ref="BK5:BM5"/>
+    <mergeCell ref="BR5:BT5"/>
+    <mergeCell ref="CC5:CE5"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="DM3:DO3"/>
+    <mergeCell ref="DF3:DH3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CU3:CW3"/>
+    <mergeCell ref="DA3:DC3"/>
+    <mergeCell ref="DS3:DV3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="J5:L5"/>
@@ -6784,19 +6804,6 @@
     <mergeCell ref="AL5:AN5"/>
     <mergeCell ref="AS5:AU5"/>
     <mergeCell ref="AY5:BA5"/>
-    <mergeCell ref="DZ3:EB3"/>
-    <mergeCell ref="DM3:DO3"/>
-    <mergeCell ref="DF3:DH3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CU3:CW3"/>
-    <mergeCell ref="DA3:DC3"/>
-    <mergeCell ref="DS3:DV3"/>
-    <mergeCell ref="DS5:DT5"/>
-    <mergeCell ref="CI5:CK5"/>
-    <mergeCell ref="BE5:BG5"/>
-    <mergeCell ref="BK5:BM5"/>
-    <mergeCell ref="BR5:BT5"/>
-    <mergeCell ref="CC5:CE5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="86">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>5-Ene.,23</t>
+  </si>
+  <si>
+    <t>8-ENE--24</t>
   </si>
 </sst>
 </file>
@@ -2924,9 +2927,9 @@
   </sheetPr>
   <dimension ref="A2:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4304,8 +4307,12 @@
       <c r="I33" s="37">
         <v>989</v>
       </c>
-      <c r="J33" s="20"/>
-      <c r="K33" s="39"/>
+      <c r="J33" s="20">
+        <v>1392</v>
+      </c>
+      <c r="K33" s="39">
+        <v>991</v>
+      </c>
       <c r="L33" s="184"/>
       <c r="M33" s="127"/>
       <c r="N33" s="184"/>
@@ -4318,8 +4325,12 @@
       <c r="A34" s="5"/>
       <c r="B34" s="7"/>
       <c r="C34" s="37"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="82"/>
+      <c r="D34" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="82" t="s">
+        <v>80</v>
+      </c>
       <c r="F34" s="9"/>
       <c r="G34" s="33"/>
       <c r="H34" s="20" t="s">

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -1668,20 +1668,20 @@
     <xf numFmtId="44" fontId="15" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2929,7 +2929,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <selection pane="bottomLeft" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4313,8 +4313,12 @@
       <c r="K33" s="39">
         <v>991</v>
       </c>
-      <c r="L33" s="184"/>
-      <c r="M33" s="127"/>
+      <c r="L33" s="184">
+        <v>1624</v>
+      </c>
+      <c r="M33" s="127">
+        <v>996</v>
+      </c>
       <c r="N33" s="184"/>
       <c r="O33" s="127"/>
       <c r="P33" s="138"/>
@@ -4619,35 +4623,35 @@
       <c r="EB4" s="47"/>
     </row>
     <row r="5" spans="2:132" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="231" t="s">
+      <c r="B5" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="232"/>
-      <c r="D5" s="232"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
       <c r="E5" s="148"/>
-      <c r="J5" s="231" t="s">
+      <c r="J5" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="232"/>
-      <c r="L5" s="232"/>
+      <c r="K5" s="233"/>
+      <c r="L5" s="233"/>
       <c r="M5" s="148"/>
-      <c r="R5" s="231" t="s">
+      <c r="R5" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="S5" s="232"/>
-      <c r="T5" s="232"/>
+      <c r="S5" s="233"/>
+      <c r="T5" s="233"/>
       <c r="U5" s="148"/>
-      <c r="Z5" s="231" t="s">
+      <c r="Z5" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="AA5" s="232"/>
-      <c r="AB5" s="232"/>
+      <c r="AA5" s="233"/>
+      <c r="AB5" s="233"/>
       <c r="AC5" s="148"/>
-      <c r="AF5" s="231" t="s">
+      <c r="AF5" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="AG5" s="232"/>
-      <c r="AH5" s="232"/>
+      <c r="AG5" s="233"/>
+      <c r="AH5" s="233"/>
       <c r="AI5" s="148"/>
       <c r="AL5" s="220" t="s">
         <v>55</v>
@@ -4754,10 +4758,10 @@
       <c r="DP5" s="51">
         <v>44747</v>
       </c>
-      <c r="DS5" s="235" t="s">
+      <c r="DS5" s="231" t="s">
         <v>23</v>
       </c>
-      <c r="DT5" s="235"/>
+      <c r="DT5" s="231"/>
       <c r="DU5" s="45" t="s">
         <v>15</v>
       </c>
@@ -4775,35 +4779,35 @@
       </c>
     </row>
     <row r="6" spans="2:132" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="233" t="s">
+      <c r="B6" s="234" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
       <c r="E6" s="149"/>
-      <c r="J6" s="233" t="s">
+      <c r="J6" s="234" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="234"/>
-      <c r="L6" s="234"/>
+      <c r="K6" s="235"/>
+      <c r="L6" s="235"/>
       <c r="M6" s="149"/>
-      <c r="R6" s="233" t="s">
+      <c r="R6" s="234" t="s">
         <v>62</v>
       </c>
-      <c r="S6" s="234"/>
-      <c r="T6" s="234"/>
+      <c r="S6" s="235"/>
+      <c r="T6" s="235"/>
       <c r="U6" s="149"/>
-      <c r="Z6" s="233" t="s">
+      <c r="Z6" s="234" t="s">
         <v>62</v>
       </c>
-      <c r="AA6" s="234"/>
-      <c r="AB6" s="234"/>
+      <c r="AA6" s="235"/>
+      <c r="AB6" s="235"/>
       <c r="AC6" s="149"/>
-      <c r="AF6" s="233" t="s">
+      <c r="AF6" s="234" t="s">
         <v>62</v>
       </c>
-      <c r="AG6" s="234"/>
-      <c r="AH6" s="234"/>
+      <c r="AG6" s="235"/>
+      <c r="AH6" s="235"/>
       <c r="AI6" s="149"/>
       <c r="AO6" s="47"/>
       <c r="AV6" s="47"/>
@@ -6788,19 +6792,6 @@
     <sortCondition ref="E8:E22"/>
   </sortState>
   <mergeCells count="27">
-    <mergeCell ref="DS5:DT5"/>
-    <mergeCell ref="CI5:CK5"/>
-    <mergeCell ref="BE5:BG5"/>
-    <mergeCell ref="BK5:BM5"/>
-    <mergeCell ref="BR5:BT5"/>
-    <mergeCell ref="CC5:CE5"/>
-    <mergeCell ref="DZ3:EB3"/>
-    <mergeCell ref="DM3:DO3"/>
-    <mergeCell ref="DF3:DH3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CU3:CW3"/>
-    <mergeCell ref="DA3:DC3"/>
-    <mergeCell ref="DS3:DV3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="J5:L5"/>
@@ -6815,6 +6806,19 @@
     <mergeCell ref="AL5:AN5"/>
     <mergeCell ref="AS5:AU5"/>
     <mergeCell ref="AY5:BA5"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="DM3:DO3"/>
+    <mergeCell ref="DF3:DH3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CU3:CW3"/>
+    <mergeCell ref="DA3:DC3"/>
+    <mergeCell ref="DS3:DV3"/>
+    <mergeCell ref="DS5:DT5"/>
+    <mergeCell ref="CI5:CK5"/>
+    <mergeCell ref="BE5:BG5"/>
+    <mergeCell ref="BK5:BM5"/>
+    <mergeCell ref="BR5:BT5"/>
+    <mergeCell ref="CC5:CE5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="87">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>8-ENE--24</t>
+  </si>
+  <si>
+    <t>8-Ene-,23</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1668,20 +1671,23 @@
     <xf numFmtId="44" fontId="15" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="5" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1692,6 +1698,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF66FFFF"/>
@@ -1700,7 +1707,6 @@
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFF66FF"/>
       <color rgb="FF66CCFF"/>
-      <color rgb="FFCC99FF"/>
       <color rgb="FF0066FF"/>
     </mruColors>
   </colors>
@@ -2927,9 +2933,9 @@
   </sheetPr>
   <dimension ref="A2:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3044,7 +3050,7 @@
         <v>5</v>
       </c>
       <c r="P5" s="137"/>
-      <c r="Q5" s="90" t="s">
+      <c r="Q5" s="236" t="s">
         <v>59</v>
       </c>
       <c r="R5" s="25" t="s">
@@ -4291,8 +4297,12 @@
       <c r="A33" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="37"/>
+      <c r="B33" s="7">
+        <v>986</v>
+      </c>
+      <c r="C33" s="37">
+        <v>997</v>
+      </c>
       <c r="D33" s="9">
         <v>1392</v>
       </c>
@@ -4343,8 +4353,12 @@
       <c r="I34" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="J34" s="20"/>
-      <c r="K34" s="39"/>
+      <c r="J34" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="K34" s="39" t="s">
+        <v>80</v>
+      </c>
       <c r="L34" s="184"/>
       <c r="M34" s="127"/>
       <c r="N34" s="184"/>
@@ -4623,35 +4637,35 @@
       <c r="EB4" s="47"/>
     </row>
     <row r="5" spans="2:132" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="232" t="s">
+      <c r="B5" s="231" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
+      <c r="C5" s="232"/>
+      <c r="D5" s="232"/>
       <c r="E5" s="148"/>
-      <c r="J5" s="232" t="s">
+      <c r="J5" s="231" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="233"/>
-      <c r="L5" s="233"/>
+      <c r="K5" s="232"/>
+      <c r="L5" s="232"/>
       <c r="M5" s="148"/>
-      <c r="R5" s="232" t="s">
+      <c r="R5" s="231" t="s">
         <v>55</v>
       </c>
-      <c r="S5" s="233"/>
-      <c r="T5" s="233"/>
+      <c r="S5" s="232"/>
+      <c r="T5" s="232"/>
       <c r="U5" s="148"/>
-      <c r="Z5" s="232" t="s">
+      <c r="Z5" s="231" t="s">
         <v>55</v>
       </c>
-      <c r="AA5" s="233"/>
-      <c r="AB5" s="233"/>
+      <c r="AA5" s="232"/>
+      <c r="AB5" s="232"/>
       <c r="AC5" s="148"/>
-      <c r="AF5" s="232" t="s">
+      <c r="AF5" s="231" t="s">
         <v>55</v>
       </c>
-      <c r="AG5" s="233"/>
-      <c r="AH5" s="233"/>
+      <c r="AG5" s="232"/>
+      <c r="AH5" s="232"/>
       <c r="AI5" s="148"/>
       <c r="AL5" s="220" t="s">
         <v>55</v>
@@ -4758,10 +4772,10 @@
       <c r="DP5" s="51">
         <v>44747</v>
       </c>
-      <c r="DS5" s="231" t="s">
+      <c r="DS5" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="DT5" s="231"/>
+      <c r="DT5" s="235"/>
       <c r="DU5" s="45" t="s">
         <v>15</v>
       </c>
@@ -4779,35 +4793,35 @@
       </c>
     </row>
     <row r="6" spans="2:132" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="234" t="s">
+      <c r="B6" s="233" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="235"/>
-      <c r="D6" s="235"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
       <c r="E6" s="149"/>
-      <c r="J6" s="234" t="s">
+      <c r="J6" s="233" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="235"/>
-      <c r="L6" s="235"/>
+      <c r="K6" s="234"/>
+      <c r="L6" s="234"/>
       <c r="M6" s="149"/>
-      <c r="R6" s="234" t="s">
+      <c r="R6" s="233" t="s">
         <v>62</v>
       </c>
-      <c r="S6" s="235"/>
-      <c r="T6" s="235"/>
+      <c r="S6" s="234"/>
+      <c r="T6" s="234"/>
       <c r="U6" s="149"/>
-      <c r="Z6" s="234" t="s">
+      <c r="Z6" s="233" t="s">
         <v>62</v>
       </c>
-      <c r="AA6" s="235"/>
-      <c r="AB6" s="235"/>
+      <c r="AA6" s="234"/>
+      <c r="AB6" s="234"/>
       <c r="AC6" s="149"/>
-      <c r="AF6" s="234" t="s">
+      <c r="AF6" s="233" t="s">
         <v>62</v>
       </c>
-      <c r="AG6" s="235"/>
-      <c r="AH6" s="235"/>
+      <c r="AG6" s="234"/>
+      <c r="AH6" s="234"/>
       <c r="AI6" s="149"/>
       <c r="AO6" s="47"/>
       <c r="AV6" s="47"/>
@@ -6792,6 +6806,19 @@
     <sortCondition ref="E8:E22"/>
   </sortState>
   <mergeCells count="27">
+    <mergeCell ref="DS5:DT5"/>
+    <mergeCell ref="CI5:CK5"/>
+    <mergeCell ref="BE5:BG5"/>
+    <mergeCell ref="BK5:BM5"/>
+    <mergeCell ref="BR5:BT5"/>
+    <mergeCell ref="CC5:CE5"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="DM3:DO3"/>
+    <mergeCell ref="DF3:DH3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CU3:CW3"/>
+    <mergeCell ref="DA3:DC3"/>
+    <mergeCell ref="DS3:DV3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="J5:L5"/>
@@ -6806,19 +6833,6 @@
     <mergeCell ref="AL5:AN5"/>
     <mergeCell ref="AS5:AU5"/>
     <mergeCell ref="AY5:BA5"/>
-    <mergeCell ref="DZ3:EB3"/>
-    <mergeCell ref="DM3:DO3"/>
-    <mergeCell ref="DF3:DH3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CU3:CW3"/>
-    <mergeCell ref="DA3:DC3"/>
-    <mergeCell ref="DS3:DV3"/>
-    <mergeCell ref="DS5:DT5"/>
-    <mergeCell ref="CI5:CK5"/>
-    <mergeCell ref="BE5:BG5"/>
-    <mergeCell ref="BK5:BM5"/>
-    <mergeCell ref="BR5:BT5"/>
-    <mergeCell ref="CC5:CE5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="91">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -291,6 +291,18 @@
   </si>
   <si>
     <t>8-Ene-,23</t>
+  </si>
+  <si>
+    <t>15-Ene-,23</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>15-Ene.,24</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -302,7 +314,7 @@
     <numFmt numFmtId="164" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +447,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -1109,7 +1137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1638,6 +1666,12 @@
     <xf numFmtId="0" fontId="9" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="5" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1686,8 +1720,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2051,11 +2085,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="220" t="s">
+      <c r="B5" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="220"/>
-      <c r="D5" s="220"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="222"/>
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -2246,22 +2280,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="221" t="s">
+      <c r="C2" s="223" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="222" t="s">
+      <c r="D3" s="224" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="223"/>
-      <c r="F3" s="224"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="226"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2933,9 +2967,9 @@
   </sheetPr>
   <dimension ref="A2:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2960,48 +2994,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="221" t="s">
+      <c r="C2" s="223" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
     </row>
     <row r="3" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="222" t="s">
+      <c r="D3" s="224" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="223"/>
-      <c r="F3" s="224"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="226"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:18" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="225" t="s">
+      <c r="B4" s="227" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="225"/>
-      <c r="H4" s="226" t="s">
+      <c r="C4" s="227"/>
+      <c r="D4" s="227"/>
+      <c r="E4" s="227"/>
+      <c r="F4" s="227"/>
+      <c r="G4" s="227"/>
+      <c r="H4" s="228" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="227"/>
-      <c r="J4" s="227"/>
-      <c r="K4" s="227"/>
-      <c r="L4" s="227"/>
-      <c r="M4" s="228"/>
+      <c r="I4" s="229"/>
+      <c r="J4" s="229"/>
+      <c r="K4" s="229"/>
+      <c r="L4" s="229"/>
+      <c r="M4" s="230"/>
       <c r="N4" s="136"/>
       <c r="O4" s="136"/>
       <c r="P4" s="136"/>
-      <c r="Q4" s="229" t="s">
+      <c r="Q4" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="230"/>
+      <c r="R4" s="232"/>
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -3050,7 +3084,7 @@
         <v>5</v>
       </c>
       <c r="P5" s="137"/>
-      <c r="Q5" s="236" t="s">
+      <c r="Q5" s="220" t="s">
         <v>59</v>
       </c>
       <c r="R5" s="25" t="s">
@@ -4335,10 +4369,14 @@
       <c r="Q33" s="9"/>
       <c r="R33" s="42"/>
     </row>
-    <row r="34" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="5"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="221" t="s">
+        <v>88</v>
+      </c>
       <c r="D34" s="9" t="s">
         <v>85</v>
       </c>
@@ -4359,8 +4397,12 @@
       <c r="K34" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="L34" s="184"/>
-      <c r="M34" s="127"/>
+      <c r="L34" s="184" t="s">
+        <v>89</v>
+      </c>
+      <c r="M34" s="238" t="s">
+        <v>90</v>
+      </c>
       <c r="N34" s="184"/>
       <c r="O34" s="127"/>
       <c r="P34" s="138"/>
@@ -4565,48 +4607,48 @@
       </c>
     </row>
     <row r="3" spans="2:132" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="CO3" s="220" t="s">
+      <c r="CO3" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="CP3" s="220"/>
-      <c r="CQ3" s="220"/>
+      <c r="CP3" s="222"/>
+      <c r="CQ3" s="222"/>
       <c r="CR3" s="60"/>
-      <c r="CU3" s="220" t="s">
+      <c r="CU3" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="CV3" s="220"/>
-      <c r="CW3" s="220"/>
+      <c r="CV3" s="222"/>
+      <c r="CW3" s="222"/>
       <c r="CX3" s="60"/>
-      <c r="DA3" s="220" t="s">
+      <c r="DA3" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="DB3" s="220"/>
-      <c r="DC3" s="220"/>
+      <c r="DB3" s="222"/>
+      <c r="DC3" s="222"/>
       <c r="DD3" s="60"/>
-      <c r="DF3" s="220" t="s">
+      <c r="DF3" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="DG3" s="220"/>
-      <c r="DH3" s="220"/>
+      <c r="DG3" s="222"/>
+      <c r="DH3" s="222"/>
       <c r="DI3" s="60"/>
-      <c r="DM3" s="220" t="s">
+      <c r="DM3" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="DN3" s="220"/>
-      <c r="DO3" s="220"/>
+      <c r="DN3" s="222"/>
+      <c r="DO3" s="222"/>
       <c r="DP3" s="60"/>
       <c r="DQ3" s="59"/>
-      <c r="DS3" s="220" t="s">
+      <c r="DS3" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="DT3" s="220"/>
-      <c r="DU3" s="220"/>
-      <c r="DV3" s="220"/>
-      <c r="DZ3" s="220" t="s">
+      <c r="DT3" s="222"/>
+      <c r="DU3" s="222"/>
+      <c r="DV3" s="222"/>
+      <c r="DZ3" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="EA3" s="220"/>
-      <c r="EB3" s="220"/>
+      <c r="EA3" s="222"/>
+      <c r="EB3" s="222"/>
     </row>
     <row r="4" spans="2:132" x14ac:dyDescent="0.25">
       <c r="B4" s="144"/>
@@ -4637,90 +4679,90 @@
       <c r="EB4" s="47"/>
     </row>
     <row r="5" spans="2:132" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="231" t="s">
+      <c r="B5" s="233" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="232"/>
-      <c r="D5" s="232"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="234"/>
       <c r="E5" s="148"/>
-      <c r="J5" s="231" t="s">
+      <c r="J5" s="233" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="232"/>
-      <c r="L5" s="232"/>
+      <c r="K5" s="234"/>
+      <c r="L5" s="234"/>
       <c r="M5" s="148"/>
-      <c r="R5" s="231" t="s">
+      <c r="R5" s="233" t="s">
         <v>55</v>
       </c>
-      <c r="S5" s="232"/>
-      <c r="T5" s="232"/>
+      <c r="S5" s="234"/>
+      <c r="T5" s="234"/>
       <c r="U5" s="148"/>
-      <c r="Z5" s="231" t="s">
+      <c r="Z5" s="233" t="s">
         <v>55</v>
       </c>
-      <c r="AA5" s="232"/>
-      <c r="AB5" s="232"/>
+      <c r="AA5" s="234"/>
+      <c r="AB5" s="234"/>
       <c r="AC5" s="148"/>
-      <c r="AF5" s="231" t="s">
+      <c r="AF5" s="233" t="s">
         <v>55</v>
       </c>
-      <c r="AG5" s="232"/>
-      <c r="AH5" s="232"/>
+      <c r="AG5" s="234"/>
+      <c r="AH5" s="234"/>
       <c r="AI5" s="148"/>
-      <c r="AL5" s="220" t="s">
+      <c r="AL5" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="AM5" s="220"/>
-      <c r="AN5" s="220"/>
+      <c r="AM5" s="222"/>
+      <c r="AN5" s="222"/>
       <c r="AO5" s="60"/>
-      <c r="AS5" s="220" t="s">
+      <c r="AS5" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="AT5" s="220"/>
-      <c r="AU5" s="220"/>
+      <c r="AT5" s="222"/>
+      <c r="AU5" s="222"/>
       <c r="AV5" s="60"/>
-      <c r="AY5" s="220" t="s">
+      <c r="AY5" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="AZ5" s="220"/>
-      <c r="BA5" s="220"/>
+      <c r="AZ5" s="222"/>
+      <c r="BA5" s="222"/>
       <c r="BB5" s="60"/>
-      <c r="BE5" s="220" t="s">
+      <c r="BE5" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="BF5" s="220"/>
-      <c r="BG5" s="220"/>
+      <c r="BF5" s="222"/>
+      <c r="BG5" s="222"/>
       <c r="BH5" s="60"/>
       <c r="BI5" s="85"/>
-      <c r="BK5" s="220" t="s">
+      <c r="BK5" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="BL5" s="220"/>
-      <c r="BM5" s="220"/>
+      <c r="BL5" s="222"/>
+      <c r="BM5" s="222"/>
       <c r="BN5" s="60"/>
-      <c r="BR5" s="220" t="s">
+      <c r="BR5" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="BS5" s="220"/>
-      <c r="BT5" s="220"/>
+      <c r="BS5" s="222"/>
+      <c r="BT5" s="222"/>
       <c r="BU5" s="60"/>
-      <c r="BW5" s="220" t="s">
+      <c r="BW5" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="BX5" s="220"/>
-      <c r="BY5" s="220"/>
+      <c r="BX5" s="222"/>
+      <c r="BY5" s="222"/>
       <c r="BZ5" s="60"/>
-      <c r="CC5" s="220" t="s">
+      <c r="CC5" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="CD5" s="220"/>
-      <c r="CE5" s="220"/>
+      <c r="CD5" s="222"/>
+      <c r="CE5" s="222"/>
       <c r="CF5" s="60"/>
-      <c r="CI5" s="220" t="s">
+      <c r="CI5" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="CJ5" s="220"/>
-      <c r="CK5" s="220"/>
+      <c r="CJ5" s="222"/>
+      <c r="CK5" s="222"/>
       <c r="CL5" s="60"/>
       <c r="CO5" s="61" t="s">
         <v>23</v>
@@ -4772,10 +4814,10 @@
       <c r="DP5" s="51">
         <v>44747</v>
       </c>
-      <c r="DS5" s="235" t="s">
+      <c r="DS5" s="237" t="s">
         <v>23</v>
       </c>
-      <c r="DT5" s="235"/>
+      <c r="DT5" s="237"/>
       <c r="DU5" s="45" t="s">
         <v>15</v>
       </c>
@@ -4793,35 +4835,35 @@
       </c>
     </row>
     <row r="6" spans="2:132" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="233" t="s">
+      <c r="B6" s="235" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
       <c r="E6" s="149"/>
-      <c r="J6" s="233" t="s">
+      <c r="J6" s="235" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="234"/>
-      <c r="L6" s="234"/>
+      <c r="K6" s="236"/>
+      <c r="L6" s="236"/>
       <c r="M6" s="149"/>
-      <c r="R6" s="233" t="s">
+      <c r="R6" s="235" t="s">
         <v>62</v>
       </c>
-      <c r="S6" s="234"/>
-      <c r="T6" s="234"/>
+      <c r="S6" s="236"/>
+      <c r="T6" s="236"/>
       <c r="U6" s="149"/>
-      <c r="Z6" s="233" t="s">
+      <c r="Z6" s="235" t="s">
         <v>62</v>
       </c>
-      <c r="AA6" s="234"/>
-      <c r="AB6" s="234"/>
+      <c r="AA6" s="236"/>
+      <c r="AB6" s="236"/>
       <c r="AC6" s="149"/>
-      <c r="AF6" s="233" t="s">
+      <c r="AF6" s="235" t="s">
         <v>62</v>
       </c>
-      <c r="AG6" s="234"/>
-      <c r="AH6" s="234"/>
+      <c r="AG6" s="236"/>
+      <c r="AH6" s="236"/>
       <c r="AI6" s="149"/>
       <c r="AO6" s="47"/>
       <c r="AV6" s="47"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="92">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>17-Ene--24</t>
   </si>
 </sst>
 </file>
@@ -1672,6 +1675,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1705,22 +1711,19 @@
     <xf numFmtId="44" fontId="15" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2085,11 +2088,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="222" t="s">
+      <c r="B5" s="223" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="222"/>
-      <c r="D5" s="222"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="223"/>
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -2280,22 +2283,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="223" t="s">
+      <c r="C2" s="224" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="224" t="s">
+      <c r="D3" s="225" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="225"/>
-      <c r="F3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2967,9 +2970,9 @@
   </sheetPr>
   <dimension ref="A2:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S35" sqref="S35"/>
+      <selection pane="bottomLeft" activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2994,48 +2997,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="223" t="s">
+      <c r="C2" s="224" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
     </row>
     <row r="3" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="224" t="s">
+      <c r="D3" s="225" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="225"/>
-      <c r="F3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:18" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="227" t="s">
+      <c r="B4" s="228" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="228" t="s">
+      <c r="C4" s="228"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="228"/>
+      <c r="H4" s="229" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="229"/>
-      <c r="J4" s="229"/>
-      <c r="K4" s="229"/>
-      <c r="L4" s="229"/>
-      <c r="M4" s="230"/>
+      <c r="I4" s="230"/>
+      <c r="J4" s="230"/>
+      <c r="K4" s="230"/>
+      <c r="L4" s="230"/>
+      <c r="M4" s="231"/>
       <c r="N4" s="136"/>
       <c r="O4" s="136"/>
       <c r="P4" s="136"/>
-      <c r="Q4" s="231" t="s">
+      <c r="Q4" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="232"/>
+      <c r="R4" s="233"/>
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -4363,8 +4366,12 @@
       <c r="M33" s="127">
         <v>996</v>
       </c>
-      <c r="N33" s="184"/>
-      <c r="O33" s="127"/>
+      <c r="N33" s="184">
+        <v>986</v>
+      </c>
+      <c r="O33" s="127">
+        <v>999</v>
+      </c>
       <c r="P33" s="138"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="42"/>
@@ -4400,11 +4407,15 @@
       <c r="L34" s="184" t="s">
         <v>89</v>
       </c>
-      <c r="M34" s="238" t="s">
+      <c r="M34" s="222" t="s">
         <v>90</v>
       </c>
-      <c r="N34" s="184"/>
-      <c r="O34" s="127"/>
+      <c r="N34" s="184" t="s">
+        <v>91</v>
+      </c>
+      <c r="O34" s="127" t="s">
+        <v>80</v>
+      </c>
       <c r="P34" s="138"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="42"/>
@@ -4607,48 +4618,48 @@
       </c>
     </row>
     <row r="3" spans="2:132" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="CO3" s="222" t="s">
+      <c r="CO3" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="CP3" s="222"/>
-      <c r="CQ3" s="222"/>
+      <c r="CP3" s="223"/>
+      <c r="CQ3" s="223"/>
       <c r="CR3" s="60"/>
-      <c r="CU3" s="222" t="s">
+      <c r="CU3" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="CV3" s="222"/>
-      <c r="CW3" s="222"/>
+      <c r="CV3" s="223"/>
+      <c r="CW3" s="223"/>
       <c r="CX3" s="60"/>
-      <c r="DA3" s="222" t="s">
+      <c r="DA3" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="DB3" s="222"/>
-      <c r="DC3" s="222"/>
+      <c r="DB3" s="223"/>
+      <c r="DC3" s="223"/>
       <c r="DD3" s="60"/>
-      <c r="DF3" s="222" t="s">
+      <c r="DF3" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="DG3" s="222"/>
-      <c r="DH3" s="222"/>
+      <c r="DG3" s="223"/>
+      <c r="DH3" s="223"/>
       <c r="DI3" s="60"/>
-      <c r="DM3" s="222" t="s">
+      <c r="DM3" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="DN3" s="222"/>
-      <c r="DO3" s="222"/>
+      <c r="DN3" s="223"/>
+      <c r="DO3" s="223"/>
       <c r="DP3" s="60"/>
       <c r="DQ3" s="59"/>
-      <c r="DS3" s="222" t="s">
+      <c r="DS3" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="DT3" s="222"/>
-      <c r="DU3" s="222"/>
-      <c r="DV3" s="222"/>
-      <c r="DZ3" s="222" t="s">
+      <c r="DT3" s="223"/>
+      <c r="DU3" s="223"/>
+      <c r="DV3" s="223"/>
+      <c r="DZ3" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="EA3" s="222"/>
-      <c r="EB3" s="222"/>
+      <c r="EA3" s="223"/>
+      <c r="EB3" s="223"/>
     </row>
     <row r="4" spans="2:132" x14ac:dyDescent="0.25">
       <c r="B4" s="144"/>
@@ -4679,90 +4690,90 @@
       <c r="EB4" s="47"/>
     </row>
     <row r="5" spans="2:132" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="233" t="s">
+      <c r="B5" s="235" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
       <c r="E5" s="148"/>
-      <c r="J5" s="233" t="s">
+      <c r="J5" s="235" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="234"/>
-      <c r="L5" s="234"/>
+      <c r="K5" s="236"/>
+      <c r="L5" s="236"/>
       <c r="M5" s="148"/>
-      <c r="R5" s="233" t="s">
+      <c r="R5" s="235" t="s">
         <v>55</v>
       </c>
-      <c r="S5" s="234"/>
-      <c r="T5" s="234"/>
+      <c r="S5" s="236"/>
+      <c r="T5" s="236"/>
       <c r="U5" s="148"/>
-      <c r="Z5" s="233" t="s">
+      <c r="Z5" s="235" t="s">
         <v>55</v>
       </c>
-      <c r="AA5" s="234"/>
-      <c r="AB5" s="234"/>
+      <c r="AA5" s="236"/>
+      <c r="AB5" s="236"/>
       <c r="AC5" s="148"/>
-      <c r="AF5" s="233" t="s">
+      <c r="AF5" s="235" t="s">
         <v>55</v>
       </c>
-      <c r="AG5" s="234"/>
-      <c r="AH5" s="234"/>
+      <c r="AG5" s="236"/>
+      <c r="AH5" s="236"/>
       <c r="AI5" s="148"/>
-      <c r="AL5" s="222" t="s">
+      <c r="AL5" s="223" t="s">
         <v>55</v>
       </c>
-      <c r="AM5" s="222"/>
-      <c r="AN5" s="222"/>
+      <c r="AM5" s="223"/>
+      <c r="AN5" s="223"/>
       <c r="AO5" s="60"/>
-      <c r="AS5" s="222" t="s">
+      <c r="AS5" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="AT5" s="222"/>
-      <c r="AU5" s="222"/>
+      <c r="AT5" s="223"/>
+      <c r="AU5" s="223"/>
       <c r="AV5" s="60"/>
-      <c r="AY5" s="222" t="s">
+      <c r="AY5" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="AZ5" s="222"/>
-      <c r="BA5" s="222"/>
+      <c r="AZ5" s="223"/>
+      <c r="BA5" s="223"/>
       <c r="BB5" s="60"/>
-      <c r="BE5" s="222" t="s">
+      <c r="BE5" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="BF5" s="222"/>
-      <c r="BG5" s="222"/>
+      <c r="BF5" s="223"/>
+      <c r="BG5" s="223"/>
       <c r="BH5" s="60"/>
       <c r="BI5" s="85"/>
-      <c r="BK5" s="222" t="s">
+      <c r="BK5" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="BL5" s="222"/>
-      <c r="BM5" s="222"/>
+      <c r="BL5" s="223"/>
+      <c r="BM5" s="223"/>
       <c r="BN5" s="60"/>
-      <c r="BR5" s="222" t="s">
+      <c r="BR5" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="BS5" s="222"/>
-      <c r="BT5" s="222"/>
+      <c r="BS5" s="223"/>
+      <c r="BT5" s="223"/>
       <c r="BU5" s="60"/>
-      <c r="BW5" s="222" t="s">
+      <c r="BW5" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="BX5" s="222"/>
-      <c r="BY5" s="222"/>
+      <c r="BX5" s="223"/>
+      <c r="BY5" s="223"/>
       <c r="BZ5" s="60"/>
-      <c r="CC5" s="222" t="s">
+      <c r="CC5" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="CD5" s="222"/>
-      <c r="CE5" s="222"/>
+      <c r="CD5" s="223"/>
+      <c r="CE5" s="223"/>
       <c r="CF5" s="60"/>
-      <c r="CI5" s="222" t="s">
+      <c r="CI5" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="CJ5" s="222"/>
-      <c r="CK5" s="222"/>
+      <c r="CJ5" s="223"/>
+      <c r="CK5" s="223"/>
       <c r="CL5" s="60"/>
       <c r="CO5" s="61" t="s">
         <v>23</v>
@@ -4814,10 +4825,10 @@
       <c r="DP5" s="51">
         <v>44747</v>
       </c>
-      <c r="DS5" s="237" t="s">
+      <c r="DS5" s="234" t="s">
         <v>23</v>
       </c>
-      <c r="DT5" s="237"/>
+      <c r="DT5" s="234"/>
       <c r="DU5" s="45" t="s">
         <v>15</v>
       </c>
@@ -4835,35 +4846,35 @@
       </c>
     </row>
     <row r="6" spans="2:132" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="235" t="s">
+      <c r="B6" s="237" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="236"/>
-      <c r="D6" s="236"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
       <c r="E6" s="149"/>
-      <c r="J6" s="235" t="s">
+      <c r="J6" s="237" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="236"/>
-      <c r="L6" s="236"/>
+      <c r="K6" s="238"/>
+      <c r="L6" s="238"/>
       <c r="M6" s="149"/>
-      <c r="R6" s="235" t="s">
+      <c r="R6" s="237" t="s">
         <v>62</v>
       </c>
-      <c r="S6" s="236"/>
-      <c r="T6" s="236"/>
+      <c r="S6" s="238"/>
+      <c r="T6" s="238"/>
       <c r="U6" s="149"/>
-      <c r="Z6" s="235" t="s">
+      <c r="Z6" s="237" t="s">
         <v>62</v>
       </c>
-      <c r="AA6" s="236"/>
-      <c r="AB6" s="236"/>
+      <c r="AA6" s="238"/>
+      <c r="AB6" s="238"/>
       <c r="AC6" s="149"/>
-      <c r="AF6" s="235" t="s">
+      <c r="AF6" s="237" t="s">
         <v>62</v>
       </c>
-      <c r="AG6" s="236"/>
-      <c r="AH6" s="236"/>
+      <c r="AG6" s="238"/>
+      <c r="AH6" s="238"/>
       <c r="AI6" s="149"/>
       <c r="AO6" s="47"/>
       <c r="AV6" s="47"/>
@@ -6848,19 +6859,6 @@
     <sortCondition ref="E8:E22"/>
   </sortState>
   <mergeCells count="27">
-    <mergeCell ref="DS5:DT5"/>
-    <mergeCell ref="CI5:CK5"/>
-    <mergeCell ref="BE5:BG5"/>
-    <mergeCell ref="BK5:BM5"/>
-    <mergeCell ref="BR5:BT5"/>
-    <mergeCell ref="CC5:CE5"/>
-    <mergeCell ref="DZ3:EB3"/>
-    <mergeCell ref="DM3:DO3"/>
-    <mergeCell ref="DF3:DH3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CU3:CW3"/>
-    <mergeCell ref="DA3:DC3"/>
-    <mergeCell ref="DS3:DV3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="J5:L5"/>
@@ -6875,6 +6873,19 @@
     <mergeCell ref="AL5:AN5"/>
     <mergeCell ref="AS5:AU5"/>
     <mergeCell ref="AY5:BA5"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="DM3:DO3"/>
+    <mergeCell ref="DF3:DH3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CU3:CW3"/>
+    <mergeCell ref="DA3:DC3"/>
+    <mergeCell ref="DS3:DV3"/>
+    <mergeCell ref="DS5:DT5"/>
+    <mergeCell ref="CI5:CK5"/>
+    <mergeCell ref="BE5:BG5"/>
+    <mergeCell ref="BK5:BM5"/>
+    <mergeCell ref="BR5:BT5"/>
+    <mergeCell ref="CC5:CE5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
+++ b/01 DOCUEMENTOS/FUMIFACION RUBEN  2022.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="92">
   <si>
     <t>FUMIGACIONES DE   RUBEN VEGA MURAD</t>
   </si>
@@ -1140,7 +1140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1711,19 +1711,22 @@
     <xf numFmtId="44" fontId="15" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" border